--- a/data.xlsx
+++ b/data.xlsx
@@ -394,8 +394,7 @@
     <t>https://www.minisyrovarnya.com/restaurants/yoshkar-ola</t>
   </si>
   <si>
-    <t>нет участника Лосев Никита Сергеевич или
-Герасимов Сергей Андреевич</t>
+    <t xml:space="preserve">Подоплелова Екатерина Николаевна </t>
   </si>
   <si>
     <t>Сыроварня Краснодар</t>
@@ -425,7 +424,7 @@
     <t>https://krsk.maroon.rest/#popup:infoblock</t>
   </si>
   <si>
-    <t>Денисенко Андрей Дмитриевич</t>
+    <t>Капустина Ксения Александровна</t>
   </si>
   <si>
     <t>Сыроварня Махачкала</t>
@@ -1357,10 +1356,10 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
@@ -2833,15 +2832,13 @@
       <c r="J26" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="10" t="s">
         <v>123</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"нет участника Лосев Никита Сергеевич или
-Герасимов Сергей Андреевич")</f>
-        <v>нет участника Лосев Никита Сергеевич или
-Герасимов Сергей Андреевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Подоплелова Екатерина Николаевна ")</f>
+        <v>Подоплелова Екатерина Николаевна </v>
       </c>
       <c r="O26" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2919,15 +2916,15 @@
       <c r="J28" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="30" t="s">
         <v>133</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Денисенко Андрей Дмитриевич")</f>
-        <v>Денисенко Андрей Дмитриевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Капустина Ксения Александровна")</f>
+        <v>Капустина Ксения Александровна</v>
       </c>
       <c r="O28" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2963,7 +2960,7 @@
       <c r="J29" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="31" t="s">
         <v>138</v>
       </c>
       <c r="L29" s="10"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -439,7 +439,7 @@
     <t>https://www.syrovarnya.com/makhachkala</t>
   </si>
   <si>
-    <t>нет участника</t>
+    <t>Магомедгазиева Саидат Гаджимурадовна</t>
   </si>
   <si>
     <t>Сыроварня Депо 3</t>
@@ -1181,7 +1181,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,12 +1238,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBD4B4"/>
         <bgColor rgb="FFFBD4B4"/>
       </patternFill>
@@ -1267,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1357,13 +1351,19 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1372,16 +1372,7 @@
     <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1409,13 +1400,13 @@
     <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2960,13 +2951,13 @@
       <c r="J29" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="14" t="s">
         <v>138</v>
       </c>
       <c r="L29" s="10"/>
       <c r="N29" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"нет участника")</f>
-        <v>нет участника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$172""),11,0),"""")"),"Магомедгазиева Саидат Гаджимурадовна")</f>
+        <v>Магомедгазиева Саидат Гаджимурадовна</v>
       </c>
       <c r="O29" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4012,19 +4003,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <v>110.0</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>98</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="32" t="s">
         <v>228</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -4103,16 +4094,16 @@
       <c r="A56" s="8">
         <v>46.0</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -4147,16 +4138,16 @@
       <c r="A57" s="8">
         <v>70.0</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -4191,16 +4182,16 @@
       <c r="A58" s="8">
         <v>78.0</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -4235,16 +4226,16 @@
       <c r="A59" s="8">
         <v>87.0</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -4279,16 +4270,16 @@
       <c r="A60" s="8">
         <v>105.0</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -4321,16 +4312,16 @@
       <c r="A61" s="8">
         <v>136.0</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -4365,16 +4356,16 @@
       <c r="A62" s="8">
         <v>137.0</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -4409,16 +4400,16 @@
       <c r="A63" s="8">
         <v>135.0</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="33" t="s">
         <v>36</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -4449,16 +4440,16 @@
       <c r="A64" s="8">
         <v>27.0</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="19" t="s">
@@ -4491,16 +4482,16 @@
       <c r="A65" s="8">
         <v>74.0</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="19" t="s">
@@ -4533,16 +4524,16 @@
       <c r="A66" s="8">
         <v>52.0</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="33" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="19" t="s">
@@ -4572,19 +4563,19 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="32">
+      <c r="A67" s="31">
         <v>38.0</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="34" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="19" t="s">
@@ -4614,19 +4605,19 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="32">
+      <c r="A68" s="31">
         <v>5.0</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="34" t="s">
         <v>273</v>
       </c>
       <c r="F68" s="19" t="s">
@@ -4642,7 +4633,7 @@
       <c r="J68" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="K68" s="36" t="s">
+      <c r="K68" s="35" t="s">
         <v>275</v>
       </c>
       <c r="L68" s="19" t="s">
@@ -4661,16 +4652,16 @@
       <c r="A69" s="8">
         <v>139.0</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="33" t="s">
         <v>215</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -4703,16 +4694,16 @@
       <c r="A70" s="8">
         <v>20.0</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E70" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -4747,16 +4738,16 @@
       <c r="A71" s="8">
         <v>28.0</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C71" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="E71" s="37" t="s">
+      <c r="E71" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -4793,16 +4784,16 @@
       <c r="A72" s="8">
         <v>29.0</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -4839,16 +4830,16 @@
       <c r="A73" s="8">
         <v>57.0</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E73" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -4885,16 +4876,16 @@
       <c r="A74" s="8">
         <v>76.0</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -4931,16 +4922,16 @@
       <c r="A75" s="8">
         <v>82.0</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="36" t="s">
         <v>298</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -4975,16 +4966,16 @@
       <c r="A76" s="8">
         <v>99.0</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C76" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="36" t="s">
         <v>220</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -5018,19 +5009,19 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="32">
+      <c r="A77" s="31">
         <v>141.0</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="37" t="s">
         <v>215</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -5065,16 +5056,16 @@
       <c r="A78" s="8">
         <v>119.0</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="36" t="s">
         <v>220</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -5109,16 +5100,16 @@
       <c r="A79" s="8">
         <v>158.0</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -5151,16 +5142,16 @@
       <c r="A80" s="8">
         <v>159.0</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="D80" s="39" t="s">
+      <c r="D80" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -5195,16 +5186,16 @@
       <c r="A81" s="8">
         <v>144.0</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="38" t="s">
         <v>36</v>
       </c>
       <c r="F81" s="10" t="s">
@@ -5232,5019 +5223,5019 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="40"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="42"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="41"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
     </row>
     <row r="83">
-      <c r="F83" s="40"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="42"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="41"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
     </row>
     <row r="84">
-      <c r="F84" s="40"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="41"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
     </row>
     <row r="85">
-      <c r="F85" s="40"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="42"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="41"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
     </row>
     <row r="86">
-      <c r="F86" s="40"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="42"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="41"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
     </row>
     <row r="87">
-      <c r="G87" s="41"/>
-      <c r="H87" s="42"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="41"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
     </row>
     <row r="88">
-      <c r="G88" s="41"/>
-      <c r="H88" s="42"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="41"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
     </row>
     <row r="89">
-      <c r="G89" s="41"/>
-      <c r="H89" s="42"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="41"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
     </row>
     <row r="90">
-      <c r="G90" s="41"/>
-      <c r="H90" s="42"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="41"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
     </row>
     <row r="91">
-      <c r="G91" s="41"/>
-      <c r="H91" s="42"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="41"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
     </row>
     <row r="92">
-      <c r="G92" s="41"/>
-      <c r="H92" s="42"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="41"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
     </row>
     <row r="93">
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="41"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
     </row>
     <row r="94">
-      <c r="G94" s="41"/>
-      <c r="H94" s="42"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="41"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
     </row>
     <row r="95">
-      <c r="G95" s="41"/>
-      <c r="H95" s="42"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="41"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
     </row>
     <row r="96">
-      <c r="G96" s="41"/>
-      <c r="H96" s="42"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="41"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
     </row>
     <row r="97">
-      <c r="G97" s="41"/>
-      <c r="H97" s="42"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="41"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
     </row>
     <row r="98">
-      <c r="G98" s="41"/>
-      <c r="H98" s="42"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="41"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
     </row>
     <row r="99">
-      <c r="G99" s="41"/>
-      <c r="H99" s="42"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="41"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
     </row>
     <row r="100">
-      <c r="G100" s="41"/>
-      <c r="H100" s="42"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="41"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
     </row>
     <row r="101">
-      <c r="G101" s="41"/>
-      <c r="H101" s="42"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="41"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
     </row>
     <row r="102">
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="41"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="39"/>
     </row>
     <row r="103">
-      <c r="G103" s="41"/>
-      <c r="H103" s="42"/>
-      <c r="K103" s="40"/>
-      <c r="L103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="41"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="39"/>
     </row>
     <row r="104">
-      <c r="G104" s="41"/>
-      <c r="H104" s="42"/>
-      <c r="K104" s="40"/>
-      <c r="L104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="41"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="39"/>
     </row>
     <row r="105">
-      <c r="G105" s="41"/>
-      <c r="H105" s="42"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="41"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39"/>
     </row>
     <row r="106">
-      <c r="G106" s="41"/>
-      <c r="H106" s="42"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="41"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39"/>
     </row>
     <row r="107">
-      <c r="G107" s="41"/>
-      <c r="H107" s="42"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="41"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="39"/>
     </row>
     <row r="108">
-      <c r="G108" s="41"/>
-      <c r="H108" s="42"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="41"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="39"/>
     </row>
     <row r="109">
-      <c r="G109" s="41"/>
-      <c r="H109" s="42"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="41"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="39"/>
     </row>
     <row r="110">
-      <c r="G110" s="41"/>
-      <c r="H110" s="42"/>
-      <c r="K110" s="40"/>
-      <c r="L110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="41"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="39"/>
     </row>
     <row r="111">
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
-      <c r="K111" s="40"/>
-      <c r="L111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="41"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="39"/>
     </row>
     <row r="112">
-      <c r="G112" s="41"/>
-      <c r="H112" s="42"/>
-      <c r="K112" s="40"/>
-      <c r="L112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="41"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="39"/>
     </row>
     <row r="113">
-      <c r="G113" s="41"/>
-      <c r="H113" s="42"/>
-      <c r="K113" s="40"/>
-      <c r="L113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="41"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
     </row>
     <row r="114">
-      <c r="G114" s="41"/>
-      <c r="H114" s="42"/>
-      <c r="K114" s="40"/>
-      <c r="L114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="41"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="39"/>
     </row>
     <row r="115">
-      <c r="G115" s="41"/>
-      <c r="H115" s="42"/>
-      <c r="K115" s="40"/>
-      <c r="L115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="41"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="39"/>
     </row>
     <row r="116">
-      <c r="G116" s="41"/>
-      <c r="H116" s="42"/>
-      <c r="K116" s="40"/>
-      <c r="L116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="41"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
     </row>
     <row r="117">
-      <c r="G117" s="41"/>
-      <c r="H117" s="42"/>
-      <c r="K117" s="40"/>
-      <c r="L117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="41"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
     </row>
     <row r="118">
-      <c r="G118" s="41"/>
-      <c r="H118" s="42"/>
-      <c r="K118" s="40"/>
-      <c r="L118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="41"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="39"/>
     </row>
     <row r="119">
-      <c r="G119" s="41"/>
-      <c r="H119" s="42"/>
-      <c r="K119" s="40"/>
-      <c r="L119" s="40"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="41"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39"/>
     </row>
     <row r="120">
-      <c r="G120" s="41"/>
-      <c r="H120" s="42"/>
-      <c r="K120" s="40"/>
-      <c r="L120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="41"/>
+      <c r="K120" s="39"/>
+      <c r="L120" s="39"/>
     </row>
     <row r="121">
-      <c r="G121" s="41"/>
-      <c r="H121" s="42"/>
-      <c r="K121" s="40"/>
-      <c r="L121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="41"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
     </row>
     <row r="122">
-      <c r="G122" s="41"/>
-      <c r="H122" s="42"/>
-      <c r="K122" s="40"/>
-      <c r="L122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="41"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="39"/>
     </row>
     <row r="123">
-      <c r="G123" s="41"/>
-      <c r="H123" s="42"/>
-      <c r="K123" s="40"/>
-      <c r="L123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="41"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="39"/>
     </row>
     <row r="124">
-      <c r="G124" s="41"/>
-      <c r="H124" s="42"/>
-      <c r="K124" s="40"/>
-      <c r="L124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="41"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="39"/>
     </row>
     <row r="125">
-      <c r="G125" s="41"/>
-      <c r="H125" s="42"/>
-      <c r="K125" s="40"/>
-      <c r="L125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="41"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
     </row>
     <row r="126">
-      <c r="G126" s="41"/>
-      <c r="H126" s="42"/>
-      <c r="K126" s="40"/>
-      <c r="L126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="41"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="39"/>
     </row>
     <row r="127">
-      <c r="G127" s="41"/>
-      <c r="H127" s="42"/>
-      <c r="K127" s="40"/>
-      <c r="L127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="41"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="39"/>
     </row>
     <row r="128">
-      <c r="G128" s="41"/>
-      <c r="H128" s="42"/>
-      <c r="K128" s="40"/>
-      <c r="L128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="41"/>
+      <c r="K128" s="39"/>
+      <c r="L128" s="39"/>
     </row>
     <row r="129">
-      <c r="G129" s="41"/>
-      <c r="H129" s="42"/>
-      <c r="K129" s="40"/>
-      <c r="L129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="41"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="39"/>
     </row>
     <row r="130">
-      <c r="G130" s="41"/>
-      <c r="H130" s="42"/>
-      <c r="K130" s="40"/>
-      <c r="L130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="41"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="39"/>
     </row>
     <row r="131">
-      <c r="G131" s="41"/>
-      <c r="H131" s="42"/>
-      <c r="K131" s="40"/>
-      <c r="L131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="41"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
     </row>
     <row r="132">
-      <c r="G132" s="41"/>
-      <c r="H132" s="42"/>
-      <c r="K132" s="40"/>
-      <c r="L132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="41"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
     </row>
     <row r="133">
-      <c r="G133" s="41"/>
-      <c r="H133" s="42"/>
-      <c r="K133" s="40"/>
-      <c r="L133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="41"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
     </row>
     <row r="134">
-      <c r="G134" s="41"/>
-      <c r="H134" s="42"/>
-      <c r="K134" s="40"/>
-      <c r="L134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="41"/>
+      <c r="K134" s="39"/>
+      <c r="L134" s="39"/>
     </row>
     <row r="135">
-      <c r="G135" s="41"/>
-      <c r="H135" s="42"/>
-      <c r="K135" s="40"/>
-      <c r="L135" s="40"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="41"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="39"/>
     </row>
     <row r="136">
-      <c r="G136" s="41"/>
-      <c r="H136" s="42"/>
-      <c r="K136" s="40"/>
-      <c r="L136" s="40"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="41"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="39"/>
     </row>
     <row r="137">
-      <c r="G137" s="41"/>
-      <c r="H137" s="42"/>
-      <c r="K137" s="40"/>
-      <c r="L137" s="40"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="41"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="39"/>
     </row>
     <row r="138">
-      <c r="G138" s="41"/>
-      <c r="H138" s="42"/>
-      <c r="K138" s="40"/>
-      <c r="L138" s="40"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="41"/>
+      <c r="K138" s="39"/>
+      <c r="L138" s="39"/>
     </row>
     <row r="139">
-      <c r="G139" s="41"/>
-      <c r="H139" s="42"/>
-      <c r="K139" s="40"/>
-      <c r="L139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="41"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="39"/>
     </row>
     <row r="140">
-      <c r="G140" s="41"/>
-      <c r="H140" s="42"/>
-      <c r="K140" s="40"/>
-      <c r="L140" s="40"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="41"/>
+      <c r="K140" s="39"/>
+      <c r="L140" s="39"/>
     </row>
     <row r="141">
-      <c r="G141" s="41"/>
-      <c r="H141" s="42"/>
-      <c r="K141" s="40"/>
-      <c r="L141" s="40"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="41"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="39"/>
     </row>
     <row r="142">
-      <c r="G142" s="41"/>
-      <c r="H142" s="42"/>
-      <c r="K142" s="40"/>
-      <c r="L142" s="40"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="41"/>
+      <c r="K142" s="39"/>
+      <c r="L142" s="39"/>
     </row>
     <row r="143">
-      <c r="G143" s="41"/>
-      <c r="H143" s="42"/>
-      <c r="K143" s="40"/>
-      <c r="L143" s="40"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="41"/>
+      <c r="K143" s="39"/>
+      <c r="L143" s="39"/>
     </row>
     <row r="144">
-      <c r="G144" s="41"/>
-      <c r="H144" s="42"/>
-      <c r="K144" s="40"/>
-      <c r="L144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="41"/>
+      <c r="K144" s="39"/>
+      <c r="L144" s="39"/>
     </row>
     <row r="145">
-      <c r="G145" s="41"/>
-      <c r="H145" s="42"/>
-      <c r="K145" s="40"/>
-      <c r="L145" s="40"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="41"/>
+      <c r="K145" s="39"/>
+      <c r="L145" s="39"/>
     </row>
     <row r="146">
-      <c r="G146" s="41"/>
-      <c r="H146" s="42"/>
-      <c r="K146" s="40"/>
-      <c r="L146" s="40"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="41"/>
+      <c r="K146" s="39"/>
+      <c r="L146" s="39"/>
     </row>
     <row r="147">
-      <c r="G147" s="41"/>
-      <c r="H147" s="42"/>
-      <c r="K147" s="40"/>
-      <c r="L147" s="40"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="41"/>
+      <c r="K147" s="39"/>
+      <c r="L147" s="39"/>
     </row>
     <row r="148">
-      <c r="G148" s="41"/>
-      <c r="H148" s="42"/>
-      <c r="K148" s="40"/>
-      <c r="L148" s="40"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="41"/>
+      <c r="K148" s="39"/>
+      <c r="L148" s="39"/>
     </row>
     <row r="149">
-      <c r="G149" s="41"/>
-      <c r="H149" s="42"/>
-      <c r="K149" s="40"/>
-      <c r="L149" s="40"/>
+      <c r="G149" s="40"/>
+      <c r="H149" s="41"/>
+      <c r="K149" s="39"/>
+      <c r="L149" s="39"/>
     </row>
     <row r="150">
-      <c r="G150" s="41"/>
-      <c r="H150" s="42"/>
-      <c r="K150" s="40"/>
-      <c r="L150" s="40"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="41"/>
+      <c r="K150" s="39"/>
+      <c r="L150" s="39"/>
     </row>
     <row r="151">
-      <c r="G151" s="41"/>
-      <c r="H151" s="42"/>
-      <c r="K151" s="40"/>
-      <c r="L151" s="40"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="41"/>
+      <c r="K151" s="39"/>
+      <c r="L151" s="39"/>
     </row>
     <row r="152">
-      <c r="G152" s="41"/>
-      <c r="H152" s="42"/>
-      <c r="K152" s="40"/>
-      <c r="L152" s="40"/>
+      <c r="G152" s="40"/>
+      <c r="H152" s="41"/>
+      <c r="K152" s="39"/>
+      <c r="L152" s="39"/>
     </row>
     <row r="153">
-      <c r="G153" s="41"/>
-      <c r="H153" s="42"/>
-      <c r="K153" s="40"/>
-      <c r="L153" s="40"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="41"/>
+      <c r="K153" s="39"/>
+      <c r="L153" s="39"/>
     </row>
     <row r="154">
-      <c r="G154" s="41"/>
-      <c r="H154" s="42"/>
-      <c r="K154" s="40"/>
-      <c r="L154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="41"/>
+      <c r="K154" s="39"/>
+      <c r="L154" s="39"/>
     </row>
     <row r="155">
-      <c r="G155" s="41"/>
-      <c r="H155" s="42"/>
-      <c r="K155" s="40"/>
-      <c r="L155" s="40"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="41"/>
+      <c r="K155" s="39"/>
+      <c r="L155" s="39"/>
     </row>
     <row r="156">
-      <c r="G156" s="41"/>
-      <c r="H156" s="42"/>
-      <c r="K156" s="40"/>
-      <c r="L156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="41"/>
+      <c r="K156" s="39"/>
+      <c r="L156" s="39"/>
     </row>
     <row r="157">
-      <c r="G157" s="41"/>
-      <c r="H157" s="42"/>
-      <c r="K157" s="40"/>
-      <c r="L157" s="40"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="41"/>
+      <c r="K157" s="39"/>
+      <c r="L157" s="39"/>
     </row>
     <row r="158">
-      <c r="G158" s="41"/>
-      <c r="H158" s="42"/>
-      <c r="K158" s="40"/>
-      <c r="L158" s="40"/>
+      <c r="G158" s="40"/>
+      <c r="H158" s="41"/>
+      <c r="K158" s="39"/>
+      <c r="L158" s="39"/>
     </row>
     <row r="159">
-      <c r="G159" s="41"/>
-      <c r="H159" s="42"/>
-      <c r="K159" s="40"/>
-      <c r="L159" s="40"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="41"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="39"/>
     </row>
     <row r="160">
-      <c r="G160" s="41"/>
-      <c r="H160" s="42"/>
-      <c r="K160" s="40"/>
-      <c r="L160" s="40"/>
+      <c r="G160" s="40"/>
+      <c r="H160" s="41"/>
+      <c r="K160" s="39"/>
+      <c r="L160" s="39"/>
     </row>
     <row r="161">
-      <c r="G161" s="41"/>
-      <c r="H161" s="42"/>
-      <c r="K161" s="40"/>
-      <c r="L161" s="40"/>
+      <c r="G161" s="40"/>
+      <c r="H161" s="41"/>
+      <c r="K161" s="39"/>
+      <c r="L161" s="39"/>
     </row>
     <row r="162">
-      <c r="G162" s="41"/>
-      <c r="H162" s="42"/>
-      <c r="K162" s="40"/>
-      <c r="L162" s="40"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="41"/>
+      <c r="K162" s="39"/>
+      <c r="L162" s="39"/>
     </row>
     <row r="163">
-      <c r="G163" s="41"/>
-      <c r="H163" s="42"/>
-      <c r="K163" s="40"/>
-      <c r="L163" s="40"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="41"/>
+      <c r="K163" s="39"/>
+      <c r="L163" s="39"/>
     </row>
     <row r="164">
-      <c r="G164" s="41"/>
-      <c r="H164" s="42"/>
-      <c r="K164" s="40"/>
-      <c r="L164" s="40"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="41"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="39"/>
     </row>
     <row r="165">
-      <c r="G165" s="41"/>
-      <c r="H165" s="42"/>
-      <c r="K165" s="40"/>
-      <c r="L165" s="40"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="41"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="39"/>
     </row>
     <row r="166">
-      <c r="G166" s="41"/>
-      <c r="H166" s="42"/>
-      <c r="K166" s="40"/>
-      <c r="L166" s="40"/>
+      <c r="G166" s="40"/>
+      <c r="H166" s="41"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="39"/>
     </row>
     <row r="167">
-      <c r="G167" s="41"/>
-      <c r="H167" s="42"/>
-      <c r="K167" s="40"/>
-      <c r="L167" s="40"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="41"/>
+      <c r="K167" s="39"/>
+      <c r="L167" s="39"/>
     </row>
     <row r="168">
-      <c r="G168" s="41"/>
-      <c r="H168" s="42"/>
-      <c r="K168" s="40"/>
-      <c r="L168" s="40"/>
+      <c r="G168" s="40"/>
+      <c r="H168" s="41"/>
+      <c r="K168" s="39"/>
+      <c r="L168" s="39"/>
     </row>
     <row r="169">
-      <c r="G169" s="41"/>
-      <c r="H169" s="42"/>
-      <c r="K169" s="40"/>
-      <c r="L169" s="40"/>
+      <c r="G169" s="40"/>
+      <c r="H169" s="41"/>
+      <c r="K169" s="39"/>
+      <c r="L169" s="39"/>
     </row>
     <row r="170">
-      <c r="G170" s="41"/>
-      <c r="H170" s="42"/>
-      <c r="K170" s="40"/>
-      <c r="L170" s="40"/>
+      <c r="G170" s="40"/>
+      <c r="H170" s="41"/>
+      <c r="K170" s="39"/>
+      <c r="L170" s="39"/>
     </row>
     <row r="171">
-      <c r="G171" s="41"/>
-      <c r="H171" s="42"/>
-      <c r="K171" s="40"/>
-      <c r="L171" s="40"/>
+      <c r="G171" s="40"/>
+      <c r="H171" s="41"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="39"/>
     </row>
     <row r="172">
-      <c r="G172" s="41"/>
-      <c r="H172" s="42"/>
-      <c r="K172" s="40"/>
-      <c r="L172" s="40"/>
+      <c r="G172" s="40"/>
+      <c r="H172" s="41"/>
+      <c r="K172" s="39"/>
+      <c r="L172" s="39"/>
     </row>
     <row r="173">
-      <c r="G173" s="41"/>
-      <c r="H173" s="42"/>
-      <c r="K173" s="40"/>
-      <c r="L173" s="40"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="41"/>
+      <c r="K173" s="39"/>
+      <c r="L173" s="39"/>
     </row>
     <row r="174">
-      <c r="G174" s="41"/>
-      <c r="H174" s="42"/>
-      <c r="K174" s="40"/>
-      <c r="L174" s="40"/>
+      <c r="G174" s="40"/>
+      <c r="H174" s="41"/>
+      <c r="K174" s="39"/>
+      <c r="L174" s="39"/>
     </row>
     <row r="175">
-      <c r="G175" s="41"/>
-      <c r="H175" s="42"/>
-      <c r="K175" s="40"/>
-      <c r="L175" s="40"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="41"/>
+      <c r="K175" s="39"/>
+      <c r="L175" s="39"/>
     </row>
     <row r="176">
-      <c r="G176" s="41"/>
-      <c r="H176" s="42"/>
-      <c r="K176" s="40"/>
-      <c r="L176" s="40"/>
+      <c r="G176" s="40"/>
+      <c r="H176" s="41"/>
+      <c r="K176" s="39"/>
+      <c r="L176" s="39"/>
     </row>
     <row r="177">
-      <c r="G177" s="41"/>
-      <c r="H177" s="42"/>
-      <c r="K177" s="40"/>
-      <c r="L177" s="40"/>
+      <c r="G177" s="40"/>
+      <c r="H177" s="41"/>
+      <c r="K177" s="39"/>
+      <c r="L177" s="39"/>
     </row>
     <row r="178">
-      <c r="G178" s="41"/>
-      <c r="H178" s="42"/>
-      <c r="K178" s="40"/>
-      <c r="L178" s="40"/>
+      <c r="G178" s="40"/>
+      <c r="H178" s="41"/>
+      <c r="K178" s="39"/>
+      <c r="L178" s="39"/>
     </row>
     <row r="179">
-      <c r="G179" s="41"/>
-      <c r="H179" s="42"/>
-      <c r="K179" s="40"/>
-      <c r="L179" s="40"/>
+      <c r="G179" s="40"/>
+      <c r="H179" s="41"/>
+      <c r="K179" s="39"/>
+      <c r="L179" s="39"/>
     </row>
     <row r="180">
-      <c r="G180" s="41"/>
-      <c r="H180" s="42"/>
-      <c r="K180" s="40"/>
-      <c r="L180" s="40"/>
+      <c r="G180" s="40"/>
+      <c r="H180" s="41"/>
+      <c r="K180" s="39"/>
+      <c r="L180" s="39"/>
     </row>
     <row r="181">
-      <c r="G181" s="41"/>
-      <c r="H181" s="42"/>
-      <c r="K181" s="40"/>
-      <c r="L181" s="40"/>
+      <c r="G181" s="40"/>
+      <c r="H181" s="41"/>
+      <c r="K181" s="39"/>
+      <c r="L181" s="39"/>
     </row>
     <row r="182">
-      <c r="G182" s="41"/>
-      <c r="H182" s="42"/>
-      <c r="K182" s="40"/>
-      <c r="L182" s="40"/>
+      <c r="G182" s="40"/>
+      <c r="H182" s="41"/>
+      <c r="K182" s="39"/>
+      <c r="L182" s="39"/>
     </row>
     <row r="183">
-      <c r="G183" s="41"/>
-      <c r="H183" s="42"/>
-      <c r="K183" s="40"/>
-      <c r="L183" s="40"/>
+      <c r="G183" s="40"/>
+      <c r="H183" s="41"/>
+      <c r="K183" s="39"/>
+      <c r="L183" s="39"/>
     </row>
     <row r="184">
-      <c r="G184" s="41"/>
-      <c r="H184" s="42"/>
-      <c r="K184" s="40"/>
-      <c r="L184" s="40"/>
+      <c r="G184" s="40"/>
+      <c r="H184" s="41"/>
+      <c r="K184" s="39"/>
+      <c r="L184" s="39"/>
     </row>
     <row r="185">
-      <c r="G185" s="41"/>
-      <c r="H185" s="42"/>
-      <c r="K185" s="40"/>
-      <c r="L185" s="40"/>
+      <c r="G185" s="40"/>
+      <c r="H185" s="41"/>
+      <c r="K185" s="39"/>
+      <c r="L185" s="39"/>
     </row>
     <row r="186">
-      <c r="G186" s="41"/>
-      <c r="H186" s="42"/>
-      <c r="K186" s="40"/>
-      <c r="L186" s="40"/>
+      <c r="G186" s="40"/>
+      <c r="H186" s="41"/>
+      <c r="K186" s="39"/>
+      <c r="L186" s="39"/>
     </row>
     <row r="187">
-      <c r="G187" s="41"/>
-      <c r="H187" s="42"/>
-      <c r="K187" s="40"/>
-      <c r="L187" s="40"/>
+      <c r="G187" s="40"/>
+      <c r="H187" s="41"/>
+      <c r="K187" s="39"/>
+      <c r="L187" s="39"/>
     </row>
     <row r="188">
-      <c r="G188" s="41"/>
-      <c r="H188" s="42"/>
-      <c r="K188" s="40"/>
-      <c r="L188" s="40"/>
+      <c r="G188" s="40"/>
+      <c r="H188" s="41"/>
+      <c r="K188" s="39"/>
+      <c r="L188" s="39"/>
     </row>
     <row r="189">
-      <c r="G189" s="41"/>
-      <c r="H189" s="42"/>
-      <c r="K189" s="40"/>
-      <c r="L189" s="40"/>
+      <c r="G189" s="40"/>
+      <c r="H189" s="41"/>
+      <c r="K189" s="39"/>
+      <c r="L189" s="39"/>
     </row>
     <row r="190">
-      <c r="G190" s="41"/>
-      <c r="H190" s="42"/>
-      <c r="K190" s="40"/>
-      <c r="L190" s="40"/>
+      <c r="G190" s="40"/>
+      <c r="H190" s="41"/>
+      <c r="K190" s="39"/>
+      <c r="L190" s="39"/>
     </row>
     <row r="191">
-      <c r="G191" s="41"/>
-      <c r="H191" s="42"/>
-      <c r="K191" s="40"/>
-      <c r="L191" s="40"/>
+      <c r="G191" s="40"/>
+      <c r="H191" s="41"/>
+      <c r="K191" s="39"/>
+      <c r="L191" s="39"/>
     </row>
     <row r="192">
-      <c r="G192" s="41"/>
-      <c r="H192" s="42"/>
-      <c r="K192" s="40"/>
-      <c r="L192" s="40"/>
+      <c r="G192" s="40"/>
+      <c r="H192" s="41"/>
+      <c r="K192" s="39"/>
+      <c r="L192" s="39"/>
     </row>
     <row r="193">
-      <c r="G193" s="41"/>
-      <c r="H193" s="42"/>
-      <c r="K193" s="40"/>
-      <c r="L193" s="40"/>
+      <c r="G193" s="40"/>
+      <c r="H193" s="41"/>
+      <c r="K193" s="39"/>
+      <c r="L193" s="39"/>
     </row>
     <row r="194">
-      <c r="G194" s="41"/>
-      <c r="H194" s="42"/>
-      <c r="K194" s="40"/>
-      <c r="L194" s="40"/>
+      <c r="G194" s="40"/>
+      <c r="H194" s="41"/>
+      <c r="K194" s="39"/>
+      <c r="L194" s="39"/>
     </row>
     <row r="195">
-      <c r="G195" s="41"/>
-      <c r="H195" s="42"/>
-      <c r="K195" s="40"/>
-      <c r="L195" s="40"/>
+      <c r="G195" s="40"/>
+      <c r="H195" s="41"/>
+      <c r="K195" s="39"/>
+      <c r="L195" s="39"/>
     </row>
     <row r="196">
-      <c r="G196" s="41"/>
-      <c r="H196" s="42"/>
-      <c r="K196" s="40"/>
-      <c r="L196" s="40"/>
+      <c r="G196" s="40"/>
+      <c r="H196" s="41"/>
+      <c r="K196" s="39"/>
+      <c r="L196" s="39"/>
     </row>
     <row r="197">
-      <c r="G197" s="41"/>
-      <c r="H197" s="42"/>
-      <c r="K197" s="40"/>
-      <c r="L197" s="40"/>
+      <c r="G197" s="40"/>
+      <c r="H197" s="41"/>
+      <c r="K197" s="39"/>
+      <c r="L197" s="39"/>
     </row>
     <row r="198">
-      <c r="G198" s="41"/>
-      <c r="H198" s="42"/>
-      <c r="K198" s="40"/>
-      <c r="L198" s="40"/>
+      <c r="G198" s="40"/>
+      <c r="H198" s="41"/>
+      <c r="K198" s="39"/>
+      <c r="L198" s="39"/>
     </row>
     <row r="199">
-      <c r="G199" s="41"/>
-      <c r="H199" s="42"/>
-      <c r="K199" s="40"/>
-      <c r="L199" s="40"/>
+      <c r="G199" s="40"/>
+      <c r="H199" s="41"/>
+      <c r="K199" s="39"/>
+      <c r="L199" s="39"/>
     </row>
     <row r="200">
-      <c r="G200" s="41"/>
-      <c r="H200" s="42"/>
-      <c r="K200" s="40"/>
-      <c r="L200" s="40"/>
+      <c r="G200" s="40"/>
+      <c r="H200" s="41"/>
+      <c r="K200" s="39"/>
+      <c r="L200" s="39"/>
     </row>
     <row r="201">
-      <c r="G201" s="41"/>
-      <c r="H201" s="42"/>
-      <c r="K201" s="40"/>
-      <c r="L201" s="40"/>
+      <c r="G201" s="40"/>
+      <c r="H201" s="41"/>
+      <c r="K201" s="39"/>
+      <c r="L201" s="39"/>
     </row>
     <row r="202">
-      <c r="G202" s="41"/>
-      <c r="H202" s="42"/>
-      <c r="K202" s="40"/>
-      <c r="L202" s="40"/>
+      <c r="G202" s="40"/>
+      <c r="H202" s="41"/>
+      <c r="K202" s="39"/>
+      <c r="L202" s="39"/>
     </row>
     <row r="203">
-      <c r="G203" s="41"/>
-      <c r="H203" s="42"/>
-      <c r="K203" s="40"/>
-      <c r="L203" s="40"/>
+      <c r="G203" s="40"/>
+      <c r="H203" s="41"/>
+      <c r="K203" s="39"/>
+      <c r="L203" s="39"/>
     </row>
     <row r="204">
-      <c r="G204" s="41"/>
-      <c r="H204" s="42"/>
-      <c r="K204" s="40"/>
-      <c r="L204" s="40"/>
+      <c r="G204" s="40"/>
+      <c r="H204" s="41"/>
+      <c r="K204" s="39"/>
+      <c r="L204" s="39"/>
     </row>
     <row r="205">
-      <c r="G205" s="41"/>
-      <c r="H205" s="42"/>
-      <c r="K205" s="40"/>
-      <c r="L205" s="40"/>
+      <c r="G205" s="40"/>
+      <c r="H205" s="41"/>
+      <c r="K205" s="39"/>
+      <c r="L205" s="39"/>
     </row>
     <row r="206">
-      <c r="G206" s="41"/>
-      <c r="H206" s="42"/>
-      <c r="K206" s="40"/>
-      <c r="L206" s="40"/>
+      <c r="G206" s="40"/>
+      <c r="H206" s="41"/>
+      <c r="K206" s="39"/>
+      <c r="L206" s="39"/>
     </row>
     <row r="207">
-      <c r="G207" s="41"/>
-      <c r="H207" s="42"/>
-      <c r="K207" s="40"/>
-      <c r="L207" s="40"/>
+      <c r="G207" s="40"/>
+      <c r="H207" s="41"/>
+      <c r="K207" s="39"/>
+      <c r="L207" s="39"/>
     </row>
     <row r="208">
-      <c r="G208" s="41"/>
-      <c r="H208" s="42"/>
-      <c r="K208" s="40"/>
-      <c r="L208" s="40"/>
+      <c r="G208" s="40"/>
+      <c r="H208" s="41"/>
+      <c r="K208" s="39"/>
+      <c r="L208" s="39"/>
     </row>
     <row r="209">
-      <c r="G209" s="41"/>
-      <c r="H209" s="42"/>
-      <c r="K209" s="40"/>
-      <c r="L209" s="40"/>
+      <c r="G209" s="40"/>
+      <c r="H209" s="41"/>
+      <c r="K209" s="39"/>
+      <c r="L209" s="39"/>
     </row>
     <row r="210">
-      <c r="G210" s="41"/>
-      <c r="H210" s="42"/>
-      <c r="K210" s="40"/>
-      <c r="L210" s="40"/>
+      <c r="G210" s="40"/>
+      <c r="H210" s="41"/>
+      <c r="K210" s="39"/>
+      <c r="L210" s="39"/>
     </row>
     <row r="211">
-      <c r="G211" s="41"/>
-      <c r="H211" s="42"/>
-      <c r="K211" s="40"/>
-      <c r="L211" s="40"/>
+      <c r="G211" s="40"/>
+      <c r="H211" s="41"/>
+      <c r="K211" s="39"/>
+      <c r="L211" s="39"/>
     </row>
     <row r="212">
-      <c r="G212" s="41"/>
-      <c r="H212" s="42"/>
-      <c r="K212" s="40"/>
-      <c r="L212" s="40"/>
+      <c r="G212" s="40"/>
+      <c r="H212" s="41"/>
+      <c r="K212" s="39"/>
+      <c r="L212" s="39"/>
     </row>
     <row r="213">
-      <c r="G213" s="41"/>
-      <c r="H213" s="42"/>
-      <c r="K213" s="40"/>
-      <c r="L213" s="40"/>
+      <c r="G213" s="40"/>
+      <c r="H213" s="41"/>
+      <c r="K213" s="39"/>
+      <c r="L213" s="39"/>
     </row>
     <row r="214">
-      <c r="G214" s="41"/>
-      <c r="H214" s="42"/>
-      <c r="K214" s="40"/>
-      <c r="L214" s="40"/>
+      <c r="G214" s="40"/>
+      <c r="H214" s="41"/>
+      <c r="K214" s="39"/>
+      <c r="L214" s="39"/>
     </row>
     <row r="215">
-      <c r="G215" s="41"/>
-      <c r="H215" s="42"/>
-      <c r="K215" s="40"/>
-      <c r="L215" s="40"/>
+      <c r="G215" s="40"/>
+      <c r="H215" s="41"/>
+      <c r="K215" s="39"/>
+      <c r="L215" s="39"/>
     </row>
     <row r="216">
-      <c r="G216" s="41"/>
-      <c r="H216" s="42"/>
-      <c r="K216" s="40"/>
-      <c r="L216" s="40"/>
+      <c r="G216" s="40"/>
+      <c r="H216" s="41"/>
+      <c r="K216" s="39"/>
+      <c r="L216" s="39"/>
     </row>
     <row r="217">
-      <c r="G217" s="41"/>
-      <c r="H217" s="42"/>
-      <c r="K217" s="40"/>
-      <c r="L217" s="40"/>
+      <c r="G217" s="40"/>
+      <c r="H217" s="41"/>
+      <c r="K217" s="39"/>
+      <c r="L217" s="39"/>
     </row>
     <row r="218">
-      <c r="G218" s="41"/>
-      <c r="H218" s="42"/>
-      <c r="K218" s="40"/>
-      <c r="L218" s="40"/>
+      <c r="G218" s="40"/>
+      <c r="H218" s="41"/>
+      <c r="K218" s="39"/>
+      <c r="L218" s="39"/>
     </row>
     <row r="219">
-      <c r="G219" s="41"/>
-      <c r="H219" s="42"/>
-      <c r="K219" s="40"/>
-      <c r="L219" s="40"/>
+      <c r="G219" s="40"/>
+      <c r="H219" s="41"/>
+      <c r="K219" s="39"/>
+      <c r="L219" s="39"/>
     </row>
     <row r="220">
-      <c r="G220" s="41"/>
-      <c r="H220" s="42"/>
-      <c r="K220" s="40"/>
-      <c r="L220" s="40"/>
+      <c r="G220" s="40"/>
+      <c r="H220" s="41"/>
+      <c r="K220" s="39"/>
+      <c r="L220" s="39"/>
     </row>
     <row r="221">
-      <c r="G221" s="41"/>
-      <c r="H221" s="42"/>
-      <c r="K221" s="40"/>
-      <c r="L221" s="40"/>
+      <c r="G221" s="40"/>
+      <c r="H221" s="41"/>
+      <c r="K221" s="39"/>
+      <c r="L221" s="39"/>
     </row>
     <row r="222">
-      <c r="G222" s="41"/>
-      <c r="H222" s="42"/>
-      <c r="K222" s="40"/>
-      <c r="L222" s="40"/>
+      <c r="G222" s="40"/>
+      <c r="H222" s="41"/>
+      <c r="K222" s="39"/>
+      <c r="L222" s="39"/>
     </row>
     <row r="223">
-      <c r="G223" s="41"/>
-      <c r="H223" s="42"/>
-      <c r="K223" s="40"/>
-      <c r="L223" s="40"/>
+      <c r="G223" s="40"/>
+      <c r="H223" s="41"/>
+      <c r="K223" s="39"/>
+      <c r="L223" s="39"/>
     </row>
     <row r="224">
-      <c r="G224" s="41"/>
-      <c r="H224" s="42"/>
-      <c r="K224" s="40"/>
-      <c r="L224" s="40"/>
+      <c r="G224" s="40"/>
+      <c r="H224" s="41"/>
+      <c r="K224" s="39"/>
+      <c r="L224" s="39"/>
     </row>
     <row r="225">
-      <c r="G225" s="41"/>
-      <c r="H225" s="42"/>
-      <c r="K225" s="40"/>
-      <c r="L225" s="40"/>
+      <c r="G225" s="40"/>
+      <c r="H225" s="41"/>
+      <c r="K225" s="39"/>
+      <c r="L225" s="39"/>
     </row>
     <row r="226">
-      <c r="G226" s="41"/>
-      <c r="H226" s="42"/>
-      <c r="K226" s="40"/>
-      <c r="L226" s="40"/>
+      <c r="G226" s="40"/>
+      <c r="H226" s="41"/>
+      <c r="K226" s="39"/>
+      <c r="L226" s="39"/>
     </row>
     <row r="227">
-      <c r="G227" s="41"/>
-      <c r="H227" s="42"/>
-      <c r="K227" s="40"/>
-      <c r="L227" s="40"/>
+      <c r="G227" s="40"/>
+      <c r="H227" s="41"/>
+      <c r="K227" s="39"/>
+      <c r="L227" s="39"/>
     </row>
     <row r="228">
-      <c r="G228" s="41"/>
-      <c r="H228" s="42"/>
-      <c r="K228" s="40"/>
-      <c r="L228" s="40"/>
+      <c r="G228" s="40"/>
+      <c r="H228" s="41"/>
+      <c r="K228" s="39"/>
+      <c r="L228" s="39"/>
     </row>
     <row r="229">
-      <c r="G229" s="41"/>
-      <c r="H229" s="42"/>
-      <c r="K229" s="40"/>
-      <c r="L229" s="40"/>
+      <c r="G229" s="40"/>
+      <c r="H229" s="41"/>
+      <c r="K229" s="39"/>
+      <c r="L229" s="39"/>
     </row>
     <row r="230">
-      <c r="G230" s="41"/>
-      <c r="H230" s="42"/>
-      <c r="K230" s="40"/>
-      <c r="L230" s="40"/>
+      <c r="G230" s="40"/>
+      <c r="H230" s="41"/>
+      <c r="K230" s="39"/>
+      <c r="L230" s="39"/>
     </row>
     <row r="231">
-      <c r="G231" s="41"/>
-      <c r="H231" s="42"/>
-      <c r="K231" s="40"/>
-      <c r="L231" s="40"/>
+      <c r="G231" s="40"/>
+      <c r="H231" s="41"/>
+      <c r="K231" s="39"/>
+      <c r="L231" s="39"/>
     </row>
     <row r="232">
-      <c r="G232" s="41"/>
-      <c r="H232" s="42"/>
-      <c r="K232" s="40"/>
-      <c r="L232" s="40"/>
+      <c r="G232" s="40"/>
+      <c r="H232" s="41"/>
+      <c r="K232" s="39"/>
+      <c r="L232" s="39"/>
     </row>
     <row r="233">
-      <c r="G233" s="41"/>
-      <c r="H233" s="42"/>
-      <c r="K233" s="40"/>
-      <c r="L233" s="40"/>
+      <c r="G233" s="40"/>
+      <c r="H233" s="41"/>
+      <c r="K233" s="39"/>
+      <c r="L233" s="39"/>
     </row>
     <row r="234">
-      <c r="G234" s="41"/>
-      <c r="H234" s="42"/>
-      <c r="K234" s="40"/>
-      <c r="L234" s="40"/>
+      <c r="G234" s="40"/>
+      <c r="H234" s="41"/>
+      <c r="K234" s="39"/>
+      <c r="L234" s="39"/>
     </row>
     <row r="235">
-      <c r="G235" s="41"/>
-      <c r="H235" s="42"/>
-      <c r="K235" s="40"/>
-      <c r="L235" s="40"/>
+      <c r="G235" s="40"/>
+      <c r="H235" s="41"/>
+      <c r="K235" s="39"/>
+      <c r="L235" s="39"/>
     </row>
     <row r="236">
-      <c r="G236" s="41"/>
-      <c r="H236" s="42"/>
-      <c r="K236" s="40"/>
-      <c r="L236" s="40"/>
+      <c r="G236" s="40"/>
+      <c r="H236" s="41"/>
+      <c r="K236" s="39"/>
+      <c r="L236" s="39"/>
     </row>
     <row r="237">
-      <c r="G237" s="41"/>
-      <c r="H237" s="42"/>
-      <c r="K237" s="40"/>
-      <c r="L237" s="40"/>
+      <c r="G237" s="40"/>
+      <c r="H237" s="41"/>
+      <c r="K237" s="39"/>
+      <c r="L237" s="39"/>
     </row>
     <row r="238">
-      <c r="G238" s="41"/>
-      <c r="H238" s="42"/>
-      <c r="K238" s="40"/>
-      <c r="L238" s="40"/>
+      <c r="G238" s="40"/>
+      <c r="H238" s="41"/>
+      <c r="K238" s="39"/>
+      <c r="L238" s="39"/>
     </row>
     <row r="239">
-      <c r="G239" s="41"/>
-      <c r="H239" s="42"/>
-      <c r="K239" s="40"/>
-      <c r="L239" s="40"/>
+      <c r="G239" s="40"/>
+      <c r="H239" s="41"/>
+      <c r="K239" s="39"/>
+      <c r="L239" s="39"/>
     </row>
     <row r="240">
-      <c r="G240" s="41"/>
-      <c r="H240" s="42"/>
-      <c r="K240" s="40"/>
-      <c r="L240" s="40"/>
+      <c r="G240" s="40"/>
+      <c r="H240" s="41"/>
+      <c r="K240" s="39"/>
+      <c r="L240" s="39"/>
     </row>
     <row r="241">
-      <c r="G241" s="41"/>
-      <c r="H241" s="42"/>
-      <c r="K241" s="40"/>
-      <c r="L241" s="40"/>
+      <c r="G241" s="40"/>
+      <c r="H241" s="41"/>
+      <c r="K241" s="39"/>
+      <c r="L241" s="39"/>
     </row>
     <row r="242">
-      <c r="G242" s="41"/>
-      <c r="H242" s="42"/>
-      <c r="K242" s="40"/>
-      <c r="L242" s="40"/>
+      <c r="G242" s="40"/>
+      <c r="H242" s="41"/>
+      <c r="K242" s="39"/>
+      <c r="L242" s="39"/>
     </row>
     <row r="243">
-      <c r="G243" s="41"/>
-      <c r="H243" s="42"/>
-      <c r="K243" s="40"/>
-      <c r="L243" s="40"/>
+      <c r="G243" s="40"/>
+      <c r="H243" s="41"/>
+      <c r="K243" s="39"/>
+      <c r="L243" s="39"/>
     </row>
     <row r="244">
-      <c r="G244" s="41"/>
-      <c r="H244" s="42"/>
-      <c r="K244" s="40"/>
-      <c r="L244" s="40"/>
+      <c r="G244" s="40"/>
+      <c r="H244" s="41"/>
+      <c r="K244" s="39"/>
+      <c r="L244" s="39"/>
     </row>
     <row r="245">
-      <c r="G245" s="41"/>
-      <c r="H245" s="42"/>
-      <c r="K245" s="40"/>
-      <c r="L245" s="40"/>
+      <c r="G245" s="40"/>
+      <c r="H245" s="41"/>
+      <c r="K245" s="39"/>
+      <c r="L245" s="39"/>
     </row>
     <row r="246">
-      <c r="G246" s="41"/>
-      <c r="H246" s="42"/>
-      <c r="K246" s="40"/>
-      <c r="L246" s="40"/>
+      <c r="G246" s="40"/>
+      <c r="H246" s="41"/>
+      <c r="K246" s="39"/>
+      <c r="L246" s="39"/>
     </row>
     <row r="247">
-      <c r="G247" s="41"/>
-      <c r="H247" s="42"/>
-      <c r="K247" s="40"/>
-      <c r="L247" s="40"/>
+      <c r="G247" s="40"/>
+      <c r="H247" s="41"/>
+      <c r="K247" s="39"/>
+      <c r="L247" s="39"/>
     </row>
     <row r="248">
-      <c r="G248" s="41"/>
-      <c r="H248" s="42"/>
-      <c r="K248" s="40"/>
-      <c r="L248" s="40"/>
+      <c r="G248" s="40"/>
+      <c r="H248" s="41"/>
+      <c r="K248" s="39"/>
+      <c r="L248" s="39"/>
     </row>
     <row r="249">
-      <c r="G249" s="41"/>
-      <c r="H249" s="42"/>
-      <c r="K249" s="40"/>
-      <c r="L249" s="40"/>
+      <c r="G249" s="40"/>
+      <c r="H249" s="41"/>
+      <c r="K249" s="39"/>
+      <c r="L249" s="39"/>
     </row>
     <row r="250">
-      <c r="G250" s="41"/>
-      <c r="H250" s="42"/>
-      <c r="K250" s="40"/>
-      <c r="L250" s="40"/>
+      <c r="G250" s="40"/>
+      <c r="H250" s="41"/>
+      <c r="K250" s="39"/>
+      <c r="L250" s="39"/>
     </row>
     <row r="251">
-      <c r="G251" s="41"/>
-      <c r="H251" s="42"/>
-      <c r="K251" s="40"/>
-      <c r="L251" s="40"/>
+      <c r="G251" s="40"/>
+      <c r="H251" s="41"/>
+      <c r="K251" s="39"/>
+      <c r="L251" s="39"/>
     </row>
     <row r="252">
-      <c r="G252" s="41"/>
-      <c r="H252" s="42"/>
-      <c r="K252" s="40"/>
-      <c r="L252" s="40"/>
+      <c r="G252" s="40"/>
+      <c r="H252" s="41"/>
+      <c r="K252" s="39"/>
+      <c r="L252" s="39"/>
     </row>
     <row r="253">
-      <c r="G253" s="41"/>
-      <c r="H253" s="42"/>
-      <c r="K253" s="40"/>
-      <c r="L253" s="40"/>
+      <c r="G253" s="40"/>
+      <c r="H253" s="41"/>
+      <c r="K253" s="39"/>
+      <c r="L253" s="39"/>
     </row>
     <row r="254">
-      <c r="G254" s="41"/>
-      <c r="H254" s="42"/>
-      <c r="K254" s="40"/>
-      <c r="L254" s="40"/>
+      <c r="G254" s="40"/>
+      <c r="H254" s="41"/>
+      <c r="K254" s="39"/>
+      <c r="L254" s="39"/>
     </row>
     <row r="255">
-      <c r="G255" s="41"/>
-      <c r="H255" s="42"/>
-      <c r="K255" s="40"/>
-      <c r="L255" s="40"/>
+      <c r="G255" s="40"/>
+      <c r="H255" s="41"/>
+      <c r="K255" s="39"/>
+      <c r="L255" s="39"/>
     </row>
     <row r="256">
-      <c r="G256" s="41"/>
-      <c r="H256" s="42"/>
-      <c r="K256" s="40"/>
-      <c r="L256" s="40"/>
+      <c r="G256" s="40"/>
+      <c r="H256" s="41"/>
+      <c r="K256" s="39"/>
+      <c r="L256" s="39"/>
     </row>
     <row r="257">
-      <c r="G257" s="41"/>
-      <c r="H257" s="42"/>
-      <c r="K257" s="40"/>
-      <c r="L257" s="40"/>
+      <c r="G257" s="40"/>
+      <c r="H257" s="41"/>
+      <c r="K257" s="39"/>
+      <c r="L257" s="39"/>
     </row>
     <row r="258">
-      <c r="G258" s="41"/>
-      <c r="H258" s="42"/>
-      <c r="K258" s="40"/>
-      <c r="L258" s="40"/>
+      <c r="G258" s="40"/>
+      <c r="H258" s="41"/>
+      <c r="K258" s="39"/>
+      <c r="L258" s="39"/>
     </row>
     <row r="259">
-      <c r="G259" s="41"/>
-      <c r="H259" s="42"/>
-      <c r="K259" s="40"/>
-      <c r="L259" s="40"/>
+      <c r="G259" s="40"/>
+      <c r="H259" s="41"/>
+      <c r="K259" s="39"/>
+      <c r="L259" s="39"/>
     </row>
     <row r="260">
-      <c r="G260" s="41"/>
-      <c r="H260" s="42"/>
-      <c r="K260" s="40"/>
-      <c r="L260" s="40"/>
+      <c r="G260" s="40"/>
+      <c r="H260" s="41"/>
+      <c r="K260" s="39"/>
+      <c r="L260" s="39"/>
     </row>
     <row r="261">
-      <c r="G261" s="41"/>
-      <c r="H261" s="42"/>
-      <c r="K261" s="40"/>
-      <c r="L261" s="40"/>
+      <c r="G261" s="40"/>
+      <c r="H261" s="41"/>
+      <c r="K261" s="39"/>
+      <c r="L261" s="39"/>
     </row>
     <row r="262">
-      <c r="G262" s="41"/>
-      <c r="H262" s="42"/>
-      <c r="K262" s="40"/>
-      <c r="L262" s="40"/>
+      <c r="G262" s="40"/>
+      <c r="H262" s="41"/>
+      <c r="K262" s="39"/>
+      <c r="L262" s="39"/>
     </row>
     <row r="263">
-      <c r="G263" s="41"/>
-      <c r="H263" s="42"/>
-      <c r="K263" s="40"/>
-      <c r="L263" s="40"/>
+      <c r="G263" s="40"/>
+      <c r="H263" s="41"/>
+      <c r="K263" s="39"/>
+      <c r="L263" s="39"/>
     </row>
     <row r="264">
-      <c r="G264" s="41"/>
-      <c r="H264" s="42"/>
-      <c r="K264" s="40"/>
-      <c r="L264" s="40"/>
+      <c r="G264" s="40"/>
+      <c r="H264" s="41"/>
+      <c r="K264" s="39"/>
+      <c r="L264" s="39"/>
     </row>
     <row r="265">
-      <c r="G265" s="41"/>
-      <c r="H265" s="42"/>
-      <c r="K265" s="40"/>
-      <c r="L265" s="40"/>
+      <c r="G265" s="40"/>
+      <c r="H265" s="41"/>
+      <c r="K265" s="39"/>
+      <c r="L265" s="39"/>
     </row>
     <row r="266">
-      <c r="G266" s="41"/>
-      <c r="H266" s="42"/>
-      <c r="K266" s="40"/>
-      <c r="L266" s="40"/>
+      <c r="G266" s="40"/>
+      <c r="H266" s="41"/>
+      <c r="K266" s="39"/>
+      <c r="L266" s="39"/>
     </row>
     <row r="267">
-      <c r="G267" s="41"/>
-      <c r="H267" s="42"/>
-      <c r="K267" s="40"/>
-      <c r="L267" s="40"/>
+      <c r="G267" s="40"/>
+      <c r="H267" s="41"/>
+      <c r="K267" s="39"/>
+      <c r="L267" s="39"/>
     </row>
     <row r="268">
-      <c r="G268" s="41"/>
-      <c r="H268" s="42"/>
-      <c r="K268" s="40"/>
-      <c r="L268" s="40"/>
+      <c r="G268" s="40"/>
+      <c r="H268" s="41"/>
+      <c r="K268" s="39"/>
+      <c r="L268" s="39"/>
     </row>
     <row r="269">
-      <c r="G269" s="41"/>
-      <c r="H269" s="42"/>
-      <c r="K269" s="40"/>
-      <c r="L269" s="40"/>
+      <c r="G269" s="40"/>
+      <c r="H269" s="41"/>
+      <c r="K269" s="39"/>
+      <c r="L269" s="39"/>
     </row>
     <row r="270">
-      <c r="G270" s="41"/>
-      <c r="H270" s="42"/>
-      <c r="K270" s="40"/>
-      <c r="L270" s="40"/>
+      <c r="G270" s="40"/>
+      <c r="H270" s="41"/>
+      <c r="K270" s="39"/>
+      <c r="L270" s="39"/>
     </row>
     <row r="271">
-      <c r="G271" s="41"/>
-      <c r="H271" s="42"/>
-      <c r="K271" s="40"/>
-      <c r="L271" s="40"/>
+      <c r="G271" s="40"/>
+      <c r="H271" s="41"/>
+      <c r="K271" s="39"/>
+      <c r="L271" s="39"/>
     </row>
     <row r="272">
-      <c r="G272" s="41"/>
-      <c r="H272" s="42"/>
-      <c r="K272" s="40"/>
-      <c r="L272" s="40"/>
+      <c r="G272" s="40"/>
+      <c r="H272" s="41"/>
+      <c r="K272" s="39"/>
+      <c r="L272" s="39"/>
     </row>
     <row r="273">
-      <c r="G273" s="41"/>
-      <c r="H273" s="42"/>
-      <c r="K273" s="40"/>
-      <c r="L273" s="40"/>
+      <c r="G273" s="40"/>
+      <c r="H273" s="41"/>
+      <c r="K273" s="39"/>
+      <c r="L273" s="39"/>
     </row>
     <row r="274">
-      <c r="G274" s="41"/>
-      <c r="H274" s="42"/>
-      <c r="K274" s="40"/>
-      <c r="L274" s="40"/>
+      <c r="G274" s="40"/>
+      <c r="H274" s="41"/>
+      <c r="K274" s="39"/>
+      <c r="L274" s="39"/>
     </row>
     <row r="275">
-      <c r="G275" s="41"/>
-      <c r="H275" s="42"/>
-      <c r="K275" s="40"/>
-      <c r="L275" s="40"/>
+      <c r="G275" s="40"/>
+      <c r="H275" s="41"/>
+      <c r="K275" s="39"/>
+      <c r="L275" s="39"/>
     </row>
     <row r="276">
-      <c r="G276" s="41"/>
-      <c r="H276" s="42"/>
-      <c r="K276" s="40"/>
-      <c r="L276" s="40"/>
+      <c r="G276" s="40"/>
+      <c r="H276" s="41"/>
+      <c r="K276" s="39"/>
+      <c r="L276" s="39"/>
     </row>
     <row r="277">
-      <c r="G277" s="41"/>
-      <c r="H277" s="42"/>
-      <c r="K277" s="40"/>
-      <c r="L277" s="40"/>
+      <c r="G277" s="40"/>
+      <c r="H277" s="41"/>
+      <c r="K277" s="39"/>
+      <c r="L277" s="39"/>
     </row>
     <row r="278">
-      <c r="G278" s="41"/>
-      <c r="H278" s="42"/>
-      <c r="K278" s="40"/>
-      <c r="L278" s="40"/>
+      <c r="G278" s="40"/>
+      <c r="H278" s="41"/>
+      <c r="K278" s="39"/>
+      <c r="L278" s="39"/>
     </row>
     <row r="279">
-      <c r="G279" s="41"/>
-      <c r="H279" s="42"/>
-      <c r="K279" s="40"/>
-      <c r="L279" s="40"/>
+      <c r="G279" s="40"/>
+      <c r="H279" s="41"/>
+      <c r="K279" s="39"/>
+      <c r="L279" s="39"/>
     </row>
     <row r="280">
-      <c r="G280" s="41"/>
-      <c r="H280" s="42"/>
-      <c r="K280" s="40"/>
-      <c r="L280" s="40"/>
+      <c r="G280" s="40"/>
+      <c r="H280" s="41"/>
+      <c r="K280" s="39"/>
+      <c r="L280" s="39"/>
     </row>
     <row r="281">
-      <c r="G281" s="41"/>
-      <c r="H281" s="42"/>
-      <c r="K281" s="40"/>
-      <c r="L281" s="40"/>
+      <c r="G281" s="40"/>
+      <c r="H281" s="41"/>
+      <c r="K281" s="39"/>
+      <c r="L281" s="39"/>
     </row>
     <row r="282">
-      <c r="G282" s="41"/>
-      <c r="H282" s="42"/>
-      <c r="K282" s="40"/>
-      <c r="L282" s="40"/>
+      <c r="G282" s="40"/>
+      <c r="H282" s="41"/>
+      <c r="K282" s="39"/>
+      <c r="L282" s="39"/>
     </row>
     <row r="283">
-      <c r="G283" s="41"/>
-      <c r="H283" s="42"/>
-      <c r="K283" s="40"/>
-      <c r="L283" s="40"/>
+      <c r="G283" s="40"/>
+      <c r="H283" s="41"/>
+      <c r="K283" s="39"/>
+      <c r="L283" s="39"/>
     </row>
     <row r="284">
-      <c r="G284" s="41"/>
-      <c r="H284" s="42"/>
-      <c r="K284" s="40"/>
-      <c r="L284" s="40"/>
+      <c r="G284" s="40"/>
+      <c r="H284" s="41"/>
+      <c r="K284" s="39"/>
+      <c r="L284" s="39"/>
     </row>
     <row r="285">
-      <c r="G285" s="41"/>
-      <c r="H285" s="42"/>
-      <c r="K285" s="40"/>
-      <c r="L285" s="40"/>
+      <c r="G285" s="40"/>
+      <c r="H285" s="41"/>
+      <c r="K285" s="39"/>
+      <c r="L285" s="39"/>
     </row>
     <row r="286">
-      <c r="G286" s="41"/>
-      <c r="H286" s="42"/>
-      <c r="K286" s="40"/>
-      <c r="L286" s="40"/>
+      <c r="G286" s="40"/>
+      <c r="H286" s="41"/>
+      <c r="K286" s="39"/>
+      <c r="L286" s="39"/>
     </row>
     <row r="287">
-      <c r="G287" s="41"/>
-      <c r="H287" s="42"/>
-      <c r="K287" s="40"/>
-      <c r="L287" s="40"/>
+      <c r="G287" s="40"/>
+      <c r="H287" s="41"/>
+      <c r="K287" s="39"/>
+      <c r="L287" s="39"/>
     </row>
     <row r="288">
-      <c r="G288" s="41"/>
-      <c r="H288" s="42"/>
-      <c r="K288" s="40"/>
-      <c r="L288" s="40"/>
+      <c r="G288" s="40"/>
+      <c r="H288" s="41"/>
+      <c r="K288" s="39"/>
+      <c r="L288" s="39"/>
     </row>
     <row r="289">
-      <c r="G289" s="41"/>
-      <c r="H289" s="42"/>
-      <c r="K289" s="40"/>
-      <c r="L289" s="40"/>
+      <c r="G289" s="40"/>
+      <c r="H289" s="41"/>
+      <c r="K289" s="39"/>
+      <c r="L289" s="39"/>
     </row>
     <row r="290">
-      <c r="G290" s="41"/>
-      <c r="H290" s="42"/>
-      <c r="K290" s="40"/>
-      <c r="L290" s="40"/>
+      <c r="G290" s="40"/>
+      <c r="H290" s="41"/>
+      <c r="K290" s="39"/>
+      <c r="L290" s="39"/>
     </row>
     <row r="291">
-      <c r="G291" s="41"/>
-      <c r="H291" s="42"/>
-      <c r="K291" s="40"/>
-      <c r="L291" s="40"/>
+      <c r="G291" s="40"/>
+      <c r="H291" s="41"/>
+      <c r="K291" s="39"/>
+      <c r="L291" s="39"/>
     </row>
     <row r="292">
-      <c r="G292" s="41"/>
-      <c r="H292" s="42"/>
-      <c r="K292" s="40"/>
-      <c r="L292" s="40"/>
+      <c r="G292" s="40"/>
+      <c r="H292" s="41"/>
+      <c r="K292" s="39"/>
+      <c r="L292" s="39"/>
     </row>
     <row r="293">
-      <c r="G293" s="41"/>
-      <c r="H293" s="42"/>
-      <c r="K293" s="40"/>
-      <c r="L293" s="40"/>
+      <c r="G293" s="40"/>
+      <c r="H293" s="41"/>
+      <c r="K293" s="39"/>
+      <c r="L293" s="39"/>
     </row>
     <row r="294">
-      <c r="G294" s="41"/>
-      <c r="H294" s="42"/>
-      <c r="K294" s="40"/>
-      <c r="L294" s="40"/>
+      <c r="G294" s="40"/>
+      <c r="H294" s="41"/>
+      <c r="K294" s="39"/>
+      <c r="L294" s="39"/>
     </row>
     <row r="295">
-      <c r="G295" s="41"/>
-      <c r="H295" s="42"/>
-      <c r="K295" s="40"/>
-      <c r="L295" s="40"/>
+      <c r="G295" s="40"/>
+      <c r="H295" s="41"/>
+      <c r="K295" s="39"/>
+      <c r="L295" s="39"/>
     </row>
     <row r="296">
-      <c r="G296" s="41"/>
-      <c r="H296" s="42"/>
-      <c r="K296" s="40"/>
-      <c r="L296" s="40"/>
+      <c r="G296" s="40"/>
+      <c r="H296" s="41"/>
+      <c r="K296" s="39"/>
+      <c r="L296" s="39"/>
     </row>
     <row r="297">
-      <c r="G297" s="41"/>
-      <c r="H297" s="42"/>
-      <c r="K297" s="40"/>
-      <c r="L297" s="40"/>
+      <c r="G297" s="40"/>
+      <c r="H297" s="41"/>
+      <c r="K297" s="39"/>
+      <c r="L297" s="39"/>
     </row>
     <row r="298">
-      <c r="G298" s="41"/>
-      <c r="H298" s="42"/>
-      <c r="K298" s="40"/>
-      <c r="L298" s="40"/>
+      <c r="G298" s="40"/>
+      <c r="H298" s="41"/>
+      <c r="K298" s="39"/>
+      <c r="L298" s="39"/>
     </row>
     <row r="299">
-      <c r="G299" s="41"/>
-      <c r="H299" s="42"/>
-      <c r="K299" s="40"/>
-      <c r="L299" s="40"/>
+      <c r="G299" s="40"/>
+      <c r="H299" s="41"/>
+      <c r="K299" s="39"/>
+      <c r="L299" s="39"/>
     </row>
     <row r="300">
-      <c r="G300" s="41"/>
-      <c r="H300" s="42"/>
-      <c r="K300" s="40"/>
-      <c r="L300" s="40"/>
+      <c r="G300" s="40"/>
+      <c r="H300" s="41"/>
+      <c r="K300" s="39"/>
+      <c r="L300" s="39"/>
     </row>
     <row r="301">
-      <c r="G301" s="41"/>
-      <c r="H301" s="42"/>
-      <c r="K301" s="40"/>
-      <c r="L301" s="40"/>
+      <c r="G301" s="40"/>
+      <c r="H301" s="41"/>
+      <c r="K301" s="39"/>
+      <c r="L301" s="39"/>
     </row>
     <row r="302">
-      <c r="G302" s="41"/>
-      <c r="H302" s="42"/>
-      <c r="K302" s="40"/>
-      <c r="L302" s="40"/>
+      <c r="G302" s="40"/>
+      <c r="H302" s="41"/>
+      <c r="K302" s="39"/>
+      <c r="L302" s="39"/>
     </row>
     <row r="303">
-      <c r="G303" s="41"/>
-      <c r="H303" s="42"/>
-      <c r="K303" s="40"/>
-      <c r="L303" s="40"/>
+      <c r="G303" s="40"/>
+      <c r="H303" s="41"/>
+      <c r="K303" s="39"/>
+      <c r="L303" s="39"/>
     </row>
     <row r="304">
-      <c r="G304" s="41"/>
-      <c r="H304" s="42"/>
-      <c r="K304" s="40"/>
-      <c r="L304" s="40"/>
+      <c r="G304" s="40"/>
+      <c r="H304" s="41"/>
+      <c r="K304" s="39"/>
+      <c r="L304" s="39"/>
     </row>
     <row r="305">
-      <c r="G305" s="41"/>
-      <c r="H305" s="42"/>
-      <c r="K305" s="40"/>
-      <c r="L305" s="40"/>
+      <c r="G305" s="40"/>
+      <c r="H305" s="41"/>
+      <c r="K305" s="39"/>
+      <c r="L305" s="39"/>
     </row>
     <row r="306">
-      <c r="G306" s="41"/>
-      <c r="H306" s="42"/>
-      <c r="K306" s="40"/>
-      <c r="L306" s="40"/>
+      <c r="G306" s="40"/>
+      <c r="H306" s="41"/>
+      <c r="K306" s="39"/>
+      <c r="L306" s="39"/>
     </row>
     <row r="307">
-      <c r="G307" s="41"/>
-      <c r="H307" s="42"/>
-      <c r="K307" s="40"/>
-      <c r="L307" s="40"/>
+      <c r="G307" s="40"/>
+      <c r="H307" s="41"/>
+      <c r="K307" s="39"/>
+      <c r="L307" s="39"/>
     </row>
     <row r="308">
-      <c r="G308" s="41"/>
-      <c r="H308" s="42"/>
-      <c r="K308" s="40"/>
-      <c r="L308" s="40"/>
+      <c r="G308" s="40"/>
+      <c r="H308" s="41"/>
+      <c r="K308" s="39"/>
+      <c r="L308" s="39"/>
     </row>
     <row r="309">
-      <c r="G309" s="41"/>
-      <c r="H309" s="42"/>
-      <c r="K309" s="40"/>
-      <c r="L309" s="40"/>
+      <c r="G309" s="40"/>
+      <c r="H309" s="41"/>
+      <c r="K309" s="39"/>
+      <c r="L309" s="39"/>
     </row>
     <row r="310">
-      <c r="G310" s="41"/>
-      <c r="H310" s="42"/>
-      <c r="K310" s="40"/>
-      <c r="L310" s="40"/>
+      <c r="G310" s="40"/>
+      <c r="H310" s="41"/>
+      <c r="K310" s="39"/>
+      <c r="L310" s="39"/>
     </row>
     <row r="311">
-      <c r="G311" s="41"/>
-      <c r="H311" s="42"/>
-      <c r="K311" s="40"/>
-      <c r="L311" s="40"/>
+      <c r="G311" s="40"/>
+      <c r="H311" s="41"/>
+      <c r="K311" s="39"/>
+      <c r="L311" s="39"/>
     </row>
     <row r="312">
-      <c r="G312" s="41"/>
-      <c r="H312" s="42"/>
-      <c r="K312" s="40"/>
-      <c r="L312" s="40"/>
+      <c r="G312" s="40"/>
+      <c r="H312" s="41"/>
+      <c r="K312" s="39"/>
+      <c r="L312" s="39"/>
     </row>
     <row r="313">
-      <c r="G313" s="41"/>
-      <c r="H313" s="42"/>
-      <c r="K313" s="40"/>
-      <c r="L313" s="40"/>
+      <c r="G313" s="40"/>
+      <c r="H313" s="41"/>
+      <c r="K313" s="39"/>
+      <c r="L313" s="39"/>
     </row>
     <row r="314">
-      <c r="G314" s="41"/>
-      <c r="H314" s="42"/>
-      <c r="K314" s="40"/>
-      <c r="L314" s="40"/>
+      <c r="G314" s="40"/>
+      <c r="H314" s="41"/>
+      <c r="K314" s="39"/>
+      <c r="L314" s="39"/>
     </row>
     <row r="315">
-      <c r="G315" s="41"/>
-      <c r="H315" s="42"/>
-      <c r="K315" s="40"/>
-      <c r="L315" s="40"/>
+      <c r="G315" s="40"/>
+      <c r="H315" s="41"/>
+      <c r="K315" s="39"/>
+      <c r="L315" s="39"/>
     </row>
     <row r="316">
-      <c r="G316" s="41"/>
-      <c r="H316" s="42"/>
-      <c r="K316" s="40"/>
-      <c r="L316" s="40"/>
+      <c r="G316" s="40"/>
+      <c r="H316" s="41"/>
+      <c r="K316" s="39"/>
+      <c r="L316" s="39"/>
     </row>
     <row r="317">
-      <c r="G317" s="41"/>
-      <c r="H317" s="42"/>
-      <c r="K317" s="40"/>
-      <c r="L317" s="40"/>
+      <c r="G317" s="40"/>
+      <c r="H317" s="41"/>
+      <c r="K317" s="39"/>
+      <c r="L317" s="39"/>
     </row>
     <row r="318">
-      <c r="G318" s="41"/>
-      <c r="H318" s="42"/>
-      <c r="K318" s="40"/>
-      <c r="L318" s="40"/>
+      <c r="G318" s="40"/>
+      <c r="H318" s="41"/>
+      <c r="K318" s="39"/>
+      <c r="L318" s="39"/>
     </row>
     <row r="319">
-      <c r="G319" s="41"/>
-      <c r="H319" s="42"/>
-      <c r="K319" s="40"/>
-      <c r="L319" s="40"/>
+      <c r="G319" s="40"/>
+      <c r="H319" s="41"/>
+      <c r="K319" s="39"/>
+      <c r="L319" s="39"/>
     </row>
     <row r="320">
-      <c r="G320" s="41"/>
-      <c r="H320" s="42"/>
-      <c r="K320" s="40"/>
-      <c r="L320" s="40"/>
+      <c r="G320" s="40"/>
+      <c r="H320" s="41"/>
+      <c r="K320" s="39"/>
+      <c r="L320" s="39"/>
     </row>
     <row r="321">
-      <c r="G321" s="41"/>
-      <c r="H321" s="42"/>
-      <c r="K321" s="40"/>
-      <c r="L321" s="40"/>
+      <c r="G321" s="40"/>
+      <c r="H321" s="41"/>
+      <c r="K321" s="39"/>
+      <c r="L321" s="39"/>
     </row>
     <row r="322">
-      <c r="G322" s="41"/>
-      <c r="H322" s="42"/>
-      <c r="K322" s="40"/>
-      <c r="L322" s="40"/>
+      <c r="G322" s="40"/>
+      <c r="H322" s="41"/>
+      <c r="K322" s="39"/>
+      <c r="L322" s="39"/>
     </row>
     <row r="323">
-      <c r="G323" s="41"/>
-      <c r="H323" s="42"/>
-      <c r="K323" s="40"/>
-      <c r="L323" s="40"/>
+      <c r="G323" s="40"/>
+      <c r="H323" s="41"/>
+      <c r="K323" s="39"/>
+      <c r="L323" s="39"/>
     </row>
     <row r="324">
-      <c r="G324" s="41"/>
-      <c r="H324" s="42"/>
-      <c r="K324" s="40"/>
-      <c r="L324" s="40"/>
+      <c r="G324" s="40"/>
+      <c r="H324" s="41"/>
+      <c r="K324" s="39"/>
+      <c r="L324" s="39"/>
     </row>
     <row r="325">
-      <c r="G325" s="41"/>
-      <c r="H325" s="42"/>
-      <c r="K325" s="40"/>
-      <c r="L325" s="40"/>
+      <c r="G325" s="40"/>
+      <c r="H325" s="41"/>
+      <c r="K325" s="39"/>
+      <c r="L325" s="39"/>
     </row>
     <row r="326">
-      <c r="G326" s="41"/>
-      <c r="H326" s="42"/>
-      <c r="K326" s="40"/>
-      <c r="L326" s="40"/>
+      <c r="G326" s="40"/>
+      <c r="H326" s="41"/>
+      <c r="K326" s="39"/>
+      <c r="L326" s="39"/>
     </row>
     <row r="327">
-      <c r="G327" s="41"/>
-      <c r="H327" s="42"/>
-      <c r="K327" s="40"/>
-      <c r="L327" s="40"/>
+      <c r="G327" s="40"/>
+      <c r="H327" s="41"/>
+      <c r="K327" s="39"/>
+      <c r="L327" s="39"/>
     </row>
     <row r="328">
-      <c r="G328" s="41"/>
-      <c r="H328" s="42"/>
-      <c r="K328" s="40"/>
-      <c r="L328" s="40"/>
+      <c r="G328" s="40"/>
+      <c r="H328" s="41"/>
+      <c r="K328" s="39"/>
+      <c r="L328" s="39"/>
     </row>
     <row r="329">
-      <c r="G329" s="41"/>
-      <c r="H329" s="42"/>
-      <c r="K329" s="40"/>
-      <c r="L329" s="40"/>
+      <c r="G329" s="40"/>
+      <c r="H329" s="41"/>
+      <c r="K329" s="39"/>
+      <c r="L329" s="39"/>
     </row>
     <row r="330">
-      <c r="G330" s="41"/>
-      <c r="H330" s="42"/>
-      <c r="K330" s="40"/>
-      <c r="L330" s="40"/>
+      <c r="G330" s="40"/>
+      <c r="H330" s="41"/>
+      <c r="K330" s="39"/>
+      <c r="L330" s="39"/>
     </row>
     <row r="331">
-      <c r="G331" s="41"/>
-      <c r="H331" s="42"/>
-      <c r="K331" s="40"/>
-      <c r="L331" s="40"/>
+      <c r="G331" s="40"/>
+      <c r="H331" s="41"/>
+      <c r="K331" s="39"/>
+      <c r="L331" s="39"/>
     </row>
     <row r="332">
-      <c r="G332" s="41"/>
-      <c r="H332" s="42"/>
-      <c r="K332" s="40"/>
-      <c r="L332" s="40"/>
+      <c r="G332" s="40"/>
+      <c r="H332" s="41"/>
+      <c r="K332" s="39"/>
+      <c r="L332" s="39"/>
     </row>
     <row r="333">
-      <c r="G333" s="41"/>
-      <c r="H333" s="42"/>
-      <c r="K333" s="40"/>
-      <c r="L333" s="40"/>
+      <c r="G333" s="40"/>
+      <c r="H333" s="41"/>
+      <c r="K333" s="39"/>
+      <c r="L333" s="39"/>
     </row>
     <row r="334">
-      <c r="G334" s="41"/>
-      <c r="H334" s="42"/>
-      <c r="K334" s="40"/>
-      <c r="L334" s="40"/>
+      <c r="G334" s="40"/>
+      <c r="H334" s="41"/>
+      <c r="K334" s="39"/>
+      <c r="L334" s="39"/>
     </row>
     <row r="335">
-      <c r="G335" s="41"/>
-      <c r="H335" s="42"/>
-      <c r="K335" s="40"/>
-      <c r="L335" s="40"/>
+      <c r="G335" s="40"/>
+      <c r="H335" s="41"/>
+      <c r="K335" s="39"/>
+      <c r="L335" s="39"/>
     </row>
     <row r="336">
-      <c r="G336" s="41"/>
-      <c r="H336" s="42"/>
-      <c r="K336" s="40"/>
-      <c r="L336" s="40"/>
+      <c r="G336" s="40"/>
+      <c r="H336" s="41"/>
+      <c r="K336" s="39"/>
+      <c r="L336" s="39"/>
     </row>
     <row r="337">
-      <c r="G337" s="41"/>
-      <c r="H337" s="42"/>
-      <c r="K337" s="40"/>
-      <c r="L337" s="40"/>
+      <c r="G337" s="40"/>
+      <c r="H337" s="41"/>
+      <c r="K337" s="39"/>
+      <c r="L337" s="39"/>
     </row>
     <row r="338">
-      <c r="G338" s="41"/>
-      <c r="H338" s="42"/>
-      <c r="K338" s="40"/>
-      <c r="L338" s="40"/>
+      <c r="G338" s="40"/>
+      <c r="H338" s="41"/>
+      <c r="K338" s="39"/>
+      <c r="L338" s="39"/>
     </row>
     <row r="339">
-      <c r="G339" s="41"/>
-      <c r="H339" s="42"/>
-      <c r="K339" s="40"/>
-      <c r="L339" s="40"/>
+      <c r="G339" s="40"/>
+      <c r="H339" s="41"/>
+      <c r="K339" s="39"/>
+      <c r="L339" s="39"/>
     </row>
     <row r="340">
-      <c r="G340" s="41"/>
-      <c r="H340" s="42"/>
-      <c r="K340" s="40"/>
-      <c r="L340" s="40"/>
+      <c r="G340" s="40"/>
+      <c r="H340" s="41"/>
+      <c r="K340" s="39"/>
+      <c r="L340" s="39"/>
     </row>
     <row r="341">
-      <c r="G341" s="41"/>
-      <c r="H341" s="42"/>
-      <c r="K341" s="40"/>
-      <c r="L341" s="40"/>
+      <c r="G341" s="40"/>
+      <c r="H341" s="41"/>
+      <c r="K341" s="39"/>
+      <c r="L341" s="39"/>
     </row>
     <row r="342">
-      <c r="G342" s="41"/>
-      <c r="H342" s="42"/>
-      <c r="K342" s="40"/>
-      <c r="L342" s="40"/>
+      <c r="G342" s="40"/>
+      <c r="H342" s="41"/>
+      <c r="K342" s="39"/>
+      <c r="L342" s="39"/>
     </row>
     <row r="343">
-      <c r="G343" s="41"/>
-      <c r="H343" s="42"/>
-      <c r="K343" s="40"/>
-      <c r="L343" s="40"/>
+      <c r="G343" s="40"/>
+      <c r="H343" s="41"/>
+      <c r="K343" s="39"/>
+      <c r="L343" s="39"/>
     </row>
     <row r="344">
-      <c r="G344" s="41"/>
-      <c r="H344" s="42"/>
-      <c r="K344" s="40"/>
-      <c r="L344" s="40"/>
+      <c r="G344" s="40"/>
+      <c r="H344" s="41"/>
+      <c r="K344" s="39"/>
+      <c r="L344" s="39"/>
     </row>
     <row r="345">
-      <c r="G345" s="41"/>
-      <c r="H345" s="42"/>
-      <c r="K345" s="40"/>
-      <c r="L345" s="40"/>
+      <c r="G345" s="40"/>
+      <c r="H345" s="41"/>
+      <c r="K345" s="39"/>
+      <c r="L345" s="39"/>
     </row>
     <row r="346">
-      <c r="G346" s="41"/>
-      <c r="H346" s="42"/>
-      <c r="K346" s="40"/>
-      <c r="L346" s="40"/>
+      <c r="G346" s="40"/>
+      <c r="H346" s="41"/>
+      <c r="K346" s="39"/>
+      <c r="L346" s="39"/>
     </row>
     <row r="347">
-      <c r="G347" s="41"/>
-      <c r="H347" s="42"/>
-      <c r="K347" s="40"/>
-      <c r="L347" s="40"/>
+      <c r="G347" s="40"/>
+      <c r="H347" s="41"/>
+      <c r="K347" s="39"/>
+      <c r="L347" s="39"/>
     </row>
     <row r="348">
-      <c r="G348" s="41"/>
-      <c r="H348" s="42"/>
-      <c r="K348" s="40"/>
-      <c r="L348" s="40"/>
+      <c r="G348" s="40"/>
+      <c r="H348" s="41"/>
+      <c r="K348" s="39"/>
+      <c r="L348" s="39"/>
     </row>
     <row r="349">
-      <c r="G349" s="41"/>
-      <c r="H349" s="42"/>
-      <c r="K349" s="40"/>
-      <c r="L349" s="40"/>
+      <c r="G349" s="40"/>
+      <c r="H349" s="41"/>
+      <c r="K349" s="39"/>
+      <c r="L349" s="39"/>
     </row>
     <row r="350">
-      <c r="G350" s="41"/>
-      <c r="H350" s="42"/>
-      <c r="K350" s="40"/>
-      <c r="L350" s="40"/>
+      <c r="G350" s="40"/>
+      <c r="H350" s="41"/>
+      <c r="K350" s="39"/>
+      <c r="L350" s="39"/>
     </row>
     <row r="351">
-      <c r="G351" s="41"/>
-      <c r="H351" s="42"/>
-      <c r="K351" s="40"/>
-      <c r="L351" s="40"/>
+      <c r="G351" s="40"/>
+      <c r="H351" s="41"/>
+      <c r="K351" s="39"/>
+      <c r="L351" s="39"/>
     </row>
     <row r="352">
-      <c r="G352" s="41"/>
-      <c r="H352" s="42"/>
-      <c r="K352" s="40"/>
-      <c r="L352" s="40"/>
+      <c r="G352" s="40"/>
+      <c r="H352" s="41"/>
+      <c r="K352" s="39"/>
+      <c r="L352" s="39"/>
     </row>
     <row r="353">
-      <c r="G353" s="41"/>
-      <c r="H353" s="42"/>
-      <c r="K353" s="40"/>
-      <c r="L353" s="40"/>
+      <c r="G353" s="40"/>
+      <c r="H353" s="41"/>
+      <c r="K353" s="39"/>
+      <c r="L353" s="39"/>
     </row>
     <row r="354">
-      <c r="G354" s="41"/>
-      <c r="H354" s="42"/>
-      <c r="K354" s="40"/>
-      <c r="L354" s="40"/>
+      <c r="G354" s="40"/>
+      <c r="H354" s="41"/>
+      <c r="K354" s="39"/>
+      <c r="L354" s="39"/>
     </row>
     <row r="355">
-      <c r="G355" s="41"/>
-      <c r="H355" s="42"/>
-      <c r="K355" s="40"/>
-      <c r="L355" s="40"/>
+      <c r="G355" s="40"/>
+      <c r="H355" s="41"/>
+      <c r="K355" s="39"/>
+      <c r="L355" s="39"/>
     </row>
     <row r="356">
-      <c r="G356" s="41"/>
-      <c r="H356" s="42"/>
-      <c r="K356" s="40"/>
-      <c r="L356" s="40"/>
+      <c r="G356" s="40"/>
+      <c r="H356" s="41"/>
+      <c r="K356" s="39"/>
+      <c r="L356" s="39"/>
     </row>
     <row r="357">
-      <c r="G357" s="41"/>
-      <c r="H357" s="42"/>
-      <c r="K357" s="40"/>
-      <c r="L357" s="40"/>
+      <c r="G357" s="40"/>
+      <c r="H357" s="41"/>
+      <c r="K357" s="39"/>
+      <c r="L357" s="39"/>
     </row>
     <row r="358">
-      <c r="G358" s="41"/>
-      <c r="H358" s="42"/>
-      <c r="K358" s="40"/>
-      <c r="L358" s="40"/>
+      <c r="G358" s="40"/>
+      <c r="H358" s="41"/>
+      <c r="K358" s="39"/>
+      <c r="L358" s="39"/>
     </row>
     <row r="359">
-      <c r="G359" s="41"/>
-      <c r="H359" s="42"/>
-      <c r="K359" s="40"/>
-      <c r="L359" s="40"/>
+      <c r="G359" s="40"/>
+      <c r="H359" s="41"/>
+      <c r="K359" s="39"/>
+      <c r="L359" s="39"/>
     </row>
     <row r="360">
-      <c r="G360" s="41"/>
-      <c r="H360" s="42"/>
-      <c r="K360" s="40"/>
-      <c r="L360" s="40"/>
+      <c r="G360" s="40"/>
+      <c r="H360" s="41"/>
+      <c r="K360" s="39"/>
+      <c r="L360" s="39"/>
     </row>
     <row r="361">
-      <c r="G361" s="41"/>
-      <c r="H361" s="42"/>
-      <c r="K361" s="40"/>
-      <c r="L361" s="40"/>
+      <c r="G361" s="40"/>
+      <c r="H361" s="41"/>
+      <c r="K361" s="39"/>
+      <c r="L361" s="39"/>
     </row>
     <row r="362">
-      <c r="G362" s="41"/>
-      <c r="H362" s="42"/>
-      <c r="K362" s="40"/>
-      <c r="L362" s="40"/>
+      <c r="G362" s="40"/>
+      <c r="H362" s="41"/>
+      <c r="K362" s="39"/>
+      <c r="L362" s="39"/>
     </row>
     <row r="363">
-      <c r="G363" s="41"/>
-      <c r="H363" s="42"/>
-      <c r="K363" s="40"/>
-      <c r="L363" s="40"/>
+      <c r="G363" s="40"/>
+      <c r="H363" s="41"/>
+      <c r="K363" s="39"/>
+      <c r="L363" s="39"/>
     </row>
     <row r="364">
-      <c r="G364" s="41"/>
-      <c r="H364" s="42"/>
-      <c r="K364" s="40"/>
-      <c r="L364" s="40"/>
+      <c r="G364" s="40"/>
+      <c r="H364" s="41"/>
+      <c r="K364" s="39"/>
+      <c r="L364" s="39"/>
     </row>
     <row r="365">
-      <c r="G365" s="41"/>
-      <c r="H365" s="42"/>
-      <c r="K365" s="40"/>
-      <c r="L365" s="40"/>
+      <c r="G365" s="40"/>
+      <c r="H365" s="41"/>
+      <c r="K365" s="39"/>
+      <c r="L365" s="39"/>
     </row>
     <row r="366">
-      <c r="G366" s="41"/>
-      <c r="H366" s="42"/>
-      <c r="K366" s="40"/>
-      <c r="L366" s="40"/>
+      <c r="G366" s="40"/>
+      <c r="H366" s="41"/>
+      <c r="K366" s="39"/>
+      <c r="L366" s="39"/>
     </row>
     <row r="367">
-      <c r="G367" s="41"/>
-      <c r="H367" s="42"/>
-      <c r="K367" s="40"/>
-      <c r="L367" s="40"/>
+      <c r="G367" s="40"/>
+      <c r="H367" s="41"/>
+      <c r="K367" s="39"/>
+      <c r="L367" s="39"/>
     </row>
     <row r="368">
-      <c r="G368" s="41"/>
-      <c r="H368" s="42"/>
-      <c r="K368" s="40"/>
-      <c r="L368" s="40"/>
+      <c r="G368" s="40"/>
+      <c r="H368" s="41"/>
+      <c r="K368" s="39"/>
+      <c r="L368" s="39"/>
     </row>
     <row r="369">
-      <c r="G369" s="41"/>
-      <c r="H369" s="42"/>
-      <c r="K369" s="40"/>
-      <c r="L369" s="40"/>
+      <c r="G369" s="40"/>
+      <c r="H369" s="41"/>
+      <c r="K369" s="39"/>
+      <c r="L369" s="39"/>
     </row>
     <row r="370">
-      <c r="G370" s="41"/>
-      <c r="H370" s="42"/>
-      <c r="K370" s="40"/>
-      <c r="L370" s="40"/>
+      <c r="G370" s="40"/>
+      <c r="H370" s="41"/>
+      <c r="K370" s="39"/>
+      <c r="L370" s="39"/>
     </row>
     <row r="371">
-      <c r="G371" s="41"/>
-      <c r="H371" s="42"/>
-      <c r="K371" s="40"/>
-      <c r="L371" s="40"/>
+      <c r="G371" s="40"/>
+      <c r="H371" s="41"/>
+      <c r="K371" s="39"/>
+      <c r="L371" s="39"/>
     </row>
     <row r="372">
-      <c r="G372" s="41"/>
-      <c r="H372" s="42"/>
-      <c r="K372" s="40"/>
-      <c r="L372" s="40"/>
+      <c r="G372" s="40"/>
+      <c r="H372" s="41"/>
+      <c r="K372" s="39"/>
+      <c r="L372" s="39"/>
     </row>
     <row r="373">
-      <c r="G373" s="41"/>
-      <c r="H373" s="42"/>
-      <c r="K373" s="40"/>
-      <c r="L373" s="40"/>
+      <c r="G373" s="40"/>
+      <c r="H373" s="41"/>
+      <c r="K373" s="39"/>
+      <c r="L373" s="39"/>
     </row>
     <row r="374">
-      <c r="G374" s="41"/>
-      <c r="H374" s="42"/>
-      <c r="K374" s="40"/>
-      <c r="L374" s="40"/>
+      <c r="G374" s="40"/>
+      <c r="H374" s="41"/>
+      <c r="K374" s="39"/>
+      <c r="L374" s="39"/>
     </row>
     <row r="375">
-      <c r="G375" s="41"/>
-      <c r="H375" s="42"/>
-      <c r="K375" s="40"/>
-      <c r="L375" s="40"/>
+      <c r="G375" s="40"/>
+      <c r="H375" s="41"/>
+      <c r="K375" s="39"/>
+      <c r="L375" s="39"/>
     </row>
     <row r="376">
-      <c r="G376" s="41"/>
-      <c r="H376" s="42"/>
-      <c r="K376" s="40"/>
-      <c r="L376" s="40"/>
+      <c r="G376" s="40"/>
+      <c r="H376" s="41"/>
+      <c r="K376" s="39"/>
+      <c r="L376" s="39"/>
     </row>
     <row r="377">
-      <c r="G377" s="41"/>
-      <c r="H377" s="42"/>
-      <c r="K377" s="40"/>
-      <c r="L377" s="40"/>
+      <c r="G377" s="40"/>
+      <c r="H377" s="41"/>
+      <c r="K377" s="39"/>
+      <c r="L377" s="39"/>
     </row>
     <row r="378">
-      <c r="G378" s="41"/>
-      <c r="H378" s="42"/>
-      <c r="K378" s="40"/>
-      <c r="L378" s="40"/>
+      <c r="G378" s="40"/>
+      <c r="H378" s="41"/>
+      <c r="K378" s="39"/>
+      <c r="L378" s="39"/>
     </row>
     <row r="379">
-      <c r="G379" s="41"/>
-      <c r="H379" s="42"/>
-      <c r="K379" s="40"/>
-      <c r="L379" s="40"/>
+      <c r="G379" s="40"/>
+      <c r="H379" s="41"/>
+      <c r="K379" s="39"/>
+      <c r="L379" s="39"/>
     </row>
     <row r="380">
-      <c r="G380" s="41"/>
-      <c r="H380" s="42"/>
-      <c r="K380" s="40"/>
-      <c r="L380" s="40"/>
+      <c r="G380" s="40"/>
+      <c r="H380" s="41"/>
+      <c r="K380" s="39"/>
+      <c r="L380" s="39"/>
     </row>
     <row r="381">
-      <c r="G381" s="41"/>
-      <c r="H381" s="42"/>
-      <c r="K381" s="40"/>
-      <c r="L381" s="40"/>
+      <c r="G381" s="40"/>
+      <c r="H381" s="41"/>
+      <c r="K381" s="39"/>
+      <c r="L381" s="39"/>
     </row>
     <row r="382">
-      <c r="G382" s="41"/>
-      <c r="H382" s="42"/>
-      <c r="K382" s="40"/>
-      <c r="L382" s="40"/>
+      <c r="G382" s="40"/>
+      <c r="H382" s="41"/>
+      <c r="K382" s="39"/>
+      <c r="L382" s="39"/>
     </row>
     <row r="383">
-      <c r="G383" s="41"/>
-      <c r="H383" s="42"/>
-      <c r="K383" s="40"/>
-      <c r="L383" s="40"/>
+      <c r="G383" s="40"/>
+      <c r="H383" s="41"/>
+      <c r="K383" s="39"/>
+      <c r="L383" s="39"/>
     </row>
     <row r="384">
-      <c r="G384" s="41"/>
-      <c r="H384" s="42"/>
-      <c r="K384" s="40"/>
-      <c r="L384" s="40"/>
+      <c r="G384" s="40"/>
+      <c r="H384" s="41"/>
+      <c r="K384" s="39"/>
+      <c r="L384" s="39"/>
     </row>
     <row r="385">
-      <c r="G385" s="41"/>
-      <c r="H385" s="42"/>
-      <c r="K385" s="40"/>
-      <c r="L385" s="40"/>
+      <c r="G385" s="40"/>
+      <c r="H385" s="41"/>
+      <c r="K385" s="39"/>
+      <c r="L385" s="39"/>
     </row>
     <row r="386">
-      <c r="G386" s="41"/>
-      <c r="H386" s="42"/>
-      <c r="K386" s="40"/>
-      <c r="L386" s="40"/>
+      <c r="G386" s="40"/>
+      <c r="H386" s="41"/>
+      <c r="K386" s="39"/>
+      <c r="L386" s="39"/>
     </row>
     <row r="387">
-      <c r="G387" s="41"/>
-      <c r="H387" s="42"/>
-      <c r="K387" s="40"/>
-      <c r="L387" s="40"/>
+      <c r="G387" s="40"/>
+      <c r="H387" s="41"/>
+      <c r="K387" s="39"/>
+      <c r="L387" s="39"/>
     </row>
     <row r="388">
-      <c r="G388" s="41"/>
-      <c r="H388" s="42"/>
-      <c r="K388" s="40"/>
-      <c r="L388" s="40"/>
+      <c r="G388" s="40"/>
+      <c r="H388" s="41"/>
+      <c r="K388" s="39"/>
+      <c r="L388" s="39"/>
     </row>
     <row r="389">
-      <c r="G389" s="41"/>
-      <c r="H389" s="42"/>
-      <c r="K389" s="40"/>
-      <c r="L389" s="40"/>
+      <c r="G389" s="40"/>
+      <c r="H389" s="41"/>
+      <c r="K389" s="39"/>
+      <c r="L389" s="39"/>
     </row>
     <row r="390">
-      <c r="G390" s="41"/>
-      <c r="H390" s="42"/>
-      <c r="K390" s="40"/>
-      <c r="L390" s="40"/>
+      <c r="G390" s="40"/>
+      <c r="H390" s="41"/>
+      <c r="K390" s="39"/>
+      <c r="L390" s="39"/>
     </row>
     <row r="391">
-      <c r="G391" s="41"/>
-      <c r="H391" s="42"/>
-      <c r="K391" s="40"/>
-      <c r="L391" s="40"/>
+      <c r="G391" s="40"/>
+      <c r="H391" s="41"/>
+      <c r="K391" s="39"/>
+      <c r="L391" s="39"/>
     </row>
     <row r="392">
-      <c r="G392" s="41"/>
-      <c r="H392" s="42"/>
-      <c r="K392" s="40"/>
-      <c r="L392" s="40"/>
+      <c r="G392" s="40"/>
+      <c r="H392" s="41"/>
+      <c r="K392" s="39"/>
+      <c r="L392" s="39"/>
     </row>
     <row r="393">
-      <c r="G393" s="41"/>
-      <c r="H393" s="42"/>
-      <c r="K393" s="40"/>
-      <c r="L393" s="40"/>
+      <c r="G393" s="40"/>
+      <c r="H393" s="41"/>
+      <c r="K393" s="39"/>
+      <c r="L393" s="39"/>
     </row>
     <row r="394">
-      <c r="G394" s="41"/>
-      <c r="H394" s="42"/>
-      <c r="K394" s="40"/>
-      <c r="L394" s="40"/>
+      <c r="G394" s="40"/>
+      <c r="H394" s="41"/>
+      <c r="K394" s="39"/>
+      <c r="L394" s="39"/>
     </row>
     <row r="395">
-      <c r="G395" s="41"/>
-      <c r="H395" s="42"/>
-      <c r="K395" s="40"/>
-      <c r="L395" s="40"/>
+      <c r="G395" s="40"/>
+      <c r="H395" s="41"/>
+      <c r="K395" s="39"/>
+      <c r="L395" s="39"/>
     </row>
     <row r="396">
-      <c r="G396" s="41"/>
-      <c r="H396" s="42"/>
-      <c r="K396" s="40"/>
-      <c r="L396" s="40"/>
+      <c r="G396" s="40"/>
+      <c r="H396" s="41"/>
+      <c r="K396" s="39"/>
+      <c r="L396" s="39"/>
     </row>
     <row r="397">
-      <c r="G397" s="41"/>
-      <c r="H397" s="42"/>
-      <c r="K397" s="40"/>
-      <c r="L397" s="40"/>
+      <c r="G397" s="40"/>
+      <c r="H397" s="41"/>
+      <c r="K397" s="39"/>
+      <c r="L397" s="39"/>
     </row>
     <row r="398">
-      <c r="G398" s="41"/>
-      <c r="H398" s="42"/>
-      <c r="K398" s="40"/>
-      <c r="L398" s="40"/>
+      <c r="G398" s="40"/>
+      <c r="H398" s="41"/>
+      <c r="K398" s="39"/>
+      <c r="L398" s="39"/>
     </row>
     <row r="399">
-      <c r="G399" s="41"/>
-      <c r="H399" s="42"/>
-      <c r="K399" s="40"/>
-      <c r="L399" s="40"/>
+      <c r="G399" s="40"/>
+      <c r="H399" s="41"/>
+      <c r="K399" s="39"/>
+      <c r="L399" s="39"/>
     </row>
     <row r="400">
-      <c r="G400" s="41"/>
-      <c r="H400" s="42"/>
-      <c r="K400" s="40"/>
-      <c r="L400" s="40"/>
+      <c r="G400" s="40"/>
+      <c r="H400" s="41"/>
+      <c r="K400" s="39"/>
+      <c r="L400" s="39"/>
     </row>
     <row r="401">
-      <c r="G401" s="41"/>
-      <c r="H401" s="42"/>
-      <c r="K401" s="40"/>
-      <c r="L401" s="40"/>
+      <c r="G401" s="40"/>
+      <c r="H401" s="41"/>
+      <c r="K401" s="39"/>
+      <c r="L401" s="39"/>
     </row>
     <row r="402">
-      <c r="G402" s="41"/>
-      <c r="H402" s="42"/>
-      <c r="K402" s="40"/>
-      <c r="L402" s="40"/>
+      <c r="G402" s="40"/>
+      <c r="H402" s="41"/>
+      <c r="K402" s="39"/>
+      <c r="L402" s="39"/>
     </row>
     <row r="403">
-      <c r="G403" s="41"/>
-      <c r="H403" s="42"/>
-      <c r="K403" s="40"/>
-      <c r="L403" s="40"/>
+      <c r="G403" s="40"/>
+      <c r="H403" s="41"/>
+      <c r="K403" s="39"/>
+      <c r="L403" s="39"/>
     </row>
     <row r="404">
-      <c r="G404" s="41"/>
-      <c r="H404" s="42"/>
-      <c r="K404" s="40"/>
-      <c r="L404" s="40"/>
+      <c r="G404" s="40"/>
+      <c r="H404" s="41"/>
+      <c r="K404" s="39"/>
+      <c r="L404" s="39"/>
     </row>
     <row r="405">
-      <c r="G405" s="41"/>
-      <c r="H405" s="42"/>
-      <c r="K405" s="40"/>
-      <c r="L405" s="40"/>
+      <c r="G405" s="40"/>
+      <c r="H405" s="41"/>
+      <c r="K405" s="39"/>
+      <c r="L405" s="39"/>
     </row>
     <row r="406">
-      <c r="G406" s="41"/>
-      <c r="H406" s="42"/>
-      <c r="K406" s="40"/>
-      <c r="L406" s="40"/>
+      <c r="G406" s="40"/>
+      <c r="H406" s="41"/>
+      <c r="K406" s="39"/>
+      <c r="L406" s="39"/>
     </row>
     <row r="407">
-      <c r="G407" s="41"/>
-      <c r="H407" s="42"/>
-      <c r="K407" s="40"/>
-      <c r="L407" s="40"/>
+      <c r="G407" s="40"/>
+      <c r="H407" s="41"/>
+      <c r="K407" s="39"/>
+      <c r="L407" s="39"/>
     </row>
     <row r="408">
-      <c r="G408" s="41"/>
-      <c r="H408" s="42"/>
-      <c r="K408" s="40"/>
-      <c r="L408" s="40"/>
+      <c r="G408" s="40"/>
+      <c r="H408" s="41"/>
+      <c r="K408" s="39"/>
+      <c r="L408" s="39"/>
     </row>
     <row r="409">
-      <c r="G409" s="41"/>
-      <c r="H409" s="42"/>
-      <c r="K409" s="40"/>
-      <c r="L409" s="40"/>
+      <c r="G409" s="40"/>
+      <c r="H409" s="41"/>
+      <c r="K409" s="39"/>
+      <c r="L409" s="39"/>
     </row>
     <row r="410">
-      <c r="G410" s="41"/>
-      <c r="H410" s="42"/>
-      <c r="K410" s="40"/>
-      <c r="L410" s="40"/>
+      <c r="G410" s="40"/>
+      <c r="H410" s="41"/>
+      <c r="K410" s="39"/>
+      <c r="L410" s="39"/>
     </row>
     <row r="411">
-      <c r="G411" s="41"/>
-      <c r="H411" s="42"/>
-      <c r="K411" s="40"/>
-      <c r="L411" s="40"/>
+      <c r="G411" s="40"/>
+      <c r="H411" s="41"/>
+      <c r="K411" s="39"/>
+      <c r="L411" s="39"/>
     </row>
     <row r="412">
-      <c r="G412" s="41"/>
-      <c r="H412" s="42"/>
-      <c r="K412" s="40"/>
-      <c r="L412" s="40"/>
+      <c r="G412" s="40"/>
+      <c r="H412" s="41"/>
+      <c r="K412" s="39"/>
+      <c r="L412" s="39"/>
     </row>
     <row r="413">
-      <c r="G413" s="41"/>
-      <c r="H413" s="42"/>
-      <c r="K413" s="40"/>
-      <c r="L413" s="40"/>
+      <c r="G413" s="40"/>
+      <c r="H413" s="41"/>
+      <c r="K413" s="39"/>
+      <c r="L413" s="39"/>
     </row>
     <row r="414">
-      <c r="G414" s="41"/>
-      <c r="H414" s="42"/>
-      <c r="K414" s="40"/>
-      <c r="L414" s="40"/>
+      <c r="G414" s="40"/>
+      <c r="H414" s="41"/>
+      <c r="K414" s="39"/>
+      <c r="L414" s="39"/>
     </row>
     <row r="415">
-      <c r="G415" s="41"/>
-      <c r="H415" s="42"/>
-      <c r="K415" s="40"/>
-      <c r="L415" s="40"/>
+      <c r="G415" s="40"/>
+      <c r="H415" s="41"/>
+      <c r="K415" s="39"/>
+      <c r="L415" s="39"/>
     </row>
     <row r="416">
-      <c r="G416" s="41"/>
-      <c r="H416" s="42"/>
-      <c r="K416" s="40"/>
-      <c r="L416" s="40"/>
+      <c r="G416" s="40"/>
+      <c r="H416" s="41"/>
+      <c r="K416" s="39"/>
+      <c r="L416" s="39"/>
     </row>
     <row r="417">
-      <c r="G417" s="41"/>
-      <c r="H417" s="42"/>
-      <c r="K417" s="40"/>
-      <c r="L417" s="40"/>
+      <c r="G417" s="40"/>
+      <c r="H417" s="41"/>
+      <c r="K417" s="39"/>
+      <c r="L417" s="39"/>
     </row>
     <row r="418">
-      <c r="G418" s="41"/>
-      <c r="H418" s="42"/>
-      <c r="K418" s="40"/>
-      <c r="L418" s="40"/>
+      <c r="G418" s="40"/>
+      <c r="H418" s="41"/>
+      <c r="K418" s="39"/>
+      <c r="L418" s="39"/>
     </row>
     <row r="419">
-      <c r="G419" s="41"/>
-      <c r="H419" s="42"/>
-      <c r="K419" s="40"/>
-      <c r="L419" s="40"/>
+      <c r="G419" s="40"/>
+      <c r="H419" s="41"/>
+      <c r="K419" s="39"/>
+      <c r="L419" s="39"/>
     </row>
     <row r="420">
-      <c r="G420" s="41"/>
-      <c r="H420" s="42"/>
-      <c r="K420" s="40"/>
-      <c r="L420" s="40"/>
+      <c r="G420" s="40"/>
+      <c r="H420" s="41"/>
+      <c r="K420" s="39"/>
+      <c r="L420" s="39"/>
     </row>
     <row r="421">
-      <c r="G421" s="41"/>
-      <c r="H421" s="42"/>
-      <c r="K421" s="40"/>
-      <c r="L421" s="40"/>
+      <c r="G421" s="40"/>
+      <c r="H421" s="41"/>
+      <c r="K421" s="39"/>
+      <c r="L421" s="39"/>
     </row>
     <row r="422">
-      <c r="G422" s="41"/>
-      <c r="H422" s="42"/>
-      <c r="K422" s="40"/>
-      <c r="L422" s="40"/>
+      <c r="G422" s="40"/>
+      <c r="H422" s="41"/>
+      <c r="K422" s="39"/>
+      <c r="L422" s="39"/>
     </row>
     <row r="423">
-      <c r="G423" s="41"/>
-      <c r="H423" s="42"/>
-      <c r="K423" s="40"/>
-      <c r="L423" s="40"/>
+      <c r="G423" s="40"/>
+      <c r="H423" s="41"/>
+      <c r="K423" s="39"/>
+      <c r="L423" s="39"/>
     </row>
     <row r="424">
-      <c r="G424" s="41"/>
-      <c r="H424" s="42"/>
-      <c r="K424" s="40"/>
-      <c r="L424" s="40"/>
+      <c r="G424" s="40"/>
+      <c r="H424" s="41"/>
+      <c r="K424" s="39"/>
+      <c r="L424" s="39"/>
     </row>
     <row r="425">
-      <c r="G425" s="41"/>
-      <c r="H425" s="42"/>
-      <c r="K425" s="40"/>
-      <c r="L425" s="40"/>
+      <c r="G425" s="40"/>
+      <c r="H425" s="41"/>
+      <c r="K425" s="39"/>
+      <c r="L425" s="39"/>
     </row>
     <row r="426">
-      <c r="G426" s="41"/>
-      <c r="H426" s="42"/>
-      <c r="K426" s="40"/>
-      <c r="L426" s="40"/>
+      <c r="G426" s="40"/>
+      <c r="H426" s="41"/>
+      <c r="K426" s="39"/>
+      <c r="L426" s="39"/>
     </row>
     <row r="427">
-      <c r="G427" s="41"/>
-      <c r="H427" s="42"/>
-      <c r="K427" s="40"/>
-      <c r="L427" s="40"/>
+      <c r="G427" s="40"/>
+      <c r="H427" s="41"/>
+      <c r="K427" s="39"/>
+      <c r="L427" s="39"/>
     </row>
     <row r="428">
-      <c r="G428" s="41"/>
-      <c r="H428" s="42"/>
-      <c r="K428" s="40"/>
-      <c r="L428" s="40"/>
+      <c r="G428" s="40"/>
+      <c r="H428" s="41"/>
+      <c r="K428" s="39"/>
+      <c r="L428" s="39"/>
     </row>
     <row r="429">
-      <c r="G429" s="41"/>
-      <c r="H429" s="42"/>
-      <c r="K429" s="40"/>
-      <c r="L429" s="40"/>
+      <c r="G429" s="40"/>
+      <c r="H429" s="41"/>
+      <c r="K429" s="39"/>
+      <c r="L429" s="39"/>
     </row>
     <row r="430">
-      <c r="G430" s="41"/>
-      <c r="H430" s="42"/>
-      <c r="K430" s="40"/>
-      <c r="L430" s="40"/>
+      <c r="G430" s="40"/>
+      <c r="H430" s="41"/>
+      <c r="K430" s="39"/>
+      <c r="L430" s="39"/>
     </row>
     <row r="431">
-      <c r="G431" s="41"/>
-      <c r="H431" s="42"/>
-      <c r="K431" s="40"/>
-      <c r="L431" s="40"/>
+      <c r="G431" s="40"/>
+      <c r="H431" s="41"/>
+      <c r="K431" s="39"/>
+      <c r="L431" s="39"/>
     </row>
     <row r="432">
-      <c r="G432" s="41"/>
-      <c r="H432" s="42"/>
-      <c r="K432" s="40"/>
-      <c r="L432" s="40"/>
+      <c r="G432" s="40"/>
+      <c r="H432" s="41"/>
+      <c r="K432" s="39"/>
+      <c r="L432" s="39"/>
     </row>
     <row r="433">
-      <c r="G433" s="41"/>
-      <c r="H433" s="42"/>
-      <c r="K433" s="40"/>
-      <c r="L433" s="40"/>
+      <c r="G433" s="40"/>
+      <c r="H433" s="41"/>
+      <c r="K433" s="39"/>
+      <c r="L433" s="39"/>
     </row>
     <row r="434">
-      <c r="G434" s="41"/>
-      <c r="H434" s="42"/>
-      <c r="K434" s="40"/>
-      <c r="L434" s="40"/>
+      <c r="G434" s="40"/>
+      <c r="H434" s="41"/>
+      <c r="K434" s="39"/>
+      <c r="L434" s="39"/>
     </row>
     <row r="435">
-      <c r="G435" s="41"/>
-      <c r="H435" s="42"/>
-      <c r="K435" s="40"/>
-      <c r="L435" s="40"/>
+      <c r="G435" s="40"/>
+      <c r="H435" s="41"/>
+      <c r="K435" s="39"/>
+      <c r="L435" s="39"/>
     </row>
     <row r="436">
-      <c r="G436" s="41"/>
-      <c r="H436" s="42"/>
-      <c r="K436" s="40"/>
-      <c r="L436" s="40"/>
+      <c r="G436" s="40"/>
+      <c r="H436" s="41"/>
+      <c r="K436" s="39"/>
+      <c r="L436" s="39"/>
     </row>
     <row r="437">
-      <c r="G437" s="41"/>
-      <c r="H437" s="42"/>
-      <c r="K437" s="40"/>
-      <c r="L437" s="40"/>
+      <c r="G437" s="40"/>
+      <c r="H437" s="41"/>
+      <c r="K437" s="39"/>
+      <c r="L437" s="39"/>
     </row>
     <row r="438">
-      <c r="G438" s="41"/>
-      <c r="H438" s="42"/>
-      <c r="K438" s="40"/>
-      <c r="L438" s="40"/>
+      <c r="G438" s="40"/>
+      <c r="H438" s="41"/>
+      <c r="K438" s="39"/>
+      <c r="L438" s="39"/>
     </row>
     <row r="439">
-      <c r="G439" s="41"/>
-      <c r="H439" s="42"/>
-      <c r="K439" s="40"/>
-      <c r="L439" s="40"/>
+      <c r="G439" s="40"/>
+      <c r="H439" s="41"/>
+      <c r="K439" s="39"/>
+      <c r="L439" s="39"/>
     </row>
     <row r="440">
-      <c r="G440" s="41"/>
-      <c r="H440" s="42"/>
-      <c r="K440" s="40"/>
-      <c r="L440" s="40"/>
+      <c r="G440" s="40"/>
+      <c r="H440" s="41"/>
+      <c r="K440" s="39"/>
+      <c r="L440" s="39"/>
     </row>
     <row r="441">
-      <c r="G441" s="41"/>
-      <c r="H441" s="42"/>
-      <c r="K441" s="40"/>
-      <c r="L441" s="40"/>
+      <c r="G441" s="40"/>
+      <c r="H441" s="41"/>
+      <c r="K441" s="39"/>
+      <c r="L441" s="39"/>
     </row>
     <row r="442">
-      <c r="G442" s="41"/>
-      <c r="H442" s="42"/>
-      <c r="K442" s="40"/>
-      <c r="L442" s="40"/>
+      <c r="G442" s="40"/>
+      <c r="H442" s="41"/>
+      <c r="K442" s="39"/>
+      <c r="L442" s="39"/>
     </row>
     <row r="443">
-      <c r="G443" s="41"/>
-      <c r="H443" s="42"/>
-      <c r="K443" s="40"/>
-      <c r="L443" s="40"/>
+      <c r="G443" s="40"/>
+      <c r="H443" s="41"/>
+      <c r="K443" s="39"/>
+      <c r="L443" s="39"/>
     </row>
     <row r="444">
-      <c r="G444" s="41"/>
-      <c r="H444" s="42"/>
-      <c r="K444" s="40"/>
-      <c r="L444" s="40"/>
+      <c r="G444" s="40"/>
+      <c r="H444" s="41"/>
+      <c r="K444" s="39"/>
+      <c r="L444" s="39"/>
     </row>
     <row r="445">
-      <c r="G445" s="41"/>
-      <c r="H445" s="42"/>
-      <c r="K445" s="40"/>
-      <c r="L445" s="40"/>
+      <c r="G445" s="40"/>
+      <c r="H445" s="41"/>
+      <c r="K445" s="39"/>
+      <c r="L445" s="39"/>
     </row>
     <row r="446">
-      <c r="G446" s="41"/>
-      <c r="H446" s="42"/>
-      <c r="K446" s="40"/>
-      <c r="L446" s="40"/>
+      <c r="G446" s="40"/>
+      <c r="H446" s="41"/>
+      <c r="K446" s="39"/>
+      <c r="L446" s="39"/>
     </row>
     <row r="447">
-      <c r="G447" s="41"/>
-      <c r="H447" s="42"/>
-      <c r="K447" s="40"/>
-      <c r="L447" s="40"/>
+      <c r="G447" s="40"/>
+      <c r="H447" s="41"/>
+      <c r="K447" s="39"/>
+      <c r="L447" s="39"/>
     </row>
     <row r="448">
-      <c r="G448" s="41"/>
-      <c r="H448" s="42"/>
-      <c r="K448" s="40"/>
-      <c r="L448" s="40"/>
+      <c r="G448" s="40"/>
+      <c r="H448" s="41"/>
+      <c r="K448" s="39"/>
+      <c r="L448" s="39"/>
     </row>
     <row r="449">
-      <c r="G449" s="41"/>
-      <c r="H449" s="42"/>
-      <c r="K449" s="40"/>
-      <c r="L449" s="40"/>
+      <c r="G449" s="40"/>
+      <c r="H449" s="41"/>
+      <c r="K449" s="39"/>
+      <c r="L449" s="39"/>
     </row>
     <row r="450">
-      <c r="G450" s="41"/>
-      <c r="H450" s="42"/>
-      <c r="K450" s="40"/>
-      <c r="L450" s="40"/>
+      <c r="G450" s="40"/>
+      <c r="H450" s="41"/>
+      <c r="K450" s="39"/>
+      <c r="L450" s="39"/>
     </row>
     <row r="451">
-      <c r="G451" s="41"/>
-      <c r="H451" s="42"/>
-      <c r="K451" s="40"/>
-      <c r="L451" s="40"/>
+      <c r="G451" s="40"/>
+      <c r="H451" s="41"/>
+      <c r="K451" s="39"/>
+      <c r="L451" s="39"/>
     </row>
     <row r="452">
-      <c r="G452" s="41"/>
-      <c r="H452" s="42"/>
-      <c r="K452" s="40"/>
-      <c r="L452" s="40"/>
+      <c r="G452" s="40"/>
+      <c r="H452" s="41"/>
+      <c r="K452" s="39"/>
+      <c r="L452" s="39"/>
     </row>
     <row r="453">
-      <c r="G453" s="41"/>
-      <c r="H453" s="42"/>
-      <c r="K453" s="40"/>
-      <c r="L453" s="40"/>
+      <c r="G453" s="40"/>
+      <c r="H453" s="41"/>
+      <c r="K453" s="39"/>
+      <c r="L453" s="39"/>
     </row>
     <row r="454">
-      <c r="G454" s="41"/>
-      <c r="H454" s="42"/>
-      <c r="K454" s="40"/>
-      <c r="L454" s="40"/>
+      <c r="G454" s="40"/>
+      <c r="H454" s="41"/>
+      <c r="K454" s="39"/>
+      <c r="L454" s="39"/>
     </row>
     <row r="455">
-      <c r="G455" s="41"/>
-      <c r="H455" s="42"/>
-      <c r="K455" s="40"/>
-      <c r="L455" s="40"/>
+      <c r="G455" s="40"/>
+      <c r="H455" s="41"/>
+      <c r="K455" s="39"/>
+      <c r="L455" s="39"/>
     </row>
     <row r="456">
-      <c r="G456" s="41"/>
-      <c r="H456" s="42"/>
-      <c r="K456" s="40"/>
-      <c r="L456" s="40"/>
+      <c r="G456" s="40"/>
+      <c r="H456" s="41"/>
+      <c r="K456" s="39"/>
+      <c r="L456" s="39"/>
     </row>
     <row r="457">
-      <c r="G457" s="41"/>
-      <c r="H457" s="42"/>
-      <c r="K457" s="40"/>
-      <c r="L457" s="40"/>
+      <c r="G457" s="40"/>
+      <c r="H457" s="41"/>
+      <c r="K457" s="39"/>
+      <c r="L457" s="39"/>
     </row>
     <row r="458">
-      <c r="G458" s="41"/>
-      <c r="H458" s="42"/>
-      <c r="K458" s="40"/>
-      <c r="L458" s="40"/>
+      <c r="G458" s="40"/>
+      <c r="H458" s="41"/>
+      <c r="K458" s="39"/>
+      <c r="L458" s="39"/>
     </row>
     <row r="459">
-      <c r="G459" s="41"/>
-      <c r="H459" s="42"/>
-      <c r="K459" s="40"/>
-      <c r="L459" s="40"/>
+      <c r="G459" s="40"/>
+      <c r="H459" s="41"/>
+      <c r="K459" s="39"/>
+      <c r="L459" s="39"/>
     </row>
     <row r="460">
-      <c r="G460" s="41"/>
-      <c r="H460" s="42"/>
-      <c r="K460" s="40"/>
-      <c r="L460" s="40"/>
+      <c r="G460" s="40"/>
+      <c r="H460" s="41"/>
+      <c r="K460" s="39"/>
+      <c r="L460" s="39"/>
     </row>
     <row r="461">
-      <c r="G461" s="41"/>
-      <c r="H461" s="42"/>
-      <c r="K461" s="40"/>
-      <c r="L461" s="40"/>
+      <c r="G461" s="40"/>
+      <c r="H461" s="41"/>
+      <c r="K461" s="39"/>
+      <c r="L461" s="39"/>
     </row>
     <row r="462">
-      <c r="G462" s="41"/>
-      <c r="H462" s="42"/>
-      <c r="K462" s="40"/>
-      <c r="L462" s="40"/>
+      <c r="G462" s="40"/>
+      <c r="H462" s="41"/>
+      <c r="K462" s="39"/>
+      <c r="L462" s="39"/>
     </row>
     <row r="463">
-      <c r="G463" s="41"/>
-      <c r="H463" s="42"/>
-      <c r="K463" s="40"/>
-      <c r="L463" s="40"/>
+      <c r="G463" s="40"/>
+      <c r="H463" s="41"/>
+      <c r="K463" s="39"/>
+      <c r="L463" s="39"/>
     </row>
     <row r="464">
-      <c r="G464" s="41"/>
-      <c r="H464" s="42"/>
-      <c r="K464" s="40"/>
-      <c r="L464" s="40"/>
+      <c r="G464" s="40"/>
+      <c r="H464" s="41"/>
+      <c r="K464" s="39"/>
+      <c r="L464" s="39"/>
     </row>
     <row r="465">
-      <c r="G465" s="41"/>
-      <c r="H465" s="42"/>
-      <c r="K465" s="40"/>
-      <c r="L465" s="40"/>
+      <c r="G465" s="40"/>
+      <c r="H465" s="41"/>
+      <c r="K465" s="39"/>
+      <c r="L465" s="39"/>
     </row>
     <row r="466">
-      <c r="G466" s="41"/>
-      <c r="H466" s="42"/>
-      <c r="K466" s="40"/>
-      <c r="L466" s="40"/>
+      <c r="G466" s="40"/>
+      <c r="H466" s="41"/>
+      <c r="K466" s="39"/>
+      <c r="L466" s="39"/>
     </row>
     <row r="467">
-      <c r="G467" s="41"/>
-      <c r="H467" s="42"/>
-      <c r="K467" s="40"/>
-      <c r="L467" s="40"/>
+      <c r="G467" s="40"/>
+      <c r="H467" s="41"/>
+      <c r="K467" s="39"/>
+      <c r="L467" s="39"/>
     </row>
     <row r="468">
-      <c r="G468" s="41"/>
-      <c r="H468" s="42"/>
-      <c r="K468" s="40"/>
-      <c r="L468" s="40"/>
+      <c r="G468" s="40"/>
+      <c r="H468" s="41"/>
+      <c r="K468" s="39"/>
+      <c r="L468" s="39"/>
     </row>
     <row r="469">
-      <c r="G469" s="41"/>
-      <c r="H469" s="42"/>
-      <c r="K469" s="40"/>
-      <c r="L469" s="40"/>
+      <c r="G469" s="40"/>
+      <c r="H469" s="41"/>
+      <c r="K469" s="39"/>
+      <c r="L469" s="39"/>
     </row>
     <row r="470">
-      <c r="G470" s="41"/>
-      <c r="H470" s="42"/>
-      <c r="K470" s="40"/>
-      <c r="L470" s="40"/>
+      <c r="G470" s="40"/>
+      <c r="H470" s="41"/>
+      <c r="K470" s="39"/>
+      <c r="L470" s="39"/>
     </row>
     <row r="471">
-      <c r="G471" s="41"/>
-      <c r="H471" s="42"/>
-      <c r="K471" s="40"/>
-      <c r="L471" s="40"/>
+      <c r="G471" s="40"/>
+      <c r="H471" s="41"/>
+      <c r="K471" s="39"/>
+      <c r="L471" s="39"/>
     </row>
     <row r="472">
-      <c r="G472" s="41"/>
-      <c r="H472" s="42"/>
-      <c r="K472" s="40"/>
-      <c r="L472" s="40"/>
+      <c r="G472" s="40"/>
+      <c r="H472" s="41"/>
+      <c r="K472" s="39"/>
+      <c r="L472" s="39"/>
     </row>
     <row r="473">
-      <c r="G473" s="41"/>
-      <c r="H473" s="42"/>
-      <c r="K473" s="40"/>
-      <c r="L473" s="40"/>
+      <c r="G473" s="40"/>
+      <c r="H473" s="41"/>
+      <c r="K473" s="39"/>
+      <c r="L473" s="39"/>
     </row>
     <row r="474">
-      <c r="G474" s="41"/>
-      <c r="H474" s="42"/>
-      <c r="K474" s="40"/>
-      <c r="L474" s="40"/>
+      <c r="G474" s="40"/>
+      <c r="H474" s="41"/>
+      <c r="K474" s="39"/>
+      <c r="L474" s="39"/>
     </row>
     <row r="475">
-      <c r="G475" s="41"/>
-      <c r="H475" s="42"/>
-      <c r="K475" s="40"/>
-      <c r="L475" s="40"/>
+      <c r="G475" s="40"/>
+      <c r="H475" s="41"/>
+      <c r="K475" s="39"/>
+      <c r="L475" s="39"/>
     </row>
     <row r="476">
-      <c r="G476" s="41"/>
-      <c r="H476" s="42"/>
-      <c r="K476" s="40"/>
-      <c r="L476" s="40"/>
+      <c r="G476" s="40"/>
+      <c r="H476" s="41"/>
+      <c r="K476" s="39"/>
+      <c r="L476" s="39"/>
     </row>
     <row r="477">
-      <c r="G477" s="41"/>
-      <c r="H477" s="42"/>
-      <c r="K477" s="40"/>
-      <c r="L477" s="40"/>
+      <c r="G477" s="40"/>
+      <c r="H477" s="41"/>
+      <c r="K477" s="39"/>
+      <c r="L477" s="39"/>
     </row>
     <row r="478">
-      <c r="G478" s="41"/>
-      <c r="H478" s="42"/>
-      <c r="K478" s="40"/>
-      <c r="L478" s="40"/>
+      <c r="G478" s="40"/>
+      <c r="H478" s="41"/>
+      <c r="K478" s="39"/>
+      <c r="L478" s="39"/>
     </row>
     <row r="479">
-      <c r="G479" s="41"/>
-      <c r="H479" s="42"/>
-      <c r="K479" s="40"/>
-      <c r="L479" s="40"/>
+      <c r="G479" s="40"/>
+      <c r="H479" s="41"/>
+      <c r="K479" s="39"/>
+      <c r="L479" s="39"/>
     </row>
     <row r="480">
-      <c r="G480" s="41"/>
-      <c r="H480" s="42"/>
-      <c r="K480" s="40"/>
-      <c r="L480" s="40"/>
+      <c r="G480" s="40"/>
+      <c r="H480" s="41"/>
+      <c r="K480" s="39"/>
+      <c r="L480" s="39"/>
     </row>
     <row r="481">
-      <c r="G481" s="41"/>
-      <c r="H481" s="42"/>
-      <c r="K481" s="40"/>
-      <c r="L481" s="40"/>
+      <c r="G481" s="40"/>
+      <c r="H481" s="41"/>
+      <c r="K481" s="39"/>
+      <c r="L481" s="39"/>
     </row>
     <row r="482">
-      <c r="G482" s="41"/>
-      <c r="H482" s="42"/>
-      <c r="K482" s="40"/>
-      <c r="L482" s="40"/>
+      <c r="G482" s="40"/>
+      <c r="H482" s="41"/>
+      <c r="K482" s="39"/>
+      <c r="L482" s="39"/>
     </row>
     <row r="483">
-      <c r="G483" s="41"/>
-      <c r="H483" s="42"/>
-      <c r="K483" s="40"/>
-      <c r="L483" s="40"/>
+      <c r="G483" s="40"/>
+      <c r="H483" s="41"/>
+      <c r="K483" s="39"/>
+      <c r="L483" s="39"/>
     </row>
     <row r="484">
-      <c r="G484" s="41"/>
-      <c r="H484" s="42"/>
-      <c r="K484" s="40"/>
-      <c r="L484" s="40"/>
+      <c r="G484" s="40"/>
+      <c r="H484" s="41"/>
+      <c r="K484" s="39"/>
+      <c r="L484" s="39"/>
     </row>
     <row r="485">
-      <c r="G485" s="41"/>
-      <c r="H485" s="42"/>
-      <c r="K485" s="40"/>
-      <c r="L485" s="40"/>
+      <c r="G485" s="40"/>
+      <c r="H485" s="41"/>
+      <c r="K485" s="39"/>
+      <c r="L485" s="39"/>
     </row>
     <row r="486">
-      <c r="G486" s="41"/>
-      <c r="H486" s="42"/>
-      <c r="K486" s="40"/>
-      <c r="L486" s="40"/>
+      <c r="G486" s="40"/>
+      <c r="H486" s="41"/>
+      <c r="K486" s="39"/>
+      <c r="L486" s="39"/>
     </row>
     <row r="487">
-      <c r="G487" s="41"/>
-      <c r="H487" s="42"/>
-      <c r="K487" s="40"/>
-      <c r="L487" s="40"/>
+      <c r="G487" s="40"/>
+      <c r="H487" s="41"/>
+      <c r="K487" s="39"/>
+      <c r="L487" s="39"/>
     </row>
     <row r="488">
-      <c r="G488" s="41"/>
-      <c r="H488" s="42"/>
-      <c r="K488" s="40"/>
-      <c r="L488" s="40"/>
+      <c r="G488" s="40"/>
+      <c r="H488" s="41"/>
+      <c r="K488" s="39"/>
+      <c r="L488" s="39"/>
     </row>
     <row r="489">
-      <c r="G489" s="41"/>
-      <c r="H489" s="42"/>
-      <c r="K489" s="40"/>
-      <c r="L489" s="40"/>
+      <c r="G489" s="40"/>
+      <c r="H489" s="41"/>
+      <c r="K489" s="39"/>
+      <c r="L489" s="39"/>
     </row>
     <row r="490">
-      <c r="G490" s="41"/>
-      <c r="H490" s="42"/>
-      <c r="K490" s="40"/>
-      <c r="L490" s="40"/>
+      <c r="G490" s="40"/>
+      <c r="H490" s="41"/>
+      <c r="K490" s="39"/>
+      <c r="L490" s="39"/>
     </row>
     <row r="491">
-      <c r="G491" s="41"/>
-      <c r="H491" s="42"/>
-      <c r="K491" s="40"/>
-      <c r="L491" s="40"/>
+      <c r="G491" s="40"/>
+      <c r="H491" s="41"/>
+      <c r="K491" s="39"/>
+      <c r="L491" s="39"/>
     </row>
     <row r="492">
-      <c r="G492" s="41"/>
-      <c r="H492" s="42"/>
-      <c r="K492" s="40"/>
-      <c r="L492" s="40"/>
+      <c r="G492" s="40"/>
+      <c r="H492" s="41"/>
+      <c r="K492" s="39"/>
+      <c r="L492" s="39"/>
     </row>
     <row r="493">
-      <c r="G493" s="41"/>
-      <c r="H493" s="42"/>
-      <c r="K493" s="40"/>
-      <c r="L493" s="40"/>
+      <c r="G493" s="40"/>
+      <c r="H493" s="41"/>
+      <c r="K493" s="39"/>
+      <c r="L493" s="39"/>
     </row>
     <row r="494">
-      <c r="G494" s="41"/>
-      <c r="H494" s="42"/>
-      <c r="K494" s="40"/>
-      <c r="L494" s="40"/>
+      <c r="G494" s="40"/>
+      <c r="H494" s="41"/>
+      <c r="K494" s="39"/>
+      <c r="L494" s="39"/>
     </row>
     <row r="495">
-      <c r="G495" s="41"/>
-      <c r="H495" s="42"/>
-      <c r="K495" s="40"/>
-      <c r="L495" s="40"/>
+      <c r="G495" s="40"/>
+      <c r="H495" s="41"/>
+      <c r="K495" s="39"/>
+      <c r="L495" s="39"/>
     </row>
     <row r="496">
-      <c r="G496" s="41"/>
-      <c r="H496" s="42"/>
-      <c r="K496" s="40"/>
-      <c r="L496" s="40"/>
+      <c r="G496" s="40"/>
+      <c r="H496" s="41"/>
+      <c r="K496" s="39"/>
+      <c r="L496" s="39"/>
     </row>
     <row r="497">
-      <c r="G497" s="41"/>
-      <c r="H497" s="42"/>
-      <c r="K497" s="40"/>
-      <c r="L497" s="40"/>
+      <c r="G497" s="40"/>
+      <c r="H497" s="41"/>
+      <c r="K497" s="39"/>
+      <c r="L497" s="39"/>
     </row>
     <row r="498">
-      <c r="G498" s="41"/>
-      <c r="H498" s="42"/>
-      <c r="K498" s="40"/>
-      <c r="L498" s="40"/>
+      <c r="G498" s="40"/>
+      <c r="H498" s="41"/>
+      <c r="K498" s="39"/>
+      <c r="L498" s="39"/>
     </row>
     <row r="499">
-      <c r="G499" s="41"/>
-      <c r="H499" s="42"/>
-      <c r="K499" s="40"/>
-      <c r="L499" s="40"/>
+      <c r="G499" s="40"/>
+      <c r="H499" s="41"/>
+      <c r="K499" s="39"/>
+      <c r="L499" s="39"/>
     </row>
     <row r="500">
-      <c r="G500" s="41"/>
-      <c r="H500" s="42"/>
-      <c r="K500" s="40"/>
-      <c r="L500" s="40"/>
+      <c r="G500" s="40"/>
+      <c r="H500" s="41"/>
+      <c r="K500" s="39"/>
+      <c r="L500" s="39"/>
     </row>
     <row r="501">
-      <c r="G501" s="41"/>
-      <c r="H501" s="42"/>
-      <c r="K501" s="40"/>
-      <c r="L501" s="40"/>
+      <c r="G501" s="40"/>
+      <c r="H501" s="41"/>
+      <c r="K501" s="39"/>
+      <c r="L501" s="39"/>
     </row>
     <row r="502">
-      <c r="G502" s="41"/>
-      <c r="H502" s="42"/>
-      <c r="K502" s="40"/>
-      <c r="L502" s="40"/>
+      <c r="G502" s="40"/>
+      <c r="H502" s="41"/>
+      <c r="K502" s="39"/>
+      <c r="L502" s="39"/>
     </row>
     <row r="503">
-      <c r="G503" s="41"/>
-      <c r="H503" s="42"/>
-      <c r="K503" s="40"/>
-      <c r="L503" s="40"/>
+      <c r="G503" s="40"/>
+      <c r="H503" s="41"/>
+      <c r="K503" s="39"/>
+      <c r="L503" s="39"/>
     </row>
     <row r="504">
-      <c r="G504" s="41"/>
-      <c r="H504" s="42"/>
-      <c r="K504" s="40"/>
-      <c r="L504" s="40"/>
+      <c r="G504" s="40"/>
+      <c r="H504" s="41"/>
+      <c r="K504" s="39"/>
+      <c r="L504" s="39"/>
     </row>
     <row r="505">
-      <c r="G505" s="41"/>
-      <c r="H505" s="42"/>
-      <c r="K505" s="40"/>
-      <c r="L505" s="40"/>
+      <c r="G505" s="40"/>
+      <c r="H505" s="41"/>
+      <c r="K505" s="39"/>
+      <c r="L505" s="39"/>
     </row>
     <row r="506">
-      <c r="G506" s="41"/>
-      <c r="H506" s="42"/>
-      <c r="K506" s="40"/>
-      <c r="L506" s="40"/>
+      <c r="G506" s="40"/>
+      <c r="H506" s="41"/>
+      <c r="K506" s="39"/>
+      <c r="L506" s="39"/>
     </row>
     <row r="507">
-      <c r="G507" s="41"/>
-      <c r="H507" s="42"/>
-      <c r="K507" s="40"/>
-      <c r="L507" s="40"/>
+      <c r="G507" s="40"/>
+      <c r="H507" s="41"/>
+      <c r="K507" s="39"/>
+      <c r="L507" s="39"/>
     </row>
     <row r="508">
-      <c r="G508" s="41"/>
-      <c r="H508" s="42"/>
-      <c r="K508" s="40"/>
-      <c r="L508" s="40"/>
+      <c r="G508" s="40"/>
+      <c r="H508" s="41"/>
+      <c r="K508" s="39"/>
+      <c r="L508" s="39"/>
     </row>
     <row r="509">
-      <c r="G509" s="41"/>
-      <c r="H509" s="42"/>
-      <c r="K509" s="40"/>
-      <c r="L509" s="40"/>
+      <c r="G509" s="40"/>
+      <c r="H509" s="41"/>
+      <c r="K509" s="39"/>
+      <c r="L509" s="39"/>
     </row>
     <row r="510">
-      <c r="G510" s="41"/>
-      <c r="H510" s="42"/>
-      <c r="K510" s="40"/>
-      <c r="L510" s="40"/>
+      <c r="G510" s="40"/>
+      <c r="H510" s="41"/>
+      <c r="K510" s="39"/>
+      <c r="L510" s="39"/>
     </row>
     <row r="511">
-      <c r="G511" s="41"/>
-      <c r="H511" s="42"/>
-      <c r="K511" s="40"/>
-      <c r="L511" s="40"/>
+      <c r="G511" s="40"/>
+      <c r="H511" s="41"/>
+      <c r="K511" s="39"/>
+      <c r="L511" s="39"/>
     </row>
     <row r="512">
-      <c r="G512" s="41"/>
-      <c r="H512" s="42"/>
-      <c r="K512" s="40"/>
-      <c r="L512" s="40"/>
+      <c r="G512" s="40"/>
+      <c r="H512" s="41"/>
+      <c r="K512" s="39"/>
+      <c r="L512" s="39"/>
     </row>
     <row r="513">
-      <c r="G513" s="41"/>
-      <c r="H513" s="42"/>
-      <c r="K513" s="40"/>
-      <c r="L513" s="40"/>
+      <c r="G513" s="40"/>
+      <c r="H513" s="41"/>
+      <c r="K513" s="39"/>
+      <c r="L513" s="39"/>
     </row>
     <row r="514">
-      <c r="G514" s="41"/>
-      <c r="H514" s="42"/>
-      <c r="K514" s="40"/>
-      <c r="L514" s="40"/>
+      <c r="G514" s="40"/>
+      <c r="H514" s="41"/>
+      <c r="K514" s="39"/>
+      <c r="L514" s="39"/>
     </row>
     <row r="515">
-      <c r="G515" s="41"/>
-      <c r="H515" s="42"/>
-      <c r="K515" s="40"/>
-      <c r="L515" s="40"/>
+      <c r="G515" s="40"/>
+      <c r="H515" s="41"/>
+      <c r="K515" s="39"/>
+      <c r="L515" s="39"/>
     </row>
     <row r="516">
-      <c r="G516" s="41"/>
-      <c r="H516" s="42"/>
-      <c r="K516" s="40"/>
-      <c r="L516" s="40"/>
+      <c r="G516" s="40"/>
+      <c r="H516" s="41"/>
+      <c r="K516" s="39"/>
+      <c r="L516" s="39"/>
     </row>
     <row r="517">
-      <c r="G517" s="41"/>
-      <c r="H517" s="42"/>
-      <c r="K517" s="40"/>
-      <c r="L517" s="40"/>
+      <c r="G517" s="40"/>
+      <c r="H517" s="41"/>
+      <c r="K517" s="39"/>
+      <c r="L517" s="39"/>
     </row>
     <row r="518">
-      <c r="G518" s="41"/>
-      <c r="H518" s="42"/>
-      <c r="K518" s="40"/>
-      <c r="L518" s="40"/>
+      <c r="G518" s="40"/>
+      <c r="H518" s="41"/>
+      <c r="K518" s="39"/>
+      <c r="L518" s="39"/>
     </row>
     <row r="519">
-      <c r="G519" s="41"/>
-      <c r="H519" s="42"/>
-      <c r="K519" s="40"/>
-      <c r="L519" s="40"/>
+      <c r="G519" s="40"/>
+      <c r="H519" s="41"/>
+      <c r="K519" s="39"/>
+      <c r="L519" s="39"/>
     </row>
     <row r="520">
-      <c r="G520" s="41"/>
-      <c r="H520" s="42"/>
-      <c r="K520" s="40"/>
-      <c r="L520" s="40"/>
+      <c r="G520" s="40"/>
+      <c r="H520" s="41"/>
+      <c r="K520" s="39"/>
+      <c r="L520" s="39"/>
     </row>
     <row r="521">
-      <c r="G521" s="41"/>
-      <c r="H521" s="42"/>
-      <c r="K521" s="40"/>
-      <c r="L521" s="40"/>
+      <c r="G521" s="40"/>
+      <c r="H521" s="41"/>
+      <c r="K521" s="39"/>
+      <c r="L521" s="39"/>
     </row>
     <row r="522">
-      <c r="G522" s="41"/>
-      <c r="H522" s="42"/>
-      <c r="K522" s="40"/>
-      <c r="L522" s="40"/>
+      <c r="G522" s="40"/>
+      <c r="H522" s="41"/>
+      <c r="K522" s="39"/>
+      <c r="L522" s="39"/>
     </row>
     <row r="523">
-      <c r="G523" s="41"/>
-      <c r="H523" s="42"/>
-      <c r="K523" s="40"/>
-      <c r="L523" s="40"/>
+      <c r="G523" s="40"/>
+      <c r="H523" s="41"/>
+      <c r="K523" s="39"/>
+      <c r="L523" s="39"/>
     </row>
     <row r="524">
-      <c r="G524" s="41"/>
-      <c r="H524" s="42"/>
-      <c r="K524" s="40"/>
-      <c r="L524" s="40"/>
+      <c r="G524" s="40"/>
+      <c r="H524" s="41"/>
+      <c r="K524" s="39"/>
+      <c r="L524" s="39"/>
     </row>
     <row r="525">
-      <c r="G525" s="41"/>
-      <c r="H525" s="42"/>
-      <c r="K525" s="40"/>
-      <c r="L525" s="40"/>
+      <c r="G525" s="40"/>
+      <c r="H525" s="41"/>
+      <c r="K525" s="39"/>
+      <c r="L525" s="39"/>
     </row>
     <row r="526">
-      <c r="G526" s="41"/>
-      <c r="H526" s="42"/>
-      <c r="K526" s="40"/>
-      <c r="L526" s="40"/>
+      <c r="G526" s="40"/>
+      <c r="H526" s="41"/>
+      <c r="K526" s="39"/>
+      <c r="L526" s="39"/>
     </row>
     <row r="527">
-      <c r="G527" s="41"/>
-      <c r="H527" s="42"/>
-      <c r="K527" s="40"/>
-      <c r="L527" s="40"/>
+      <c r="G527" s="40"/>
+      <c r="H527" s="41"/>
+      <c r="K527" s="39"/>
+      <c r="L527" s="39"/>
     </row>
     <row r="528">
-      <c r="G528" s="41"/>
-      <c r="H528" s="42"/>
-      <c r="K528" s="40"/>
-      <c r="L528" s="40"/>
+      <c r="G528" s="40"/>
+      <c r="H528" s="41"/>
+      <c r="K528" s="39"/>
+      <c r="L528" s="39"/>
     </row>
     <row r="529">
-      <c r="G529" s="41"/>
-      <c r="H529" s="42"/>
-      <c r="K529" s="40"/>
-      <c r="L529" s="40"/>
+      <c r="G529" s="40"/>
+      <c r="H529" s="41"/>
+      <c r="K529" s="39"/>
+      <c r="L529" s="39"/>
     </row>
     <row r="530">
-      <c r="G530" s="41"/>
-      <c r="H530" s="42"/>
-      <c r="K530" s="40"/>
-      <c r="L530" s="40"/>
+      <c r="G530" s="40"/>
+      <c r="H530" s="41"/>
+      <c r="K530" s="39"/>
+      <c r="L530" s="39"/>
     </row>
     <row r="531">
-      <c r="G531" s="41"/>
-      <c r="H531" s="42"/>
-      <c r="K531" s="40"/>
-      <c r="L531" s="40"/>
+      <c r="G531" s="40"/>
+      <c r="H531" s="41"/>
+      <c r="K531" s="39"/>
+      <c r="L531" s="39"/>
     </row>
     <row r="532">
-      <c r="G532" s="41"/>
-      <c r="H532" s="42"/>
-      <c r="K532" s="40"/>
-      <c r="L532" s="40"/>
+      <c r="G532" s="40"/>
+      <c r="H532" s="41"/>
+      <c r="K532" s="39"/>
+      <c r="L532" s="39"/>
     </row>
     <row r="533">
-      <c r="G533" s="41"/>
-      <c r="H533" s="42"/>
-      <c r="K533" s="40"/>
-      <c r="L533" s="40"/>
+      <c r="G533" s="40"/>
+      <c r="H533" s="41"/>
+      <c r="K533" s="39"/>
+      <c r="L533" s="39"/>
     </row>
     <row r="534">
-      <c r="G534" s="41"/>
-      <c r="H534" s="42"/>
-      <c r="K534" s="40"/>
-      <c r="L534" s="40"/>
+      <c r="G534" s="40"/>
+      <c r="H534" s="41"/>
+      <c r="K534" s="39"/>
+      <c r="L534" s="39"/>
     </row>
     <row r="535">
-      <c r="G535" s="41"/>
-      <c r="H535" s="42"/>
-      <c r="K535" s="40"/>
-      <c r="L535" s="40"/>
+      <c r="G535" s="40"/>
+      <c r="H535" s="41"/>
+      <c r="K535" s="39"/>
+      <c r="L535" s="39"/>
     </row>
     <row r="536">
-      <c r="G536" s="41"/>
-      <c r="H536" s="42"/>
-      <c r="K536" s="40"/>
-      <c r="L536" s="40"/>
+      <c r="G536" s="40"/>
+      <c r="H536" s="41"/>
+      <c r="K536" s="39"/>
+      <c r="L536" s="39"/>
     </row>
     <row r="537">
-      <c r="G537" s="41"/>
-      <c r="H537" s="42"/>
-      <c r="K537" s="40"/>
-      <c r="L537" s="40"/>
+      <c r="G537" s="40"/>
+      <c r="H537" s="41"/>
+      <c r="K537" s="39"/>
+      <c r="L537" s="39"/>
     </row>
     <row r="538">
-      <c r="G538" s="41"/>
-      <c r="H538" s="42"/>
-      <c r="K538" s="40"/>
-      <c r="L538" s="40"/>
+      <c r="G538" s="40"/>
+      <c r="H538" s="41"/>
+      <c r="K538" s="39"/>
+      <c r="L538" s="39"/>
     </row>
     <row r="539">
-      <c r="G539" s="41"/>
-      <c r="H539" s="42"/>
-      <c r="K539" s="40"/>
-      <c r="L539" s="40"/>
+      <c r="G539" s="40"/>
+      <c r="H539" s="41"/>
+      <c r="K539" s="39"/>
+      <c r="L539" s="39"/>
     </row>
     <row r="540">
-      <c r="G540" s="41"/>
-      <c r="H540" s="42"/>
-      <c r="K540" s="40"/>
-      <c r="L540" s="40"/>
+      <c r="G540" s="40"/>
+      <c r="H540" s="41"/>
+      <c r="K540" s="39"/>
+      <c r="L540" s="39"/>
     </row>
     <row r="541">
-      <c r="G541" s="41"/>
-      <c r="H541" s="42"/>
-      <c r="K541" s="40"/>
-      <c r="L541" s="40"/>
+      <c r="G541" s="40"/>
+      <c r="H541" s="41"/>
+      <c r="K541" s="39"/>
+      <c r="L541" s="39"/>
     </row>
     <row r="542">
-      <c r="G542" s="41"/>
-      <c r="H542" s="42"/>
-      <c r="K542" s="40"/>
-      <c r="L542" s="40"/>
+      <c r="G542" s="40"/>
+      <c r="H542" s="41"/>
+      <c r="K542" s="39"/>
+      <c r="L542" s="39"/>
     </row>
     <row r="543">
-      <c r="G543" s="41"/>
-      <c r="H543" s="42"/>
-      <c r="K543" s="40"/>
-      <c r="L543" s="40"/>
+      <c r="G543" s="40"/>
+      <c r="H543" s="41"/>
+      <c r="K543" s="39"/>
+      <c r="L543" s="39"/>
     </row>
     <row r="544">
-      <c r="G544" s="41"/>
-      <c r="H544" s="42"/>
-      <c r="K544" s="40"/>
-      <c r="L544" s="40"/>
+      <c r="G544" s="40"/>
+      <c r="H544" s="41"/>
+      <c r="K544" s="39"/>
+      <c r="L544" s="39"/>
     </row>
     <row r="545">
-      <c r="G545" s="41"/>
-      <c r="H545" s="42"/>
-      <c r="K545" s="40"/>
-      <c r="L545" s="40"/>
+      <c r="G545" s="40"/>
+      <c r="H545" s="41"/>
+      <c r="K545" s="39"/>
+      <c r="L545" s="39"/>
     </row>
     <row r="546">
-      <c r="G546" s="41"/>
-      <c r="H546" s="42"/>
-      <c r="K546" s="40"/>
-      <c r="L546" s="40"/>
+      <c r="G546" s="40"/>
+      <c r="H546" s="41"/>
+      <c r="K546" s="39"/>
+      <c r="L546" s="39"/>
     </row>
     <row r="547">
-      <c r="G547" s="41"/>
-      <c r="H547" s="42"/>
-      <c r="K547" s="40"/>
-      <c r="L547" s="40"/>
+      <c r="G547" s="40"/>
+      <c r="H547" s="41"/>
+      <c r="K547" s="39"/>
+      <c r="L547" s="39"/>
     </row>
     <row r="548">
-      <c r="G548" s="41"/>
-      <c r="H548" s="42"/>
-      <c r="K548" s="40"/>
-      <c r="L548" s="40"/>
+      <c r="G548" s="40"/>
+      <c r="H548" s="41"/>
+      <c r="K548" s="39"/>
+      <c r="L548" s="39"/>
     </row>
     <row r="549">
-      <c r="G549" s="41"/>
-      <c r="H549" s="42"/>
-      <c r="K549" s="40"/>
-      <c r="L549" s="40"/>
+      <c r="G549" s="40"/>
+      <c r="H549" s="41"/>
+      <c r="K549" s="39"/>
+      <c r="L549" s="39"/>
     </row>
     <row r="550">
-      <c r="G550" s="41"/>
-      <c r="H550" s="42"/>
-      <c r="K550" s="40"/>
-      <c r="L550" s="40"/>
+      <c r="G550" s="40"/>
+      <c r="H550" s="41"/>
+      <c r="K550" s="39"/>
+      <c r="L550" s="39"/>
     </row>
     <row r="551">
-      <c r="G551" s="41"/>
-      <c r="H551" s="42"/>
-      <c r="K551" s="40"/>
-      <c r="L551" s="40"/>
+      <c r="G551" s="40"/>
+      <c r="H551" s="41"/>
+      <c r="K551" s="39"/>
+      <c r="L551" s="39"/>
     </row>
     <row r="552">
-      <c r="G552" s="41"/>
-      <c r="H552" s="42"/>
-      <c r="K552" s="40"/>
-      <c r="L552" s="40"/>
+      <c r="G552" s="40"/>
+      <c r="H552" s="41"/>
+      <c r="K552" s="39"/>
+      <c r="L552" s="39"/>
     </row>
     <row r="553">
-      <c r="G553" s="41"/>
-      <c r="H553" s="42"/>
-      <c r="K553" s="40"/>
-      <c r="L553" s="40"/>
+      <c r="G553" s="40"/>
+      <c r="H553" s="41"/>
+      <c r="K553" s="39"/>
+      <c r="L553" s="39"/>
     </row>
     <row r="554">
-      <c r="G554" s="41"/>
-      <c r="H554" s="42"/>
-      <c r="K554" s="40"/>
-      <c r="L554" s="40"/>
+      <c r="G554" s="40"/>
+      <c r="H554" s="41"/>
+      <c r="K554" s="39"/>
+      <c r="L554" s="39"/>
     </row>
     <row r="555">
-      <c r="G555" s="41"/>
-      <c r="H555" s="42"/>
-      <c r="K555" s="40"/>
-      <c r="L555" s="40"/>
+      <c r="G555" s="40"/>
+      <c r="H555" s="41"/>
+      <c r="K555" s="39"/>
+      <c r="L555" s="39"/>
     </row>
     <row r="556">
-      <c r="G556" s="41"/>
-      <c r="H556" s="42"/>
-      <c r="K556" s="40"/>
-      <c r="L556" s="40"/>
+      <c r="G556" s="40"/>
+      <c r="H556" s="41"/>
+      <c r="K556" s="39"/>
+      <c r="L556" s="39"/>
     </row>
     <row r="557">
-      <c r="G557" s="41"/>
-      <c r="H557" s="42"/>
-      <c r="K557" s="40"/>
-      <c r="L557" s="40"/>
+      <c r="G557" s="40"/>
+      <c r="H557" s="41"/>
+      <c r="K557" s="39"/>
+      <c r="L557" s="39"/>
     </row>
     <row r="558">
-      <c r="G558" s="41"/>
-      <c r="H558" s="42"/>
-      <c r="K558" s="40"/>
-      <c r="L558" s="40"/>
+      <c r="G558" s="40"/>
+      <c r="H558" s="41"/>
+      <c r="K558" s="39"/>
+      <c r="L558" s="39"/>
     </row>
     <row r="559">
-      <c r="G559" s="41"/>
-      <c r="H559" s="42"/>
-      <c r="K559" s="40"/>
-      <c r="L559" s="40"/>
+      <c r="G559" s="40"/>
+      <c r="H559" s="41"/>
+      <c r="K559" s="39"/>
+      <c r="L559" s="39"/>
     </row>
     <row r="560">
-      <c r="G560" s="41"/>
-      <c r="H560" s="42"/>
-      <c r="K560" s="40"/>
-      <c r="L560" s="40"/>
+      <c r="G560" s="40"/>
+      <c r="H560" s="41"/>
+      <c r="K560" s="39"/>
+      <c r="L560" s="39"/>
     </row>
     <row r="561">
-      <c r="G561" s="41"/>
-      <c r="H561" s="42"/>
-      <c r="K561" s="40"/>
-      <c r="L561" s="40"/>
+      <c r="G561" s="40"/>
+      <c r="H561" s="41"/>
+      <c r="K561" s="39"/>
+      <c r="L561" s="39"/>
     </row>
     <row r="562">
-      <c r="G562" s="41"/>
-      <c r="H562" s="42"/>
-      <c r="K562" s="40"/>
-      <c r="L562" s="40"/>
+      <c r="G562" s="40"/>
+      <c r="H562" s="41"/>
+      <c r="K562" s="39"/>
+      <c r="L562" s="39"/>
     </row>
     <row r="563">
-      <c r="G563" s="41"/>
-      <c r="H563" s="42"/>
-      <c r="K563" s="40"/>
-      <c r="L563" s="40"/>
+      <c r="G563" s="40"/>
+      <c r="H563" s="41"/>
+      <c r="K563" s="39"/>
+      <c r="L563" s="39"/>
     </row>
     <row r="564">
-      <c r="G564" s="41"/>
-      <c r="H564" s="42"/>
-      <c r="K564" s="40"/>
-      <c r="L564" s="40"/>
+      <c r="G564" s="40"/>
+      <c r="H564" s="41"/>
+      <c r="K564" s="39"/>
+      <c r="L564" s="39"/>
     </row>
     <row r="565">
-      <c r="G565" s="41"/>
-      <c r="H565" s="42"/>
-      <c r="K565" s="40"/>
-      <c r="L565" s="40"/>
+      <c r="G565" s="40"/>
+      <c r="H565" s="41"/>
+      <c r="K565" s="39"/>
+      <c r="L565" s="39"/>
     </row>
     <row r="566">
-      <c r="G566" s="41"/>
-      <c r="H566" s="42"/>
-      <c r="K566" s="40"/>
-      <c r="L566" s="40"/>
+      <c r="G566" s="40"/>
+      <c r="H566" s="41"/>
+      <c r="K566" s="39"/>
+      <c r="L566" s="39"/>
     </row>
     <row r="567">
-      <c r="G567" s="41"/>
-      <c r="H567" s="42"/>
-      <c r="K567" s="40"/>
-      <c r="L567" s="40"/>
+      <c r="G567" s="40"/>
+      <c r="H567" s="41"/>
+      <c r="K567" s="39"/>
+      <c r="L567" s="39"/>
     </row>
     <row r="568">
-      <c r="G568" s="41"/>
-      <c r="H568" s="42"/>
-      <c r="K568" s="40"/>
-      <c r="L568" s="40"/>
+      <c r="G568" s="40"/>
+      <c r="H568" s="41"/>
+      <c r="K568" s="39"/>
+      <c r="L568" s="39"/>
     </row>
     <row r="569">
-      <c r="G569" s="41"/>
-      <c r="H569" s="42"/>
-      <c r="K569" s="40"/>
-      <c r="L569" s="40"/>
+      <c r="G569" s="40"/>
+      <c r="H569" s="41"/>
+      <c r="K569" s="39"/>
+      <c r="L569" s="39"/>
     </row>
     <row r="570">
-      <c r="G570" s="41"/>
-      <c r="H570" s="42"/>
-      <c r="K570" s="40"/>
-      <c r="L570" s="40"/>
+      <c r="G570" s="40"/>
+      <c r="H570" s="41"/>
+      <c r="K570" s="39"/>
+      <c r="L570" s="39"/>
     </row>
     <row r="571">
-      <c r="G571" s="41"/>
-      <c r="H571" s="42"/>
-      <c r="K571" s="40"/>
-      <c r="L571" s="40"/>
+      <c r="G571" s="40"/>
+      <c r="H571" s="41"/>
+      <c r="K571" s="39"/>
+      <c r="L571" s="39"/>
     </row>
     <row r="572">
-      <c r="G572" s="41"/>
-      <c r="H572" s="42"/>
-      <c r="K572" s="40"/>
-      <c r="L572" s="40"/>
+      <c r="G572" s="40"/>
+      <c r="H572" s="41"/>
+      <c r="K572" s="39"/>
+      <c r="L572" s="39"/>
     </row>
     <row r="573">
-      <c r="G573" s="41"/>
-      <c r="H573" s="42"/>
-      <c r="K573" s="40"/>
-      <c r="L573" s="40"/>
+      <c r="G573" s="40"/>
+      <c r="H573" s="41"/>
+      <c r="K573" s="39"/>
+      <c r="L573" s="39"/>
     </row>
     <row r="574">
-      <c r="G574" s="41"/>
-      <c r="H574" s="42"/>
-      <c r="K574" s="40"/>
-      <c r="L574" s="40"/>
+      <c r="G574" s="40"/>
+      <c r="H574" s="41"/>
+      <c r="K574" s="39"/>
+      <c r="L574" s="39"/>
     </row>
     <row r="575">
-      <c r="G575" s="41"/>
-      <c r="H575" s="42"/>
-      <c r="K575" s="40"/>
-      <c r="L575" s="40"/>
+      <c r="G575" s="40"/>
+      <c r="H575" s="41"/>
+      <c r="K575" s="39"/>
+      <c r="L575" s="39"/>
     </row>
     <row r="576">
-      <c r="G576" s="41"/>
-      <c r="H576" s="42"/>
-      <c r="K576" s="40"/>
-      <c r="L576" s="40"/>
+      <c r="G576" s="40"/>
+      <c r="H576" s="41"/>
+      <c r="K576" s="39"/>
+      <c r="L576" s="39"/>
     </row>
     <row r="577">
-      <c r="G577" s="41"/>
-      <c r="H577" s="42"/>
-      <c r="K577" s="40"/>
-      <c r="L577" s="40"/>
+      <c r="G577" s="40"/>
+      <c r="H577" s="41"/>
+      <c r="K577" s="39"/>
+      <c r="L577" s="39"/>
     </row>
     <row r="578">
-      <c r="G578" s="41"/>
-      <c r="H578" s="42"/>
-      <c r="K578" s="40"/>
-      <c r="L578" s="40"/>
+      <c r="G578" s="40"/>
+      <c r="H578" s="41"/>
+      <c r="K578" s="39"/>
+      <c r="L578" s="39"/>
     </row>
     <row r="579">
-      <c r="G579" s="41"/>
-      <c r="H579" s="42"/>
-      <c r="K579" s="40"/>
-      <c r="L579" s="40"/>
+      <c r="G579" s="40"/>
+      <c r="H579" s="41"/>
+      <c r="K579" s="39"/>
+      <c r="L579" s="39"/>
     </row>
     <row r="580">
-      <c r="G580" s="41"/>
-      <c r="H580" s="42"/>
-      <c r="K580" s="40"/>
-      <c r="L580" s="40"/>
+      <c r="G580" s="40"/>
+      <c r="H580" s="41"/>
+      <c r="K580" s="39"/>
+      <c r="L580" s="39"/>
     </row>
     <row r="581">
-      <c r="G581" s="41"/>
-      <c r="H581" s="42"/>
-      <c r="K581" s="40"/>
-      <c r="L581" s="40"/>
+      <c r="G581" s="40"/>
+      <c r="H581" s="41"/>
+      <c r="K581" s="39"/>
+      <c r="L581" s="39"/>
     </row>
     <row r="582">
-      <c r="G582" s="41"/>
-      <c r="H582" s="42"/>
-      <c r="K582" s="40"/>
-      <c r="L582" s="40"/>
+      <c r="G582" s="40"/>
+      <c r="H582" s="41"/>
+      <c r="K582" s="39"/>
+      <c r="L582" s="39"/>
     </row>
     <row r="583">
-      <c r="G583" s="41"/>
-      <c r="H583" s="42"/>
-      <c r="K583" s="40"/>
-      <c r="L583" s="40"/>
+      <c r="G583" s="40"/>
+      <c r="H583" s="41"/>
+      <c r="K583" s="39"/>
+      <c r="L583" s="39"/>
     </row>
     <row r="584">
-      <c r="G584" s="41"/>
-      <c r="H584" s="42"/>
-      <c r="K584" s="40"/>
-      <c r="L584" s="40"/>
+      <c r="G584" s="40"/>
+      <c r="H584" s="41"/>
+      <c r="K584" s="39"/>
+      <c r="L584" s="39"/>
     </row>
     <row r="585">
-      <c r="G585" s="41"/>
-      <c r="H585" s="42"/>
-      <c r="K585" s="40"/>
-      <c r="L585" s="40"/>
+      <c r="G585" s="40"/>
+      <c r="H585" s="41"/>
+      <c r="K585" s="39"/>
+      <c r="L585" s="39"/>
     </row>
     <row r="586">
-      <c r="G586" s="41"/>
-      <c r="H586" s="42"/>
-      <c r="K586" s="40"/>
-      <c r="L586" s="40"/>
+      <c r="G586" s="40"/>
+      <c r="H586" s="41"/>
+      <c r="K586" s="39"/>
+      <c r="L586" s="39"/>
     </row>
     <row r="587">
-      <c r="G587" s="41"/>
-      <c r="H587" s="42"/>
-      <c r="K587" s="40"/>
-      <c r="L587" s="40"/>
+      <c r="G587" s="40"/>
+      <c r="H587" s="41"/>
+      <c r="K587" s="39"/>
+      <c r="L587" s="39"/>
     </row>
     <row r="588">
-      <c r="G588" s="41"/>
-      <c r="H588" s="42"/>
-      <c r="K588" s="40"/>
-      <c r="L588" s="40"/>
+      <c r="G588" s="40"/>
+      <c r="H588" s="41"/>
+      <c r="K588" s="39"/>
+      <c r="L588" s="39"/>
     </row>
     <row r="589">
-      <c r="G589" s="41"/>
-      <c r="H589" s="42"/>
-      <c r="K589" s="40"/>
-      <c r="L589" s="40"/>
+      <c r="G589" s="40"/>
+      <c r="H589" s="41"/>
+      <c r="K589" s="39"/>
+      <c r="L589" s="39"/>
     </row>
     <row r="590">
-      <c r="G590" s="41"/>
-      <c r="H590" s="42"/>
-      <c r="K590" s="40"/>
-      <c r="L590" s="40"/>
+      <c r="G590" s="40"/>
+      <c r="H590" s="41"/>
+      <c r="K590" s="39"/>
+      <c r="L590" s="39"/>
     </row>
     <row r="591">
-      <c r="G591" s="41"/>
-      <c r="H591" s="42"/>
-      <c r="K591" s="40"/>
-      <c r="L591" s="40"/>
+      <c r="G591" s="40"/>
+      <c r="H591" s="41"/>
+      <c r="K591" s="39"/>
+      <c r="L591" s="39"/>
     </row>
     <row r="592">
-      <c r="G592" s="41"/>
-      <c r="H592" s="42"/>
-      <c r="K592" s="40"/>
-      <c r="L592" s="40"/>
+      <c r="G592" s="40"/>
+      <c r="H592" s="41"/>
+      <c r="K592" s="39"/>
+      <c r="L592" s="39"/>
     </row>
     <row r="593">
-      <c r="G593" s="41"/>
-      <c r="H593" s="42"/>
-      <c r="K593" s="40"/>
-      <c r="L593" s="40"/>
+      <c r="G593" s="40"/>
+      <c r="H593" s="41"/>
+      <c r="K593" s="39"/>
+      <c r="L593" s="39"/>
     </row>
     <row r="594">
-      <c r="G594" s="41"/>
-      <c r="H594" s="42"/>
-      <c r="K594" s="40"/>
-      <c r="L594" s="40"/>
+      <c r="G594" s="40"/>
+      <c r="H594" s="41"/>
+      <c r="K594" s="39"/>
+      <c r="L594" s="39"/>
     </row>
     <row r="595">
-      <c r="G595" s="41"/>
-      <c r="H595" s="42"/>
-      <c r="K595" s="40"/>
-      <c r="L595" s="40"/>
+      <c r="G595" s="40"/>
+      <c r="H595" s="41"/>
+      <c r="K595" s="39"/>
+      <c r="L595" s="39"/>
     </row>
     <row r="596">
-      <c r="G596" s="41"/>
-      <c r="H596" s="42"/>
-      <c r="K596" s="40"/>
-      <c r="L596" s="40"/>
+      <c r="G596" s="40"/>
+      <c r="H596" s="41"/>
+      <c r="K596" s="39"/>
+      <c r="L596" s="39"/>
     </row>
     <row r="597">
-      <c r="G597" s="41"/>
-      <c r="H597" s="42"/>
-      <c r="K597" s="40"/>
-      <c r="L597" s="40"/>
+      <c r="G597" s="40"/>
+      <c r="H597" s="41"/>
+      <c r="K597" s="39"/>
+      <c r="L597" s="39"/>
     </row>
     <row r="598">
-      <c r="G598" s="41"/>
-      <c r="H598" s="42"/>
-      <c r="K598" s="40"/>
-      <c r="L598" s="40"/>
+      <c r="G598" s="40"/>
+      <c r="H598" s="41"/>
+      <c r="K598" s="39"/>
+      <c r="L598" s="39"/>
     </row>
     <row r="599">
-      <c r="G599" s="41"/>
-      <c r="H599" s="42"/>
-      <c r="K599" s="40"/>
-      <c r="L599" s="40"/>
+      <c r="G599" s="40"/>
+      <c r="H599" s="41"/>
+      <c r="K599" s="39"/>
+      <c r="L599" s="39"/>
     </row>
     <row r="600">
-      <c r="G600" s="41"/>
-      <c r="H600" s="42"/>
-      <c r="K600" s="40"/>
-      <c r="L600" s="40"/>
+      <c r="G600" s="40"/>
+      <c r="H600" s="41"/>
+      <c r="K600" s="39"/>
+      <c r="L600" s="39"/>
     </row>
     <row r="601">
-      <c r="G601" s="41"/>
-      <c r="H601" s="42"/>
-      <c r="K601" s="40"/>
-      <c r="L601" s="40"/>
+      <c r="G601" s="40"/>
+      <c r="H601" s="41"/>
+      <c r="K601" s="39"/>
+      <c r="L601" s="39"/>
     </row>
     <row r="602">
-      <c r="G602" s="41"/>
-      <c r="H602" s="42"/>
-      <c r="K602" s="40"/>
-      <c r="L602" s="40"/>
+      <c r="G602" s="40"/>
+      <c r="H602" s="41"/>
+      <c r="K602" s="39"/>
+      <c r="L602" s="39"/>
     </row>
     <row r="603">
-      <c r="G603" s="41"/>
-      <c r="H603" s="42"/>
-      <c r="K603" s="40"/>
-      <c r="L603" s="40"/>
+      <c r="G603" s="40"/>
+      <c r="H603" s="41"/>
+      <c r="K603" s="39"/>
+      <c r="L603" s="39"/>
     </row>
     <row r="604">
-      <c r="G604" s="41"/>
-      <c r="H604" s="42"/>
-      <c r="K604" s="40"/>
-      <c r="L604" s="40"/>
+      <c r="G604" s="40"/>
+      <c r="H604" s="41"/>
+      <c r="K604" s="39"/>
+      <c r="L604" s="39"/>
     </row>
     <row r="605">
-      <c r="G605" s="41"/>
-      <c r="H605" s="42"/>
-      <c r="K605" s="40"/>
-      <c r="L605" s="40"/>
+      <c r="G605" s="40"/>
+      <c r="H605" s="41"/>
+      <c r="K605" s="39"/>
+      <c r="L605" s="39"/>
     </row>
     <row r="606">
-      <c r="G606" s="41"/>
-      <c r="H606" s="42"/>
-      <c r="K606" s="40"/>
-      <c r="L606" s="40"/>
+      <c r="G606" s="40"/>
+      <c r="H606" s="41"/>
+      <c r="K606" s="39"/>
+      <c r="L606" s="39"/>
     </row>
     <row r="607">
-      <c r="G607" s="41"/>
-      <c r="H607" s="42"/>
-      <c r="K607" s="40"/>
-      <c r="L607" s="40"/>
+      <c r="G607" s="40"/>
+      <c r="H607" s="41"/>
+      <c r="K607" s="39"/>
+      <c r="L607" s="39"/>
     </row>
     <row r="608">
-      <c r="G608" s="41"/>
-      <c r="H608" s="42"/>
-      <c r="K608" s="40"/>
-      <c r="L608" s="40"/>
+      <c r="G608" s="40"/>
+      <c r="H608" s="41"/>
+      <c r="K608" s="39"/>
+      <c r="L608" s="39"/>
     </row>
     <row r="609">
-      <c r="G609" s="41"/>
-      <c r="H609" s="42"/>
-      <c r="K609" s="40"/>
-      <c r="L609" s="40"/>
+      <c r="G609" s="40"/>
+      <c r="H609" s="41"/>
+      <c r="K609" s="39"/>
+      <c r="L609" s="39"/>
     </row>
     <row r="610">
-      <c r="G610" s="41"/>
-      <c r="H610" s="42"/>
-      <c r="K610" s="40"/>
-      <c r="L610" s="40"/>
+      <c r="G610" s="40"/>
+      <c r="H610" s="41"/>
+      <c r="K610" s="39"/>
+      <c r="L610" s="39"/>
     </row>
     <row r="611">
-      <c r="G611" s="41"/>
-      <c r="H611" s="42"/>
-      <c r="K611" s="40"/>
-      <c r="L611" s="40"/>
+      <c r="G611" s="40"/>
+      <c r="H611" s="41"/>
+      <c r="K611" s="39"/>
+      <c r="L611" s="39"/>
     </row>
     <row r="612">
-      <c r="G612" s="41"/>
-      <c r="H612" s="42"/>
-      <c r="K612" s="40"/>
-      <c r="L612" s="40"/>
+      <c r="G612" s="40"/>
+      <c r="H612" s="41"/>
+      <c r="K612" s="39"/>
+      <c r="L612" s="39"/>
     </row>
     <row r="613">
-      <c r="G613" s="41"/>
-      <c r="H613" s="42"/>
-      <c r="K613" s="40"/>
-      <c r="L613" s="40"/>
+      <c r="G613" s="40"/>
+      <c r="H613" s="41"/>
+      <c r="K613" s="39"/>
+      <c r="L613" s="39"/>
     </row>
     <row r="614">
-      <c r="G614" s="41"/>
-      <c r="H614" s="42"/>
-      <c r="K614" s="40"/>
-      <c r="L614" s="40"/>
+      <c r="G614" s="40"/>
+      <c r="H614" s="41"/>
+      <c r="K614" s="39"/>
+      <c r="L614" s="39"/>
     </row>
     <row r="615">
-      <c r="G615" s="41"/>
-      <c r="H615" s="42"/>
-      <c r="K615" s="40"/>
-      <c r="L615" s="40"/>
+      <c r="G615" s="40"/>
+      <c r="H615" s="41"/>
+      <c r="K615" s="39"/>
+      <c r="L615" s="39"/>
     </row>
     <row r="616">
-      <c r="G616" s="41"/>
-      <c r="H616" s="42"/>
-      <c r="K616" s="40"/>
-      <c r="L616" s="40"/>
+      <c r="G616" s="40"/>
+      <c r="H616" s="41"/>
+      <c r="K616" s="39"/>
+      <c r="L616" s="39"/>
     </row>
     <row r="617">
-      <c r="G617" s="41"/>
-      <c r="H617" s="42"/>
-      <c r="K617" s="40"/>
-      <c r="L617" s="40"/>
+      <c r="G617" s="40"/>
+      <c r="H617" s="41"/>
+      <c r="K617" s="39"/>
+      <c r="L617" s="39"/>
     </row>
     <row r="618">
-      <c r="G618" s="41"/>
-      <c r="H618" s="42"/>
-      <c r="K618" s="40"/>
-      <c r="L618" s="40"/>
+      <c r="G618" s="40"/>
+      <c r="H618" s="41"/>
+      <c r="K618" s="39"/>
+      <c r="L618" s="39"/>
     </row>
     <row r="619">
-      <c r="G619" s="41"/>
-      <c r="H619" s="42"/>
-      <c r="K619" s="40"/>
-      <c r="L619" s="40"/>
+      <c r="G619" s="40"/>
+      <c r="H619" s="41"/>
+      <c r="K619" s="39"/>
+      <c r="L619" s="39"/>
     </row>
     <row r="620">
-      <c r="G620" s="41"/>
-      <c r="H620" s="42"/>
-      <c r="K620" s="40"/>
-      <c r="L620" s="40"/>
+      <c r="G620" s="40"/>
+      <c r="H620" s="41"/>
+      <c r="K620" s="39"/>
+      <c r="L620" s="39"/>
     </row>
     <row r="621">
-      <c r="G621" s="41"/>
-      <c r="H621" s="42"/>
-      <c r="K621" s="40"/>
-      <c r="L621" s="40"/>
+      <c r="G621" s="40"/>
+      <c r="H621" s="41"/>
+      <c r="K621" s="39"/>
+      <c r="L621" s="39"/>
     </row>
     <row r="622">
-      <c r="G622" s="41"/>
-      <c r="H622" s="42"/>
-      <c r="K622" s="40"/>
-      <c r="L622" s="40"/>
+      <c r="G622" s="40"/>
+      <c r="H622" s="41"/>
+      <c r="K622" s="39"/>
+      <c r="L622" s="39"/>
     </row>
     <row r="623">
-      <c r="G623" s="41"/>
-      <c r="H623" s="42"/>
-      <c r="K623" s="40"/>
-      <c r="L623" s="40"/>
+      <c r="G623" s="40"/>
+      <c r="H623" s="41"/>
+      <c r="K623" s="39"/>
+      <c r="L623" s="39"/>
     </row>
     <row r="624">
-      <c r="G624" s="41"/>
-      <c r="H624" s="42"/>
-      <c r="K624" s="40"/>
-      <c r="L624" s="40"/>
+      <c r="G624" s="40"/>
+      <c r="H624" s="41"/>
+      <c r="K624" s="39"/>
+      <c r="L624" s="39"/>
     </row>
     <row r="625">
-      <c r="G625" s="41"/>
-      <c r="H625" s="42"/>
-      <c r="K625" s="40"/>
-      <c r="L625" s="40"/>
+      <c r="G625" s="40"/>
+      <c r="H625" s="41"/>
+      <c r="K625" s="39"/>
+      <c r="L625" s="39"/>
     </row>
     <row r="626">
-      <c r="G626" s="41"/>
-      <c r="H626" s="42"/>
-      <c r="K626" s="40"/>
-      <c r="L626" s="40"/>
+      <c r="G626" s="40"/>
+      <c r="H626" s="41"/>
+      <c r="K626" s="39"/>
+      <c r="L626" s="39"/>
     </row>
     <row r="627">
-      <c r="G627" s="41"/>
-      <c r="H627" s="42"/>
-      <c r="K627" s="40"/>
-      <c r="L627" s="40"/>
+      <c r="G627" s="40"/>
+      <c r="H627" s="41"/>
+      <c r="K627" s="39"/>
+      <c r="L627" s="39"/>
     </row>
     <row r="628">
-      <c r="G628" s="41"/>
-      <c r="H628" s="42"/>
-      <c r="K628" s="40"/>
-      <c r="L628" s="40"/>
+      <c r="G628" s="40"/>
+      <c r="H628" s="41"/>
+      <c r="K628" s="39"/>
+      <c r="L628" s="39"/>
     </row>
     <row r="629">
-      <c r="G629" s="41"/>
-      <c r="H629" s="42"/>
-      <c r="K629" s="40"/>
-      <c r="L629" s="40"/>
+      <c r="G629" s="40"/>
+      <c r="H629" s="41"/>
+      <c r="K629" s="39"/>
+      <c r="L629" s="39"/>
     </row>
     <row r="630">
-      <c r="G630" s="41"/>
-      <c r="H630" s="42"/>
-      <c r="K630" s="40"/>
-      <c r="L630" s="40"/>
+      <c r="G630" s="40"/>
+      <c r="H630" s="41"/>
+      <c r="K630" s="39"/>
+      <c r="L630" s="39"/>
     </row>
     <row r="631">
-      <c r="G631" s="41"/>
-      <c r="H631" s="42"/>
-      <c r="K631" s="40"/>
-      <c r="L631" s="40"/>
+      <c r="G631" s="40"/>
+      <c r="H631" s="41"/>
+      <c r="K631" s="39"/>
+      <c r="L631" s="39"/>
     </row>
     <row r="632">
-      <c r="G632" s="41"/>
-      <c r="H632" s="42"/>
-      <c r="K632" s="40"/>
-      <c r="L632" s="40"/>
+      <c r="G632" s="40"/>
+      <c r="H632" s="41"/>
+      <c r="K632" s="39"/>
+      <c r="L632" s="39"/>
     </row>
     <row r="633">
-      <c r="G633" s="41"/>
-      <c r="H633" s="42"/>
-      <c r="K633" s="40"/>
-      <c r="L633" s="40"/>
+      <c r="G633" s="40"/>
+      <c r="H633" s="41"/>
+      <c r="K633" s="39"/>
+      <c r="L633" s="39"/>
     </row>
     <row r="634">
-      <c r="G634" s="41"/>
-      <c r="H634" s="42"/>
-      <c r="K634" s="40"/>
-      <c r="L634" s="40"/>
+      <c r="G634" s="40"/>
+      <c r="H634" s="41"/>
+      <c r="K634" s="39"/>
+      <c r="L634" s="39"/>
     </row>
     <row r="635">
-      <c r="G635" s="41"/>
-      <c r="H635" s="42"/>
-      <c r="K635" s="40"/>
-      <c r="L635" s="40"/>
+      <c r="G635" s="40"/>
+      <c r="H635" s="41"/>
+      <c r="K635" s="39"/>
+      <c r="L635" s="39"/>
     </row>
     <row r="636">
-      <c r="G636" s="41"/>
-      <c r="H636" s="42"/>
-      <c r="K636" s="40"/>
-      <c r="L636" s="40"/>
+      <c r="G636" s="40"/>
+      <c r="H636" s="41"/>
+      <c r="K636" s="39"/>
+      <c r="L636" s="39"/>
     </row>
     <row r="637">
-      <c r="G637" s="41"/>
-      <c r="H637" s="42"/>
-      <c r="K637" s="40"/>
-      <c r="L637" s="40"/>
+      <c r="G637" s="40"/>
+      <c r="H637" s="41"/>
+      <c r="K637" s="39"/>
+      <c r="L637" s="39"/>
     </row>
     <row r="638">
-      <c r="G638" s="41"/>
-      <c r="H638" s="42"/>
-      <c r="K638" s="40"/>
-      <c r="L638" s="40"/>
+      <c r="G638" s="40"/>
+      <c r="H638" s="41"/>
+      <c r="K638" s="39"/>
+      <c r="L638" s="39"/>
     </row>
     <row r="639">
-      <c r="G639" s="41"/>
-      <c r="H639" s="42"/>
-      <c r="K639" s="40"/>
-      <c r="L639" s="40"/>
+      <c r="G639" s="40"/>
+      <c r="H639" s="41"/>
+      <c r="K639" s="39"/>
+      <c r="L639" s="39"/>
     </row>
     <row r="640">
-      <c r="G640" s="41"/>
-      <c r="H640" s="42"/>
-      <c r="K640" s="40"/>
-      <c r="L640" s="40"/>
+      <c r="G640" s="40"/>
+      <c r="H640" s="41"/>
+      <c r="K640" s="39"/>
+      <c r="L640" s="39"/>
     </row>
     <row r="641">
-      <c r="G641" s="41"/>
-      <c r="H641" s="42"/>
-      <c r="K641" s="40"/>
-      <c r="L641" s="40"/>
+      <c r="G641" s="40"/>
+      <c r="H641" s="41"/>
+      <c r="K641" s="39"/>
+      <c r="L641" s="39"/>
     </row>
     <row r="642">
-      <c r="G642" s="41"/>
-      <c r="H642" s="42"/>
-      <c r="K642" s="40"/>
-      <c r="L642" s="40"/>
+      <c r="G642" s="40"/>
+      <c r="H642" s="41"/>
+      <c r="K642" s="39"/>
+      <c r="L642" s="39"/>
     </row>
     <row r="643">
-      <c r="G643" s="41"/>
-      <c r="H643" s="42"/>
-      <c r="K643" s="40"/>
-      <c r="L643" s="40"/>
+      <c r="G643" s="40"/>
+      <c r="H643" s="41"/>
+      <c r="K643" s="39"/>
+      <c r="L643" s="39"/>
     </row>
     <row r="644">
-      <c r="G644" s="41"/>
-      <c r="H644" s="42"/>
-      <c r="K644" s="40"/>
-      <c r="L644" s="40"/>
+      <c r="G644" s="40"/>
+      <c r="H644" s="41"/>
+      <c r="K644" s="39"/>
+      <c r="L644" s="39"/>
     </row>
     <row r="645">
-      <c r="G645" s="41"/>
-      <c r="H645" s="42"/>
-      <c r="K645" s="40"/>
-      <c r="L645" s="40"/>
+      <c r="G645" s="40"/>
+      <c r="H645" s="41"/>
+      <c r="K645" s="39"/>
+      <c r="L645" s="39"/>
     </row>
     <row r="646">
-      <c r="G646" s="41"/>
-      <c r="H646" s="42"/>
-      <c r="K646" s="40"/>
-      <c r="L646" s="40"/>
+      <c r="G646" s="40"/>
+      <c r="H646" s="41"/>
+      <c r="K646" s="39"/>
+      <c r="L646" s="39"/>
     </row>
     <row r="647">
-      <c r="G647" s="41"/>
-      <c r="H647" s="42"/>
-      <c r="K647" s="40"/>
-      <c r="L647" s="40"/>
+      <c r="G647" s="40"/>
+      <c r="H647" s="41"/>
+      <c r="K647" s="39"/>
+      <c r="L647" s="39"/>
     </row>
     <row r="648">
-      <c r="G648" s="41"/>
-      <c r="H648" s="42"/>
-      <c r="K648" s="40"/>
-      <c r="L648" s="40"/>
+      <c r="G648" s="40"/>
+      <c r="H648" s="41"/>
+      <c r="K648" s="39"/>
+      <c r="L648" s="39"/>
     </row>
     <row r="649">
-      <c r="G649" s="41"/>
-      <c r="H649" s="42"/>
-      <c r="K649" s="40"/>
-      <c r="L649" s="40"/>
+      <c r="G649" s="40"/>
+      <c r="H649" s="41"/>
+      <c r="K649" s="39"/>
+      <c r="L649" s="39"/>
     </row>
     <row r="650">
-      <c r="G650" s="41"/>
-      <c r="H650" s="42"/>
-      <c r="K650" s="40"/>
-      <c r="L650" s="40"/>
+      <c r="G650" s="40"/>
+      <c r="H650" s="41"/>
+      <c r="K650" s="39"/>
+      <c r="L650" s="39"/>
     </row>
     <row r="651">
-      <c r="G651" s="41"/>
-      <c r="H651" s="42"/>
-      <c r="K651" s="40"/>
-      <c r="L651" s="40"/>
+      <c r="G651" s="40"/>
+      <c r="H651" s="41"/>
+      <c r="K651" s="39"/>
+      <c r="L651" s="39"/>
     </row>
     <row r="652">
-      <c r="G652" s="41"/>
-      <c r="H652" s="42"/>
-      <c r="K652" s="40"/>
-      <c r="L652" s="40"/>
+      <c r="G652" s="40"/>
+      <c r="H652" s="41"/>
+      <c r="K652" s="39"/>
+      <c r="L652" s="39"/>
     </row>
     <row r="653">
-      <c r="G653" s="41"/>
-      <c r="H653" s="42"/>
-      <c r="K653" s="40"/>
-      <c r="L653" s="40"/>
+      <c r="G653" s="40"/>
+      <c r="H653" s="41"/>
+      <c r="K653" s="39"/>
+      <c r="L653" s="39"/>
     </row>
     <row r="654">
-      <c r="G654" s="41"/>
-      <c r="H654" s="42"/>
-      <c r="K654" s="40"/>
-      <c r="L654" s="40"/>
+      <c r="G654" s="40"/>
+      <c r="H654" s="41"/>
+      <c r="K654" s="39"/>
+      <c r="L654" s="39"/>
     </row>
     <row r="655">
-      <c r="G655" s="41"/>
-      <c r="H655" s="42"/>
-      <c r="K655" s="40"/>
-      <c r="L655" s="40"/>
+      <c r="G655" s="40"/>
+      <c r="H655" s="41"/>
+      <c r="K655" s="39"/>
+      <c r="L655" s="39"/>
     </row>
     <row r="656">
-      <c r="G656" s="41"/>
-      <c r="H656" s="42"/>
-      <c r="K656" s="40"/>
-      <c r="L656" s="40"/>
+      <c r="G656" s="40"/>
+      <c r="H656" s="41"/>
+      <c r="K656" s="39"/>
+      <c r="L656" s="39"/>
     </row>
     <row r="657">
-      <c r="G657" s="41"/>
-      <c r="H657" s="42"/>
-      <c r="K657" s="40"/>
-      <c r="L657" s="40"/>
+      <c r="G657" s="40"/>
+      <c r="H657" s="41"/>
+      <c r="K657" s="39"/>
+      <c r="L657" s="39"/>
     </row>
     <row r="658">
-      <c r="G658" s="41"/>
-      <c r="H658" s="42"/>
-      <c r="K658" s="40"/>
-      <c r="L658" s="40"/>
+      <c r="G658" s="40"/>
+      <c r="H658" s="41"/>
+      <c r="K658" s="39"/>
+      <c r="L658" s="39"/>
     </row>
     <row r="659">
-      <c r="G659" s="41"/>
-      <c r="H659" s="42"/>
-      <c r="K659" s="40"/>
-      <c r="L659" s="40"/>
+      <c r="G659" s="40"/>
+      <c r="H659" s="41"/>
+      <c r="K659" s="39"/>
+      <c r="L659" s="39"/>
     </row>
     <row r="660">
-      <c r="G660" s="41"/>
-      <c r="H660" s="42"/>
-      <c r="K660" s="40"/>
-      <c r="L660" s="40"/>
+      <c r="G660" s="40"/>
+      <c r="H660" s="41"/>
+      <c r="K660" s="39"/>
+      <c r="L660" s="39"/>
     </row>
     <row r="661">
-      <c r="G661" s="41"/>
-      <c r="H661" s="42"/>
-      <c r="K661" s="40"/>
-      <c r="L661" s="40"/>
+      <c r="G661" s="40"/>
+      <c r="H661" s="41"/>
+      <c r="K661" s="39"/>
+      <c r="L661" s="39"/>
     </row>
     <row r="662">
-      <c r="G662" s="41"/>
-      <c r="H662" s="42"/>
-      <c r="K662" s="40"/>
-      <c r="L662" s="40"/>
+      <c r="G662" s="40"/>
+      <c r="H662" s="41"/>
+      <c r="K662" s="39"/>
+      <c r="L662" s="39"/>
     </row>
     <row r="663">
-      <c r="G663" s="41"/>
-      <c r="H663" s="42"/>
-      <c r="K663" s="40"/>
-      <c r="L663" s="40"/>
+      <c r="G663" s="40"/>
+      <c r="H663" s="41"/>
+      <c r="K663" s="39"/>
+      <c r="L663" s="39"/>
     </row>
     <row r="664">
-      <c r="G664" s="41"/>
-      <c r="H664" s="42"/>
-      <c r="K664" s="40"/>
-      <c r="L664" s="40"/>
+      <c r="G664" s="40"/>
+      <c r="H664" s="41"/>
+      <c r="K664" s="39"/>
+      <c r="L664" s="39"/>
     </row>
     <row r="665">
-      <c r="G665" s="41"/>
-      <c r="H665" s="42"/>
-      <c r="K665" s="40"/>
-      <c r="L665" s="40"/>
+      <c r="G665" s="40"/>
+      <c r="H665" s="41"/>
+      <c r="K665" s="39"/>
+      <c r="L665" s="39"/>
     </row>
     <row r="666">
-      <c r="G666" s="41"/>
-      <c r="H666" s="42"/>
-      <c r="K666" s="40"/>
-      <c r="L666" s="40"/>
+      <c r="G666" s="40"/>
+      <c r="H666" s="41"/>
+      <c r="K666" s="39"/>
+      <c r="L666" s="39"/>
     </row>
     <row r="667">
-      <c r="G667" s="41"/>
-      <c r="H667" s="42"/>
-      <c r="K667" s="40"/>
-      <c r="L667" s="40"/>
+      <c r="G667" s="40"/>
+      <c r="H667" s="41"/>
+      <c r="K667" s="39"/>
+      <c r="L667" s="39"/>
     </row>
     <row r="668">
-      <c r="G668" s="41"/>
-      <c r="H668" s="42"/>
-      <c r="K668" s="40"/>
-      <c r="L668" s="40"/>
+      <c r="G668" s="40"/>
+      <c r="H668" s="41"/>
+      <c r="K668" s="39"/>
+      <c r="L668" s="39"/>
     </row>
     <row r="669">
-      <c r="G669" s="41"/>
-      <c r="H669" s="42"/>
-      <c r="K669" s="40"/>
-      <c r="L669" s="40"/>
+      <c r="G669" s="40"/>
+      <c r="H669" s="41"/>
+      <c r="K669" s="39"/>
+      <c r="L669" s="39"/>
     </row>
     <row r="670">
-      <c r="G670" s="41"/>
-      <c r="H670" s="42"/>
-      <c r="K670" s="40"/>
-      <c r="L670" s="40"/>
+      <c r="G670" s="40"/>
+      <c r="H670" s="41"/>
+      <c r="K670" s="39"/>
+      <c r="L670" s="39"/>
     </row>
     <row r="671">
-      <c r="G671" s="41"/>
-      <c r="H671" s="42"/>
-      <c r="K671" s="40"/>
-      <c r="L671" s="40"/>
+      <c r="G671" s="40"/>
+      <c r="H671" s="41"/>
+      <c r="K671" s="39"/>
+      <c r="L671" s="39"/>
     </row>
     <row r="672">
-      <c r="G672" s="41"/>
-      <c r="H672" s="42"/>
-      <c r="K672" s="40"/>
-      <c r="L672" s="40"/>
+      <c r="G672" s="40"/>
+      <c r="H672" s="41"/>
+      <c r="K672" s="39"/>
+      <c r="L672" s="39"/>
     </row>
     <row r="673">
-      <c r="G673" s="41"/>
-      <c r="H673" s="42"/>
-      <c r="K673" s="40"/>
-      <c r="L673" s="40"/>
+      <c r="G673" s="40"/>
+      <c r="H673" s="41"/>
+      <c r="K673" s="39"/>
+      <c r="L673" s="39"/>
     </row>
     <row r="674">
-      <c r="G674" s="41"/>
-      <c r="H674" s="42"/>
-      <c r="K674" s="40"/>
-      <c r="L674" s="40"/>
+      <c r="G674" s="40"/>
+      <c r="H674" s="41"/>
+      <c r="K674" s="39"/>
+      <c r="L674" s="39"/>
     </row>
     <row r="675">
-      <c r="G675" s="41"/>
-      <c r="H675" s="42"/>
-      <c r="K675" s="40"/>
-      <c r="L675" s="40"/>
+      <c r="G675" s="40"/>
+      <c r="H675" s="41"/>
+      <c r="K675" s="39"/>
+      <c r="L675" s="39"/>
     </row>
     <row r="676">
-      <c r="G676" s="41"/>
-      <c r="H676" s="42"/>
-      <c r="K676" s="40"/>
-      <c r="L676" s="40"/>
+      <c r="G676" s="40"/>
+      <c r="H676" s="41"/>
+      <c r="K676" s="39"/>
+      <c r="L676" s="39"/>
     </row>
     <row r="677">
-      <c r="G677" s="41"/>
-      <c r="H677" s="42"/>
-      <c r="K677" s="40"/>
-      <c r="L677" s="40"/>
+      <c r="G677" s="40"/>
+      <c r="H677" s="41"/>
+      <c r="K677" s="39"/>
+      <c r="L677" s="39"/>
     </row>
     <row r="678">
-      <c r="G678" s="41"/>
-      <c r="H678" s="42"/>
-      <c r="K678" s="40"/>
-      <c r="L678" s="40"/>
+      <c r="G678" s="40"/>
+      <c r="H678" s="41"/>
+      <c r="K678" s="39"/>
+      <c r="L678" s="39"/>
     </row>
     <row r="679">
-      <c r="G679" s="41"/>
-      <c r="H679" s="42"/>
-      <c r="K679" s="40"/>
-      <c r="L679" s="40"/>
+      <c r="G679" s="40"/>
+      <c r="H679" s="41"/>
+      <c r="K679" s="39"/>
+      <c r="L679" s="39"/>
     </row>
     <row r="680">
-      <c r="G680" s="41"/>
-      <c r="H680" s="42"/>
-      <c r="K680" s="40"/>
-      <c r="L680" s="40"/>
+      <c r="G680" s="40"/>
+      <c r="H680" s="41"/>
+      <c r="K680" s="39"/>
+      <c r="L680" s="39"/>
     </row>
     <row r="681">
-      <c r="G681" s="41"/>
-      <c r="H681" s="42"/>
-      <c r="K681" s="40"/>
-      <c r="L681" s="40"/>
+      <c r="G681" s="40"/>
+      <c r="H681" s="41"/>
+      <c r="K681" s="39"/>
+      <c r="L681" s="39"/>
     </row>
     <row r="682">
-      <c r="G682" s="41"/>
-      <c r="H682" s="42"/>
-      <c r="K682" s="40"/>
-      <c r="L682" s="40"/>
+      <c r="G682" s="40"/>
+      <c r="H682" s="41"/>
+      <c r="K682" s="39"/>
+      <c r="L682" s="39"/>
     </row>
     <row r="683">
-      <c r="G683" s="41"/>
-      <c r="H683" s="42"/>
-      <c r="K683" s="40"/>
-      <c r="L683" s="40"/>
+      <c r="G683" s="40"/>
+      <c r="H683" s="41"/>
+      <c r="K683" s="39"/>
+      <c r="L683" s="39"/>
     </row>
     <row r="684">
-      <c r="G684" s="41"/>
-      <c r="H684" s="42"/>
-      <c r="K684" s="40"/>
-      <c r="L684" s="40"/>
+      <c r="G684" s="40"/>
+      <c r="H684" s="41"/>
+      <c r="K684" s="39"/>
+      <c r="L684" s="39"/>
     </row>
     <row r="685">
-      <c r="G685" s="41"/>
-      <c r="H685" s="42"/>
-      <c r="K685" s="40"/>
-      <c r="L685" s="40"/>
+      <c r="G685" s="40"/>
+      <c r="H685" s="41"/>
+      <c r="K685" s="39"/>
+      <c r="L685" s="39"/>
     </row>
     <row r="686">
-      <c r="G686" s="41"/>
-      <c r="H686" s="42"/>
-      <c r="K686" s="40"/>
-      <c r="L686" s="40"/>
+      <c r="G686" s="40"/>
+      <c r="H686" s="41"/>
+      <c r="K686" s="39"/>
+      <c r="L686" s="39"/>
     </row>
     <row r="687">
-      <c r="G687" s="41"/>
-      <c r="H687" s="42"/>
-      <c r="K687" s="40"/>
-      <c r="L687" s="40"/>
+      <c r="G687" s="40"/>
+      <c r="H687" s="41"/>
+      <c r="K687" s="39"/>
+      <c r="L687" s="39"/>
     </row>
     <row r="688">
-      <c r="G688" s="41"/>
-      <c r="H688" s="42"/>
-      <c r="K688" s="40"/>
-      <c r="L688" s="40"/>
+      <c r="G688" s="40"/>
+      <c r="H688" s="41"/>
+      <c r="K688" s="39"/>
+      <c r="L688" s="39"/>
     </row>
     <row r="689">
-      <c r="G689" s="41"/>
-      <c r="H689" s="42"/>
-      <c r="K689" s="40"/>
-      <c r="L689" s="40"/>
+      <c r="G689" s="40"/>
+      <c r="H689" s="41"/>
+      <c r="K689" s="39"/>
+      <c r="L689" s="39"/>
     </row>
     <row r="690">
-      <c r="G690" s="41"/>
-      <c r="H690" s="42"/>
-      <c r="K690" s="40"/>
-      <c r="L690" s="40"/>
+      <c r="G690" s="40"/>
+      <c r="H690" s="41"/>
+      <c r="K690" s="39"/>
+      <c r="L690" s="39"/>
     </row>
     <row r="691">
-      <c r="G691" s="41"/>
-      <c r="H691" s="42"/>
-      <c r="K691" s="40"/>
-      <c r="L691" s="40"/>
+      <c r="G691" s="40"/>
+      <c r="H691" s="41"/>
+      <c r="K691" s="39"/>
+      <c r="L691" s="39"/>
     </row>
     <row r="692">
-      <c r="G692" s="41"/>
-      <c r="H692" s="42"/>
-      <c r="K692" s="40"/>
-      <c r="L692" s="40"/>
+      <c r="G692" s="40"/>
+      <c r="H692" s="41"/>
+      <c r="K692" s="39"/>
+      <c r="L692" s="39"/>
     </row>
     <row r="693">
-      <c r="G693" s="41"/>
-      <c r="H693" s="42"/>
-      <c r="K693" s="40"/>
-      <c r="L693" s="40"/>
+      <c r="G693" s="40"/>
+      <c r="H693" s="41"/>
+      <c r="K693" s="39"/>
+      <c r="L693" s="39"/>
     </row>
     <row r="694">
-      <c r="G694" s="41"/>
-      <c r="H694" s="42"/>
-      <c r="K694" s="40"/>
-      <c r="L694" s="40"/>
+      <c r="G694" s="40"/>
+      <c r="H694" s="41"/>
+      <c r="K694" s="39"/>
+      <c r="L694" s="39"/>
     </row>
     <row r="695">
-      <c r="G695" s="41"/>
-      <c r="H695" s="42"/>
-      <c r="K695" s="40"/>
-      <c r="L695" s="40"/>
+      <c r="G695" s="40"/>
+      <c r="H695" s="41"/>
+      <c r="K695" s="39"/>
+      <c r="L695" s="39"/>
     </row>
     <row r="696">
-      <c r="G696" s="41"/>
-      <c r="H696" s="42"/>
-      <c r="K696" s="40"/>
-      <c r="L696" s="40"/>
+      <c r="G696" s="40"/>
+      <c r="H696" s="41"/>
+      <c r="K696" s="39"/>
+      <c r="L696" s="39"/>
     </row>
     <row r="697">
-      <c r="G697" s="41"/>
-      <c r="H697" s="42"/>
-      <c r="K697" s="40"/>
-      <c r="L697" s="40"/>
+      <c r="G697" s="40"/>
+      <c r="H697" s="41"/>
+      <c r="K697" s="39"/>
+      <c r="L697" s="39"/>
     </row>
     <row r="698">
-      <c r="G698" s="41"/>
-      <c r="H698" s="42"/>
-      <c r="K698" s="40"/>
-      <c r="L698" s="40"/>
+      <c r="G698" s="40"/>
+      <c r="H698" s="41"/>
+      <c r="K698" s="39"/>
+      <c r="L698" s="39"/>
     </row>
     <row r="699">
-      <c r="G699" s="41"/>
-      <c r="H699" s="42"/>
-      <c r="K699" s="40"/>
-      <c r="L699" s="40"/>
+      <c r="G699" s="40"/>
+      <c r="H699" s="41"/>
+      <c r="K699" s="39"/>
+      <c r="L699" s="39"/>
     </row>
     <row r="700">
-      <c r="G700" s="41"/>
-      <c r="H700" s="42"/>
-      <c r="K700" s="40"/>
-      <c r="L700" s="40"/>
+      <c r="G700" s="40"/>
+      <c r="H700" s="41"/>
+      <c r="K700" s="39"/>
+      <c r="L700" s="39"/>
     </row>
     <row r="701">
-      <c r="G701" s="41"/>
-      <c r="H701" s="42"/>
-      <c r="K701" s="40"/>
-      <c r="L701" s="40"/>
+      <c r="G701" s="40"/>
+      <c r="H701" s="41"/>
+      <c r="K701" s="39"/>
+      <c r="L701" s="39"/>
     </row>
     <row r="702">
-      <c r="G702" s="41"/>
-      <c r="H702" s="42"/>
-      <c r="K702" s="40"/>
-      <c r="L702" s="40"/>
+      <c r="G702" s="40"/>
+      <c r="H702" s="41"/>
+      <c r="K702" s="39"/>
+      <c r="L702" s="39"/>
     </row>
     <row r="703">
-      <c r="G703" s="41"/>
-      <c r="H703" s="42"/>
-      <c r="K703" s="40"/>
-      <c r="L703" s="40"/>
+      <c r="G703" s="40"/>
+      <c r="H703" s="41"/>
+      <c r="K703" s="39"/>
+      <c r="L703" s="39"/>
     </row>
     <row r="704">
-      <c r="G704" s="41"/>
-      <c r="H704" s="42"/>
-      <c r="K704" s="40"/>
-      <c r="L704" s="40"/>
+      <c r="G704" s="40"/>
+      <c r="H704" s="41"/>
+      <c r="K704" s="39"/>
+      <c r="L704" s="39"/>
     </row>
     <row r="705">
-      <c r="G705" s="41"/>
-      <c r="H705" s="42"/>
-      <c r="K705" s="40"/>
-      <c r="L705" s="40"/>
+      <c r="G705" s="40"/>
+      <c r="H705" s="41"/>
+      <c r="K705" s="39"/>
+      <c r="L705" s="39"/>
     </row>
     <row r="706">
-      <c r="G706" s="41"/>
-      <c r="H706" s="42"/>
-      <c r="K706" s="40"/>
-      <c r="L706" s="40"/>
+      <c r="G706" s="40"/>
+      <c r="H706" s="41"/>
+      <c r="K706" s="39"/>
+      <c r="L706" s="39"/>
     </row>
     <row r="707">
-      <c r="G707" s="41"/>
-      <c r="H707" s="42"/>
-      <c r="K707" s="40"/>
-      <c r="L707" s="40"/>
+      <c r="G707" s="40"/>
+      <c r="H707" s="41"/>
+      <c r="K707" s="39"/>
+      <c r="L707" s="39"/>
     </row>
     <row r="708">
-      <c r="G708" s="41"/>
-      <c r="H708" s="42"/>
-      <c r="K708" s="40"/>
-      <c r="L708" s="40"/>
+      <c r="G708" s="40"/>
+      <c r="H708" s="41"/>
+      <c r="K708" s="39"/>
+      <c r="L708" s="39"/>
     </row>
     <row r="709">
-      <c r="G709" s="41"/>
-      <c r="H709" s="42"/>
-      <c r="K709" s="40"/>
-      <c r="L709" s="40"/>
+      <c r="G709" s="40"/>
+      <c r="H709" s="41"/>
+      <c r="K709" s="39"/>
+      <c r="L709" s="39"/>
     </row>
     <row r="710">
-      <c r="G710" s="41"/>
-      <c r="H710" s="42"/>
-      <c r="K710" s="40"/>
-      <c r="L710" s="40"/>
+      <c r="G710" s="40"/>
+      <c r="H710" s="41"/>
+      <c r="K710" s="39"/>
+      <c r="L710" s="39"/>
     </row>
     <row r="711">
-      <c r="G711" s="41"/>
-      <c r="H711" s="42"/>
-      <c r="K711" s="40"/>
-      <c r="L711" s="40"/>
+      <c r="G711" s="40"/>
+      <c r="H711" s="41"/>
+      <c r="K711" s="39"/>
+      <c r="L711" s="39"/>
     </row>
     <row r="712">
-      <c r="G712" s="41"/>
-      <c r="H712" s="42"/>
-      <c r="K712" s="40"/>
-      <c r="L712" s="40"/>
+      <c r="G712" s="40"/>
+      <c r="H712" s="41"/>
+      <c r="K712" s="39"/>
+      <c r="L712" s="39"/>
     </row>
     <row r="713">
-      <c r="G713" s="41"/>
-      <c r="H713" s="42"/>
-      <c r="K713" s="40"/>
-      <c r="L713" s="40"/>
+      <c r="G713" s="40"/>
+      <c r="H713" s="41"/>
+      <c r="K713" s="39"/>
+      <c r="L713" s="39"/>
     </row>
     <row r="714">
-      <c r="G714" s="41"/>
-      <c r="H714" s="42"/>
-      <c r="K714" s="40"/>
-      <c r="L714" s="40"/>
+      <c r="G714" s="40"/>
+      <c r="H714" s="41"/>
+      <c r="K714" s="39"/>
+      <c r="L714" s="39"/>
     </row>
     <row r="715">
-      <c r="G715" s="41"/>
-      <c r="H715" s="42"/>
-      <c r="K715" s="40"/>
-      <c r="L715" s="40"/>
+      <c r="G715" s="40"/>
+      <c r="H715" s="41"/>
+      <c r="K715" s="39"/>
+      <c r="L715" s="39"/>
     </row>
     <row r="716">
-      <c r="G716" s="41"/>
-      <c r="H716" s="42"/>
-      <c r="K716" s="40"/>
-      <c r="L716" s="40"/>
+      <c r="G716" s="40"/>
+      <c r="H716" s="41"/>
+      <c r="K716" s="39"/>
+      <c r="L716" s="39"/>
     </row>
     <row r="717">
-      <c r="G717" s="41"/>
-      <c r="H717" s="42"/>
-      <c r="K717" s="40"/>
-      <c r="L717" s="40"/>
+      <c r="G717" s="40"/>
+      <c r="H717" s="41"/>
+      <c r="K717" s="39"/>
+      <c r="L717" s="39"/>
     </row>
     <row r="718">
-      <c r="G718" s="41"/>
-      <c r="H718" s="42"/>
-      <c r="K718" s="40"/>
-      <c r="L718" s="40"/>
+      <c r="G718" s="40"/>
+      <c r="H718" s="41"/>
+      <c r="K718" s="39"/>
+      <c r="L718" s="39"/>
     </row>
     <row r="719">
-      <c r="G719" s="41"/>
-      <c r="H719" s="42"/>
-      <c r="K719" s="40"/>
-      <c r="L719" s="40"/>
+      <c r="G719" s="40"/>
+      <c r="H719" s="41"/>
+      <c r="K719" s="39"/>
+      <c r="L719" s="39"/>
     </row>
     <row r="720">
-      <c r="G720" s="41"/>
-      <c r="H720" s="42"/>
-      <c r="K720" s="40"/>
-      <c r="L720" s="40"/>
+      <c r="G720" s="40"/>
+      <c r="H720" s="41"/>
+      <c r="K720" s="39"/>
+      <c r="L720" s="39"/>
     </row>
     <row r="721">
-      <c r="G721" s="41"/>
-      <c r="H721" s="42"/>
-      <c r="K721" s="40"/>
-      <c r="L721" s="40"/>
+      <c r="G721" s="40"/>
+      <c r="H721" s="41"/>
+      <c r="K721" s="39"/>
+      <c r="L721" s="39"/>
     </row>
     <row r="722">
-      <c r="G722" s="41"/>
-      <c r="H722" s="42"/>
-      <c r="K722" s="40"/>
-      <c r="L722" s="40"/>
+      <c r="G722" s="40"/>
+      <c r="H722" s="41"/>
+      <c r="K722" s="39"/>
+      <c r="L722" s="39"/>
     </row>
     <row r="723">
-      <c r="G723" s="41"/>
-      <c r="H723" s="42"/>
-      <c r="K723" s="40"/>
-      <c r="L723" s="40"/>
+      <c r="G723" s="40"/>
+      <c r="H723" s="41"/>
+      <c r="K723" s="39"/>
+      <c r="L723" s="39"/>
     </row>
     <row r="724">
-      <c r="G724" s="41"/>
-      <c r="H724" s="42"/>
-      <c r="K724" s="40"/>
-      <c r="L724" s="40"/>
+      <c r="G724" s="40"/>
+      <c r="H724" s="41"/>
+      <c r="K724" s="39"/>
+      <c r="L724" s="39"/>
     </row>
     <row r="725">
-      <c r="G725" s="41"/>
-      <c r="H725" s="42"/>
-      <c r="K725" s="40"/>
-      <c r="L725" s="40"/>
+      <c r="G725" s="40"/>
+      <c r="H725" s="41"/>
+      <c r="K725" s="39"/>
+      <c r="L725" s="39"/>
     </row>
     <row r="726">
-      <c r="G726" s="41"/>
-      <c r="H726" s="42"/>
-      <c r="K726" s="40"/>
-      <c r="L726" s="40"/>
+      <c r="G726" s="40"/>
+      <c r="H726" s="41"/>
+      <c r="K726" s="39"/>
+      <c r="L726" s="39"/>
     </row>
     <row r="727">
-      <c r="G727" s="41"/>
-      <c r="H727" s="42"/>
-      <c r="K727" s="40"/>
-      <c r="L727" s="40"/>
+      <c r="G727" s="40"/>
+      <c r="H727" s="41"/>
+      <c r="K727" s="39"/>
+      <c r="L727" s="39"/>
     </row>
     <row r="728">
-      <c r="G728" s="41"/>
-      <c r="H728" s="42"/>
-      <c r="K728" s="40"/>
-      <c r="L728" s="40"/>
+      <c r="G728" s="40"/>
+      <c r="H728" s="41"/>
+      <c r="K728" s="39"/>
+      <c r="L728" s="39"/>
     </row>
     <row r="729">
-      <c r="G729" s="41"/>
-      <c r="H729" s="42"/>
-      <c r="K729" s="40"/>
-      <c r="L729" s="40"/>
+      <c r="G729" s="40"/>
+      <c r="H729" s="41"/>
+      <c r="K729" s="39"/>
+      <c r="L729" s="39"/>
     </row>
     <row r="730">
-      <c r="G730" s="41"/>
-      <c r="H730" s="42"/>
-      <c r="K730" s="40"/>
-      <c r="L730" s="40"/>
+      <c r="G730" s="40"/>
+      <c r="H730" s="41"/>
+      <c r="K730" s="39"/>
+      <c r="L730" s="39"/>
     </row>
     <row r="731">
-      <c r="G731" s="41"/>
-      <c r="H731" s="42"/>
-      <c r="K731" s="40"/>
-      <c r="L731" s="40"/>
+      <c r="G731" s="40"/>
+      <c r="H731" s="41"/>
+      <c r="K731" s="39"/>
+      <c r="L731" s="39"/>
     </row>
     <row r="732">
-      <c r="G732" s="41"/>
-      <c r="H732" s="42"/>
-      <c r="K732" s="40"/>
-      <c r="L732" s="40"/>
+      <c r="G732" s="40"/>
+      <c r="H732" s="41"/>
+      <c r="K732" s="39"/>
+      <c r="L732" s="39"/>
     </row>
     <row r="733">
-      <c r="G733" s="41"/>
-      <c r="H733" s="42"/>
-      <c r="K733" s="40"/>
-      <c r="L733" s="40"/>
+      <c r="G733" s="40"/>
+      <c r="H733" s="41"/>
+      <c r="K733" s="39"/>
+      <c r="L733" s="39"/>
     </row>
     <row r="734">
-      <c r="G734" s="41"/>
-      <c r="H734" s="42"/>
-      <c r="K734" s="40"/>
-      <c r="L734" s="40"/>
+      <c r="G734" s="40"/>
+      <c r="H734" s="41"/>
+      <c r="K734" s="39"/>
+      <c r="L734" s="39"/>
     </row>
     <row r="735">
-      <c r="G735" s="41"/>
-      <c r="H735" s="42"/>
-      <c r="K735" s="40"/>
-      <c r="L735" s="40"/>
+      <c r="G735" s="40"/>
+      <c r="H735" s="41"/>
+      <c r="K735" s="39"/>
+      <c r="L735" s="39"/>
     </row>
     <row r="736">
-      <c r="G736" s="41"/>
-      <c r="H736" s="42"/>
-      <c r="K736" s="40"/>
-      <c r="L736" s="40"/>
+      <c r="G736" s="40"/>
+      <c r="H736" s="41"/>
+      <c r="K736" s="39"/>
+      <c r="L736" s="39"/>
     </row>
     <row r="737">
-      <c r="G737" s="41"/>
-      <c r="H737" s="42"/>
-      <c r="K737" s="40"/>
-      <c r="L737" s="40"/>
+      <c r="G737" s="40"/>
+      <c r="H737" s="41"/>
+      <c r="K737" s="39"/>
+      <c r="L737" s="39"/>
     </row>
     <row r="738">
-      <c r="G738" s="41"/>
-      <c r="H738" s="42"/>
-      <c r="K738" s="40"/>
-      <c r="L738" s="40"/>
+      <c r="G738" s="40"/>
+      <c r="H738" s="41"/>
+      <c r="K738" s="39"/>
+      <c r="L738" s="39"/>
     </row>
     <row r="739">
-      <c r="G739" s="41"/>
-      <c r="H739" s="42"/>
-      <c r="K739" s="40"/>
-      <c r="L739" s="40"/>
+      <c r="G739" s="40"/>
+      <c r="H739" s="41"/>
+      <c r="K739" s="39"/>
+      <c r="L739" s="39"/>
     </row>
     <row r="740">
-      <c r="G740" s="41"/>
-      <c r="H740" s="42"/>
-      <c r="K740" s="40"/>
-      <c r="L740" s="40"/>
+      <c r="G740" s="40"/>
+      <c r="H740" s="41"/>
+      <c r="K740" s="39"/>
+      <c r="L740" s="39"/>
     </row>
     <row r="741">
-      <c r="G741" s="41"/>
-      <c r="H741" s="42"/>
-      <c r="K741" s="40"/>
-      <c r="L741" s="40"/>
+      <c r="G741" s="40"/>
+      <c r="H741" s="41"/>
+      <c r="K741" s="39"/>
+      <c r="L741" s="39"/>
     </row>
     <row r="742">
-      <c r="G742" s="41"/>
-      <c r="H742" s="42"/>
-      <c r="K742" s="40"/>
-      <c r="L742" s="40"/>
+      <c r="G742" s="40"/>
+      <c r="H742" s="41"/>
+      <c r="K742" s="39"/>
+      <c r="L742" s="39"/>
     </row>
     <row r="743">
-      <c r="G743" s="41"/>
-      <c r="H743" s="42"/>
-      <c r="K743" s="40"/>
-      <c r="L743" s="40"/>
+      <c r="G743" s="40"/>
+      <c r="H743" s="41"/>
+      <c r="K743" s="39"/>
+      <c r="L743" s="39"/>
     </row>
     <row r="744">
-      <c r="G744" s="41"/>
-      <c r="H744" s="42"/>
-      <c r="K744" s="40"/>
-      <c r="L744" s="40"/>
+      <c r="G744" s="40"/>
+      <c r="H744" s="41"/>
+      <c r="K744" s="39"/>
+      <c r="L744" s="39"/>
     </row>
     <row r="745">
-      <c r="G745" s="41"/>
-      <c r="H745" s="42"/>
-      <c r="K745" s="40"/>
-      <c r="L745" s="40"/>
+      <c r="G745" s="40"/>
+      <c r="H745" s="41"/>
+      <c r="K745" s="39"/>
+      <c r="L745" s="39"/>
     </row>
     <row r="746">
-      <c r="G746" s="41"/>
-      <c r="H746" s="42"/>
-      <c r="K746" s="40"/>
-      <c r="L746" s="40"/>
+      <c r="G746" s="40"/>
+      <c r="H746" s="41"/>
+      <c r="K746" s="39"/>
+      <c r="L746" s="39"/>
     </row>
     <row r="747">
-      <c r="G747" s="41"/>
-      <c r="H747" s="42"/>
-      <c r="K747" s="40"/>
-      <c r="L747" s="40"/>
+      <c r="G747" s="40"/>
+      <c r="H747" s="41"/>
+      <c r="K747" s="39"/>
+      <c r="L747" s="39"/>
     </row>
     <row r="748">
-      <c r="G748" s="41"/>
-      <c r="H748" s="42"/>
-      <c r="K748" s="40"/>
-      <c r="L748" s="40"/>
+      <c r="G748" s="40"/>
+      <c r="H748" s="41"/>
+      <c r="K748" s="39"/>
+      <c r="L748" s="39"/>
     </row>
     <row r="749">
-      <c r="G749" s="41"/>
-      <c r="H749" s="42"/>
-      <c r="K749" s="40"/>
-      <c r="L749" s="40"/>
+      <c r="G749" s="40"/>
+      <c r="H749" s="41"/>
+      <c r="K749" s="39"/>
+      <c r="L749" s="39"/>
     </row>
     <row r="750">
-      <c r="G750" s="41"/>
-      <c r="H750" s="42"/>
-      <c r="K750" s="40"/>
-      <c r="L750" s="40"/>
+      <c r="G750" s="40"/>
+      <c r="H750" s="41"/>
+      <c r="K750" s="39"/>
+      <c r="L750" s="39"/>
     </row>
     <row r="751">
-      <c r="G751" s="41"/>
-      <c r="H751" s="42"/>
-      <c r="K751" s="40"/>
-      <c r="L751" s="40"/>
+      <c r="G751" s="40"/>
+      <c r="H751" s="41"/>
+      <c r="K751" s="39"/>
+      <c r="L751" s="39"/>
     </row>
     <row r="752">
-      <c r="G752" s="41"/>
-      <c r="H752" s="42"/>
-      <c r="K752" s="40"/>
-      <c r="L752" s="40"/>
+      <c r="G752" s="40"/>
+      <c r="H752" s="41"/>
+      <c r="K752" s="39"/>
+      <c r="L752" s="39"/>
     </row>
     <row r="753">
-      <c r="G753" s="41"/>
-      <c r="H753" s="42"/>
-      <c r="K753" s="40"/>
-      <c r="L753" s="40"/>
+      <c r="G753" s="40"/>
+      <c r="H753" s="41"/>
+      <c r="K753" s="39"/>
+      <c r="L753" s="39"/>
     </row>
     <row r="754">
-      <c r="G754" s="41"/>
-      <c r="H754" s="42"/>
-      <c r="K754" s="40"/>
-      <c r="L754" s="40"/>
+      <c r="G754" s="40"/>
+      <c r="H754" s="41"/>
+      <c r="K754" s="39"/>
+      <c r="L754" s="39"/>
     </row>
     <row r="755">
-      <c r="G755" s="41"/>
-      <c r="H755" s="42"/>
-      <c r="K755" s="40"/>
-      <c r="L755" s="40"/>
+      <c r="G755" s="40"/>
+      <c r="H755" s="41"/>
+      <c r="K755" s="39"/>
+      <c r="L755" s="39"/>
     </row>
     <row r="756">
-      <c r="G756" s="41"/>
-      <c r="H756" s="42"/>
-      <c r="K756" s="40"/>
-      <c r="L756" s="40"/>
+      <c r="G756" s="40"/>
+      <c r="H756" s="41"/>
+      <c r="K756" s="39"/>
+      <c r="L756" s="39"/>
     </row>
     <row r="757">
-      <c r="G757" s="41"/>
-      <c r="H757" s="42"/>
-      <c r="K757" s="40"/>
-      <c r="L757" s="40"/>
+      <c r="G757" s="40"/>
+      <c r="H757" s="41"/>
+      <c r="K757" s="39"/>
+      <c r="L757" s="39"/>
     </row>
     <row r="758">
-      <c r="G758" s="41"/>
-      <c r="H758" s="42"/>
-      <c r="K758" s="40"/>
-      <c r="L758" s="40"/>
+      <c r="G758" s="40"/>
+      <c r="H758" s="41"/>
+      <c r="K758" s="39"/>
+      <c r="L758" s="39"/>
     </row>
     <row r="759">
-      <c r="G759" s="41"/>
-      <c r="H759" s="42"/>
-      <c r="K759" s="40"/>
-      <c r="L759" s="40"/>
+      <c r="G759" s="40"/>
+      <c r="H759" s="41"/>
+      <c r="K759" s="39"/>
+      <c r="L759" s="39"/>
     </row>
     <row r="760">
-      <c r="G760" s="41"/>
-      <c r="H760" s="42"/>
-      <c r="K760" s="40"/>
-      <c r="L760" s="40"/>
+      <c r="G760" s="40"/>
+      <c r="H760" s="41"/>
+      <c r="K760" s="39"/>
+      <c r="L760" s="39"/>
     </row>
     <row r="761">
-      <c r="G761" s="41"/>
-      <c r="H761" s="42"/>
-      <c r="K761" s="40"/>
-      <c r="L761" s="40"/>
+      <c r="G761" s="40"/>
+      <c r="H761" s="41"/>
+      <c r="K761" s="39"/>
+      <c r="L761" s="39"/>
     </row>
     <row r="762">
-      <c r="G762" s="41"/>
-      <c r="H762" s="42"/>
-      <c r="K762" s="40"/>
-      <c r="L762" s="40"/>
+      <c r="G762" s="40"/>
+      <c r="H762" s="41"/>
+      <c r="K762" s="39"/>
+      <c r="L762" s="39"/>
     </row>
     <row r="763">
-      <c r="G763" s="41"/>
-      <c r="H763" s="42"/>
-      <c r="K763" s="40"/>
-      <c r="L763" s="40"/>
+      <c r="G763" s="40"/>
+      <c r="H763" s="41"/>
+      <c r="K763" s="39"/>
+      <c r="L763" s="39"/>
     </row>
     <row r="764">
-      <c r="G764" s="41"/>
-      <c r="H764" s="42"/>
-      <c r="K764" s="40"/>
-      <c r="L764" s="40"/>
+      <c r="G764" s="40"/>
+      <c r="H764" s="41"/>
+      <c r="K764" s="39"/>
+      <c r="L764" s="39"/>
     </row>
     <row r="765">
-      <c r="G765" s="41"/>
-      <c r="H765" s="42"/>
-      <c r="K765" s="40"/>
-      <c r="L765" s="40"/>
+      <c r="G765" s="40"/>
+      <c r="H765" s="41"/>
+      <c r="K765" s="39"/>
+      <c r="L765" s="39"/>
     </row>
     <row r="766">
-      <c r="G766" s="41"/>
-      <c r="H766" s="42"/>
-      <c r="K766" s="40"/>
-      <c r="L766" s="40"/>
+      <c r="G766" s="40"/>
+      <c r="H766" s="41"/>
+      <c r="K766" s="39"/>
+      <c r="L766" s="39"/>
     </row>
     <row r="767">
-      <c r="G767" s="41"/>
-      <c r="H767" s="42"/>
-      <c r="K767" s="40"/>
-      <c r="L767" s="40"/>
+      <c r="G767" s="40"/>
+      <c r="H767" s="41"/>
+      <c r="K767" s="39"/>
+      <c r="L767" s="39"/>
     </row>
     <row r="768">
-      <c r="G768" s="41"/>
-      <c r="H768" s="42"/>
-      <c r="K768" s="40"/>
-      <c r="L768" s="40"/>
+      <c r="G768" s="40"/>
+      <c r="H768" s="41"/>
+      <c r="K768" s="39"/>
+      <c r="L768" s="39"/>
     </row>
     <row r="769">
-      <c r="G769" s="41"/>
-      <c r="H769" s="42"/>
-      <c r="K769" s="40"/>
-      <c r="L769" s="40"/>
+      <c r="G769" s="40"/>
+      <c r="H769" s="41"/>
+      <c r="K769" s="39"/>
+      <c r="L769" s="39"/>
     </row>
     <row r="770">
-      <c r="G770" s="41"/>
-      <c r="H770" s="42"/>
-      <c r="K770" s="40"/>
-      <c r="L770" s="40"/>
+      <c r="G770" s="40"/>
+      <c r="H770" s="41"/>
+      <c r="K770" s="39"/>
+      <c r="L770" s="39"/>
     </row>
     <row r="771">
-      <c r="G771" s="41"/>
-      <c r="H771" s="42"/>
-      <c r="K771" s="40"/>
-      <c r="L771" s="40"/>
+      <c r="G771" s="40"/>
+      <c r="H771" s="41"/>
+      <c r="K771" s="39"/>
+      <c r="L771" s="39"/>
     </row>
     <row r="772">
-      <c r="G772" s="41"/>
-      <c r="H772" s="42"/>
-      <c r="K772" s="40"/>
-      <c r="L772" s="40"/>
+      <c r="G772" s="40"/>
+      <c r="H772" s="41"/>
+      <c r="K772" s="39"/>
+      <c r="L772" s="39"/>
     </row>
     <row r="773">
-      <c r="G773" s="41"/>
-      <c r="H773" s="42"/>
-      <c r="K773" s="40"/>
-      <c r="L773" s="40"/>
+      <c r="G773" s="40"/>
+      <c r="H773" s="41"/>
+      <c r="K773" s="39"/>
+      <c r="L773" s="39"/>
     </row>
     <row r="774">
-      <c r="G774" s="41"/>
-      <c r="H774" s="42"/>
-      <c r="K774" s="40"/>
-      <c r="L774" s="40"/>
+      <c r="G774" s="40"/>
+      <c r="H774" s="41"/>
+      <c r="K774" s="39"/>
+      <c r="L774" s="39"/>
     </row>
     <row r="775">
-      <c r="G775" s="41"/>
-      <c r="H775" s="42"/>
-      <c r="K775" s="40"/>
-      <c r="L775" s="40"/>
+      <c r="G775" s="40"/>
+      <c r="H775" s="41"/>
+      <c r="K775" s="39"/>
+      <c r="L775" s="39"/>
     </row>
     <row r="776">
-      <c r="G776" s="41"/>
-      <c r="H776" s="42"/>
-      <c r="K776" s="40"/>
-      <c r="L776" s="40"/>
+      <c r="G776" s="40"/>
+      <c r="H776" s="41"/>
+      <c r="K776" s="39"/>
+      <c r="L776" s="39"/>
     </row>
     <row r="777">
-      <c r="G777" s="41"/>
-      <c r="H777" s="42"/>
-      <c r="K777" s="40"/>
-      <c r="L777" s="40"/>
+      <c r="G777" s="40"/>
+      <c r="H777" s="41"/>
+      <c r="K777" s="39"/>
+      <c r="L777" s="39"/>
     </row>
     <row r="778">
-      <c r="G778" s="41"/>
-      <c r="H778" s="42"/>
-      <c r="K778" s="40"/>
-      <c r="L778" s="40"/>
+      <c r="G778" s="40"/>
+      <c r="H778" s="41"/>
+      <c r="K778" s="39"/>
+      <c r="L778" s="39"/>
     </row>
     <row r="779">
-      <c r="G779" s="41"/>
-      <c r="H779" s="42"/>
-      <c r="K779" s="40"/>
-      <c r="L779" s="40"/>
+      <c r="G779" s="40"/>
+      <c r="H779" s="41"/>
+      <c r="K779" s="39"/>
+      <c r="L779" s="39"/>
     </row>
     <row r="780">
-      <c r="G780" s="41"/>
-      <c r="H780" s="42"/>
-      <c r="K780" s="40"/>
-      <c r="L780" s="40"/>
+      <c r="G780" s="40"/>
+      <c r="H780" s="41"/>
+      <c r="K780" s="39"/>
+      <c r="L780" s="39"/>
     </row>
     <row r="781">
-      <c r="G781" s="41"/>
-      <c r="H781" s="42"/>
-      <c r="K781" s="40"/>
-      <c r="L781" s="40"/>
+      <c r="G781" s="40"/>
+      <c r="H781" s="41"/>
+      <c r="K781" s="39"/>
+      <c r="L781" s="39"/>
     </row>
     <row r="782">
-      <c r="G782" s="41"/>
-      <c r="H782" s="42"/>
-      <c r="K782" s="40"/>
-      <c r="L782" s="40"/>
+      <c r="G782" s="40"/>
+      <c r="H782" s="41"/>
+      <c r="K782" s="39"/>
+      <c r="L782" s="39"/>
     </row>
     <row r="783">
-      <c r="G783" s="41"/>
-      <c r="H783" s="42"/>
-      <c r="K783" s="40"/>
-      <c r="L783" s="40"/>
+      <c r="G783" s="40"/>
+      <c r="H783" s="41"/>
+      <c r="K783" s="39"/>
+      <c r="L783" s="39"/>
     </row>
     <row r="784">
-      <c r="G784" s="41"/>
-      <c r="H784" s="42"/>
-      <c r="K784" s="40"/>
-      <c r="L784" s="40"/>
+      <c r="G784" s="40"/>
+      <c r="H784" s="41"/>
+      <c r="K784" s="39"/>
+      <c r="L784" s="39"/>
     </row>
     <row r="785">
-      <c r="G785" s="41"/>
-      <c r="H785" s="42"/>
-      <c r="K785" s="40"/>
-      <c r="L785" s="40"/>
+      <c r="G785" s="40"/>
+      <c r="H785" s="41"/>
+      <c r="K785" s="39"/>
+      <c r="L785" s="39"/>
     </row>
     <row r="786">
-      <c r="G786" s="41"/>
-      <c r="H786" s="42"/>
-      <c r="K786" s="40"/>
-      <c r="L786" s="40"/>
+      <c r="G786" s="40"/>
+      <c r="H786" s="41"/>
+      <c r="K786" s="39"/>
+      <c r="L786" s="39"/>
     </row>
     <row r="787">
-      <c r="G787" s="41"/>
-      <c r="H787" s="42"/>
-      <c r="K787" s="40"/>
-      <c r="L787" s="40"/>
+      <c r="G787" s="40"/>
+      <c r="H787" s="41"/>
+      <c r="K787" s="39"/>
+      <c r="L787" s="39"/>
     </row>
     <row r="788">
-      <c r="G788" s="41"/>
-      <c r="H788" s="42"/>
-      <c r="K788" s="40"/>
-      <c r="L788" s="40"/>
+      <c r="G788" s="40"/>
+      <c r="H788" s="41"/>
+      <c r="K788" s="39"/>
+      <c r="L788" s="39"/>
     </row>
     <row r="789">
-      <c r="G789" s="41"/>
-      <c r="H789" s="42"/>
-      <c r="K789" s="40"/>
-      <c r="L789" s="40"/>
+      <c r="G789" s="40"/>
+      <c r="H789" s="41"/>
+      <c r="K789" s="39"/>
+      <c r="L789" s="39"/>
     </row>
     <row r="790">
-      <c r="G790" s="41"/>
-      <c r="H790" s="42"/>
-      <c r="K790" s="40"/>
-      <c r="L790" s="40"/>
+      <c r="G790" s="40"/>
+      <c r="H790" s="41"/>
+      <c r="K790" s="39"/>
+      <c r="L790" s="39"/>
     </row>
     <row r="791">
-      <c r="G791" s="41"/>
-      <c r="H791" s="42"/>
-      <c r="K791" s="40"/>
-      <c r="L791" s="40"/>
+      <c r="G791" s="40"/>
+      <c r="H791" s="41"/>
+      <c r="K791" s="39"/>
+      <c r="L791" s="39"/>
     </row>
     <row r="792">
-      <c r="G792" s="41"/>
-      <c r="H792" s="42"/>
-      <c r="K792" s="40"/>
-      <c r="L792" s="40"/>
+      <c r="G792" s="40"/>
+      <c r="H792" s="41"/>
+      <c r="K792" s="39"/>
+      <c r="L792" s="39"/>
     </row>
     <row r="793">
-      <c r="G793" s="41"/>
-      <c r="H793" s="42"/>
-      <c r="K793" s="40"/>
-      <c r="L793" s="40"/>
+      <c r="G793" s="40"/>
+      <c r="H793" s="41"/>
+      <c r="K793" s="39"/>
+      <c r="L793" s="39"/>
     </row>
     <row r="794">
-      <c r="G794" s="41"/>
-      <c r="H794" s="42"/>
-      <c r="K794" s="40"/>
-      <c r="L794" s="40"/>
+      <c r="G794" s="40"/>
+      <c r="H794" s="41"/>
+      <c r="K794" s="39"/>
+      <c r="L794" s="39"/>
     </row>
     <row r="795">
-      <c r="G795" s="41"/>
-      <c r="H795" s="42"/>
-      <c r="K795" s="40"/>
-      <c r="L795" s="40"/>
+      <c r="G795" s="40"/>
+      <c r="H795" s="41"/>
+      <c r="K795" s="39"/>
+      <c r="L795" s="39"/>
     </row>
     <row r="796">
-      <c r="G796" s="41"/>
-      <c r="H796" s="42"/>
-      <c r="K796" s="40"/>
-      <c r="L796" s="40"/>
+      <c r="G796" s="40"/>
+      <c r="H796" s="41"/>
+      <c r="K796" s="39"/>
+      <c r="L796" s="39"/>
     </row>
     <row r="797">
-      <c r="G797" s="41"/>
-      <c r="H797" s="42"/>
-      <c r="K797" s="40"/>
-      <c r="L797" s="40"/>
+      <c r="G797" s="40"/>
+      <c r="H797" s="41"/>
+      <c r="K797" s="39"/>
+      <c r="L797" s="39"/>
     </row>
     <row r="798">
-      <c r="G798" s="41"/>
-      <c r="H798" s="42"/>
-      <c r="K798" s="40"/>
-      <c r="L798" s="40"/>
+      <c r="G798" s="40"/>
+      <c r="H798" s="41"/>
+      <c r="K798" s="39"/>
+      <c r="L798" s="39"/>
     </row>
     <row r="799">
-      <c r="G799" s="41"/>
-      <c r="H799" s="42"/>
-      <c r="K799" s="40"/>
-      <c r="L799" s="40"/>
+      <c r="G799" s="40"/>
+      <c r="H799" s="41"/>
+      <c r="K799" s="39"/>
+      <c r="L799" s="39"/>
     </row>
     <row r="800">
-      <c r="G800" s="41"/>
-      <c r="H800" s="42"/>
-      <c r="K800" s="40"/>
-      <c r="L800" s="40"/>
+      <c r="G800" s="40"/>
+      <c r="H800" s="41"/>
+      <c r="K800" s="39"/>
+      <c r="L800" s="39"/>
     </row>
     <row r="801">
-      <c r="G801" s="41"/>
-      <c r="H801" s="42"/>
-      <c r="K801" s="40"/>
-      <c r="L801" s="40"/>
+      <c r="G801" s="40"/>
+      <c r="H801" s="41"/>
+      <c r="K801" s="39"/>
+      <c r="L801" s="39"/>
     </row>
     <row r="802">
-      <c r="G802" s="41"/>
-      <c r="H802" s="42"/>
-      <c r="K802" s="40"/>
-      <c r="L802" s="40"/>
+      <c r="G802" s="40"/>
+      <c r="H802" s="41"/>
+      <c r="K802" s="39"/>
+      <c r="L802" s="39"/>
     </row>
     <row r="803">
-      <c r="G803" s="41"/>
-      <c r="H803" s="42"/>
-      <c r="K803" s="40"/>
-      <c r="L803" s="40"/>
+      <c r="G803" s="40"/>
+      <c r="H803" s="41"/>
+      <c r="K803" s="39"/>
+      <c r="L803" s="39"/>
     </row>
     <row r="804">
-      <c r="G804" s="41"/>
-      <c r="H804" s="42"/>
-      <c r="K804" s="40"/>
-      <c r="L804" s="40"/>
+      <c r="G804" s="40"/>
+      <c r="H804" s="41"/>
+      <c r="K804" s="39"/>
+      <c r="L804" s="39"/>
     </row>
     <row r="805">
-      <c r="G805" s="41"/>
-      <c r="H805" s="42"/>
-      <c r="K805" s="40"/>
-      <c r="L805" s="40"/>
+      <c r="G805" s="40"/>
+      <c r="H805" s="41"/>
+      <c r="K805" s="39"/>
+      <c r="L805" s="39"/>
     </row>
     <row r="806">
-      <c r="G806" s="41"/>
-      <c r="H806" s="42"/>
-      <c r="K806" s="40"/>
-      <c r="L806" s="40"/>
+      <c r="G806" s="40"/>
+      <c r="H806" s="41"/>
+      <c r="K806" s="39"/>
+      <c r="L806" s="39"/>
     </row>
     <row r="807">
-      <c r="G807" s="41"/>
-      <c r="H807" s="42"/>
-      <c r="K807" s="40"/>
-      <c r="L807" s="40"/>
+      <c r="G807" s="40"/>
+      <c r="H807" s="41"/>
+      <c r="K807" s="39"/>
+      <c r="L807" s="39"/>
     </row>
     <row r="808">
-      <c r="G808" s="41"/>
-      <c r="H808" s="42"/>
-      <c r="K808" s="40"/>
-      <c r="L808" s="40"/>
+      <c r="G808" s="40"/>
+      <c r="H808" s="41"/>
+      <c r="K808" s="39"/>
+      <c r="L808" s="39"/>
     </row>
     <row r="809">
-      <c r="G809" s="41"/>
-      <c r="H809" s="42"/>
-      <c r="K809" s="40"/>
-      <c r="L809" s="40"/>
+      <c r="G809" s="40"/>
+      <c r="H809" s="41"/>
+      <c r="K809" s="39"/>
+      <c r="L809" s="39"/>
     </row>
     <row r="810">
-      <c r="G810" s="41"/>
-      <c r="H810" s="42"/>
-      <c r="K810" s="40"/>
-      <c r="L810" s="40"/>
+      <c r="G810" s="40"/>
+      <c r="H810" s="41"/>
+      <c r="K810" s="39"/>
+      <c r="L810" s="39"/>
     </row>
     <row r="811">
-      <c r="G811" s="41"/>
-      <c r="H811" s="42"/>
-      <c r="K811" s="40"/>
-      <c r="L811" s="40"/>
+      <c r="G811" s="40"/>
+      <c r="H811" s="41"/>
+      <c r="K811" s="39"/>
+      <c r="L811" s="39"/>
     </row>
     <row r="812">
-      <c r="G812" s="41"/>
-      <c r="H812" s="42"/>
-      <c r="K812" s="40"/>
-      <c r="L812" s="40"/>
+      <c r="G812" s="40"/>
+      <c r="H812" s="41"/>
+      <c r="K812" s="39"/>
+      <c r="L812" s="39"/>
     </row>
     <row r="813">
-      <c r="G813" s="41"/>
-      <c r="H813" s="42"/>
-      <c r="K813" s="40"/>
-      <c r="L813" s="40"/>
+      <c r="G813" s="40"/>
+      <c r="H813" s="41"/>
+      <c r="K813" s="39"/>
+      <c r="L813" s="39"/>
     </row>
     <row r="814">
-      <c r="G814" s="41"/>
-      <c r="H814" s="42"/>
-      <c r="K814" s="40"/>
-      <c r="L814" s="40"/>
+      <c r="G814" s="40"/>
+      <c r="H814" s="41"/>
+      <c r="K814" s="39"/>
+      <c r="L814" s="39"/>
     </row>
     <row r="815">
-      <c r="G815" s="41"/>
-      <c r="H815" s="42"/>
-      <c r="K815" s="40"/>
-      <c r="L815" s="40"/>
+      <c r="G815" s="40"/>
+      <c r="H815" s="41"/>
+      <c r="K815" s="39"/>
+      <c r="L815" s="39"/>
     </row>
     <row r="816">
-      <c r="G816" s="41"/>
-      <c r="H816" s="42"/>
-      <c r="K816" s="40"/>
-      <c r="L816" s="40"/>
+      <c r="G816" s="40"/>
+      <c r="H816" s="41"/>
+      <c r="K816" s="39"/>
+      <c r="L816" s="39"/>
     </row>
     <row r="817">
-      <c r="G817" s="41"/>
-      <c r="H817" s="42"/>
-      <c r="K817" s="40"/>
-      <c r="L817" s="40"/>
+      <c r="G817" s="40"/>
+      <c r="H817" s="41"/>
+      <c r="K817" s="39"/>
+      <c r="L817" s="39"/>
     </row>
     <row r="818">
-      <c r="G818" s="41"/>
-      <c r="H818" s="42"/>
-      <c r="K818" s="40"/>
-      <c r="L818" s="40"/>
+      <c r="G818" s="40"/>
+      <c r="H818" s="41"/>
+      <c r="K818" s="39"/>
+      <c r="L818" s="39"/>
     </row>
     <row r="819">
-      <c r="G819" s="41"/>
-      <c r="H819" s="42"/>
-      <c r="K819" s="40"/>
-      <c r="L819" s="40"/>
+      <c r="G819" s="40"/>
+      <c r="H819" s="41"/>
+      <c r="K819" s="39"/>
+      <c r="L819" s="39"/>
     </row>
     <row r="820">
-      <c r="G820" s="41"/>
-      <c r="H820" s="42"/>
-      <c r="K820" s="40"/>
-      <c r="L820" s="40"/>
+      <c r="G820" s="40"/>
+      <c r="H820" s="41"/>
+      <c r="K820" s="39"/>
+      <c r="L820" s="39"/>
     </row>
     <row r="821">
-      <c r="G821" s="41"/>
-      <c r="H821" s="42"/>
-      <c r="K821" s="40"/>
-      <c r="L821" s="40"/>
+      <c r="G821" s="40"/>
+      <c r="H821" s="41"/>
+      <c r="K821" s="39"/>
+      <c r="L821" s="39"/>
     </row>
     <row r="822">
-      <c r="G822" s="41"/>
-      <c r="H822" s="42"/>
-      <c r="K822" s="40"/>
-      <c r="L822" s="40"/>
+      <c r="G822" s="40"/>
+      <c r="H822" s="41"/>
+      <c r="K822" s="39"/>
+      <c r="L822" s="39"/>
     </row>
     <row r="823">
-      <c r="G823" s="41"/>
-      <c r="H823" s="42"/>
-      <c r="K823" s="40"/>
-      <c r="L823" s="40"/>
+      <c r="G823" s="40"/>
+      <c r="H823" s="41"/>
+      <c r="K823" s="39"/>
+      <c r="L823" s="39"/>
     </row>
     <row r="824">
-      <c r="G824" s="41"/>
-      <c r="H824" s="42"/>
-      <c r="K824" s="40"/>
-      <c r="L824" s="40"/>
+      <c r="G824" s="40"/>
+      <c r="H824" s="41"/>
+      <c r="K824" s="39"/>
+      <c r="L824" s="39"/>
     </row>
     <row r="825">
-      <c r="G825" s="41"/>
-      <c r="H825" s="42"/>
-      <c r="K825" s="40"/>
-      <c r="L825" s="40"/>
+      <c r="G825" s="40"/>
+      <c r="H825" s="41"/>
+      <c r="K825" s="39"/>
+      <c r="L825" s="39"/>
     </row>
     <row r="826">
-      <c r="G826" s="41"/>
-      <c r="H826" s="42"/>
-      <c r="K826" s="40"/>
-      <c r="L826" s="40"/>
+      <c r="G826" s="40"/>
+      <c r="H826" s="41"/>
+      <c r="K826" s="39"/>
+      <c r="L826" s="39"/>
     </row>
     <row r="827">
-      <c r="G827" s="41"/>
-      <c r="H827" s="42"/>
-      <c r="K827" s="40"/>
-      <c r="L827" s="40"/>
+      <c r="G827" s="40"/>
+      <c r="H827" s="41"/>
+      <c r="K827" s="39"/>
+      <c r="L827" s="39"/>
     </row>
     <row r="828">
-      <c r="G828" s="41"/>
-      <c r="H828" s="42"/>
-      <c r="K828" s="40"/>
-      <c r="L828" s="40"/>
+      <c r="G828" s="40"/>
+      <c r="H828" s="41"/>
+      <c r="K828" s="39"/>
+      <c r="L828" s="39"/>
     </row>
     <row r="829">
-      <c r="G829" s="41"/>
-      <c r="H829" s="42"/>
-      <c r="K829" s="40"/>
-      <c r="L829" s="40"/>
+      <c r="G829" s="40"/>
+      <c r="H829" s="41"/>
+      <c r="K829" s="39"/>
+      <c r="L829" s="39"/>
     </row>
     <row r="830">
-      <c r="G830" s="41"/>
-      <c r="H830" s="42"/>
-      <c r="K830" s="40"/>
-      <c r="L830" s="40"/>
+      <c r="G830" s="40"/>
+      <c r="H830" s="41"/>
+      <c r="K830" s="39"/>
+      <c r="L830" s="39"/>
     </row>
     <row r="831">
-      <c r="G831" s="41"/>
-      <c r="H831" s="42"/>
-      <c r="K831" s="40"/>
-      <c r="L831" s="40"/>
+      <c r="G831" s="40"/>
+      <c r="H831" s="41"/>
+      <c r="K831" s="39"/>
+      <c r="L831" s="39"/>
     </row>
     <row r="832">
-      <c r="G832" s="41"/>
-      <c r="H832" s="42"/>
-      <c r="K832" s="40"/>
-      <c r="L832" s="40"/>
+      <c r="G832" s="40"/>
+      <c r="H832" s="41"/>
+      <c r="K832" s="39"/>
+      <c r="L832" s="39"/>
     </row>
     <row r="833">
-      <c r="G833" s="41"/>
-      <c r="H833" s="42"/>
-      <c r="K833" s="40"/>
-      <c r="L833" s="40"/>
+      <c r="G833" s="40"/>
+      <c r="H833" s="41"/>
+      <c r="K833" s="39"/>
+      <c r="L833" s="39"/>
     </row>
     <row r="834">
-      <c r="G834" s="41"/>
-      <c r="H834" s="42"/>
-      <c r="K834" s="40"/>
-      <c r="L834" s="40"/>
+      <c r="G834" s="40"/>
+      <c r="H834" s="41"/>
+      <c r="K834" s="39"/>
+      <c r="L834" s="39"/>
     </row>
     <row r="835">
-      <c r="G835" s="41"/>
-      <c r="H835" s="42"/>
-      <c r="K835" s="40"/>
-      <c r="L835" s="40"/>
+      <c r="G835" s="40"/>
+      <c r="H835" s="41"/>
+      <c r="K835" s="39"/>
+      <c r="L835" s="39"/>
     </row>
     <row r="836">
-      <c r="G836" s="41"/>
-      <c r="H836" s="42"/>
-      <c r="K836" s="40"/>
-      <c r="L836" s="40"/>
+      <c r="G836" s="40"/>
+      <c r="H836" s="41"/>
+      <c r="K836" s="39"/>
+      <c r="L836" s="39"/>
     </row>
     <row r="837">
-      <c r="G837" s="41"/>
-      <c r="H837" s="42"/>
-      <c r="K837" s="40"/>
-      <c r="L837" s="40"/>
+      <c r="G837" s="40"/>
+      <c r="H837" s="41"/>
+      <c r="K837" s="39"/>
+      <c r="L837" s="39"/>
     </row>
     <row r="838">
-      <c r="G838" s="41"/>
-      <c r="H838" s="42"/>
-      <c r="K838" s="40"/>
-      <c r="L838" s="40"/>
+      <c r="G838" s="40"/>
+      <c r="H838" s="41"/>
+      <c r="K838" s="39"/>
+      <c r="L838" s="39"/>
     </row>
     <row r="839">
-      <c r="G839" s="41"/>
-      <c r="H839" s="42"/>
-      <c r="K839" s="40"/>
-      <c r="L839" s="40"/>
+      <c r="G839" s="40"/>
+      <c r="H839" s="41"/>
+      <c r="K839" s="39"/>
+      <c r="L839" s="39"/>
     </row>
     <row r="840">
-      <c r="G840" s="41"/>
-      <c r="H840" s="42"/>
-      <c r="K840" s="40"/>
-      <c r="L840" s="40"/>
+      <c r="G840" s="40"/>
+      <c r="H840" s="41"/>
+      <c r="K840" s="39"/>
+      <c r="L840" s="39"/>
     </row>
     <row r="841">
-      <c r="G841" s="41"/>
-      <c r="H841" s="42"/>
-      <c r="K841" s="40"/>
-      <c r="L841" s="40"/>
+      <c r="G841" s="40"/>
+      <c r="H841" s="41"/>
+      <c r="K841" s="39"/>
+      <c r="L841" s="39"/>
     </row>
     <row r="842">
-      <c r="G842" s="41"/>
-      <c r="H842" s="42"/>
-      <c r="K842" s="40"/>
-      <c r="L842" s="40"/>
+      <c r="G842" s="40"/>
+      <c r="H842" s="41"/>
+      <c r="K842" s="39"/>
+      <c r="L842" s="39"/>
     </row>
     <row r="843">
-      <c r="G843" s="41"/>
-      <c r="H843" s="42"/>
-      <c r="K843" s="40"/>
-      <c r="L843" s="40"/>
+      <c r="G843" s="40"/>
+      <c r="H843" s="41"/>
+      <c r="K843" s="39"/>
+      <c r="L843" s="39"/>
     </row>
     <row r="844">
-      <c r="G844" s="41"/>
-      <c r="H844" s="42"/>
-      <c r="K844" s="40"/>
-      <c r="L844" s="40"/>
+      <c r="G844" s="40"/>
+      <c r="H844" s="41"/>
+      <c r="K844" s="39"/>
+      <c r="L844" s="39"/>
     </row>
     <row r="845">
-      <c r="G845" s="41"/>
-      <c r="H845" s="42"/>
-      <c r="K845" s="40"/>
-      <c r="L845" s="40"/>
+      <c r="G845" s="40"/>
+      <c r="H845" s="41"/>
+      <c r="K845" s="39"/>
+      <c r="L845" s="39"/>
     </row>
     <row r="846">
-      <c r="G846" s="41"/>
-      <c r="H846" s="42"/>
-      <c r="K846" s="40"/>
-      <c r="L846" s="40"/>
+      <c r="G846" s="40"/>
+      <c r="H846" s="41"/>
+      <c r="K846" s="39"/>
+      <c r="L846" s="39"/>
     </row>
     <row r="847">
-      <c r="G847" s="41"/>
-      <c r="H847" s="42"/>
-      <c r="K847" s="40"/>
-      <c r="L847" s="40"/>
+      <c r="G847" s="40"/>
+      <c r="H847" s="41"/>
+      <c r="K847" s="39"/>
+      <c r="L847" s="39"/>
     </row>
     <row r="848">
-      <c r="G848" s="41"/>
-      <c r="H848" s="42"/>
-      <c r="K848" s="40"/>
-      <c r="L848" s="40"/>
+      <c r="G848" s="40"/>
+      <c r="H848" s="41"/>
+      <c r="K848" s="39"/>
+      <c r="L848" s="39"/>
     </row>
     <row r="849">
-      <c r="G849" s="41"/>
-      <c r="H849" s="42"/>
-      <c r="K849" s="40"/>
-      <c r="L849" s="40"/>
+      <c r="G849" s="40"/>
+      <c r="H849" s="41"/>
+      <c r="K849" s="39"/>
+      <c r="L849" s="39"/>
     </row>
     <row r="850">
-      <c r="G850" s="41"/>
-      <c r="H850" s="42"/>
-      <c r="K850" s="40"/>
-      <c r="L850" s="40"/>
+      <c r="G850" s="40"/>
+      <c r="H850" s="41"/>
+      <c r="K850" s="39"/>
+      <c r="L850" s="39"/>
     </row>
     <row r="851">
-      <c r="G851" s="41"/>
-      <c r="H851" s="42"/>
-      <c r="K851" s="40"/>
-      <c r="L851" s="40"/>
+      <c r="G851" s="40"/>
+      <c r="H851" s="41"/>
+      <c r="K851" s="39"/>
+      <c r="L851" s="39"/>
     </row>
     <row r="852">
-      <c r="G852" s="41"/>
-      <c r="H852" s="42"/>
-      <c r="K852" s="40"/>
-      <c r="L852" s="40"/>
+      <c r="G852" s="40"/>
+      <c r="H852" s="41"/>
+      <c r="K852" s="39"/>
+      <c r="L852" s="39"/>
     </row>
     <row r="853">
-      <c r="G853" s="41"/>
-      <c r="H853" s="42"/>
-      <c r="K853" s="40"/>
-      <c r="L853" s="40"/>
+      <c r="G853" s="40"/>
+      <c r="H853" s="41"/>
+      <c r="K853" s="39"/>
+      <c r="L853" s="39"/>
     </row>
     <row r="854">
-      <c r="G854" s="41"/>
-      <c r="H854" s="42"/>
-      <c r="K854" s="40"/>
-      <c r="L854" s="40"/>
+      <c r="G854" s="40"/>
+      <c r="H854" s="41"/>
+      <c r="K854" s="39"/>
+      <c r="L854" s="39"/>
     </row>
     <row r="855">
-      <c r="G855" s="41"/>
-      <c r="H855" s="42"/>
-      <c r="K855" s="40"/>
-      <c r="L855" s="40"/>
+      <c r="G855" s="40"/>
+      <c r="H855" s="41"/>
+      <c r="K855" s="39"/>
+      <c r="L855" s="39"/>
     </row>
     <row r="856">
-      <c r="G856" s="41"/>
-      <c r="H856" s="42"/>
-      <c r="K856" s="40"/>
-      <c r="L856" s="40"/>
+      <c r="G856" s="40"/>
+      <c r="H856" s="41"/>
+      <c r="K856" s="39"/>
+      <c r="L856" s="39"/>
     </row>
     <row r="857">
-      <c r="G857" s="41"/>
-      <c r="H857" s="42"/>
-      <c r="K857" s="40"/>
-      <c r="L857" s="40"/>
+      <c r="G857" s="40"/>
+      <c r="H857" s="41"/>
+      <c r="K857" s="39"/>
+      <c r="L857" s="39"/>
     </row>
     <row r="858">
-      <c r="G858" s="41"/>
-      <c r="H858" s="42"/>
-      <c r="K858" s="40"/>
-      <c r="L858" s="40"/>
+      <c r="G858" s="40"/>
+      <c r="H858" s="41"/>
+      <c r="K858" s="39"/>
+      <c r="L858" s="39"/>
     </row>
     <row r="859">
-      <c r="G859" s="41"/>
-      <c r="H859" s="42"/>
-      <c r="K859" s="40"/>
-      <c r="L859" s="40"/>
+      <c r="G859" s="40"/>
+      <c r="H859" s="41"/>
+      <c r="K859" s="39"/>
+      <c r="L859" s="39"/>
     </row>
     <row r="860">
-      <c r="G860" s="41"/>
-      <c r="H860" s="42"/>
-      <c r="K860" s="40"/>
-      <c r="L860" s="40"/>
+      <c r="G860" s="40"/>
+      <c r="H860" s="41"/>
+      <c r="K860" s="39"/>
+      <c r="L860" s="39"/>
     </row>
     <row r="861">
-      <c r="G861" s="41"/>
-      <c r="H861" s="42"/>
-      <c r="K861" s="40"/>
-      <c r="L861" s="40"/>
+      <c r="G861" s="40"/>
+      <c r="H861" s="41"/>
+      <c r="K861" s="39"/>
+      <c r="L861" s="39"/>
     </row>
     <row r="862">
-      <c r="G862" s="41"/>
-      <c r="H862" s="42"/>
-      <c r="K862" s="40"/>
-      <c r="L862" s="40"/>
+      <c r="G862" s="40"/>
+      <c r="H862" s="41"/>
+      <c r="K862" s="39"/>
+      <c r="L862" s="39"/>
     </row>
     <row r="863">
-      <c r="G863" s="41"/>
-      <c r="H863" s="42"/>
-      <c r="K863" s="40"/>
-      <c r="L863" s="40"/>
+      <c r="G863" s="40"/>
+      <c r="H863" s="41"/>
+      <c r="K863" s="39"/>
+      <c r="L863" s="39"/>
     </row>
     <row r="864">
-      <c r="G864" s="41"/>
-      <c r="H864" s="42"/>
-      <c r="K864" s="40"/>
-      <c r="L864" s="40"/>
+      <c r="G864" s="40"/>
+      <c r="H864" s="41"/>
+      <c r="K864" s="39"/>
+      <c r="L864" s="39"/>
     </row>
     <row r="865">
-      <c r="G865" s="41"/>
-      <c r="H865" s="42"/>
-      <c r="K865" s="40"/>
-      <c r="L865" s="40"/>
+      <c r="G865" s="40"/>
+      <c r="H865" s="41"/>
+      <c r="K865" s="39"/>
+      <c r="L865" s="39"/>
     </row>
     <row r="866">
-      <c r="G866" s="41"/>
-      <c r="H866" s="42"/>
-      <c r="K866" s="40"/>
-      <c r="L866" s="40"/>
+      <c r="G866" s="40"/>
+      <c r="H866" s="41"/>
+      <c r="K866" s="39"/>
+      <c r="L866" s="39"/>
     </row>
     <row r="867">
-      <c r="G867" s="41"/>
-      <c r="H867" s="42"/>
-      <c r="K867" s="40"/>
-      <c r="L867" s="40"/>
+      <c r="G867" s="40"/>
+      <c r="H867" s="41"/>
+      <c r="K867" s="39"/>
+      <c r="L867" s="39"/>
     </row>
     <row r="868">
-      <c r="G868" s="41"/>
-      <c r="H868" s="42"/>
-      <c r="K868" s="40"/>
-      <c r="L868" s="40"/>
+      <c r="G868" s="40"/>
+      <c r="H868" s="41"/>
+      <c r="K868" s="39"/>
+      <c r="L868" s="39"/>
     </row>
     <row r="869">
-      <c r="G869" s="41"/>
-      <c r="H869" s="42"/>
-      <c r="K869" s="40"/>
-      <c r="L869" s="40"/>
+      <c r="G869" s="40"/>
+      <c r="H869" s="41"/>
+      <c r="K869" s="39"/>
+      <c r="L869" s="39"/>
     </row>
     <row r="870">
-      <c r="G870" s="41"/>
-      <c r="H870" s="42"/>
-      <c r="K870" s="40"/>
-      <c r="L870" s="40"/>
+      <c r="G870" s="40"/>
+      <c r="H870" s="41"/>
+      <c r="K870" s="39"/>
+      <c r="L870" s="39"/>
     </row>
     <row r="871">
-      <c r="G871" s="41"/>
-      <c r="H871" s="42"/>
-      <c r="K871" s="40"/>
-      <c r="L871" s="40"/>
+      <c r="G871" s="40"/>
+      <c r="H871" s="41"/>
+      <c r="K871" s="39"/>
+      <c r="L871" s="39"/>
     </row>
     <row r="872">
-      <c r="G872" s="41"/>
-      <c r="H872" s="42"/>
-      <c r="K872" s="40"/>
-      <c r="L872" s="40"/>
+      <c r="G872" s="40"/>
+      <c r="H872" s="41"/>
+      <c r="K872" s="39"/>
+      <c r="L872" s="39"/>
     </row>
     <row r="873">
-      <c r="G873" s="41"/>
-      <c r="H873" s="42"/>
-      <c r="K873" s="40"/>
-      <c r="L873" s="40"/>
+      <c r="G873" s="40"/>
+      <c r="H873" s="41"/>
+      <c r="K873" s="39"/>
+      <c r="L873" s="39"/>
     </row>
     <row r="874">
-      <c r="G874" s="41"/>
-      <c r="H874" s="42"/>
-      <c r="K874" s="40"/>
-      <c r="L874" s="40"/>
+      <c r="G874" s="40"/>
+      <c r="H874" s="41"/>
+      <c r="K874" s="39"/>
+      <c r="L874" s="39"/>
     </row>
     <row r="875">
-      <c r="G875" s="41"/>
-      <c r="H875" s="42"/>
-      <c r="K875" s="40"/>
-      <c r="L875" s="40"/>
+      <c r="G875" s="40"/>
+      <c r="H875" s="41"/>
+      <c r="K875" s="39"/>
+      <c r="L875" s="39"/>
     </row>
     <row r="876">
-      <c r="G876" s="41"/>
-      <c r="H876" s="42"/>
-      <c r="K876" s="40"/>
-      <c r="L876" s="40"/>
+      <c r="G876" s="40"/>
+      <c r="H876" s="41"/>
+      <c r="K876" s="39"/>
+      <c r="L876" s="39"/>
     </row>
     <row r="877">
-      <c r="G877" s="41"/>
-      <c r="H877" s="42"/>
-      <c r="K877" s="40"/>
-      <c r="L877" s="40"/>
+      <c r="G877" s="40"/>
+      <c r="H877" s="41"/>
+      <c r="K877" s="39"/>
+      <c r="L877" s="39"/>
     </row>
     <row r="878">
-      <c r="G878" s="41"/>
-      <c r="H878" s="42"/>
-      <c r="K878" s="40"/>
-      <c r="L878" s="40"/>
+      <c r="G878" s="40"/>
+      <c r="H878" s="41"/>
+      <c r="K878" s="39"/>
+      <c r="L878" s="39"/>
     </row>
     <row r="879">
-      <c r="G879" s="41"/>
-      <c r="H879" s="42"/>
-      <c r="K879" s="40"/>
-      <c r="L879" s="40"/>
+      <c r="G879" s="40"/>
+      <c r="H879" s="41"/>
+      <c r="K879" s="39"/>
+      <c r="L879" s="39"/>
     </row>
     <row r="880">
-      <c r="G880" s="41"/>
-      <c r="H880" s="42"/>
-      <c r="K880" s="40"/>
-      <c r="L880" s="40"/>
+      <c r="G880" s="40"/>
+      <c r="H880" s="41"/>
+      <c r="K880" s="39"/>
+      <c r="L880" s="39"/>
     </row>
     <row r="881">
-      <c r="G881" s="41"/>
-      <c r="H881" s="42"/>
-      <c r="K881" s="40"/>
-      <c r="L881" s="40"/>
+      <c r="G881" s="40"/>
+      <c r="H881" s="41"/>
+      <c r="K881" s="39"/>
+      <c r="L881" s="39"/>
     </row>
     <row r="882">
-      <c r="G882" s="41"/>
-      <c r="H882" s="42"/>
-      <c r="K882" s="40"/>
-      <c r="L882" s="40"/>
+      <c r="G882" s="40"/>
+      <c r="H882" s="41"/>
+      <c r="K882" s="39"/>
+      <c r="L882" s="39"/>
     </row>
     <row r="883">
-      <c r="G883" s="41"/>
-      <c r="H883" s="42"/>
-      <c r="K883" s="40"/>
-      <c r="L883" s="40"/>
+      <c r="G883" s="40"/>
+      <c r="H883" s="41"/>
+      <c r="K883" s="39"/>
+      <c r="L883" s="39"/>
     </row>
     <row r="884">
-      <c r="G884" s="41"/>
-      <c r="H884" s="42"/>
-      <c r="K884" s="40"/>
-      <c r="L884" s="40"/>
+      <c r="G884" s="40"/>
+      <c r="H884" s="41"/>
+      <c r="K884" s="39"/>
+      <c r="L884" s="39"/>
     </row>
     <row r="885">
-      <c r="G885" s="41"/>
-      <c r="H885" s="42"/>
-      <c r="K885" s="40"/>
-      <c r="L885" s="40"/>
+      <c r="G885" s="40"/>
+      <c r="H885" s="41"/>
+      <c r="K885" s="39"/>
+      <c r="L885" s="39"/>
     </row>
     <row r="886">
-      <c r="G886" s="41"/>
-      <c r="H886" s="42"/>
-      <c r="K886" s="40"/>
-      <c r="L886" s="40"/>
+      <c r="G886" s="40"/>
+      <c r="H886" s="41"/>
+      <c r="K886" s="39"/>
+      <c r="L886" s="39"/>
     </row>
     <row r="887">
-      <c r="G887" s="41"/>
-      <c r="H887" s="42"/>
-      <c r="K887" s="40"/>
-      <c r="L887" s="40"/>
+      <c r="G887" s="40"/>
+      <c r="H887" s="41"/>
+      <c r="K887" s="39"/>
+      <c r="L887" s="39"/>
     </row>
     <row r="888">
-      <c r="G888" s="41"/>
-      <c r="H888" s="42"/>
-      <c r="K888" s="40"/>
-      <c r="L888" s="40"/>
+      <c r="G888" s="40"/>
+      <c r="H888" s="41"/>
+      <c r="K888" s="39"/>
+      <c r="L888" s="39"/>
     </row>
     <row r="889">
-      <c r="G889" s="41"/>
-      <c r="H889" s="42"/>
-      <c r="K889" s="40"/>
-      <c r="L889" s="40"/>
+      <c r="G889" s="40"/>
+      <c r="H889" s="41"/>
+      <c r="K889" s="39"/>
+      <c r="L889" s="39"/>
     </row>
     <row r="890">
-      <c r="G890" s="41"/>
-      <c r="H890" s="42"/>
-      <c r="K890" s="40"/>
-      <c r="L890" s="40"/>
+      <c r="G890" s="40"/>
+      <c r="H890" s="41"/>
+      <c r="K890" s="39"/>
+      <c r="L890" s="39"/>
     </row>
     <row r="891">
-      <c r="G891" s="41"/>
-      <c r="H891" s="42"/>
-      <c r="K891" s="40"/>
-      <c r="L891" s="40"/>
+      <c r="G891" s="40"/>
+      <c r="H891" s="41"/>
+      <c r="K891" s="39"/>
+      <c r="L891" s="39"/>
     </row>
     <row r="892">
-      <c r="G892" s="41"/>
-      <c r="H892" s="42"/>
-      <c r="K892" s="40"/>
-      <c r="L892" s="40"/>
+      <c r="G892" s="40"/>
+      <c r="H892" s="41"/>
+      <c r="K892" s="39"/>
+      <c r="L892" s="39"/>
     </row>
     <row r="893">
-      <c r="G893" s="41"/>
-      <c r="H893" s="42"/>
-      <c r="K893" s="40"/>
-      <c r="L893" s="40"/>
+      <c r="G893" s="40"/>
+      <c r="H893" s="41"/>
+      <c r="K893" s="39"/>
+      <c r="L893" s="39"/>
     </row>
     <row r="894">
-      <c r="G894" s="41"/>
-      <c r="H894" s="42"/>
-      <c r="K894" s="40"/>
-      <c r="L894" s="40"/>
+      <c r="G894" s="40"/>
+      <c r="H894" s="41"/>
+      <c r="K894" s="39"/>
+      <c r="L894" s="39"/>
     </row>
     <row r="895">
-      <c r="G895" s="41"/>
-      <c r="H895" s="42"/>
-      <c r="K895" s="40"/>
-      <c r="L895" s="40"/>
+      <c r="G895" s="40"/>
+      <c r="H895" s="41"/>
+      <c r="K895" s="39"/>
+      <c r="L895" s="39"/>
     </row>
     <row r="896">
-      <c r="G896" s="41"/>
-      <c r="H896" s="42"/>
-      <c r="K896" s="40"/>
-      <c r="L896" s="40"/>
+      <c r="G896" s="40"/>
+      <c r="H896" s="41"/>
+      <c r="K896" s="39"/>
+      <c r="L896" s="39"/>
     </row>
     <row r="897">
-      <c r="G897" s="41"/>
-      <c r="H897" s="42"/>
-      <c r="K897" s="40"/>
-      <c r="L897" s="40"/>
+      <c r="G897" s="40"/>
+      <c r="H897" s="41"/>
+      <c r="K897" s="39"/>
+      <c r="L897" s="39"/>
     </row>
     <row r="898">
-      <c r="G898" s="41"/>
-      <c r="H898" s="42"/>
-      <c r="K898" s="40"/>
-      <c r="L898" s="40"/>
+      <c r="G898" s="40"/>
+      <c r="H898" s="41"/>
+      <c r="K898" s="39"/>
+      <c r="L898" s="39"/>
     </row>
     <row r="899">
-      <c r="G899" s="41"/>
-      <c r="H899" s="42"/>
-      <c r="K899" s="40"/>
-      <c r="L899" s="40"/>
+      <c r="G899" s="40"/>
+      <c r="H899" s="41"/>
+      <c r="K899" s="39"/>
+      <c r="L899" s="39"/>
     </row>
     <row r="900">
-      <c r="G900" s="41"/>
-      <c r="H900" s="42"/>
-      <c r="K900" s="40"/>
-      <c r="L900" s="40"/>
+      <c r="G900" s="40"/>
+      <c r="H900" s="41"/>
+      <c r="K900" s="39"/>
+      <c r="L900" s="39"/>
     </row>
     <row r="901">
-      <c r="G901" s="41"/>
-      <c r="H901" s="42"/>
-      <c r="K901" s="40"/>
-      <c r="L901" s="40"/>
+      <c r="G901" s="40"/>
+      <c r="H901" s="41"/>
+      <c r="K901" s="39"/>
+      <c r="L901" s="39"/>
     </row>
     <row r="902">
-      <c r="G902" s="41"/>
-      <c r="H902" s="42"/>
-      <c r="K902" s="40"/>
-      <c r="L902" s="40"/>
+      <c r="G902" s="40"/>
+      <c r="H902" s="41"/>
+      <c r="K902" s="39"/>
+      <c r="L902" s="39"/>
     </row>
     <row r="903">
-      <c r="G903" s="41"/>
-      <c r="H903" s="42"/>
-      <c r="K903" s="40"/>
-      <c r="L903" s="40"/>
+      <c r="G903" s="40"/>
+      <c r="H903" s="41"/>
+      <c r="K903" s="39"/>
+      <c r="L903" s="39"/>
     </row>
     <row r="904">
-      <c r="G904" s="41"/>
-      <c r="H904" s="42"/>
-      <c r="K904" s="40"/>
-      <c r="L904" s="40"/>
+      <c r="G904" s="40"/>
+      <c r="H904" s="41"/>
+      <c r="K904" s="39"/>
+      <c r="L904" s="39"/>
     </row>
     <row r="905">
-      <c r="G905" s="41"/>
-      <c r="H905" s="42"/>
-      <c r="K905" s="40"/>
-      <c r="L905" s="40"/>
+      <c r="G905" s="40"/>
+      <c r="H905" s="41"/>
+      <c r="K905" s="39"/>
+      <c r="L905" s="39"/>
     </row>
     <row r="906">
-      <c r="G906" s="41"/>
-      <c r="H906" s="42"/>
-      <c r="K906" s="40"/>
-      <c r="L906" s="40"/>
+      <c r="G906" s="40"/>
+      <c r="H906" s="41"/>
+      <c r="K906" s="39"/>
+      <c r="L906" s="39"/>
     </row>
     <row r="907">
-      <c r="G907" s="41"/>
-      <c r="H907" s="42"/>
-      <c r="K907" s="40"/>
-      <c r="L907" s="40"/>
+      <c r="G907" s="40"/>
+      <c r="H907" s="41"/>
+      <c r="K907" s="39"/>
+      <c r="L907" s="39"/>
     </row>
     <row r="908">
-      <c r="G908" s="41"/>
-      <c r="H908" s="42"/>
-      <c r="K908" s="40"/>
-      <c r="L908" s="40"/>
+      <c r="G908" s="40"/>
+      <c r="H908" s="41"/>
+      <c r="K908" s="39"/>
+      <c r="L908" s="39"/>
     </row>
     <row r="909">
-      <c r="G909" s="41"/>
-      <c r="H909" s="42"/>
-      <c r="K909" s="40"/>
-      <c r="L909" s="40"/>
+      <c r="G909" s="40"/>
+      <c r="H909" s="41"/>
+      <c r="K909" s="39"/>
+      <c r="L909" s="39"/>
     </row>
     <row r="910">
-      <c r="G910" s="41"/>
-      <c r="H910" s="42"/>
-      <c r="K910" s="40"/>
-      <c r="L910" s="40"/>
+      <c r="G910" s="40"/>
+      <c r="H910" s="41"/>
+      <c r="K910" s="39"/>
+      <c r="L910" s="39"/>
     </row>
     <row r="911">
-      <c r="G911" s="41"/>
-      <c r="H911" s="42"/>
-      <c r="K911" s="40"/>
-      <c r="L911" s="40"/>
+      <c r="G911" s="40"/>
+      <c r="H911" s="41"/>
+      <c r="K911" s="39"/>
+      <c r="L911" s="39"/>
     </row>
     <row r="912">
-      <c r="G912" s="41"/>
-      <c r="H912" s="42"/>
-      <c r="K912" s="40"/>
-      <c r="L912" s="40"/>
+      <c r="G912" s="40"/>
+      <c r="H912" s="41"/>
+      <c r="K912" s="39"/>
+      <c r="L912" s="39"/>
     </row>
     <row r="913">
-      <c r="G913" s="41"/>
-      <c r="H913" s="42"/>
-      <c r="K913" s="40"/>
-      <c r="L913" s="40"/>
+      <c r="G913" s="40"/>
+      <c r="H913" s="41"/>
+      <c r="K913" s="39"/>
+      <c r="L913" s="39"/>
     </row>
     <row r="914">
-      <c r="G914" s="41"/>
-      <c r="H914" s="42"/>
-      <c r="K914" s="40"/>
-      <c r="L914" s="40"/>
+      <c r="G914" s="40"/>
+      <c r="H914" s="41"/>
+      <c r="K914" s="39"/>
+      <c r="L914" s="39"/>
     </row>
     <row r="915">
-      <c r="G915" s="41"/>
-      <c r="H915" s="42"/>
-      <c r="K915" s="40"/>
-      <c r="L915" s="40"/>
+      <c r="G915" s="40"/>
+      <c r="H915" s="41"/>
+      <c r="K915" s="39"/>
+      <c r="L915" s="39"/>
     </row>
     <row r="916">
-      <c r="G916" s="41"/>
-      <c r="H916" s="42"/>
-      <c r="K916" s="40"/>
-      <c r="L916" s="40"/>
+      <c r="G916" s="40"/>
+      <c r="H916" s="41"/>
+      <c r="K916" s="39"/>
+      <c r="L916" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -10252,7 +10243,7 @@
       <sortCondition ref="B1:B81"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="K1:K27 K29:K38 K40:K73 K75:K916">
+  <conditionalFormatting sqref="K1:K27 K30:K38 K40:K73 K75:K916">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"нет участника"</formula>
     </cfRule>
@@ -10361,168 +10352,168 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="43">
+      <c r="B1" s="42">
         <v>1.0</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="42">
         <v>2.0</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="42">
         <v>3.0</v>
       </c>
-      <c r="E1" s="43">
+      <c r="E1" s="42">
         <v>4.0</v>
       </c>
-      <c r="F1" s="43">
+      <c r="F1" s="42">
         <v>5.0</v>
       </c>
-      <c r="G1" s="43">
+      <c r="G1" s="42">
         <v>6.0</v>
       </c>
-      <c r="H1" s="43">
+      <c r="H1" s="42">
         <v>7.0</v>
       </c>
-      <c r="I1" s="43">
+      <c r="I1" s="42">
         <v>8.0</v>
       </c>
-      <c r="J1" s="43">
+      <c r="J1" s="42">
         <v>9.0</v>
       </c>
-      <c r="K1" s="43">
+      <c r="K1" s="42">
         <v>10.0</v>
       </c>
-      <c r="L1" s="43">
+      <c r="L1" s="42">
         <v>11.0</v>
       </c>
-      <c r="M1" s="43">
+      <c r="M1" s="42">
         <v>12.0</v>
       </c>
       <c r="P1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>308</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="P4" s="52" t="s">
         <v>330</v>
       </c>
     </row>
@@ -13533,28 +13524,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>332</v>
       </c>
     </row>
@@ -13577,7 +13568,7 @@
       <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -13603,10 +13594,10 @@
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="57" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13629,10 +13620,10 @@
       <c r="F4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>333</v>
       </c>
     </row>
@@ -13655,7 +13646,7 @@
       <c r="F5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="16" t="s">
@@ -13681,7 +13672,7 @@
       <c r="F6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -13707,7 +13698,7 @@
       <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="56" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="16" t="s">
@@ -13733,7 +13724,7 @@
       <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="56" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -13744,22 +13735,22 @@
       <c r="A9" s="8">
         <v>57.0</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="20" t="s">
@@ -13767,25 +13758,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>141.0</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>215</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="56" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -768,7 +768,7 @@
     <t>https://www.syrovarnya.com/makhachkala</t>
   </si>
   <si>
-    <t xml:space="preserve">нужна замена </t>
+    <t>Попова Алина Александровна</t>
   </si>
   <si>
     <t>Проспект Петра I, 16А
@@ -1878,13 +1878,16 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1974,9 +1977,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -3492,8 +3492,8 @@
         <v>152</v>
       </c>
       <c r="N29" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"нужна замена ")</f>
-        <v>нужна замена </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Попова Алина Александровна")</f>
+        <v>Попова Алина Александровна</v>
       </c>
       <c r="O29" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4129,10 +4129,10 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="30" t="s">
+      <c r="K45" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="L45" s="33" t="s">
+      <c r="L45" s="34" t="s">
         <v>201</v>
       </c>
       <c r="N45" s="14" t="str">
@@ -4378,7 +4378,7 @@
       <c r="K51" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="L51" s="34" t="s">
+      <c r="L51" s="35" t="s">
         <v>226</v>
       </c>
       <c r="N51" s="14" t="str">
@@ -4471,19 +4471,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="35">
+      <c r="A54" s="36">
         <v>110.0</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="37" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="37" t="s">
         <v>236</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -4554,16 +4554,16 @@
       <c r="A56" s="8">
         <v>46.0</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -4596,16 +4596,16 @@
       <c r="A57" s="8">
         <v>70.0</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -4638,16 +4638,16 @@
       <c r="A58" s="8">
         <v>78.0</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -4680,16 +4680,16 @@
       <c r="A59" s="8">
         <v>87.0</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E59" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -4724,16 +4724,16 @@
       <c r="A60" s="8">
         <v>105.0</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -4766,16 +4766,16 @@
       <c r="A61" s="8">
         <v>136.0</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -4808,16 +4808,16 @@
       <c r="A62" s="8">
         <v>137.0</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -4850,16 +4850,16 @@
       <c r="A63" s="8">
         <v>135.0</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="38" t="s">
         <v>37</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -4888,16 +4888,16 @@
       <c r="A64" s="8">
         <v>27.0</v>
       </c>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="18" t="s">
@@ -4928,16 +4928,16 @@
       <c r="A65" s="8">
         <v>74.0</v>
       </c>
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="18" t="s">
@@ -4968,16 +4968,16 @@
       <c r="A66" s="8">
         <v>52.0</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E66" s="38" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="18" t="s">
@@ -4992,7 +4992,7 @@
       <c r="K66" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="L66" s="38" t="s">
+      <c r="L66" s="39" t="s">
         <v>274</v>
       </c>
       <c r="N66" s="14" t="str">
@@ -5005,19 +5005,19 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="35">
+      <c r="A67" s="36">
         <v>38.0</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="D67" s="39" t="s">
+      <c r="D67" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="18" t="s">
@@ -5045,19 +5045,19 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="35">
+      <c r="A68" s="36">
         <v>5.0</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="40" t="s">
         <v>280</v>
       </c>
       <c r="F68" s="18" t="s">
@@ -5073,10 +5073,10 @@
       <c r="J68" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="K68" s="40" t="s">
+      <c r="K68" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="L68" s="38" t="s">
+      <c r="L68" s="39" t="s">
         <v>283</v>
       </c>
       <c r="N68" s="14" t="str">
@@ -5092,16 +5092,16 @@
       <c r="A69" s="8">
         <v>139.0</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="38" t="s">
         <v>224</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -5132,16 +5132,16 @@
       <c r="A70" s="8">
         <v>20.0</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="C70" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="E70" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -5176,16 +5176,16 @@
       <c r="A71" s="8">
         <v>28.0</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -5222,16 +5222,16 @@
       <c r="A72" s="8">
         <v>29.0</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="E72" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -5268,16 +5268,16 @@
       <c r="A73" s="8">
         <v>57.0</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -5289,7 +5289,7 @@
       <c r="H73" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="42" t="s">
+      <c r="I73" s="43" t="s">
         <v>30</v>
       </c>
       <c r="J73" s="16" t="s">
@@ -5298,7 +5298,7 @@
       <c r="K73" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L73" s="33" t="s">
+      <c r="L73" s="34" t="s">
         <v>304</v>
       </c>
       <c r="N73" s="14" t="str">
@@ -5314,16 +5314,16 @@
       <c r="A74" s="8">
         <v>76.0</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="E74" s="41" t="s">
+      <c r="E74" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -5360,16 +5360,16 @@
       <c r="A75" s="8">
         <v>82.0</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="42" t="s">
         <v>312</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -5402,16 +5402,16 @@
       <c r="A76" s="8">
         <v>99.0</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C76" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="E76" s="41" t="s">
+      <c r="E76" s="42" t="s">
         <v>316</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -5445,19 +5445,19 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="35">
+      <c r="A77" s="36">
         <v>141.0</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="44" t="s">
         <v>224</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -5476,7 +5476,7 @@
       <c r="K77" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L77" s="44" t="s">
+      <c r="L77" s="45" t="s">
         <v>323</v>
       </c>
       <c r="N77" s="14" t="str">
@@ -5492,16 +5492,16 @@
       <c r="A78" s="8">
         <v>119.0</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="42" t="s">
         <v>316</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -5536,16 +5536,16 @@
       <c r="A79" s="8">
         <v>158.0</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="C79" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="D79" s="45" t="s">
+      <c r="D79" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="E79" s="45" t="s">
+      <c r="E79" s="46" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -5576,16 +5576,16 @@
       <c r="A80" s="8">
         <v>159.0</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="D80" s="45" t="s">
+      <c r="D80" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="E80" s="45" t="s">
+      <c r="E80" s="46" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -5618,16 +5618,16 @@
       <c r="A81" s="8">
         <v>144.0</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C81" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E81" s="46" t="s">
         <v>37</v>
       </c>
       <c r="F81" s="10" t="s">
@@ -5653,4184 +5653,4184 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="46"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="48"/>
-      <c r="K82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="49"/>
+      <c r="K82" s="47"/>
     </row>
     <row r="83">
-      <c r="F83" s="46"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48"/>
-      <c r="K83" s="46"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="49"/>
+      <c r="K83" s="47"/>
     </row>
     <row r="84">
-      <c r="F84" s="46"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
-      <c r="K84" s="46"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
+      <c r="K84" s="47"/>
     </row>
     <row r="85">
-      <c r="F85" s="46"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
-      <c r="K85" s="46"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="49"/>
+      <c r="K85" s="47"/>
     </row>
     <row r="86">
-      <c r="F86" s="46"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="48"/>
-      <c r="K86" s="46"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="49"/>
+      <c r="K86" s="47"/>
     </row>
     <row r="87">
-      <c r="G87" s="47"/>
-      <c r="H87" s="48"/>
-      <c r="K87" s="46"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="49"/>
+      <c r="K87" s="47"/>
     </row>
     <row r="88">
-      <c r="G88" s="47"/>
-      <c r="H88" s="48"/>
-      <c r="K88" s="46"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="49"/>
+      <c r="K88" s="47"/>
     </row>
     <row r="89">
-      <c r="G89" s="47"/>
-      <c r="H89" s="48"/>
-      <c r="K89" s="46"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="49"/>
+      <c r="K89" s="47"/>
     </row>
     <row r="90">
-      <c r="G90" s="47"/>
-      <c r="H90" s="48"/>
-      <c r="K90" s="46"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="49"/>
+      <c r="K90" s="47"/>
     </row>
     <row r="91">
-      <c r="G91" s="47"/>
-      <c r="H91" s="48"/>
-      <c r="K91" s="46"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="49"/>
+      <c r="K91" s="47"/>
     </row>
     <row r="92">
-      <c r="G92" s="47"/>
-      <c r="H92" s="48"/>
-      <c r="K92" s="46"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="49"/>
+      <c r="K92" s="47"/>
     </row>
     <row r="93">
-      <c r="G93" s="47"/>
-      <c r="H93" s="48"/>
-      <c r="K93" s="46"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="49"/>
+      <c r="K93" s="47"/>
     </row>
     <row r="94">
-      <c r="G94" s="47"/>
-      <c r="H94" s="48"/>
-      <c r="K94" s="46"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="49"/>
+      <c r="K94" s="47"/>
     </row>
     <row r="95">
-      <c r="G95" s="47"/>
-      <c r="H95" s="48"/>
-      <c r="K95" s="46"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="49"/>
+      <c r="K95" s="47"/>
     </row>
     <row r="96">
-      <c r="G96" s="47"/>
-      <c r="H96" s="48"/>
-      <c r="K96" s="46"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="49"/>
+      <c r="K96" s="47"/>
     </row>
     <row r="97">
-      <c r="G97" s="47"/>
-      <c r="H97" s="48"/>
-      <c r="K97" s="46"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="49"/>
+      <c r="K97" s="47"/>
     </row>
     <row r="98">
-      <c r="G98" s="47"/>
-      <c r="H98" s="48"/>
-      <c r="K98" s="46"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="49"/>
+      <c r="K98" s="47"/>
     </row>
     <row r="99">
-      <c r="G99" s="47"/>
-      <c r="H99" s="48"/>
-      <c r="K99" s="46"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="49"/>
+      <c r="K99" s="47"/>
     </row>
     <row r="100">
-      <c r="G100" s="47"/>
-      <c r="H100" s="48"/>
-      <c r="K100" s="46"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="49"/>
+      <c r="K100" s="47"/>
     </row>
     <row r="101">
-      <c r="G101" s="47"/>
-      <c r="H101" s="48"/>
-      <c r="K101" s="46"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="49"/>
+      <c r="K101" s="47"/>
     </row>
     <row r="102">
-      <c r="G102" s="47"/>
-      <c r="H102" s="48"/>
-      <c r="K102" s="46"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="49"/>
+      <c r="K102" s="47"/>
     </row>
     <row r="103">
-      <c r="G103" s="47"/>
-      <c r="H103" s="48"/>
-      <c r="K103" s="46"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="49"/>
+      <c r="K103" s="47"/>
     </row>
     <row r="104">
-      <c r="G104" s="47"/>
-      <c r="H104" s="48"/>
-      <c r="K104" s="46"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="49"/>
+      <c r="K104" s="47"/>
     </row>
     <row r="105">
-      <c r="G105" s="47"/>
-      <c r="H105" s="48"/>
-      <c r="K105" s="46"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="49"/>
+      <c r="K105" s="47"/>
     </row>
     <row r="106">
-      <c r="G106" s="47"/>
-      <c r="H106" s="48"/>
-      <c r="K106" s="46"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="49"/>
+      <c r="K106" s="47"/>
     </row>
     <row r="107">
-      <c r="G107" s="47"/>
-      <c r="H107" s="48"/>
-      <c r="K107" s="46"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="49"/>
+      <c r="K107" s="47"/>
     </row>
     <row r="108">
-      <c r="G108" s="47"/>
-      <c r="H108" s="48"/>
-      <c r="K108" s="46"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="49"/>
+      <c r="K108" s="47"/>
     </row>
     <row r="109">
-      <c r="G109" s="47"/>
-      <c r="H109" s="48"/>
-      <c r="K109" s="46"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="49"/>
+      <c r="K109" s="47"/>
     </row>
     <row r="110">
-      <c r="G110" s="47"/>
-      <c r="H110" s="48"/>
-      <c r="K110" s="46"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="49"/>
+      <c r="K110" s="47"/>
     </row>
     <row r="111">
-      <c r="G111" s="47"/>
-      <c r="H111" s="48"/>
-      <c r="K111" s="46"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="49"/>
+      <c r="K111" s="47"/>
     </row>
     <row r="112">
-      <c r="G112" s="47"/>
-      <c r="H112" s="48"/>
-      <c r="K112" s="46"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="49"/>
+      <c r="K112" s="47"/>
     </row>
     <row r="113">
-      <c r="G113" s="47"/>
-      <c r="H113" s="48"/>
-      <c r="K113" s="46"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="49"/>
+      <c r="K113" s="47"/>
     </row>
     <row r="114">
-      <c r="G114" s="47"/>
-      <c r="H114" s="48"/>
-      <c r="K114" s="46"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="49"/>
+      <c r="K114" s="47"/>
     </row>
     <row r="115">
-      <c r="G115" s="47"/>
-      <c r="H115" s="48"/>
-      <c r="K115" s="46"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="49"/>
+      <c r="K115" s="47"/>
     </row>
     <row r="116">
-      <c r="G116" s="47"/>
-      <c r="H116" s="48"/>
-      <c r="K116" s="46"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="49"/>
+      <c r="K116" s="47"/>
     </row>
     <row r="117">
-      <c r="G117" s="47"/>
-      <c r="H117" s="48"/>
-      <c r="K117" s="46"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="49"/>
+      <c r="K117" s="47"/>
     </row>
     <row r="118">
-      <c r="G118" s="47"/>
-      <c r="H118" s="48"/>
-      <c r="K118" s="46"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="49"/>
+      <c r="K118" s="47"/>
     </row>
     <row r="119">
-      <c r="G119" s="47"/>
-      <c r="H119" s="48"/>
-      <c r="K119" s="46"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="49"/>
+      <c r="K119" s="47"/>
     </row>
     <row r="120">
-      <c r="G120" s="47"/>
-      <c r="H120" s="48"/>
-      <c r="K120" s="46"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="49"/>
+      <c r="K120" s="47"/>
     </row>
     <row r="121">
-      <c r="G121" s="47"/>
-      <c r="H121" s="48"/>
-      <c r="K121" s="46"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="49"/>
+      <c r="K121" s="47"/>
     </row>
     <row r="122">
-      <c r="G122" s="47"/>
-      <c r="H122" s="48"/>
-      <c r="K122" s="46"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="49"/>
+      <c r="K122" s="47"/>
     </row>
     <row r="123">
-      <c r="G123" s="47"/>
-      <c r="H123" s="48"/>
-      <c r="K123" s="46"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="49"/>
+      <c r="K123" s="47"/>
     </row>
     <row r="124">
-      <c r="G124" s="47"/>
-      <c r="H124" s="48"/>
-      <c r="K124" s="46"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="49"/>
+      <c r="K124" s="47"/>
     </row>
     <row r="125">
-      <c r="G125" s="47"/>
-      <c r="H125" s="48"/>
-      <c r="K125" s="46"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="49"/>
+      <c r="K125" s="47"/>
     </row>
     <row r="126">
-      <c r="G126" s="47"/>
-      <c r="H126" s="48"/>
-      <c r="K126" s="46"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="49"/>
+      <c r="K126" s="47"/>
     </row>
     <row r="127">
-      <c r="G127" s="47"/>
-      <c r="H127" s="48"/>
-      <c r="K127" s="46"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="49"/>
+      <c r="K127" s="47"/>
     </row>
     <row r="128">
-      <c r="G128" s="47"/>
-      <c r="H128" s="48"/>
-      <c r="K128" s="46"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="49"/>
+      <c r="K128" s="47"/>
     </row>
     <row r="129">
-      <c r="G129" s="47"/>
-      <c r="H129" s="48"/>
-      <c r="K129" s="46"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="49"/>
+      <c r="K129" s="47"/>
     </row>
     <row r="130">
-      <c r="G130" s="47"/>
-      <c r="H130" s="48"/>
-      <c r="K130" s="46"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="49"/>
+      <c r="K130" s="47"/>
     </row>
     <row r="131">
-      <c r="G131" s="47"/>
-      <c r="H131" s="48"/>
-      <c r="K131" s="46"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="49"/>
+      <c r="K131" s="47"/>
     </row>
     <row r="132">
-      <c r="G132" s="47"/>
-      <c r="H132" s="48"/>
-      <c r="K132" s="46"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="49"/>
+      <c r="K132" s="47"/>
     </row>
     <row r="133">
-      <c r="G133" s="47"/>
-      <c r="H133" s="48"/>
-      <c r="K133" s="46"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="49"/>
+      <c r="K133" s="47"/>
     </row>
     <row r="134">
-      <c r="G134" s="47"/>
-      <c r="H134" s="48"/>
-      <c r="K134" s="46"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="49"/>
+      <c r="K134" s="47"/>
     </row>
     <row r="135">
-      <c r="G135" s="47"/>
-      <c r="H135" s="48"/>
-      <c r="K135" s="46"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="49"/>
+      <c r="K135" s="47"/>
     </row>
     <row r="136">
-      <c r="G136" s="47"/>
-      <c r="H136" s="48"/>
-      <c r="K136" s="46"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="49"/>
+      <c r="K136" s="47"/>
     </row>
     <row r="137">
-      <c r="G137" s="47"/>
-      <c r="H137" s="48"/>
-      <c r="K137" s="46"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="49"/>
+      <c r="K137" s="47"/>
     </row>
     <row r="138">
-      <c r="G138" s="47"/>
-      <c r="H138" s="48"/>
-      <c r="K138" s="46"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="49"/>
+      <c r="K138" s="47"/>
     </row>
     <row r="139">
-      <c r="G139" s="47"/>
-      <c r="H139" s="48"/>
-      <c r="K139" s="46"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="49"/>
+      <c r="K139" s="47"/>
     </row>
     <row r="140">
-      <c r="G140" s="47"/>
-      <c r="H140" s="48"/>
-      <c r="K140" s="46"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="49"/>
+      <c r="K140" s="47"/>
     </row>
     <row r="141">
-      <c r="G141" s="47"/>
-      <c r="H141" s="48"/>
-      <c r="K141" s="46"/>
+      <c r="G141" s="48"/>
+      <c r="H141" s="49"/>
+      <c r="K141" s="47"/>
     </row>
     <row r="142">
-      <c r="G142" s="47"/>
-      <c r="H142" s="48"/>
-      <c r="K142" s="46"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="49"/>
+      <c r="K142" s="47"/>
     </row>
     <row r="143">
-      <c r="G143" s="47"/>
-      <c r="H143" s="48"/>
-      <c r="K143" s="46"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="49"/>
+      <c r="K143" s="47"/>
     </row>
     <row r="144">
-      <c r="G144" s="47"/>
-      <c r="H144" s="48"/>
-      <c r="K144" s="46"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="49"/>
+      <c r="K144" s="47"/>
     </row>
     <row r="145">
-      <c r="G145" s="47"/>
-      <c r="H145" s="48"/>
-      <c r="K145" s="46"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="49"/>
+      <c r="K145" s="47"/>
     </row>
     <row r="146">
-      <c r="G146" s="47"/>
-      <c r="H146" s="48"/>
-      <c r="K146" s="46"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="49"/>
+      <c r="K146" s="47"/>
     </row>
     <row r="147">
-      <c r="G147" s="47"/>
-      <c r="H147" s="48"/>
-      <c r="K147" s="46"/>
+      <c r="G147" s="48"/>
+      <c r="H147" s="49"/>
+      <c r="K147" s="47"/>
     </row>
     <row r="148">
-      <c r="G148" s="47"/>
-      <c r="H148" s="48"/>
-      <c r="K148" s="46"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="49"/>
+      <c r="K148" s="47"/>
     </row>
     <row r="149">
-      <c r="G149" s="47"/>
-      <c r="H149" s="48"/>
-      <c r="K149" s="46"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="49"/>
+      <c r="K149" s="47"/>
     </row>
     <row r="150">
-      <c r="G150" s="47"/>
-      <c r="H150" s="48"/>
-      <c r="K150" s="46"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="49"/>
+      <c r="K150" s="47"/>
     </row>
     <row r="151">
-      <c r="G151" s="47"/>
-      <c r="H151" s="48"/>
-      <c r="K151" s="46"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="49"/>
+      <c r="K151" s="47"/>
     </row>
     <row r="152">
-      <c r="G152" s="47"/>
-      <c r="H152" s="48"/>
-      <c r="K152" s="46"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="49"/>
+      <c r="K152" s="47"/>
     </row>
     <row r="153">
-      <c r="G153" s="47"/>
-      <c r="H153" s="48"/>
-      <c r="K153" s="46"/>
+      <c r="G153" s="48"/>
+      <c r="H153" s="49"/>
+      <c r="K153" s="47"/>
     </row>
     <row r="154">
-      <c r="G154" s="47"/>
-      <c r="H154" s="48"/>
-      <c r="K154" s="46"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="49"/>
+      <c r="K154" s="47"/>
     </row>
     <row r="155">
-      <c r="G155" s="47"/>
-      <c r="H155" s="48"/>
-      <c r="K155" s="46"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="49"/>
+      <c r="K155" s="47"/>
     </row>
     <row r="156">
-      <c r="G156" s="47"/>
-      <c r="H156" s="48"/>
-      <c r="K156" s="46"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="49"/>
+      <c r="K156" s="47"/>
     </row>
     <row r="157">
-      <c r="G157" s="47"/>
-      <c r="H157" s="48"/>
-      <c r="K157" s="46"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="49"/>
+      <c r="K157" s="47"/>
     </row>
     <row r="158">
-      <c r="G158" s="47"/>
-      <c r="H158" s="48"/>
-      <c r="K158" s="46"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="49"/>
+      <c r="K158" s="47"/>
     </row>
     <row r="159">
-      <c r="G159" s="47"/>
-      <c r="H159" s="48"/>
-      <c r="K159" s="46"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="49"/>
+      <c r="K159" s="47"/>
     </row>
     <row r="160">
-      <c r="G160" s="47"/>
-      <c r="H160" s="48"/>
-      <c r="K160" s="46"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="49"/>
+      <c r="K160" s="47"/>
     </row>
     <row r="161">
-      <c r="G161" s="47"/>
-      <c r="H161" s="48"/>
-      <c r="K161" s="46"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="49"/>
+      <c r="K161" s="47"/>
     </row>
     <row r="162">
-      <c r="G162" s="47"/>
-      <c r="H162" s="48"/>
-      <c r="K162" s="46"/>
+      <c r="G162" s="48"/>
+      <c r="H162" s="49"/>
+      <c r="K162" s="47"/>
     </row>
     <row r="163">
-      <c r="G163" s="47"/>
-      <c r="H163" s="48"/>
-      <c r="K163" s="46"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="49"/>
+      <c r="K163" s="47"/>
     </row>
     <row r="164">
-      <c r="G164" s="47"/>
-      <c r="H164" s="48"/>
-      <c r="K164" s="46"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="49"/>
+      <c r="K164" s="47"/>
     </row>
     <row r="165">
-      <c r="G165" s="47"/>
-      <c r="H165" s="48"/>
-      <c r="K165" s="46"/>
+      <c r="G165" s="48"/>
+      <c r="H165" s="49"/>
+      <c r="K165" s="47"/>
     </row>
     <row r="166">
-      <c r="G166" s="47"/>
-      <c r="H166" s="48"/>
-      <c r="K166" s="46"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="49"/>
+      <c r="K166" s="47"/>
     </row>
     <row r="167">
-      <c r="G167" s="47"/>
-      <c r="H167" s="48"/>
-      <c r="K167" s="46"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="49"/>
+      <c r="K167" s="47"/>
     </row>
     <row r="168">
-      <c r="G168" s="47"/>
-      <c r="H168" s="48"/>
-      <c r="K168" s="46"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="49"/>
+      <c r="K168" s="47"/>
     </row>
     <row r="169">
-      <c r="G169" s="47"/>
-      <c r="H169" s="48"/>
-      <c r="K169" s="46"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="49"/>
+      <c r="K169" s="47"/>
     </row>
     <row r="170">
-      <c r="G170" s="47"/>
-      <c r="H170" s="48"/>
-      <c r="K170" s="46"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="49"/>
+      <c r="K170" s="47"/>
     </row>
     <row r="171">
-      <c r="G171" s="47"/>
-      <c r="H171" s="48"/>
-      <c r="K171" s="46"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="49"/>
+      <c r="K171" s="47"/>
     </row>
     <row r="172">
-      <c r="G172" s="47"/>
-      <c r="H172" s="48"/>
-      <c r="K172" s="46"/>
+      <c r="G172" s="48"/>
+      <c r="H172" s="49"/>
+      <c r="K172" s="47"/>
     </row>
     <row r="173">
-      <c r="G173" s="47"/>
-      <c r="H173" s="48"/>
-      <c r="K173" s="46"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="49"/>
+      <c r="K173" s="47"/>
     </row>
     <row r="174">
-      <c r="G174" s="47"/>
-      <c r="H174" s="48"/>
-      <c r="K174" s="46"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="49"/>
+      <c r="K174" s="47"/>
     </row>
     <row r="175">
-      <c r="G175" s="47"/>
-      <c r="H175" s="48"/>
-      <c r="K175" s="46"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="49"/>
+      <c r="K175" s="47"/>
     </row>
     <row r="176">
-      <c r="G176" s="47"/>
-      <c r="H176" s="48"/>
-      <c r="K176" s="46"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="49"/>
+      <c r="K176" s="47"/>
     </row>
     <row r="177">
-      <c r="G177" s="47"/>
-      <c r="H177" s="48"/>
-      <c r="K177" s="46"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="49"/>
+      <c r="K177" s="47"/>
     </row>
     <row r="178">
-      <c r="G178" s="47"/>
-      <c r="H178" s="48"/>
-      <c r="K178" s="46"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="49"/>
+      <c r="K178" s="47"/>
     </row>
     <row r="179">
-      <c r="G179" s="47"/>
-      <c r="H179" s="48"/>
-      <c r="K179" s="46"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="49"/>
+      <c r="K179" s="47"/>
     </row>
     <row r="180">
-      <c r="G180" s="47"/>
-      <c r="H180" s="48"/>
-      <c r="K180" s="46"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="49"/>
+      <c r="K180" s="47"/>
     </row>
     <row r="181">
-      <c r="G181" s="47"/>
-      <c r="H181" s="48"/>
-      <c r="K181" s="46"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="49"/>
+      <c r="K181" s="47"/>
     </row>
     <row r="182">
-      <c r="G182" s="47"/>
-      <c r="H182" s="48"/>
-      <c r="K182" s="46"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="49"/>
+      <c r="K182" s="47"/>
     </row>
     <row r="183">
-      <c r="G183" s="47"/>
-      <c r="H183" s="48"/>
-      <c r="K183" s="46"/>
+      <c r="G183" s="48"/>
+      <c r="H183" s="49"/>
+      <c r="K183" s="47"/>
     </row>
     <row r="184">
-      <c r="G184" s="47"/>
-      <c r="H184" s="48"/>
-      <c r="K184" s="46"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="49"/>
+      <c r="K184" s="47"/>
     </row>
     <row r="185">
-      <c r="G185" s="47"/>
-      <c r="H185" s="48"/>
-      <c r="K185" s="46"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="49"/>
+      <c r="K185" s="47"/>
     </row>
     <row r="186">
-      <c r="G186" s="47"/>
-      <c r="H186" s="48"/>
-      <c r="K186" s="46"/>
+      <c r="G186" s="48"/>
+      <c r="H186" s="49"/>
+      <c r="K186" s="47"/>
     </row>
     <row r="187">
-      <c r="G187" s="47"/>
-      <c r="H187" s="48"/>
-      <c r="K187" s="46"/>
+      <c r="G187" s="48"/>
+      <c r="H187" s="49"/>
+      <c r="K187" s="47"/>
     </row>
     <row r="188">
-      <c r="G188" s="47"/>
-      <c r="H188" s="48"/>
-      <c r="K188" s="46"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="49"/>
+      <c r="K188" s="47"/>
     </row>
     <row r="189">
-      <c r="G189" s="47"/>
-      <c r="H189" s="48"/>
-      <c r="K189" s="46"/>
+      <c r="G189" s="48"/>
+      <c r="H189" s="49"/>
+      <c r="K189" s="47"/>
     </row>
     <row r="190">
-      <c r="G190" s="47"/>
-      <c r="H190" s="48"/>
-      <c r="K190" s="46"/>
+      <c r="G190" s="48"/>
+      <c r="H190" s="49"/>
+      <c r="K190" s="47"/>
     </row>
     <row r="191">
-      <c r="G191" s="47"/>
-      <c r="H191" s="48"/>
-      <c r="K191" s="46"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="49"/>
+      <c r="K191" s="47"/>
     </row>
     <row r="192">
-      <c r="G192" s="47"/>
-      <c r="H192" s="48"/>
-      <c r="K192" s="46"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="49"/>
+      <c r="K192" s="47"/>
     </row>
     <row r="193">
-      <c r="G193" s="47"/>
-      <c r="H193" s="48"/>
-      <c r="K193" s="46"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="49"/>
+      <c r="K193" s="47"/>
     </row>
     <row r="194">
-      <c r="G194" s="47"/>
-      <c r="H194" s="48"/>
-      <c r="K194" s="46"/>
+      <c r="G194" s="48"/>
+      <c r="H194" s="49"/>
+      <c r="K194" s="47"/>
     </row>
     <row r="195">
-      <c r="G195" s="47"/>
-      <c r="H195" s="48"/>
-      <c r="K195" s="46"/>
+      <c r="G195" s="48"/>
+      <c r="H195" s="49"/>
+      <c r="K195" s="47"/>
     </row>
     <row r="196">
-      <c r="G196" s="47"/>
-      <c r="H196" s="48"/>
-      <c r="K196" s="46"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="49"/>
+      <c r="K196" s="47"/>
     </row>
     <row r="197">
-      <c r="G197" s="47"/>
-      <c r="H197" s="48"/>
-      <c r="K197" s="46"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="49"/>
+      <c r="K197" s="47"/>
     </row>
     <row r="198">
-      <c r="G198" s="47"/>
-      <c r="H198" s="48"/>
-      <c r="K198" s="46"/>
+      <c r="G198" s="48"/>
+      <c r="H198" s="49"/>
+      <c r="K198" s="47"/>
     </row>
     <row r="199">
-      <c r="G199" s="47"/>
-      <c r="H199" s="48"/>
-      <c r="K199" s="46"/>
+      <c r="G199" s="48"/>
+      <c r="H199" s="49"/>
+      <c r="K199" s="47"/>
     </row>
     <row r="200">
-      <c r="G200" s="47"/>
-      <c r="H200" s="48"/>
-      <c r="K200" s="46"/>
+      <c r="G200" s="48"/>
+      <c r="H200" s="49"/>
+      <c r="K200" s="47"/>
     </row>
     <row r="201">
-      <c r="G201" s="47"/>
-      <c r="H201" s="48"/>
-      <c r="K201" s="46"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="49"/>
+      <c r="K201" s="47"/>
     </row>
     <row r="202">
-      <c r="G202" s="47"/>
-      <c r="H202" s="48"/>
-      <c r="K202" s="46"/>
+      <c r="G202" s="48"/>
+      <c r="H202" s="49"/>
+      <c r="K202" s="47"/>
     </row>
     <row r="203">
-      <c r="G203" s="47"/>
-      <c r="H203" s="48"/>
-      <c r="K203" s="46"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="49"/>
+      <c r="K203" s="47"/>
     </row>
     <row r="204">
-      <c r="G204" s="47"/>
-      <c r="H204" s="48"/>
-      <c r="K204" s="46"/>
+      <c r="G204" s="48"/>
+      <c r="H204" s="49"/>
+      <c r="K204" s="47"/>
     </row>
     <row r="205">
-      <c r="G205" s="47"/>
-      <c r="H205" s="48"/>
-      <c r="K205" s="46"/>
+      <c r="G205" s="48"/>
+      <c r="H205" s="49"/>
+      <c r="K205" s="47"/>
     </row>
     <row r="206">
-      <c r="G206" s="47"/>
-      <c r="H206" s="48"/>
-      <c r="K206" s="46"/>
+      <c r="G206" s="48"/>
+      <c r="H206" s="49"/>
+      <c r="K206" s="47"/>
     </row>
     <row r="207">
-      <c r="G207" s="47"/>
-      <c r="H207" s="48"/>
-      <c r="K207" s="46"/>
+      <c r="G207" s="48"/>
+      <c r="H207" s="49"/>
+      <c r="K207" s="47"/>
     </row>
     <row r="208">
-      <c r="G208" s="47"/>
-      <c r="H208" s="48"/>
-      <c r="K208" s="46"/>
+      <c r="G208" s="48"/>
+      <c r="H208" s="49"/>
+      <c r="K208" s="47"/>
     </row>
     <row r="209">
-      <c r="G209" s="47"/>
-      <c r="H209" s="48"/>
-      <c r="K209" s="46"/>
+      <c r="G209" s="48"/>
+      <c r="H209" s="49"/>
+      <c r="K209" s="47"/>
     </row>
     <row r="210">
-      <c r="G210" s="47"/>
-      <c r="H210" s="48"/>
-      <c r="K210" s="46"/>
+      <c r="G210" s="48"/>
+      <c r="H210" s="49"/>
+      <c r="K210" s="47"/>
     </row>
     <row r="211">
-      <c r="G211" s="47"/>
-      <c r="H211" s="48"/>
-      <c r="K211" s="46"/>
+      <c r="G211" s="48"/>
+      <c r="H211" s="49"/>
+      <c r="K211" s="47"/>
     </row>
     <row r="212">
-      <c r="G212" s="47"/>
-      <c r="H212" s="48"/>
-      <c r="K212" s="46"/>
+      <c r="G212" s="48"/>
+      <c r="H212" s="49"/>
+      <c r="K212" s="47"/>
     </row>
     <row r="213">
-      <c r="G213" s="47"/>
-      <c r="H213" s="48"/>
-      <c r="K213" s="46"/>
+      <c r="G213" s="48"/>
+      <c r="H213" s="49"/>
+      <c r="K213" s="47"/>
     </row>
     <row r="214">
-      <c r="G214" s="47"/>
-      <c r="H214" s="48"/>
-      <c r="K214" s="46"/>
+      <c r="G214" s="48"/>
+      <c r="H214" s="49"/>
+      <c r="K214" s="47"/>
     </row>
     <row r="215">
-      <c r="G215" s="47"/>
-      <c r="H215" s="48"/>
-      <c r="K215" s="46"/>
+      <c r="G215" s="48"/>
+      <c r="H215" s="49"/>
+      <c r="K215" s="47"/>
     </row>
     <row r="216">
-      <c r="G216" s="47"/>
-      <c r="H216" s="48"/>
-      <c r="K216" s="46"/>
+      <c r="G216" s="48"/>
+      <c r="H216" s="49"/>
+      <c r="K216" s="47"/>
     </row>
     <row r="217">
-      <c r="G217" s="47"/>
-      <c r="H217" s="48"/>
-      <c r="K217" s="46"/>
+      <c r="G217" s="48"/>
+      <c r="H217" s="49"/>
+      <c r="K217" s="47"/>
     </row>
     <row r="218">
-      <c r="G218" s="47"/>
-      <c r="H218" s="48"/>
-      <c r="K218" s="46"/>
+      <c r="G218" s="48"/>
+      <c r="H218" s="49"/>
+      <c r="K218" s="47"/>
     </row>
     <row r="219">
-      <c r="G219" s="47"/>
-      <c r="H219" s="48"/>
-      <c r="K219" s="46"/>
+      <c r="G219" s="48"/>
+      <c r="H219" s="49"/>
+      <c r="K219" s="47"/>
     </row>
     <row r="220">
-      <c r="G220" s="47"/>
-      <c r="H220" s="48"/>
-      <c r="K220" s="46"/>
+      <c r="G220" s="48"/>
+      <c r="H220" s="49"/>
+      <c r="K220" s="47"/>
     </row>
     <row r="221">
-      <c r="G221" s="47"/>
-      <c r="H221" s="48"/>
-      <c r="K221" s="46"/>
+      <c r="G221" s="48"/>
+      <c r="H221" s="49"/>
+      <c r="K221" s="47"/>
     </row>
     <row r="222">
-      <c r="G222" s="47"/>
-      <c r="H222" s="48"/>
-      <c r="K222" s="46"/>
+      <c r="G222" s="48"/>
+      <c r="H222" s="49"/>
+      <c r="K222" s="47"/>
     </row>
     <row r="223">
-      <c r="G223" s="47"/>
-      <c r="H223" s="48"/>
-      <c r="K223" s="46"/>
+      <c r="G223" s="48"/>
+      <c r="H223" s="49"/>
+      <c r="K223" s="47"/>
     </row>
     <row r="224">
-      <c r="G224" s="47"/>
-      <c r="H224" s="48"/>
-      <c r="K224" s="46"/>
+      <c r="G224" s="48"/>
+      <c r="H224" s="49"/>
+      <c r="K224" s="47"/>
     </row>
     <row r="225">
-      <c r="G225" s="47"/>
-      <c r="H225" s="48"/>
-      <c r="K225" s="46"/>
+      <c r="G225" s="48"/>
+      <c r="H225" s="49"/>
+      <c r="K225" s="47"/>
     </row>
     <row r="226">
-      <c r="G226" s="47"/>
-      <c r="H226" s="48"/>
-      <c r="K226" s="46"/>
+      <c r="G226" s="48"/>
+      <c r="H226" s="49"/>
+      <c r="K226" s="47"/>
     </row>
     <row r="227">
-      <c r="G227" s="47"/>
-      <c r="H227" s="48"/>
-      <c r="K227" s="46"/>
+      <c r="G227" s="48"/>
+      <c r="H227" s="49"/>
+      <c r="K227" s="47"/>
     </row>
     <row r="228">
-      <c r="G228" s="47"/>
-      <c r="H228" s="48"/>
-      <c r="K228" s="46"/>
+      <c r="G228" s="48"/>
+      <c r="H228" s="49"/>
+      <c r="K228" s="47"/>
     </row>
     <row r="229">
-      <c r="G229" s="47"/>
-      <c r="H229" s="48"/>
-      <c r="K229" s="46"/>
+      <c r="G229" s="48"/>
+      <c r="H229" s="49"/>
+      <c r="K229" s="47"/>
     </row>
     <row r="230">
-      <c r="G230" s="47"/>
-      <c r="H230" s="48"/>
-      <c r="K230" s="46"/>
+      <c r="G230" s="48"/>
+      <c r="H230" s="49"/>
+      <c r="K230" s="47"/>
     </row>
     <row r="231">
-      <c r="G231" s="47"/>
-      <c r="H231" s="48"/>
-      <c r="K231" s="46"/>
+      <c r="G231" s="48"/>
+      <c r="H231" s="49"/>
+      <c r="K231" s="47"/>
     </row>
     <row r="232">
-      <c r="G232" s="47"/>
-      <c r="H232" s="48"/>
-      <c r="K232" s="46"/>
+      <c r="G232" s="48"/>
+      <c r="H232" s="49"/>
+      <c r="K232" s="47"/>
     </row>
     <row r="233">
-      <c r="G233" s="47"/>
-      <c r="H233" s="48"/>
-      <c r="K233" s="46"/>
+      <c r="G233" s="48"/>
+      <c r="H233" s="49"/>
+      <c r="K233" s="47"/>
     </row>
     <row r="234">
-      <c r="G234" s="47"/>
-      <c r="H234" s="48"/>
-      <c r="K234" s="46"/>
+      <c r="G234" s="48"/>
+      <c r="H234" s="49"/>
+      <c r="K234" s="47"/>
     </row>
     <row r="235">
-      <c r="G235" s="47"/>
-      <c r="H235" s="48"/>
-      <c r="K235" s="46"/>
+      <c r="G235" s="48"/>
+      <c r="H235" s="49"/>
+      <c r="K235" s="47"/>
     </row>
     <row r="236">
-      <c r="G236" s="47"/>
-      <c r="H236" s="48"/>
-      <c r="K236" s="46"/>
+      <c r="G236" s="48"/>
+      <c r="H236" s="49"/>
+      <c r="K236" s="47"/>
     </row>
     <row r="237">
-      <c r="G237" s="47"/>
-      <c r="H237" s="48"/>
-      <c r="K237" s="46"/>
+      <c r="G237" s="48"/>
+      <c r="H237" s="49"/>
+      <c r="K237" s="47"/>
     </row>
     <row r="238">
-      <c r="G238" s="47"/>
-      <c r="H238" s="48"/>
-      <c r="K238" s="46"/>
+      <c r="G238" s="48"/>
+      <c r="H238" s="49"/>
+      <c r="K238" s="47"/>
     </row>
     <row r="239">
-      <c r="G239" s="47"/>
-      <c r="H239" s="48"/>
-      <c r="K239" s="46"/>
+      <c r="G239" s="48"/>
+      <c r="H239" s="49"/>
+      <c r="K239" s="47"/>
     </row>
     <row r="240">
-      <c r="G240" s="47"/>
-      <c r="H240" s="48"/>
-      <c r="K240" s="46"/>
+      <c r="G240" s="48"/>
+      <c r="H240" s="49"/>
+      <c r="K240" s="47"/>
     </row>
     <row r="241">
-      <c r="G241" s="47"/>
-      <c r="H241" s="48"/>
-      <c r="K241" s="46"/>
+      <c r="G241" s="48"/>
+      <c r="H241" s="49"/>
+      <c r="K241" s="47"/>
     </row>
     <row r="242">
-      <c r="G242" s="47"/>
-      <c r="H242" s="48"/>
-      <c r="K242" s="46"/>
+      <c r="G242" s="48"/>
+      <c r="H242" s="49"/>
+      <c r="K242" s="47"/>
     </row>
     <row r="243">
-      <c r="G243" s="47"/>
-      <c r="H243" s="48"/>
-      <c r="K243" s="46"/>
+      <c r="G243" s="48"/>
+      <c r="H243" s="49"/>
+      <c r="K243" s="47"/>
     </row>
     <row r="244">
-      <c r="G244" s="47"/>
-      <c r="H244" s="48"/>
-      <c r="K244" s="46"/>
+      <c r="G244" s="48"/>
+      <c r="H244" s="49"/>
+      <c r="K244" s="47"/>
     </row>
     <row r="245">
-      <c r="G245" s="47"/>
-      <c r="H245" s="48"/>
-      <c r="K245" s="46"/>
+      <c r="G245" s="48"/>
+      <c r="H245" s="49"/>
+      <c r="K245" s="47"/>
     </row>
     <row r="246">
-      <c r="G246" s="47"/>
-      <c r="H246" s="48"/>
-      <c r="K246" s="46"/>
+      <c r="G246" s="48"/>
+      <c r="H246" s="49"/>
+      <c r="K246" s="47"/>
     </row>
     <row r="247">
-      <c r="G247" s="47"/>
-      <c r="H247" s="48"/>
-      <c r="K247" s="46"/>
+      <c r="G247" s="48"/>
+      <c r="H247" s="49"/>
+      <c r="K247" s="47"/>
     </row>
     <row r="248">
-      <c r="G248" s="47"/>
-      <c r="H248" s="48"/>
-      <c r="K248" s="46"/>
+      <c r="G248" s="48"/>
+      <c r="H248" s="49"/>
+      <c r="K248" s="47"/>
     </row>
     <row r="249">
-      <c r="G249" s="47"/>
-      <c r="H249" s="48"/>
-      <c r="K249" s="46"/>
+      <c r="G249" s="48"/>
+      <c r="H249" s="49"/>
+      <c r="K249" s="47"/>
     </row>
     <row r="250">
-      <c r="G250" s="47"/>
-      <c r="H250" s="48"/>
-      <c r="K250" s="46"/>
+      <c r="G250" s="48"/>
+      <c r="H250" s="49"/>
+      <c r="K250" s="47"/>
     </row>
     <row r="251">
-      <c r="G251" s="47"/>
-      <c r="H251" s="48"/>
-      <c r="K251" s="46"/>
+      <c r="G251" s="48"/>
+      <c r="H251" s="49"/>
+      <c r="K251" s="47"/>
     </row>
     <row r="252">
-      <c r="G252" s="47"/>
-      <c r="H252" s="48"/>
-      <c r="K252" s="46"/>
+      <c r="G252" s="48"/>
+      <c r="H252" s="49"/>
+      <c r="K252" s="47"/>
     </row>
     <row r="253">
-      <c r="G253" s="47"/>
-      <c r="H253" s="48"/>
-      <c r="K253" s="46"/>
+      <c r="G253" s="48"/>
+      <c r="H253" s="49"/>
+      <c r="K253" s="47"/>
     </row>
     <row r="254">
-      <c r="G254" s="47"/>
-      <c r="H254" s="48"/>
-      <c r="K254" s="46"/>
+      <c r="G254" s="48"/>
+      <c r="H254" s="49"/>
+      <c r="K254" s="47"/>
     </row>
     <row r="255">
-      <c r="G255" s="47"/>
-      <c r="H255" s="48"/>
-      <c r="K255" s="46"/>
+      <c r="G255" s="48"/>
+      <c r="H255" s="49"/>
+      <c r="K255" s="47"/>
     </row>
     <row r="256">
-      <c r="G256" s="47"/>
-      <c r="H256" s="48"/>
-      <c r="K256" s="46"/>
+      <c r="G256" s="48"/>
+      <c r="H256" s="49"/>
+      <c r="K256" s="47"/>
     </row>
     <row r="257">
-      <c r="G257" s="47"/>
-      <c r="H257" s="48"/>
-      <c r="K257" s="46"/>
+      <c r="G257" s="48"/>
+      <c r="H257" s="49"/>
+      <c r="K257" s="47"/>
     </row>
     <row r="258">
-      <c r="G258" s="47"/>
-      <c r="H258" s="48"/>
-      <c r="K258" s="46"/>
+      <c r="G258" s="48"/>
+      <c r="H258" s="49"/>
+      <c r="K258" s="47"/>
     </row>
     <row r="259">
-      <c r="G259" s="47"/>
-      <c r="H259" s="48"/>
-      <c r="K259" s="46"/>
+      <c r="G259" s="48"/>
+      <c r="H259" s="49"/>
+      <c r="K259" s="47"/>
     </row>
     <row r="260">
-      <c r="G260" s="47"/>
-      <c r="H260" s="48"/>
-      <c r="K260" s="46"/>
+      <c r="G260" s="48"/>
+      <c r="H260" s="49"/>
+      <c r="K260" s="47"/>
     </row>
     <row r="261">
-      <c r="G261" s="47"/>
-      <c r="H261" s="48"/>
-      <c r="K261" s="46"/>
+      <c r="G261" s="48"/>
+      <c r="H261" s="49"/>
+      <c r="K261" s="47"/>
     </row>
     <row r="262">
-      <c r="G262" s="47"/>
-      <c r="H262" s="48"/>
-      <c r="K262" s="46"/>
+      <c r="G262" s="48"/>
+      <c r="H262" s="49"/>
+      <c r="K262" s="47"/>
     </row>
     <row r="263">
-      <c r="G263" s="47"/>
-      <c r="H263" s="48"/>
-      <c r="K263" s="46"/>
+      <c r="G263" s="48"/>
+      <c r="H263" s="49"/>
+      <c r="K263" s="47"/>
     </row>
     <row r="264">
-      <c r="G264" s="47"/>
-      <c r="H264" s="48"/>
-      <c r="K264" s="46"/>
+      <c r="G264" s="48"/>
+      <c r="H264" s="49"/>
+      <c r="K264" s="47"/>
     </row>
     <row r="265">
-      <c r="G265" s="47"/>
-      <c r="H265" s="48"/>
-      <c r="K265" s="46"/>
+      <c r="G265" s="48"/>
+      <c r="H265" s="49"/>
+      <c r="K265" s="47"/>
     </row>
     <row r="266">
-      <c r="G266" s="47"/>
-      <c r="H266" s="48"/>
-      <c r="K266" s="46"/>
+      <c r="G266" s="48"/>
+      <c r="H266" s="49"/>
+      <c r="K266" s="47"/>
     </row>
     <row r="267">
-      <c r="G267" s="47"/>
-      <c r="H267" s="48"/>
-      <c r="K267" s="46"/>
+      <c r="G267" s="48"/>
+      <c r="H267" s="49"/>
+      <c r="K267" s="47"/>
     </row>
     <row r="268">
-      <c r="G268" s="47"/>
-      <c r="H268" s="48"/>
-      <c r="K268" s="46"/>
+      <c r="G268" s="48"/>
+      <c r="H268" s="49"/>
+      <c r="K268" s="47"/>
     </row>
     <row r="269">
-      <c r="G269" s="47"/>
-      <c r="H269" s="48"/>
-      <c r="K269" s="46"/>
+      <c r="G269" s="48"/>
+      <c r="H269" s="49"/>
+      <c r="K269" s="47"/>
     </row>
     <row r="270">
-      <c r="G270" s="47"/>
-      <c r="H270" s="48"/>
-      <c r="K270" s="46"/>
+      <c r="G270" s="48"/>
+      <c r="H270" s="49"/>
+      <c r="K270" s="47"/>
     </row>
     <row r="271">
-      <c r="G271" s="47"/>
-      <c r="H271" s="48"/>
-      <c r="K271" s="46"/>
+      <c r="G271" s="48"/>
+      <c r="H271" s="49"/>
+      <c r="K271" s="47"/>
     </row>
     <row r="272">
-      <c r="G272" s="47"/>
-      <c r="H272" s="48"/>
-      <c r="K272" s="46"/>
+      <c r="G272" s="48"/>
+      <c r="H272" s="49"/>
+      <c r="K272" s="47"/>
     </row>
     <row r="273">
-      <c r="G273" s="47"/>
-      <c r="H273" s="48"/>
-      <c r="K273" s="46"/>
+      <c r="G273" s="48"/>
+      <c r="H273" s="49"/>
+      <c r="K273" s="47"/>
     </row>
     <row r="274">
-      <c r="G274" s="47"/>
-      <c r="H274" s="48"/>
-      <c r="K274" s="46"/>
+      <c r="G274" s="48"/>
+      <c r="H274" s="49"/>
+      <c r="K274" s="47"/>
     </row>
     <row r="275">
-      <c r="G275" s="47"/>
-      <c r="H275" s="48"/>
-      <c r="K275" s="46"/>
+      <c r="G275" s="48"/>
+      <c r="H275" s="49"/>
+      <c r="K275" s="47"/>
     </row>
     <row r="276">
-      <c r="G276" s="47"/>
-      <c r="H276" s="48"/>
-      <c r="K276" s="46"/>
+      <c r="G276" s="48"/>
+      <c r="H276" s="49"/>
+      <c r="K276" s="47"/>
     </row>
     <row r="277">
-      <c r="G277" s="47"/>
-      <c r="H277" s="48"/>
-      <c r="K277" s="46"/>
+      <c r="G277" s="48"/>
+      <c r="H277" s="49"/>
+      <c r="K277" s="47"/>
     </row>
     <row r="278">
-      <c r="G278" s="47"/>
-      <c r="H278" s="48"/>
-      <c r="K278" s="46"/>
+      <c r="G278" s="48"/>
+      <c r="H278" s="49"/>
+      <c r="K278" s="47"/>
     </row>
     <row r="279">
-      <c r="G279" s="47"/>
-      <c r="H279" s="48"/>
-      <c r="K279" s="46"/>
+      <c r="G279" s="48"/>
+      <c r="H279" s="49"/>
+      <c r="K279" s="47"/>
     </row>
     <row r="280">
-      <c r="G280" s="47"/>
-      <c r="H280" s="48"/>
-      <c r="K280" s="46"/>
+      <c r="G280" s="48"/>
+      <c r="H280" s="49"/>
+      <c r="K280" s="47"/>
     </row>
     <row r="281">
-      <c r="G281" s="47"/>
-      <c r="H281" s="48"/>
-      <c r="K281" s="46"/>
+      <c r="G281" s="48"/>
+      <c r="H281" s="49"/>
+      <c r="K281" s="47"/>
     </row>
     <row r="282">
-      <c r="G282" s="47"/>
-      <c r="H282" s="48"/>
-      <c r="K282" s="46"/>
+      <c r="G282" s="48"/>
+      <c r="H282" s="49"/>
+      <c r="K282" s="47"/>
     </row>
     <row r="283">
-      <c r="G283" s="47"/>
-      <c r="H283" s="48"/>
-      <c r="K283" s="46"/>
+      <c r="G283" s="48"/>
+      <c r="H283" s="49"/>
+      <c r="K283" s="47"/>
     </row>
     <row r="284">
-      <c r="G284" s="47"/>
-      <c r="H284" s="48"/>
-      <c r="K284" s="46"/>
+      <c r="G284" s="48"/>
+      <c r="H284" s="49"/>
+      <c r="K284" s="47"/>
     </row>
     <row r="285">
-      <c r="G285" s="47"/>
-      <c r="H285" s="48"/>
-      <c r="K285" s="46"/>
+      <c r="G285" s="48"/>
+      <c r="H285" s="49"/>
+      <c r="K285" s="47"/>
     </row>
     <row r="286">
-      <c r="G286" s="47"/>
-      <c r="H286" s="48"/>
-      <c r="K286" s="46"/>
+      <c r="G286" s="48"/>
+      <c r="H286" s="49"/>
+      <c r="K286" s="47"/>
     </row>
     <row r="287">
-      <c r="G287" s="47"/>
-      <c r="H287" s="48"/>
-      <c r="K287" s="46"/>
+      <c r="G287" s="48"/>
+      <c r="H287" s="49"/>
+      <c r="K287" s="47"/>
     </row>
     <row r="288">
-      <c r="G288" s="47"/>
-      <c r="H288" s="48"/>
-      <c r="K288" s="46"/>
+      <c r="G288" s="48"/>
+      <c r="H288" s="49"/>
+      <c r="K288" s="47"/>
     </row>
     <row r="289">
-      <c r="G289" s="47"/>
-      <c r="H289" s="48"/>
-      <c r="K289" s="46"/>
+      <c r="G289" s="48"/>
+      <c r="H289" s="49"/>
+      <c r="K289" s="47"/>
     </row>
     <row r="290">
-      <c r="G290" s="47"/>
-      <c r="H290" s="48"/>
-      <c r="K290" s="46"/>
+      <c r="G290" s="48"/>
+      <c r="H290" s="49"/>
+      <c r="K290" s="47"/>
     </row>
     <row r="291">
-      <c r="G291" s="47"/>
-      <c r="H291" s="48"/>
-      <c r="K291" s="46"/>
+      <c r="G291" s="48"/>
+      <c r="H291" s="49"/>
+      <c r="K291" s="47"/>
     </row>
     <row r="292">
-      <c r="G292" s="47"/>
-      <c r="H292" s="48"/>
-      <c r="K292" s="46"/>
+      <c r="G292" s="48"/>
+      <c r="H292" s="49"/>
+      <c r="K292" s="47"/>
     </row>
     <row r="293">
-      <c r="G293" s="47"/>
-      <c r="H293" s="48"/>
-      <c r="K293" s="46"/>
+      <c r="G293" s="48"/>
+      <c r="H293" s="49"/>
+      <c r="K293" s="47"/>
     </row>
     <row r="294">
-      <c r="G294" s="47"/>
-      <c r="H294" s="48"/>
-      <c r="K294" s="46"/>
+      <c r="G294" s="48"/>
+      <c r="H294" s="49"/>
+      <c r="K294" s="47"/>
     </row>
     <row r="295">
-      <c r="G295" s="47"/>
-      <c r="H295" s="48"/>
-      <c r="K295" s="46"/>
+      <c r="G295" s="48"/>
+      <c r="H295" s="49"/>
+      <c r="K295" s="47"/>
     </row>
     <row r="296">
-      <c r="G296" s="47"/>
-      <c r="H296" s="48"/>
-      <c r="K296" s="46"/>
+      <c r="G296" s="48"/>
+      <c r="H296" s="49"/>
+      <c r="K296" s="47"/>
     </row>
     <row r="297">
-      <c r="G297" s="47"/>
-      <c r="H297" s="48"/>
-      <c r="K297" s="46"/>
+      <c r="G297" s="48"/>
+      <c r="H297" s="49"/>
+      <c r="K297" s="47"/>
     </row>
     <row r="298">
-      <c r="G298" s="47"/>
-      <c r="H298" s="48"/>
-      <c r="K298" s="46"/>
+      <c r="G298" s="48"/>
+      <c r="H298" s="49"/>
+      <c r="K298" s="47"/>
     </row>
     <row r="299">
-      <c r="G299" s="47"/>
-      <c r="H299" s="48"/>
-      <c r="K299" s="46"/>
+      <c r="G299" s="48"/>
+      <c r="H299" s="49"/>
+      <c r="K299" s="47"/>
     </row>
     <row r="300">
-      <c r="G300" s="47"/>
-      <c r="H300" s="48"/>
-      <c r="K300" s="46"/>
+      <c r="G300" s="48"/>
+      <c r="H300" s="49"/>
+      <c r="K300" s="47"/>
     </row>
     <row r="301">
-      <c r="G301" s="47"/>
-      <c r="H301" s="48"/>
-      <c r="K301" s="46"/>
+      <c r="G301" s="48"/>
+      <c r="H301" s="49"/>
+      <c r="K301" s="47"/>
     </row>
     <row r="302">
-      <c r="G302" s="47"/>
-      <c r="H302" s="48"/>
-      <c r="K302" s="46"/>
+      <c r="G302" s="48"/>
+      <c r="H302" s="49"/>
+      <c r="K302" s="47"/>
     </row>
     <row r="303">
-      <c r="G303" s="47"/>
-      <c r="H303" s="48"/>
-      <c r="K303" s="46"/>
+      <c r="G303" s="48"/>
+      <c r="H303" s="49"/>
+      <c r="K303" s="47"/>
     </row>
     <row r="304">
-      <c r="G304" s="47"/>
-      <c r="H304" s="48"/>
-      <c r="K304" s="46"/>
+      <c r="G304" s="48"/>
+      <c r="H304" s="49"/>
+      <c r="K304" s="47"/>
     </row>
     <row r="305">
-      <c r="G305" s="47"/>
-      <c r="H305" s="48"/>
-      <c r="K305" s="46"/>
+      <c r="G305" s="48"/>
+      <c r="H305" s="49"/>
+      <c r="K305" s="47"/>
     </row>
     <row r="306">
-      <c r="G306" s="47"/>
-      <c r="H306" s="48"/>
-      <c r="K306" s="46"/>
+      <c r="G306" s="48"/>
+      <c r="H306" s="49"/>
+      <c r="K306" s="47"/>
     </row>
     <row r="307">
-      <c r="G307" s="47"/>
-      <c r="H307" s="48"/>
-      <c r="K307" s="46"/>
+      <c r="G307" s="48"/>
+      <c r="H307" s="49"/>
+      <c r="K307" s="47"/>
     </row>
     <row r="308">
-      <c r="G308" s="47"/>
-      <c r="H308" s="48"/>
-      <c r="K308" s="46"/>
+      <c r="G308" s="48"/>
+      <c r="H308" s="49"/>
+      <c r="K308" s="47"/>
     </row>
     <row r="309">
-      <c r="G309" s="47"/>
-      <c r="H309" s="48"/>
-      <c r="K309" s="46"/>
+      <c r="G309" s="48"/>
+      <c r="H309" s="49"/>
+      <c r="K309" s="47"/>
     </row>
     <row r="310">
-      <c r="G310" s="47"/>
-      <c r="H310" s="48"/>
-      <c r="K310" s="46"/>
+      <c r="G310" s="48"/>
+      <c r="H310" s="49"/>
+      <c r="K310" s="47"/>
     </row>
     <row r="311">
-      <c r="G311" s="47"/>
-      <c r="H311" s="48"/>
-      <c r="K311" s="46"/>
+      <c r="G311" s="48"/>
+      <c r="H311" s="49"/>
+      <c r="K311" s="47"/>
     </row>
     <row r="312">
-      <c r="G312" s="47"/>
-      <c r="H312" s="48"/>
-      <c r="K312" s="46"/>
+      <c r="G312" s="48"/>
+      <c r="H312" s="49"/>
+      <c r="K312" s="47"/>
     </row>
     <row r="313">
-      <c r="G313" s="47"/>
-      <c r="H313" s="48"/>
-      <c r="K313" s="46"/>
+      <c r="G313" s="48"/>
+      <c r="H313" s="49"/>
+      <c r="K313" s="47"/>
     </row>
     <row r="314">
-      <c r="G314" s="47"/>
-      <c r="H314" s="48"/>
-      <c r="K314" s="46"/>
+      <c r="G314" s="48"/>
+      <c r="H314" s="49"/>
+      <c r="K314" s="47"/>
     </row>
     <row r="315">
-      <c r="G315" s="47"/>
-      <c r="H315" s="48"/>
-      <c r="K315" s="46"/>
+      <c r="G315" s="48"/>
+      <c r="H315" s="49"/>
+      <c r="K315" s="47"/>
     </row>
     <row r="316">
-      <c r="G316" s="47"/>
-      <c r="H316" s="48"/>
-      <c r="K316" s="46"/>
+      <c r="G316" s="48"/>
+      <c r="H316" s="49"/>
+      <c r="K316" s="47"/>
     </row>
     <row r="317">
-      <c r="G317" s="47"/>
-      <c r="H317" s="48"/>
-      <c r="K317" s="46"/>
+      <c r="G317" s="48"/>
+      <c r="H317" s="49"/>
+      <c r="K317" s="47"/>
     </row>
     <row r="318">
-      <c r="G318" s="47"/>
-      <c r="H318" s="48"/>
-      <c r="K318" s="46"/>
+      <c r="G318" s="48"/>
+      <c r="H318" s="49"/>
+      <c r="K318" s="47"/>
     </row>
     <row r="319">
-      <c r="G319" s="47"/>
-      <c r="H319" s="48"/>
-      <c r="K319" s="46"/>
+      <c r="G319" s="48"/>
+      <c r="H319" s="49"/>
+      <c r="K319" s="47"/>
     </row>
     <row r="320">
-      <c r="G320" s="47"/>
-      <c r="H320" s="48"/>
-      <c r="K320" s="46"/>
+      <c r="G320" s="48"/>
+      <c r="H320" s="49"/>
+      <c r="K320" s="47"/>
     </row>
     <row r="321">
-      <c r="G321" s="47"/>
-      <c r="H321" s="48"/>
-      <c r="K321" s="46"/>
+      <c r="G321" s="48"/>
+      <c r="H321" s="49"/>
+      <c r="K321" s="47"/>
     </row>
     <row r="322">
-      <c r="G322" s="47"/>
-      <c r="H322" s="48"/>
-      <c r="K322" s="46"/>
+      <c r="G322" s="48"/>
+      <c r="H322" s="49"/>
+      <c r="K322" s="47"/>
     </row>
     <row r="323">
-      <c r="G323" s="47"/>
-      <c r="H323" s="48"/>
-      <c r="K323" s="46"/>
+      <c r="G323" s="48"/>
+      <c r="H323" s="49"/>
+      <c r="K323" s="47"/>
     </row>
     <row r="324">
-      <c r="G324" s="47"/>
-      <c r="H324" s="48"/>
-      <c r="K324" s="46"/>
+      <c r="G324" s="48"/>
+      <c r="H324" s="49"/>
+      <c r="K324" s="47"/>
     </row>
     <row r="325">
-      <c r="G325" s="47"/>
-      <c r="H325" s="48"/>
-      <c r="K325" s="46"/>
+      <c r="G325" s="48"/>
+      <c r="H325" s="49"/>
+      <c r="K325" s="47"/>
     </row>
     <row r="326">
-      <c r="G326" s="47"/>
-      <c r="H326" s="48"/>
-      <c r="K326" s="46"/>
+      <c r="G326" s="48"/>
+      <c r="H326" s="49"/>
+      <c r="K326" s="47"/>
     </row>
     <row r="327">
-      <c r="G327" s="47"/>
-      <c r="H327" s="48"/>
-      <c r="K327" s="46"/>
+      <c r="G327" s="48"/>
+      <c r="H327" s="49"/>
+      <c r="K327" s="47"/>
     </row>
     <row r="328">
-      <c r="G328" s="47"/>
-      <c r="H328" s="48"/>
-      <c r="K328" s="46"/>
+      <c r="G328" s="48"/>
+      <c r="H328" s="49"/>
+      <c r="K328" s="47"/>
     </row>
     <row r="329">
-      <c r="G329" s="47"/>
-      <c r="H329" s="48"/>
-      <c r="K329" s="46"/>
+      <c r="G329" s="48"/>
+      <c r="H329" s="49"/>
+      <c r="K329" s="47"/>
     </row>
     <row r="330">
-      <c r="G330" s="47"/>
-      <c r="H330" s="48"/>
-      <c r="K330" s="46"/>
+      <c r="G330" s="48"/>
+      <c r="H330" s="49"/>
+      <c r="K330" s="47"/>
     </row>
     <row r="331">
-      <c r="G331" s="47"/>
-      <c r="H331" s="48"/>
-      <c r="K331" s="46"/>
+      <c r="G331" s="48"/>
+      <c r="H331" s="49"/>
+      <c r="K331" s="47"/>
     </row>
     <row r="332">
-      <c r="G332" s="47"/>
-      <c r="H332" s="48"/>
-      <c r="K332" s="46"/>
+      <c r="G332" s="48"/>
+      <c r="H332" s="49"/>
+      <c r="K332" s="47"/>
     </row>
     <row r="333">
-      <c r="G333" s="47"/>
-      <c r="H333" s="48"/>
-      <c r="K333" s="46"/>
+      <c r="G333" s="48"/>
+      <c r="H333" s="49"/>
+      <c r="K333" s="47"/>
     </row>
     <row r="334">
-      <c r="G334" s="47"/>
-      <c r="H334" s="48"/>
-      <c r="K334" s="46"/>
+      <c r="G334" s="48"/>
+      <c r="H334" s="49"/>
+      <c r="K334" s="47"/>
     </row>
     <row r="335">
-      <c r="G335" s="47"/>
-      <c r="H335" s="48"/>
-      <c r="K335" s="46"/>
+      <c r="G335" s="48"/>
+      <c r="H335" s="49"/>
+      <c r="K335" s="47"/>
     </row>
     <row r="336">
-      <c r="G336" s="47"/>
-      <c r="H336" s="48"/>
-      <c r="K336" s="46"/>
+      <c r="G336" s="48"/>
+      <c r="H336" s="49"/>
+      <c r="K336" s="47"/>
     </row>
     <row r="337">
-      <c r="G337" s="47"/>
-      <c r="H337" s="48"/>
-      <c r="K337" s="46"/>
+      <c r="G337" s="48"/>
+      <c r="H337" s="49"/>
+      <c r="K337" s="47"/>
     </row>
     <row r="338">
-      <c r="G338" s="47"/>
-      <c r="H338" s="48"/>
-      <c r="K338" s="46"/>
+      <c r="G338" s="48"/>
+      <c r="H338" s="49"/>
+      <c r="K338" s="47"/>
     </row>
     <row r="339">
-      <c r="G339" s="47"/>
-      <c r="H339" s="48"/>
-      <c r="K339" s="46"/>
+      <c r="G339" s="48"/>
+      <c r="H339" s="49"/>
+      <c r="K339" s="47"/>
     </row>
     <row r="340">
-      <c r="G340" s="47"/>
-      <c r="H340" s="48"/>
-      <c r="K340" s="46"/>
+      <c r="G340" s="48"/>
+      <c r="H340" s="49"/>
+      <c r="K340" s="47"/>
     </row>
     <row r="341">
-      <c r="G341" s="47"/>
-      <c r="H341" s="48"/>
-      <c r="K341" s="46"/>
+      <c r="G341" s="48"/>
+      <c r="H341" s="49"/>
+      <c r="K341" s="47"/>
     </row>
     <row r="342">
-      <c r="G342" s="47"/>
-      <c r="H342" s="48"/>
-      <c r="K342" s="46"/>
+      <c r="G342" s="48"/>
+      <c r="H342" s="49"/>
+      <c r="K342" s="47"/>
     </row>
     <row r="343">
-      <c r="G343" s="47"/>
-      <c r="H343" s="48"/>
-      <c r="K343" s="46"/>
+      <c r="G343" s="48"/>
+      <c r="H343" s="49"/>
+      <c r="K343" s="47"/>
     </row>
     <row r="344">
-      <c r="G344" s="47"/>
-      <c r="H344" s="48"/>
-      <c r="K344" s="46"/>
+      <c r="G344" s="48"/>
+      <c r="H344" s="49"/>
+      <c r="K344" s="47"/>
     </row>
     <row r="345">
-      <c r="G345" s="47"/>
-      <c r="H345" s="48"/>
-      <c r="K345" s="46"/>
+      <c r="G345" s="48"/>
+      <c r="H345" s="49"/>
+      <c r="K345" s="47"/>
     </row>
     <row r="346">
-      <c r="G346" s="47"/>
-      <c r="H346" s="48"/>
-      <c r="K346" s="46"/>
+      <c r="G346" s="48"/>
+      <c r="H346" s="49"/>
+      <c r="K346" s="47"/>
     </row>
     <row r="347">
-      <c r="G347" s="47"/>
-      <c r="H347" s="48"/>
-      <c r="K347" s="46"/>
+      <c r="G347" s="48"/>
+      <c r="H347" s="49"/>
+      <c r="K347" s="47"/>
     </row>
     <row r="348">
-      <c r="G348" s="47"/>
-      <c r="H348" s="48"/>
-      <c r="K348" s="46"/>
+      <c r="G348" s="48"/>
+      <c r="H348" s="49"/>
+      <c r="K348" s="47"/>
     </row>
     <row r="349">
-      <c r="G349" s="47"/>
-      <c r="H349" s="48"/>
-      <c r="K349" s="46"/>
+      <c r="G349" s="48"/>
+      <c r="H349" s="49"/>
+      <c r="K349" s="47"/>
     </row>
     <row r="350">
-      <c r="G350" s="47"/>
-      <c r="H350" s="48"/>
-      <c r="K350" s="46"/>
+      <c r="G350" s="48"/>
+      <c r="H350" s="49"/>
+      <c r="K350" s="47"/>
     </row>
     <row r="351">
-      <c r="G351" s="47"/>
-      <c r="H351" s="48"/>
-      <c r="K351" s="46"/>
+      <c r="G351" s="48"/>
+      <c r="H351" s="49"/>
+      <c r="K351" s="47"/>
     </row>
     <row r="352">
-      <c r="G352" s="47"/>
-      <c r="H352" s="48"/>
-      <c r="K352" s="46"/>
+      <c r="G352" s="48"/>
+      <c r="H352" s="49"/>
+      <c r="K352" s="47"/>
     </row>
     <row r="353">
-      <c r="G353" s="47"/>
-      <c r="H353" s="48"/>
-      <c r="K353" s="46"/>
+      <c r="G353" s="48"/>
+      <c r="H353" s="49"/>
+      <c r="K353" s="47"/>
     </row>
     <row r="354">
-      <c r="G354" s="47"/>
-      <c r="H354" s="48"/>
-      <c r="K354" s="46"/>
+      <c r="G354" s="48"/>
+      <c r="H354" s="49"/>
+      <c r="K354" s="47"/>
     </row>
     <row r="355">
-      <c r="G355" s="47"/>
-      <c r="H355" s="48"/>
-      <c r="K355" s="46"/>
+      <c r="G355" s="48"/>
+      <c r="H355" s="49"/>
+      <c r="K355" s="47"/>
     </row>
     <row r="356">
-      <c r="G356" s="47"/>
-      <c r="H356" s="48"/>
-      <c r="K356" s="46"/>
+      <c r="G356" s="48"/>
+      <c r="H356" s="49"/>
+      <c r="K356" s="47"/>
     </row>
     <row r="357">
-      <c r="G357" s="47"/>
-      <c r="H357" s="48"/>
-      <c r="K357" s="46"/>
+      <c r="G357" s="48"/>
+      <c r="H357" s="49"/>
+      <c r="K357" s="47"/>
     </row>
     <row r="358">
-      <c r="G358" s="47"/>
-      <c r="H358" s="48"/>
-      <c r="K358" s="46"/>
+      <c r="G358" s="48"/>
+      <c r="H358" s="49"/>
+      <c r="K358" s="47"/>
     </row>
     <row r="359">
-      <c r="G359" s="47"/>
-      <c r="H359" s="48"/>
-      <c r="K359" s="46"/>
+      <c r="G359" s="48"/>
+      <c r="H359" s="49"/>
+      <c r="K359" s="47"/>
     </row>
     <row r="360">
-      <c r="G360" s="47"/>
-      <c r="H360" s="48"/>
-      <c r="K360" s="46"/>
+      <c r="G360" s="48"/>
+      <c r="H360" s="49"/>
+      <c r="K360" s="47"/>
     </row>
     <row r="361">
-      <c r="G361" s="47"/>
-      <c r="H361" s="48"/>
-      <c r="K361" s="46"/>
+      <c r="G361" s="48"/>
+      <c r="H361" s="49"/>
+      <c r="K361" s="47"/>
     </row>
     <row r="362">
-      <c r="G362" s="47"/>
-      <c r="H362" s="48"/>
-      <c r="K362" s="46"/>
+      <c r="G362" s="48"/>
+      <c r="H362" s="49"/>
+      <c r="K362" s="47"/>
     </row>
     <row r="363">
-      <c r="G363" s="47"/>
-      <c r="H363" s="48"/>
-      <c r="K363" s="46"/>
+      <c r="G363" s="48"/>
+      <c r="H363" s="49"/>
+      <c r="K363" s="47"/>
     </row>
     <row r="364">
-      <c r="G364" s="47"/>
-      <c r="H364" s="48"/>
-      <c r="K364" s="46"/>
+      <c r="G364" s="48"/>
+      <c r="H364" s="49"/>
+      <c r="K364" s="47"/>
     </row>
     <row r="365">
-      <c r="G365" s="47"/>
-      <c r="H365" s="48"/>
-      <c r="K365" s="46"/>
+      <c r="G365" s="48"/>
+      <c r="H365" s="49"/>
+      <c r="K365" s="47"/>
     </row>
     <row r="366">
-      <c r="G366" s="47"/>
-      <c r="H366" s="48"/>
-      <c r="K366" s="46"/>
+      <c r="G366" s="48"/>
+      <c r="H366" s="49"/>
+      <c r="K366" s="47"/>
     </row>
     <row r="367">
-      <c r="G367" s="47"/>
-      <c r="H367" s="48"/>
-      <c r="K367" s="46"/>
+      <c r="G367" s="48"/>
+      <c r="H367" s="49"/>
+      <c r="K367" s="47"/>
     </row>
     <row r="368">
-      <c r="G368" s="47"/>
-      <c r="H368" s="48"/>
-      <c r="K368" s="46"/>
+      <c r="G368" s="48"/>
+      <c r="H368" s="49"/>
+      <c r="K368" s="47"/>
     </row>
     <row r="369">
-      <c r="G369" s="47"/>
-      <c r="H369" s="48"/>
-      <c r="K369" s="46"/>
+      <c r="G369" s="48"/>
+      <c r="H369" s="49"/>
+      <c r="K369" s="47"/>
     </row>
     <row r="370">
-      <c r="G370" s="47"/>
-      <c r="H370" s="48"/>
-      <c r="K370" s="46"/>
+      <c r="G370" s="48"/>
+      <c r="H370" s="49"/>
+      <c r="K370" s="47"/>
     </row>
     <row r="371">
-      <c r="G371" s="47"/>
-      <c r="H371" s="48"/>
-      <c r="K371" s="46"/>
+      <c r="G371" s="48"/>
+      <c r="H371" s="49"/>
+      <c r="K371" s="47"/>
     </row>
     <row r="372">
-      <c r="G372" s="47"/>
-      <c r="H372" s="48"/>
-      <c r="K372" s="46"/>
+      <c r="G372" s="48"/>
+      <c r="H372" s="49"/>
+      <c r="K372" s="47"/>
     </row>
     <row r="373">
-      <c r="G373" s="47"/>
-      <c r="H373" s="48"/>
-      <c r="K373" s="46"/>
+      <c r="G373" s="48"/>
+      <c r="H373" s="49"/>
+      <c r="K373" s="47"/>
     </row>
     <row r="374">
-      <c r="G374" s="47"/>
-      <c r="H374" s="48"/>
-      <c r="K374" s="46"/>
+      <c r="G374" s="48"/>
+      <c r="H374" s="49"/>
+      <c r="K374" s="47"/>
     </row>
     <row r="375">
-      <c r="G375" s="47"/>
-      <c r="H375" s="48"/>
-      <c r="K375" s="46"/>
+      <c r="G375" s="48"/>
+      <c r="H375" s="49"/>
+      <c r="K375" s="47"/>
     </row>
     <row r="376">
-      <c r="G376" s="47"/>
-      <c r="H376" s="48"/>
-      <c r="K376" s="46"/>
+      <c r="G376" s="48"/>
+      <c r="H376" s="49"/>
+      <c r="K376" s="47"/>
     </row>
     <row r="377">
-      <c r="G377" s="47"/>
-      <c r="H377" s="48"/>
-      <c r="K377" s="46"/>
+      <c r="G377" s="48"/>
+      <c r="H377" s="49"/>
+      <c r="K377" s="47"/>
     </row>
     <row r="378">
-      <c r="G378" s="47"/>
-      <c r="H378" s="48"/>
-      <c r="K378" s="46"/>
+      <c r="G378" s="48"/>
+      <c r="H378" s="49"/>
+      <c r="K378" s="47"/>
     </row>
     <row r="379">
-      <c r="G379" s="47"/>
-      <c r="H379" s="48"/>
-      <c r="K379" s="46"/>
+      <c r="G379" s="48"/>
+      <c r="H379" s="49"/>
+      <c r="K379" s="47"/>
     </row>
     <row r="380">
-      <c r="G380" s="47"/>
-      <c r="H380" s="48"/>
-      <c r="K380" s="46"/>
+      <c r="G380" s="48"/>
+      <c r="H380" s="49"/>
+      <c r="K380" s="47"/>
     </row>
     <row r="381">
-      <c r="G381" s="47"/>
-      <c r="H381" s="48"/>
-      <c r="K381" s="46"/>
+      <c r="G381" s="48"/>
+      <c r="H381" s="49"/>
+      <c r="K381" s="47"/>
     </row>
     <row r="382">
-      <c r="G382" s="47"/>
-      <c r="H382" s="48"/>
-      <c r="K382" s="46"/>
+      <c r="G382" s="48"/>
+      <c r="H382" s="49"/>
+      <c r="K382" s="47"/>
     </row>
     <row r="383">
-      <c r="G383" s="47"/>
-      <c r="H383" s="48"/>
-      <c r="K383" s="46"/>
+      <c r="G383" s="48"/>
+      <c r="H383" s="49"/>
+      <c r="K383" s="47"/>
     </row>
     <row r="384">
-      <c r="G384" s="47"/>
-      <c r="H384" s="48"/>
-      <c r="K384" s="46"/>
+      <c r="G384" s="48"/>
+      <c r="H384" s="49"/>
+      <c r="K384" s="47"/>
     </row>
     <row r="385">
-      <c r="G385" s="47"/>
-      <c r="H385" s="48"/>
-      <c r="K385" s="46"/>
+      <c r="G385" s="48"/>
+      <c r="H385" s="49"/>
+      <c r="K385" s="47"/>
     </row>
     <row r="386">
-      <c r="G386" s="47"/>
-      <c r="H386" s="48"/>
-      <c r="K386" s="46"/>
+      <c r="G386" s="48"/>
+      <c r="H386" s="49"/>
+      <c r="K386" s="47"/>
     </row>
     <row r="387">
-      <c r="G387" s="47"/>
-      <c r="H387" s="48"/>
-      <c r="K387" s="46"/>
+      <c r="G387" s="48"/>
+      <c r="H387" s="49"/>
+      <c r="K387" s="47"/>
     </row>
     <row r="388">
-      <c r="G388" s="47"/>
-      <c r="H388" s="48"/>
-      <c r="K388" s="46"/>
+      <c r="G388" s="48"/>
+      <c r="H388" s="49"/>
+      <c r="K388" s="47"/>
     </row>
     <row r="389">
-      <c r="G389" s="47"/>
-      <c r="H389" s="48"/>
-      <c r="K389" s="46"/>
+      <c r="G389" s="48"/>
+      <c r="H389" s="49"/>
+      <c r="K389" s="47"/>
     </row>
     <row r="390">
-      <c r="G390" s="47"/>
-      <c r="H390" s="48"/>
-      <c r="K390" s="46"/>
+      <c r="G390" s="48"/>
+      <c r="H390" s="49"/>
+      <c r="K390" s="47"/>
     </row>
     <row r="391">
-      <c r="G391" s="47"/>
-      <c r="H391" s="48"/>
-      <c r="K391" s="46"/>
+      <c r="G391" s="48"/>
+      <c r="H391" s="49"/>
+      <c r="K391" s="47"/>
     </row>
     <row r="392">
-      <c r="G392" s="47"/>
-      <c r="H392" s="48"/>
-      <c r="K392" s="46"/>
+      <c r="G392" s="48"/>
+      <c r="H392" s="49"/>
+      <c r="K392" s="47"/>
     </row>
     <row r="393">
-      <c r="G393" s="47"/>
-      <c r="H393" s="48"/>
-      <c r="K393" s="46"/>
+      <c r="G393" s="48"/>
+      <c r="H393" s="49"/>
+      <c r="K393" s="47"/>
     </row>
     <row r="394">
-      <c r="G394" s="47"/>
-      <c r="H394" s="48"/>
-      <c r="K394" s="46"/>
+      <c r="G394" s="48"/>
+      <c r="H394" s="49"/>
+      <c r="K394" s="47"/>
     </row>
     <row r="395">
-      <c r="G395" s="47"/>
-      <c r="H395" s="48"/>
-      <c r="K395" s="46"/>
+      <c r="G395" s="48"/>
+      <c r="H395" s="49"/>
+      <c r="K395" s="47"/>
     </row>
     <row r="396">
-      <c r="G396" s="47"/>
-      <c r="H396" s="48"/>
-      <c r="K396" s="46"/>
+      <c r="G396" s="48"/>
+      <c r="H396" s="49"/>
+      <c r="K396" s="47"/>
     </row>
     <row r="397">
-      <c r="G397" s="47"/>
-      <c r="H397" s="48"/>
-      <c r="K397" s="46"/>
+      <c r="G397" s="48"/>
+      <c r="H397" s="49"/>
+      <c r="K397" s="47"/>
     </row>
     <row r="398">
-      <c r="G398" s="47"/>
-      <c r="H398" s="48"/>
-      <c r="K398" s="46"/>
+      <c r="G398" s="48"/>
+      <c r="H398" s="49"/>
+      <c r="K398" s="47"/>
     </row>
     <row r="399">
-      <c r="G399" s="47"/>
-      <c r="H399" s="48"/>
-      <c r="K399" s="46"/>
+      <c r="G399" s="48"/>
+      <c r="H399" s="49"/>
+      <c r="K399" s="47"/>
     </row>
     <row r="400">
-      <c r="G400" s="47"/>
-      <c r="H400" s="48"/>
-      <c r="K400" s="46"/>
+      <c r="G400" s="48"/>
+      <c r="H400" s="49"/>
+      <c r="K400" s="47"/>
     </row>
     <row r="401">
-      <c r="G401" s="47"/>
-      <c r="H401" s="48"/>
-      <c r="K401" s="46"/>
+      <c r="G401" s="48"/>
+      <c r="H401" s="49"/>
+      <c r="K401" s="47"/>
     </row>
     <row r="402">
-      <c r="G402" s="47"/>
-      <c r="H402" s="48"/>
-      <c r="K402" s="46"/>
+      <c r="G402" s="48"/>
+      <c r="H402" s="49"/>
+      <c r="K402" s="47"/>
     </row>
     <row r="403">
-      <c r="G403" s="47"/>
-      <c r="H403" s="48"/>
-      <c r="K403" s="46"/>
+      <c r="G403" s="48"/>
+      <c r="H403" s="49"/>
+      <c r="K403" s="47"/>
     </row>
     <row r="404">
-      <c r="G404" s="47"/>
-      <c r="H404" s="48"/>
-      <c r="K404" s="46"/>
+      <c r="G404" s="48"/>
+      <c r="H404" s="49"/>
+      <c r="K404" s="47"/>
     </row>
     <row r="405">
-      <c r="G405" s="47"/>
-      <c r="H405" s="48"/>
-      <c r="K405" s="46"/>
+      <c r="G405" s="48"/>
+      <c r="H405" s="49"/>
+      <c r="K405" s="47"/>
     </row>
     <row r="406">
-      <c r="G406" s="47"/>
-      <c r="H406" s="48"/>
-      <c r="K406" s="46"/>
+      <c r="G406" s="48"/>
+      <c r="H406" s="49"/>
+      <c r="K406" s="47"/>
     </row>
     <row r="407">
-      <c r="G407" s="47"/>
-      <c r="H407" s="48"/>
-      <c r="K407" s="46"/>
+      <c r="G407" s="48"/>
+      <c r="H407" s="49"/>
+      <c r="K407" s="47"/>
     </row>
     <row r="408">
-      <c r="G408" s="47"/>
-      <c r="H408" s="48"/>
-      <c r="K408" s="46"/>
+      <c r="G408" s="48"/>
+      <c r="H408" s="49"/>
+      <c r="K408" s="47"/>
     </row>
     <row r="409">
-      <c r="G409" s="47"/>
-      <c r="H409" s="48"/>
-      <c r="K409" s="46"/>
+      <c r="G409" s="48"/>
+      <c r="H409" s="49"/>
+      <c r="K409" s="47"/>
     </row>
     <row r="410">
-      <c r="G410" s="47"/>
-      <c r="H410" s="48"/>
-      <c r="K410" s="46"/>
+      <c r="G410" s="48"/>
+      <c r="H410" s="49"/>
+      <c r="K410" s="47"/>
     </row>
     <row r="411">
-      <c r="G411" s="47"/>
-      <c r="H411" s="48"/>
-      <c r="K411" s="46"/>
+      <c r="G411" s="48"/>
+      <c r="H411" s="49"/>
+      <c r="K411" s="47"/>
     </row>
     <row r="412">
-      <c r="G412" s="47"/>
-      <c r="H412" s="48"/>
-      <c r="K412" s="46"/>
+      <c r="G412" s="48"/>
+      <c r="H412" s="49"/>
+      <c r="K412" s="47"/>
     </row>
     <row r="413">
-      <c r="G413" s="47"/>
-      <c r="H413" s="48"/>
-      <c r="K413" s="46"/>
+      <c r="G413" s="48"/>
+      <c r="H413" s="49"/>
+      <c r="K413" s="47"/>
     </row>
     <row r="414">
-      <c r="G414" s="47"/>
-      <c r="H414" s="48"/>
-      <c r="K414" s="46"/>
+      <c r="G414" s="48"/>
+      <c r="H414" s="49"/>
+      <c r="K414" s="47"/>
     </row>
     <row r="415">
-      <c r="G415" s="47"/>
-      <c r="H415" s="48"/>
-      <c r="K415" s="46"/>
+      <c r="G415" s="48"/>
+      <c r="H415" s="49"/>
+      <c r="K415" s="47"/>
     </row>
     <row r="416">
-      <c r="G416" s="47"/>
-      <c r="H416" s="48"/>
-      <c r="K416" s="46"/>
+      <c r="G416" s="48"/>
+      <c r="H416" s="49"/>
+      <c r="K416" s="47"/>
     </row>
     <row r="417">
-      <c r="G417" s="47"/>
-      <c r="H417" s="48"/>
-      <c r="K417" s="46"/>
+      <c r="G417" s="48"/>
+      <c r="H417" s="49"/>
+      <c r="K417" s="47"/>
     </row>
     <row r="418">
-      <c r="G418" s="47"/>
-      <c r="H418" s="48"/>
-      <c r="K418" s="46"/>
+      <c r="G418" s="48"/>
+      <c r="H418" s="49"/>
+      <c r="K418" s="47"/>
     </row>
     <row r="419">
-      <c r="G419" s="47"/>
-      <c r="H419" s="48"/>
-      <c r="K419" s="46"/>
+      <c r="G419" s="48"/>
+      <c r="H419" s="49"/>
+      <c r="K419" s="47"/>
     </row>
     <row r="420">
-      <c r="G420" s="47"/>
-      <c r="H420" s="48"/>
-      <c r="K420" s="46"/>
+      <c r="G420" s="48"/>
+      <c r="H420" s="49"/>
+      <c r="K420" s="47"/>
     </row>
     <row r="421">
-      <c r="G421" s="47"/>
-      <c r="H421" s="48"/>
-      <c r="K421" s="46"/>
+      <c r="G421" s="48"/>
+      <c r="H421" s="49"/>
+      <c r="K421" s="47"/>
     </row>
     <row r="422">
-      <c r="G422" s="47"/>
-      <c r="H422" s="48"/>
-      <c r="K422" s="46"/>
+      <c r="G422" s="48"/>
+      <c r="H422" s="49"/>
+      <c r="K422" s="47"/>
     </row>
     <row r="423">
-      <c r="G423" s="47"/>
-      <c r="H423" s="48"/>
-      <c r="K423" s="46"/>
+      <c r="G423" s="48"/>
+      <c r="H423" s="49"/>
+      <c r="K423" s="47"/>
     </row>
     <row r="424">
-      <c r="G424" s="47"/>
-      <c r="H424" s="48"/>
-      <c r="K424" s="46"/>
+      <c r="G424" s="48"/>
+      <c r="H424" s="49"/>
+      <c r="K424" s="47"/>
     </row>
     <row r="425">
-      <c r="G425" s="47"/>
-      <c r="H425" s="48"/>
-      <c r="K425" s="46"/>
+      <c r="G425" s="48"/>
+      <c r="H425" s="49"/>
+      <c r="K425" s="47"/>
     </row>
     <row r="426">
-      <c r="G426" s="47"/>
-      <c r="H426" s="48"/>
-      <c r="K426" s="46"/>
+      <c r="G426" s="48"/>
+      <c r="H426" s="49"/>
+      <c r="K426" s="47"/>
     </row>
     <row r="427">
-      <c r="G427" s="47"/>
-      <c r="H427" s="48"/>
-      <c r="K427" s="46"/>
+      <c r="G427" s="48"/>
+      <c r="H427" s="49"/>
+      <c r="K427" s="47"/>
     </row>
     <row r="428">
-      <c r="G428" s="47"/>
-      <c r="H428" s="48"/>
-      <c r="K428" s="46"/>
+      <c r="G428" s="48"/>
+      <c r="H428" s="49"/>
+      <c r="K428" s="47"/>
     </row>
     <row r="429">
-      <c r="G429" s="47"/>
-      <c r="H429" s="48"/>
-      <c r="K429" s="46"/>
+      <c r="G429" s="48"/>
+      <c r="H429" s="49"/>
+      <c r="K429" s="47"/>
     </row>
     <row r="430">
-      <c r="G430" s="47"/>
-      <c r="H430" s="48"/>
-      <c r="K430" s="46"/>
+      <c r="G430" s="48"/>
+      <c r="H430" s="49"/>
+      <c r="K430" s="47"/>
     </row>
     <row r="431">
-      <c r="G431" s="47"/>
-      <c r="H431" s="48"/>
-      <c r="K431" s="46"/>
+      <c r="G431" s="48"/>
+      <c r="H431" s="49"/>
+      <c r="K431" s="47"/>
     </row>
     <row r="432">
-      <c r="G432" s="47"/>
-      <c r="H432" s="48"/>
-      <c r="K432" s="46"/>
+      <c r="G432" s="48"/>
+      <c r="H432" s="49"/>
+      <c r="K432" s="47"/>
     </row>
     <row r="433">
-      <c r="G433" s="47"/>
-      <c r="H433" s="48"/>
-      <c r="K433" s="46"/>
+      <c r="G433" s="48"/>
+      <c r="H433" s="49"/>
+      <c r="K433" s="47"/>
     </row>
     <row r="434">
-      <c r="G434" s="47"/>
-      <c r="H434" s="48"/>
-      <c r="K434" s="46"/>
+      <c r="G434" s="48"/>
+      <c r="H434" s="49"/>
+      <c r="K434" s="47"/>
     </row>
     <row r="435">
-      <c r="G435" s="47"/>
-      <c r="H435" s="48"/>
-      <c r="K435" s="46"/>
+      <c r="G435" s="48"/>
+      <c r="H435" s="49"/>
+      <c r="K435" s="47"/>
     </row>
     <row r="436">
-      <c r="G436" s="47"/>
-      <c r="H436" s="48"/>
-      <c r="K436" s="46"/>
+      <c r="G436" s="48"/>
+      <c r="H436" s="49"/>
+      <c r="K436" s="47"/>
     </row>
     <row r="437">
-      <c r="G437" s="47"/>
-      <c r="H437" s="48"/>
-      <c r="K437" s="46"/>
+      <c r="G437" s="48"/>
+      <c r="H437" s="49"/>
+      <c r="K437" s="47"/>
     </row>
     <row r="438">
-      <c r="G438" s="47"/>
-      <c r="H438" s="48"/>
-      <c r="K438" s="46"/>
+      <c r="G438" s="48"/>
+      <c r="H438" s="49"/>
+      <c r="K438" s="47"/>
     </row>
     <row r="439">
-      <c r="G439" s="47"/>
-      <c r="H439" s="48"/>
-      <c r="K439" s="46"/>
+      <c r="G439" s="48"/>
+      <c r="H439" s="49"/>
+      <c r="K439" s="47"/>
     </row>
     <row r="440">
-      <c r="G440" s="47"/>
-      <c r="H440" s="48"/>
-      <c r="K440" s="46"/>
+      <c r="G440" s="48"/>
+      <c r="H440" s="49"/>
+      <c r="K440" s="47"/>
     </row>
     <row r="441">
-      <c r="G441" s="47"/>
-      <c r="H441" s="48"/>
-      <c r="K441" s="46"/>
+      <c r="G441" s="48"/>
+      <c r="H441" s="49"/>
+      <c r="K441" s="47"/>
     </row>
     <row r="442">
-      <c r="G442" s="47"/>
-      <c r="H442" s="48"/>
-      <c r="K442" s="46"/>
+      <c r="G442" s="48"/>
+      <c r="H442" s="49"/>
+      <c r="K442" s="47"/>
     </row>
     <row r="443">
-      <c r="G443" s="47"/>
-      <c r="H443" s="48"/>
-      <c r="K443" s="46"/>
+      <c r="G443" s="48"/>
+      <c r="H443" s="49"/>
+      <c r="K443" s="47"/>
     </row>
     <row r="444">
-      <c r="G444" s="47"/>
-      <c r="H444" s="48"/>
-      <c r="K444" s="46"/>
+      <c r="G444" s="48"/>
+      <c r="H444" s="49"/>
+      <c r="K444" s="47"/>
     </row>
     <row r="445">
-      <c r="G445" s="47"/>
-      <c r="H445" s="48"/>
-      <c r="K445" s="46"/>
+      <c r="G445" s="48"/>
+      <c r="H445" s="49"/>
+      <c r="K445" s="47"/>
     </row>
     <row r="446">
-      <c r="G446" s="47"/>
-      <c r="H446" s="48"/>
-      <c r="K446" s="46"/>
+      <c r="G446" s="48"/>
+      <c r="H446" s="49"/>
+      <c r="K446" s="47"/>
     </row>
     <row r="447">
-      <c r="G447" s="47"/>
-      <c r="H447" s="48"/>
-      <c r="K447" s="46"/>
+      <c r="G447" s="48"/>
+      <c r="H447" s="49"/>
+      <c r="K447" s="47"/>
     </row>
     <row r="448">
-      <c r="G448" s="47"/>
-      <c r="H448" s="48"/>
-      <c r="K448" s="46"/>
+      <c r="G448" s="48"/>
+      <c r="H448" s="49"/>
+      <c r="K448" s="47"/>
     </row>
     <row r="449">
-      <c r="G449" s="47"/>
-      <c r="H449" s="48"/>
-      <c r="K449" s="46"/>
+      <c r="G449" s="48"/>
+      <c r="H449" s="49"/>
+      <c r="K449" s="47"/>
     </row>
     <row r="450">
-      <c r="G450" s="47"/>
-      <c r="H450" s="48"/>
-      <c r="K450" s="46"/>
+      <c r="G450" s="48"/>
+      <c r="H450" s="49"/>
+      <c r="K450" s="47"/>
     </row>
     <row r="451">
-      <c r="G451" s="47"/>
-      <c r="H451" s="48"/>
-      <c r="K451" s="46"/>
+      <c r="G451" s="48"/>
+      <c r="H451" s="49"/>
+      <c r="K451" s="47"/>
     </row>
     <row r="452">
-      <c r="G452" s="47"/>
-      <c r="H452" s="48"/>
-      <c r="K452" s="46"/>
+      <c r="G452" s="48"/>
+      <c r="H452" s="49"/>
+      <c r="K452" s="47"/>
     </row>
     <row r="453">
-      <c r="G453" s="47"/>
-      <c r="H453" s="48"/>
-      <c r="K453" s="46"/>
+      <c r="G453" s="48"/>
+      <c r="H453" s="49"/>
+      <c r="K453" s="47"/>
     </row>
     <row r="454">
-      <c r="G454" s="47"/>
-      <c r="H454" s="48"/>
-      <c r="K454" s="46"/>
+      <c r="G454" s="48"/>
+      <c r="H454" s="49"/>
+      <c r="K454" s="47"/>
     </row>
     <row r="455">
-      <c r="G455" s="47"/>
-      <c r="H455" s="48"/>
-      <c r="K455" s="46"/>
+      <c r="G455" s="48"/>
+      <c r="H455" s="49"/>
+      <c r="K455" s="47"/>
     </row>
     <row r="456">
-      <c r="G456" s="47"/>
-      <c r="H456" s="48"/>
-      <c r="K456" s="46"/>
+      <c r="G456" s="48"/>
+      <c r="H456" s="49"/>
+      <c r="K456" s="47"/>
     </row>
     <row r="457">
-      <c r="G457" s="47"/>
-      <c r="H457" s="48"/>
-      <c r="K457" s="46"/>
+      <c r="G457" s="48"/>
+      <c r="H457" s="49"/>
+      <c r="K457" s="47"/>
     </row>
     <row r="458">
-      <c r="G458" s="47"/>
-      <c r="H458" s="48"/>
-      <c r="K458" s="46"/>
+      <c r="G458" s="48"/>
+      <c r="H458" s="49"/>
+      <c r="K458" s="47"/>
     </row>
     <row r="459">
-      <c r="G459" s="47"/>
-      <c r="H459" s="48"/>
-      <c r="K459" s="46"/>
+      <c r="G459" s="48"/>
+      <c r="H459" s="49"/>
+      <c r="K459" s="47"/>
     </row>
     <row r="460">
-      <c r="G460" s="47"/>
-      <c r="H460" s="48"/>
-      <c r="K460" s="46"/>
+      <c r="G460" s="48"/>
+      <c r="H460" s="49"/>
+      <c r="K460" s="47"/>
     </row>
     <row r="461">
-      <c r="G461" s="47"/>
-      <c r="H461" s="48"/>
-      <c r="K461" s="46"/>
+      <c r="G461" s="48"/>
+      <c r="H461" s="49"/>
+      <c r="K461" s="47"/>
     </row>
     <row r="462">
-      <c r="G462" s="47"/>
-      <c r="H462" s="48"/>
-      <c r="K462" s="46"/>
+      <c r="G462" s="48"/>
+      <c r="H462" s="49"/>
+      <c r="K462" s="47"/>
     </row>
     <row r="463">
-      <c r="G463" s="47"/>
-      <c r="H463" s="48"/>
-      <c r="K463" s="46"/>
+      <c r="G463" s="48"/>
+      <c r="H463" s="49"/>
+      <c r="K463" s="47"/>
     </row>
     <row r="464">
-      <c r="G464" s="47"/>
-      <c r="H464" s="48"/>
-      <c r="K464" s="46"/>
+      <c r="G464" s="48"/>
+      <c r="H464" s="49"/>
+      <c r="K464" s="47"/>
     </row>
     <row r="465">
-      <c r="G465" s="47"/>
-      <c r="H465" s="48"/>
-      <c r="K465" s="46"/>
+      <c r="G465" s="48"/>
+      <c r="H465" s="49"/>
+      <c r="K465" s="47"/>
     </row>
     <row r="466">
-      <c r="G466" s="47"/>
-      <c r="H466" s="48"/>
-      <c r="K466" s="46"/>
+      <c r="G466" s="48"/>
+      <c r="H466" s="49"/>
+      <c r="K466" s="47"/>
     </row>
     <row r="467">
-      <c r="G467" s="47"/>
-      <c r="H467" s="48"/>
-      <c r="K467" s="46"/>
+      <c r="G467" s="48"/>
+      <c r="H467" s="49"/>
+      <c r="K467" s="47"/>
     </row>
     <row r="468">
-      <c r="G468" s="47"/>
-      <c r="H468" s="48"/>
-      <c r="K468" s="46"/>
+      <c r="G468" s="48"/>
+      <c r="H468" s="49"/>
+      <c r="K468" s="47"/>
     </row>
     <row r="469">
-      <c r="G469" s="47"/>
-      <c r="H469" s="48"/>
-      <c r="K469" s="46"/>
+      <c r="G469" s="48"/>
+      <c r="H469" s="49"/>
+      <c r="K469" s="47"/>
     </row>
     <row r="470">
-      <c r="G470" s="47"/>
-      <c r="H470" s="48"/>
-      <c r="K470" s="46"/>
+      <c r="G470" s="48"/>
+      <c r="H470" s="49"/>
+      <c r="K470" s="47"/>
     </row>
     <row r="471">
-      <c r="G471" s="47"/>
-      <c r="H471" s="48"/>
-      <c r="K471" s="46"/>
+      <c r="G471" s="48"/>
+      <c r="H471" s="49"/>
+      <c r="K471" s="47"/>
     </row>
     <row r="472">
-      <c r="G472" s="47"/>
-      <c r="H472" s="48"/>
-      <c r="K472" s="46"/>
+      <c r="G472" s="48"/>
+      <c r="H472" s="49"/>
+      <c r="K472" s="47"/>
     </row>
     <row r="473">
-      <c r="G473" s="47"/>
-      <c r="H473" s="48"/>
-      <c r="K473" s="46"/>
+      <c r="G473" s="48"/>
+      <c r="H473" s="49"/>
+      <c r="K473" s="47"/>
     </row>
     <row r="474">
-      <c r="G474" s="47"/>
-      <c r="H474" s="48"/>
-      <c r="K474" s="46"/>
+      <c r="G474" s="48"/>
+      <c r="H474" s="49"/>
+      <c r="K474" s="47"/>
     </row>
     <row r="475">
-      <c r="G475" s="47"/>
-      <c r="H475" s="48"/>
-      <c r="K475" s="46"/>
+      <c r="G475" s="48"/>
+      <c r="H475" s="49"/>
+      <c r="K475" s="47"/>
     </row>
     <row r="476">
-      <c r="G476" s="47"/>
-      <c r="H476" s="48"/>
-      <c r="K476" s="46"/>
+      <c r="G476" s="48"/>
+      <c r="H476" s="49"/>
+      <c r="K476" s="47"/>
     </row>
     <row r="477">
-      <c r="G477" s="47"/>
-      <c r="H477" s="48"/>
-      <c r="K477" s="46"/>
+      <c r="G477" s="48"/>
+      <c r="H477" s="49"/>
+      <c r="K477" s="47"/>
     </row>
     <row r="478">
-      <c r="G478" s="47"/>
-      <c r="H478" s="48"/>
-      <c r="K478" s="46"/>
+      <c r="G478" s="48"/>
+      <c r="H478" s="49"/>
+      <c r="K478" s="47"/>
     </row>
     <row r="479">
-      <c r="G479" s="47"/>
-      <c r="H479" s="48"/>
-      <c r="K479" s="46"/>
+      <c r="G479" s="48"/>
+      <c r="H479" s="49"/>
+      <c r="K479" s="47"/>
     </row>
     <row r="480">
-      <c r="G480" s="47"/>
-      <c r="H480" s="48"/>
-      <c r="K480" s="46"/>
+      <c r="G480" s="48"/>
+      <c r="H480" s="49"/>
+      <c r="K480" s="47"/>
     </row>
     <row r="481">
-      <c r="G481" s="47"/>
-      <c r="H481" s="48"/>
-      <c r="K481" s="46"/>
+      <c r="G481" s="48"/>
+      <c r="H481" s="49"/>
+      <c r="K481" s="47"/>
     </row>
     <row r="482">
-      <c r="G482" s="47"/>
-      <c r="H482" s="48"/>
-      <c r="K482" s="46"/>
+      <c r="G482" s="48"/>
+      <c r="H482" s="49"/>
+      <c r="K482" s="47"/>
     </row>
     <row r="483">
-      <c r="G483" s="47"/>
-      <c r="H483" s="48"/>
-      <c r="K483" s="46"/>
+      <c r="G483" s="48"/>
+      <c r="H483" s="49"/>
+      <c r="K483" s="47"/>
     </row>
     <row r="484">
-      <c r="G484" s="47"/>
-      <c r="H484" s="48"/>
-      <c r="K484" s="46"/>
+      <c r="G484" s="48"/>
+      <c r="H484" s="49"/>
+      <c r="K484" s="47"/>
     </row>
     <row r="485">
-      <c r="G485" s="47"/>
-      <c r="H485" s="48"/>
-      <c r="K485" s="46"/>
+      <c r="G485" s="48"/>
+      <c r="H485" s="49"/>
+      <c r="K485" s="47"/>
     </row>
     <row r="486">
-      <c r="G486" s="47"/>
-      <c r="H486" s="48"/>
-      <c r="K486" s="46"/>
+      <c r="G486" s="48"/>
+      <c r="H486" s="49"/>
+      <c r="K486" s="47"/>
     </row>
     <row r="487">
-      <c r="G487" s="47"/>
-      <c r="H487" s="48"/>
-      <c r="K487" s="46"/>
+      <c r="G487" s="48"/>
+      <c r="H487" s="49"/>
+      <c r="K487" s="47"/>
     </row>
     <row r="488">
-      <c r="G488" s="47"/>
-      <c r="H488" s="48"/>
-      <c r="K488" s="46"/>
+      <c r="G488" s="48"/>
+      <c r="H488" s="49"/>
+      <c r="K488" s="47"/>
     </row>
     <row r="489">
-      <c r="G489" s="47"/>
-      <c r="H489" s="48"/>
-      <c r="K489" s="46"/>
+      <c r="G489" s="48"/>
+      <c r="H489" s="49"/>
+      <c r="K489" s="47"/>
     </row>
     <row r="490">
-      <c r="G490" s="47"/>
-      <c r="H490" s="48"/>
-      <c r="K490" s="46"/>
+      <c r="G490" s="48"/>
+      <c r="H490" s="49"/>
+      <c r="K490" s="47"/>
     </row>
     <row r="491">
-      <c r="G491" s="47"/>
-      <c r="H491" s="48"/>
-      <c r="K491" s="46"/>
+      <c r="G491" s="48"/>
+      <c r="H491" s="49"/>
+      <c r="K491" s="47"/>
     </row>
     <row r="492">
-      <c r="G492" s="47"/>
-      <c r="H492" s="48"/>
-      <c r="K492" s="46"/>
+      <c r="G492" s="48"/>
+      <c r="H492" s="49"/>
+      <c r="K492" s="47"/>
     </row>
     <row r="493">
-      <c r="G493" s="47"/>
-      <c r="H493" s="48"/>
-      <c r="K493" s="46"/>
+      <c r="G493" s="48"/>
+      <c r="H493" s="49"/>
+      <c r="K493" s="47"/>
     </row>
     <row r="494">
-      <c r="G494" s="47"/>
-      <c r="H494" s="48"/>
-      <c r="K494" s="46"/>
+      <c r="G494" s="48"/>
+      <c r="H494" s="49"/>
+      <c r="K494" s="47"/>
     </row>
     <row r="495">
-      <c r="G495" s="47"/>
-      <c r="H495" s="48"/>
-      <c r="K495" s="46"/>
+      <c r="G495" s="48"/>
+      <c r="H495" s="49"/>
+      <c r="K495" s="47"/>
     </row>
     <row r="496">
-      <c r="G496" s="47"/>
-      <c r="H496" s="48"/>
-      <c r="K496" s="46"/>
+      <c r="G496" s="48"/>
+      <c r="H496" s="49"/>
+      <c r="K496" s="47"/>
     </row>
     <row r="497">
-      <c r="G497" s="47"/>
-      <c r="H497" s="48"/>
-      <c r="K497" s="46"/>
+      <c r="G497" s="48"/>
+      <c r="H497" s="49"/>
+      <c r="K497" s="47"/>
     </row>
     <row r="498">
-      <c r="G498" s="47"/>
-      <c r="H498" s="48"/>
-      <c r="K498" s="46"/>
+      <c r="G498" s="48"/>
+      <c r="H498" s="49"/>
+      <c r="K498" s="47"/>
     </row>
     <row r="499">
-      <c r="G499" s="47"/>
-      <c r="H499" s="48"/>
-      <c r="K499" s="46"/>
+      <c r="G499" s="48"/>
+      <c r="H499" s="49"/>
+      <c r="K499" s="47"/>
     </row>
     <row r="500">
-      <c r="G500" s="47"/>
-      <c r="H500" s="48"/>
-      <c r="K500" s="46"/>
+      <c r="G500" s="48"/>
+      <c r="H500" s="49"/>
+      <c r="K500" s="47"/>
     </row>
     <row r="501">
-      <c r="G501" s="47"/>
-      <c r="H501" s="48"/>
-      <c r="K501" s="46"/>
+      <c r="G501" s="48"/>
+      <c r="H501" s="49"/>
+      <c r="K501" s="47"/>
     </row>
     <row r="502">
-      <c r="G502" s="47"/>
-      <c r="H502" s="48"/>
-      <c r="K502" s="46"/>
+      <c r="G502" s="48"/>
+      <c r="H502" s="49"/>
+      <c r="K502" s="47"/>
     </row>
     <row r="503">
-      <c r="G503" s="47"/>
-      <c r="H503" s="48"/>
-      <c r="K503" s="46"/>
+      <c r="G503" s="48"/>
+      <c r="H503" s="49"/>
+      <c r="K503" s="47"/>
     </row>
     <row r="504">
-      <c r="G504" s="47"/>
-      <c r="H504" s="48"/>
-      <c r="K504" s="46"/>
+      <c r="G504" s="48"/>
+      <c r="H504" s="49"/>
+      <c r="K504" s="47"/>
     </row>
     <row r="505">
-      <c r="G505" s="47"/>
-      <c r="H505" s="48"/>
-      <c r="K505" s="46"/>
+      <c r="G505" s="48"/>
+      <c r="H505" s="49"/>
+      <c r="K505" s="47"/>
     </row>
     <row r="506">
-      <c r="G506" s="47"/>
-      <c r="H506" s="48"/>
-      <c r="K506" s="46"/>
+      <c r="G506" s="48"/>
+      <c r="H506" s="49"/>
+      <c r="K506" s="47"/>
     </row>
     <row r="507">
-      <c r="G507" s="47"/>
-      <c r="H507" s="48"/>
-      <c r="K507" s="46"/>
+      <c r="G507" s="48"/>
+      <c r="H507" s="49"/>
+      <c r="K507" s="47"/>
     </row>
     <row r="508">
-      <c r="G508" s="47"/>
-      <c r="H508" s="48"/>
-      <c r="K508" s="46"/>
+      <c r="G508" s="48"/>
+      <c r="H508" s="49"/>
+      <c r="K508" s="47"/>
     </row>
     <row r="509">
-      <c r="G509" s="47"/>
-      <c r="H509" s="48"/>
-      <c r="K509" s="46"/>
+      <c r="G509" s="48"/>
+      <c r="H509" s="49"/>
+      <c r="K509" s="47"/>
     </row>
     <row r="510">
-      <c r="G510" s="47"/>
-      <c r="H510" s="48"/>
-      <c r="K510" s="46"/>
+      <c r="G510" s="48"/>
+      <c r="H510" s="49"/>
+      <c r="K510" s="47"/>
     </row>
     <row r="511">
-      <c r="G511" s="47"/>
-      <c r="H511" s="48"/>
-      <c r="K511" s="46"/>
+      <c r="G511" s="48"/>
+      <c r="H511" s="49"/>
+      <c r="K511" s="47"/>
     </row>
     <row r="512">
-      <c r="G512" s="47"/>
-      <c r="H512" s="48"/>
-      <c r="K512" s="46"/>
+      <c r="G512" s="48"/>
+      <c r="H512" s="49"/>
+      <c r="K512" s="47"/>
     </row>
     <row r="513">
-      <c r="G513" s="47"/>
-      <c r="H513" s="48"/>
-      <c r="K513" s="46"/>
+      <c r="G513" s="48"/>
+      <c r="H513" s="49"/>
+      <c r="K513" s="47"/>
     </row>
     <row r="514">
-      <c r="G514" s="47"/>
-      <c r="H514" s="48"/>
-      <c r="K514" s="46"/>
+      <c r="G514" s="48"/>
+      <c r="H514" s="49"/>
+      <c r="K514" s="47"/>
     </row>
     <row r="515">
-      <c r="G515" s="47"/>
-      <c r="H515" s="48"/>
-      <c r="K515" s="46"/>
+      <c r="G515" s="48"/>
+      <c r="H515" s="49"/>
+      <c r="K515" s="47"/>
     </row>
     <row r="516">
-      <c r="G516" s="47"/>
-      <c r="H516" s="48"/>
-      <c r="K516" s="46"/>
+      <c r="G516" s="48"/>
+      <c r="H516" s="49"/>
+      <c r="K516" s="47"/>
     </row>
     <row r="517">
-      <c r="G517" s="47"/>
-      <c r="H517" s="48"/>
-      <c r="K517" s="46"/>
+      <c r="G517" s="48"/>
+      <c r="H517" s="49"/>
+      <c r="K517" s="47"/>
     </row>
     <row r="518">
-      <c r="G518" s="47"/>
-      <c r="H518" s="48"/>
-      <c r="K518" s="46"/>
+      <c r="G518" s="48"/>
+      <c r="H518" s="49"/>
+      <c r="K518" s="47"/>
     </row>
     <row r="519">
-      <c r="G519" s="47"/>
-      <c r="H519" s="48"/>
-      <c r="K519" s="46"/>
+      <c r="G519" s="48"/>
+      <c r="H519" s="49"/>
+      <c r="K519" s="47"/>
     </row>
     <row r="520">
-      <c r="G520" s="47"/>
-      <c r="H520" s="48"/>
-      <c r="K520" s="46"/>
+      <c r="G520" s="48"/>
+      <c r="H520" s="49"/>
+      <c r="K520" s="47"/>
     </row>
     <row r="521">
-      <c r="G521" s="47"/>
-      <c r="H521" s="48"/>
-      <c r="K521" s="46"/>
+      <c r="G521" s="48"/>
+      <c r="H521" s="49"/>
+      <c r="K521" s="47"/>
     </row>
     <row r="522">
-      <c r="G522" s="47"/>
-      <c r="H522" s="48"/>
-      <c r="K522" s="46"/>
+      <c r="G522" s="48"/>
+      <c r="H522" s="49"/>
+      <c r="K522" s="47"/>
     </row>
     <row r="523">
-      <c r="G523" s="47"/>
-      <c r="H523" s="48"/>
-      <c r="K523" s="46"/>
+      <c r="G523" s="48"/>
+      <c r="H523" s="49"/>
+      <c r="K523" s="47"/>
     </row>
     <row r="524">
-      <c r="G524" s="47"/>
-      <c r="H524" s="48"/>
-      <c r="K524" s="46"/>
+      <c r="G524" s="48"/>
+      <c r="H524" s="49"/>
+      <c r="K524" s="47"/>
     </row>
     <row r="525">
-      <c r="G525" s="47"/>
-      <c r="H525" s="48"/>
-      <c r="K525" s="46"/>
+      <c r="G525" s="48"/>
+      <c r="H525" s="49"/>
+      <c r="K525" s="47"/>
     </row>
     <row r="526">
-      <c r="G526" s="47"/>
-      <c r="H526" s="48"/>
-      <c r="K526" s="46"/>
+      <c r="G526" s="48"/>
+      <c r="H526" s="49"/>
+      <c r="K526" s="47"/>
     </row>
     <row r="527">
-      <c r="G527" s="47"/>
-      <c r="H527" s="48"/>
-      <c r="K527" s="46"/>
+      <c r="G527" s="48"/>
+      <c r="H527" s="49"/>
+      <c r="K527" s="47"/>
     </row>
     <row r="528">
-      <c r="G528" s="47"/>
-      <c r="H528" s="48"/>
-      <c r="K528" s="46"/>
+      <c r="G528" s="48"/>
+      <c r="H528" s="49"/>
+      <c r="K528" s="47"/>
     </row>
     <row r="529">
-      <c r="G529" s="47"/>
-      <c r="H529" s="48"/>
-      <c r="K529" s="46"/>
+      <c r="G529" s="48"/>
+      <c r="H529" s="49"/>
+      <c r="K529" s="47"/>
     </row>
     <row r="530">
-      <c r="G530" s="47"/>
-      <c r="H530" s="48"/>
-      <c r="K530" s="46"/>
+      <c r="G530" s="48"/>
+      <c r="H530" s="49"/>
+      <c r="K530" s="47"/>
     </row>
     <row r="531">
-      <c r="G531" s="47"/>
-      <c r="H531" s="48"/>
-      <c r="K531" s="46"/>
+      <c r="G531" s="48"/>
+      <c r="H531" s="49"/>
+      <c r="K531" s="47"/>
     </row>
     <row r="532">
-      <c r="G532" s="47"/>
-      <c r="H532" s="48"/>
-      <c r="K532" s="46"/>
+      <c r="G532" s="48"/>
+      <c r="H532" s="49"/>
+      <c r="K532" s="47"/>
     </row>
     <row r="533">
-      <c r="G533" s="47"/>
-      <c r="H533" s="48"/>
-      <c r="K533" s="46"/>
+      <c r="G533" s="48"/>
+      <c r="H533" s="49"/>
+      <c r="K533" s="47"/>
     </row>
     <row r="534">
-      <c r="G534" s="47"/>
-      <c r="H534" s="48"/>
-      <c r="K534" s="46"/>
+      <c r="G534" s="48"/>
+      <c r="H534" s="49"/>
+      <c r="K534" s="47"/>
     </row>
     <row r="535">
-      <c r="G535" s="47"/>
-      <c r="H535" s="48"/>
-      <c r="K535" s="46"/>
+      <c r="G535" s="48"/>
+      <c r="H535" s="49"/>
+      <c r="K535" s="47"/>
     </row>
     <row r="536">
-      <c r="G536" s="47"/>
-      <c r="H536" s="48"/>
-      <c r="K536" s="46"/>
+      <c r="G536" s="48"/>
+      <c r="H536" s="49"/>
+      <c r="K536" s="47"/>
     </row>
     <row r="537">
-      <c r="G537" s="47"/>
-      <c r="H537" s="48"/>
-      <c r="K537" s="46"/>
+      <c r="G537" s="48"/>
+      <c r="H537" s="49"/>
+      <c r="K537" s="47"/>
     </row>
     <row r="538">
-      <c r="G538" s="47"/>
-      <c r="H538" s="48"/>
-      <c r="K538" s="46"/>
+      <c r="G538" s="48"/>
+      <c r="H538" s="49"/>
+      <c r="K538" s="47"/>
     </row>
     <row r="539">
-      <c r="G539" s="47"/>
-      <c r="H539" s="48"/>
-      <c r="K539" s="46"/>
+      <c r="G539" s="48"/>
+      <c r="H539" s="49"/>
+      <c r="K539" s="47"/>
     </row>
     <row r="540">
-      <c r="G540" s="47"/>
-      <c r="H540" s="48"/>
-      <c r="K540" s="46"/>
+      <c r="G540" s="48"/>
+      <c r="H540" s="49"/>
+      <c r="K540" s="47"/>
     </row>
     <row r="541">
-      <c r="G541" s="47"/>
-      <c r="H541" s="48"/>
-      <c r="K541" s="46"/>
+      <c r="G541" s="48"/>
+      <c r="H541" s="49"/>
+      <c r="K541" s="47"/>
     </row>
     <row r="542">
-      <c r="G542" s="47"/>
-      <c r="H542" s="48"/>
-      <c r="K542" s="46"/>
+      <c r="G542" s="48"/>
+      <c r="H542" s="49"/>
+      <c r="K542" s="47"/>
     </row>
     <row r="543">
-      <c r="G543" s="47"/>
-      <c r="H543" s="48"/>
-      <c r="K543" s="46"/>
+      <c r="G543" s="48"/>
+      <c r="H543" s="49"/>
+      <c r="K543" s="47"/>
     </row>
     <row r="544">
-      <c r="G544" s="47"/>
-      <c r="H544" s="48"/>
-      <c r="K544" s="46"/>
+      <c r="G544" s="48"/>
+      <c r="H544" s="49"/>
+      <c r="K544" s="47"/>
     </row>
     <row r="545">
-      <c r="G545" s="47"/>
-      <c r="H545" s="48"/>
-      <c r="K545" s="46"/>
+      <c r="G545" s="48"/>
+      <c r="H545" s="49"/>
+      <c r="K545" s="47"/>
     </row>
     <row r="546">
-      <c r="G546" s="47"/>
-      <c r="H546" s="48"/>
-      <c r="K546" s="46"/>
+      <c r="G546" s="48"/>
+      <c r="H546" s="49"/>
+      <c r="K546" s="47"/>
     </row>
     <row r="547">
-      <c r="G547" s="47"/>
-      <c r="H547" s="48"/>
-      <c r="K547" s="46"/>
+      <c r="G547" s="48"/>
+      <c r="H547" s="49"/>
+      <c r="K547" s="47"/>
     </row>
     <row r="548">
-      <c r="G548" s="47"/>
-      <c r="H548" s="48"/>
-      <c r="K548" s="46"/>
+      <c r="G548" s="48"/>
+      <c r="H548" s="49"/>
+      <c r="K548" s="47"/>
     </row>
     <row r="549">
-      <c r="G549" s="47"/>
-      <c r="H549" s="48"/>
-      <c r="K549" s="46"/>
+      <c r="G549" s="48"/>
+      <c r="H549" s="49"/>
+      <c r="K549" s="47"/>
     </row>
     <row r="550">
-      <c r="G550" s="47"/>
-      <c r="H550" s="48"/>
-      <c r="K550" s="46"/>
+      <c r="G550" s="48"/>
+      <c r="H550" s="49"/>
+      <c r="K550" s="47"/>
     </row>
     <row r="551">
-      <c r="G551" s="47"/>
-      <c r="H551" s="48"/>
-      <c r="K551" s="46"/>
+      <c r="G551" s="48"/>
+      <c r="H551" s="49"/>
+      <c r="K551" s="47"/>
     </row>
     <row r="552">
-      <c r="G552" s="47"/>
-      <c r="H552" s="48"/>
-      <c r="K552" s="46"/>
+      <c r="G552" s="48"/>
+      <c r="H552" s="49"/>
+      <c r="K552" s="47"/>
     </row>
     <row r="553">
-      <c r="G553" s="47"/>
-      <c r="H553" s="48"/>
-      <c r="K553" s="46"/>
+      <c r="G553" s="48"/>
+      <c r="H553" s="49"/>
+      <c r="K553" s="47"/>
     </row>
     <row r="554">
-      <c r="G554" s="47"/>
-      <c r="H554" s="48"/>
-      <c r="K554" s="46"/>
+      <c r="G554" s="48"/>
+      <c r="H554" s="49"/>
+      <c r="K554" s="47"/>
     </row>
     <row r="555">
-      <c r="G555" s="47"/>
-      <c r="H555" s="48"/>
-      <c r="K555" s="46"/>
+      <c r="G555" s="48"/>
+      <c r="H555" s="49"/>
+      <c r="K555" s="47"/>
     </row>
     <row r="556">
-      <c r="G556" s="47"/>
-      <c r="H556" s="48"/>
-      <c r="K556" s="46"/>
+      <c r="G556" s="48"/>
+      <c r="H556" s="49"/>
+      <c r="K556" s="47"/>
     </row>
     <row r="557">
-      <c r="G557" s="47"/>
-      <c r="H557" s="48"/>
-      <c r="K557" s="46"/>
+      <c r="G557" s="48"/>
+      <c r="H557" s="49"/>
+      <c r="K557" s="47"/>
     </row>
     <row r="558">
-      <c r="G558" s="47"/>
-      <c r="H558" s="48"/>
-      <c r="K558" s="46"/>
+      <c r="G558" s="48"/>
+      <c r="H558" s="49"/>
+      <c r="K558" s="47"/>
     </row>
     <row r="559">
-      <c r="G559" s="47"/>
-      <c r="H559" s="48"/>
-      <c r="K559" s="46"/>
+      <c r="G559" s="48"/>
+      <c r="H559" s="49"/>
+      <c r="K559" s="47"/>
     </row>
     <row r="560">
-      <c r="G560" s="47"/>
-      <c r="H560" s="48"/>
-      <c r="K560" s="46"/>
+      <c r="G560" s="48"/>
+      <c r="H560" s="49"/>
+      <c r="K560" s="47"/>
     </row>
     <row r="561">
-      <c r="G561" s="47"/>
-      <c r="H561" s="48"/>
-      <c r="K561" s="46"/>
+      <c r="G561" s="48"/>
+      <c r="H561" s="49"/>
+      <c r="K561" s="47"/>
     </row>
     <row r="562">
-      <c r="G562" s="47"/>
-      <c r="H562" s="48"/>
-      <c r="K562" s="46"/>
+      <c r="G562" s="48"/>
+      <c r="H562" s="49"/>
+      <c r="K562" s="47"/>
     </row>
     <row r="563">
-      <c r="G563" s="47"/>
-      <c r="H563" s="48"/>
-      <c r="K563" s="46"/>
+      <c r="G563" s="48"/>
+      <c r="H563" s="49"/>
+      <c r="K563" s="47"/>
     </row>
     <row r="564">
-      <c r="G564" s="47"/>
-      <c r="H564" s="48"/>
-      <c r="K564" s="46"/>
+      <c r="G564" s="48"/>
+      <c r="H564" s="49"/>
+      <c r="K564" s="47"/>
     </row>
     <row r="565">
-      <c r="G565" s="47"/>
-      <c r="H565" s="48"/>
-      <c r="K565" s="46"/>
+      <c r="G565" s="48"/>
+      <c r="H565" s="49"/>
+      <c r="K565" s="47"/>
     </row>
     <row r="566">
-      <c r="G566" s="47"/>
-      <c r="H566" s="48"/>
-      <c r="K566" s="46"/>
+      <c r="G566" s="48"/>
+      <c r="H566" s="49"/>
+      <c r="K566" s="47"/>
     </row>
     <row r="567">
-      <c r="G567" s="47"/>
-      <c r="H567" s="48"/>
-      <c r="K567" s="46"/>
+      <c r="G567" s="48"/>
+      <c r="H567" s="49"/>
+      <c r="K567" s="47"/>
     </row>
     <row r="568">
-      <c r="G568" s="47"/>
-      <c r="H568" s="48"/>
-      <c r="K568" s="46"/>
+      <c r="G568" s="48"/>
+      <c r="H568" s="49"/>
+      <c r="K568" s="47"/>
     </row>
     <row r="569">
-      <c r="G569" s="47"/>
-      <c r="H569" s="48"/>
-      <c r="K569" s="46"/>
+      <c r="G569" s="48"/>
+      <c r="H569" s="49"/>
+      <c r="K569" s="47"/>
     </row>
     <row r="570">
-      <c r="G570" s="47"/>
-      <c r="H570" s="48"/>
-      <c r="K570" s="46"/>
+      <c r="G570" s="48"/>
+      <c r="H570" s="49"/>
+      <c r="K570" s="47"/>
     </row>
     <row r="571">
-      <c r="G571" s="47"/>
-      <c r="H571" s="48"/>
-      <c r="K571" s="46"/>
+      <c r="G571" s="48"/>
+      <c r="H571" s="49"/>
+      <c r="K571" s="47"/>
     </row>
     <row r="572">
-      <c r="G572" s="47"/>
-      <c r="H572" s="48"/>
-      <c r="K572" s="46"/>
+      <c r="G572" s="48"/>
+      <c r="H572" s="49"/>
+      <c r="K572" s="47"/>
     </row>
     <row r="573">
-      <c r="G573" s="47"/>
-      <c r="H573" s="48"/>
-      <c r="K573" s="46"/>
+      <c r="G573" s="48"/>
+      <c r="H573" s="49"/>
+      <c r="K573" s="47"/>
     </row>
     <row r="574">
-      <c r="G574" s="47"/>
-      <c r="H574" s="48"/>
-      <c r="K574" s="46"/>
+      <c r="G574" s="48"/>
+      <c r="H574" s="49"/>
+      <c r="K574" s="47"/>
     </row>
     <row r="575">
-      <c r="G575" s="47"/>
-      <c r="H575" s="48"/>
-      <c r="K575" s="46"/>
+      <c r="G575" s="48"/>
+      <c r="H575" s="49"/>
+      <c r="K575" s="47"/>
     </row>
     <row r="576">
-      <c r="G576" s="47"/>
-      <c r="H576" s="48"/>
-      <c r="K576" s="46"/>
+      <c r="G576" s="48"/>
+      <c r="H576" s="49"/>
+      <c r="K576" s="47"/>
     </row>
     <row r="577">
-      <c r="G577" s="47"/>
-      <c r="H577" s="48"/>
-      <c r="K577" s="46"/>
+      <c r="G577" s="48"/>
+      <c r="H577" s="49"/>
+      <c r="K577" s="47"/>
     </row>
     <row r="578">
-      <c r="G578" s="47"/>
-      <c r="H578" s="48"/>
-      <c r="K578" s="46"/>
+      <c r="G578" s="48"/>
+      <c r="H578" s="49"/>
+      <c r="K578" s="47"/>
     </row>
     <row r="579">
-      <c r="G579" s="47"/>
-      <c r="H579" s="48"/>
-      <c r="K579" s="46"/>
+      <c r="G579" s="48"/>
+      <c r="H579" s="49"/>
+      <c r="K579" s="47"/>
     </row>
     <row r="580">
-      <c r="G580" s="47"/>
-      <c r="H580" s="48"/>
-      <c r="K580" s="46"/>
+      <c r="G580" s="48"/>
+      <c r="H580" s="49"/>
+      <c r="K580" s="47"/>
     </row>
     <row r="581">
-      <c r="G581" s="47"/>
-      <c r="H581" s="48"/>
-      <c r="K581" s="46"/>
+      <c r="G581" s="48"/>
+      <c r="H581" s="49"/>
+      <c r="K581" s="47"/>
     </row>
     <row r="582">
-      <c r="G582" s="47"/>
-      <c r="H582" s="48"/>
-      <c r="K582" s="46"/>
+      <c r="G582" s="48"/>
+      <c r="H582" s="49"/>
+      <c r="K582" s="47"/>
     </row>
     <row r="583">
-      <c r="G583" s="47"/>
-      <c r="H583" s="48"/>
-      <c r="K583" s="46"/>
+      <c r="G583" s="48"/>
+      <c r="H583" s="49"/>
+      <c r="K583" s="47"/>
     </row>
     <row r="584">
-      <c r="G584" s="47"/>
-      <c r="H584" s="48"/>
-      <c r="K584" s="46"/>
+      <c r="G584" s="48"/>
+      <c r="H584" s="49"/>
+      <c r="K584" s="47"/>
     </row>
     <row r="585">
-      <c r="G585" s="47"/>
-      <c r="H585" s="48"/>
-      <c r="K585" s="46"/>
+      <c r="G585" s="48"/>
+      <c r="H585" s="49"/>
+      <c r="K585" s="47"/>
     </row>
     <row r="586">
-      <c r="G586" s="47"/>
-      <c r="H586" s="48"/>
-      <c r="K586" s="46"/>
+      <c r="G586" s="48"/>
+      <c r="H586" s="49"/>
+      <c r="K586" s="47"/>
     </row>
     <row r="587">
-      <c r="G587" s="47"/>
-      <c r="H587" s="48"/>
-      <c r="K587" s="46"/>
+      <c r="G587" s="48"/>
+      <c r="H587" s="49"/>
+      <c r="K587" s="47"/>
     </row>
     <row r="588">
-      <c r="G588" s="47"/>
-      <c r="H588" s="48"/>
-      <c r="K588" s="46"/>
+      <c r="G588" s="48"/>
+      <c r="H588" s="49"/>
+      <c r="K588" s="47"/>
     </row>
     <row r="589">
-      <c r="G589" s="47"/>
-      <c r="H589" s="48"/>
-      <c r="K589" s="46"/>
+      <c r="G589" s="48"/>
+      <c r="H589" s="49"/>
+      <c r="K589" s="47"/>
     </row>
     <row r="590">
-      <c r="G590" s="47"/>
-      <c r="H590" s="48"/>
-      <c r="K590" s="46"/>
+      <c r="G590" s="48"/>
+      <c r="H590" s="49"/>
+      <c r="K590" s="47"/>
     </row>
     <row r="591">
-      <c r="G591" s="47"/>
-      <c r="H591" s="48"/>
-      <c r="K591" s="46"/>
+      <c r="G591" s="48"/>
+      <c r="H591" s="49"/>
+      <c r="K591" s="47"/>
     </row>
     <row r="592">
-      <c r="G592" s="47"/>
-      <c r="H592" s="48"/>
-      <c r="K592" s="46"/>
+      <c r="G592" s="48"/>
+      <c r="H592" s="49"/>
+      <c r="K592" s="47"/>
     </row>
     <row r="593">
-      <c r="G593" s="47"/>
-      <c r="H593" s="48"/>
-      <c r="K593" s="46"/>
+      <c r="G593" s="48"/>
+      <c r="H593" s="49"/>
+      <c r="K593" s="47"/>
     </row>
     <row r="594">
-      <c r="G594" s="47"/>
-      <c r="H594" s="48"/>
-      <c r="K594" s="46"/>
+      <c r="G594" s="48"/>
+      <c r="H594" s="49"/>
+      <c r="K594" s="47"/>
     </row>
     <row r="595">
-      <c r="G595" s="47"/>
-      <c r="H595" s="48"/>
-      <c r="K595" s="46"/>
+      <c r="G595" s="48"/>
+      <c r="H595" s="49"/>
+      <c r="K595" s="47"/>
     </row>
     <row r="596">
-      <c r="G596" s="47"/>
-      <c r="H596" s="48"/>
-      <c r="K596" s="46"/>
+      <c r="G596" s="48"/>
+      <c r="H596" s="49"/>
+      <c r="K596" s="47"/>
     </row>
     <row r="597">
-      <c r="G597" s="47"/>
-      <c r="H597" s="48"/>
-      <c r="K597" s="46"/>
+      <c r="G597" s="48"/>
+      <c r="H597" s="49"/>
+      <c r="K597" s="47"/>
     </row>
     <row r="598">
-      <c r="G598" s="47"/>
-      <c r="H598" s="48"/>
-      <c r="K598" s="46"/>
+      <c r="G598" s="48"/>
+      <c r="H598" s="49"/>
+      <c r="K598" s="47"/>
     </row>
     <row r="599">
-      <c r="G599" s="47"/>
-      <c r="H599" s="48"/>
-      <c r="K599" s="46"/>
+      <c r="G599" s="48"/>
+      <c r="H599" s="49"/>
+      <c r="K599" s="47"/>
     </row>
     <row r="600">
-      <c r="G600" s="47"/>
-      <c r="H600" s="48"/>
-      <c r="K600" s="46"/>
+      <c r="G600" s="48"/>
+      <c r="H600" s="49"/>
+      <c r="K600" s="47"/>
     </row>
     <row r="601">
-      <c r="G601" s="47"/>
-      <c r="H601" s="48"/>
-      <c r="K601" s="46"/>
+      <c r="G601" s="48"/>
+      <c r="H601" s="49"/>
+      <c r="K601" s="47"/>
     </row>
     <row r="602">
-      <c r="G602" s="47"/>
-      <c r="H602" s="48"/>
-      <c r="K602" s="46"/>
+      <c r="G602" s="48"/>
+      <c r="H602" s="49"/>
+      <c r="K602" s="47"/>
     </row>
     <row r="603">
-      <c r="G603" s="47"/>
-      <c r="H603" s="48"/>
-      <c r="K603" s="46"/>
+      <c r="G603" s="48"/>
+      <c r="H603" s="49"/>
+      <c r="K603" s="47"/>
     </row>
     <row r="604">
-      <c r="G604" s="47"/>
-      <c r="H604" s="48"/>
-      <c r="K604" s="46"/>
+      <c r="G604" s="48"/>
+      <c r="H604" s="49"/>
+      <c r="K604" s="47"/>
     </row>
     <row r="605">
-      <c r="G605" s="47"/>
-      <c r="H605" s="48"/>
-      <c r="K605" s="46"/>
+      <c r="G605" s="48"/>
+      <c r="H605" s="49"/>
+      <c r="K605" s="47"/>
     </row>
     <row r="606">
-      <c r="G606" s="47"/>
-      <c r="H606" s="48"/>
-      <c r="K606" s="46"/>
+      <c r="G606" s="48"/>
+      <c r="H606" s="49"/>
+      <c r="K606" s="47"/>
     </row>
     <row r="607">
-      <c r="G607" s="47"/>
-      <c r="H607" s="48"/>
-      <c r="K607" s="46"/>
+      <c r="G607" s="48"/>
+      <c r="H607" s="49"/>
+      <c r="K607" s="47"/>
     </row>
     <row r="608">
-      <c r="G608" s="47"/>
-      <c r="H608" s="48"/>
-      <c r="K608" s="46"/>
+      <c r="G608" s="48"/>
+      <c r="H608" s="49"/>
+      <c r="K608" s="47"/>
     </row>
     <row r="609">
-      <c r="G609" s="47"/>
-      <c r="H609" s="48"/>
-      <c r="K609" s="46"/>
+      <c r="G609" s="48"/>
+      <c r="H609" s="49"/>
+      <c r="K609" s="47"/>
     </row>
     <row r="610">
-      <c r="G610" s="47"/>
-      <c r="H610" s="48"/>
-      <c r="K610" s="46"/>
+      <c r="G610" s="48"/>
+      <c r="H610" s="49"/>
+      <c r="K610" s="47"/>
     </row>
     <row r="611">
-      <c r="G611" s="47"/>
-      <c r="H611" s="48"/>
-      <c r="K611" s="46"/>
+      <c r="G611" s="48"/>
+      <c r="H611" s="49"/>
+      <c r="K611" s="47"/>
     </row>
     <row r="612">
-      <c r="G612" s="47"/>
-      <c r="H612" s="48"/>
-      <c r="K612" s="46"/>
+      <c r="G612" s="48"/>
+      <c r="H612" s="49"/>
+      <c r="K612" s="47"/>
     </row>
     <row r="613">
-      <c r="G613" s="47"/>
-      <c r="H613" s="48"/>
-      <c r="K613" s="46"/>
+      <c r="G613" s="48"/>
+      <c r="H613" s="49"/>
+      <c r="K613" s="47"/>
     </row>
     <row r="614">
-      <c r="G614" s="47"/>
-      <c r="H614" s="48"/>
-      <c r="K614" s="46"/>
+      <c r="G614" s="48"/>
+      <c r="H614" s="49"/>
+      <c r="K614" s="47"/>
     </row>
     <row r="615">
-      <c r="G615" s="47"/>
-      <c r="H615" s="48"/>
-      <c r="K615" s="46"/>
+      <c r="G615" s="48"/>
+      <c r="H615" s="49"/>
+      <c r="K615" s="47"/>
     </row>
     <row r="616">
-      <c r="G616" s="47"/>
-      <c r="H616" s="48"/>
-      <c r="K616" s="46"/>
+      <c r="G616" s="48"/>
+      <c r="H616" s="49"/>
+      <c r="K616" s="47"/>
     </row>
     <row r="617">
-      <c r="G617" s="47"/>
-      <c r="H617" s="48"/>
-      <c r="K617" s="46"/>
+      <c r="G617" s="48"/>
+      <c r="H617" s="49"/>
+      <c r="K617" s="47"/>
     </row>
     <row r="618">
-      <c r="G618" s="47"/>
-      <c r="H618" s="48"/>
-      <c r="K618" s="46"/>
+      <c r="G618" s="48"/>
+      <c r="H618" s="49"/>
+      <c r="K618" s="47"/>
     </row>
     <row r="619">
-      <c r="G619" s="47"/>
-      <c r="H619" s="48"/>
-      <c r="K619" s="46"/>
+      <c r="G619" s="48"/>
+      <c r="H619" s="49"/>
+      <c r="K619" s="47"/>
     </row>
     <row r="620">
-      <c r="G620" s="47"/>
-      <c r="H620" s="48"/>
-      <c r="K620" s="46"/>
+      <c r="G620" s="48"/>
+      <c r="H620" s="49"/>
+      <c r="K620" s="47"/>
     </row>
     <row r="621">
-      <c r="G621" s="47"/>
-      <c r="H621" s="48"/>
-      <c r="K621" s="46"/>
+      <c r="G621" s="48"/>
+      <c r="H621" s="49"/>
+      <c r="K621" s="47"/>
     </row>
     <row r="622">
-      <c r="G622" s="47"/>
-      <c r="H622" s="48"/>
-      <c r="K622" s="46"/>
+      <c r="G622" s="48"/>
+      <c r="H622" s="49"/>
+      <c r="K622" s="47"/>
     </row>
     <row r="623">
-      <c r="G623" s="47"/>
-      <c r="H623" s="48"/>
-      <c r="K623" s="46"/>
+      <c r="G623" s="48"/>
+      <c r="H623" s="49"/>
+      <c r="K623" s="47"/>
     </row>
     <row r="624">
-      <c r="G624" s="47"/>
-      <c r="H624" s="48"/>
-      <c r="K624" s="46"/>
+      <c r="G624" s="48"/>
+      <c r="H624" s="49"/>
+      <c r="K624" s="47"/>
     </row>
     <row r="625">
-      <c r="G625" s="47"/>
-      <c r="H625" s="48"/>
-      <c r="K625" s="46"/>
+      <c r="G625" s="48"/>
+      <c r="H625" s="49"/>
+      <c r="K625" s="47"/>
     </row>
     <row r="626">
-      <c r="G626" s="47"/>
-      <c r="H626" s="48"/>
-      <c r="K626" s="46"/>
+      <c r="G626" s="48"/>
+      <c r="H626" s="49"/>
+      <c r="K626" s="47"/>
     </row>
     <row r="627">
-      <c r="G627" s="47"/>
-      <c r="H627" s="48"/>
-      <c r="K627" s="46"/>
+      <c r="G627" s="48"/>
+      <c r="H627" s="49"/>
+      <c r="K627" s="47"/>
     </row>
     <row r="628">
-      <c r="G628" s="47"/>
-      <c r="H628" s="48"/>
-      <c r="K628" s="46"/>
+      <c r="G628" s="48"/>
+      <c r="H628" s="49"/>
+      <c r="K628" s="47"/>
     </row>
     <row r="629">
-      <c r="G629" s="47"/>
-      <c r="H629" s="48"/>
-      <c r="K629" s="46"/>
+      <c r="G629" s="48"/>
+      <c r="H629" s="49"/>
+      <c r="K629" s="47"/>
     </row>
     <row r="630">
-      <c r="G630" s="47"/>
-      <c r="H630" s="48"/>
-      <c r="K630" s="46"/>
+      <c r="G630" s="48"/>
+      <c r="H630" s="49"/>
+      <c r="K630" s="47"/>
     </row>
     <row r="631">
-      <c r="G631" s="47"/>
-      <c r="H631" s="48"/>
-      <c r="K631" s="46"/>
+      <c r="G631" s="48"/>
+      <c r="H631" s="49"/>
+      <c r="K631" s="47"/>
     </row>
     <row r="632">
-      <c r="G632" s="47"/>
-      <c r="H632" s="48"/>
-      <c r="K632" s="46"/>
+      <c r="G632" s="48"/>
+      <c r="H632" s="49"/>
+      <c r="K632" s="47"/>
     </row>
     <row r="633">
-      <c r="G633" s="47"/>
-      <c r="H633" s="48"/>
-      <c r="K633" s="46"/>
+      <c r="G633" s="48"/>
+      <c r="H633" s="49"/>
+      <c r="K633" s="47"/>
     </row>
     <row r="634">
-      <c r="G634" s="47"/>
-      <c r="H634" s="48"/>
-      <c r="K634" s="46"/>
+      <c r="G634" s="48"/>
+      <c r="H634" s="49"/>
+      <c r="K634" s="47"/>
     </row>
     <row r="635">
-      <c r="G635" s="47"/>
-      <c r="H635" s="48"/>
-      <c r="K635" s="46"/>
+      <c r="G635" s="48"/>
+      <c r="H635" s="49"/>
+      <c r="K635" s="47"/>
     </row>
     <row r="636">
-      <c r="G636" s="47"/>
-      <c r="H636" s="48"/>
-      <c r="K636" s="46"/>
+      <c r="G636" s="48"/>
+      <c r="H636" s="49"/>
+      <c r="K636" s="47"/>
     </row>
     <row r="637">
-      <c r="G637" s="47"/>
-      <c r="H637" s="48"/>
-      <c r="K637" s="46"/>
+      <c r="G637" s="48"/>
+      <c r="H637" s="49"/>
+      <c r="K637" s="47"/>
     </row>
     <row r="638">
-      <c r="G638" s="47"/>
-      <c r="H638" s="48"/>
-      <c r="K638" s="46"/>
+      <c r="G638" s="48"/>
+      <c r="H638" s="49"/>
+      <c r="K638" s="47"/>
     </row>
     <row r="639">
-      <c r="G639" s="47"/>
-      <c r="H639" s="48"/>
-      <c r="K639" s="46"/>
+      <c r="G639" s="48"/>
+      <c r="H639" s="49"/>
+      <c r="K639" s="47"/>
     </row>
     <row r="640">
-      <c r="G640" s="47"/>
-      <c r="H640" s="48"/>
-      <c r="K640" s="46"/>
+      <c r="G640" s="48"/>
+      <c r="H640" s="49"/>
+      <c r="K640" s="47"/>
     </row>
     <row r="641">
-      <c r="G641" s="47"/>
-      <c r="H641" s="48"/>
-      <c r="K641" s="46"/>
+      <c r="G641" s="48"/>
+      <c r="H641" s="49"/>
+      <c r="K641" s="47"/>
     </row>
     <row r="642">
-      <c r="G642" s="47"/>
-      <c r="H642" s="48"/>
-      <c r="K642" s="46"/>
+      <c r="G642" s="48"/>
+      <c r="H642" s="49"/>
+      <c r="K642" s="47"/>
     </row>
     <row r="643">
-      <c r="G643" s="47"/>
-      <c r="H643" s="48"/>
-      <c r="K643" s="46"/>
+      <c r="G643" s="48"/>
+      <c r="H643" s="49"/>
+      <c r="K643" s="47"/>
     </row>
     <row r="644">
-      <c r="G644" s="47"/>
-      <c r="H644" s="48"/>
-      <c r="K644" s="46"/>
+      <c r="G644" s="48"/>
+      <c r="H644" s="49"/>
+      <c r="K644" s="47"/>
     </row>
     <row r="645">
-      <c r="G645" s="47"/>
-      <c r="H645" s="48"/>
-      <c r="K645" s="46"/>
+      <c r="G645" s="48"/>
+      <c r="H645" s="49"/>
+      <c r="K645" s="47"/>
     </row>
     <row r="646">
-      <c r="G646" s="47"/>
-      <c r="H646" s="48"/>
-      <c r="K646" s="46"/>
+      <c r="G646" s="48"/>
+      <c r="H646" s="49"/>
+      <c r="K646" s="47"/>
     </row>
     <row r="647">
-      <c r="G647" s="47"/>
-      <c r="H647" s="48"/>
-      <c r="K647" s="46"/>
+      <c r="G647" s="48"/>
+      <c r="H647" s="49"/>
+      <c r="K647" s="47"/>
     </row>
     <row r="648">
-      <c r="G648" s="47"/>
-      <c r="H648" s="48"/>
-      <c r="K648" s="46"/>
+      <c r="G648" s="48"/>
+      <c r="H648" s="49"/>
+      <c r="K648" s="47"/>
     </row>
     <row r="649">
-      <c r="G649" s="47"/>
-      <c r="H649" s="48"/>
-      <c r="K649" s="46"/>
+      <c r="G649" s="48"/>
+      <c r="H649" s="49"/>
+      <c r="K649" s="47"/>
     </row>
     <row r="650">
-      <c r="G650" s="47"/>
-      <c r="H650" s="48"/>
-      <c r="K650" s="46"/>
+      <c r="G650" s="48"/>
+      <c r="H650" s="49"/>
+      <c r="K650" s="47"/>
     </row>
     <row r="651">
-      <c r="G651" s="47"/>
-      <c r="H651" s="48"/>
-      <c r="K651" s="46"/>
+      <c r="G651" s="48"/>
+      <c r="H651" s="49"/>
+      <c r="K651" s="47"/>
     </row>
     <row r="652">
-      <c r="G652" s="47"/>
-      <c r="H652" s="48"/>
-      <c r="K652" s="46"/>
+      <c r="G652" s="48"/>
+      <c r="H652" s="49"/>
+      <c r="K652" s="47"/>
     </row>
     <row r="653">
-      <c r="G653" s="47"/>
-      <c r="H653" s="48"/>
-      <c r="K653" s="46"/>
+      <c r="G653" s="48"/>
+      <c r="H653" s="49"/>
+      <c r="K653" s="47"/>
     </row>
     <row r="654">
-      <c r="G654" s="47"/>
-      <c r="H654" s="48"/>
-      <c r="K654" s="46"/>
+      <c r="G654" s="48"/>
+      <c r="H654" s="49"/>
+      <c r="K654" s="47"/>
     </row>
     <row r="655">
-      <c r="G655" s="47"/>
-      <c r="H655" s="48"/>
-      <c r="K655" s="46"/>
+      <c r="G655" s="48"/>
+      <c r="H655" s="49"/>
+      <c r="K655" s="47"/>
     </row>
     <row r="656">
-      <c r="G656" s="47"/>
-      <c r="H656" s="48"/>
-      <c r="K656" s="46"/>
+      <c r="G656" s="48"/>
+      <c r="H656" s="49"/>
+      <c r="K656" s="47"/>
     </row>
     <row r="657">
-      <c r="G657" s="47"/>
-      <c r="H657" s="48"/>
-      <c r="K657" s="46"/>
+      <c r="G657" s="48"/>
+      <c r="H657" s="49"/>
+      <c r="K657" s="47"/>
     </row>
     <row r="658">
-      <c r="G658" s="47"/>
-      <c r="H658" s="48"/>
-      <c r="K658" s="46"/>
+      <c r="G658" s="48"/>
+      <c r="H658" s="49"/>
+      <c r="K658" s="47"/>
     </row>
     <row r="659">
-      <c r="G659" s="47"/>
-      <c r="H659" s="48"/>
-      <c r="K659" s="46"/>
+      <c r="G659" s="48"/>
+      <c r="H659" s="49"/>
+      <c r="K659" s="47"/>
     </row>
     <row r="660">
-      <c r="G660" s="47"/>
-      <c r="H660" s="48"/>
-      <c r="K660" s="46"/>
+      <c r="G660" s="48"/>
+      <c r="H660" s="49"/>
+      <c r="K660" s="47"/>
     </row>
     <row r="661">
-      <c r="G661" s="47"/>
-      <c r="H661" s="48"/>
-      <c r="K661" s="46"/>
+      <c r="G661" s="48"/>
+      <c r="H661" s="49"/>
+      <c r="K661" s="47"/>
     </row>
     <row r="662">
-      <c r="G662" s="47"/>
-      <c r="H662" s="48"/>
-      <c r="K662" s="46"/>
+      <c r="G662" s="48"/>
+      <c r="H662" s="49"/>
+      <c r="K662" s="47"/>
     </row>
     <row r="663">
-      <c r="G663" s="47"/>
-      <c r="H663" s="48"/>
-      <c r="K663" s="46"/>
+      <c r="G663" s="48"/>
+      <c r="H663" s="49"/>
+      <c r="K663" s="47"/>
     </row>
     <row r="664">
-      <c r="G664" s="47"/>
-      <c r="H664" s="48"/>
-      <c r="K664" s="46"/>
+      <c r="G664" s="48"/>
+      <c r="H664" s="49"/>
+      <c r="K664" s="47"/>
     </row>
     <row r="665">
-      <c r="G665" s="47"/>
-      <c r="H665" s="48"/>
-      <c r="K665" s="46"/>
+      <c r="G665" s="48"/>
+      <c r="H665" s="49"/>
+      <c r="K665" s="47"/>
     </row>
     <row r="666">
-      <c r="G666" s="47"/>
-      <c r="H666" s="48"/>
-      <c r="K666" s="46"/>
+      <c r="G666" s="48"/>
+      <c r="H666" s="49"/>
+      <c r="K666" s="47"/>
     </row>
     <row r="667">
-      <c r="G667" s="47"/>
-      <c r="H667" s="48"/>
-      <c r="K667" s="46"/>
+      <c r="G667" s="48"/>
+      <c r="H667" s="49"/>
+      <c r="K667" s="47"/>
     </row>
     <row r="668">
-      <c r="G668" s="47"/>
-      <c r="H668" s="48"/>
-      <c r="K668" s="46"/>
+      <c r="G668" s="48"/>
+      <c r="H668" s="49"/>
+      <c r="K668" s="47"/>
     </row>
     <row r="669">
-      <c r="G669" s="47"/>
-      <c r="H669" s="48"/>
-      <c r="K669" s="46"/>
+      <c r="G669" s="48"/>
+      <c r="H669" s="49"/>
+      <c r="K669" s="47"/>
     </row>
     <row r="670">
-      <c r="G670" s="47"/>
-      <c r="H670" s="48"/>
-      <c r="K670" s="46"/>
+      <c r="G670" s="48"/>
+      <c r="H670" s="49"/>
+      <c r="K670" s="47"/>
     </row>
     <row r="671">
-      <c r="G671" s="47"/>
-      <c r="H671" s="48"/>
-      <c r="K671" s="46"/>
+      <c r="G671" s="48"/>
+      <c r="H671" s="49"/>
+      <c r="K671" s="47"/>
     </row>
     <row r="672">
-      <c r="G672" s="47"/>
-      <c r="H672" s="48"/>
-      <c r="K672" s="46"/>
+      <c r="G672" s="48"/>
+      <c r="H672" s="49"/>
+      <c r="K672" s="47"/>
     </row>
     <row r="673">
-      <c r="G673" s="47"/>
-      <c r="H673" s="48"/>
-      <c r="K673" s="46"/>
+      <c r="G673" s="48"/>
+      <c r="H673" s="49"/>
+      <c r="K673" s="47"/>
     </row>
     <row r="674">
-      <c r="G674" s="47"/>
-      <c r="H674" s="48"/>
-      <c r="K674" s="46"/>
+      <c r="G674" s="48"/>
+      <c r="H674" s="49"/>
+      <c r="K674" s="47"/>
     </row>
     <row r="675">
-      <c r="G675" s="47"/>
-      <c r="H675" s="48"/>
-      <c r="K675" s="46"/>
+      <c r="G675" s="48"/>
+      <c r="H675" s="49"/>
+      <c r="K675" s="47"/>
     </row>
     <row r="676">
-      <c r="G676" s="47"/>
-      <c r="H676" s="48"/>
-      <c r="K676" s="46"/>
+      <c r="G676" s="48"/>
+      <c r="H676" s="49"/>
+      <c r="K676" s="47"/>
     </row>
     <row r="677">
-      <c r="G677" s="47"/>
-      <c r="H677" s="48"/>
-      <c r="K677" s="46"/>
+      <c r="G677" s="48"/>
+      <c r="H677" s="49"/>
+      <c r="K677" s="47"/>
     </row>
     <row r="678">
-      <c r="G678" s="47"/>
-      <c r="H678" s="48"/>
-      <c r="K678" s="46"/>
+      <c r="G678" s="48"/>
+      <c r="H678" s="49"/>
+      <c r="K678" s="47"/>
     </row>
     <row r="679">
-      <c r="G679" s="47"/>
-      <c r="H679" s="48"/>
-      <c r="K679" s="46"/>
+      <c r="G679" s="48"/>
+      <c r="H679" s="49"/>
+      <c r="K679" s="47"/>
     </row>
     <row r="680">
-      <c r="G680" s="47"/>
-      <c r="H680" s="48"/>
-      <c r="K680" s="46"/>
+      <c r="G680" s="48"/>
+      <c r="H680" s="49"/>
+      <c r="K680" s="47"/>
     </row>
     <row r="681">
-      <c r="G681" s="47"/>
-      <c r="H681" s="48"/>
-      <c r="K681" s="46"/>
+      <c r="G681" s="48"/>
+      <c r="H681" s="49"/>
+      <c r="K681" s="47"/>
     </row>
     <row r="682">
-      <c r="G682" s="47"/>
-      <c r="H682" s="48"/>
-      <c r="K682" s="46"/>
+      <c r="G682" s="48"/>
+      <c r="H682" s="49"/>
+      <c r="K682" s="47"/>
     </row>
     <row r="683">
-      <c r="G683" s="47"/>
-      <c r="H683" s="48"/>
-      <c r="K683" s="46"/>
+      <c r="G683" s="48"/>
+      <c r="H683" s="49"/>
+      <c r="K683" s="47"/>
     </row>
     <row r="684">
-      <c r="G684" s="47"/>
-      <c r="H684" s="48"/>
-      <c r="K684" s="46"/>
+      <c r="G684" s="48"/>
+      <c r="H684" s="49"/>
+      <c r="K684" s="47"/>
     </row>
     <row r="685">
-      <c r="G685" s="47"/>
-      <c r="H685" s="48"/>
-      <c r="K685" s="46"/>
+      <c r="G685" s="48"/>
+      <c r="H685" s="49"/>
+      <c r="K685" s="47"/>
     </row>
     <row r="686">
-      <c r="G686" s="47"/>
-      <c r="H686" s="48"/>
-      <c r="K686" s="46"/>
+      <c r="G686" s="48"/>
+      <c r="H686" s="49"/>
+      <c r="K686" s="47"/>
     </row>
     <row r="687">
-      <c r="G687" s="47"/>
-      <c r="H687" s="48"/>
-      <c r="K687" s="46"/>
+      <c r="G687" s="48"/>
+      <c r="H687" s="49"/>
+      <c r="K687" s="47"/>
     </row>
     <row r="688">
-      <c r="G688" s="47"/>
-      <c r="H688" s="48"/>
-      <c r="K688" s="46"/>
+      <c r="G688" s="48"/>
+      <c r="H688" s="49"/>
+      <c r="K688" s="47"/>
     </row>
     <row r="689">
-      <c r="G689" s="47"/>
-      <c r="H689" s="48"/>
-      <c r="K689" s="46"/>
+      <c r="G689" s="48"/>
+      <c r="H689" s="49"/>
+      <c r="K689" s="47"/>
     </row>
     <row r="690">
-      <c r="G690" s="47"/>
-      <c r="H690" s="48"/>
-      <c r="K690" s="46"/>
+      <c r="G690" s="48"/>
+      <c r="H690" s="49"/>
+      <c r="K690" s="47"/>
     </row>
     <row r="691">
-      <c r="G691" s="47"/>
-      <c r="H691" s="48"/>
-      <c r="K691" s="46"/>
+      <c r="G691" s="48"/>
+      <c r="H691" s="49"/>
+      <c r="K691" s="47"/>
     </row>
     <row r="692">
-      <c r="G692" s="47"/>
-      <c r="H692" s="48"/>
-      <c r="K692" s="46"/>
+      <c r="G692" s="48"/>
+      <c r="H692" s="49"/>
+      <c r="K692" s="47"/>
     </row>
     <row r="693">
-      <c r="G693" s="47"/>
-      <c r="H693" s="48"/>
-      <c r="K693" s="46"/>
+      <c r="G693" s="48"/>
+      <c r="H693" s="49"/>
+      <c r="K693" s="47"/>
     </row>
     <row r="694">
-      <c r="G694" s="47"/>
-      <c r="H694" s="48"/>
-      <c r="K694" s="46"/>
+      <c r="G694" s="48"/>
+      <c r="H694" s="49"/>
+      <c r="K694" s="47"/>
     </row>
     <row r="695">
-      <c r="G695" s="47"/>
-      <c r="H695" s="48"/>
-      <c r="K695" s="46"/>
+      <c r="G695" s="48"/>
+      <c r="H695" s="49"/>
+      <c r="K695" s="47"/>
     </row>
     <row r="696">
-      <c r="G696" s="47"/>
-      <c r="H696" s="48"/>
-      <c r="K696" s="46"/>
+      <c r="G696" s="48"/>
+      <c r="H696" s="49"/>
+      <c r="K696" s="47"/>
     </row>
     <row r="697">
-      <c r="G697" s="47"/>
-      <c r="H697" s="48"/>
-      <c r="K697" s="46"/>
+      <c r="G697" s="48"/>
+      <c r="H697" s="49"/>
+      <c r="K697" s="47"/>
     </row>
     <row r="698">
-      <c r="G698" s="47"/>
-      <c r="H698" s="48"/>
-      <c r="K698" s="46"/>
+      <c r="G698" s="48"/>
+      <c r="H698" s="49"/>
+      <c r="K698" s="47"/>
     </row>
     <row r="699">
-      <c r="G699" s="47"/>
-      <c r="H699" s="48"/>
-      <c r="K699" s="46"/>
+      <c r="G699" s="48"/>
+      <c r="H699" s="49"/>
+      <c r="K699" s="47"/>
     </row>
     <row r="700">
-      <c r="G700" s="47"/>
-      <c r="H700" s="48"/>
-      <c r="K700" s="46"/>
+      <c r="G700" s="48"/>
+      <c r="H700" s="49"/>
+      <c r="K700" s="47"/>
     </row>
     <row r="701">
-      <c r="G701" s="47"/>
-      <c r="H701" s="48"/>
-      <c r="K701" s="46"/>
+      <c r="G701" s="48"/>
+      <c r="H701" s="49"/>
+      <c r="K701" s="47"/>
     </row>
     <row r="702">
-      <c r="G702" s="47"/>
-      <c r="H702" s="48"/>
-      <c r="K702" s="46"/>
+      <c r="G702" s="48"/>
+      <c r="H702" s="49"/>
+      <c r="K702" s="47"/>
     </row>
     <row r="703">
-      <c r="G703" s="47"/>
-      <c r="H703" s="48"/>
-      <c r="K703" s="46"/>
+      <c r="G703" s="48"/>
+      <c r="H703" s="49"/>
+      <c r="K703" s="47"/>
     </row>
     <row r="704">
-      <c r="G704" s="47"/>
-      <c r="H704" s="48"/>
-      <c r="K704" s="46"/>
+      <c r="G704" s="48"/>
+      <c r="H704" s="49"/>
+      <c r="K704" s="47"/>
     </row>
     <row r="705">
-      <c r="G705" s="47"/>
-      <c r="H705" s="48"/>
-      <c r="K705" s="46"/>
+      <c r="G705" s="48"/>
+      <c r="H705" s="49"/>
+      <c r="K705" s="47"/>
     </row>
     <row r="706">
-      <c r="G706" s="47"/>
-      <c r="H706" s="48"/>
-      <c r="K706" s="46"/>
+      <c r="G706" s="48"/>
+      <c r="H706" s="49"/>
+      <c r="K706" s="47"/>
     </row>
     <row r="707">
-      <c r="G707" s="47"/>
-      <c r="H707" s="48"/>
-      <c r="K707" s="46"/>
+      <c r="G707" s="48"/>
+      <c r="H707" s="49"/>
+      <c r="K707" s="47"/>
     </row>
     <row r="708">
-      <c r="G708" s="47"/>
-      <c r="H708" s="48"/>
-      <c r="K708" s="46"/>
+      <c r="G708" s="48"/>
+      <c r="H708" s="49"/>
+      <c r="K708" s="47"/>
     </row>
     <row r="709">
-      <c r="G709" s="47"/>
-      <c r="H709" s="48"/>
-      <c r="K709" s="46"/>
+      <c r="G709" s="48"/>
+      <c r="H709" s="49"/>
+      <c r="K709" s="47"/>
     </row>
     <row r="710">
-      <c r="G710" s="47"/>
-      <c r="H710" s="48"/>
-      <c r="K710" s="46"/>
+      <c r="G710" s="48"/>
+      <c r="H710" s="49"/>
+      <c r="K710" s="47"/>
     </row>
     <row r="711">
-      <c r="G711" s="47"/>
-      <c r="H711" s="48"/>
-      <c r="K711" s="46"/>
+      <c r="G711" s="48"/>
+      <c r="H711" s="49"/>
+      <c r="K711" s="47"/>
     </row>
     <row r="712">
-      <c r="G712" s="47"/>
-      <c r="H712" s="48"/>
-      <c r="K712" s="46"/>
+      <c r="G712" s="48"/>
+      <c r="H712" s="49"/>
+      <c r="K712" s="47"/>
     </row>
     <row r="713">
-      <c r="G713" s="47"/>
-      <c r="H713" s="48"/>
-      <c r="K713" s="46"/>
+      <c r="G713" s="48"/>
+      <c r="H713" s="49"/>
+      <c r="K713" s="47"/>
     </row>
     <row r="714">
-      <c r="G714" s="47"/>
-      <c r="H714" s="48"/>
-      <c r="K714" s="46"/>
+      <c r="G714" s="48"/>
+      <c r="H714" s="49"/>
+      <c r="K714" s="47"/>
     </row>
     <row r="715">
-      <c r="G715" s="47"/>
-      <c r="H715" s="48"/>
-      <c r="K715" s="46"/>
+      <c r="G715" s="48"/>
+      <c r="H715" s="49"/>
+      <c r="K715" s="47"/>
     </row>
     <row r="716">
-      <c r="G716" s="47"/>
-      <c r="H716" s="48"/>
-      <c r="K716" s="46"/>
+      <c r="G716" s="48"/>
+      <c r="H716" s="49"/>
+      <c r="K716" s="47"/>
     </row>
     <row r="717">
-      <c r="G717" s="47"/>
-      <c r="H717" s="48"/>
-      <c r="K717" s="46"/>
+      <c r="G717" s="48"/>
+      <c r="H717" s="49"/>
+      <c r="K717" s="47"/>
     </row>
     <row r="718">
-      <c r="G718" s="47"/>
-      <c r="H718" s="48"/>
-      <c r="K718" s="46"/>
+      <c r="G718" s="48"/>
+      <c r="H718" s="49"/>
+      <c r="K718" s="47"/>
     </row>
     <row r="719">
-      <c r="G719" s="47"/>
-      <c r="H719" s="48"/>
-      <c r="K719" s="46"/>
+      <c r="G719" s="48"/>
+      <c r="H719" s="49"/>
+      <c r="K719" s="47"/>
     </row>
     <row r="720">
-      <c r="G720" s="47"/>
-      <c r="H720" s="48"/>
-      <c r="K720" s="46"/>
+      <c r="G720" s="48"/>
+      <c r="H720" s="49"/>
+      <c r="K720" s="47"/>
     </row>
     <row r="721">
-      <c r="G721" s="47"/>
-      <c r="H721" s="48"/>
-      <c r="K721" s="46"/>
+      <c r="G721" s="48"/>
+      <c r="H721" s="49"/>
+      <c r="K721" s="47"/>
     </row>
     <row r="722">
-      <c r="G722" s="47"/>
-      <c r="H722" s="48"/>
-      <c r="K722" s="46"/>
+      <c r="G722" s="48"/>
+      <c r="H722" s="49"/>
+      <c r="K722" s="47"/>
     </row>
     <row r="723">
-      <c r="G723" s="47"/>
-      <c r="H723" s="48"/>
-      <c r="K723" s="46"/>
+      <c r="G723" s="48"/>
+      <c r="H723" s="49"/>
+      <c r="K723" s="47"/>
     </row>
     <row r="724">
-      <c r="G724" s="47"/>
-      <c r="H724" s="48"/>
-      <c r="K724" s="46"/>
+      <c r="G724" s="48"/>
+      <c r="H724" s="49"/>
+      <c r="K724" s="47"/>
     </row>
     <row r="725">
-      <c r="G725" s="47"/>
-      <c r="H725" s="48"/>
-      <c r="K725" s="46"/>
+      <c r="G725" s="48"/>
+      <c r="H725" s="49"/>
+      <c r="K725" s="47"/>
     </row>
     <row r="726">
-      <c r="G726" s="47"/>
-      <c r="H726" s="48"/>
-      <c r="K726" s="46"/>
+      <c r="G726" s="48"/>
+      <c r="H726" s="49"/>
+      <c r="K726" s="47"/>
     </row>
     <row r="727">
-      <c r="G727" s="47"/>
-      <c r="H727" s="48"/>
-      <c r="K727" s="46"/>
+      <c r="G727" s="48"/>
+      <c r="H727" s="49"/>
+      <c r="K727" s="47"/>
     </row>
     <row r="728">
-      <c r="G728" s="47"/>
-      <c r="H728" s="48"/>
-      <c r="K728" s="46"/>
+      <c r="G728" s="48"/>
+      <c r="H728" s="49"/>
+      <c r="K728" s="47"/>
     </row>
     <row r="729">
-      <c r="G729" s="47"/>
-      <c r="H729" s="48"/>
-      <c r="K729" s="46"/>
+      <c r="G729" s="48"/>
+      <c r="H729" s="49"/>
+      <c r="K729" s="47"/>
     </row>
     <row r="730">
-      <c r="G730" s="47"/>
-      <c r="H730" s="48"/>
-      <c r="K730" s="46"/>
+      <c r="G730" s="48"/>
+      <c r="H730" s="49"/>
+      <c r="K730" s="47"/>
     </row>
     <row r="731">
-      <c r="G731" s="47"/>
-      <c r="H731" s="48"/>
-      <c r="K731" s="46"/>
+      <c r="G731" s="48"/>
+      <c r="H731" s="49"/>
+      <c r="K731" s="47"/>
     </row>
     <row r="732">
-      <c r="G732" s="47"/>
-      <c r="H732" s="48"/>
-      <c r="K732" s="46"/>
+      <c r="G732" s="48"/>
+      <c r="H732" s="49"/>
+      <c r="K732" s="47"/>
     </row>
     <row r="733">
-      <c r="G733" s="47"/>
-      <c r="H733" s="48"/>
-      <c r="K733" s="46"/>
+      <c r="G733" s="48"/>
+      <c r="H733" s="49"/>
+      <c r="K733" s="47"/>
     </row>
     <row r="734">
-      <c r="G734" s="47"/>
-      <c r="H734" s="48"/>
-      <c r="K734" s="46"/>
+      <c r="G734" s="48"/>
+      <c r="H734" s="49"/>
+      <c r="K734" s="47"/>
     </row>
     <row r="735">
-      <c r="G735" s="47"/>
-      <c r="H735" s="48"/>
-      <c r="K735" s="46"/>
+      <c r="G735" s="48"/>
+      <c r="H735" s="49"/>
+      <c r="K735" s="47"/>
     </row>
     <row r="736">
-      <c r="G736" s="47"/>
-      <c r="H736" s="48"/>
-      <c r="K736" s="46"/>
+      <c r="G736" s="48"/>
+      <c r="H736" s="49"/>
+      <c r="K736" s="47"/>
     </row>
     <row r="737">
-      <c r="G737" s="47"/>
-      <c r="H737" s="48"/>
-      <c r="K737" s="46"/>
+      <c r="G737" s="48"/>
+      <c r="H737" s="49"/>
+      <c r="K737" s="47"/>
     </row>
     <row r="738">
-      <c r="G738" s="47"/>
-      <c r="H738" s="48"/>
-      <c r="K738" s="46"/>
+      <c r="G738" s="48"/>
+      <c r="H738" s="49"/>
+      <c r="K738" s="47"/>
     </row>
     <row r="739">
-      <c r="G739" s="47"/>
-      <c r="H739" s="48"/>
-      <c r="K739" s="46"/>
+      <c r="G739" s="48"/>
+      <c r="H739" s="49"/>
+      <c r="K739" s="47"/>
     </row>
     <row r="740">
-      <c r="G740" s="47"/>
-      <c r="H740" s="48"/>
-      <c r="K740" s="46"/>
+      <c r="G740" s="48"/>
+      <c r="H740" s="49"/>
+      <c r="K740" s="47"/>
     </row>
     <row r="741">
-      <c r="G741" s="47"/>
-      <c r="H741" s="48"/>
-      <c r="K741" s="46"/>
+      <c r="G741" s="48"/>
+      <c r="H741" s="49"/>
+      <c r="K741" s="47"/>
     </row>
     <row r="742">
-      <c r="G742" s="47"/>
-      <c r="H742" s="48"/>
-      <c r="K742" s="46"/>
+      <c r="G742" s="48"/>
+      <c r="H742" s="49"/>
+      <c r="K742" s="47"/>
     </row>
     <row r="743">
-      <c r="G743" s="47"/>
-      <c r="H743" s="48"/>
-      <c r="K743" s="46"/>
+      <c r="G743" s="48"/>
+      <c r="H743" s="49"/>
+      <c r="K743" s="47"/>
     </row>
     <row r="744">
-      <c r="G744" s="47"/>
-      <c r="H744" s="48"/>
-      <c r="K744" s="46"/>
+      <c r="G744" s="48"/>
+      <c r="H744" s="49"/>
+      <c r="K744" s="47"/>
     </row>
     <row r="745">
-      <c r="G745" s="47"/>
-      <c r="H745" s="48"/>
-      <c r="K745" s="46"/>
+      <c r="G745" s="48"/>
+      <c r="H745" s="49"/>
+      <c r="K745" s="47"/>
     </row>
     <row r="746">
-      <c r="G746" s="47"/>
-      <c r="H746" s="48"/>
-      <c r="K746" s="46"/>
+      <c r="G746" s="48"/>
+      <c r="H746" s="49"/>
+      <c r="K746" s="47"/>
     </row>
     <row r="747">
-      <c r="G747" s="47"/>
-      <c r="H747" s="48"/>
-      <c r="K747" s="46"/>
+      <c r="G747" s="48"/>
+      <c r="H747" s="49"/>
+      <c r="K747" s="47"/>
     </row>
     <row r="748">
-      <c r="G748" s="47"/>
-      <c r="H748" s="48"/>
-      <c r="K748" s="46"/>
+      <c r="G748" s="48"/>
+      <c r="H748" s="49"/>
+      <c r="K748" s="47"/>
     </row>
     <row r="749">
-      <c r="G749" s="47"/>
-      <c r="H749" s="48"/>
-      <c r="K749" s="46"/>
+      <c r="G749" s="48"/>
+      <c r="H749" s="49"/>
+      <c r="K749" s="47"/>
     </row>
     <row r="750">
-      <c r="G750" s="47"/>
-      <c r="H750" s="48"/>
-      <c r="K750" s="46"/>
+      <c r="G750" s="48"/>
+      <c r="H750" s="49"/>
+      <c r="K750" s="47"/>
     </row>
     <row r="751">
-      <c r="G751" s="47"/>
-      <c r="H751" s="48"/>
-      <c r="K751" s="46"/>
+      <c r="G751" s="48"/>
+      <c r="H751" s="49"/>
+      <c r="K751" s="47"/>
     </row>
     <row r="752">
-      <c r="G752" s="47"/>
-      <c r="H752" s="48"/>
-      <c r="K752" s="46"/>
+      <c r="G752" s="48"/>
+      <c r="H752" s="49"/>
+      <c r="K752" s="47"/>
     </row>
     <row r="753">
-      <c r="G753" s="47"/>
-      <c r="H753" s="48"/>
-      <c r="K753" s="46"/>
+      <c r="G753" s="48"/>
+      <c r="H753" s="49"/>
+      <c r="K753" s="47"/>
     </row>
     <row r="754">
-      <c r="G754" s="47"/>
-      <c r="H754" s="48"/>
-      <c r="K754" s="46"/>
+      <c r="G754" s="48"/>
+      <c r="H754" s="49"/>
+      <c r="K754" s="47"/>
     </row>
     <row r="755">
-      <c r="G755" s="47"/>
-      <c r="H755" s="48"/>
-      <c r="K755" s="46"/>
+      <c r="G755" s="48"/>
+      <c r="H755" s="49"/>
+      <c r="K755" s="47"/>
     </row>
     <row r="756">
-      <c r="G756" s="47"/>
-      <c r="H756" s="48"/>
-      <c r="K756" s="46"/>
+      <c r="G756" s="48"/>
+      <c r="H756" s="49"/>
+      <c r="K756" s="47"/>
     </row>
     <row r="757">
-      <c r="G757" s="47"/>
-      <c r="H757" s="48"/>
-      <c r="K757" s="46"/>
+      <c r="G757" s="48"/>
+      <c r="H757" s="49"/>
+      <c r="K757" s="47"/>
     </row>
     <row r="758">
-      <c r="G758" s="47"/>
-      <c r="H758" s="48"/>
-      <c r="K758" s="46"/>
+      <c r="G758" s="48"/>
+      <c r="H758" s="49"/>
+      <c r="K758" s="47"/>
     </row>
     <row r="759">
-      <c r="G759" s="47"/>
-      <c r="H759" s="48"/>
-      <c r="K759" s="46"/>
+      <c r="G759" s="48"/>
+      <c r="H759" s="49"/>
+      <c r="K759" s="47"/>
     </row>
     <row r="760">
-      <c r="G760" s="47"/>
-      <c r="H760" s="48"/>
-      <c r="K760" s="46"/>
+      <c r="G760" s="48"/>
+      <c r="H760" s="49"/>
+      <c r="K760" s="47"/>
     </row>
     <row r="761">
-      <c r="G761" s="47"/>
-      <c r="H761" s="48"/>
-      <c r="K761" s="46"/>
+      <c r="G761" s="48"/>
+      <c r="H761" s="49"/>
+      <c r="K761" s="47"/>
     </row>
     <row r="762">
-      <c r="G762" s="47"/>
-      <c r="H762" s="48"/>
-      <c r="K762" s="46"/>
+      <c r="G762" s="48"/>
+      <c r="H762" s="49"/>
+      <c r="K762" s="47"/>
     </row>
     <row r="763">
-      <c r="G763" s="47"/>
-      <c r="H763" s="48"/>
-      <c r="K763" s="46"/>
+      <c r="G763" s="48"/>
+      <c r="H763" s="49"/>
+      <c r="K763" s="47"/>
     </row>
     <row r="764">
-      <c r="G764" s="47"/>
-      <c r="H764" s="48"/>
-      <c r="K764" s="46"/>
+      <c r="G764" s="48"/>
+      <c r="H764" s="49"/>
+      <c r="K764" s="47"/>
     </row>
     <row r="765">
-      <c r="G765" s="47"/>
-      <c r="H765" s="48"/>
-      <c r="K765" s="46"/>
+      <c r="G765" s="48"/>
+      <c r="H765" s="49"/>
+      <c r="K765" s="47"/>
     </row>
     <row r="766">
-      <c r="G766" s="47"/>
-      <c r="H766" s="48"/>
-      <c r="K766" s="46"/>
+      <c r="G766" s="48"/>
+      <c r="H766" s="49"/>
+      <c r="K766" s="47"/>
     </row>
     <row r="767">
-      <c r="G767" s="47"/>
-      <c r="H767" s="48"/>
-      <c r="K767" s="46"/>
+      <c r="G767" s="48"/>
+      <c r="H767" s="49"/>
+      <c r="K767" s="47"/>
     </row>
     <row r="768">
-      <c r="G768" s="47"/>
-      <c r="H768" s="48"/>
-      <c r="K768" s="46"/>
+      <c r="G768" s="48"/>
+      <c r="H768" s="49"/>
+      <c r="K768" s="47"/>
     </row>
     <row r="769">
-      <c r="G769" s="47"/>
-      <c r="H769" s="48"/>
-      <c r="K769" s="46"/>
+      <c r="G769" s="48"/>
+      <c r="H769" s="49"/>
+      <c r="K769" s="47"/>
     </row>
     <row r="770">
-      <c r="G770" s="47"/>
-      <c r="H770" s="48"/>
-      <c r="K770" s="46"/>
+      <c r="G770" s="48"/>
+      <c r="H770" s="49"/>
+      <c r="K770" s="47"/>
     </row>
     <row r="771">
-      <c r="G771" s="47"/>
-      <c r="H771" s="48"/>
-      <c r="K771" s="46"/>
+      <c r="G771" s="48"/>
+      <c r="H771" s="49"/>
+      <c r="K771" s="47"/>
     </row>
     <row r="772">
-      <c r="G772" s="47"/>
-      <c r="H772" s="48"/>
-      <c r="K772" s="46"/>
+      <c r="G772" s="48"/>
+      <c r="H772" s="49"/>
+      <c r="K772" s="47"/>
     </row>
     <row r="773">
-      <c r="G773" s="47"/>
-      <c r="H773" s="48"/>
-      <c r="K773" s="46"/>
+      <c r="G773" s="48"/>
+      <c r="H773" s="49"/>
+      <c r="K773" s="47"/>
     </row>
     <row r="774">
-      <c r="G774" s="47"/>
-      <c r="H774" s="48"/>
-      <c r="K774" s="46"/>
+      <c r="G774" s="48"/>
+      <c r="H774" s="49"/>
+      <c r="K774" s="47"/>
     </row>
     <row r="775">
-      <c r="G775" s="47"/>
-      <c r="H775" s="48"/>
-      <c r="K775" s="46"/>
+      <c r="G775" s="48"/>
+      <c r="H775" s="49"/>
+      <c r="K775" s="47"/>
     </row>
     <row r="776">
-      <c r="G776" s="47"/>
-      <c r="H776" s="48"/>
-      <c r="K776" s="46"/>
+      <c r="G776" s="48"/>
+      <c r="H776" s="49"/>
+      <c r="K776" s="47"/>
     </row>
     <row r="777">
-      <c r="G777" s="47"/>
-      <c r="H777" s="48"/>
-      <c r="K777" s="46"/>
+      <c r="G777" s="48"/>
+      <c r="H777" s="49"/>
+      <c r="K777" s="47"/>
     </row>
     <row r="778">
-      <c r="G778" s="47"/>
-      <c r="H778" s="48"/>
-      <c r="K778" s="46"/>
+      <c r="G778" s="48"/>
+      <c r="H778" s="49"/>
+      <c r="K778" s="47"/>
     </row>
     <row r="779">
-      <c r="G779" s="47"/>
-      <c r="H779" s="48"/>
-      <c r="K779" s="46"/>
+      <c r="G779" s="48"/>
+      <c r="H779" s="49"/>
+      <c r="K779" s="47"/>
     </row>
     <row r="780">
-      <c r="G780" s="47"/>
-      <c r="H780" s="48"/>
-      <c r="K780" s="46"/>
+      <c r="G780" s="48"/>
+      <c r="H780" s="49"/>
+      <c r="K780" s="47"/>
     </row>
     <row r="781">
-      <c r="G781" s="47"/>
-      <c r="H781" s="48"/>
-      <c r="K781" s="46"/>
+      <c r="G781" s="48"/>
+      <c r="H781" s="49"/>
+      <c r="K781" s="47"/>
     </row>
     <row r="782">
-      <c r="G782" s="47"/>
-      <c r="H782" s="48"/>
-      <c r="K782" s="46"/>
+      <c r="G782" s="48"/>
+      <c r="H782" s="49"/>
+      <c r="K782" s="47"/>
     </row>
     <row r="783">
-      <c r="G783" s="47"/>
-      <c r="H783" s="48"/>
-      <c r="K783" s="46"/>
+      <c r="G783" s="48"/>
+      <c r="H783" s="49"/>
+      <c r="K783" s="47"/>
     </row>
     <row r="784">
-      <c r="G784" s="47"/>
-      <c r="H784" s="48"/>
-      <c r="K784" s="46"/>
+      <c r="G784" s="48"/>
+      <c r="H784" s="49"/>
+      <c r="K784" s="47"/>
     </row>
     <row r="785">
-      <c r="G785" s="47"/>
-      <c r="H785" s="48"/>
-      <c r="K785" s="46"/>
+      <c r="G785" s="48"/>
+      <c r="H785" s="49"/>
+      <c r="K785" s="47"/>
     </row>
     <row r="786">
-      <c r="G786" s="47"/>
-      <c r="H786" s="48"/>
-      <c r="K786" s="46"/>
+      <c r="G786" s="48"/>
+      <c r="H786" s="49"/>
+      <c r="K786" s="47"/>
     </row>
     <row r="787">
-      <c r="G787" s="47"/>
-      <c r="H787" s="48"/>
-      <c r="K787" s="46"/>
+      <c r="G787" s="48"/>
+      <c r="H787" s="49"/>
+      <c r="K787" s="47"/>
     </row>
     <row r="788">
-      <c r="G788" s="47"/>
-      <c r="H788" s="48"/>
-      <c r="K788" s="46"/>
+      <c r="G788" s="48"/>
+      <c r="H788" s="49"/>
+      <c r="K788" s="47"/>
     </row>
     <row r="789">
-      <c r="G789" s="47"/>
-      <c r="H789" s="48"/>
-      <c r="K789" s="46"/>
+      <c r="G789" s="48"/>
+      <c r="H789" s="49"/>
+      <c r="K789" s="47"/>
     </row>
     <row r="790">
-      <c r="G790" s="47"/>
-      <c r="H790" s="48"/>
-      <c r="K790" s="46"/>
+      <c r="G790" s="48"/>
+      <c r="H790" s="49"/>
+      <c r="K790" s="47"/>
     </row>
     <row r="791">
-      <c r="G791" s="47"/>
-      <c r="H791" s="48"/>
-      <c r="K791" s="46"/>
+      <c r="G791" s="48"/>
+      <c r="H791" s="49"/>
+      <c r="K791" s="47"/>
     </row>
     <row r="792">
-      <c r="G792" s="47"/>
-      <c r="H792" s="48"/>
-      <c r="K792" s="46"/>
+      <c r="G792" s="48"/>
+      <c r="H792" s="49"/>
+      <c r="K792" s="47"/>
     </row>
     <row r="793">
-      <c r="G793" s="47"/>
-      <c r="H793" s="48"/>
-      <c r="K793" s="46"/>
+      <c r="G793" s="48"/>
+      <c r="H793" s="49"/>
+      <c r="K793" s="47"/>
     </row>
     <row r="794">
-      <c r="G794" s="47"/>
-      <c r="H794" s="48"/>
-      <c r="K794" s="46"/>
+      <c r="G794" s="48"/>
+      <c r="H794" s="49"/>
+      <c r="K794" s="47"/>
     </row>
     <row r="795">
-      <c r="G795" s="47"/>
-      <c r="H795" s="48"/>
-      <c r="K795" s="46"/>
+      <c r="G795" s="48"/>
+      <c r="H795" s="49"/>
+      <c r="K795" s="47"/>
     </row>
     <row r="796">
-      <c r="G796" s="47"/>
-      <c r="H796" s="48"/>
-      <c r="K796" s="46"/>
+      <c r="G796" s="48"/>
+      <c r="H796" s="49"/>
+      <c r="K796" s="47"/>
     </row>
     <row r="797">
-      <c r="G797" s="47"/>
-      <c r="H797" s="48"/>
-      <c r="K797" s="46"/>
+      <c r="G797" s="48"/>
+      <c r="H797" s="49"/>
+      <c r="K797" s="47"/>
     </row>
     <row r="798">
-      <c r="G798" s="47"/>
-      <c r="H798" s="48"/>
-      <c r="K798" s="46"/>
+      <c r="G798" s="48"/>
+      <c r="H798" s="49"/>
+      <c r="K798" s="47"/>
     </row>
     <row r="799">
-      <c r="G799" s="47"/>
-      <c r="H799" s="48"/>
-      <c r="K799" s="46"/>
+      <c r="G799" s="48"/>
+      <c r="H799" s="49"/>
+      <c r="K799" s="47"/>
     </row>
     <row r="800">
-      <c r="G800" s="47"/>
-      <c r="H800" s="48"/>
-      <c r="K800" s="46"/>
+      <c r="G800" s="48"/>
+      <c r="H800" s="49"/>
+      <c r="K800" s="47"/>
     </row>
     <row r="801">
-      <c r="G801" s="47"/>
-      <c r="H801" s="48"/>
-      <c r="K801" s="46"/>
+      <c r="G801" s="48"/>
+      <c r="H801" s="49"/>
+      <c r="K801" s="47"/>
     </row>
     <row r="802">
-      <c r="G802" s="47"/>
-      <c r="H802" s="48"/>
-      <c r="K802" s="46"/>
+      <c r="G802" s="48"/>
+      <c r="H802" s="49"/>
+      <c r="K802" s="47"/>
     </row>
     <row r="803">
-      <c r="G803" s="47"/>
-      <c r="H803" s="48"/>
-      <c r="K803" s="46"/>
+      <c r="G803" s="48"/>
+      <c r="H803" s="49"/>
+      <c r="K803" s="47"/>
     </row>
     <row r="804">
-      <c r="G804" s="47"/>
-      <c r="H804" s="48"/>
-      <c r="K804" s="46"/>
+      <c r="G804" s="48"/>
+      <c r="H804" s="49"/>
+      <c r="K804" s="47"/>
     </row>
     <row r="805">
-      <c r="G805" s="47"/>
-      <c r="H805" s="48"/>
-      <c r="K805" s="46"/>
+      <c r="G805" s="48"/>
+      <c r="H805" s="49"/>
+      <c r="K805" s="47"/>
     </row>
     <row r="806">
-      <c r="G806" s="47"/>
-      <c r="H806" s="48"/>
-      <c r="K806" s="46"/>
+      <c r="G806" s="48"/>
+      <c r="H806" s="49"/>
+      <c r="K806" s="47"/>
     </row>
     <row r="807">
-      <c r="G807" s="47"/>
-      <c r="H807" s="48"/>
-      <c r="K807" s="46"/>
+      <c r="G807" s="48"/>
+      <c r="H807" s="49"/>
+      <c r="K807" s="47"/>
     </row>
     <row r="808">
-      <c r="G808" s="47"/>
-      <c r="H808" s="48"/>
-      <c r="K808" s="46"/>
+      <c r="G808" s="48"/>
+      <c r="H808" s="49"/>
+      <c r="K808" s="47"/>
     </row>
     <row r="809">
-      <c r="G809" s="47"/>
-      <c r="H809" s="48"/>
-      <c r="K809" s="46"/>
+      <c r="G809" s="48"/>
+      <c r="H809" s="49"/>
+      <c r="K809" s="47"/>
     </row>
     <row r="810">
-      <c r="G810" s="47"/>
-      <c r="H810" s="48"/>
-      <c r="K810" s="46"/>
+      <c r="G810" s="48"/>
+      <c r="H810" s="49"/>
+      <c r="K810" s="47"/>
     </row>
     <row r="811">
-      <c r="G811" s="47"/>
-      <c r="H811" s="48"/>
-      <c r="K811" s="46"/>
+      <c r="G811" s="48"/>
+      <c r="H811" s="49"/>
+      <c r="K811" s="47"/>
     </row>
     <row r="812">
-      <c r="G812" s="47"/>
-      <c r="H812" s="48"/>
-      <c r="K812" s="46"/>
+      <c r="G812" s="48"/>
+      <c r="H812" s="49"/>
+      <c r="K812" s="47"/>
     </row>
     <row r="813">
-      <c r="G813" s="47"/>
-      <c r="H813" s="48"/>
-      <c r="K813" s="46"/>
+      <c r="G813" s="48"/>
+      <c r="H813" s="49"/>
+      <c r="K813" s="47"/>
     </row>
     <row r="814">
-      <c r="G814" s="47"/>
-      <c r="H814" s="48"/>
-      <c r="K814" s="46"/>
+      <c r="G814" s="48"/>
+      <c r="H814" s="49"/>
+      <c r="K814" s="47"/>
     </row>
     <row r="815">
-      <c r="G815" s="47"/>
-      <c r="H815" s="48"/>
-      <c r="K815" s="46"/>
+      <c r="G815" s="48"/>
+      <c r="H815" s="49"/>
+      <c r="K815" s="47"/>
     </row>
     <row r="816">
-      <c r="G816" s="47"/>
-      <c r="H816" s="48"/>
-      <c r="K816" s="46"/>
+      <c r="G816" s="48"/>
+      <c r="H816" s="49"/>
+      <c r="K816" s="47"/>
     </row>
     <row r="817">
-      <c r="G817" s="47"/>
-      <c r="H817" s="48"/>
-      <c r="K817" s="46"/>
+      <c r="G817" s="48"/>
+      <c r="H817" s="49"/>
+      <c r="K817" s="47"/>
     </row>
     <row r="818">
-      <c r="G818" s="47"/>
-      <c r="H818" s="48"/>
-      <c r="K818" s="46"/>
+      <c r="G818" s="48"/>
+      <c r="H818" s="49"/>
+      <c r="K818" s="47"/>
     </row>
     <row r="819">
-      <c r="G819" s="47"/>
-      <c r="H819" s="48"/>
-      <c r="K819" s="46"/>
+      <c r="G819" s="48"/>
+      <c r="H819" s="49"/>
+      <c r="K819" s="47"/>
     </row>
     <row r="820">
-      <c r="G820" s="47"/>
-      <c r="H820" s="48"/>
-      <c r="K820" s="46"/>
+      <c r="G820" s="48"/>
+      <c r="H820" s="49"/>
+      <c r="K820" s="47"/>
     </row>
     <row r="821">
-      <c r="G821" s="47"/>
-      <c r="H821" s="48"/>
-      <c r="K821" s="46"/>
+      <c r="G821" s="48"/>
+      <c r="H821" s="49"/>
+      <c r="K821" s="47"/>
     </row>
     <row r="822">
-      <c r="G822" s="47"/>
-      <c r="H822" s="48"/>
-      <c r="K822" s="46"/>
+      <c r="G822" s="48"/>
+      <c r="H822" s="49"/>
+      <c r="K822" s="47"/>
     </row>
     <row r="823">
-      <c r="G823" s="47"/>
-      <c r="H823" s="48"/>
-      <c r="K823" s="46"/>
+      <c r="G823" s="48"/>
+      <c r="H823" s="49"/>
+      <c r="K823" s="47"/>
     </row>
     <row r="824">
-      <c r="G824" s="47"/>
-      <c r="H824" s="48"/>
-      <c r="K824" s="46"/>
+      <c r="G824" s="48"/>
+      <c r="H824" s="49"/>
+      <c r="K824" s="47"/>
     </row>
     <row r="825">
-      <c r="G825" s="47"/>
-      <c r="H825" s="48"/>
-      <c r="K825" s="46"/>
+      <c r="G825" s="48"/>
+      <c r="H825" s="49"/>
+      <c r="K825" s="47"/>
     </row>
     <row r="826">
-      <c r="G826" s="47"/>
-      <c r="H826" s="48"/>
-      <c r="K826" s="46"/>
+      <c r="G826" s="48"/>
+      <c r="H826" s="49"/>
+      <c r="K826" s="47"/>
     </row>
     <row r="827">
-      <c r="G827" s="47"/>
-      <c r="H827" s="48"/>
-      <c r="K827" s="46"/>
+      <c r="G827" s="48"/>
+      <c r="H827" s="49"/>
+      <c r="K827" s="47"/>
     </row>
     <row r="828">
-      <c r="G828" s="47"/>
-      <c r="H828" s="48"/>
-      <c r="K828" s="46"/>
+      <c r="G828" s="48"/>
+      <c r="H828" s="49"/>
+      <c r="K828" s="47"/>
     </row>
     <row r="829">
-      <c r="G829" s="47"/>
-      <c r="H829" s="48"/>
-      <c r="K829" s="46"/>
+      <c r="G829" s="48"/>
+      <c r="H829" s="49"/>
+      <c r="K829" s="47"/>
     </row>
     <row r="830">
-      <c r="G830" s="47"/>
-      <c r="H830" s="48"/>
-      <c r="K830" s="46"/>
+      <c r="G830" s="48"/>
+      <c r="H830" s="49"/>
+      <c r="K830" s="47"/>
     </row>
     <row r="831">
-      <c r="G831" s="47"/>
-      <c r="H831" s="48"/>
-      <c r="K831" s="46"/>
+      <c r="G831" s="48"/>
+      <c r="H831" s="49"/>
+      <c r="K831" s="47"/>
     </row>
     <row r="832">
-      <c r="G832" s="47"/>
-      <c r="H832" s="48"/>
-      <c r="K832" s="46"/>
+      <c r="G832" s="48"/>
+      <c r="H832" s="49"/>
+      <c r="K832" s="47"/>
     </row>
     <row r="833">
-      <c r="G833" s="47"/>
-      <c r="H833" s="48"/>
-      <c r="K833" s="46"/>
+      <c r="G833" s="48"/>
+      <c r="H833" s="49"/>
+      <c r="K833" s="47"/>
     </row>
     <row r="834">
-      <c r="G834" s="47"/>
-      <c r="H834" s="48"/>
-      <c r="K834" s="46"/>
+      <c r="G834" s="48"/>
+      <c r="H834" s="49"/>
+      <c r="K834" s="47"/>
     </row>
     <row r="835">
-      <c r="G835" s="47"/>
-      <c r="H835" s="48"/>
-      <c r="K835" s="46"/>
+      <c r="G835" s="48"/>
+      <c r="H835" s="49"/>
+      <c r="K835" s="47"/>
     </row>
     <row r="836">
-      <c r="G836" s="47"/>
-      <c r="H836" s="48"/>
-      <c r="K836" s="46"/>
+      <c r="G836" s="48"/>
+      <c r="H836" s="49"/>
+      <c r="K836" s="47"/>
     </row>
     <row r="837">
-      <c r="G837" s="47"/>
-      <c r="H837" s="48"/>
-      <c r="K837" s="46"/>
+      <c r="G837" s="48"/>
+      <c r="H837" s="49"/>
+      <c r="K837" s="47"/>
     </row>
     <row r="838">
-      <c r="G838" s="47"/>
-      <c r="H838" s="48"/>
-      <c r="K838" s="46"/>
+      <c r="G838" s="48"/>
+      <c r="H838" s="49"/>
+      <c r="K838" s="47"/>
     </row>
     <row r="839">
-      <c r="G839" s="47"/>
-      <c r="H839" s="48"/>
-      <c r="K839" s="46"/>
+      <c r="G839" s="48"/>
+      <c r="H839" s="49"/>
+      <c r="K839" s="47"/>
     </row>
     <row r="840">
-      <c r="G840" s="47"/>
-      <c r="H840" s="48"/>
-      <c r="K840" s="46"/>
+      <c r="G840" s="48"/>
+      <c r="H840" s="49"/>
+      <c r="K840" s="47"/>
     </row>
     <row r="841">
-      <c r="G841" s="47"/>
-      <c r="H841" s="48"/>
-      <c r="K841" s="46"/>
+      <c r="G841" s="48"/>
+      <c r="H841" s="49"/>
+      <c r="K841" s="47"/>
     </row>
     <row r="842">
-      <c r="G842" s="47"/>
-      <c r="H842" s="48"/>
-      <c r="K842" s="46"/>
+      <c r="G842" s="48"/>
+      <c r="H842" s="49"/>
+      <c r="K842" s="47"/>
     </row>
     <row r="843">
-      <c r="G843" s="47"/>
-      <c r="H843" s="48"/>
-      <c r="K843" s="46"/>
+      <c r="G843" s="48"/>
+      <c r="H843" s="49"/>
+      <c r="K843" s="47"/>
     </row>
     <row r="844">
-      <c r="G844" s="47"/>
-      <c r="H844" s="48"/>
-      <c r="K844" s="46"/>
+      <c r="G844" s="48"/>
+      <c r="H844" s="49"/>
+      <c r="K844" s="47"/>
     </row>
     <row r="845">
-      <c r="G845" s="47"/>
-      <c r="H845" s="48"/>
-      <c r="K845" s="46"/>
+      <c r="G845" s="48"/>
+      <c r="H845" s="49"/>
+      <c r="K845" s="47"/>
     </row>
     <row r="846">
-      <c r="G846" s="47"/>
-      <c r="H846" s="48"/>
-      <c r="K846" s="46"/>
+      <c r="G846" s="48"/>
+      <c r="H846" s="49"/>
+      <c r="K846" s="47"/>
     </row>
     <row r="847">
-      <c r="G847" s="47"/>
-      <c r="H847" s="48"/>
-      <c r="K847" s="46"/>
+      <c r="G847" s="48"/>
+      <c r="H847" s="49"/>
+      <c r="K847" s="47"/>
     </row>
     <row r="848">
-      <c r="G848" s="47"/>
-      <c r="H848" s="48"/>
-      <c r="K848" s="46"/>
+      <c r="G848" s="48"/>
+      <c r="H848" s="49"/>
+      <c r="K848" s="47"/>
     </row>
     <row r="849">
-      <c r="G849" s="47"/>
-      <c r="H849" s="48"/>
-      <c r="K849" s="46"/>
+      <c r="G849" s="48"/>
+      <c r="H849" s="49"/>
+      <c r="K849" s="47"/>
     </row>
     <row r="850">
-      <c r="G850" s="47"/>
-      <c r="H850" s="48"/>
-      <c r="K850" s="46"/>
+      <c r="G850" s="48"/>
+      <c r="H850" s="49"/>
+      <c r="K850" s="47"/>
     </row>
     <row r="851">
-      <c r="G851" s="47"/>
-      <c r="H851" s="48"/>
-      <c r="K851" s="46"/>
+      <c r="G851" s="48"/>
+      <c r="H851" s="49"/>
+      <c r="K851" s="47"/>
     </row>
     <row r="852">
-      <c r="G852" s="47"/>
-      <c r="H852" s="48"/>
-      <c r="K852" s="46"/>
+      <c r="G852" s="48"/>
+      <c r="H852" s="49"/>
+      <c r="K852" s="47"/>
     </row>
     <row r="853">
-      <c r="G853" s="47"/>
-      <c r="H853" s="48"/>
-      <c r="K853" s="46"/>
+      <c r="G853" s="48"/>
+      <c r="H853" s="49"/>
+      <c r="K853" s="47"/>
     </row>
     <row r="854">
-      <c r="G854" s="47"/>
-      <c r="H854" s="48"/>
-      <c r="K854" s="46"/>
+      <c r="G854" s="48"/>
+      <c r="H854" s="49"/>
+      <c r="K854" s="47"/>
     </row>
     <row r="855">
-      <c r="G855" s="47"/>
-      <c r="H855" s="48"/>
-      <c r="K855" s="46"/>
+      <c r="G855" s="48"/>
+      <c r="H855" s="49"/>
+      <c r="K855" s="47"/>
     </row>
     <row r="856">
-      <c r="G856" s="47"/>
-      <c r="H856" s="48"/>
-      <c r="K856" s="46"/>
+      <c r="G856" s="48"/>
+      <c r="H856" s="49"/>
+      <c r="K856" s="47"/>
     </row>
     <row r="857">
-      <c r="G857" s="47"/>
-      <c r="H857" s="48"/>
-      <c r="K857" s="46"/>
+      <c r="G857" s="48"/>
+      <c r="H857" s="49"/>
+      <c r="K857" s="47"/>
     </row>
     <row r="858">
-      <c r="G858" s="47"/>
-      <c r="H858" s="48"/>
-      <c r="K858" s="46"/>
+      <c r="G858" s="48"/>
+      <c r="H858" s="49"/>
+      <c r="K858" s="47"/>
     </row>
     <row r="859">
-      <c r="G859" s="47"/>
-      <c r="H859" s="48"/>
-      <c r="K859" s="46"/>
+      <c r="G859" s="48"/>
+      <c r="H859" s="49"/>
+      <c r="K859" s="47"/>
     </row>
     <row r="860">
-      <c r="G860" s="47"/>
-      <c r="H860" s="48"/>
-      <c r="K860" s="46"/>
+      <c r="G860" s="48"/>
+      <c r="H860" s="49"/>
+      <c r="K860" s="47"/>
     </row>
     <row r="861">
-      <c r="G861" s="47"/>
-      <c r="H861" s="48"/>
-      <c r="K861" s="46"/>
+      <c r="G861" s="48"/>
+      <c r="H861" s="49"/>
+      <c r="K861" s="47"/>
     </row>
     <row r="862">
-      <c r="G862" s="47"/>
-      <c r="H862" s="48"/>
-      <c r="K862" s="46"/>
+      <c r="G862" s="48"/>
+      <c r="H862" s="49"/>
+      <c r="K862" s="47"/>
     </row>
     <row r="863">
-      <c r="G863" s="47"/>
-      <c r="H863" s="48"/>
-      <c r="K863" s="46"/>
+      <c r="G863" s="48"/>
+      <c r="H863" s="49"/>
+      <c r="K863" s="47"/>
     </row>
     <row r="864">
-      <c r="G864" s="47"/>
-      <c r="H864" s="48"/>
-      <c r="K864" s="46"/>
+      <c r="G864" s="48"/>
+      <c r="H864" s="49"/>
+      <c r="K864" s="47"/>
     </row>
     <row r="865">
-      <c r="G865" s="47"/>
-      <c r="H865" s="48"/>
-      <c r="K865" s="46"/>
+      <c r="G865" s="48"/>
+      <c r="H865" s="49"/>
+      <c r="K865" s="47"/>
     </row>
     <row r="866">
-      <c r="G866" s="47"/>
-      <c r="H866" s="48"/>
-      <c r="K866" s="46"/>
+      <c r="G866" s="48"/>
+      <c r="H866" s="49"/>
+      <c r="K866" s="47"/>
     </row>
     <row r="867">
-      <c r="G867" s="47"/>
-      <c r="H867" s="48"/>
-      <c r="K867" s="46"/>
+      <c r="G867" s="48"/>
+      <c r="H867" s="49"/>
+      <c r="K867" s="47"/>
     </row>
     <row r="868">
-      <c r="G868" s="47"/>
-      <c r="H868" s="48"/>
-      <c r="K868" s="46"/>
+      <c r="G868" s="48"/>
+      <c r="H868" s="49"/>
+      <c r="K868" s="47"/>
     </row>
     <row r="869">
-      <c r="G869" s="47"/>
-      <c r="H869" s="48"/>
-      <c r="K869" s="46"/>
+      <c r="G869" s="48"/>
+      <c r="H869" s="49"/>
+      <c r="K869" s="47"/>
     </row>
     <row r="870">
-      <c r="G870" s="47"/>
-      <c r="H870" s="48"/>
-      <c r="K870" s="46"/>
+      <c r="G870" s="48"/>
+      <c r="H870" s="49"/>
+      <c r="K870" s="47"/>
     </row>
     <row r="871">
-      <c r="G871" s="47"/>
-      <c r="H871" s="48"/>
-      <c r="K871" s="46"/>
+      <c r="G871" s="48"/>
+      <c r="H871" s="49"/>
+      <c r="K871" s="47"/>
     </row>
     <row r="872">
-      <c r="G872" s="47"/>
-      <c r="H872" s="48"/>
-      <c r="K872" s="46"/>
+      <c r="G872" s="48"/>
+      <c r="H872" s="49"/>
+      <c r="K872" s="47"/>
     </row>
     <row r="873">
-      <c r="G873" s="47"/>
-      <c r="H873" s="48"/>
-      <c r="K873" s="46"/>
+      <c r="G873" s="48"/>
+      <c r="H873" s="49"/>
+      <c r="K873" s="47"/>
     </row>
     <row r="874">
-      <c r="G874" s="47"/>
-      <c r="H874" s="48"/>
-      <c r="K874" s="46"/>
+      <c r="G874" s="48"/>
+      <c r="H874" s="49"/>
+      <c r="K874" s="47"/>
     </row>
     <row r="875">
-      <c r="G875" s="47"/>
-      <c r="H875" s="48"/>
-      <c r="K875" s="46"/>
+      <c r="G875" s="48"/>
+      <c r="H875" s="49"/>
+      <c r="K875" s="47"/>
     </row>
     <row r="876">
-      <c r="G876" s="47"/>
-      <c r="H876" s="48"/>
-      <c r="K876" s="46"/>
+      <c r="G876" s="48"/>
+      <c r="H876" s="49"/>
+      <c r="K876" s="47"/>
     </row>
     <row r="877">
-      <c r="G877" s="47"/>
-      <c r="H877" s="48"/>
-      <c r="K877" s="46"/>
+      <c r="G877" s="48"/>
+      <c r="H877" s="49"/>
+      <c r="K877" s="47"/>
     </row>
     <row r="878">
-      <c r="G878" s="47"/>
-      <c r="H878" s="48"/>
-      <c r="K878" s="46"/>
+      <c r="G878" s="48"/>
+      <c r="H878" s="49"/>
+      <c r="K878" s="47"/>
     </row>
     <row r="879">
-      <c r="G879" s="47"/>
-      <c r="H879" s="48"/>
-      <c r="K879" s="46"/>
+      <c r="G879" s="48"/>
+      <c r="H879" s="49"/>
+      <c r="K879" s="47"/>
     </row>
     <row r="880">
-      <c r="G880" s="47"/>
-      <c r="H880" s="48"/>
-      <c r="K880" s="46"/>
+      <c r="G880" s="48"/>
+      <c r="H880" s="49"/>
+      <c r="K880" s="47"/>
     </row>
     <row r="881">
-      <c r="G881" s="47"/>
-      <c r="H881" s="48"/>
-      <c r="K881" s="46"/>
+      <c r="G881" s="48"/>
+      <c r="H881" s="49"/>
+      <c r="K881" s="47"/>
     </row>
     <row r="882">
-      <c r="G882" s="47"/>
-      <c r="H882" s="48"/>
-      <c r="K882" s="46"/>
+      <c r="G882" s="48"/>
+      <c r="H882" s="49"/>
+      <c r="K882" s="47"/>
     </row>
     <row r="883">
-      <c r="G883" s="47"/>
-      <c r="H883" s="48"/>
-      <c r="K883" s="46"/>
+      <c r="G883" s="48"/>
+      <c r="H883" s="49"/>
+      <c r="K883" s="47"/>
     </row>
     <row r="884">
-      <c r="G884" s="47"/>
-      <c r="H884" s="48"/>
-      <c r="K884" s="46"/>
+      <c r="G884" s="48"/>
+      <c r="H884" s="49"/>
+      <c r="K884" s="47"/>
     </row>
     <row r="885">
-      <c r="G885" s="47"/>
-      <c r="H885" s="48"/>
-      <c r="K885" s="46"/>
+      <c r="G885" s="48"/>
+      <c r="H885" s="49"/>
+      <c r="K885" s="47"/>
     </row>
     <row r="886">
-      <c r="G886" s="47"/>
-      <c r="H886" s="48"/>
-      <c r="K886" s="46"/>
+      <c r="G886" s="48"/>
+      <c r="H886" s="49"/>
+      <c r="K886" s="47"/>
     </row>
     <row r="887">
-      <c r="G887" s="47"/>
-      <c r="H887" s="48"/>
-      <c r="K887" s="46"/>
+      <c r="G887" s="48"/>
+      <c r="H887" s="49"/>
+      <c r="K887" s="47"/>
     </row>
     <row r="888">
-      <c r="G888" s="47"/>
-      <c r="H888" s="48"/>
-      <c r="K888" s="46"/>
+      <c r="G888" s="48"/>
+      <c r="H888" s="49"/>
+      <c r="K888" s="47"/>
     </row>
     <row r="889">
-      <c r="G889" s="47"/>
-      <c r="H889" s="48"/>
-      <c r="K889" s="46"/>
+      <c r="G889" s="48"/>
+      <c r="H889" s="49"/>
+      <c r="K889" s="47"/>
     </row>
     <row r="890">
-      <c r="G890" s="47"/>
-      <c r="H890" s="48"/>
-      <c r="K890" s="46"/>
+      <c r="G890" s="48"/>
+      <c r="H890" s="49"/>
+      <c r="K890" s="47"/>
     </row>
     <row r="891">
-      <c r="G891" s="47"/>
-      <c r="H891" s="48"/>
-      <c r="K891" s="46"/>
+      <c r="G891" s="48"/>
+      <c r="H891" s="49"/>
+      <c r="K891" s="47"/>
     </row>
     <row r="892">
-      <c r="G892" s="47"/>
-      <c r="H892" s="48"/>
-      <c r="K892" s="46"/>
+      <c r="G892" s="48"/>
+      <c r="H892" s="49"/>
+      <c r="K892" s="47"/>
     </row>
     <row r="893">
-      <c r="G893" s="47"/>
-      <c r="H893" s="48"/>
-      <c r="K893" s="46"/>
+      <c r="G893" s="48"/>
+      <c r="H893" s="49"/>
+      <c r="K893" s="47"/>
     </row>
     <row r="894">
-      <c r="G894" s="47"/>
-      <c r="H894" s="48"/>
-      <c r="K894" s="46"/>
+      <c r="G894" s="48"/>
+      <c r="H894" s="49"/>
+      <c r="K894" s="47"/>
     </row>
     <row r="895">
-      <c r="G895" s="47"/>
-      <c r="H895" s="48"/>
-      <c r="K895" s="46"/>
+      <c r="G895" s="48"/>
+      <c r="H895" s="49"/>
+      <c r="K895" s="47"/>
     </row>
     <row r="896">
-      <c r="G896" s="47"/>
-      <c r="H896" s="48"/>
-      <c r="K896" s="46"/>
+      <c r="G896" s="48"/>
+      <c r="H896" s="49"/>
+      <c r="K896" s="47"/>
     </row>
     <row r="897">
-      <c r="G897" s="47"/>
-      <c r="H897" s="48"/>
-      <c r="K897" s="46"/>
+      <c r="G897" s="48"/>
+      <c r="H897" s="49"/>
+      <c r="K897" s="47"/>
     </row>
     <row r="898">
-      <c r="G898" s="47"/>
-      <c r="H898" s="48"/>
-      <c r="K898" s="46"/>
+      <c r="G898" s="48"/>
+      <c r="H898" s="49"/>
+      <c r="K898" s="47"/>
     </row>
     <row r="899">
-      <c r="G899" s="47"/>
-      <c r="H899" s="48"/>
-      <c r="K899" s="46"/>
+      <c r="G899" s="48"/>
+      <c r="H899" s="49"/>
+      <c r="K899" s="47"/>
     </row>
     <row r="900">
-      <c r="G900" s="47"/>
-      <c r="H900" s="48"/>
-      <c r="K900" s="46"/>
+      <c r="G900" s="48"/>
+      <c r="H900" s="49"/>
+      <c r="K900" s="47"/>
     </row>
     <row r="901">
-      <c r="G901" s="47"/>
-      <c r="H901" s="48"/>
-      <c r="K901" s="46"/>
+      <c r="G901" s="48"/>
+      <c r="H901" s="49"/>
+      <c r="K901" s="47"/>
     </row>
     <row r="902">
-      <c r="G902" s="47"/>
-      <c r="H902" s="48"/>
-      <c r="K902" s="46"/>
+      <c r="G902" s="48"/>
+      <c r="H902" s="49"/>
+      <c r="K902" s="47"/>
     </row>
     <row r="903">
-      <c r="G903" s="47"/>
-      <c r="H903" s="48"/>
-      <c r="K903" s="46"/>
+      <c r="G903" s="48"/>
+      <c r="H903" s="49"/>
+      <c r="K903" s="47"/>
     </row>
     <row r="904">
-      <c r="G904" s="47"/>
-      <c r="H904" s="48"/>
-      <c r="K904" s="46"/>
+      <c r="G904" s="48"/>
+      <c r="H904" s="49"/>
+      <c r="K904" s="47"/>
     </row>
     <row r="905">
-      <c r="G905" s="47"/>
-      <c r="H905" s="48"/>
-      <c r="K905" s="46"/>
+      <c r="G905" s="48"/>
+      <c r="H905" s="49"/>
+      <c r="K905" s="47"/>
     </row>
     <row r="906">
-      <c r="G906" s="47"/>
-      <c r="H906" s="48"/>
-      <c r="K906" s="46"/>
+      <c r="G906" s="48"/>
+      <c r="H906" s="49"/>
+      <c r="K906" s="47"/>
     </row>
     <row r="907">
-      <c r="G907" s="47"/>
-      <c r="H907" s="48"/>
-      <c r="K907" s="46"/>
+      <c r="G907" s="48"/>
+      <c r="H907" s="49"/>
+      <c r="K907" s="47"/>
     </row>
     <row r="908">
-      <c r="G908" s="47"/>
-      <c r="H908" s="48"/>
-      <c r="K908" s="46"/>
+      <c r="G908" s="48"/>
+      <c r="H908" s="49"/>
+      <c r="K908" s="47"/>
     </row>
     <row r="909">
-      <c r="G909" s="47"/>
-      <c r="H909" s="48"/>
-      <c r="K909" s="46"/>
+      <c r="G909" s="48"/>
+      <c r="H909" s="49"/>
+      <c r="K909" s="47"/>
     </row>
     <row r="910">
-      <c r="G910" s="47"/>
-      <c r="H910" s="48"/>
-      <c r="K910" s="46"/>
+      <c r="G910" s="48"/>
+      <c r="H910" s="49"/>
+      <c r="K910" s="47"/>
     </row>
     <row r="911">
-      <c r="G911" s="47"/>
-      <c r="H911" s="48"/>
-      <c r="K911" s="46"/>
+      <c r="G911" s="48"/>
+      <c r="H911" s="49"/>
+      <c r="K911" s="47"/>
     </row>
     <row r="912">
-      <c r="G912" s="47"/>
-      <c r="H912" s="48"/>
-      <c r="K912" s="46"/>
+      <c r="G912" s="48"/>
+      <c r="H912" s="49"/>
+      <c r="K912" s="47"/>
     </row>
     <row r="913">
-      <c r="G913" s="47"/>
-      <c r="H913" s="48"/>
-      <c r="K913" s="46"/>
+      <c r="G913" s="48"/>
+      <c r="H913" s="49"/>
+      <c r="K913" s="47"/>
     </row>
     <row r="914">
-      <c r="G914" s="47"/>
-      <c r="H914" s="48"/>
-      <c r="K914" s="46"/>
+      <c r="G914" s="48"/>
+      <c r="H914" s="49"/>
+      <c r="K914" s="47"/>
     </row>
     <row r="915">
-      <c r="G915" s="47"/>
-      <c r="H915" s="48"/>
-      <c r="K915" s="46"/>
+      <c r="G915" s="48"/>
+      <c r="H915" s="49"/>
+      <c r="K915" s="47"/>
     </row>
     <row r="916">
-      <c r="G916" s="47"/>
-      <c r="H916" s="48"/>
-      <c r="K916" s="46"/>
+      <c r="G916" s="48"/>
+      <c r="H916" s="49"/>
+      <c r="K916" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -9931,168 +9931,168 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="49">
+      <c r="B1" s="50">
         <v>1.0</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="50">
         <v>2.0</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="50">
         <v>3.0</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="50">
         <v>4.0</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="50">
         <v>5.0</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="50">
         <v>6.0</v>
       </c>
-      <c r="H1" s="49">
+      <c r="H1" s="50">
         <v>7.0</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="50">
         <v>8.0</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="50">
         <v>9.0</v>
       </c>
-      <c r="K1" s="49">
+      <c r="K1" s="50">
         <v>10.0</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="50">
         <v>11.0</v>
       </c>
-      <c r="M1" s="49">
+      <c r="M1" s="50">
         <v>12.0</v>
       </c>
       <c r="P1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="58" t="s">
         <v>327</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="P3" s="59" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="60" t="s">
         <v>349</v>
       </c>
     </row>
@@ -13103,28 +13103,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="63" t="s">
         <v>351</v>
       </c>
     </row>
@@ -13147,7 +13147,7 @@
       <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="64" t="s">
@@ -13173,7 +13173,7 @@
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="65" t="s">
@@ -13199,7 +13199,7 @@
       <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="66" t="s">
@@ -13225,7 +13225,7 @@
       <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="16" t="s">
@@ -13251,7 +13251,7 @@
       <c r="F6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -13277,7 +13277,7 @@
       <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="16" t="s">
@@ -13303,7 +13303,7 @@
       <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -13314,22 +13314,22 @@
       <c r="A9" s="8">
         <v>57.0</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -13337,25 +13337,25 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="35">
+      <c r="A10" s="36">
         <v>141.0</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="44" t="s">
         <v>224</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="353">
   <si>
     <t>Партнер</t>
   </si>
@@ -937,9 +937,6 @@
   </si>
   <si>
     <t>МО, Рублево-Успенское ш., дер. Жуковка, 70</t>
-  </si>
-  <si>
-    <t>Нужна замена Калинина Ольга Игоревна</t>
   </si>
   <si>
     <r>
@@ -1699,7 +1696,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1756,12 +1753,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBD4B4"/>
         <bgColor rgb="FFFBD4B4"/>
       </patternFill>
@@ -1791,7 +1782,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1887,8 +1878,8 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1902,31 +1893,31 @@
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1935,9 +1926,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -1954,13 +1942,13 @@
     <xf borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4130,14 +4118,14 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="L45" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="L45" s="34" t="s">
-        <v>201</v>
-      </c>
       <c r="N45" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Калинина Ольга Игоревна")</f>
-        <v>Нужна замена Калинина Ольга Игоревна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
+        <v>Поддубная Светлана Мадхатовна</v>
       </c>
       <c r="O45" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4152,10 +4140,10 @@
         <v>108</v>
       </c>
       <c r="C46" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>203</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>16</v>
@@ -4169,10 +4157,10 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="L46" s="10"/>
       <c r="N46" s="14" t="str">
@@ -4192,13 +4180,13 @@
         <v>108</v>
       </c>
       <c r="C47" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="E47" s="25" t="s">
         <v>207</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>24</v>
@@ -4211,10 +4199,10 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="L47" s="10"/>
       <c r="N47" s="14" t="str">
@@ -4234,13 +4222,13 @@
         <v>108</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="E48" s="25" t="s">
         <v>212</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>213</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>24</v>
@@ -4253,10 +4241,10 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="K48" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="L48" s="10"/>
       <c r="N48" s="14" t="str">
@@ -4276,13 +4264,13 @@
         <v>108</v>
       </c>
       <c r="C49" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>217</v>
-      </c>
       <c r="E49" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>24</v>
@@ -4295,10 +4283,10 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" s="10"/>
       <c r="N49" s="14" t="str">
@@ -4318,10 +4306,10 @@
         <v>108</v>
       </c>
       <c r="C50" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>219</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>220</v>
       </c>
       <c r="E50" s="25" t="s">
         <v>37</v>
@@ -4334,7 +4322,7 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
@@ -4358,13 +4346,13 @@
         <v>108</v>
       </c>
       <c r="C51" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="E51" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>224</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>24</v>
@@ -4376,10 +4364,10 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="35" t="s">
         <v>225</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>226</v>
       </c>
       <c r="N51" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4398,13 +4386,13 @@
         <v>108</v>
       </c>
       <c r="C52" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="E52" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>229</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>24</v>
@@ -4416,10 +4404,10 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L52" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="L52" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="N52" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4438,13 +4426,13 @@
         <v>108</v>
       </c>
       <c r="C53" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>233</v>
-      </c>
       <c r="E53" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>24</v>
@@ -4456,7 +4444,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>156</v>
@@ -4478,13 +4466,13 @@
         <v>108</v>
       </c>
       <c r="C54" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="37" t="s">
         <v>235</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>236</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>24</v>
@@ -4497,10 +4485,10 @@
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="14" t="str">
@@ -4520,13 +4508,13 @@
         <v>108</v>
       </c>
       <c r="C55" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="E55" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>24</v>
@@ -4538,7 +4526,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="11"/>
       <c r="K55" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="14" t="str">
@@ -4555,13 +4543,13 @@
         <v>46.0</v>
       </c>
       <c r="B56" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="D56" s="38" t="s">
         <v>242</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>243</v>
       </c>
       <c r="E56" s="38" t="s">
         <v>16</v>
@@ -4577,7 +4565,7 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>94</v>
@@ -4597,13 +4585,13 @@
         <v>70.0</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C57" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D57" s="38" t="s">
         <v>245</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>246</v>
       </c>
       <c r="E57" s="38" t="s">
         <v>16</v>
@@ -4619,7 +4607,7 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>98</v>
@@ -4639,13 +4627,13 @@
         <v>78.0</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C58" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>249</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>16</v>
@@ -4661,7 +4649,7 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K58" s="10" t="s">
         <v>107</v>
@@ -4681,13 +4669,13 @@
         <v>87.0</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>251</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>252</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>16</v>
@@ -4703,13 +4691,13 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>169</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N59" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -4725,13 +4713,13 @@
         <v>105.0</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C60" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>255</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>256</v>
       </c>
       <c r="E60" s="38" t="s">
         <v>16</v>
@@ -4745,13 +4733,13 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>186</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N60" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
@@ -4767,13 +4755,13 @@
         <v>136.0</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C61" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="38" t="s">
         <v>259</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>260</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>16</v>
@@ -4789,7 +4777,7 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>189</v>
@@ -4809,13 +4797,13 @@
         <v>137.0</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C62" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>262</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>263</v>
       </c>
       <c r="E62" s="38" t="s">
         <v>16</v>
@@ -4831,7 +4819,7 @@
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>164</v>
@@ -4851,13 +4839,13 @@
         <v>135.0</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C63" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" s="38" t="s">
         <v>265</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>266</v>
       </c>
       <c r="E63" s="38" t="s">
         <v>37</v>
@@ -4889,13 +4877,13 @@
         <v>27.0</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C64" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="38" t="s">
         <v>267</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="E64" s="38" t="s">
         <v>16</v>
@@ -4909,7 +4897,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>169</v>
@@ -4929,13 +4917,13 @@
         <v>74.0</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C65" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="38" t="s">
         <v>270</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>271</v>
       </c>
       <c r="E65" s="38" t="s">
         <v>16</v>
@@ -4969,13 +4957,13 @@
         <v>52.0</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C66" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="38" t="s">
         <v>272</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>273</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>16</v>
@@ -4993,7 +4981,7 @@
         <v>155</v>
       </c>
       <c r="L66" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N66" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -5009,13 +4997,13 @@
         <v>38.0</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C67" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" s="40" t="s">
         <v>275</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>276</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>16</v>
@@ -5029,7 +5017,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>103</v>
@@ -5049,16 +5037,16 @@
         <v>5.0</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C68" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D68" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="E68" s="40" t="s">
         <v>279</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>280</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>24</v>
@@ -5071,13 +5059,13 @@
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="K68" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="K68" s="41" t="s">
+      <c r="L68" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="L68" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="N68" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -5093,16 +5081,16 @@
         <v>139.0</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C69" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="D69" s="38" t="s">
-        <v>285</v>
-      </c>
       <c r="E69" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>24</v>
@@ -5113,10 +5101,10 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L69" s="10"/>
       <c r="N69" s="14" t="str">
@@ -5133,13 +5121,13 @@
         <v>20.0</v>
       </c>
       <c r="B70" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="D70" s="42" t="s">
         <v>288</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>289</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>16</v>
@@ -5155,13 +5143,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>103</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N70" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -5177,13 +5165,13 @@
         <v>28.0</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C71" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="42" t="s">
         <v>292</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>293</v>
       </c>
       <c r="E71" s="42" t="s">
         <v>16</v>
@@ -5198,16 +5186,16 @@
         <v>25</v>
       </c>
       <c r="I71" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>294</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>295</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N71" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -5223,13 +5211,13 @@
         <v>29.0</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C72" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="42" t="s">
         <v>297</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>298</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>16</v>
@@ -5244,16 +5232,16 @@
         <v>25</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>94</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N72" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A72,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -5269,13 +5257,13 @@
         <v>57.0</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C73" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>301</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>302</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>16</v>
@@ -5293,13 +5281,13 @@
         <v>30</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L73" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N73" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A73,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -5315,13 +5303,13 @@
         <v>76.0</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C74" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" s="42" t="s">
         <v>305</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>306</v>
       </c>
       <c r="E74" s="42" t="s">
         <v>16</v>
@@ -5336,16 +5324,16 @@
         <v>25</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J74" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="K74" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="L74" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="L74" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="N74" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A74,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Михайлова Анна Витальевна")</f>
@@ -5361,16 +5349,16 @@
         <v>82.0</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C75" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D75" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="E75" s="42" t="s">
         <v>311</v>
-      </c>
-      <c r="E75" s="42" t="s">
-        <v>312</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>24</v>
@@ -5383,10 +5371,10 @@
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="K75" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="L75" s="10"/>
       <c r="N75" s="14" t="str">
@@ -5403,16 +5391,16 @@
         <v>99.0</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D76" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E76" s="42" t="s">
         <v>315</v>
-      </c>
-      <c r="E76" s="42" t="s">
-        <v>316</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>24</v>
@@ -5424,16 +5412,16 @@
         <v>112</v>
       </c>
       <c r="I76" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="J76" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="J76" s="27" t="s">
+      <c r="K76" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="L76" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="N76" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Казаков Павел Владимирович")</f>
@@ -5449,16 +5437,16 @@
         <v>141.0</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E77" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>17</v>
@@ -5471,13 +5459,13 @@
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L77" s="45" t="s">
         <v>322</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L77" s="45" t="s">
-        <v>323</v>
       </c>
       <c r="N77" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5493,16 +5481,16 @@
         <v>119.0</v>
       </c>
       <c r="B78" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>288</v>
-      </c>
       <c r="D78" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>24</v>
@@ -5515,13 +5503,13 @@
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L78" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L78" s="18" t="s">
-        <v>326</v>
       </c>
       <c r="N78" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5537,13 +5525,13 @@
         <v>158.0</v>
       </c>
       <c r="B79" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="C79" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="D79" s="46" t="s">
         <v>328</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>329</v>
       </c>
       <c r="E79" s="46" t="s">
         <v>16</v>
@@ -5557,7 +5545,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>169</v>
@@ -5577,13 +5565,13 @@
         <v>159.0</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C80" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D80" s="46" t="s">
         <v>331</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>332</v>
       </c>
       <c r="E80" s="46" t="s">
         <v>16</v>
@@ -5599,7 +5587,7 @@
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>189</v>
@@ -5619,13 +5607,13 @@
         <v>144.0</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C81" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>334</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>335</v>
       </c>
       <c r="E81" s="46" t="s">
         <v>37</v>
@@ -9931,169 +9919,169 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="50">
+      <c r="B1" s="33">
         <v>1.0</v>
       </c>
-      <c r="C1" s="50">
+      <c r="C1" s="33">
         <v>2.0</v>
       </c>
-      <c r="D1" s="50">
+      <c r="D1" s="33">
         <v>3.0</v>
       </c>
-      <c r="E1" s="50">
+      <c r="E1" s="33">
         <v>4.0</v>
       </c>
-      <c r="F1" s="50">
+      <c r="F1" s="33">
         <v>5.0</v>
       </c>
-      <c r="G1" s="50">
+      <c r="G1" s="33">
         <v>6.0</v>
       </c>
-      <c r="H1" s="50">
+      <c r="H1" s="33">
         <v>7.0</v>
       </c>
-      <c r="I1" s="50">
+      <c r="I1" s="33">
         <v>8.0</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="33">
         <v>9.0</v>
       </c>
-      <c r="K1" s="50">
+      <c r="K1" s="33">
         <v>10.0</v>
       </c>
-      <c r="L1" s="50">
+      <c r="L1" s="33">
         <v>11.0</v>
       </c>
-      <c r="M1" s="50">
+      <c r="M1" s="33">
         <v>12.0</v>
       </c>
       <c r="P1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>327</v>
+      <c r="J2" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>326</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="33" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="50" t="s">
+      <c r="C4" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="E4" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="F4" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="G4" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="H4" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="I4" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="J4" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="K4" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="L4" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="M4" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="P4" s="59" t="s">
         <v>348</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="5">
@@ -13103,29 +13091,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="62" t="s">
         <v>350</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2">
@@ -13150,8 +13138,8 @@
       <c r="G2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>352</v>
+      <c r="H2" s="63" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="3">
@@ -13176,7 +13164,7 @@
       <c r="G3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13202,8 +13190,8 @@
       <c r="G4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="66" t="s">
-        <v>353</v>
+      <c r="H4" s="65" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="5">
@@ -13315,13 +13303,13 @@
         <v>57.0</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>301</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>302</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>16</v>
@@ -13333,7 +13321,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
@@ -13341,16 +13329,16 @@
         <v>141.0</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>17</v>
@@ -13359,7 +13347,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -560,7 +560,7 @@
     <t>г. Санкт-Петербург, Невский пр., д. 22/24</t>
   </si>
   <si>
-    <t>Львов Александр Анатольевич</t>
+    <t>Дорофеева Лилия Антоновна</t>
   </si>
   <si>
     <t>Мансарда</t>
@@ -986,7 +986,7 @@
     <t>https://prokhinkali.com/</t>
   </si>
   <si>
-    <t>Герасимов Сергей Александрович</t>
+    <t>Жесткова Маргарита Викторовна</t>
   </si>
   <si>
     <t>PRO Хинкали Нижний Новгород</t>
@@ -1853,6 +1853,9 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1869,9 +1872,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2879,13 +2879,13 @@
         <v>61</v>
       </c>
       <c r="J15" s="10"/>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="24" t="s">
         <v>84</v>
       </c>
       <c r="L15" s="10"/>
       <c r="N15" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A15,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Львов Александр Анатольевич")</f>
-        <v>Львов Александр Анатольевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A15,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Дорофеева Лилия Антоновна")</f>
+        <v>Дорофеева Лилия Антоновна</v>
       </c>
       <c r="O15" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2919,13 +2919,13 @@
         <v>61</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="19" t="s">
-        <v>84</v>
+      <c r="K16" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="L16" s="10"/>
       <c r="N16" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Львов Александр Анатольевич")</f>
-        <v>Львов Александр Анатольевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A16,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Климцева Анна Евгеньевна")</f>
+        <v>Климцева Анна Евгеньевна</v>
       </c>
       <c r="O16" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2936,16 +2936,16 @@
       <c r="A17" s="8">
         <v>14.0</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2978,16 +2978,16 @@
       <c r="A18" s="8">
         <v>53.0</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -3020,16 +3020,16 @@
       <c r="A19" s="8">
         <v>95.0</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -3064,16 +3064,16 @@
       <c r="A20" s="8">
         <v>112.0</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -3106,16 +3106,16 @@
       <c r="A21" s="8">
         <v>143.0</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -3150,16 +3150,16 @@
       <c r="A22" s="8">
         <v>124.0</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -3168,7 +3168,7 @@
       <c r="G22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I22" s="10"/>
@@ -3194,16 +3194,16 @@
       <c r="A23" s="8">
         <v>4.0</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="26" t="s">
         <v>118</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -3212,7 +3212,7 @@
       <c r="G23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I23" s="10"/>
@@ -3238,16 +3238,16 @@
       <c r="A24" s="8">
         <v>6.0</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -3256,7 +3256,7 @@
       <c r="G24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I24" s="10"/>
@@ -3282,16 +3282,16 @@
       <c r="A25" s="8">
         <v>128.0</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="26" t="s">
         <v>129</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -3300,11 +3300,11 @@
       <c r="G25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="28" t="s">
         <v>130</v>
       </c>
       <c r="K25" s="10" t="s">
@@ -3324,16 +3324,16 @@
       <c r="A26" s="8">
         <v>16.0</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="26" t="s">
         <v>134</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -3342,11 +3342,11 @@
       <c r="G26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I26" s="10"/>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="29" t="s">
         <v>135</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -3366,16 +3366,16 @@
       <c r="A27" s="8">
         <v>152.0</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="26" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="10" t="s">
@@ -3406,16 +3406,16 @@
       <c r="A28" s="8">
         <v>17.0</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="26" t="s">
         <v>144</v>
       </c>
       <c r="F28" s="10" t="s">
@@ -3431,7 +3431,7 @@
       <c r="J28" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="30" t="s">
         <v>146</v>
       </c>
       <c r="L28" s="10"/>
@@ -3448,16 +3448,16 @@
       <c r="A29" s="8">
         <v>22.0</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="26" t="s">
         <v>149</v>
       </c>
       <c r="F29" s="10" t="s">
@@ -3473,7 +3473,7 @@
       <c r="J29" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="24" t="s">
         <v>151</v>
       </c>
       <c r="L29" s="10" t="s">
@@ -3492,16 +3492,16 @@
       <c r="A30" s="8">
         <v>23.0</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -3532,16 +3532,16 @@
       <c r="A31" s="8">
         <v>26.0</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -3572,16 +3572,16 @@
       <c r="A32" s="8">
         <v>35.0</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -3614,16 +3614,16 @@
       <c r="A33" s="8">
         <v>37.0</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="10" t="s">
@@ -3654,16 +3654,16 @@
       <c r="A34" s="8">
         <v>40.0</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -3694,16 +3694,16 @@
       <c r="A35" s="8">
         <v>44.0</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -3734,16 +3734,16 @@
       <c r="A36" s="8">
         <v>45.0</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -3774,16 +3774,16 @@
       <c r="A37" s="8">
         <v>47.0</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -3814,16 +3814,16 @@
       <c r="A38" s="8">
         <v>51.0</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -3854,16 +3854,16 @@
       <c r="A39" s="8">
         <v>55.0</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -3894,16 +3894,16 @@
       <c r="A40" s="8">
         <v>63.0</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -3912,7 +3912,7 @@
       <c r="G40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="10"/>
@@ -3936,16 +3936,16 @@
       <c r="A41" s="8">
         <v>69.0</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -3976,16 +3976,16 @@
       <c r="A42" s="8">
         <v>73.0</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -4016,16 +4016,16 @@
       <c r="A43" s="8">
         <v>77.0</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="10" t="s">
@@ -4056,16 +4056,16 @@
       <c r="A44" s="8">
         <v>90.0</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="10" t="s">
@@ -4096,16 +4096,16 @@
       <c r="A45" s="8">
         <v>117.0</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="10" t="s">
@@ -4136,16 +4136,16 @@
       <c r="A46" s="8">
         <v>123.0</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -4164,8 +4164,8 @@
       </c>
       <c r="L46" s="10"/>
       <c r="N46" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Герасимов Сергей Александрович")</f>
-        <v>Герасимов Сергей Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Жесткова Маргарита Викторовна")</f>
+        <v>Жесткова Маргарита Викторовна</v>
       </c>
       <c r="O46" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4176,16 +4176,16 @@
       <c r="A47" s="8">
         <v>94.0</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="26" t="s">
         <v>207</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -4194,7 +4194,7 @@
       <c r="G47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I47" s="10"/>
@@ -4218,16 +4218,16 @@
       <c r="A48" s="8">
         <v>100.0</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -4236,7 +4236,7 @@
       <c r="G48" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I48" s="10"/>
@@ -4260,16 +4260,16 @@
       <c r="A49" s="8">
         <v>101.0</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F49" s="10" t="s">
@@ -4278,7 +4278,7 @@
       <c r="G49" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I49" s="10"/>
@@ -4302,16 +4302,16 @@
       <c r="A50" s="8">
         <v>107.0</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -4342,16 +4342,16 @@
       <c r="A51" s="8">
         <v>140.0</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="26" t="s">
         <v>223</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -4382,16 +4382,16 @@
       <c r="A52" s="8">
         <v>145.0</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="26" t="s">
         <v>228</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -4422,16 +4422,16 @@
       <c r="A53" s="8">
         <v>146.0</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="26" t="s">
         <v>228</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -4465,7 +4465,7 @@
       <c r="B54" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="26" t="s">
         <v>233</v>
       </c>
       <c r="D54" s="37" t="s">
@@ -4480,7 +4480,7 @@
       <c r="G54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I54" s="10"/>
@@ -4504,16 +4504,16 @@
       <c r="A55" s="8">
         <v>150.0</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="26" t="s">
         <v>228</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -4686,7 +4686,7 @@
       <c r="G59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="10"/>
@@ -4772,7 +4772,7 @@
       <c r="G61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I61" s="10"/>
@@ -4814,7 +4814,7 @@
       <c r="G62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I62" s="10"/>
@@ -5054,7 +5054,7 @@
       <c r="G68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="H68" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I68" s="10"/>
@@ -5182,7 +5182,7 @@
       <c r="G71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="26" t="s">
+      <c r="H71" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I71" s="10" t="s">
@@ -5228,7 +5228,7 @@
       <c r="G72" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I72" s="10" t="s">
@@ -5320,7 +5320,7 @@
       <c r="G74" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="H74" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I74" s="11" t="s">
@@ -5366,7 +5366,7 @@
       <c r="G75" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I75" s="10"/>
@@ -5408,13 +5408,13 @@
       <c r="G76" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H76" s="26" t="s">
+      <c r="H76" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="J76" s="27" t="s">
+      <c r="J76" s="28" t="s">
         <v>317</v>
       </c>
       <c r="K76" s="10" t="s">
@@ -5454,7 +5454,7 @@
       <c r="G77" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="26" t="s">
+      <c r="H77" s="27" t="s">
         <v>112</v>
       </c>
       <c r="I77" s="10"/>
@@ -5582,7 +5582,7 @@
       <c r="G80" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H80" s="27" t="s">
         <v>25</v>
       </c>
       <c r="I80" s="10"/>
@@ -13135,7 +13135,7 @@
       <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="63" t="s">
@@ -13161,7 +13161,7 @@
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="64" t="s">
@@ -13187,7 +13187,7 @@
       <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="65" t="s">
@@ -13213,7 +13213,7 @@
       <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="16" t="s">
@@ -13239,7 +13239,7 @@
       <c r="F6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -13265,7 +13265,7 @@
       <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="16" t="s">
@@ -13291,7 +13291,7 @@
       <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -13317,7 +13317,7 @@
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -13343,7 +13343,7 @@
       <c r="F10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -753,7 +753,7 @@
     <t>https://krsk.maroon.rest/#popup:infoblock</t>
   </si>
   <si>
-    <t>Капустина Ксения Александровна</t>
+    <t>Бойцов Иван Сергеевич</t>
   </si>
   <si>
     <t>Сыроварня Махачкала</t>
@@ -2722,12 +2722,12 @@
         <v>73</v>
       </c>
       <c r="N11" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A11,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Неудачин Даниил Глебович")</f>
-        <v>Неудачин Даниил Глебович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A11,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Идрисова Сабина Рамилевнна")</f>
+        <v>Идрисова Сабина Рамилевнна</v>
       </c>
       <c r="O11" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="12">
@@ -3436,8 +3436,8 @@
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Капустина Ксения Александровна")</f>
-        <v>Капустина Ксения Александровна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Бойцов Иван Сергеевич")</f>
+        <v>Бойцов Иван Сергеевич</v>
       </c>
       <c r="O28" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="L47" s="10"/>
       <c r="N47" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Белов Александр Сергеевич")</f>
-        <v>Белов Александр Сергеевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Замена Белов Александр Сергеевич")</f>
+        <v>Замена Белов Александр Сергеевич</v>
       </c>
       <c r="O47" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="48">
@@ -5238,14 +5238,14 @@
         <v>298</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="L72" s="13" t="s">
         <v>299</v>
       </c>
       <c r="N72" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A72,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Желязко Дмитрий Викторович")</f>
-        <v>Желязко Дмитрий Викторович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A72,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
+        <v>Репилов Иван Викторович</v>
       </c>
       <c r="O72" s="14" t="str">
         <f t="shared" si="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1269,10 +1269,10 @@
 Также от этого партнера White rabbit family - Selfie г. Москва, Новинский бул., 31 (НО здесь минимальная сумма заказа для доставки 5000 руб.)</t>
   </si>
   <si>
-    <t>Красота</t>
-  </si>
-  <si>
-    <t>г. Москва, Романов пер., 2, стр. 1</t>
+    <t>White Rabbit</t>
+  </si>
+  <si>
+    <t>г. Москва, Смоленская площадь, дом 3, этаж 16</t>
   </si>
   <si>
     <t>https://krasota.wrf.su/tickets</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1001,7 +1001,7 @@
     <t>https://prokhinkali.com/restaurants/nizhniy-novgorod/oceanis</t>
   </si>
   <si>
-    <t>Белов Александр Сергеевич</t>
+    <t>Маслов Александр Александрович</t>
   </si>
   <si>
     <t>Сыроварня Ростов</t>
@@ -4201,17 +4201,17 @@
       <c r="J47" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="24" t="s">
         <v>209</v>
       </c>
       <c r="L47" s="10"/>
       <c r="N47" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Замена Белов Александр Сергеевич")</f>
-        <v>Замена Белов Александр Сергеевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Маслов Александр Александрович")</f>
+        <v>Маслов Александр Александрович</v>
       </c>
       <c r="O47" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="48">

--- a/data.xlsx
+++ b/data.xlsx
@@ -116,7 +116,7 @@
     <t>https://gracebistro.ru/</t>
   </si>
   <si>
-    <t>Алексеев Александр Станиславович</t>
+    <t>Репилов Иван Викторович</t>
   </si>
   <si>
     <t>CHRISTIAN</t>
@@ -581,6 +581,9 @@
     <t>https://maya.lucky-group.rest/contact</t>
   </si>
   <si>
+    <t>Алексеев Александр Станиславович</t>
+  </si>
+  <si>
     <t>Londri</t>
   </si>
   <si>
@@ -821,9 +824,6 @@
   </si>
   <si>
     <t>г. Москва, ул. Петровка, 27</t>
-  </si>
-  <si>
-    <t>Репилов Иван Викторович</t>
   </si>
   <si>
     <t>CIHAN STEAK &amp; KEBAB</t>
@@ -1832,6 +1832,9 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1852,9 +1855,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2361,13 +2361,13 @@
       <c r="J3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="17" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="10"/>
       <c r="N3" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A3,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Алексеев Александр Станиславович")</f>
-        <v>Алексеев Александр Станиславович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A3,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
+        <v>Репилов Иван Викторович</v>
       </c>
       <c r="O3" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2424,19 +2424,19 @@
       <c r="A5" s="8">
         <v>156.0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -2470,19 +2470,19 @@
       <c r="A6" s="8">
         <v>7.0</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -2498,7 +2498,7 @@
       <c r="K6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="19" t="s">
         <v>46</v>
       </c>
       <c r="N6" s="14" t="str">
@@ -2514,19 +2514,19 @@
       <c r="A7" s="8">
         <v>155.0</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -2539,10 +2539,10 @@
       <c r="J7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="19" t="s">
         <v>51</v>
       </c>
       <c r="N7" s="14" t="str">
@@ -2558,16 +2558,16 @@
       <c r="A8" s="8">
         <v>11.0</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -2602,16 +2602,16 @@
       <c r="A9" s="8">
         <v>12.0</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -2646,16 +2646,16 @@
       <c r="A10" s="8">
         <v>18.0</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -2690,16 +2690,16 @@
       <c r="A11" s="8">
         <v>59.0</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -2731,19 +2731,19 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>13.0</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -2774,16 +2774,16 @@
       <c r="A13" s="8">
         <v>33.0</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -2797,10 +2797,10 @@
         <v>78</v>
       </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="24" t="s">
         <v>79</v>
       </c>
       <c r="N13" s="14" t="str">
@@ -2813,19 +2813,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>34.0</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -2839,7 +2839,7 @@
         <v>61</v>
       </c>
       <c r="J14" s="10"/>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="20" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="10"/>
@@ -2856,16 +2856,16 @@
       <c r="A15" s="8">
         <v>97.0</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -2879,7 +2879,7 @@
         <v>61</v>
       </c>
       <c r="J15" s="10"/>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="17" t="s">
         <v>84</v>
       </c>
       <c r="L15" s="10"/>
@@ -2896,16 +2896,16 @@
       <c r="A16" s="8">
         <v>126.0</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2962,7 +2962,7 @@
         <v>90</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L17" s="10"/>
       <c r="N17" s="14" t="str">
@@ -2982,10 +2982,10 @@
         <v>87</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>16</v>
@@ -3001,10 +3001,10 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="10"/>
       <c r="N18" s="14" t="str">
@@ -3024,10 +3024,10 @@
         <v>87</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>16</v>
@@ -3043,13 +3043,13 @@
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N19" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A19,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -3068,10 +3068,10 @@
         <v>87</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>16</v>
@@ -3087,10 +3087,10 @@
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="10"/>
       <c r="N20" s="14" t="str">
@@ -3110,10 +3110,10 @@
         <v>87</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>16</v>
@@ -3129,13 +3129,13 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N21" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3151,16 +3151,16 @@
         <v>124.0</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>24</v>
@@ -3169,17 +3169,17 @@
         <v>18</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N22" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Меденцев Григорий Сергеевич")</f>
@@ -3195,16 +3195,16 @@
         <v>4.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>24</v>
@@ -3213,17 +3213,17 @@
         <v>18</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="19" t="s">
         <v>120</v>
       </c>
+      <c r="K23" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="L23" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N23" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Ткачук Олеся Андреевна")</f>
@@ -3239,16 +3239,16 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>24</v>
@@ -3257,17 +3257,17 @@
         <v>18</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N24" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Панчёхин Игорь Игоревич")</f>
@@ -3283,16 +3283,16 @@
         <v>128.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>24</v>
@@ -3301,14 +3301,14 @@
         <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L25" s="10"/>
       <c r="N25" s="14" t="str">
@@ -3325,16 +3325,16 @@
         <v>16.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>24</v>
@@ -3343,14 +3343,14 @@
         <v>18</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="14" t="str">
@@ -3367,16 +3367,16 @@
         <v>152.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>24</v>
@@ -3387,10 +3387,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L27" s="10"/>
       <c r="N27" s="14" t="str">
@@ -3407,16 +3407,16 @@
         <v>17.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>24</v>
@@ -3425,14 +3425,14 @@
         <v>18</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="14" t="str">
@@ -3449,16 +3449,16 @@
         <v>22.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>24</v>
@@ -3467,17 +3467,17 @@
         <v>18</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="24" t="s">
         <v>151</v>
       </c>
+      <c r="K29" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="L29" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N29" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Попова Алина Александровна")</f>
@@ -3493,13 +3493,13 @@
         <v>23.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>16</v>
@@ -3514,10 +3514,10 @@
       <c r="I30" s="10"/>
       <c r="J30" s="11"/>
       <c r="K30" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N30" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -3533,13 +3533,13 @@
         <v>26.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>16</v>
@@ -3554,18 +3554,18 @@
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
       <c r="K31" s="31" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N31" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Алексеев Александр Станиславович")</f>
-        <v>Алексеев Александр Станиславович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Алексеев Александр Станиславович")</f>
+        <v>Нужна замена Алексеев Александр Станиславович</v>
       </c>
       <c r="O31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="32">
@@ -3573,13 +3573,13 @@
         <v>35.0</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>16</v>
@@ -3595,10 +3595,10 @@
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L32" s="10"/>
       <c r="N32" s="14" t="str">
@@ -3615,13 +3615,13 @@
         <v>37.0</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>16</v>
@@ -3636,10 +3636,10 @@
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
       <c r="K33" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="N33" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A33,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -3655,13 +3655,13 @@
         <v>40.0</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>16</v>
@@ -3676,10 +3676,10 @@
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
       <c r="K34" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="23" t="s">
-        <v>156</v>
+        <v>104</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="N34" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -3695,13 +3695,13 @@
         <v>44.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>16</v>
@@ -3716,10 +3716,10 @@
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
       <c r="K35" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>156</v>
+        <v>27</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="N35" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A35,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -3735,7 +3735,7 @@
         <v>45.0</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>170</v>
@@ -3756,9 +3756,9 @@
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
       <c r="K36" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="L36" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" s="24" t="s">
         <v>172</v>
       </c>
       <c r="N36" s="14" t="str">
@@ -3775,7 +3775,7 @@
         <v>47.0</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>173</v>
@@ -3796,9 +3796,9 @@
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
       <c r="K37" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="24" t="s">
         <v>175</v>
       </c>
       <c r="N37" s="14" t="str">
@@ -3815,7 +3815,7 @@
         <v>51.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>176</v>
@@ -3855,7 +3855,7 @@
         <v>55.0</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>179</v>
@@ -3878,7 +3878,7 @@
       <c r="K39" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="24" t="s">
         <v>182</v>
       </c>
       <c r="N39" s="14" t="str">
@@ -3895,7 +3895,7 @@
         <v>63.0</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>183</v>
@@ -3937,7 +3937,7 @@
         <v>69.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>187</v>
@@ -3977,7 +3977,7 @@
         <v>73.0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>190</v>
@@ -4000,7 +4000,7 @@
       <c r="K42" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="23" t="s">
+      <c r="L42" s="24" t="s">
         <v>192</v>
       </c>
       <c r="N42" s="14" t="str">
@@ -4017,7 +4017,7 @@
         <v>77.0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>193</v>
@@ -4038,7 +4038,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>175</v>
@@ -4057,7 +4057,7 @@
         <v>90.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>195</v>
@@ -4080,7 +4080,7 @@
         <v>197</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="L44" s="10"/>
       <c r="N44" s="14" t="str">
@@ -4097,7 +4097,7 @@
         <v>117.0</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>198</v>
@@ -4137,7 +4137,7 @@
         <v>123.0</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>201</v>
@@ -4177,7 +4177,7 @@
         <v>94.0</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>205</v>
@@ -4195,13 +4195,13 @@
         <v>18</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="17" t="s">
         <v>209</v>
       </c>
       <c r="L47" s="10"/>
@@ -4219,7 +4219,7 @@
         <v>100.0</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>210</v>
@@ -4237,13 +4237,13 @@
         <v>18</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="K48" s="20" t="s">
         <v>214</v>
       </c>
       <c r="L48" s="10"/>
@@ -4261,7 +4261,7 @@
         <v>101.0</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>215</v>
@@ -4279,7 +4279,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="16" t="s">
@@ -4303,7 +4303,7 @@
         <v>107.0</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>218</v>
@@ -4343,7 +4343,7 @@
         <v>140.0</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>221</v>
@@ -4383,7 +4383,7 @@
         <v>145.0</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>226</v>
@@ -4423,7 +4423,7 @@
         <v>146.0</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>231</v>
@@ -4447,7 +4447,7 @@
         <v>229</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N53" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4463,7 +4463,7 @@
         <v>110.0</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>233</v>
@@ -4481,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="16" t="s">
@@ -4505,7 +4505,7 @@
         <v>150.0</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>238</v>
@@ -4568,7 +4568,7 @@
         <v>243</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L56" s="10"/>
       <c r="N56" s="14" t="str">
@@ -4610,7 +4610,7 @@
         <v>246</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L57" s="10"/>
       <c r="N57" s="14" t="str">
@@ -4652,7 +4652,7 @@
         <v>249</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L58" s="10"/>
       <c r="N58" s="14" t="str">
@@ -4694,7 +4694,7 @@
         <v>252</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>253</v>
@@ -4822,7 +4822,7 @@
         <v>263</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L62" s="10"/>
       <c r="N62" s="14" t="str">
@@ -4888,7 +4888,7 @@
       <c r="E64" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G64" s="10" t="s">
@@ -4900,7 +4900,7 @@
         <v>268</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="L64" s="10"/>
       <c r="N64" s="14" t="str">
@@ -4928,7 +4928,7 @@
       <c r="E65" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="10" t="s">
@@ -4968,7 +4968,7 @@
       <c r="E66" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="10" t="s">
@@ -4978,7 +4978,7 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L66" s="39" t="s">
         <v>273</v>
@@ -5008,7 +5008,7 @@
       <c r="E67" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G67" s="10" t="s">
@@ -5020,7 +5020,7 @@
         <v>276</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L67" s="10"/>
       <c r="N67" s="14" t="str">
@@ -5048,14 +5048,14 @@
       <c r="E68" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="19" t="s">
         <v>24</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="16" t="s">
@@ -5103,7 +5103,7 @@
       <c r="J69" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K69" s="18" t="s">
+      <c r="K69" s="19" t="s">
         <v>229</v>
       </c>
       <c r="L69" s="10"/>
@@ -5146,7 +5146,7 @@
         <v>289</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>290</v>
@@ -5192,7 +5192,7 @@
         <v>294</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>295</v>
@@ -5238,7 +5238,7 @@
         <v>298</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="L72" s="13" t="s">
         <v>299</v>
@@ -5367,7 +5367,7 @@
         <v>18</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="16" t="s">
@@ -5409,7 +5409,7 @@
         <v>18</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>316</v>
@@ -5455,7 +5455,7 @@
         <v>18</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
@@ -5499,7 +5499,7 @@
         <v>18</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
@@ -5508,7 +5508,7 @@
       <c r="K78" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="L78" s="18" t="s">
+      <c r="L78" s="19" t="s">
         <v>325</v>
       </c>
       <c r="N78" s="14" t="str">
@@ -5548,7 +5548,7 @@
         <v>329</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="L79" s="10"/>
       <c r="N79" s="14" t="str">
@@ -9983,7 +9983,7 @@
         <v>87</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>240</v>
@@ -13135,7 +13135,7 @@
       <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="63" t="s">
@@ -13161,7 +13161,7 @@
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="64" t="s">
@@ -13172,22 +13172,22 @@
       <c r="A4" s="8">
         <v>156.0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="65" t="s">
@@ -13198,22 +13198,22 @@
       <c r="A5" s="8">
         <v>11.0</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="16" t="s">
@@ -13224,22 +13224,22 @@
       <c r="A6" s="8">
         <v>12.0</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -13250,22 +13250,22 @@
       <c r="A7" s="8">
         <v>18.0</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="16" t="s">
@@ -13276,22 +13276,22 @@
       <c r="A8" s="8">
         <v>59.0</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -13317,7 +13317,7 @@
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -13340,10 +13340,10 @@
       <c r="E10" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -581,9 +581,6 @@
     <t>https://maya.lucky-group.rest/contact</t>
   </si>
   <si>
-    <t>Алексеев Александр Станиславович</t>
-  </si>
-  <si>
     <t>Londri</t>
   </si>
   <si>
@@ -794,6 +791,9 @@
   </si>
   <si>
     <t>г. Москва, Крокус Сити (66-й км МКАД, к5)</t>
+  </si>
+  <si>
+    <t>Алексеев Александр Станиславович</t>
   </si>
   <si>
     <t>Novikov Restaurant &amp; Bar</t>
@@ -2962,12 +2962,12 @@
         <v>90</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="L17" s="10"/>
       <c r="N17" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A17,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Алексеев Александр Станиславович")</f>
-        <v>Алексеев Александр Станиславович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A17,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
+        <v>Репилов Иван Викторович</v>
       </c>
       <c r="O17" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2982,10 +2982,10 @@
         <v>87</v>
       </c>
       <c r="C18" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>16</v>
@@ -3001,10 +3001,10 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="L18" s="10"/>
       <c r="N18" s="14" t="str">
@@ -3024,10 +3024,10 @@
         <v>87</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>16</v>
@@ -3043,13 +3043,13 @@
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="N19" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A19,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -3068,10 +3068,10 @@
         <v>87</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>16</v>
@@ -3087,10 +3087,10 @@
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="L20" s="10"/>
       <c r="N20" s="14" t="str">
@@ -3110,10 +3110,10 @@
         <v>87</v>
       </c>
       <c r="C21" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>16</v>
@@ -3129,13 +3129,13 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="L21" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N21" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3151,16 +3151,16 @@
         <v>124.0</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>24</v>
@@ -3169,17 +3169,17 @@
         <v>18</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="N22" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Меденцев Григорий Сергеевич")</f>
@@ -3195,16 +3195,16 @@
         <v>4.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>118</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>119</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>24</v>
@@ -3213,17 +3213,17 @@
         <v>18</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="L23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N23" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Ткачук Олеся Андреевна")</f>
@@ -3239,16 +3239,16 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="E24" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>124</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>24</v>
@@ -3257,17 +3257,17 @@
         <v>18</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="N24" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Панчёхин Игорь Игоревич")</f>
@@ -3283,16 +3283,16 @@
         <v>128.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="E25" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>130</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>24</v>
@@ -3301,14 +3301,14 @@
         <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="L25" s="10"/>
       <c r="N25" s="14" t="str">
@@ -3325,16 +3325,16 @@
         <v>16.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>135</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>24</v>
@@ -3343,14 +3343,14 @@
         <v>18</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="14" t="str">
@@ -3367,16 +3367,16 @@
         <v>152.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>24</v>
@@ -3387,10 +3387,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="L27" s="10"/>
       <c r="N27" s="14" t="str">
@@ -3407,16 +3407,16 @@
         <v>17.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>24</v>
@@ -3425,14 +3425,14 @@
         <v>18</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>146</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>147</v>
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="14" t="str">
@@ -3449,16 +3449,16 @@
         <v>22.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>149</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>150</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>24</v>
@@ -3467,17 +3467,17 @@
         <v>18</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="L29" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="N29" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Попова Алина Александровна")</f>
@@ -3493,13 +3493,13 @@
         <v>23.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>16</v>
@@ -3514,10 +3514,10 @@
       <c r="I30" s="10"/>
       <c r="J30" s="11"/>
       <c r="K30" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="N30" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -3533,13 +3533,13 @@
         <v>26.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>159</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>16</v>
@@ -3554,18 +3554,18 @@
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
       <c r="K31" s="31" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N31" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Алексеев Александр Станиславович")</f>
-        <v>Нужна замена Алексеев Александр Станиславович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Алексеев Александр Станиславович")</f>
+        <v>Алексеев Александр Станиславович</v>
       </c>
       <c r="O31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="32">
@@ -3573,7 +3573,7 @@
         <v>35.0</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>160</v>
@@ -3598,7 +3598,7 @@
         <v>162</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L32" s="10"/>
       <c r="N32" s="14" t="str">
@@ -3615,7 +3615,7 @@
         <v>37.0</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>163</v>
@@ -3639,7 +3639,7 @@
         <v>165</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N33" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A33,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -3655,7 +3655,7 @@
         <v>40.0</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>166</v>
@@ -3676,10 +3676,10 @@
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
       <c r="K34" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N34" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -3695,7 +3695,7 @@
         <v>44.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>168</v>
@@ -3719,7 +3719,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N35" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A35,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -3735,7 +3735,7 @@
         <v>45.0</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>170</v>
@@ -3756,7 +3756,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
       <c r="K36" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L36" s="24" t="s">
         <v>172</v>
@@ -3775,7 +3775,7 @@
         <v>47.0</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>173</v>
@@ -3796,7 +3796,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
       <c r="K37" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L37" s="24" t="s">
         <v>175</v>
@@ -3815,7 +3815,7 @@
         <v>51.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>176</v>
@@ -3855,7 +3855,7 @@
         <v>55.0</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>179</v>
@@ -3895,7 +3895,7 @@
         <v>63.0</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>183</v>
@@ -3937,7 +3937,7 @@
         <v>69.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>187</v>
@@ -3977,7 +3977,7 @@
         <v>73.0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>190</v>
@@ -4017,7 +4017,7 @@
         <v>77.0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>193</v>
@@ -4038,7 +4038,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>175</v>
@@ -4057,7 +4057,7 @@
         <v>90.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>195</v>
@@ -4097,7 +4097,7 @@
         <v>117.0</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>198</v>
@@ -4137,7 +4137,7 @@
         <v>123.0</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>201</v>
@@ -4177,7 +4177,7 @@
         <v>94.0</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>205</v>
@@ -4195,7 +4195,7 @@
         <v>18</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="16" t="s">
@@ -4219,7 +4219,7 @@
         <v>100.0</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>210</v>
@@ -4237,7 +4237,7 @@
         <v>18</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="16" t="s">
@@ -4261,7 +4261,7 @@
         <v>101.0</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>215</v>
@@ -4279,7 +4279,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="16" t="s">
@@ -4303,7 +4303,7 @@
         <v>107.0</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>218</v>
@@ -4343,7 +4343,7 @@
         <v>140.0</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>221</v>
@@ -4383,7 +4383,7 @@
         <v>145.0</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>226</v>
@@ -4423,7 +4423,7 @@
         <v>146.0</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>231</v>
@@ -4447,7 +4447,7 @@
         <v>229</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N53" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4463,7 +4463,7 @@
         <v>110.0</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>233</v>
@@ -4481,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="16" t="s">
@@ -4505,7 +4505,7 @@
         <v>150.0</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>238</v>
@@ -4568,7 +4568,7 @@
         <v>243</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L56" s="10"/>
       <c r="N56" s="14" t="str">
@@ -4610,7 +4610,7 @@
         <v>246</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L57" s="10"/>
       <c r="N57" s="14" t="str">
@@ -4652,7 +4652,7 @@
         <v>249</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L58" s="10"/>
       <c r="N58" s="14" t="str">
@@ -4978,7 +4978,7 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L66" s="39" t="s">
         <v>273</v>
@@ -5020,7 +5020,7 @@
         <v>276</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L67" s="10"/>
       <c r="N67" s="14" t="str">
@@ -5055,7 +5055,7 @@
         <v>18</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="16" t="s">
@@ -5146,7 +5146,7 @@
         <v>289</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>290</v>
@@ -5192,7 +5192,7 @@
         <v>294</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>295</v>
@@ -5367,7 +5367,7 @@
         <v>18</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="16" t="s">
@@ -5409,7 +5409,7 @@
         <v>18</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>316</v>
@@ -5455,7 +5455,7 @@
         <v>18</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
@@ -5499,7 +5499,7 @@
         <v>18</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
@@ -9983,7 +9983,7 @@
         <v>87</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>240</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="352">
   <si>
     <t>Партнер</t>
   </si>
@@ -1396,9 +1396,6 @@
       </rPr>
       <t>sakhalin-restaurant. ru</t>
     </r>
-  </si>
-  <si>
-    <t>Казаков Павел Владимирович</t>
   </si>
   <si>
     <t>Есть зонт / Один адрес с ID 119 и 83
@@ -5418,14 +5415,14 @@
         <v>317</v>
       </c>
       <c r="K76" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L76" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="L76" s="10" t="s">
-        <v>319</v>
-      </c>
       <c r="N76" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Казаков Павел Владимирович")</f>
-        <v>Казаков Павел Владимирович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
+        <v>Лесных Алина Артемовна</v>
       </c>
       <c r="O76" s="14" t="str">
         <f t="shared" si="1"/>
@@ -5443,7 +5440,7 @@
         <v>309</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E77" s="44" t="s">
         <v>223</v>
@@ -5459,13 +5456,13 @@
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K77" s="10" t="s">
         <v>224</v>
       </c>
       <c r="L77" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N77" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5487,7 +5484,7 @@
         <v>287</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E78" s="42" t="s">
         <v>315</v>
@@ -5503,13 +5500,13 @@
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>224</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N78" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5525,13 +5522,13 @@
         <v>158.0</v>
       </c>
       <c r="B79" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="D79" s="46" t="s">
         <v>327</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>328</v>
       </c>
       <c r="E79" s="46" t="s">
         <v>16</v>
@@ -5545,7 +5542,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>27</v>
@@ -5565,13 +5562,13 @@
         <v>159.0</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C80" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80" s="46" t="s">
         <v>330</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>331</v>
       </c>
       <c r="E80" s="46" t="s">
         <v>16</v>
@@ -5587,7 +5584,7 @@
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>189</v>
@@ -5607,13 +5604,13 @@
         <v>144.0</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C81" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>333</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>334</v>
       </c>
       <c r="E81" s="46" t="s">
         <v>37</v>
@@ -9995,7 +9992,7 @@
         <v>286</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10040,48 +10037,48 @@
         <v>24</v>
       </c>
       <c r="P3" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="L4" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="P4" s="59" t="s">
         <v>347</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -13092,7 +13089,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>0</v>
@@ -13113,7 +13110,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
@@ -13139,7 +13136,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
@@ -13191,7 +13188,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
@@ -13335,7 +13332,7 @@
         <v>309</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>223</v>
@@ -13347,7 +13344,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -986,7 +986,7 @@
     <t>https://prokhinkali.com/</t>
   </si>
   <si>
-    <t>Жесткова Маргарита Викторовна</t>
+    <t>Маклаков Виктор Андреевич</t>
   </si>
   <si>
     <t>PRO Хинкали Нижний Новгород</t>
@@ -4156,13 +4156,13 @@
       <c r="J46" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="17" t="s">
         <v>204</v>
       </c>
       <c r="L46" s="10"/>
       <c r="N46" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Жесткова Маргарита Викторовна")</f>
-        <v>Жесткова Маргарита Викторовна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Маклаков Виктор Андреевич")</f>
+        <v>Маклаков Виктор Андреевич</v>
       </c>
       <c r="O46" s="14" t="str">
         <f t="shared" si="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="351">
   <si>
     <t>Партнер</t>
   </si>
@@ -78,7 +78,7 @@
     <t>https://burobistro.ru/#info</t>
   </si>
   <si>
-    <t>Берсенева Евгения Николаевна</t>
+    <t>Солнышкина Татьяна Александровна</t>
   </si>
   <si>
     <r>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>https://christianforfriends.ru/services/</t>
-  </si>
-  <si>
-    <t>Солнышкина Татьяна Александровна</t>
   </si>
   <si>
     <r>
@@ -723,7 +720,7 @@
     <t>https://www.minisyrovarnya.com/restaurants/yoshkar-ola</t>
   </si>
   <si>
-    <t xml:space="preserve">Подоплелова Екатерина Николаевна </t>
+    <t>Подоплелова Екатерина Николаевна</t>
   </si>
   <si>
     <t>Сыроварня Краснодар</t>
@@ -738,7 +735,7 @@
     <t>https://familygarden.su/syrovarnyakrd/</t>
   </si>
   <si>
-    <t>Мокшин Александр Александрович</t>
+    <t>Резниченко Диана Игоревна</t>
   </si>
   <si>
     <t>Maroon</t>
@@ -1001,7 +998,7 @@
     <t>https://prokhinkali.com/restaurants/nizhniy-novgorod/oceanis</t>
   </si>
   <si>
-    <t>Маслов Александр Александрович</t>
+    <t>Екатеринина Евгения Игоревна</t>
   </si>
   <si>
     <t>Сыроварня Ростов</t>
@@ -2321,8 +2318,8 @@
         <v>21</v>
       </c>
       <c r="N2" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A2,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Берсенева Евгения Николаевна")</f>
-        <v>Берсенева Евгения Николаевна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A2,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
+        <v>Солнышкина Татьяна Александровна</v>
       </c>
       <c r="O2" s="14" t="str">
         <f t="shared" ref="O2:O81" si="1">if(K2=N2, "да", "нет")</f>
@@ -2403,10 +2400,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="N4" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A4,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -2422,16 +2419,16 @@
         <v>156.0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>17</v>
@@ -2440,19 +2437,19 @@
         <v>18</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="N5" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A5,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -2468,16 +2465,16 @@
         <v>7.0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>24</v>
@@ -2490,13 +2487,13 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="N6" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A6,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -2512,16 +2509,16 @@
         <v>155.0</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>24</v>
@@ -2534,13 +2531,13 @@
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="N7" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A7,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Климцева Анна Евгеньевна")</f>
@@ -2556,16 +2553,16 @@
         <v>11.0</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>17</v>
@@ -2575,16 +2572,16 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="N8" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A8,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Неудачин Даниил Глебович")</f>
@@ -2600,16 +2597,16 @@
         <v>12.0</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>17</v>
@@ -2619,16 +2616,16 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="N9" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A9,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Ерошкина Мария Александровна")</f>
@@ -2644,16 +2641,16 @@
         <v>18.0</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="E10" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>17</v>
@@ -2663,16 +2660,16 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="N10" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A10,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Валитова Карина Рамилевна")</f>
@@ -2688,16 +2685,16 @@
         <v>59.0</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>17</v>
@@ -2707,16 +2704,16 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="K11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="N11" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A11,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Идрисова Сабина Рамилевнна")</f>
@@ -2732,16 +2729,16 @@
         <v>13.0</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="E12" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>24</v>
@@ -2751,11 +2748,11 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="10"/>
       <c r="N12" s="14" t="str">
@@ -2772,16 +2769,16 @@
         <v>33.0</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="E13" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>24</v>
@@ -2791,14 +2788,14 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A13,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Климцева Анна Евгеньевна")</f>
@@ -2814,16 +2811,16 @@
         <v>34.0</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="E14" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>24</v>
@@ -2833,11 +2830,11 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="10"/>
       <c r="N14" s="14" t="str">
@@ -2854,16 +2851,16 @@
         <v>97.0</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>83</v>
-      </c>
       <c r="E15" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>24</v>
@@ -2873,11 +2870,11 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L15" s="10"/>
       <c r="N15" s="14" t="str">
@@ -2894,16 +2891,16 @@
         <v>126.0</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>86</v>
-      </c>
       <c r="E16" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>24</v>
@@ -2913,11 +2910,11 @@
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="10"/>
       <c r="N16" s="14" t="str">
@@ -2934,13 +2931,13 @@
         <v>14.0</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>16</v>
@@ -2956,7 +2953,7 @@
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>27</v>
@@ -2976,13 +2973,13 @@
         <v>53.0</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>92</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>16</v>
@@ -2998,10 +2995,10 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="L18" s="10"/>
       <c r="N18" s="14" t="str">
@@ -3018,13 +3015,13 @@
         <v>95.0</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>96</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>16</v>
@@ -3040,13 +3037,13 @@
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="N19" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A19,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -3062,13 +3059,13 @@
         <v>112.0</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>16</v>
@@ -3084,10 +3081,10 @@
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="L20" s="10"/>
       <c r="N20" s="14" t="str">
@@ -3104,13 +3101,13 @@
         <v>143.0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>104</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>105</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>16</v>
@@ -3126,13 +3123,13 @@
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="L21" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N21" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Янина Полина Олеговна")</f>
@@ -3148,16 +3145,16 @@
         <v>124.0</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>110</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>111</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>24</v>
@@ -3166,17 +3163,17 @@
         <v>18</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="N22" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Меденцев Григорий Сергеевич")</f>
@@ -3192,16 +3189,16 @@
         <v>4.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>118</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>24</v>
@@ -3210,17 +3207,17 @@
         <v>18</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>120</v>
-      </c>
       <c r="L23" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N23" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Ткачук Олеся Андреевна")</f>
@@ -3236,16 +3233,16 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="E24" s="26" t="s">
         <v>122</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>123</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>24</v>
@@ -3254,17 +3251,17 @@
         <v>18</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="N24" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Панчёхин Игорь Игоревич")</f>
@@ -3280,16 +3277,16 @@
         <v>128.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="E25" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>24</v>
@@ -3298,14 +3295,14 @@
         <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="L25" s="10"/>
       <c r="N25" s="14" t="str">
@@ -3322,16 +3319,16 @@
         <v>16.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>134</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>24</v>
@@ -3340,19 +3337,19 @@
         <v>18</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Подоплелова Екатерина Николаевна ")</f>
-        <v>Подоплелова Екатерина Николаевна </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A26,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Подоплелова Екатерина Николаевна")</f>
+        <v>Подоплелова Екатерина Николаевна</v>
       </c>
       <c r="O26" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3364,16 +3361,16 @@
         <v>152.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>139</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>24</v>
@@ -3384,15 +3381,15 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="L27" s="10"/>
       <c r="N27" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Мокшин Александр Александрович")</f>
-        <v>Мокшин Александр Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A27,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Резниченко Диана Игоревна")</f>
+        <v>Резниченко Диана Игоревна</v>
       </c>
       <c r="O27" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3404,16 +3401,16 @@
         <v>17.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>143</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>144</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>24</v>
@@ -3422,14 +3419,14 @@
         <v>18</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>145</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>146</v>
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="14" t="str">
@@ -3446,16 +3443,16 @@
         <v>22.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>148</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>149</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>24</v>
@@ -3464,17 +3461,17 @@
         <v>18</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="L29" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="N29" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Попова Алина Александровна")</f>
@@ -3490,13 +3487,13 @@
         <v>23.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>16</v>
@@ -3511,10 +3508,10 @@
       <c r="I30" s="10"/>
       <c r="J30" s="11"/>
       <c r="K30" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="N30" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -3530,13 +3527,13 @@
         <v>26.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>16</v>
@@ -3551,10 +3548,10 @@
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
       <c r="K31" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N31" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Алексеев Александр Станиславович")</f>
@@ -3570,13 +3567,13 @@
         <v>35.0</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>16</v>
@@ -3592,10 +3589,10 @@
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L32" s="10"/>
       <c r="N32" s="14" t="str">
@@ -3612,13 +3609,13 @@
         <v>37.0</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>16</v>
@@ -3633,10 +3630,10 @@
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
       <c r="K33" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N33" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A33,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -3652,13 +3649,13 @@
         <v>40.0</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>16</v>
@@ -3673,10 +3670,10 @@
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
       <c r="K34" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N34" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -3692,13 +3689,13 @@
         <v>44.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>168</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>16</v>
@@ -3716,7 +3713,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N35" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A35,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -3732,13 +3729,13 @@
         <v>45.0</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>16</v>
@@ -3753,10 +3750,10 @@
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
       <c r="K36" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N36" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -3772,13 +3769,13 @@
         <v>47.0</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>173</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>16</v>
@@ -3793,10 +3790,10 @@
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
       <c r="K37" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N37" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -3812,13 +3809,13 @@
         <v>51.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>177</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>16</v>
@@ -3833,10 +3830,10 @@
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
       <c r="K38" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N38" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A38,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Кузнецова Елена Андреевна")</f>
@@ -3852,13 +3849,13 @@
         <v>55.0</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>16</v>
@@ -3873,10 +3870,10 @@
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
       <c r="K39" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="L39" s="24" t="s">
         <v>181</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>182</v>
       </c>
       <c r="N39" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A39,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Илюшенко Анна Алексеевна")</f>
@@ -3892,13 +3889,13 @@
         <v>63.0</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>184</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
@@ -3914,10 +3911,10 @@
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="L40" s="10"/>
       <c r="N40" s="14" t="str">
@@ -3934,13 +3931,13 @@
         <v>69.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>187</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>188</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>16</v>
@@ -3955,10 +3952,10 @@
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
       <c r="K41" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L41" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N41" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A41,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Шиверских Виктор Станиславович")</f>
@@ -3974,13 +3971,13 @@
         <v>73.0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>16</v>
@@ -3995,10 +3992,10 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N42" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Илюшенко Анна Алексеевна")</f>
@@ -4014,13 +4011,13 @@
         <v>77.0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>16</v>
@@ -4035,10 +4032,10 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L43" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N43" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Янина Полина Олеговна")</f>
@@ -4054,13 +4051,13 @@
         <v>90.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>16</v>
@@ -4074,7 +4071,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>27</v>
@@ -4094,13 +4091,13 @@
         <v>117.0</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>199</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>16</v>
@@ -4115,10 +4112,10 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N45" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
@@ -4134,13 +4131,13 @@
         <v>123.0</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>202</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>16</v>
@@ -4154,10 +4151,10 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="L46" s="10"/>
       <c r="N46" s="14" t="str">
@@ -4174,16 +4171,16 @@
         <v>94.0</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>207</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>24</v>
@@ -4192,19 +4189,19 @@
         <v>18</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="L47" s="10"/>
       <c r="N47" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Маслов Александр Александрович")</f>
-        <v>Маслов Александр Александрович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A47,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Екатеринина Евгения Игоревна")</f>
+        <v>Екатеринина Евгения Игоревна</v>
       </c>
       <c r="O47" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4216,16 +4213,16 @@
         <v>100.0</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="E48" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>24</v>
@@ -4234,14 +4231,14 @@
         <v>18</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K48" s="20" t="s">
         <v>213</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>214</v>
       </c>
       <c r="L48" s="10"/>
       <c r="N48" s="14" t="str">
@@ -4258,16 +4255,16 @@
         <v>101.0</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>216</v>
-      </c>
       <c r="E49" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>24</v>
@@ -4276,14 +4273,14 @@
         <v>18</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L49" s="10"/>
       <c r="N49" s="14" t="str">
@@ -4300,16 +4297,16 @@
         <v>107.0</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>219</v>
-      </c>
       <c r="E50" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>24</v>
@@ -4319,11 +4316,11 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L50" s="10"/>
       <c r="N50" s="14" t="str">
@@ -4340,16 +4337,16 @@
         <v>140.0</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>24</v>
@@ -4361,10 +4358,10 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L51" s="35" t="s">
         <v>224</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>225</v>
       </c>
       <c r="N51" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4380,16 +4377,16 @@
         <v>145.0</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>228</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>24</v>
@@ -4401,10 +4398,10 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L52" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="L52" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="N52" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4420,16 +4417,16 @@
         <v>146.0</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>232</v>
-      </c>
       <c r="E53" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>24</v>
@@ -4441,10 +4438,10 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N53" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4460,16 +4457,16 @@
         <v>110.0</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="37" t="s">
         <v>234</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>235</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>24</v>
@@ -4478,14 +4475,14 @@
         <v>18</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="14" t="str">
@@ -4502,16 +4499,16 @@
         <v>150.0</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>239</v>
-      </c>
       <c r="E55" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>24</v>
@@ -4523,7 +4520,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="11"/>
       <c r="K55" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="14" t="str">
@@ -4540,13 +4537,13 @@
         <v>46.0</v>
       </c>
       <c r="B56" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="D56" s="38" t="s">
         <v>241</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>242</v>
       </c>
       <c r="E56" s="38" t="s">
         <v>16</v>
@@ -4562,10 +4559,10 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L56" s="10"/>
       <c r="N56" s="14" t="str">
@@ -4582,13 +4579,13 @@
         <v>70.0</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C57" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="38" t="s">
         <v>244</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>245</v>
       </c>
       <c r="E57" s="38" t="s">
         <v>16</v>
@@ -4604,10 +4601,10 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L57" s="10"/>
       <c r="N57" s="14" t="str">
@@ -4624,13 +4621,13 @@
         <v>78.0</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>247</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>248</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>16</v>
@@ -4646,10 +4643,10 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L58" s="10"/>
       <c r="N58" s="14" t="str">
@@ -4666,13 +4663,13 @@
         <v>87.0</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>250</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>251</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>16</v>
@@ -4688,13 +4685,13 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N59" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -4710,13 +4707,13 @@
         <v>105.0</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>254</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>255</v>
       </c>
       <c r="E60" s="38" t="s">
         <v>16</v>
@@ -4730,13 +4727,13 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L60" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="N60" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
@@ -4752,13 +4749,13 @@
         <v>136.0</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C61" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="38" t="s">
         <v>258</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>259</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>16</v>
@@ -4774,10 +4771,10 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" s="10"/>
       <c r="N61" s="14" t="str">
@@ -4794,13 +4791,13 @@
         <v>137.0</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C62" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>261</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>262</v>
       </c>
       <c r="E62" s="38" t="s">
         <v>16</v>
@@ -4816,10 +4813,10 @@
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L62" s="10"/>
       <c r="N62" s="14" t="str">
@@ -4836,16 +4833,16 @@
         <v>135.0</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="38" t="s">
-        <v>265</v>
-      </c>
       <c r="E63" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>24</v>
@@ -4857,7 +4854,7 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L63" s="10"/>
       <c r="N63" s="14" t="str">
@@ -4874,13 +4871,13 @@
         <v>27.0</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C64" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" s="38" t="s">
         <v>266</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>267</v>
       </c>
       <c r="E64" s="38" t="s">
         <v>16</v>
@@ -4894,7 +4891,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>27</v>
@@ -4914,13 +4911,13 @@
         <v>74.0</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C65" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>270</v>
       </c>
       <c r="E65" s="38" t="s">
         <v>16</v>
@@ -4935,10 +4932,10 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L65" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N65" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Шиверских Виктор Станиславович")</f>
@@ -4954,13 +4951,13 @@
         <v>52.0</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" s="38" t="s">
         <v>271</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>272</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>16</v>
@@ -4975,10 +4972,10 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L66" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N66" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -4994,13 +4991,13 @@
         <v>38.0</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C67" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="40" t="s">
         <v>274</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>275</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>16</v>
@@ -5014,10 +5011,10 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L67" s="10"/>
       <c r="N67" s="14" t="str">
@@ -5034,16 +5031,16 @@
         <v>5.0</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C68" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="E68" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="F68" s="19" t="s">
         <v>24</v>
@@ -5052,17 +5049,17 @@
         <v>18</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="K68" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="K68" s="41" t="s">
+      <c r="L68" s="39" t="s">
         <v>281</v>
-      </c>
-      <c r="L68" s="39" t="s">
-        <v>282</v>
       </c>
       <c r="N68" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -5078,16 +5075,16 @@
         <v>139.0</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C69" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="D69" s="38" t="s">
-        <v>284</v>
-      </c>
       <c r="E69" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>24</v>
@@ -5098,10 +5095,10 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L69" s="10"/>
       <c r="N69" s="14" t="str">
@@ -5118,13 +5115,13 @@
         <v>20.0</v>
       </c>
       <c r="B70" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="D70" s="42" t="s">
         <v>287</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>288</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>16</v>
@@ -5140,13 +5137,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L70" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L70" s="13" t="s">
-        <v>290</v>
       </c>
       <c r="N70" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -5162,13 +5159,13 @@
         <v>28.0</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C71" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71" s="42" t="s">
         <v>291</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>292</v>
       </c>
       <c r="E71" s="42" t="s">
         <v>16</v>
@@ -5183,16 +5180,16 @@
         <v>25</v>
       </c>
       <c r="I71" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="K71" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L71" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="N71" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -5208,13 +5205,13 @@
         <v>29.0</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C72" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D72" s="42" t="s">
         <v>296</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>297</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>16</v>
@@ -5229,16 +5226,16 @@
         <v>25</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N72" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A72,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -5254,13 +5251,13 @@
         <v>57.0</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C73" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>300</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>301</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>16</v>
@@ -5278,13 +5275,13 @@
         <v>30</v>
       </c>
       <c r="J73" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="34" t="s">
         <v>302</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L73" s="34" t="s">
-        <v>303</v>
       </c>
       <c r="N73" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A73,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -5300,13 +5297,13 @@
         <v>76.0</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C74" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="42" t="s">
         <v>304</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>305</v>
       </c>
       <c r="E74" s="42" t="s">
         <v>16</v>
@@ -5321,16 +5318,16 @@
         <v>25</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J74" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="K74" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="L74" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="L74" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="N74" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A74,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Михайлова Анна Витальевна")</f>
@@ -5346,16 +5343,16 @@
         <v>82.0</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C75" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="E75" s="42" t="s">
         <v>310</v>
-      </c>
-      <c r="E75" s="42" t="s">
-        <v>311</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>24</v>
@@ -5364,14 +5361,14 @@
         <v>18</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="K75" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>313</v>
       </c>
       <c r="L75" s="10"/>
       <c r="N75" s="14" t="str">
@@ -5388,16 +5385,16 @@
         <v>99.0</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D76" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" s="42" t="s">
         <v>314</v>
-      </c>
-      <c r="E76" s="42" t="s">
-        <v>315</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>24</v>
@@ -5406,19 +5403,19 @@
         <v>18</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I76" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J76" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="J76" s="28" t="s">
+      <c r="K76" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L76" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="N76" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5434,16 +5431,16 @@
         <v>141.0</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E77" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>17</v>
@@ -5452,17 +5449,17 @@
         <v>18</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L77" s="45" t="s">
         <v>320</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L77" s="45" t="s">
-        <v>321</v>
       </c>
       <c r="N77" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5478,16 +5475,16 @@
         <v>119.0</v>
       </c>
       <c r="B78" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>287</v>
-      </c>
       <c r="D78" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>24</v>
@@ -5496,17 +5493,17 @@
         <v>18</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L78" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L78" s="19" t="s">
-        <v>324</v>
       </c>
       <c r="N78" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5522,13 +5519,13 @@
         <v>158.0</v>
       </c>
       <c r="B79" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="D79" s="46" t="s">
         <v>326</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>327</v>
       </c>
       <c r="E79" s="46" t="s">
         <v>16</v>
@@ -5542,7 +5539,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>27</v>
@@ -5562,13 +5559,13 @@
         <v>159.0</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C80" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="D80" s="46" t="s">
         <v>329</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>330</v>
       </c>
       <c r="E80" s="46" t="s">
         <v>16</v>
@@ -5584,10 +5581,10 @@
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L80" s="10"/>
       <c r="N80" s="14" t="str">
@@ -5604,16 +5601,16 @@
         <v>144.0</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C81" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="D81" s="46" t="s">
-        <v>333</v>
-      </c>
       <c r="E81" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>24</v>
@@ -5625,7 +5622,7 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L81" s="10"/>
       <c r="N81" s="14" t="str">
@@ -9965,34 +9962,34 @@
         <v>13</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10037,48 +10034,48 @@
         <v>24</v>
       </c>
       <c r="P3" s="58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="L4" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="P4" s="59" t="s">
         <v>346</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -13089,7 +13086,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>0</v>
@@ -13110,7 +13107,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
@@ -13136,7 +13133,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3">
@@ -13170,16 +13167,16 @@
         <v>156.0</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>17</v>
@@ -13188,7 +13185,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
@@ -13196,16 +13193,16 @@
         <v>11.0</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>17</v>
@@ -13214,7 +13211,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -13222,16 +13219,16 @@
         <v>12.0</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>17</v>
@@ -13240,7 +13237,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -13248,16 +13245,16 @@
         <v>18.0</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>17</v>
@@ -13266,7 +13263,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -13274,16 +13271,16 @@
         <v>59.0</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>17</v>
@@ -13292,7 +13289,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -13300,13 +13297,13 @@
         <v>57.0</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>300</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>301</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>16</v>
@@ -13318,7 +13315,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -13326,16 +13323,16 @@
         <v>141.0</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>17</v>
@@ -13344,7 +13341,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="350">
   <si>
     <t>Партнер</t>
   </si>
@@ -981,9 +981,6 @@
   </si>
   <si>
     <t>https://prokhinkali.com/</t>
-  </si>
-  <si>
-    <t>Маклаков Виктор Андреевич</t>
   </si>
   <si>
     <t>PRO Хинкали Нижний Новгород</t>
@@ -4153,13 +4150,13 @@
       <c r="J46" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="K46" s="17" t="s">
-        <v>203</v>
+      <c r="K46" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="L46" s="10"/>
       <c r="N46" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Маклаков Виктор Андреевич")</f>
-        <v>Маклаков Виктор Андреевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
+        <v>Поддубная Светлана Мадхатовна</v>
       </c>
       <c r="O46" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4174,13 +4171,13 @@
         <v>107</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>206</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>24</v>
@@ -4193,10 +4190,10 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="L47" s="10"/>
       <c r="N47" s="14" t="str">
@@ -4216,13 +4213,13 @@
         <v>107</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="E48" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>211</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>24</v>
@@ -4235,10 +4232,10 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>213</v>
       </c>
       <c r="L48" s="10"/>
       <c r="N48" s="14" t="str">
@@ -4258,13 +4255,13 @@
         <v>107</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>215</v>
-      </c>
       <c r="E49" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>24</v>
@@ -4277,10 +4274,10 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L49" s="10"/>
       <c r="N49" s="14" t="str">
@@ -4300,10 +4297,10 @@
         <v>107</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>217</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>218</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>36</v>
@@ -4316,7 +4313,7 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
@@ -4340,13 +4337,13 @@
         <v>107</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>24</v>
@@ -4358,10 +4355,10 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L51" s="35" t="s">
         <v>223</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>224</v>
       </c>
       <c r="N51" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4380,13 +4377,13 @@
         <v>107</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>226</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>227</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>24</v>
@@ -4398,10 +4395,10 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L52" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="L52" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="N52" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4420,13 +4417,13 @@
         <v>107</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>231</v>
-      </c>
       <c r="E53" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>24</v>
@@ -4438,7 +4435,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>155</v>
@@ -4460,13 +4457,13 @@
         <v>107</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="37" t="s">
         <v>233</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>234</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>24</v>
@@ -4479,10 +4476,10 @@
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="14" t="str">
@@ -4502,13 +4499,13 @@
         <v>107</v>
       </c>
       <c r="C55" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>238</v>
-      </c>
       <c r="E55" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>24</v>
@@ -4520,7 +4517,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="11"/>
       <c r="K55" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="14" t="str">
@@ -4537,13 +4534,13 @@
         <v>46.0</v>
       </c>
       <c r="B56" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="D56" s="38" t="s">
         <v>240</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>241</v>
       </c>
       <c r="E56" s="38" t="s">
         <v>16</v>
@@ -4559,7 +4556,7 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>93</v>
@@ -4579,13 +4576,13 @@
         <v>70.0</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="38" t="s">
         <v>243</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>244</v>
       </c>
       <c r="E57" s="38" t="s">
         <v>16</v>
@@ -4601,7 +4598,7 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>97</v>
@@ -4621,13 +4618,13 @@
         <v>78.0</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C58" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>246</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>247</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>16</v>
@@ -4643,7 +4640,7 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K58" s="10" t="s">
         <v>106</v>
@@ -4663,13 +4660,13 @@
         <v>87.0</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C59" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>249</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>250</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>16</v>
@@ -4685,13 +4682,13 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N59" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -4707,13 +4704,13 @@
         <v>105.0</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C60" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>253</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>254</v>
       </c>
       <c r="E60" s="38" t="s">
         <v>16</v>
@@ -4727,13 +4724,13 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>185</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N60" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
@@ -4749,13 +4746,13 @@
         <v>136.0</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C61" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="38" t="s">
         <v>257</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>258</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>16</v>
@@ -4771,7 +4768,7 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>188</v>
@@ -4791,13 +4788,13 @@
         <v>137.0</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C62" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>260</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>261</v>
       </c>
       <c r="E62" s="38" t="s">
         <v>16</v>
@@ -4813,7 +4810,7 @@
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>164</v>
@@ -4833,13 +4830,13 @@
         <v>135.0</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C63" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="38" t="s">
         <v>263</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>264</v>
       </c>
       <c r="E63" s="38" t="s">
         <v>36</v>
@@ -4871,13 +4868,13 @@
         <v>27.0</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C64" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="38" t="s">
         <v>265</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>266</v>
       </c>
       <c r="E64" s="38" t="s">
         <v>16</v>
@@ -4891,7 +4888,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>27</v>
@@ -4911,13 +4908,13 @@
         <v>74.0</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="38" t="s">
         <v>268</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>269</v>
       </c>
       <c r="E65" s="38" t="s">
         <v>16</v>
@@ -4951,13 +4948,13 @@
         <v>52.0</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C66" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="38" t="s">
         <v>270</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>271</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>16</v>
@@ -4975,7 +4972,7 @@
         <v>154</v>
       </c>
       <c r="L66" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N66" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -4991,13 +4988,13 @@
         <v>38.0</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C67" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" s="40" t="s">
         <v>273</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>274</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>16</v>
@@ -5011,7 +5008,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>102</v>
@@ -5031,16 +5028,16 @@
         <v>5.0</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C68" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="E68" s="40" t="s">
         <v>277</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>278</v>
       </c>
       <c r="F68" s="19" t="s">
         <v>24</v>
@@ -5053,13 +5050,13 @@
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="K68" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="K68" s="41" t="s">
+      <c r="L68" s="39" t="s">
         <v>280</v>
-      </c>
-      <c r="L68" s="39" t="s">
-        <v>281</v>
       </c>
       <c r="N68" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -5075,16 +5072,16 @@
         <v>139.0</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C69" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="D69" s="38" t="s">
-        <v>283</v>
-      </c>
       <c r="E69" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>24</v>
@@ -5095,10 +5092,10 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L69" s="10"/>
       <c r="N69" s="14" t="str">
@@ -5115,13 +5112,13 @@
         <v>20.0</v>
       </c>
       <c r="B70" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="D70" s="42" t="s">
         <v>286</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>287</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>16</v>
@@ -5137,13 +5134,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>102</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N70" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -5159,13 +5156,13 @@
         <v>28.0</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C71" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D71" s="42" t="s">
         <v>290</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>291</v>
       </c>
       <c r="E71" s="42" t="s">
         <v>16</v>
@@ -5180,16 +5177,16 @@
         <v>25</v>
       </c>
       <c r="I71" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>293</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N71" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -5205,13 +5202,13 @@
         <v>29.0</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C72" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="D72" s="42" t="s">
         <v>295</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>296</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>16</v>
@@ -5226,16 +5223,16 @@
         <v>25</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N72" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A72,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -5251,13 +5248,13 @@
         <v>57.0</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C73" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>299</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>300</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>16</v>
@@ -5275,13 +5272,13 @@
         <v>30</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>20</v>
       </c>
       <c r="L73" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N73" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A73,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -5297,13 +5294,13 @@
         <v>76.0</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C74" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="42" t="s">
         <v>303</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>304</v>
       </c>
       <c r="E74" s="42" t="s">
         <v>16</v>
@@ -5318,16 +5315,16 @@
         <v>25</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J74" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="K74" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="L74" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="L74" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="N74" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A74,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Михайлова Анна Витальевна")</f>
@@ -5343,16 +5340,16 @@
         <v>82.0</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C75" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="E75" s="42" t="s">
         <v>309</v>
-      </c>
-      <c r="E75" s="42" t="s">
-        <v>310</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>24</v>
@@ -5365,10 +5362,10 @@
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="K75" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="L75" s="10"/>
       <c r="N75" s="14" t="str">
@@ -5385,16 +5382,16 @@
         <v>99.0</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D76" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" s="42" t="s">
         <v>313</v>
-      </c>
-      <c r="E76" s="42" t="s">
-        <v>314</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>24</v>
@@ -5406,16 +5403,16 @@
         <v>111</v>
       </c>
       <c r="I76" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J76" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="J76" s="28" t="s">
+      <c r="K76" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L76" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="N76" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5431,16 +5428,16 @@
         <v>141.0</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E77" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>17</v>
@@ -5453,13 +5450,13 @@
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L77" s="45" t="s">
         <v>319</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L77" s="45" t="s">
-        <v>320</v>
       </c>
       <c r="N77" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5475,16 +5472,16 @@
         <v>119.0</v>
       </c>
       <c r="B78" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>286</v>
-      </c>
       <c r="D78" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>24</v>
@@ -5497,13 +5494,13 @@
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L78" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L78" s="19" t="s">
-        <v>323</v>
       </c>
       <c r="N78" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5519,13 +5516,13 @@
         <v>158.0</v>
       </c>
       <c r="B79" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="D79" s="46" t="s">
         <v>325</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>326</v>
       </c>
       <c r="E79" s="46" t="s">
         <v>16</v>
@@ -5539,7 +5536,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>27</v>
@@ -5559,13 +5556,13 @@
         <v>159.0</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C80" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="46" t="s">
         <v>328</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>329</v>
       </c>
       <c r="E80" s="46" t="s">
         <v>16</v>
@@ -5581,7 +5578,7 @@
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>188</v>
@@ -5601,13 +5598,13 @@
         <v>144.0</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C81" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>331</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>332</v>
       </c>
       <c r="E81" s="46" t="s">
         <v>36</v>
@@ -9980,16 +9977,16 @@
         <v>107</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10034,48 +10031,48 @@
         <v>24</v>
       </c>
       <c r="P3" s="58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="L4" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="P4" s="59" t="s">
         <v>345</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="5">
@@ -13086,7 +13083,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>0</v>
@@ -13107,7 +13104,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
@@ -13133,7 +13130,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -13185,7 +13182,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
@@ -13297,13 +13294,13 @@
         <v>57.0</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>299</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>300</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>16</v>
@@ -13315,7 +13312,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -13323,16 +13320,16 @@
         <v>141.0</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>17</v>
@@ -13341,7 +13338,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -626,9 +626,6 @@
     <t>https://kiyomi.lucky-group.rest/galereya</t>
   </si>
   <si>
-    <t>Янина Полина Олеговна</t>
-  </si>
-  <si>
     <t>Novikov Group</t>
   </si>
   <si>
@@ -901,9 +898,6 @@
     <t>г. Москва, ул. Вавилова, 64/1, стр. 1</t>
   </si>
   <si>
-    <t>Шиверских Виктор Станиславович</t>
-  </si>
-  <si>
     <t>CIHAN STEAK &amp; KEBAB на Комсомольском</t>
   </si>
   <si>
@@ -919,6 +913,9 @@
   </si>
   <si>
     <t>г. Москва, Никольская ул., 12 (отель «St. Regis Москва Никольская», 1-й эт.)</t>
+  </si>
+  <si>
+    <t>Янина Полина Олеговна</t>
   </si>
   <si>
     <t>Pro Хинкали Бауманская</t>
@@ -1151,6 +1148,9 @@
   </si>
   <si>
     <t>https://phantom.rest/</t>
+  </si>
+  <si>
+    <t>Шиверских Виктор Станиславович</t>
   </si>
   <si>
     <t>Колбасный цех Авиапарк</t>
@@ -1773,7 +1773,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1868,6 +1868,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3122,19 +3125,19 @@
       <c r="J21" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>106</v>
+      <c r="K21" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>98</v>
       </c>
       <c r="N21" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Янина Полина Олеговна")</f>
-        <v>Янина Полина Олеговна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A21,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович ")</f>
+        <v>Репилов Иван Викторович </v>
       </c>
       <c r="O21" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="22">
@@ -3142,16 +3145,16 @@
         <v>124.0</v>
       </c>
       <c r="B22" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>110</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>24</v>
@@ -3160,17 +3163,17 @@
         <v>18</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="N22" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Меденцев Григорий Сергеевич")</f>
@@ -3186,16 +3189,16 @@
         <v>4.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>117</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>24</v>
@@ -3204,17 +3207,17 @@
         <v>18</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>119</v>
-      </c>
       <c r="L23" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N23" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A23,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Ткачук Олеся Андреевна")</f>
@@ -3230,16 +3233,16 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="E24" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>122</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>24</v>
@@ -3248,17 +3251,17 @@
         <v>18</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="N24" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A24,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Панчёхин Игорь Игоревич")</f>
@@ -3274,16 +3277,16 @@
         <v>128.0</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="E25" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>128</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>24</v>
@@ -3292,14 +3295,14 @@
         <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="L25" s="10"/>
       <c r="N25" s="14" t="str">
@@ -3316,16 +3319,16 @@
         <v>16.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>24</v>
@@ -3334,14 +3337,14 @@
         <v>18</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="14" t="str">
@@ -3358,16 +3361,16 @@
         <v>152.0</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>138</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>24</v>
@@ -3378,10 +3381,10 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="L27" s="10"/>
       <c r="N27" s="14" t="str">
@@ -3398,16 +3401,16 @@
         <v>17.0</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>24</v>
@@ -3416,14 +3419,14 @@
         <v>18</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>145</v>
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="14" t="str">
@@ -3440,16 +3443,16 @@
         <v>22.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="E29" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>24</v>
@@ -3458,17 +3461,17 @@
         <v>18</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="L29" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="N29" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A29,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Попова Алина Александровна")</f>
@@ -3484,13 +3487,13 @@
         <v>23.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>16</v>
@@ -3505,10 +3508,10 @@
       <c r="I30" s="10"/>
       <c r="J30" s="11"/>
       <c r="K30" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="N30" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A30,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -3524,13 +3527,13 @@
         <v>26.0</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>157</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>16</v>
@@ -3545,10 +3548,10 @@
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
       <c r="K31" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N31" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A31,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Алексеев Александр Станиславович")</f>
@@ -3564,13 +3567,13 @@
         <v>35.0</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>160</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>16</v>
@@ -3586,7 +3589,7 @@
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>93</v>
@@ -3606,13 +3609,13 @@
         <v>37.0</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>16</v>
@@ -3627,10 +3630,10 @@
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
       <c r="K33" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N33" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A33,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Кобылинский Ян Александрович")</f>
@@ -3646,13 +3649,13 @@
         <v>40.0</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>166</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>16</v>
@@ -3670,7 +3673,7 @@
         <v>102</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N34" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A34,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -3686,13 +3689,13 @@
         <v>44.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>16</v>
@@ -3710,7 +3713,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N35" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A35,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -3726,13 +3729,13 @@
         <v>45.0</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>16</v>
@@ -3750,7 +3753,7 @@
         <v>93</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N36" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A36,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Желязко Дмитрий Викторович")</f>
@@ -3766,13 +3769,13 @@
         <v>47.0</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>172</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>173</v>
       </c>
       <c r="E37" s="26" t="s">
         <v>16</v>
@@ -3790,15 +3793,15 @@
         <v>102</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N37" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
-        <v>Левитан Дмитрий Анатольевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"")</f>
+        <v/>
       </c>
       <c r="O37" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="38">
@@ -3806,13 +3809,13 @@
         <v>51.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>175</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>176</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>16</v>
@@ -3827,10 +3830,10 @@
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
       <c r="K38" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N38" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A38,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Кузнецова Елена Андреевна")</f>
@@ -3846,13 +3849,13 @@
         <v>55.0</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>16</v>
@@ -3867,10 +3870,10 @@
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
       <c r="K39" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="L39" s="24" t="s">
         <v>180</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>181</v>
       </c>
       <c r="N39" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A39,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Илюшенко Анна Алексеевна")</f>
@@ -3886,13 +3889,13 @@
         <v>63.0</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>182</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>183</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>16</v>
@@ -3908,10 +3911,10 @@
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="L40" s="10"/>
       <c r="N40" s="14" t="str">
@@ -3928,13 +3931,13 @@
         <v>69.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>16</v>
@@ -3948,15 +3951,15 @@
       <c r="H41" s="11"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="31" t="s">
-        <v>188</v>
+      <c r="K41" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="L41" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N41" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A41,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Шиверских Виктор Станиславович")</f>
-        <v>Шиверских Виктор Станиславович</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A41,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
+        <v>Левитан Дмитрий Анатольевич</v>
       </c>
       <c r="O41" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3968,13 +3971,13 @@
         <v>73.0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>16</v>
@@ -3989,10 +3992,10 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N42" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A42,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Илюшенко Анна Алексеевна")</f>
@@ -4008,13 +4011,13 @@
         <v>77.0</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>16</v>
@@ -4029,10 +4032,10 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="31" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="L43" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N43" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Янина Полина Олеговна")</f>
@@ -4048,13 +4051,13 @@
         <v>90.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>16</v>
@@ -4068,7 +4071,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>27</v>
@@ -4088,13 +4091,13 @@
         <v>117.0</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>16</v>
@@ -4108,11 +4111,11 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>199</v>
+      <c r="K45" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="N45" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
@@ -4128,13 +4131,13 @@
         <v>123.0</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>16</v>
@@ -4148,19 +4151,19 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>185</v>
+        <v>201</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="L46" s="10"/>
       <c r="N46" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
-        <v>Поддубная Светлана Мадхатовна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Поддубная Светлана Мадхатовна")</f>
+        <v>Нужна замена Поддубная Светлана Мадхатовна</v>
       </c>
       <c r="O46" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="47">
@@ -4168,16 +4171,16 @@
         <v>94.0</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>24</v>
@@ -4186,14 +4189,14 @@
         <v>18</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="L47" s="10"/>
       <c r="N47" s="14" t="str">
@@ -4210,16 +4213,16 @@
         <v>100.0</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="E48" s="26" t="s">
         <v>209</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>210</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>24</v>
@@ -4228,14 +4231,14 @@
         <v>18</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="L48" s="10"/>
       <c r="N48" s="14" t="str">
@@ -4252,16 +4255,16 @@
         <v>101.0</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>214</v>
-      </c>
       <c r="E49" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>24</v>
@@ -4270,14 +4273,14 @@
         <v>18</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L49" s="10"/>
       <c r="N49" s="14" t="str">
@@ -4294,13 +4297,13 @@
         <v>107.0</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>217</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>36</v>
@@ -4313,7 +4316,7 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
@@ -4334,16 +4337,16 @@
         <v>140.0</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>24</v>
@@ -4355,10 +4358,10 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L51" s="36" t="s">
         <v>222</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>223</v>
       </c>
       <c r="N51" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4374,16 +4377,16 @@
         <v>145.0</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>225</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>226</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>24</v>
@@ -4395,10 +4398,10 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L52" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="L52" s="32" t="s">
-        <v>228</v>
       </c>
       <c r="N52" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4414,16 +4417,16 @@
         <v>146.0</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>230</v>
-      </c>
       <c r="E53" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>24</v>
@@ -4435,10 +4438,10 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N53" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A53,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4450,20 +4453,20 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="36">
+      <c r="A54" s="37">
         <v>110.0</v>
       </c>
-      <c r="B54" s="37" t="s">
-        <v>107</v>
+      <c r="B54" s="38" t="s">
+        <v>106</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="38" t="s">
         <v>232</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>233</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>24</v>
@@ -4472,14 +4475,14 @@
         <v>18</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="14" t="str">
@@ -4496,16 +4499,16 @@
         <v>150.0</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>237</v>
-      </c>
       <c r="E55" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>24</v>
@@ -4517,7 +4520,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="11"/>
       <c r="K55" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="14" t="str">
@@ -4533,16 +4536,16 @@
       <c r="A56" s="8">
         <v>46.0</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="D56" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -4556,7 +4559,7 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>93</v>
@@ -4575,16 +4578,16 @@
       <c r="A57" s="8">
         <v>70.0</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C57" s="38" t="s">
+      <c r="B57" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -4598,7 +4601,7 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>97</v>
@@ -4617,16 +4620,16 @@
       <c r="A58" s="8">
         <v>78.0</v>
       </c>
-      <c r="B58" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C58" s="38" t="s">
+      <c r="B58" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -4640,35 +4643,35 @@
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L58" s="10"/>
       <c r="N58" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Янина Полина Олеговна")</f>
-        <v>Янина Полина Олеговна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич - ресторан закрыт, они переезжают ")</f>
+        <v>Левитан Дмитрий Анатольевич - ресторан закрыт, они переезжают </v>
       </c>
       <c r="O58" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="8">
         <v>87.0</v>
       </c>
-      <c r="B59" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" s="38" t="s">
+      <c r="B59" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -4682,13 +4685,13 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N59" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -4703,16 +4706,16 @@
       <c r="A60" s="8">
         <v>105.0</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C60" s="38" t="s">
+      <c r="B60" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -4724,13 +4727,13 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L60" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="N60" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
@@ -4745,16 +4748,16 @@
       <c r="A61" s="8">
         <v>136.0</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" s="38" t="s">
+      <c r="B61" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -4768,10 +4771,10 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="K61" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="L61" s="10"/>
       <c r="N61" s="14" t="str">
@@ -4787,16 +4790,16 @@
       <c r="A62" s="8">
         <v>137.0</v>
       </c>
-      <c r="B62" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="38" t="s">
+      <c r="B62" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -4813,7 +4816,7 @@
         <v>261</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L62" s="10"/>
       <c r="N62" s="14" t="str">
@@ -4829,16 +4832,16 @@
       <c r="A63" s="8">
         <v>135.0</v>
       </c>
-      <c r="B63" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="38" t="s">
+      <c r="B63" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="39" t="s">
         <v>36</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -4867,16 +4870,16 @@
       <c r="A64" s="8">
         <v>27.0</v>
       </c>
-      <c r="B64" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="38" t="s">
+      <c r="B64" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E64" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="19" t="s">
@@ -4907,16 +4910,16 @@
       <c r="A65" s="8">
         <v>74.0</v>
       </c>
-      <c r="B65" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="38" t="s">
+      <c r="B65" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="19" t="s">
@@ -4929,10 +4932,10 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="31" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="L65" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N65" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A65,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Шиверских Виктор Станиславович")</f>
@@ -4947,16 +4950,16 @@
       <c r="A66" s="8">
         <v>52.0</v>
       </c>
-      <c r="B66" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" s="38" t="s">
+      <c r="B66" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="19" t="s">
@@ -4969,9 +4972,9 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="L66" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="L66" s="40" t="s">
         <v>271</v>
       </c>
       <c r="N66" s="14" t="str">
@@ -4984,19 +4987,19 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="36">
+      <c r="A67" s="37">
         <v>38.0</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="40" t="s">
+      <c r="B67" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="19" t="s">
@@ -5024,19 +5027,19 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="36">
+      <c r="A68" s="37">
         <v>5.0</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="C68" s="40" t="s">
+      <c r="B68" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="D68" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="41" t="s">
         <v>277</v>
       </c>
       <c r="F68" s="19" t="s">
@@ -5046,16 +5049,16 @@
         <v>18</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="K68" s="41" t="s">
+      <c r="K68" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="L68" s="39" t="s">
+      <c r="L68" s="40" t="s">
         <v>280</v>
       </c>
       <c r="N68" s="14" t="str">
@@ -5071,17 +5074,17 @@
       <c r="A69" s="8">
         <v>139.0</v>
       </c>
-      <c r="B69" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C69" s="38" t="s">
+      <c r="B69" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="E69" s="38" t="s">
-        <v>221</v>
+      <c r="E69" s="39" t="s">
+        <v>220</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>24</v>
@@ -5095,7 +5098,7 @@
         <v>283</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L69" s="10"/>
       <c r="N69" s="14" t="str">
@@ -5111,16 +5114,16 @@
       <c r="A70" s="8">
         <v>20.0</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -5155,16 +5158,16 @@
       <c r="A71" s="8">
         <v>28.0</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -5201,16 +5204,16 @@
       <c r="A72" s="8">
         <v>29.0</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="E72" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -5247,16 +5250,16 @@
       <c r="A73" s="8">
         <v>57.0</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -5268,7 +5271,7 @@
       <c r="H73" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="43" t="s">
+      <c r="I73" s="44" t="s">
         <v>30</v>
       </c>
       <c r="J73" s="16" t="s">
@@ -5277,7 +5280,7 @@
       <c r="K73" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="34" t="s">
+      <c r="L73" s="35" t="s">
         <v>301</v>
       </c>
       <c r="N73" s="14" t="str">
@@ -5293,16 +5296,16 @@
       <c r="A74" s="8">
         <v>76.0</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C74" s="42" t="s">
+      <c r="C74" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D74" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="E74" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -5339,16 +5342,16 @@
       <c r="A75" s="8">
         <v>82.0</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="E75" s="43" t="s">
         <v>309</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -5358,7 +5361,7 @@
         <v>18</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="16" t="s">
@@ -5381,16 +5384,16 @@
       <c r="A76" s="8">
         <v>99.0</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="E76" s="42" t="s">
+      <c r="E76" s="43" t="s">
         <v>313</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -5400,7 +5403,7 @@
         <v>18</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>314</v>
@@ -5409,7 +5412,7 @@
         <v>315</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>316</v>
@@ -5424,20 +5427,20 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="36">
+      <c r="A77" s="37">
         <v>141.0</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="E77" s="44" t="s">
-        <v>221</v>
+      <c r="E77" s="45" t="s">
+        <v>220</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>17</v>
@@ -5446,16 +5449,16 @@
         <v>18</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
         <v>318</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L77" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="L77" s="46" t="s">
         <v>319</v>
       </c>
       <c r="N77" s="14" t="str">
@@ -5471,16 +5474,16 @@
       <c r="A78" s="8">
         <v>119.0</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="E78" s="42" t="s">
+      <c r="E78" s="43" t="s">
         <v>313</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -5490,14 +5493,14 @@
         <v>18</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
         <v>321</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L78" s="19" t="s">
         <v>322</v>
@@ -5515,16 +5518,16 @@
       <c r="A79" s="8">
         <v>158.0</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -5555,16 +5558,16 @@
       <c r="A80" s="8">
         <v>159.0</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="46" t="s">
+      <c r="C80" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="D80" s="46" t="s">
+      <c r="D80" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="E80" s="46" t="s">
+      <c r="E80" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -5581,7 +5584,7 @@
         <v>329</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="L80" s="10"/>
       <c r="N80" s="14" t="str">
@@ -5597,16 +5600,16 @@
       <c r="A81" s="8">
         <v>144.0</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="C81" s="46" t="s">
+      <c r="C81" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="D81" s="46" t="s">
+      <c r="D81" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="E81" s="46" t="s">
+      <c r="E81" s="47" t="s">
         <v>36</v>
       </c>
       <c r="F81" s="10" t="s">
@@ -5632,4184 +5635,4184 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="47"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="49"/>
-      <c r="K82" s="47"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="50"/>
+      <c r="K82" s="48"/>
     </row>
     <row r="83">
-      <c r="F83" s="47"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="49"/>
-      <c r="K83" s="47"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="50"/>
+      <c r="K83" s="48"/>
     </row>
     <row r="84">
-      <c r="F84" s="47"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
-      <c r="K84" s="47"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
+      <c r="K84" s="48"/>
     </row>
     <row r="85">
-      <c r="F85" s="47"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="49"/>
-      <c r="K85" s="47"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
+      <c r="K85" s="48"/>
     </row>
     <row r="86">
-      <c r="F86" s="47"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
-      <c r="K86" s="47"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="50"/>
+      <c r="K86" s="48"/>
     </row>
     <row r="87">
-      <c r="G87" s="48"/>
-      <c r="H87" s="49"/>
-      <c r="K87" s="47"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="50"/>
+      <c r="K87" s="48"/>
     </row>
     <row r="88">
-      <c r="G88" s="48"/>
-      <c r="H88" s="49"/>
-      <c r="K88" s="47"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="50"/>
+      <c r="K88" s="48"/>
     </row>
     <row r="89">
-      <c r="G89" s="48"/>
-      <c r="H89" s="49"/>
-      <c r="K89" s="47"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="50"/>
+      <c r="K89" s="48"/>
     </row>
     <row r="90">
-      <c r="G90" s="48"/>
-      <c r="H90" s="49"/>
-      <c r="K90" s="47"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="50"/>
+      <c r="K90" s="48"/>
     </row>
     <row r="91">
-      <c r="G91" s="48"/>
-      <c r="H91" s="49"/>
-      <c r="K91" s="47"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="50"/>
+      <c r="K91" s="48"/>
     </row>
     <row r="92">
-      <c r="G92" s="48"/>
-      <c r="H92" s="49"/>
-      <c r="K92" s="47"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="50"/>
+      <c r="K92" s="48"/>
     </row>
     <row r="93">
-      <c r="G93" s="48"/>
-      <c r="H93" s="49"/>
-      <c r="K93" s="47"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="50"/>
+      <c r="K93" s="48"/>
     </row>
     <row r="94">
-      <c r="G94" s="48"/>
-      <c r="H94" s="49"/>
-      <c r="K94" s="47"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="50"/>
+      <c r="K94" s="48"/>
     </row>
     <row r="95">
-      <c r="G95" s="48"/>
-      <c r="H95" s="49"/>
-      <c r="K95" s="47"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="50"/>
+      <c r="K95" s="48"/>
     </row>
     <row r="96">
-      <c r="G96" s="48"/>
-      <c r="H96" s="49"/>
-      <c r="K96" s="47"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="50"/>
+      <c r="K96" s="48"/>
     </row>
     <row r="97">
-      <c r="G97" s="48"/>
-      <c r="H97" s="49"/>
-      <c r="K97" s="47"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="50"/>
+      <c r="K97" s="48"/>
     </row>
     <row r="98">
-      <c r="G98" s="48"/>
-      <c r="H98" s="49"/>
-      <c r="K98" s="47"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="50"/>
+      <c r="K98" s="48"/>
     </row>
     <row r="99">
-      <c r="G99" s="48"/>
-      <c r="H99" s="49"/>
-      <c r="K99" s="47"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="50"/>
+      <c r="K99" s="48"/>
     </row>
     <row r="100">
-      <c r="G100" s="48"/>
-      <c r="H100" s="49"/>
-      <c r="K100" s="47"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="50"/>
+      <c r="K100" s="48"/>
     </row>
     <row r="101">
-      <c r="G101" s="48"/>
-      <c r="H101" s="49"/>
-      <c r="K101" s="47"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="50"/>
+      <c r="K101" s="48"/>
     </row>
     <row r="102">
-      <c r="G102" s="48"/>
-      <c r="H102" s="49"/>
-      <c r="K102" s="47"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="50"/>
+      <c r="K102" s="48"/>
     </row>
     <row r="103">
-      <c r="G103" s="48"/>
-      <c r="H103" s="49"/>
-      <c r="K103" s="47"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="50"/>
+      <c r="K103" s="48"/>
     </row>
     <row r="104">
-      <c r="G104" s="48"/>
-      <c r="H104" s="49"/>
-      <c r="K104" s="47"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="50"/>
+      <c r="K104" s="48"/>
     </row>
     <row r="105">
-      <c r="G105" s="48"/>
-      <c r="H105" s="49"/>
-      <c r="K105" s="47"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="50"/>
+      <c r="K105" s="48"/>
     </row>
     <row r="106">
-      <c r="G106" s="48"/>
-      <c r="H106" s="49"/>
-      <c r="K106" s="47"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="50"/>
+      <c r="K106" s="48"/>
     </row>
     <row r="107">
-      <c r="G107" s="48"/>
-      <c r="H107" s="49"/>
-      <c r="K107" s="47"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="50"/>
+      <c r="K107" s="48"/>
     </row>
     <row r="108">
-      <c r="G108" s="48"/>
-      <c r="H108" s="49"/>
-      <c r="K108" s="47"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="50"/>
+      <c r="K108" s="48"/>
     </row>
     <row r="109">
-      <c r="G109" s="48"/>
-      <c r="H109" s="49"/>
-      <c r="K109" s="47"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="50"/>
+      <c r="K109" s="48"/>
     </row>
     <row r="110">
-      <c r="G110" s="48"/>
-      <c r="H110" s="49"/>
-      <c r="K110" s="47"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="50"/>
+      <c r="K110" s="48"/>
     </row>
     <row r="111">
-      <c r="G111" s="48"/>
-      <c r="H111" s="49"/>
-      <c r="K111" s="47"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="50"/>
+      <c r="K111" s="48"/>
     </row>
     <row r="112">
-      <c r="G112" s="48"/>
-      <c r="H112" s="49"/>
-      <c r="K112" s="47"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="50"/>
+      <c r="K112" s="48"/>
     </row>
     <row r="113">
-      <c r="G113" s="48"/>
-      <c r="H113" s="49"/>
-      <c r="K113" s="47"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="50"/>
+      <c r="K113" s="48"/>
     </row>
     <row r="114">
-      <c r="G114" s="48"/>
-      <c r="H114" s="49"/>
-      <c r="K114" s="47"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="50"/>
+      <c r="K114" s="48"/>
     </row>
     <row r="115">
-      <c r="G115" s="48"/>
-      <c r="H115" s="49"/>
-      <c r="K115" s="47"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="50"/>
+      <c r="K115" s="48"/>
     </row>
     <row r="116">
-      <c r="G116" s="48"/>
-      <c r="H116" s="49"/>
-      <c r="K116" s="47"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="50"/>
+      <c r="K116" s="48"/>
     </row>
     <row r="117">
-      <c r="G117" s="48"/>
-      <c r="H117" s="49"/>
-      <c r="K117" s="47"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="50"/>
+      <c r="K117" s="48"/>
     </row>
     <row r="118">
-      <c r="G118" s="48"/>
-      <c r="H118" s="49"/>
-      <c r="K118" s="47"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="50"/>
+      <c r="K118" s="48"/>
     </row>
     <row r="119">
-      <c r="G119" s="48"/>
-      <c r="H119" s="49"/>
-      <c r="K119" s="47"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="50"/>
+      <c r="K119" s="48"/>
     </row>
     <row r="120">
-      <c r="G120" s="48"/>
-      <c r="H120" s="49"/>
-      <c r="K120" s="47"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="50"/>
+      <c r="K120" s="48"/>
     </row>
     <row r="121">
-      <c r="G121" s="48"/>
-      <c r="H121" s="49"/>
-      <c r="K121" s="47"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="50"/>
+      <c r="K121" s="48"/>
     </row>
     <row r="122">
-      <c r="G122" s="48"/>
-      <c r="H122" s="49"/>
-      <c r="K122" s="47"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="50"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123">
-      <c r="G123" s="48"/>
-      <c r="H123" s="49"/>
-      <c r="K123" s="47"/>
+      <c r="G123" s="49"/>
+      <c r="H123" s="50"/>
+      <c r="K123" s="48"/>
     </row>
     <row r="124">
-      <c r="G124" s="48"/>
-      <c r="H124" s="49"/>
-      <c r="K124" s="47"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="50"/>
+      <c r="K124" s="48"/>
     </row>
     <row r="125">
-      <c r="G125" s="48"/>
-      <c r="H125" s="49"/>
-      <c r="K125" s="47"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="50"/>
+      <c r="K125" s="48"/>
     </row>
     <row r="126">
-      <c r="G126" s="48"/>
-      <c r="H126" s="49"/>
-      <c r="K126" s="47"/>
+      <c r="G126" s="49"/>
+      <c r="H126" s="50"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127">
-      <c r="G127" s="48"/>
-      <c r="H127" s="49"/>
-      <c r="K127" s="47"/>
+      <c r="G127" s="49"/>
+      <c r="H127" s="50"/>
+      <c r="K127" s="48"/>
     </row>
     <row r="128">
-      <c r="G128" s="48"/>
-      <c r="H128" s="49"/>
-      <c r="K128" s="47"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="50"/>
+      <c r="K128" s="48"/>
     </row>
     <row r="129">
-      <c r="G129" s="48"/>
-      <c r="H129" s="49"/>
-      <c r="K129" s="47"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="50"/>
+      <c r="K129" s="48"/>
     </row>
     <row r="130">
-      <c r="G130" s="48"/>
-      <c r="H130" s="49"/>
-      <c r="K130" s="47"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="50"/>
+      <c r="K130" s="48"/>
     </row>
     <row r="131">
-      <c r="G131" s="48"/>
-      <c r="H131" s="49"/>
-      <c r="K131" s="47"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="50"/>
+      <c r="K131" s="48"/>
     </row>
     <row r="132">
-      <c r="G132" s="48"/>
-      <c r="H132" s="49"/>
-      <c r="K132" s="47"/>
+      <c r="G132" s="49"/>
+      <c r="H132" s="50"/>
+      <c r="K132" s="48"/>
     </row>
     <row r="133">
-      <c r="G133" s="48"/>
-      <c r="H133" s="49"/>
-      <c r="K133" s="47"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="50"/>
+      <c r="K133" s="48"/>
     </row>
     <row r="134">
-      <c r="G134" s="48"/>
-      <c r="H134" s="49"/>
-      <c r="K134" s="47"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="50"/>
+      <c r="K134" s="48"/>
     </row>
     <row r="135">
-      <c r="G135" s="48"/>
-      <c r="H135" s="49"/>
-      <c r="K135" s="47"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="50"/>
+      <c r="K135" s="48"/>
     </row>
     <row r="136">
-      <c r="G136" s="48"/>
-      <c r="H136" s="49"/>
-      <c r="K136" s="47"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="50"/>
+      <c r="K136" s="48"/>
     </row>
     <row r="137">
-      <c r="G137" s="48"/>
-      <c r="H137" s="49"/>
-      <c r="K137" s="47"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="50"/>
+      <c r="K137" s="48"/>
     </row>
     <row r="138">
-      <c r="G138" s="48"/>
-      <c r="H138" s="49"/>
-      <c r="K138" s="47"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="50"/>
+      <c r="K138" s="48"/>
     </row>
     <row r="139">
-      <c r="G139" s="48"/>
-      <c r="H139" s="49"/>
-      <c r="K139" s="47"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="50"/>
+      <c r="K139" s="48"/>
     </row>
     <row r="140">
-      <c r="G140" s="48"/>
-      <c r="H140" s="49"/>
-      <c r="K140" s="47"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="50"/>
+      <c r="K140" s="48"/>
     </row>
     <row r="141">
-      <c r="G141" s="48"/>
-      <c r="H141" s="49"/>
-      <c r="K141" s="47"/>
+      <c r="G141" s="49"/>
+      <c r="H141" s="50"/>
+      <c r="K141" s="48"/>
     </row>
     <row r="142">
-      <c r="G142" s="48"/>
-      <c r="H142" s="49"/>
-      <c r="K142" s="47"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="50"/>
+      <c r="K142" s="48"/>
     </row>
     <row r="143">
-      <c r="G143" s="48"/>
-      <c r="H143" s="49"/>
-      <c r="K143" s="47"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="50"/>
+      <c r="K143" s="48"/>
     </row>
     <row r="144">
-      <c r="G144" s="48"/>
-      <c r="H144" s="49"/>
-      <c r="K144" s="47"/>
+      <c r="G144" s="49"/>
+      <c r="H144" s="50"/>
+      <c r="K144" s="48"/>
     </row>
     <row r="145">
-      <c r="G145" s="48"/>
-      <c r="H145" s="49"/>
-      <c r="K145" s="47"/>
+      <c r="G145" s="49"/>
+      <c r="H145" s="50"/>
+      <c r="K145" s="48"/>
     </row>
     <row r="146">
-      <c r="G146" s="48"/>
-      <c r="H146" s="49"/>
-      <c r="K146" s="47"/>
+      <c r="G146" s="49"/>
+      <c r="H146" s="50"/>
+      <c r="K146" s="48"/>
     </row>
     <row r="147">
-      <c r="G147" s="48"/>
-      <c r="H147" s="49"/>
-      <c r="K147" s="47"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="50"/>
+      <c r="K147" s="48"/>
     </row>
     <row r="148">
-      <c r="G148" s="48"/>
-      <c r="H148" s="49"/>
-      <c r="K148" s="47"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="50"/>
+      <c r="K148" s="48"/>
     </row>
     <row r="149">
-      <c r="G149" s="48"/>
-      <c r="H149" s="49"/>
-      <c r="K149" s="47"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="50"/>
+      <c r="K149" s="48"/>
     </row>
     <row r="150">
-      <c r="G150" s="48"/>
-      <c r="H150" s="49"/>
-      <c r="K150" s="47"/>
+      <c r="G150" s="49"/>
+      <c r="H150" s="50"/>
+      <c r="K150" s="48"/>
     </row>
     <row r="151">
-      <c r="G151" s="48"/>
-      <c r="H151" s="49"/>
-      <c r="K151" s="47"/>
+      <c r="G151" s="49"/>
+      <c r="H151" s="50"/>
+      <c r="K151" s="48"/>
     </row>
     <row r="152">
-      <c r="G152" s="48"/>
-      <c r="H152" s="49"/>
-      <c r="K152" s="47"/>
+      <c r="G152" s="49"/>
+      <c r="H152" s="50"/>
+      <c r="K152" s="48"/>
     </row>
     <row r="153">
-      <c r="G153" s="48"/>
-      <c r="H153" s="49"/>
-      <c r="K153" s="47"/>
+      <c r="G153" s="49"/>
+      <c r="H153" s="50"/>
+      <c r="K153" s="48"/>
     </row>
     <row r="154">
-      <c r="G154" s="48"/>
-      <c r="H154" s="49"/>
-      <c r="K154" s="47"/>
+      <c r="G154" s="49"/>
+      <c r="H154" s="50"/>
+      <c r="K154" s="48"/>
     </row>
     <row r="155">
-      <c r="G155" s="48"/>
-      <c r="H155" s="49"/>
-      <c r="K155" s="47"/>
+      <c r="G155" s="49"/>
+      <c r="H155" s="50"/>
+      <c r="K155" s="48"/>
     </row>
     <row r="156">
-      <c r="G156" s="48"/>
-      <c r="H156" s="49"/>
-      <c r="K156" s="47"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="50"/>
+      <c r="K156" s="48"/>
     </row>
     <row r="157">
-      <c r="G157" s="48"/>
-      <c r="H157" s="49"/>
-      <c r="K157" s="47"/>
+      <c r="G157" s="49"/>
+      <c r="H157" s="50"/>
+      <c r="K157" s="48"/>
     </row>
     <row r="158">
-      <c r="G158" s="48"/>
-      <c r="H158" s="49"/>
-      <c r="K158" s="47"/>
+      <c r="G158" s="49"/>
+      <c r="H158" s="50"/>
+      <c r="K158" s="48"/>
     </row>
     <row r="159">
-      <c r="G159" s="48"/>
-      <c r="H159" s="49"/>
-      <c r="K159" s="47"/>
+      <c r="G159" s="49"/>
+      <c r="H159" s="50"/>
+      <c r="K159" s="48"/>
     </row>
     <row r="160">
-      <c r="G160" s="48"/>
-      <c r="H160" s="49"/>
-      <c r="K160" s="47"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="50"/>
+      <c r="K160" s="48"/>
     </row>
     <row r="161">
-      <c r="G161" s="48"/>
-      <c r="H161" s="49"/>
-      <c r="K161" s="47"/>
+      <c r="G161" s="49"/>
+      <c r="H161" s="50"/>
+      <c r="K161" s="48"/>
     </row>
     <row r="162">
-      <c r="G162" s="48"/>
-      <c r="H162" s="49"/>
-      <c r="K162" s="47"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="50"/>
+      <c r="K162" s="48"/>
     </row>
     <row r="163">
-      <c r="G163" s="48"/>
-      <c r="H163" s="49"/>
-      <c r="K163" s="47"/>
+      <c r="G163" s="49"/>
+      <c r="H163" s="50"/>
+      <c r="K163" s="48"/>
     </row>
     <row r="164">
-      <c r="G164" s="48"/>
-      <c r="H164" s="49"/>
-      <c r="K164" s="47"/>
+      <c r="G164" s="49"/>
+      <c r="H164" s="50"/>
+      <c r="K164" s="48"/>
     </row>
     <row r="165">
-      <c r="G165" s="48"/>
-      <c r="H165" s="49"/>
-      <c r="K165" s="47"/>
+      <c r="G165" s="49"/>
+      <c r="H165" s="50"/>
+      <c r="K165" s="48"/>
     </row>
     <row r="166">
-      <c r="G166" s="48"/>
-      <c r="H166" s="49"/>
-      <c r="K166" s="47"/>
+      <c r="G166" s="49"/>
+      <c r="H166" s="50"/>
+      <c r="K166" s="48"/>
     </row>
     <row r="167">
-      <c r="G167" s="48"/>
-      <c r="H167" s="49"/>
-      <c r="K167" s="47"/>
+      <c r="G167" s="49"/>
+      <c r="H167" s="50"/>
+      <c r="K167" s="48"/>
     </row>
     <row r="168">
-      <c r="G168" s="48"/>
-      <c r="H168" s="49"/>
-      <c r="K168" s="47"/>
+      <c r="G168" s="49"/>
+      <c r="H168" s="50"/>
+      <c r="K168" s="48"/>
     </row>
     <row r="169">
-      <c r="G169" s="48"/>
-      <c r="H169" s="49"/>
-      <c r="K169" s="47"/>
+      <c r="G169" s="49"/>
+      <c r="H169" s="50"/>
+      <c r="K169" s="48"/>
     </row>
     <row r="170">
-      <c r="G170" s="48"/>
-      <c r="H170" s="49"/>
-      <c r="K170" s="47"/>
+      <c r="G170" s="49"/>
+      <c r="H170" s="50"/>
+      <c r="K170" s="48"/>
     </row>
     <row r="171">
-      <c r="G171" s="48"/>
-      <c r="H171" s="49"/>
-      <c r="K171" s="47"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="50"/>
+      <c r="K171" s="48"/>
     </row>
     <row r="172">
-      <c r="G172" s="48"/>
-      <c r="H172" s="49"/>
-      <c r="K172" s="47"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="50"/>
+      <c r="K172" s="48"/>
     </row>
     <row r="173">
-      <c r="G173" s="48"/>
-      <c r="H173" s="49"/>
-      <c r="K173" s="47"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="50"/>
+      <c r="K173" s="48"/>
     </row>
     <row r="174">
-      <c r="G174" s="48"/>
-      <c r="H174" s="49"/>
-      <c r="K174" s="47"/>
+      <c r="G174" s="49"/>
+      <c r="H174" s="50"/>
+      <c r="K174" s="48"/>
     </row>
     <row r="175">
-      <c r="G175" s="48"/>
-      <c r="H175" s="49"/>
-      <c r="K175" s="47"/>
+      <c r="G175" s="49"/>
+      <c r="H175" s="50"/>
+      <c r="K175" s="48"/>
     </row>
     <row r="176">
-      <c r="G176" s="48"/>
-      <c r="H176" s="49"/>
-      <c r="K176" s="47"/>
+      <c r="G176" s="49"/>
+      <c r="H176" s="50"/>
+      <c r="K176" s="48"/>
     </row>
     <row r="177">
-      <c r="G177" s="48"/>
-      <c r="H177" s="49"/>
-      <c r="K177" s="47"/>
+      <c r="G177" s="49"/>
+      <c r="H177" s="50"/>
+      <c r="K177" s="48"/>
     </row>
     <row r="178">
-      <c r="G178" s="48"/>
-      <c r="H178" s="49"/>
-      <c r="K178" s="47"/>
+      <c r="G178" s="49"/>
+      <c r="H178" s="50"/>
+      <c r="K178" s="48"/>
     </row>
     <row r="179">
-      <c r="G179" s="48"/>
-      <c r="H179" s="49"/>
-      <c r="K179" s="47"/>
+      <c r="G179" s="49"/>
+      <c r="H179" s="50"/>
+      <c r="K179" s="48"/>
     </row>
     <row r="180">
-      <c r="G180" s="48"/>
-      <c r="H180" s="49"/>
-      <c r="K180" s="47"/>
+      <c r="G180" s="49"/>
+      <c r="H180" s="50"/>
+      <c r="K180" s="48"/>
     </row>
     <row r="181">
-      <c r="G181" s="48"/>
-      <c r="H181" s="49"/>
-      <c r="K181" s="47"/>
+      <c r="G181" s="49"/>
+      <c r="H181" s="50"/>
+      <c r="K181" s="48"/>
     </row>
     <row r="182">
-      <c r="G182" s="48"/>
-      <c r="H182" s="49"/>
-      <c r="K182" s="47"/>
+      <c r="G182" s="49"/>
+      <c r="H182" s="50"/>
+      <c r="K182" s="48"/>
     </row>
     <row r="183">
-      <c r="G183" s="48"/>
-      <c r="H183" s="49"/>
-      <c r="K183" s="47"/>
+      <c r="G183" s="49"/>
+      <c r="H183" s="50"/>
+      <c r="K183" s="48"/>
     </row>
     <row r="184">
-      <c r="G184" s="48"/>
-      <c r="H184" s="49"/>
-      <c r="K184" s="47"/>
+      <c r="G184" s="49"/>
+      <c r="H184" s="50"/>
+      <c r="K184" s="48"/>
     </row>
     <row r="185">
-      <c r="G185" s="48"/>
-      <c r="H185" s="49"/>
-      <c r="K185" s="47"/>
+      <c r="G185" s="49"/>
+      <c r="H185" s="50"/>
+      <c r="K185" s="48"/>
     </row>
     <row r="186">
-      <c r="G186" s="48"/>
-      <c r="H186" s="49"/>
-      <c r="K186" s="47"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="50"/>
+      <c r="K186" s="48"/>
     </row>
     <row r="187">
-      <c r="G187" s="48"/>
-      <c r="H187" s="49"/>
-      <c r="K187" s="47"/>
+      <c r="G187" s="49"/>
+      <c r="H187" s="50"/>
+      <c r="K187" s="48"/>
     </row>
     <row r="188">
-      <c r="G188" s="48"/>
-      <c r="H188" s="49"/>
-      <c r="K188" s="47"/>
+      <c r="G188" s="49"/>
+      <c r="H188" s="50"/>
+      <c r="K188" s="48"/>
     </row>
     <row r="189">
-      <c r="G189" s="48"/>
-      <c r="H189" s="49"/>
-      <c r="K189" s="47"/>
+      <c r="G189" s="49"/>
+      <c r="H189" s="50"/>
+      <c r="K189" s="48"/>
     </row>
     <row r="190">
-      <c r="G190" s="48"/>
-      <c r="H190" s="49"/>
-      <c r="K190" s="47"/>
+      <c r="G190" s="49"/>
+      <c r="H190" s="50"/>
+      <c r="K190" s="48"/>
     </row>
     <row r="191">
-      <c r="G191" s="48"/>
-      <c r="H191" s="49"/>
-      <c r="K191" s="47"/>
+      <c r="G191" s="49"/>
+      <c r="H191" s="50"/>
+      <c r="K191" s="48"/>
     </row>
     <row r="192">
-      <c r="G192" s="48"/>
-      <c r="H192" s="49"/>
-      <c r="K192" s="47"/>
+      <c r="G192" s="49"/>
+      <c r="H192" s="50"/>
+      <c r="K192" s="48"/>
     </row>
     <row r="193">
-      <c r="G193" s="48"/>
-      <c r="H193" s="49"/>
-      <c r="K193" s="47"/>
+      <c r="G193" s="49"/>
+      <c r="H193" s="50"/>
+      <c r="K193" s="48"/>
     </row>
     <row r="194">
-      <c r="G194" s="48"/>
-      <c r="H194" s="49"/>
-      <c r="K194" s="47"/>
+      <c r="G194" s="49"/>
+      <c r="H194" s="50"/>
+      <c r="K194" s="48"/>
     </row>
     <row r="195">
-      <c r="G195" s="48"/>
-      <c r="H195" s="49"/>
-      <c r="K195" s="47"/>
+      <c r="G195" s="49"/>
+      <c r="H195" s="50"/>
+      <c r="K195" s="48"/>
     </row>
     <row r="196">
-      <c r="G196" s="48"/>
-      <c r="H196" s="49"/>
-      <c r="K196" s="47"/>
+      <c r="G196" s="49"/>
+      <c r="H196" s="50"/>
+      <c r="K196" s="48"/>
     </row>
     <row r="197">
-      <c r="G197" s="48"/>
-      <c r="H197" s="49"/>
-      <c r="K197" s="47"/>
+      <c r="G197" s="49"/>
+      <c r="H197" s="50"/>
+      <c r="K197" s="48"/>
     </row>
     <row r="198">
-      <c r="G198" s="48"/>
-      <c r="H198" s="49"/>
-      <c r="K198" s="47"/>
+      <c r="G198" s="49"/>
+      <c r="H198" s="50"/>
+      <c r="K198" s="48"/>
     </row>
     <row r="199">
-      <c r="G199" s="48"/>
-      <c r="H199" s="49"/>
-      <c r="K199" s="47"/>
+      <c r="G199" s="49"/>
+      <c r="H199" s="50"/>
+      <c r="K199" s="48"/>
     </row>
     <row r="200">
-      <c r="G200" s="48"/>
-      <c r="H200" s="49"/>
-      <c r="K200" s="47"/>
+      <c r="G200" s="49"/>
+      <c r="H200" s="50"/>
+      <c r="K200" s="48"/>
     </row>
     <row r="201">
-      <c r="G201" s="48"/>
-      <c r="H201" s="49"/>
-      <c r="K201" s="47"/>
+      <c r="G201" s="49"/>
+      <c r="H201" s="50"/>
+      <c r="K201" s="48"/>
     </row>
     <row r="202">
-      <c r="G202" s="48"/>
-      <c r="H202" s="49"/>
-      <c r="K202" s="47"/>
+      <c r="G202" s="49"/>
+      <c r="H202" s="50"/>
+      <c r="K202" s="48"/>
     </row>
     <row r="203">
-      <c r="G203" s="48"/>
-      <c r="H203" s="49"/>
-      <c r="K203" s="47"/>
+      <c r="G203" s="49"/>
+      <c r="H203" s="50"/>
+      <c r="K203" s="48"/>
     </row>
     <row r="204">
-      <c r="G204" s="48"/>
-      <c r="H204" s="49"/>
-      <c r="K204" s="47"/>
+      <c r="G204" s="49"/>
+      <c r="H204" s="50"/>
+      <c r="K204" s="48"/>
     </row>
     <row r="205">
-      <c r="G205" s="48"/>
-      <c r="H205" s="49"/>
-      <c r="K205" s="47"/>
+      <c r="G205" s="49"/>
+      <c r="H205" s="50"/>
+      <c r="K205" s="48"/>
     </row>
     <row r="206">
-      <c r="G206" s="48"/>
-      <c r="H206" s="49"/>
-      <c r="K206" s="47"/>
+      <c r="G206" s="49"/>
+      <c r="H206" s="50"/>
+      <c r="K206" s="48"/>
     </row>
     <row r="207">
-      <c r="G207" s="48"/>
-      <c r="H207" s="49"/>
-      <c r="K207" s="47"/>
+      <c r="G207" s="49"/>
+      <c r="H207" s="50"/>
+      <c r="K207" s="48"/>
     </row>
     <row r="208">
-      <c r="G208" s="48"/>
-      <c r="H208" s="49"/>
-      <c r="K208" s="47"/>
+      <c r="G208" s="49"/>
+      <c r="H208" s="50"/>
+      <c r="K208" s="48"/>
     </row>
     <row r="209">
-      <c r="G209" s="48"/>
-      <c r="H209" s="49"/>
-      <c r="K209" s="47"/>
+      <c r="G209" s="49"/>
+      <c r="H209" s="50"/>
+      <c r="K209" s="48"/>
     </row>
     <row r="210">
-      <c r="G210" s="48"/>
-      <c r="H210" s="49"/>
-      <c r="K210" s="47"/>
+      <c r="G210" s="49"/>
+      <c r="H210" s="50"/>
+      <c r="K210" s="48"/>
     </row>
     <row r="211">
-      <c r="G211" s="48"/>
-      <c r="H211" s="49"/>
-      <c r="K211" s="47"/>
+      <c r="G211" s="49"/>
+      <c r="H211" s="50"/>
+      <c r="K211" s="48"/>
     </row>
     <row r="212">
-      <c r="G212" s="48"/>
-      <c r="H212" s="49"/>
-      <c r="K212" s="47"/>
+      <c r="G212" s="49"/>
+      <c r="H212" s="50"/>
+      <c r="K212" s="48"/>
     </row>
     <row r="213">
-      <c r="G213" s="48"/>
-      <c r="H213" s="49"/>
-      <c r="K213" s="47"/>
+      <c r="G213" s="49"/>
+      <c r="H213" s="50"/>
+      <c r="K213" s="48"/>
     </row>
     <row r="214">
-      <c r="G214" s="48"/>
-      <c r="H214" s="49"/>
-      <c r="K214" s="47"/>
+      <c r="G214" s="49"/>
+      <c r="H214" s="50"/>
+      <c r="K214" s="48"/>
     </row>
     <row r="215">
-      <c r="G215" s="48"/>
-      <c r="H215" s="49"/>
-      <c r="K215" s="47"/>
+      <c r="G215" s="49"/>
+      <c r="H215" s="50"/>
+      <c r="K215" s="48"/>
     </row>
     <row r="216">
-      <c r="G216" s="48"/>
-      <c r="H216" s="49"/>
-      <c r="K216" s="47"/>
+      <c r="G216" s="49"/>
+      <c r="H216" s="50"/>
+      <c r="K216" s="48"/>
     </row>
     <row r="217">
-      <c r="G217" s="48"/>
-      <c r="H217" s="49"/>
-      <c r="K217" s="47"/>
+      <c r="G217" s="49"/>
+      <c r="H217" s="50"/>
+      <c r="K217" s="48"/>
     </row>
     <row r="218">
-      <c r="G218" s="48"/>
-      <c r="H218" s="49"/>
-      <c r="K218" s="47"/>
+      <c r="G218" s="49"/>
+      <c r="H218" s="50"/>
+      <c r="K218" s="48"/>
     </row>
     <row r="219">
-      <c r="G219" s="48"/>
-      <c r="H219" s="49"/>
-      <c r="K219" s="47"/>
+      <c r="G219" s="49"/>
+      <c r="H219" s="50"/>
+      <c r="K219" s="48"/>
     </row>
     <row r="220">
-      <c r="G220" s="48"/>
-      <c r="H220" s="49"/>
-      <c r="K220" s="47"/>
+      <c r="G220" s="49"/>
+      <c r="H220" s="50"/>
+      <c r="K220" s="48"/>
     </row>
     <row r="221">
-      <c r="G221" s="48"/>
-      <c r="H221" s="49"/>
-      <c r="K221" s="47"/>
+      <c r="G221" s="49"/>
+      <c r="H221" s="50"/>
+      <c r="K221" s="48"/>
     </row>
     <row r="222">
-      <c r="G222" s="48"/>
-      <c r="H222" s="49"/>
-      <c r="K222" s="47"/>
+      <c r="G222" s="49"/>
+      <c r="H222" s="50"/>
+      <c r="K222" s="48"/>
     </row>
     <row r="223">
-      <c r="G223" s="48"/>
-      <c r="H223" s="49"/>
-      <c r="K223" s="47"/>
+      <c r="G223" s="49"/>
+      <c r="H223" s="50"/>
+      <c r="K223" s="48"/>
     </row>
     <row r="224">
-      <c r="G224" s="48"/>
-      <c r="H224" s="49"/>
-      <c r="K224" s="47"/>
+      <c r="G224" s="49"/>
+      <c r="H224" s="50"/>
+      <c r="K224" s="48"/>
     </row>
     <row r="225">
-      <c r="G225" s="48"/>
-      <c r="H225" s="49"/>
-      <c r="K225" s="47"/>
+      <c r="G225" s="49"/>
+      <c r="H225" s="50"/>
+      <c r="K225" s="48"/>
     </row>
     <row r="226">
-      <c r="G226" s="48"/>
-      <c r="H226" s="49"/>
-      <c r="K226" s="47"/>
+      <c r="G226" s="49"/>
+      <c r="H226" s="50"/>
+      <c r="K226" s="48"/>
     </row>
     <row r="227">
-      <c r="G227" s="48"/>
-      <c r="H227" s="49"/>
-      <c r="K227" s="47"/>
+      <c r="G227" s="49"/>
+      <c r="H227" s="50"/>
+      <c r="K227" s="48"/>
     </row>
     <row r="228">
-      <c r="G228" s="48"/>
-      <c r="H228" s="49"/>
-      <c r="K228" s="47"/>
+      <c r="G228" s="49"/>
+      <c r="H228" s="50"/>
+      <c r="K228" s="48"/>
     </row>
     <row r="229">
-      <c r="G229" s="48"/>
-      <c r="H229" s="49"/>
-      <c r="K229" s="47"/>
+      <c r="G229" s="49"/>
+      <c r="H229" s="50"/>
+      <c r="K229" s="48"/>
     </row>
     <row r="230">
-      <c r="G230" s="48"/>
-      <c r="H230" s="49"/>
-      <c r="K230" s="47"/>
+      <c r="G230" s="49"/>
+      <c r="H230" s="50"/>
+      <c r="K230" s="48"/>
     </row>
     <row r="231">
-      <c r="G231" s="48"/>
-      <c r="H231" s="49"/>
-      <c r="K231" s="47"/>
+      <c r="G231" s="49"/>
+      <c r="H231" s="50"/>
+      <c r="K231" s="48"/>
     </row>
     <row r="232">
-      <c r="G232" s="48"/>
-      <c r="H232" s="49"/>
-      <c r="K232" s="47"/>
+      <c r="G232" s="49"/>
+      <c r="H232" s="50"/>
+      <c r="K232" s="48"/>
     </row>
     <row r="233">
-      <c r="G233" s="48"/>
-      <c r="H233" s="49"/>
-      <c r="K233" s="47"/>
+      <c r="G233" s="49"/>
+      <c r="H233" s="50"/>
+      <c r="K233" s="48"/>
     </row>
     <row r="234">
-      <c r="G234" s="48"/>
-      <c r="H234" s="49"/>
-      <c r="K234" s="47"/>
+      <c r="G234" s="49"/>
+      <c r="H234" s="50"/>
+      <c r="K234" s="48"/>
     </row>
     <row r="235">
-      <c r="G235" s="48"/>
-      <c r="H235" s="49"/>
-      <c r="K235" s="47"/>
+      <c r="G235" s="49"/>
+      <c r="H235" s="50"/>
+      <c r="K235" s="48"/>
     </row>
     <row r="236">
-      <c r="G236" s="48"/>
-      <c r="H236" s="49"/>
-      <c r="K236" s="47"/>
+      <c r="G236" s="49"/>
+      <c r="H236" s="50"/>
+      <c r="K236" s="48"/>
     </row>
     <row r="237">
-      <c r="G237" s="48"/>
-      <c r="H237" s="49"/>
-      <c r="K237" s="47"/>
+      <c r="G237" s="49"/>
+      <c r="H237" s="50"/>
+      <c r="K237" s="48"/>
     </row>
     <row r="238">
-      <c r="G238" s="48"/>
-      <c r="H238" s="49"/>
-      <c r="K238" s="47"/>
+      <c r="G238" s="49"/>
+      <c r="H238" s="50"/>
+      <c r="K238" s="48"/>
     </row>
     <row r="239">
-      <c r="G239" s="48"/>
-      <c r="H239" s="49"/>
-      <c r="K239" s="47"/>
+      <c r="G239" s="49"/>
+      <c r="H239" s="50"/>
+      <c r="K239" s="48"/>
     </row>
     <row r="240">
-      <c r="G240" s="48"/>
-      <c r="H240" s="49"/>
-      <c r="K240" s="47"/>
+      <c r="G240" s="49"/>
+      <c r="H240" s="50"/>
+      <c r="K240" s="48"/>
     </row>
     <row r="241">
-      <c r="G241" s="48"/>
-      <c r="H241" s="49"/>
-      <c r="K241" s="47"/>
+      <c r="G241" s="49"/>
+      <c r="H241" s="50"/>
+      <c r="K241" s="48"/>
     </row>
     <row r="242">
-      <c r="G242" s="48"/>
-      <c r="H242" s="49"/>
-      <c r="K242" s="47"/>
+      <c r="G242" s="49"/>
+      <c r="H242" s="50"/>
+      <c r="K242" s="48"/>
     </row>
     <row r="243">
-      <c r="G243" s="48"/>
-      <c r="H243" s="49"/>
-      <c r="K243" s="47"/>
+      <c r="G243" s="49"/>
+      <c r="H243" s="50"/>
+      <c r="K243" s="48"/>
     </row>
     <row r="244">
-      <c r="G244" s="48"/>
-      <c r="H244" s="49"/>
-      <c r="K244" s="47"/>
+      <c r="G244" s="49"/>
+      <c r="H244" s="50"/>
+      <c r="K244" s="48"/>
     </row>
     <row r="245">
-      <c r="G245" s="48"/>
-      <c r="H245" s="49"/>
-      <c r="K245" s="47"/>
+      <c r="G245" s="49"/>
+      <c r="H245" s="50"/>
+      <c r="K245" s="48"/>
     </row>
     <row r="246">
-      <c r="G246" s="48"/>
-      <c r="H246" s="49"/>
-      <c r="K246" s="47"/>
+      <c r="G246" s="49"/>
+      <c r="H246" s="50"/>
+      <c r="K246" s="48"/>
     </row>
     <row r="247">
-      <c r="G247" s="48"/>
-      <c r="H247" s="49"/>
-      <c r="K247" s="47"/>
+      <c r="G247" s="49"/>
+      <c r="H247" s="50"/>
+      <c r="K247" s="48"/>
     </row>
     <row r="248">
-      <c r="G248" s="48"/>
-      <c r="H248" s="49"/>
-      <c r="K248" s="47"/>
+      <c r="G248" s="49"/>
+      <c r="H248" s="50"/>
+      <c r="K248" s="48"/>
     </row>
     <row r="249">
-      <c r="G249" s="48"/>
-      <c r="H249" s="49"/>
-      <c r="K249" s="47"/>
+      <c r="G249" s="49"/>
+      <c r="H249" s="50"/>
+      <c r="K249" s="48"/>
     </row>
     <row r="250">
-      <c r="G250" s="48"/>
-      <c r="H250" s="49"/>
-      <c r="K250" s="47"/>
+      <c r="G250" s="49"/>
+      <c r="H250" s="50"/>
+      <c r="K250" s="48"/>
     </row>
     <row r="251">
-      <c r="G251" s="48"/>
-      <c r="H251" s="49"/>
-      <c r="K251" s="47"/>
+      <c r="G251" s="49"/>
+      <c r="H251" s="50"/>
+      <c r="K251" s="48"/>
     </row>
     <row r="252">
-      <c r="G252" s="48"/>
-      <c r="H252" s="49"/>
-      <c r="K252" s="47"/>
+      <c r="G252" s="49"/>
+      <c r="H252" s="50"/>
+      <c r="K252" s="48"/>
     </row>
     <row r="253">
-      <c r="G253" s="48"/>
-      <c r="H253" s="49"/>
-      <c r="K253" s="47"/>
+      <c r="G253" s="49"/>
+      <c r="H253" s="50"/>
+      <c r="K253" s="48"/>
     </row>
     <row r="254">
-      <c r="G254" s="48"/>
-      <c r="H254" s="49"/>
-      <c r="K254" s="47"/>
+      <c r="G254" s="49"/>
+      <c r="H254" s="50"/>
+      <c r="K254" s="48"/>
     </row>
     <row r="255">
-      <c r="G255" s="48"/>
-      <c r="H255" s="49"/>
-      <c r="K255" s="47"/>
+      <c r="G255" s="49"/>
+      <c r="H255" s="50"/>
+      <c r="K255" s="48"/>
     </row>
     <row r="256">
-      <c r="G256" s="48"/>
-      <c r="H256" s="49"/>
-      <c r="K256" s="47"/>
+      <c r="G256" s="49"/>
+      <c r="H256" s="50"/>
+      <c r="K256" s="48"/>
     </row>
     <row r="257">
-      <c r="G257" s="48"/>
-      <c r="H257" s="49"/>
-      <c r="K257" s="47"/>
+      <c r="G257" s="49"/>
+      <c r="H257" s="50"/>
+      <c r="K257" s="48"/>
     </row>
     <row r="258">
-      <c r="G258" s="48"/>
-      <c r="H258" s="49"/>
-      <c r="K258" s="47"/>
+      <c r="G258" s="49"/>
+      <c r="H258" s="50"/>
+      <c r="K258" s="48"/>
     </row>
     <row r="259">
-      <c r="G259" s="48"/>
-      <c r="H259" s="49"/>
-      <c r="K259" s="47"/>
+      <c r="G259" s="49"/>
+      <c r="H259" s="50"/>
+      <c r="K259" s="48"/>
     </row>
     <row r="260">
-      <c r="G260" s="48"/>
-      <c r="H260" s="49"/>
-      <c r="K260" s="47"/>
+      <c r="G260" s="49"/>
+      <c r="H260" s="50"/>
+      <c r="K260" s="48"/>
     </row>
     <row r="261">
-      <c r="G261" s="48"/>
-      <c r="H261" s="49"/>
-      <c r="K261" s="47"/>
+      <c r="G261" s="49"/>
+      <c r="H261" s="50"/>
+      <c r="K261" s="48"/>
     </row>
     <row r="262">
-      <c r="G262" s="48"/>
-      <c r="H262" s="49"/>
-      <c r="K262" s="47"/>
+      <c r="G262" s="49"/>
+      <c r="H262" s="50"/>
+      <c r="K262" s="48"/>
     </row>
     <row r="263">
-      <c r="G263" s="48"/>
-      <c r="H263" s="49"/>
-      <c r="K263" s="47"/>
+      <c r="G263" s="49"/>
+      <c r="H263" s="50"/>
+      <c r="K263" s="48"/>
     </row>
     <row r="264">
-      <c r="G264" s="48"/>
-      <c r="H264" s="49"/>
-      <c r="K264" s="47"/>
+      <c r="G264" s="49"/>
+      <c r="H264" s="50"/>
+      <c r="K264" s="48"/>
     </row>
     <row r="265">
-      <c r="G265" s="48"/>
-      <c r="H265" s="49"/>
-      <c r="K265" s="47"/>
+      <c r="G265" s="49"/>
+      <c r="H265" s="50"/>
+      <c r="K265" s="48"/>
     </row>
     <row r="266">
-      <c r="G266" s="48"/>
-      <c r="H266" s="49"/>
-      <c r="K266" s="47"/>
+      <c r="G266" s="49"/>
+      <c r="H266" s="50"/>
+      <c r="K266" s="48"/>
     </row>
     <row r="267">
-      <c r="G267" s="48"/>
-      <c r="H267" s="49"/>
-      <c r="K267" s="47"/>
+      <c r="G267" s="49"/>
+      <c r="H267" s="50"/>
+      <c r="K267" s="48"/>
     </row>
     <row r="268">
-      <c r="G268" s="48"/>
-      <c r="H268" s="49"/>
-      <c r="K268" s="47"/>
+      <c r="G268" s="49"/>
+      <c r="H268" s="50"/>
+      <c r="K268" s="48"/>
     </row>
     <row r="269">
-      <c r="G269" s="48"/>
-      <c r="H269" s="49"/>
-      <c r="K269" s="47"/>
+      <c r="G269" s="49"/>
+      <c r="H269" s="50"/>
+      <c r="K269" s="48"/>
     </row>
     <row r="270">
-      <c r="G270" s="48"/>
-      <c r="H270" s="49"/>
-      <c r="K270" s="47"/>
+      <c r="G270" s="49"/>
+      <c r="H270" s="50"/>
+      <c r="K270" s="48"/>
     </row>
     <row r="271">
-      <c r="G271" s="48"/>
-      <c r="H271" s="49"/>
-      <c r="K271" s="47"/>
+      <c r="G271" s="49"/>
+      <c r="H271" s="50"/>
+      <c r="K271" s="48"/>
     </row>
     <row r="272">
-      <c r="G272" s="48"/>
-      <c r="H272" s="49"/>
-      <c r="K272" s="47"/>
+      <c r="G272" s="49"/>
+      <c r="H272" s="50"/>
+      <c r="K272" s="48"/>
     </row>
     <row r="273">
-      <c r="G273" s="48"/>
-      <c r="H273" s="49"/>
-      <c r="K273" s="47"/>
+      <c r="G273" s="49"/>
+      <c r="H273" s="50"/>
+      <c r="K273" s="48"/>
     </row>
     <row r="274">
-      <c r="G274" s="48"/>
-      <c r="H274" s="49"/>
-      <c r="K274" s="47"/>
+      <c r="G274" s="49"/>
+      <c r="H274" s="50"/>
+      <c r="K274" s="48"/>
     </row>
     <row r="275">
-      <c r="G275" s="48"/>
-      <c r="H275" s="49"/>
-      <c r="K275" s="47"/>
+      <c r="G275" s="49"/>
+      <c r="H275" s="50"/>
+      <c r="K275" s="48"/>
     </row>
     <row r="276">
-      <c r="G276" s="48"/>
-      <c r="H276" s="49"/>
-      <c r="K276" s="47"/>
+      <c r="G276" s="49"/>
+      <c r="H276" s="50"/>
+      <c r="K276" s="48"/>
     </row>
     <row r="277">
-      <c r="G277" s="48"/>
-      <c r="H277" s="49"/>
-      <c r="K277" s="47"/>
+      <c r="G277" s="49"/>
+      <c r="H277" s="50"/>
+      <c r="K277" s="48"/>
     </row>
     <row r="278">
-      <c r="G278" s="48"/>
-      <c r="H278" s="49"/>
-      <c r="K278" s="47"/>
+      <c r="G278" s="49"/>
+      <c r="H278" s="50"/>
+      <c r="K278" s="48"/>
     </row>
     <row r="279">
-      <c r="G279" s="48"/>
-      <c r="H279" s="49"/>
-      <c r="K279" s="47"/>
+      <c r="G279" s="49"/>
+      <c r="H279" s="50"/>
+      <c r="K279" s="48"/>
     </row>
     <row r="280">
-      <c r="G280" s="48"/>
-      <c r="H280" s="49"/>
-      <c r="K280" s="47"/>
+      <c r="G280" s="49"/>
+      <c r="H280" s="50"/>
+      <c r="K280" s="48"/>
     </row>
     <row r="281">
-      <c r="G281" s="48"/>
-      <c r="H281" s="49"/>
-      <c r="K281" s="47"/>
+      <c r="G281" s="49"/>
+      <c r="H281" s="50"/>
+      <c r="K281" s="48"/>
     </row>
     <row r="282">
-      <c r="G282" s="48"/>
-      <c r="H282" s="49"/>
-      <c r="K282" s="47"/>
+      <c r="G282" s="49"/>
+      <c r="H282" s="50"/>
+      <c r="K282" s="48"/>
     </row>
     <row r="283">
-      <c r="G283" s="48"/>
-      <c r="H283" s="49"/>
-      <c r="K283" s="47"/>
+      <c r="G283" s="49"/>
+      <c r="H283" s="50"/>
+      <c r="K283" s="48"/>
     </row>
     <row r="284">
-      <c r="G284" s="48"/>
-      <c r="H284" s="49"/>
-      <c r="K284" s="47"/>
+      <c r="G284" s="49"/>
+      <c r="H284" s="50"/>
+      <c r="K284" s="48"/>
     </row>
     <row r="285">
-      <c r="G285" s="48"/>
-      <c r="H285" s="49"/>
-      <c r="K285" s="47"/>
+      <c r="G285" s="49"/>
+      <c r="H285" s="50"/>
+      <c r="K285" s="48"/>
     </row>
     <row r="286">
-      <c r="G286" s="48"/>
-      <c r="H286" s="49"/>
-      <c r="K286" s="47"/>
+      <c r="G286" s="49"/>
+      <c r="H286" s="50"/>
+      <c r="K286" s="48"/>
     </row>
     <row r="287">
-      <c r="G287" s="48"/>
-      <c r="H287" s="49"/>
-      <c r="K287" s="47"/>
+      <c r="G287" s="49"/>
+      <c r="H287" s="50"/>
+      <c r="K287" s="48"/>
     </row>
     <row r="288">
-      <c r="G288" s="48"/>
-      <c r="H288" s="49"/>
-      <c r="K288" s="47"/>
+      <c r="G288" s="49"/>
+      <c r="H288" s="50"/>
+      <c r="K288" s="48"/>
     </row>
     <row r="289">
-      <c r="G289" s="48"/>
-      <c r="H289" s="49"/>
-      <c r="K289" s="47"/>
+      <c r="G289" s="49"/>
+      <c r="H289" s="50"/>
+      <c r="K289" s="48"/>
     </row>
     <row r="290">
-      <c r="G290" s="48"/>
-      <c r="H290" s="49"/>
-      <c r="K290" s="47"/>
+      <c r="G290" s="49"/>
+      <c r="H290" s="50"/>
+      <c r="K290" s="48"/>
     </row>
     <row r="291">
-      <c r="G291" s="48"/>
-      <c r="H291" s="49"/>
-      <c r="K291" s="47"/>
+      <c r="G291" s="49"/>
+      <c r="H291" s="50"/>
+      <c r="K291" s="48"/>
     </row>
     <row r="292">
-      <c r="G292" s="48"/>
-      <c r="H292" s="49"/>
-      <c r="K292" s="47"/>
+      <c r="G292" s="49"/>
+      <c r="H292" s="50"/>
+      <c r="K292" s="48"/>
     </row>
     <row r="293">
-      <c r="G293" s="48"/>
-      <c r="H293" s="49"/>
-      <c r="K293" s="47"/>
+      <c r="G293" s="49"/>
+      <c r="H293" s="50"/>
+      <c r="K293" s="48"/>
     </row>
     <row r="294">
-      <c r="G294" s="48"/>
-      <c r="H294" s="49"/>
-      <c r="K294" s="47"/>
+      <c r="G294" s="49"/>
+      <c r="H294" s="50"/>
+      <c r="K294" s="48"/>
     </row>
     <row r="295">
-      <c r="G295" s="48"/>
-      <c r="H295" s="49"/>
-      <c r="K295" s="47"/>
+      <c r="G295" s="49"/>
+      <c r="H295" s="50"/>
+      <c r="K295" s="48"/>
     </row>
     <row r="296">
-      <c r="G296" s="48"/>
-      <c r="H296" s="49"/>
-      <c r="K296" s="47"/>
+      <c r="G296" s="49"/>
+      <c r="H296" s="50"/>
+      <c r="K296" s="48"/>
     </row>
     <row r="297">
-      <c r="G297" s="48"/>
-      <c r="H297" s="49"/>
-      <c r="K297" s="47"/>
+      <c r="G297" s="49"/>
+      <c r="H297" s="50"/>
+      <c r="K297" s="48"/>
     </row>
     <row r="298">
-      <c r="G298" s="48"/>
-      <c r="H298" s="49"/>
-      <c r="K298" s="47"/>
+      <c r="G298" s="49"/>
+      <c r="H298" s="50"/>
+      <c r="K298" s="48"/>
     </row>
     <row r="299">
-      <c r="G299" s="48"/>
-      <c r="H299" s="49"/>
-      <c r="K299" s="47"/>
+      <c r="G299" s="49"/>
+      <c r="H299" s="50"/>
+      <c r="K299" s="48"/>
     </row>
     <row r="300">
-      <c r="G300" s="48"/>
-      <c r="H300" s="49"/>
-      <c r="K300" s="47"/>
+      <c r="G300" s="49"/>
+      <c r="H300" s="50"/>
+      <c r="K300" s="48"/>
     </row>
     <row r="301">
-      <c r="G301" s="48"/>
-      <c r="H301" s="49"/>
-      <c r="K301" s="47"/>
+      <c r="G301" s="49"/>
+      <c r="H301" s="50"/>
+      <c r="K301" s="48"/>
     </row>
     <row r="302">
-      <c r="G302" s="48"/>
-      <c r="H302" s="49"/>
-      <c r="K302" s="47"/>
+      <c r="G302" s="49"/>
+      <c r="H302" s="50"/>
+      <c r="K302" s="48"/>
     </row>
     <row r="303">
-      <c r="G303" s="48"/>
-      <c r="H303" s="49"/>
-      <c r="K303" s="47"/>
+      <c r="G303" s="49"/>
+      <c r="H303" s="50"/>
+      <c r="K303" s="48"/>
     </row>
     <row r="304">
-      <c r="G304" s="48"/>
-      <c r="H304" s="49"/>
-      <c r="K304" s="47"/>
+      <c r="G304" s="49"/>
+      <c r="H304" s="50"/>
+      <c r="K304" s="48"/>
     </row>
     <row r="305">
-      <c r="G305" s="48"/>
-      <c r="H305" s="49"/>
-      <c r="K305" s="47"/>
+      <c r="G305" s="49"/>
+      <c r="H305" s="50"/>
+      <c r="K305" s="48"/>
     </row>
     <row r="306">
-      <c r="G306" s="48"/>
-      <c r="H306" s="49"/>
-      <c r="K306" s="47"/>
+      <c r="G306" s="49"/>
+      <c r="H306" s="50"/>
+      <c r="K306" s="48"/>
     </row>
     <row r="307">
-      <c r="G307" s="48"/>
-      <c r="H307" s="49"/>
-      <c r="K307" s="47"/>
+      <c r="G307" s="49"/>
+      <c r="H307" s="50"/>
+      <c r="K307" s="48"/>
     </row>
     <row r="308">
-      <c r="G308" s="48"/>
-      <c r="H308" s="49"/>
-      <c r="K308" s="47"/>
+      <c r="G308" s="49"/>
+      <c r="H308" s="50"/>
+      <c r="K308" s="48"/>
     </row>
     <row r="309">
-      <c r="G309" s="48"/>
-      <c r="H309" s="49"/>
-      <c r="K309" s="47"/>
+      <c r="G309" s="49"/>
+      <c r="H309" s="50"/>
+      <c r="K309" s="48"/>
     </row>
     <row r="310">
-      <c r="G310" s="48"/>
-      <c r="H310" s="49"/>
-      <c r="K310" s="47"/>
+      <c r="G310" s="49"/>
+      <c r="H310" s="50"/>
+      <c r="K310" s="48"/>
     </row>
     <row r="311">
-      <c r="G311" s="48"/>
-      <c r="H311" s="49"/>
-      <c r="K311" s="47"/>
+      <c r="G311" s="49"/>
+      <c r="H311" s="50"/>
+      <c r="K311" s="48"/>
     </row>
     <row r="312">
-      <c r="G312" s="48"/>
-      <c r="H312" s="49"/>
-      <c r="K312" s="47"/>
+      <c r="G312" s="49"/>
+      <c r="H312" s="50"/>
+      <c r="K312" s="48"/>
     </row>
     <row r="313">
-      <c r="G313" s="48"/>
-      <c r="H313" s="49"/>
-      <c r="K313" s="47"/>
+      <c r="G313" s="49"/>
+      <c r="H313" s="50"/>
+      <c r="K313" s="48"/>
     </row>
     <row r="314">
-      <c r="G314" s="48"/>
-      <c r="H314" s="49"/>
-      <c r="K314" s="47"/>
+      <c r="G314" s="49"/>
+      <c r="H314" s="50"/>
+      <c r="K314" s="48"/>
     </row>
     <row r="315">
-      <c r="G315" s="48"/>
-      <c r="H315" s="49"/>
-      <c r="K315" s="47"/>
+      <c r="G315" s="49"/>
+      <c r="H315" s="50"/>
+      <c r="K315" s="48"/>
     </row>
     <row r="316">
-      <c r="G316" s="48"/>
-      <c r="H316" s="49"/>
-      <c r="K316" s="47"/>
+      <c r="G316" s="49"/>
+      <c r="H316" s="50"/>
+      <c r="K316" s="48"/>
     </row>
     <row r="317">
-      <c r="G317" s="48"/>
-      <c r="H317" s="49"/>
-      <c r="K317" s="47"/>
+      <c r="G317" s="49"/>
+      <c r="H317" s="50"/>
+      <c r="K317" s="48"/>
     </row>
     <row r="318">
-      <c r="G318" s="48"/>
-      <c r="H318" s="49"/>
-      <c r="K318" s="47"/>
+      <c r="G318" s="49"/>
+      <c r="H318" s="50"/>
+      <c r="K318" s="48"/>
     </row>
     <row r="319">
-      <c r="G319" s="48"/>
-      <c r="H319" s="49"/>
-      <c r="K319" s="47"/>
+      <c r="G319" s="49"/>
+      <c r="H319" s="50"/>
+      <c r="K319" s="48"/>
     </row>
     <row r="320">
-      <c r="G320" s="48"/>
-      <c r="H320" s="49"/>
-      <c r="K320" s="47"/>
+      <c r="G320" s="49"/>
+      <c r="H320" s="50"/>
+      <c r="K320" s="48"/>
     </row>
     <row r="321">
-      <c r="G321" s="48"/>
-      <c r="H321" s="49"/>
-      <c r="K321" s="47"/>
+      <c r="G321" s="49"/>
+      <c r="H321" s="50"/>
+      <c r="K321" s="48"/>
     </row>
     <row r="322">
-      <c r="G322" s="48"/>
-      <c r="H322" s="49"/>
-      <c r="K322" s="47"/>
+      <c r="G322" s="49"/>
+      <c r="H322" s="50"/>
+      <c r="K322" s="48"/>
     </row>
     <row r="323">
-      <c r="G323" s="48"/>
-      <c r="H323" s="49"/>
-      <c r="K323" s="47"/>
+      <c r="G323" s="49"/>
+      <c r="H323" s="50"/>
+      <c r="K323" s="48"/>
     </row>
     <row r="324">
-      <c r="G324" s="48"/>
-      <c r="H324" s="49"/>
-      <c r="K324" s="47"/>
+      <c r="G324" s="49"/>
+      <c r="H324" s="50"/>
+      <c r="K324" s="48"/>
     </row>
     <row r="325">
-      <c r="G325" s="48"/>
-      <c r="H325" s="49"/>
-      <c r="K325" s="47"/>
+      <c r="G325" s="49"/>
+      <c r="H325" s="50"/>
+      <c r="K325" s="48"/>
     </row>
     <row r="326">
-      <c r="G326" s="48"/>
-      <c r="H326" s="49"/>
-      <c r="K326" s="47"/>
+      <c r="G326" s="49"/>
+      <c r="H326" s="50"/>
+      <c r="K326" s="48"/>
     </row>
     <row r="327">
-      <c r="G327" s="48"/>
-      <c r="H327" s="49"/>
-      <c r="K327" s="47"/>
+      <c r="G327" s="49"/>
+      <c r="H327" s="50"/>
+      <c r="K327" s="48"/>
     </row>
     <row r="328">
-      <c r="G328" s="48"/>
-      <c r="H328" s="49"/>
-      <c r="K328" s="47"/>
+      <c r="G328" s="49"/>
+      <c r="H328" s="50"/>
+      <c r="K328" s="48"/>
     </row>
     <row r="329">
-      <c r="G329" s="48"/>
-      <c r="H329" s="49"/>
-      <c r="K329" s="47"/>
+      <c r="G329" s="49"/>
+      <c r="H329" s="50"/>
+      <c r="K329" s="48"/>
     </row>
     <row r="330">
-      <c r="G330" s="48"/>
-      <c r="H330" s="49"/>
-      <c r="K330" s="47"/>
+      <c r="G330" s="49"/>
+      <c r="H330" s="50"/>
+      <c r="K330" s="48"/>
     </row>
     <row r="331">
-      <c r="G331" s="48"/>
-      <c r="H331" s="49"/>
-      <c r="K331" s="47"/>
+      <c r="G331" s="49"/>
+      <c r="H331" s="50"/>
+      <c r="K331" s="48"/>
     </row>
     <row r="332">
-      <c r="G332" s="48"/>
-      <c r="H332" s="49"/>
-      <c r="K332" s="47"/>
+      <c r="G332" s="49"/>
+      <c r="H332" s="50"/>
+      <c r="K332" s="48"/>
     </row>
     <row r="333">
-      <c r="G333" s="48"/>
-      <c r="H333" s="49"/>
-      <c r="K333" s="47"/>
+      <c r="G333" s="49"/>
+      <c r="H333" s="50"/>
+      <c r="K333" s="48"/>
     </row>
     <row r="334">
-      <c r="G334" s="48"/>
-      <c r="H334" s="49"/>
-      <c r="K334" s="47"/>
+      <c r="G334" s="49"/>
+      <c r="H334" s="50"/>
+      <c r="K334" s="48"/>
     </row>
     <row r="335">
-      <c r="G335" s="48"/>
-      <c r="H335" s="49"/>
-      <c r="K335" s="47"/>
+      <c r="G335" s="49"/>
+      <c r="H335" s="50"/>
+      <c r="K335" s="48"/>
     </row>
     <row r="336">
-      <c r="G336" s="48"/>
-      <c r="H336" s="49"/>
-      <c r="K336" s="47"/>
+      <c r="G336" s="49"/>
+      <c r="H336" s="50"/>
+      <c r="K336" s="48"/>
     </row>
     <row r="337">
-      <c r="G337" s="48"/>
-      <c r="H337" s="49"/>
-      <c r="K337" s="47"/>
+      <c r="G337" s="49"/>
+      <c r="H337" s="50"/>
+      <c r="K337" s="48"/>
     </row>
     <row r="338">
-      <c r="G338" s="48"/>
-      <c r="H338" s="49"/>
-      <c r="K338" s="47"/>
+      <c r="G338" s="49"/>
+      <c r="H338" s="50"/>
+      <c r="K338" s="48"/>
     </row>
     <row r="339">
-      <c r="G339" s="48"/>
-      <c r="H339" s="49"/>
-      <c r="K339" s="47"/>
+      <c r="G339" s="49"/>
+      <c r="H339" s="50"/>
+      <c r="K339" s="48"/>
     </row>
     <row r="340">
-      <c r="G340" s="48"/>
-      <c r="H340" s="49"/>
-      <c r="K340" s="47"/>
+      <c r="G340" s="49"/>
+      <c r="H340" s="50"/>
+      <c r="K340" s="48"/>
     </row>
     <row r="341">
-      <c r="G341" s="48"/>
-      <c r="H341" s="49"/>
-      <c r="K341" s="47"/>
+      <c r="G341" s="49"/>
+      <c r="H341" s="50"/>
+      <c r="K341" s="48"/>
     </row>
     <row r="342">
-      <c r="G342" s="48"/>
-      <c r="H342" s="49"/>
-      <c r="K342" s="47"/>
+      <c r="G342" s="49"/>
+      <c r="H342" s="50"/>
+      <c r="K342" s="48"/>
     </row>
     <row r="343">
-      <c r="G343" s="48"/>
-      <c r="H343" s="49"/>
-      <c r="K343" s="47"/>
+      <c r="G343" s="49"/>
+      <c r="H343" s="50"/>
+      <c r="K343" s="48"/>
     </row>
     <row r="344">
-      <c r="G344" s="48"/>
-      <c r="H344" s="49"/>
-      <c r="K344" s="47"/>
+      <c r="G344" s="49"/>
+      <c r="H344" s="50"/>
+      <c r="K344" s="48"/>
     </row>
     <row r="345">
-      <c r="G345" s="48"/>
-      <c r="H345" s="49"/>
-      <c r="K345" s="47"/>
+      <c r="G345" s="49"/>
+      <c r="H345" s="50"/>
+      <c r="K345" s="48"/>
     </row>
     <row r="346">
-      <c r="G346" s="48"/>
-      <c r="H346" s="49"/>
-      <c r="K346" s="47"/>
+      <c r="G346" s="49"/>
+      <c r="H346" s="50"/>
+      <c r="K346" s="48"/>
     </row>
     <row r="347">
-      <c r="G347" s="48"/>
-      <c r="H347" s="49"/>
-      <c r="K347" s="47"/>
+      <c r="G347" s="49"/>
+      <c r="H347" s="50"/>
+      <c r="K347" s="48"/>
     </row>
     <row r="348">
-      <c r="G348" s="48"/>
-      <c r="H348" s="49"/>
-      <c r="K348" s="47"/>
+      <c r="G348" s="49"/>
+      <c r="H348" s="50"/>
+      <c r="K348" s="48"/>
     </row>
     <row r="349">
-      <c r="G349" s="48"/>
-      <c r="H349" s="49"/>
-      <c r="K349" s="47"/>
+      <c r="G349" s="49"/>
+      <c r="H349" s="50"/>
+      <c r="K349" s="48"/>
     </row>
     <row r="350">
-      <c r="G350" s="48"/>
-      <c r="H350" s="49"/>
-      <c r="K350" s="47"/>
+      <c r="G350" s="49"/>
+      <c r="H350" s="50"/>
+      <c r="K350" s="48"/>
     </row>
     <row r="351">
-      <c r="G351" s="48"/>
-      <c r="H351" s="49"/>
-      <c r="K351" s="47"/>
+      <c r="G351" s="49"/>
+      <c r="H351" s="50"/>
+      <c r="K351" s="48"/>
     </row>
     <row r="352">
-      <c r="G352" s="48"/>
-      <c r="H352" s="49"/>
-      <c r="K352" s="47"/>
+      <c r="G352" s="49"/>
+      <c r="H352" s="50"/>
+      <c r="K352" s="48"/>
     </row>
     <row r="353">
-      <c r="G353" s="48"/>
-      <c r="H353" s="49"/>
-      <c r="K353" s="47"/>
+      <c r="G353" s="49"/>
+      <c r="H353" s="50"/>
+      <c r="K353" s="48"/>
     </row>
     <row r="354">
-      <c r="G354" s="48"/>
-      <c r="H354" s="49"/>
-      <c r="K354" s="47"/>
+      <c r="G354" s="49"/>
+      <c r="H354" s="50"/>
+      <c r="K354" s="48"/>
     </row>
     <row r="355">
-      <c r="G355" s="48"/>
-      <c r="H355" s="49"/>
-      <c r="K355" s="47"/>
+      <c r="G355" s="49"/>
+      <c r="H355" s="50"/>
+      <c r="K355" s="48"/>
     </row>
     <row r="356">
-      <c r="G356" s="48"/>
-      <c r="H356" s="49"/>
-      <c r="K356" s="47"/>
+      <c r="G356" s="49"/>
+      <c r="H356" s="50"/>
+      <c r="K356" s="48"/>
     </row>
     <row r="357">
-      <c r="G357" s="48"/>
-      <c r="H357" s="49"/>
-      <c r="K357" s="47"/>
+      <c r="G357" s="49"/>
+      <c r="H357" s="50"/>
+      <c r="K357" s="48"/>
     </row>
     <row r="358">
-      <c r="G358" s="48"/>
-      <c r="H358" s="49"/>
-      <c r="K358" s="47"/>
+      <c r="G358" s="49"/>
+      <c r="H358" s="50"/>
+      <c r="K358" s="48"/>
     </row>
     <row r="359">
-      <c r="G359" s="48"/>
-      <c r="H359" s="49"/>
-      <c r="K359" s="47"/>
+      <c r="G359" s="49"/>
+      <c r="H359" s="50"/>
+      <c r="K359" s="48"/>
     </row>
     <row r="360">
-      <c r="G360" s="48"/>
-      <c r="H360" s="49"/>
-      <c r="K360" s="47"/>
+      <c r="G360" s="49"/>
+      <c r="H360" s="50"/>
+      <c r="K360" s="48"/>
     </row>
     <row r="361">
-      <c r="G361" s="48"/>
-      <c r="H361" s="49"/>
-      <c r="K361" s="47"/>
+      <c r="G361" s="49"/>
+      <c r="H361" s="50"/>
+      <c r="K361" s="48"/>
     </row>
     <row r="362">
-      <c r="G362" s="48"/>
-      <c r="H362" s="49"/>
-      <c r="K362" s="47"/>
+      <c r="G362" s="49"/>
+      <c r="H362" s="50"/>
+      <c r="K362" s="48"/>
     </row>
     <row r="363">
-      <c r="G363" s="48"/>
-      <c r="H363" s="49"/>
-      <c r="K363" s="47"/>
+      <c r="G363" s="49"/>
+      <c r="H363" s="50"/>
+      <c r="K363" s="48"/>
     </row>
     <row r="364">
-      <c r="G364" s="48"/>
-      <c r="H364" s="49"/>
-      <c r="K364" s="47"/>
+      <c r="G364" s="49"/>
+      <c r="H364" s="50"/>
+      <c r="K364" s="48"/>
     </row>
     <row r="365">
-      <c r="G365" s="48"/>
-      <c r="H365" s="49"/>
-      <c r="K365" s="47"/>
+      <c r="G365" s="49"/>
+      <c r="H365" s="50"/>
+      <c r="K365" s="48"/>
     </row>
     <row r="366">
-      <c r="G366" s="48"/>
-      <c r="H366" s="49"/>
-      <c r="K366" s="47"/>
+      <c r="G366" s="49"/>
+      <c r="H366" s="50"/>
+      <c r="K366" s="48"/>
     </row>
     <row r="367">
-      <c r="G367" s="48"/>
-      <c r="H367" s="49"/>
-      <c r="K367" s="47"/>
+      <c r="G367" s="49"/>
+      <c r="H367" s="50"/>
+      <c r="K367" s="48"/>
     </row>
     <row r="368">
-      <c r="G368" s="48"/>
-      <c r="H368" s="49"/>
-      <c r="K368" s="47"/>
+      <c r="G368" s="49"/>
+      <c r="H368" s="50"/>
+      <c r="K368" s="48"/>
     </row>
     <row r="369">
-      <c r="G369" s="48"/>
-      <c r="H369" s="49"/>
-      <c r="K369" s="47"/>
+      <c r="G369" s="49"/>
+      <c r="H369" s="50"/>
+      <c r="K369" s="48"/>
     </row>
     <row r="370">
-      <c r="G370" s="48"/>
-      <c r="H370" s="49"/>
-      <c r="K370" s="47"/>
+      <c r="G370" s="49"/>
+      <c r="H370" s="50"/>
+      <c r="K370" s="48"/>
     </row>
     <row r="371">
-      <c r="G371" s="48"/>
-      <c r="H371" s="49"/>
-      <c r="K371" s="47"/>
+      <c r="G371" s="49"/>
+      <c r="H371" s="50"/>
+      <c r="K371" s="48"/>
     </row>
     <row r="372">
-      <c r="G372" s="48"/>
-      <c r="H372" s="49"/>
-      <c r="K372" s="47"/>
+      <c r="G372" s="49"/>
+      <c r="H372" s="50"/>
+      <c r="K372" s="48"/>
     </row>
     <row r="373">
-      <c r="G373" s="48"/>
-      <c r="H373" s="49"/>
-      <c r="K373" s="47"/>
+      <c r="G373" s="49"/>
+      <c r="H373" s="50"/>
+      <c r="K373" s="48"/>
     </row>
     <row r="374">
-      <c r="G374" s="48"/>
-      <c r="H374" s="49"/>
-      <c r="K374" s="47"/>
+      <c r="G374" s="49"/>
+      <c r="H374" s="50"/>
+      <c r="K374" s="48"/>
     </row>
     <row r="375">
-      <c r="G375" s="48"/>
-      <c r="H375" s="49"/>
-      <c r="K375" s="47"/>
+      <c r="G375" s="49"/>
+      <c r="H375" s="50"/>
+      <c r="K375" s="48"/>
     </row>
     <row r="376">
-      <c r="G376" s="48"/>
-      <c r="H376" s="49"/>
-      <c r="K376" s="47"/>
+      <c r="G376" s="49"/>
+      <c r="H376" s="50"/>
+      <c r="K376" s="48"/>
     </row>
     <row r="377">
-      <c r="G377" s="48"/>
-      <c r="H377" s="49"/>
-      <c r="K377" s="47"/>
+      <c r="G377" s="49"/>
+      <c r="H377" s="50"/>
+      <c r="K377" s="48"/>
     </row>
     <row r="378">
-      <c r="G378" s="48"/>
-      <c r="H378" s="49"/>
-      <c r="K378" s="47"/>
+      <c r="G378" s="49"/>
+      <c r="H378" s="50"/>
+      <c r="K378" s="48"/>
     </row>
     <row r="379">
-      <c r="G379" s="48"/>
-      <c r="H379" s="49"/>
-      <c r="K379" s="47"/>
+      <c r="G379" s="49"/>
+      <c r="H379" s="50"/>
+      <c r="K379" s="48"/>
     </row>
     <row r="380">
-      <c r="G380" s="48"/>
-      <c r="H380" s="49"/>
-      <c r="K380" s="47"/>
+      <c r="G380" s="49"/>
+      <c r="H380" s="50"/>
+      <c r="K380" s="48"/>
     </row>
     <row r="381">
-      <c r="G381" s="48"/>
-      <c r="H381" s="49"/>
-      <c r="K381" s="47"/>
+      <c r="G381" s="49"/>
+      <c r="H381" s="50"/>
+      <c r="K381" s="48"/>
     </row>
     <row r="382">
-      <c r="G382" s="48"/>
-      <c r="H382" s="49"/>
-      <c r="K382" s="47"/>
+      <c r="G382" s="49"/>
+      <c r="H382" s="50"/>
+      <c r="K382" s="48"/>
     </row>
     <row r="383">
-      <c r="G383" s="48"/>
-      <c r="H383" s="49"/>
-      <c r="K383" s="47"/>
+      <c r="G383" s="49"/>
+      <c r="H383" s="50"/>
+      <c r="K383" s="48"/>
     </row>
     <row r="384">
-      <c r="G384" s="48"/>
-      <c r="H384" s="49"/>
-      <c r="K384" s="47"/>
+      <c r="G384" s="49"/>
+      <c r="H384" s="50"/>
+      <c r="K384" s="48"/>
     </row>
     <row r="385">
-      <c r="G385" s="48"/>
-      <c r="H385" s="49"/>
-      <c r="K385" s="47"/>
+      <c r="G385" s="49"/>
+      <c r="H385" s="50"/>
+      <c r="K385" s="48"/>
     </row>
     <row r="386">
-      <c r="G386" s="48"/>
-      <c r="H386" s="49"/>
-      <c r="K386" s="47"/>
+      <c r="G386" s="49"/>
+      <c r="H386" s="50"/>
+      <c r="K386" s="48"/>
     </row>
     <row r="387">
-      <c r="G387" s="48"/>
-      <c r="H387" s="49"/>
-      <c r="K387" s="47"/>
+      <c r="G387" s="49"/>
+      <c r="H387" s="50"/>
+      <c r="K387" s="48"/>
     </row>
     <row r="388">
-      <c r="G388" s="48"/>
-      <c r="H388" s="49"/>
-      <c r="K388" s="47"/>
+      <c r="G388" s="49"/>
+      <c r="H388" s="50"/>
+      <c r="K388" s="48"/>
     </row>
     <row r="389">
-      <c r="G389" s="48"/>
-      <c r="H389" s="49"/>
-      <c r="K389" s="47"/>
+      <c r="G389" s="49"/>
+      <c r="H389" s="50"/>
+      <c r="K389" s="48"/>
     </row>
     <row r="390">
-      <c r="G390" s="48"/>
-      <c r="H390" s="49"/>
-      <c r="K390" s="47"/>
+      <c r="G390" s="49"/>
+      <c r="H390" s="50"/>
+      <c r="K390" s="48"/>
     </row>
     <row r="391">
-      <c r="G391" s="48"/>
-      <c r="H391" s="49"/>
-      <c r="K391" s="47"/>
+      <c r="G391" s="49"/>
+      <c r="H391" s="50"/>
+      <c r="K391" s="48"/>
     </row>
     <row r="392">
-      <c r="G392" s="48"/>
-      <c r="H392" s="49"/>
-      <c r="K392" s="47"/>
+      <c r="G392" s="49"/>
+      <c r="H392" s="50"/>
+      <c r="K392" s="48"/>
     </row>
     <row r="393">
-      <c r="G393" s="48"/>
-      <c r="H393" s="49"/>
-      <c r="K393" s="47"/>
+      <c r="G393" s="49"/>
+      <c r="H393" s="50"/>
+      <c r="K393" s="48"/>
     </row>
     <row r="394">
-      <c r="G394" s="48"/>
-      <c r="H394" s="49"/>
-      <c r="K394" s="47"/>
+      <c r="G394" s="49"/>
+      <c r="H394" s="50"/>
+      <c r="K394" s="48"/>
     </row>
     <row r="395">
-      <c r="G395" s="48"/>
-      <c r="H395" s="49"/>
-      <c r="K395" s="47"/>
+      <c r="G395" s="49"/>
+      <c r="H395" s="50"/>
+      <c r="K395" s="48"/>
     </row>
     <row r="396">
-      <c r="G396" s="48"/>
-      <c r="H396" s="49"/>
-      <c r="K396" s="47"/>
+      <c r="G396" s="49"/>
+      <c r="H396" s="50"/>
+      <c r="K396" s="48"/>
     </row>
     <row r="397">
-      <c r="G397" s="48"/>
-      <c r="H397" s="49"/>
-      <c r="K397" s="47"/>
+      <c r="G397" s="49"/>
+      <c r="H397" s="50"/>
+      <c r="K397" s="48"/>
     </row>
     <row r="398">
-      <c r="G398" s="48"/>
-      <c r="H398" s="49"/>
-      <c r="K398" s="47"/>
+      <c r="G398" s="49"/>
+      <c r="H398" s="50"/>
+      <c r="K398" s="48"/>
     </row>
     <row r="399">
-      <c r="G399" s="48"/>
-      <c r="H399" s="49"/>
-      <c r="K399" s="47"/>
+      <c r="G399" s="49"/>
+      <c r="H399" s="50"/>
+      <c r="K399" s="48"/>
     </row>
     <row r="400">
-      <c r="G400" s="48"/>
-      <c r="H400" s="49"/>
-      <c r="K400" s="47"/>
+      <c r="G400" s="49"/>
+      <c r="H400" s="50"/>
+      <c r="K400" s="48"/>
     </row>
     <row r="401">
-      <c r="G401" s="48"/>
-      <c r="H401" s="49"/>
-      <c r="K401" s="47"/>
+      <c r="G401" s="49"/>
+      <c r="H401" s="50"/>
+      <c r="K401" s="48"/>
     </row>
     <row r="402">
-      <c r="G402" s="48"/>
-      <c r="H402" s="49"/>
-      <c r="K402" s="47"/>
+      <c r="G402" s="49"/>
+      <c r="H402" s="50"/>
+      <c r="K402" s="48"/>
     </row>
     <row r="403">
-      <c r="G403" s="48"/>
-      <c r="H403" s="49"/>
-      <c r="K403" s="47"/>
+      <c r="G403" s="49"/>
+      <c r="H403" s="50"/>
+      <c r="K403" s="48"/>
     </row>
     <row r="404">
-      <c r="G404" s="48"/>
-      <c r="H404" s="49"/>
-      <c r="K404" s="47"/>
+      <c r="G404" s="49"/>
+      <c r="H404" s="50"/>
+      <c r="K404" s="48"/>
     </row>
     <row r="405">
-      <c r="G405" s="48"/>
-      <c r="H405" s="49"/>
-      <c r="K405" s="47"/>
+      <c r="G405" s="49"/>
+      <c r="H405" s="50"/>
+      <c r="K405" s="48"/>
     </row>
     <row r="406">
-      <c r="G406" s="48"/>
-      <c r="H406" s="49"/>
-      <c r="K406" s="47"/>
+      <c r="G406" s="49"/>
+      <c r="H406" s="50"/>
+      <c r="K406" s="48"/>
     </row>
     <row r="407">
-      <c r="G407" s="48"/>
-      <c r="H407" s="49"/>
-      <c r="K407" s="47"/>
+      <c r="G407" s="49"/>
+      <c r="H407" s="50"/>
+      <c r="K407" s="48"/>
     </row>
     <row r="408">
-      <c r="G408" s="48"/>
-      <c r="H408" s="49"/>
-      <c r="K408" s="47"/>
+      <c r="G408" s="49"/>
+      <c r="H408" s="50"/>
+      <c r="K408" s="48"/>
     </row>
     <row r="409">
-      <c r="G409" s="48"/>
-      <c r="H409" s="49"/>
-      <c r="K409" s="47"/>
+      <c r="G409" s="49"/>
+      <c r="H409" s="50"/>
+      <c r="K409" s="48"/>
     </row>
     <row r="410">
-      <c r="G410" s="48"/>
-      <c r="H410" s="49"/>
-      <c r="K410" s="47"/>
+      <c r="G410" s="49"/>
+      <c r="H410" s="50"/>
+      <c r="K410" s="48"/>
     </row>
     <row r="411">
-      <c r="G411" s="48"/>
-      <c r="H411" s="49"/>
-      <c r="K411" s="47"/>
+      <c r="G411" s="49"/>
+      <c r="H411" s="50"/>
+      <c r="K411" s="48"/>
     </row>
     <row r="412">
-      <c r="G412" s="48"/>
-      <c r="H412" s="49"/>
-      <c r="K412" s="47"/>
+      <c r="G412" s="49"/>
+      <c r="H412" s="50"/>
+      <c r="K412" s="48"/>
     </row>
     <row r="413">
-      <c r="G413" s="48"/>
-      <c r="H413" s="49"/>
-      <c r="K413" s="47"/>
+      <c r="G413" s="49"/>
+      <c r="H413" s="50"/>
+      <c r="K413" s="48"/>
     </row>
     <row r="414">
-      <c r="G414" s="48"/>
-      <c r="H414" s="49"/>
-      <c r="K414" s="47"/>
+      <c r="G414" s="49"/>
+      <c r="H414" s="50"/>
+      <c r="K414" s="48"/>
     </row>
     <row r="415">
-      <c r="G415" s="48"/>
-      <c r="H415" s="49"/>
-      <c r="K415" s="47"/>
+      <c r="G415" s="49"/>
+      <c r="H415" s="50"/>
+      <c r="K415" s="48"/>
     </row>
     <row r="416">
-      <c r="G416" s="48"/>
-      <c r="H416" s="49"/>
-      <c r="K416" s="47"/>
+      <c r="G416" s="49"/>
+      <c r="H416" s="50"/>
+      <c r="K416" s="48"/>
     </row>
     <row r="417">
-      <c r="G417" s="48"/>
-      <c r="H417" s="49"/>
-      <c r="K417" s="47"/>
+      <c r="G417" s="49"/>
+      <c r="H417" s="50"/>
+      <c r="K417" s="48"/>
     </row>
     <row r="418">
-      <c r="G418" s="48"/>
-      <c r="H418" s="49"/>
-      <c r="K418" s="47"/>
+      <c r="G418" s="49"/>
+      <c r="H418" s="50"/>
+      <c r="K418" s="48"/>
     </row>
     <row r="419">
-      <c r="G419" s="48"/>
-      <c r="H419" s="49"/>
-      <c r="K419" s="47"/>
+      <c r="G419" s="49"/>
+      <c r="H419" s="50"/>
+      <c r="K419" s="48"/>
     </row>
     <row r="420">
-      <c r="G420" s="48"/>
-      <c r="H420" s="49"/>
-      <c r="K420" s="47"/>
+      <c r="G420" s="49"/>
+      <c r="H420" s="50"/>
+      <c r="K420" s="48"/>
     </row>
     <row r="421">
-      <c r="G421" s="48"/>
-      <c r="H421" s="49"/>
-      <c r="K421" s="47"/>
+      <c r="G421" s="49"/>
+      <c r="H421" s="50"/>
+      <c r="K421" s="48"/>
     </row>
     <row r="422">
-      <c r="G422" s="48"/>
-      <c r="H422" s="49"/>
-      <c r="K422" s="47"/>
+      <c r="G422" s="49"/>
+      <c r="H422" s="50"/>
+      <c r="K422" s="48"/>
     </row>
     <row r="423">
-      <c r="G423" s="48"/>
-      <c r="H423" s="49"/>
-      <c r="K423" s="47"/>
+      <c r="G423" s="49"/>
+      <c r="H423" s="50"/>
+      <c r="K423" s="48"/>
     </row>
     <row r="424">
-      <c r="G424" s="48"/>
-      <c r="H424" s="49"/>
-      <c r="K424" s="47"/>
+      <c r="G424" s="49"/>
+      <c r="H424" s="50"/>
+      <c r="K424" s="48"/>
     </row>
     <row r="425">
-      <c r="G425" s="48"/>
-      <c r="H425" s="49"/>
-      <c r="K425" s="47"/>
+      <c r="G425" s="49"/>
+      <c r="H425" s="50"/>
+      <c r="K425" s="48"/>
     </row>
     <row r="426">
-      <c r="G426" s="48"/>
-      <c r="H426" s="49"/>
-      <c r="K426" s="47"/>
+      <c r="G426" s="49"/>
+      <c r="H426" s="50"/>
+      <c r="K426" s="48"/>
     </row>
     <row r="427">
-      <c r="G427" s="48"/>
-      <c r="H427" s="49"/>
-      <c r="K427" s="47"/>
+      <c r="G427" s="49"/>
+      <c r="H427" s="50"/>
+      <c r="K427" s="48"/>
     </row>
     <row r="428">
-      <c r="G428" s="48"/>
-      <c r="H428" s="49"/>
-      <c r="K428" s="47"/>
+      <c r="G428" s="49"/>
+      <c r="H428" s="50"/>
+      <c r="K428" s="48"/>
     </row>
     <row r="429">
-      <c r="G429" s="48"/>
-      <c r="H429" s="49"/>
-      <c r="K429" s="47"/>
+      <c r="G429" s="49"/>
+      <c r="H429" s="50"/>
+      <c r="K429" s="48"/>
     </row>
     <row r="430">
-      <c r="G430" s="48"/>
-      <c r="H430" s="49"/>
-      <c r="K430" s="47"/>
+      <c r="G430" s="49"/>
+      <c r="H430" s="50"/>
+      <c r="K430" s="48"/>
     </row>
     <row r="431">
-      <c r="G431" s="48"/>
-      <c r="H431" s="49"/>
-      <c r="K431" s="47"/>
+      <c r="G431" s="49"/>
+      <c r="H431" s="50"/>
+      <c r="K431" s="48"/>
     </row>
     <row r="432">
-      <c r="G432" s="48"/>
-      <c r="H432" s="49"/>
-      <c r="K432" s="47"/>
+      <c r="G432" s="49"/>
+      <c r="H432" s="50"/>
+      <c r="K432" s="48"/>
     </row>
     <row r="433">
-      <c r="G433" s="48"/>
-      <c r="H433" s="49"/>
-      <c r="K433" s="47"/>
+      <c r="G433" s="49"/>
+      <c r="H433" s="50"/>
+      <c r="K433" s="48"/>
     </row>
     <row r="434">
-      <c r="G434" s="48"/>
-      <c r="H434" s="49"/>
-      <c r="K434" s="47"/>
+      <c r="G434" s="49"/>
+      <c r="H434" s="50"/>
+      <c r="K434" s="48"/>
     </row>
     <row r="435">
-      <c r="G435" s="48"/>
-      <c r="H435" s="49"/>
-      <c r="K435" s="47"/>
+      <c r="G435" s="49"/>
+      <c r="H435" s="50"/>
+      <c r="K435" s="48"/>
     </row>
     <row r="436">
-      <c r="G436" s="48"/>
-      <c r="H436" s="49"/>
-      <c r="K436" s="47"/>
+      <c r="G436" s="49"/>
+      <c r="H436" s="50"/>
+      <c r="K436" s="48"/>
     </row>
     <row r="437">
-      <c r="G437" s="48"/>
-      <c r="H437" s="49"/>
-      <c r="K437" s="47"/>
+      <c r="G437" s="49"/>
+      <c r="H437" s="50"/>
+      <c r="K437" s="48"/>
     </row>
     <row r="438">
-      <c r="G438" s="48"/>
-      <c r="H438" s="49"/>
-      <c r="K438" s="47"/>
+      <c r="G438" s="49"/>
+      <c r="H438" s="50"/>
+      <c r="K438" s="48"/>
     </row>
     <row r="439">
-      <c r="G439" s="48"/>
-      <c r="H439" s="49"/>
-      <c r="K439" s="47"/>
+      <c r="G439" s="49"/>
+      <c r="H439" s="50"/>
+      <c r="K439" s="48"/>
     </row>
     <row r="440">
-      <c r="G440" s="48"/>
-      <c r="H440" s="49"/>
-      <c r="K440" s="47"/>
+      <c r="G440" s="49"/>
+      <c r="H440" s="50"/>
+      <c r="K440" s="48"/>
     </row>
     <row r="441">
-      <c r="G441" s="48"/>
-      <c r="H441" s="49"/>
-      <c r="K441" s="47"/>
+      <c r="G441" s="49"/>
+      <c r="H441" s="50"/>
+      <c r="K441" s="48"/>
     </row>
     <row r="442">
-      <c r="G442" s="48"/>
-      <c r="H442" s="49"/>
-      <c r="K442" s="47"/>
+      <c r="G442" s="49"/>
+      <c r="H442" s="50"/>
+      <c r="K442" s="48"/>
     </row>
     <row r="443">
-      <c r="G443" s="48"/>
-      <c r="H443" s="49"/>
-      <c r="K443" s="47"/>
+      <c r="G443" s="49"/>
+      <c r="H443" s="50"/>
+      <c r="K443" s="48"/>
     </row>
     <row r="444">
-      <c r="G444" s="48"/>
-      <c r="H444" s="49"/>
-      <c r="K444" s="47"/>
+      <c r="G444" s="49"/>
+      <c r="H444" s="50"/>
+      <c r="K444" s="48"/>
     </row>
     <row r="445">
-      <c r="G445" s="48"/>
-      <c r="H445" s="49"/>
-      <c r="K445" s="47"/>
+      <c r="G445" s="49"/>
+      <c r="H445" s="50"/>
+      <c r="K445" s="48"/>
     </row>
     <row r="446">
-      <c r="G446" s="48"/>
-      <c r="H446" s="49"/>
-      <c r="K446" s="47"/>
+      <c r="G446" s="49"/>
+      <c r="H446" s="50"/>
+      <c r="K446" s="48"/>
     </row>
     <row r="447">
-      <c r="G447" s="48"/>
-      <c r="H447" s="49"/>
-      <c r="K447" s="47"/>
+      <c r="G447" s="49"/>
+      <c r="H447" s="50"/>
+      <c r="K447" s="48"/>
     </row>
     <row r="448">
-      <c r="G448" s="48"/>
-      <c r="H448" s="49"/>
-      <c r="K448" s="47"/>
+      <c r="G448" s="49"/>
+      <c r="H448" s="50"/>
+      <c r="K448" s="48"/>
     </row>
     <row r="449">
-      <c r="G449" s="48"/>
-      <c r="H449" s="49"/>
-      <c r="K449" s="47"/>
+      <c r="G449" s="49"/>
+      <c r="H449" s="50"/>
+      <c r="K449" s="48"/>
     </row>
     <row r="450">
-      <c r="G450" s="48"/>
-      <c r="H450" s="49"/>
-      <c r="K450" s="47"/>
+      <c r="G450" s="49"/>
+      <c r="H450" s="50"/>
+      <c r="K450" s="48"/>
     </row>
     <row r="451">
-      <c r="G451" s="48"/>
-      <c r="H451" s="49"/>
-      <c r="K451" s="47"/>
+      <c r="G451" s="49"/>
+      <c r="H451" s="50"/>
+      <c r="K451" s="48"/>
     </row>
     <row r="452">
-      <c r="G452" s="48"/>
-      <c r="H452" s="49"/>
-      <c r="K452" s="47"/>
+      <c r="G452" s="49"/>
+      <c r="H452" s="50"/>
+      <c r="K452" s="48"/>
     </row>
     <row r="453">
-      <c r="G453" s="48"/>
-      <c r="H453" s="49"/>
-      <c r="K453" s="47"/>
+      <c r="G453" s="49"/>
+      <c r="H453" s="50"/>
+      <c r="K453" s="48"/>
     </row>
     <row r="454">
-      <c r="G454" s="48"/>
-      <c r="H454" s="49"/>
-      <c r="K454" s="47"/>
+      <c r="G454" s="49"/>
+      <c r="H454" s="50"/>
+      <c r="K454" s="48"/>
     </row>
     <row r="455">
-      <c r="G455" s="48"/>
-      <c r="H455" s="49"/>
-      <c r="K455" s="47"/>
+      <c r="G455" s="49"/>
+      <c r="H455" s="50"/>
+      <c r="K455" s="48"/>
     </row>
     <row r="456">
-      <c r="G456" s="48"/>
-      <c r="H456" s="49"/>
-      <c r="K456" s="47"/>
+      <c r="G456" s="49"/>
+      <c r="H456" s="50"/>
+      <c r="K456" s="48"/>
     </row>
     <row r="457">
-      <c r="G457" s="48"/>
-      <c r="H457" s="49"/>
-      <c r="K457" s="47"/>
+      <c r="G457" s="49"/>
+      <c r="H457" s="50"/>
+      <c r="K457" s="48"/>
     </row>
     <row r="458">
-      <c r="G458" s="48"/>
-      <c r="H458" s="49"/>
-      <c r="K458" s="47"/>
+      <c r="G458" s="49"/>
+      <c r="H458" s="50"/>
+      <c r="K458" s="48"/>
     </row>
     <row r="459">
-      <c r="G459" s="48"/>
-      <c r="H459" s="49"/>
-      <c r="K459" s="47"/>
+      <c r="G459" s="49"/>
+      <c r="H459" s="50"/>
+      <c r="K459" s="48"/>
     </row>
     <row r="460">
-      <c r="G460" s="48"/>
-      <c r="H460" s="49"/>
-      <c r="K460" s="47"/>
+      <c r="G460" s="49"/>
+      <c r="H460" s="50"/>
+      <c r="K460" s="48"/>
     </row>
     <row r="461">
-      <c r="G461" s="48"/>
-      <c r="H461" s="49"/>
-      <c r="K461" s="47"/>
+      <c r="G461" s="49"/>
+      <c r="H461" s="50"/>
+      <c r="K461" s="48"/>
     </row>
     <row r="462">
-      <c r="G462" s="48"/>
-      <c r="H462" s="49"/>
-      <c r="K462" s="47"/>
+      <c r="G462" s="49"/>
+      <c r="H462" s="50"/>
+      <c r="K462" s="48"/>
     </row>
     <row r="463">
-      <c r="G463" s="48"/>
-      <c r="H463" s="49"/>
-      <c r="K463" s="47"/>
+      <c r="G463" s="49"/>
+      <c r="H463" s="50"/>
+      <c r="K463" s="48"/>
     </row>
     <row r="464">
-      <c r="G464" s="48"/>
-      <c r="H464" s="49"/>
-      <c r="K464" s="47"/>
+      <c r="G464" s="49"/>
+      <c r="H464" s="50"/>
+      <c r="K464" s="48"/>
     </row>
     <row r="465">
-      <c r="G465" s="48"/>
-      <c r="H465" s="49"/>
-      <c r="K465" s="47"/>
+      <c r="G465" s="49"/>
+      <c r="H465" s="50"/>
+      <c r="K465" s="48"/>
     </row>
     <row r="466">
-      <c r="G466" s="48"/>
-      <c r="H466" s="49"/>
-      <c r="K466" s="47"/>
+      <c r="G466" s="49"/>
+      <c r="H466" s="50"/>
+      <c r="K466" s="48"/>
     </row>
     <row r="467">
-      <c r="G467" s="48"/>
-      <c r="H467" s="49"/>
-      <c r="K467" s="47"/>
+      <c r="G467" s="49"/>
+      <c r="H467" s="50"/>
+      <c r="K467" s="48"/>
     </row>
     <row r="468">
-      <c r="G468" s="48"/>
-      <c r="H468" s="49"/>
-      <c r="K468" s="47"/>
+      <c r="G468" s="49"/>
+      <c r="H468" s="50"/>
+      <c r="K468" s="48"/>
     </row>
     <row r="469">
-      <c r="G469" s="48"/>
-      <c r="H469" s="49"/>
-      <c r="K469" s="47"/>
+      <c r="G469" s="49"/>
+      <c r="H469" s="50"/>
+      <c r="K469" s="48"/>
     </row>
     <row r="470">
-      <c r="G470" s="48"/>
-      <c r="H470" s="49"/>
-      <c r="K470" s="47"/>
+      <c r="G470" s="49"/>
+      <c r="H470" s="50"/>
+      <c r="K470" s="48"/>
     </row>
     <row r="471">
-      <c r="G471" s="48"/>
-      <c r="H471" s="49"/>
-      <c r="K471" s="47"/>
+      <c r="G471" s="49"/>
+      <c r="H471" s="50"/>
+      <c r="K471" s="48"/>
     </row>
     <row r="472">
-      <c r="G472" s="48"/>
-      <c r="H472" s="49"/>
-      <c r="K472" s="47"/>
+      <c r="G472" s="49"/>
+      <c r="H472" s="50"/>
+      <c r="K472" s="48"/>
     </row>
     <row r="473">
-      <c r="G473" s="48"/>
-      <c r="H473" s="49"/>
-      <c r="K473" s="47"/>
+      <c r="G473" s="49"/>
+      <c r="H473" s="50"/>
+      <c r="K473" s="48"/>
     </row>
     <row r="474">
-      <c r="G474" s="48"/>
-      <c r="H474" s="49"/>
-      <c r="K474" s="47"/>
+      <c r="G474" s="49"/>
+      <c r="H474" s="50"/>
+      <c r="K474" s="48"/>
     </row>
     <row r="475">
-      <c r="G475" s="48"/>
-      <c r="H475" s="49"/>
-      <c r="K475" s="47"/>
+      <c r="G475" s="49"/>
+      <c r="H475" s="50"/>
+      <c r="K475" s="48"/>
     </row>
     <row r="476">
-      <c r="G476" s="48"/>
-      <c r="H476" s="49"/>
-      <c r="K476" s="47"/>
+      <c r="G476" s="49"/>
+      <c r="H476" s="50"/>
+      <c r="K476" s="48"/>
     </row>
     <row r="477">
-      <c r="G477" s="48"/>
-      <c r="H477" s="49"/>
-      <c r="K477" s="47"/>
+      <c r="G477" s="49"/>
+      <c r="H477" s="50"/>
+      <c r="K477" s="48"/>
     </row>
     <row r="478">
-      <c r="G478" s="48"/>
-      <c r="H478" s="49"/>
-      <c r="K478" s="47"/>
+      <c r="G478" s="49"/>
+      <c r="H478" s="50"/>
+      <c r="K478" s="48"/>
     </row>
     <row r="479">
-      <c r="G479" s="48"/>
-      <c r="H479" s="49"/>
-      <c r="K479" s="47"/>
+      <c r="G479" s="49"/>
+      <c r="H479" s="50"/>
+      <c r="K479" s="48"/>
     </row>
     <row r="480">
-      <c r="G480" s="48"/>
-      <c r="H480" s="49"/>
-      <c r="K480" s="47"/>
+      <c r="G480" s="49"/>
+      <c r="H480" s="50"/>
+      <c r="K480" s="48"/>
     </row>
     <row r="481">
-      <c r="G481" s="48"/>
-      <c r="H481" s="49"/>
-      <c r="K481" s="47"/>
+      <c r="G481" s="49"/>
+      <c r="H481" s="50"/>
+      <c r="K481" s="48"/>
     </row>
     <row r="482">
-      <c r="G482" s="48"/>
-      <c r="H482" s="49"/>
-      <c r="K482" s="47"/>
+      <c r="G482" s="49"/>
+      <c r="H482" s="50"/>
+      <c r="K482" s="48"/>
     </row>
     <row r="483">
-      <c r="G483" s="48"/>
-      <c r="H483" s="49"/>
-      <c r="K483" s="47"/>
+      <c r="G483" s="49"/>
+      <c r="H483" s="50"/>
+      <c r="K483" s="48"/>
     </row>
     <row r="484">
-      <c r="G484" s="48"/>
-      <c r="H484" s="49"/>
-      <c r="K484" s="47"/>
+      <c r="G484" s="49"/>
+      <c r="H484" s="50"/>
+      <c r="K484" s="48"/>
     </row>
     <row r="485">
-      <c r="G485" s="48"/>
-      <c r="H485" s="49"/>
-      <c r="K485" s="47"/>
+      <c r="G485" s="49"/>
+      <c r="H485" s="50"/>
+      <c r="K485" s="48"/>
     </row>
     <row r="486">
-      <c r="G486" s="48"/>
-      <c r="H486" s="49"/>
-      <c r="K486" s="47"/>
+      <c r="G486" s="49"/>
+      <c r="H486" s="50"/>
+      <c r="K486" s="48"/>
     </row>
     <row r="487">
-      <c r="G487" s="48"/>
-      <c r="H487" s="49"/>
-      <c r="K487" s="47"/>
+      <c r="G487" s="49"/>
+      <c r="H487" s="50"/>
+      <c r="K487" s="48"/>
     </row>
     <row r="488">
-      <c r="G488" s="48"/>
-      <c r="H488" s="49"/>
-      <c r="K488" s="47"/>
+      <c r="G488" s="49"/>
+      <c r="H488" s="50"/>
+      <c r="K488" s="48"/>
     </row>
     <row r="489">
-      <c r="G489" s="48"/>
-      <c r="H489" s="49"/>
-      <c r="K489" s="47"/>
+      <c r="G489" s="49"/>
+      <c r="H489" s="50"/>
+      <c r="K489" s="48"/>
     </row>
     <row r="490">
-      <c r="G490" s="48"/>
-      <c r="H490" s="49"/>
-      <c r="K490" s="47"/>
+      <c r="G490" s="49"/>
+      <c r="H490" s="50"/>
+      <c r="K490" s="48"/>
     </row>
     <row r="491">
-      <c r="G491" s="48"/>
-      <c r="H491" s="49"/>
-      <c r="K491" s="47"/>
+      <c r="G491" s="49"/>
+      <c r="H491" s="50"/>
+      <c r="K491" s="48"/>
     </row>
     <row r="492">
-      <c r="G492" s="48"/>
-      <c r="H492" s="49"/>
-      <c r="K492" s="47"/>
+      <c r="G492" s="49"/>
+      <c r="H492" s="50"/>
+      <c r="K492" s="48"/>
     </row>
     <row r="493">
-      <c r="G493" s="48"/>
-      <c r="H493" s="49"/>
-      <c r="K493" s="47"/>
+      <c r="G493" s="49"/>
+      <c r="H493" s="50"/>
+      <c r="K493" s="48"/>
     </row>
     <row r="494">
-      <c r="G494" s="48"/>
-      <c r="H494" s="49"/>
-      <c r="K494" s="47"/>
+      <c r="G494" s="49"/>
+      <c r="H494" s="50"/>
+      <c r="K494" s="48"/>
     </row>
     <row r="495">
-      <c r="G495" s="48"/>
-      <c r="H495" s="49"/>
-      <c r="K495" s="47"/>
+      <c r="G495" s="49"/>
+      <c r="H495" s="50"/>
+      <c r="K495" s="48"/>
     </row>
     <row r="496">
-      <c r="G496" s="48"/>
-      <c r="H496" s="49"/>
-      <c r="K496" s="47"/>
+      <c r="G496" s="49"/>
+      <c r="H496" s="50"/>
+      <c r="K496" s="48"/>
     </row>
     <row r="497">
-      <c r="G497" s="48"/>
-      <c r="H497" s="49"/>
-      <c r="K497" s="47"/>
+      <c r="G497" s="49"/>
+      <c r="H497" s="50"/>
+      <c r="K497" s="48"/>
     </row>
     <row r="498">
-      <c r="G498" s="48"/>
-      <c r="H498" s="49"/>
-      <c r="K498" s="47"/>
+      <c r="G498" s="49"/>
+      <c r="H498" s="50"/>
+      <c r="K498" s="48"/>
     </row>
     <row r="499">
-      <c r="G499" s="48"/>
-      <c r="H499" s="49"/>
-      <c r="K499" s="47"/>
+      <c r="G499" s="49"/>
+      <c r="H499" s="50"/>
+      <c r="K499" s="48"/>
     </row>
     <row r="500">
-      <c r="G500" s="48"/>
-      <c r="H500" s="49"/>
-      <c r="K500" s="47"/>
+      <c r="G500" s="49"/>
+      <c r="H500" s="50"/>
+      <c r="K500" s="48"/>
     </row>
     <row r="501">
-      <c r="G501" s="48"/>
-      <c r="H501" s="49"/>
-      <c r="K501" s="47"/>
+      <c r="G501" s="49"/>
+      <c r="H501" s="50"/>
+      <c r="K501" s="48"/>
     </row>
     <row r="502">
-      <c r="G502" s="48"/>
-      <c r="H502" s="49"/>
-      <c r="K502" s="47"/>
+      <c r="G502" s="49"/>
+      <c r="H502" s="50"/>
+      <c r="K502" s="48"/>
     </row>
     <row r="503">
-      <c r="G503" s="48"/>
-      <c r="H503" s="49"/>
-      <c r="K503" s="47"/>
+      <c r="G503" s="49"/>
+      <c r="H503" s="50"/>
+      <c r="K503" s="48"/>
     </row>
     <row r="504">
-      <c r="G504" s="48"/>
-      <c r="H504" s="49"/>
-      <c r="K504" s="47"/>
+      <c r="G504" s="49"/>
+      <c r="H504" s="50"/>
+      <c r="K504" s="48"/>
     </row>
     <row r="505">
-      <c r="G505" s="48"/>
-      <c r="H505" s="49"/>
-      <c r="K505" s="47"/>
+      <c r="G505" s="49"/>
+      <c r="H505" s="50"/>
+      <c r="K505" s="48"/>
     </row>
     <row r="506">
-      <c r="G506" s="48"/>
-      <c r="H506" s="49"/>
-      <c r="K506" s="47"/>
+      <c r="G506" s="49"/>
+      <c r="H506" s="50"/>
+      <c r="K506" s="48"/>
     </row>
     <row r="507">
-      <c r="G507" s="48"/>
-      <c r="H507" s="49"/>
-      <c r="K507" s="47"/>
+      <c r="G507" s="49"/>
+      <c r="H507" s="50"/>
+      <c r="K507" s="48"/>
     </row>
     <row r="508">
-      <c r="G508" s="48"/>
-      <c r="H508" s="49"/>
-      <c r="K508" s="47"/>
+      <c r="G508" s="49"/>
+      <c r="H508" s="50"/>
+      <c r="K508" s="48"/>
     </row>
     <row r="509">
-      <c r="G509" s="48"/>
-      <c r="H509" s="49"/>
-      <c r="K509" s="47"/>
+      <c r="G509" s="49"/>
+      <c r="H509" s="50"/>
+      <c r="K509" s="48"/>
     </row>
     <row r="510">
-      <c r="G510" s="48"/>
-      <c r="H510" s="49"/>
-      <c r="K510" s="47"/>
+      <c r="G510" s="49"/>
+      <c r="H510" s="50"/>
+      <c r="K510" s="48"/>
     </row>
     <row r="511">
-      <c r="G511" s="48"/>
-      <c r="H511" s="49"/>
-      <c r="K511" s="47"/>
+      <c r="G511" s="49"/>
+      <c r="H511" s="50"/>
+      <c r="K511" s="48"/>
     </row>
     <row r="512">
-      <c r="G512" s="48"/>
-      <c r="H512" s="49"/>
-      <c r="K512" s="47"/>
+      <c r="G512" s="49"/>
+      <c r="H512" s="50"/>
+      <c r="K512" s="48"/>
     </row>
     <row r="513">
-      <c r="G513" s="48"/>
-      <c r="H513" s="49"/>
-      <c r="K513" s="47"/>
+      <c r="G513" s="49"/>
+      <c r="H513" s="50"/>
+      <c r="K513" s="48"/>
     </row>
     <row r="514">
-      <c r="G514" s="48"/>
-      <c r="H514" s="49"/>
-      <c r="K514" s="47"/>
+      <c r="G514" s="49"/>
+      <c r="H514" s="50"/>
+      <c r="K514" s="48"/>
     </row>
     <row r="515">
-      <c r="G515" s="48"/>
-      <c r="H515" s="49"/>
-      <c r="K515" s="47"/>
+      <c r="G515" s="49"/>
+      <c r="H515" s="50"/>
+      <c r="K515" s="48"/>
     </row>
     <row r="516">
-      <c r="G516" s="48"/>
-      <c r="H516" s="49"/>
-      <c r="K516" s="47"/>
+      <c r="G516" s="49"/>
+      <c r="H516" s="50"/>
+      <c r="K516" s="48"/>
     </row>
     <row r="517">
-      <c r="G517" s="48"/>
-      <c r="H517" s="49"/>
-      <c r="K517" s="47"/>
+      <c r="G517" s="49"/>
+      <c r="H517" s="50"/>
+      <c r="K517" s="48"/>
     </row>
     <row r="518">
-      <c r="G518" s="48"/>
-      <c r="H518" s="49"/>
-      <c r="K518" s="47"/>
+      <c r="G518" s="49"/>
+      <c r="H518" s="50"/>
+      <c r="K518" s="48"/>
     </row>
     <row r="519">
-      <c r="G519" s="48"/>
-      <c r="H519" s="49"/>
-      <c r="K519" s="47"/>
+      <c r="G519" s="49"/>
+      <c r="H519" s="50"/>
+      <c r="K519" s="48"/>
     </row>
     <row r="520">
-      <c r="G520" s="48"/>
-      <c r="H520" s="49"/>
-      <c r="K520" s="47"/>
+      <c r="G520" s="49"/>
+      <c r="H520" s="50"/>
+      <c r="K520" s="48"/>
     </row>
     <row r="521">
-      <c r="G521" s="48"/>
-      <c r="H521" s="49"/>
-      <c r="K521" s="47"/>
+      <c r="G521" s="49"/>
+      <c r="H521" s="50"/>
+      <c r="K521" s="48"/>
     </row>
     <row r="522">
-      <c r="G522" s="48"/>
-      <c r="H522" s="49"/>
-      <c r="K522" s="47"/>
+      <c r="G522" s="49"/>
+      <c r="H522" s="50"/>
+      <c r="K522" s="48"/>
     </row>
     <row r="523">
-      <c r="G523" s="48"/>
-      <c r="H523" s="49"/>
-      <c r="K523" s="47"/>
+      <c r="G523" s="49"/>
+      <c r="H523" s="50"/>
+      <c r="K523" s="48"/>
     </row>
     <row r="524">
-      <c r="G524" s="48"/>
-      <c r="H524" s="49"/>
-      <c r="K524" s="47"/>
+      <c r="G524" s="49"/>
+      <c r="H524" s="50"/>
+      <c r="K524" s="48"/>
     </row>
     <row r="525">
-      <c r="G525" s="48"/>
-      <c r="H525" s="49"/>
-      <c r="K525" s="47"/>
+      <c r="G525" s="49"/>
+      <c r="H525" s="50"/>
+      <c r="K525" s="48"/>
     </row>
     <row r="526">
-      <c r="G526" s="48"/>
-      <c r="H526" s="49"/>
-      <c r="K526" s="47"/>
+      <c r="G526" s="49"/>
+      <c r="H526" s="50"/>
+      <c r="K526" s="48"/>
     </row>
     <row r="527">
-      <c r="G527" s="48"/>
-      <c r="H527" s="49"/>
-      <c r="K527" s="47"/>
+      <c r="G527" s="49"/>
+      <c r="H527" s="50"/>
+      <c r="K527" s="48"/>
     </row>
     <row r="528">
-      <c r="G528" s="48"/>
-      <c r="H528" s="49"/>
-      <c r="K528" s="47"/>
+      <c r="G528" s="49"/>
+      <c r="H528" s="50"/>
+      <c r="K528" s="48"/>
     </row>
     <row r="529">
-      <c r="G529" s="48"/>
-      <c r="H529" s="49"/>
-      <c r="K529" s="47"/>
+      <c r="G529" s="49"/>
+      <c r="H529" s="50"/>
+      <c r="K529" s="48"/>
     </row>
     <row r="530">
-      <c r="G530" s="48"/>
-      <c r="H530" s="49"/>
-      <c r="K530" s="47"/>
+      <c r="G530" s="49"/>
+      <c r="H530" s="50"/>
+      <c r="K530" s="48"/>
     </row>
     <row r="531">
-      <c r="G531" s="48"/>
-      <c r="H531" s="49"/>
-      <c r="K531" s="47"/>
+      <c r="G531" s="49"/>
+      <c r="H531" s="50"/>
+      <c r="K531" s="48"/>
     </row>
     <row r="532">
-      <c r="G532" s="48"/>
-      <c r="H532" s="49"/>
-      <c r="K532" s="47"/>
+      <c r="G532" s="49"/>
+      <c r="H532" s="50"/>
+      <c r="K532" s="48"/>
     </row>
     <row r="533">
-      <c r="G533" s="48"/>
-      <c r="H533" s="49"/>
-      <c r="K533" s="47"/>
+      <c r="G533" s="49"/>
+      <c r="H533" s="50"/>
+      <c r="K533" s="48"/>
     </row>
     <row r="534">
-      <c r="G534" s="48"/>
-      <c r="H534" s="49"/>
-      <c r="K534" s="47"/>
+      <c r="G534" s="49"/>
+      <c r="H534" s="50"/>
+      <c r="K534" s="48"/>
     </row>
     <row r="535">
-      <c r="G535" s="48"/>
-      <c r="H535" s="49"/>
-      <c r="K535" s="47"/>
+      <c r="G535" s="49"/>
+      <c r="H535" s="50"/>
+      <c r="K535" s="48"/>
     </row>
     <row r="536">
-      <c r="G536" s="48"/>
-      <c r="H536" s="49"/>
-      <c r="K536" s="47"/>
+      <c r="G536" s="49"/>
+      <c r="H536" s="50"/>
+      <c r="K536" s="48"/>
     </row>
     <row r="537">
-      <c r="G537" s="48"/>
-      <c r="H537" s="49"/>
-      <c r="K537" s="47"/>
+      <c r="G537" s="49"/>
+      <c r="H537" s="50"/>
+      <c r="K537" s="48"/>
     </row>
     <row r="538">
-      <c r="G538" s="48"/>
-      <c r="H538" s="49"/>
-      <c r="K538" s="47"/>
+      <c r="G538" s="49"/>
+      <c r="H538" s="50"/>
+      <c r="K538" s="48"/>
     </row>
     <row r="539">
-      <c r="G539" s="48"/>
-      <c r="H539" s="49"/>
-      <c r="K539" s="47"/>
+      <c r="G539" s="49"/>
+      <c r="H539" s="50"/>
+      <c r="K539" s="48"/>
     </row>
     <row r="540">
-      <c r="G540" s="48"/>
-      <c r="H540" s="49"/>
-      <c r="K540" s="47"/>
+      <c r="G540" s="49"/>
+      <c r="H540" s="50"/>
+      <c r="K540" s="48"/>
     </row>
     <row r="541">
-      <c r="G541" s="48"/>
-      <c r="H541" s="49"/>
-      <c r="K541" s="47"/>
+      <c r="G541" s="49"/>
+      <c r="H541" s="50"/>
+      <c r="K541" s="48"/>
     </row>
     <row r="542">
-      <c r="G542" s="48"/>
-      <c r="H542" s="49"/>
-      <c r="K542" s="47"/>
+      <c r="G542" s="49"/>
+      <c r="H542" s="50"/>
+      <c r="K542" s="48"/>
     </row>
     <row r="543">
-      <c r="G543" s="48"/>
-      <c r="H543" s="49"/>
-      <c r="K543" s="47"/>
+      <c r="G543" s="49"/>
+      <c r="H543" s="50"/>
+      <c r="K543" s="48"/>
     </row>
     <row r="544">
-      <c r="G544" s="48"/>
-      <c r="H544" s="49"/>
-      <c r="K544" s="47"/>
+      <c r="G544" s="49"/>
+      <c r="H544" s="50"/>
+      <c r="K544" s="48"/>
     </row>
     <row r="545">
-      <c r="G545" s="48"/>
-      <c r="H545" s="49"/>
-      <c r="K545" s="47"/>
+      <c r="G545" s="49"/>
+      <c r="H545" s="50"/>
+      <c r="K545" s="48"/>
     </row>
     <row r="546">
-      <c r="G546" s="48"/>
-      <c r="H546" s="49"/>
-      <c r="K546" s="47"/>
+      <c r="G546" s="49"/>
+      <c r="H546" s="50"/>
+      <c r="K546" s="48"/>
     </row>
     <row r="547">
-      <c r="G547" s="48"/>
-      <c r="H547" s="49"/>
-      <c r="K547" s="47"/>
+      <c r="G547" s="49"/>
+      <c r="H547" s="50"/>
+      <c r="K547" s="48"/>
     </row>
     <row r="548">
-      <c r="G548" s="48"/>
-      <c r="H548" s="49"/>
-      <c r="K548" s="47"/>
+      <c r="G548" s="49"/>
+      <c r="H548" s="50"/>
+      <c r="K548" s="48"/>
     </row>
     <row r="549">
-      <c r="G549" s="48"/>
-      <c r="H549" s="49"/>
-      <c r="K549" s="47"/>
+      <c r="G549" s="49"/>
+      <c r="H549" s="50"/>
+      <c r="K549" s="48"/>
     </row>
     <row r="550">
-      <c r="G550" s="48"/>
-      <c r="H550" s="49"/>
-      <c r="K550" s="47"/>
+      <c r="G550" s="49"/>
+      <c r="H550" s="50"/>
+      <c r="K550" s="48"/>
     </row>
     <row r="551">
-      <c r="G551" s="48"/>
-      <c r="H551" s="49"/>
-      <c r="K551" s="47"/>
+      <c r="G551" s="49"/>
+      <c r="H551" s="50"/>
+      <c r="K551" s="48"/>
     </row>
     <row r="552">
-      <c r="G552" s="48"/>
-      <c r="H552" s="49"/>
-      <c r="K552" s="47"/>
+      <c r="G552" s="49"/>
+      <c r="H552" s="50"/>
+      <c r="K552" s="48"/>
     </row>
     <row r="553">
-      <c r="G553" s="48"/>
-      <c r="H553" s="49"/>
-      <c r="K553" s="47"/>
+      <c r="G553" s="49"/>
+      <c r="H553" s="50"/>
+      <c r="K553" s="48"/>
     </row>
     <row r="554">
-      <c r="G554" s="48"/>
-      <c r="H554" s="49"/>
-      <c r="K554" s="47"/>
+      <c r="G554" s="49"/>
+      <c r="H554" s="50"/>
+      <c r="K554" s="48"/>
     </row>
     <row r="555">
-      <c r="G555" s="48"/>
-      <c r="H555" s="49"/>
-      <c r="K555" s="47"/>
+      <c r="G555" s="49"/>
+      <c r="H555" s="50"/>
+      <c r="K555" s="48"/>
     </row>
     <row r="556">
-      <c r="G556" s="48"/>
-      <c r="H556" s="49"/>
-      <c r="K556" s="47"/>
+      <c r="G556" s="49"/>
+      <c r="H556" s="50"/>
+      <c r="K556" s="48"/>
     </row>
     <row r="557">
-      <c r="G557" s="48"/>
-      <c r="H557" s="49"/>
-      <c r="K557" s="47"/>
+      <c r="G557" s="49"/>
+      <c r="H557" s="50"/>
+      <c r="K557" s="48"/>
     </row>
     <row r="558">
-      <c r="G558" s="48"/>
-      <c r="H558" s="49"/>
-      <c r="K558" s="47"/>
+      <c r="G558" s="49"/>
+      <c r="H558" s="50"/>
+      <c r="K558" s="48"/>
     </row>
     <row r="559">
-      <c r="G559" s="48"/>
-      <c r="H559" s="49"/>
-      <c r="K559" s="47"/>
+      <c r="G559" s="49"/>
+      <c r="H559" s="50"/>
+      <c r="K559" s="48"/>
     </row>
     <row r="560">
-      <c r="G560" s="48"/>
-      <c r="H560" s="49"/>
-      <c r="K560" s="47"/>
+      <c r="G560" s="49"/>
+      <c r="H560" s="50"/>
+      <c r="K560" s="48"/>
     </row>
     <row r="561">
-      <c r="G561" s="48"/>
-      <c r="H561" s="49"/>
-      <c r="K561" s="47"/>
+      <c r="G561" s="49"/>
+      <c r="H561" s="50"/>
+      <c r="K561" s="48"/>
     </row>
     <row r="562">
-      <c r="G562" s="48"/>
-      <c r="H562" s="49"/>
-      <c r="K562" s="47"/>
+      <c r="G562" s="49"/>
+      <c r="H562" s="50"/>
+      <c r="K562" s="48"/>
     </row>
     <row r="563">
-      <c r="G563" s="48"/>
-      <c r="H563" s="49"/>
-      <c r="K563" s="47"/>
+      <c r="G563" s="49"/>
+      <c r="H563" s="50"/>
+      <c r="K563" s="48"/>
     </row>
     <row r="564">
-      <c r="G564" s="48"/>
-      <c r="H564" s="49"/>
-      <c r="K564" s="47"/>
+      <c r="G564" s="49"/>
+      <c r="H564" s="50"/>
+      <c r="K564" s="48"/>
     </row>
     <row r="565">
-      <c r="G565" s="48"/>
-      <c r="H565" s="49"/>
-      <c r="K565" s="47"/>
+      <c r="G565" s="49"/>
+      <c r="H565" s="50"/>
+      <c r="K565" s="48"/>
     </row>
     <row r="566">
-      <c r="G566" s="48"/>
-      <c r="H566" s="49"/>
-      <c r="K566" s="47"/>
+      <c r="G566" s="49"/>
+      <c r="H566" s="50"/>
+      <c r="K566" s="48"/>
     </row>
     <row r="567">
-      <c r="G567" s="48"/>
-      <c r="H567" s="49"/>
-      <c r="K567" s="47"/>
+      <c r="G567" s="49"/>
+      <c r="H567" s="50"/>
+      <c r="K567" s="48"/>
     </row>
     <row r="568">
-      <c r="G568" s="48"/>
-      <c r="H568" s="49"/>
-      <c r="K568" s="47"/>
+      <c r="G568" s="49"/>
+      <c r="H568" s="50"/>
+      <c r="K568" s="48"/>
     </row>
     <row r="569">
-      <c r="G569" s="48"/>
-      <c r="H569" s="49"/>
-      <c r="K569" s="47"/>
+      <c r="G569" s="49"/>
+      <c r="H569" s="50"/>
+      <c r="K569" s="48"/>
     </row>
     <row r="570">
-      <c r="G570" s="48"/>
-      <c r="H570" s="49"/>
-      <c r="K570" s="47"/>
+      <c r="G570" s="49"/>
+      <c r="H570" s="50"/>
+      <c r="K570" s="48"/>
     </row>
     <row r="571">
-      <c r="G571" s="48"/>
-      <c r="H571" s="49"/>
-      <c r="K571" s="47"/>
+      <c r="G571" s="49"/>
+      <c r="H571" s="50"/>
+      <c r="K571" s="48"/>
     </row>
     <row r="572">
-      <c r="G572" s="48"/>
-      <c r="H572" s="49"/>
-      <c r="K572" s="47"/>
+      <c r="G572" s="49"/>
+      <c r="H572" s="50"/>
+      <c r="K572" s="48"/>
     </row>
     <row r="573">
-      <c r="G573" s="48"/>
-      <c r="H573" s="49"/>
-      <c r="K573" s="47"/>
+      <c r="G573" s="49"/>
+      <c r="H573" s="50"/>
+      <c r="K573" s="48"/>
     </row>
     <row r="574">
-      <c r="G574" s="48"/>
-      <c r="H574" s="49"/>
-      <c r="K574" s="47"/>
+      <c r="G574" s="49"/>
+      <c r="H574" s="50"/>
+      <c r="K574" s="48"/>
     </row>
     <row r="575">
-      <c r="G575" s="48"/>
-      <c r="H575" s="49"/>
-      <c r="K575" s="47"/>
+      <c r="G575" s="49"/>
+      <c r="H575" s="50"/>
+      <c r="K575" s="48"/>
     </row>
     <row r="576">
-      <c r="G576" s="48"/>
-      <c r="H576" s="49"/>
-      <c r="K576" s="47"/>
+      <c r="G576" s="49"/>
+      <c r="H576" s="50"/>
+      <c r="K576" s="48"/>
     </row>
     <row r="577">
-      <c r="G577" s="48"/>
-      <c r="H577" s="49"/>
-      <c r="K577" s="47"/>
+      <c r="G577" s="49"/>
+      <c r="H577" s="50"/>
+      <c r="K577" s="48"/>
     </row>
     <row r="578">
-      <c r="G578" s="48"/>
-      <c r="H578" s="49"/>
-      <c r="K578" s="47"/>
+      <c r="G578" s="49"/>
+      <c r="H578" s="50"/>
+      <c r="K578" s="48"/>
     </row>
     <row r="579">
-      <c r="G579" s="48"/>
-      <c r="H579" s="49"/>
-      <c r="K579" s="47"/>
+      <c r="G579" s="49"/>
+      <c r="H579" s="50"/>
+      <c r="K579" s="48"/>
     </row>
     <row r="580">
-      <c r="G580" s="48"/>
-      <c r="H580" s="49"/>
-      <c r="K580" s="47"/>
+      <c r="G580" s="49"/>
+      <c r="H580" s="50"/>
+      <c r="K580" s="48"/>
     </row>
     <row r="581">
-      <c r="G581" s="48"/>
-      <c r="H581" s="49"/>
-      <c r="K581" s="47"/>
+      <c r="G581" s="49"/>
+      <c r="H581" s="50"/>
+      <c r="K581" s="48"/>
     </row>
     <row r="582">
-      <c r="G582" s="48"/>
-      <c r="H582" s="49"/>
-      <c r="K582" s="47"/>
+      <c r="G582" s="49"/>
+      <c r="H582" s="50"/>
+      <c r="K582" s="48"/>
     </row>
     <row r="583">
-      <c r="G583" s="48"/>
-      <c r="H583" s="49"/>
-      <c r="K583" s="47"/>
+      <c r="G583" s="49"/>
+      <c r="H583" s="50"/>
+      <c r="K583" s="48"/>
     </row>
     <row r="584">
-      <c r="G584" s="48"/>
-      <c r="H584" s="49"/>
-      <c r="K584" s="47"/>
+      <c r="G584" s="49"/>
+      <c r="H584" s="50"/>
+      <c r="K584" s="48"/>
     </row>
     <row r="585">
-      <c r="G585" s="48"/>
-      <c r="H585" s="49"/>
-      <c r="K585" s="47"/>
+      <c r="G585" s="49"/>
+      <c r="H585" s="50"/>
+      <c r="K585" s="48"/>
     </row>
     <row r="586">
-      <c r="G586" s="48"/>
-      <c r="H586" s="49"/>
-      <c r="K586" s="47"/>
+      <c r="G586" s="49"/>
+      <c r="H586" s="50"/>
+      <c r="K586" s="48"/>
     </row>
     <row r="587">
-      <c r="G587" s="48"/>
-      <c r="H587" s="49"/>
-      <c r="K587" s="47"/>
+      <c r="G587" s="49"/>
+      <c r="H587" s="50"/>
+      <c r="K587" s="48"/>
     </row>
     <row r="588">
-      <c r="G588" s="48"/>
-      <c r="H588" s="49"/>
-      <c r="K588" s="47"/>
+      <c r="G588" s="49"/>
+      <c r="H588" s="50"/>
+      <c r="K588" s="48"/>
     </row>
     <row r="589">
-      <c r="G589" s="48"/>
-      <c r="H589" s="49"/>
-      <c r="K589" s="47"/>
+      <c r="G589" s="49"/>
+      <c r="H589" s="50"/>
+      <c r="K589" s="48"/>
     </row>
     <row r="590">
-      <c r="G590" s="48"/>
-      <c r="H590" s="49"/>
-      <c r="K590" s="47"/>
+      <c r="G590" s="49"/>
+      <c r="H590" s="50"/>
+      <c r="K590" s="48"/>
     </row>
     <row r="591">
-      <c r="G591" s="48"/>
-      <c r="H591" s="49"/>
-      <c r="K591" s="47"/>
+      <c r="G591" s="49"/>
+      <c r="H591" s="50"/>
+      <c r="K591" s="48"/>
     </row>
     <row r="592">
-      <c r="G592" s="48"/>
-      <c r="H592" s="49"/>
-      <c r="K592" s="47"/>
+      <c r="G592" s="49"/>
+      <c r="H592" s="50"/>
+      <c r="K592" s="48"/>
     </row>
     <row r="593">
-      <c r="G593" s="48"/>
-      <c r="H593" s="49"/>
-      <c r="K593" s="47"/>
+      <c r="G593" s="49"/>
+      <c r="H593" s="50"/>
+      <c r="K593" s="48"/>
     </row>
     <row r="594">
-      <c r="G594" s="48"/>
-      <c r="H594" s="49"/>
-      <c r="K594" s="47"/>
+      <c r="G594" s="49"/>
+      <c r="H594" s="50"/>
+      <c r="K594" s="48"/>
     </row>
     <row r="595">
-      <c r="G595" s="48"/>
-      <c r="H595" s="49"/>
-      <c r="K595" s="47"/>
+      <c r="G595" s="49"/>
+      <c r="H595" s="50"/>
+      <c r="K595" s="48"/>
     </row>
     <row r="596">
-      <c r="G596" s="48"/>
-      <c r="H596" s="49"/>
-      <c r="K596" s="47"/>
+      <c r="G596" s="49"/>
+      <c r="H596" s="50"/>
+      <c r="K596" s="48"/>
     </row>
     <row r="597">
-      <c r="G597" s="48"/>
-      <c r="H597" s="49"/>
-      <c r="K597" s="47"/>
+      <c r="G597" s="49"/>
+      <c r="H597" s="50"/>
+      <c r="K597" s="48"/>
     </row>
     <row r="598">
-      <c r="G598" s="48"/>
-      <c r="H598" s="49"/>
-      <c r="K598" s="47"/>
+      <c r="G598" s="49"/>
+      <c r="H598" s="50"/>
+      <c r="K598" s="48"/>
     </row>
     <row r="599">
-      <c r="G599" s="48"/>
-      <c r="H599" s="49"/>
-      <c r="K599" s="47"/>
+      <c r="G599" s="49"/>
+      <c r="H599" s="50"/>
+      <c r="K599" s="48"/>
     </row>
     <row r="600">
-      <c r="G600" s="48"/>
-      <c r="H600" s="49"/>
-      <c r="K600" s="47"/>
+      <c r="G600" s="49"/>
+      <c r="H600" s="50"/>
+      <c r="K600" s="48"/>
     </row>
     <row r="601">
-      <c r="G601" s="48"/>
-      <c r="H601" s="49"/>
-      <c r="K601" s="47"/>
+      <c r="G601" s="49"/>
+      <c r="H601" s="50"/>
+      <c r="K601" s="48"/>
     </row>
     <row r="602">
-      <c r="G602" s="48"/>
-      <c r="H602" s="49"/>
-      <c r="K602" s="47"/>
+      <c r="G602" s="49"/>
+      <c r="H602" s="50"/>
+      <c r="K602" s="48"/>
     </row>
     <row r="603">
-      <c r="G603" s="48"/>
-      <c r="H603" s="49"/>
-      <c r="K603" s="47"/>
+      <c r="G603" s="49"/>
+      <c r="H603" s="50"/>
+      <c r="K603" s="48"/>
     </row>
     <row r="604">
-      <c r="G604" s="48"/>
-      <c r="H604" s="49"/>
-      <c r="K604" s="47"/>
+      <c r="G604" s="49"/>
+      <c r="H604" s="50"/>
+      <c r="K604" s="48"/>
     </row>
     <row r="605">
-      <c r="G605" s="48"/>
-      <c r="H605" s="49"/>
-      <c r="K605" s="47"/>
+      <c r="G605" s="49"/>
+      <c r="H605" s="50"/>
+      <c r="K605" s="48"/>
     </row>
     <row r="606">
-      <c r="G606" s="48"/>
-      <c r="H606" s="49"/>
-      <c r="K606" s="47"/>
+      <c r="G606" s="49"/>
+      <c r="H606" s="50"/>
+      <c r="K606" s="48"/>
     </row>
     <row r="607">
-      <c r="G607" s="48"/>
-      <c r="H607" s="49"/>
-      <c r="K607" s="47"/>
+      <c r="G607" s="49"/>
+      <c r="H607" s="50"/>
+      <c r="K607" s="48"/>
     </row>
     <row r="608">
-      <c r="G608" s="48"/>
-      <c r="H608" s="49"/>
-      <c r="K608" s="47"/>
+      <c r="G608" s="49"/>
+      <c r="H608" s="50"/>
+      <c r="K608" s="48"/>
     </row>
     <row r="609">
-      <c r="G609" s="48"/>
-      <c r="H609" s="49"/>
-      <c r="K609" s="47"/>
+      <c r="G609" s="49"/>
+      <c r="H609" s="50"/>
+      <c r="K609" s="48"/>
     </row>
     <row r="610">
-      <c r="G610" s="48"/>
-      <c r="H610" s="49"/>
-      <c r="K610" s="47"/>
+      <c r="G610" s="49"/>
+      <c r="H610" s="50"/>
+      <c r="K610" s="48"/>
     </row>
     <row r="611">
-      <c r="G611" s="48"/>
-      <c r="H611" s="49"/>
-      <c r="K611" s="47"/>
+      <c r="G611" s="49"/>
+      <c r="H611" s="50"/>
+      <c r="K611" s="48"/>
     </row>
     <row r="612">
-      <c r="G612" s="48"/>
-      <c r="H612" s="49"/>
-      <c r="K612" s="47"/>
+      <c r="G612" s="49"/>
+      <c r="H612" s="50"/>
+      <c r="K612" s="48"/>
     </row>
     <row r="613">
-      <c r="G613" s="48"/>
-      <c r="H613" s="49"/>
-      <c r="K613" s="47"/>
+      <c r="G613" s="49"/>
+      <c r="H613" s="50"/>
+      <c r="K613" s="48"/>
     </row>
     <row r="614">
-      <c r="G614" s="48"/>
-      <c r="H614" s="49"/>
-      <c r="K614" s="47"/>
+      <c r="G614" s="49"/>
+      <c r="H614" s="50"/>
+      <c r="K614" s="48"/>
     </row>
     <row r="615">
-      <c r="G615" s="48"/>
-      <c r="H615" s="49"/>
-      <c r="K615" s="47"/>
+      <c r="G615" s="49"/>
+      <c r="H615" s="50"/>
+      <c r="K615" s="48"/>
     </row>
     <row r="616">
-      <c r="G616" s="48"/>
-      <c r="H616" s="49"/>
-      <c r="K616" s="47"/>
+      <c r="G616" s="49"/>
+      <c r="H616" s="50"/>
+      <c r="K616" s="48"/>
     </row>
     <row r="617">
-      <c r="G617" s="48"/>
-      <c r="H617" s="49"/>
-      <c r="K617" s="47"/>
+      <c r="G617" s="49"/>
+      <c r="H617" s="50"/>
+      <c r="K617" s="48"/>
     </row>
     <row r="618">
-      <c r="G618" s="48"/>
-      <c r="H618" s="49"/>
-      <c r="K618" s="47"/>
+      <c r="G618" s="49"/>
+      <c r="H618" s="50"/>
+      <c r="K618" s="48"/>
     </row>
     <row r="619">
-      <c r="G619" s="48"/>
-      <c r="H619" s="49"/>
-      <c r="K619" s="47"/>
+      <c r="G619" s="49"/>
+      <c r="H619" s="50"/>
+      <c r="K619" s="48"/>
     </row>
     <row r="620">
-      <c r="G620" s="48"/>
-      <c r="H620" s="49"/>
-      <c r="K620" s="47"/>
+      <c r="G620" s="49"/>
+      <c r="H620" s="50"/>
+      <c r="K620" s="48"/>
     </row>
     <row r="621">
-      <c r="G621" s="48"/>
-      <c r="H621" s="49"/>
-      <c r="K621" s="47"/>
+      <c r="G621" s="49"/>
+      <c r="H621" s="50"/>
+      <c r="K621" s="48"/>
     </row>
     <row r="622">
-      <c r="G622" s="48"/>
-      <c r="H622" s="49"/>
-      <c r="K622" s="47"/>
+      <c r="G622" s="49"/>
+      <c r="H622" s="50"/>
+      <c r="K622" s="48"/>
     </row>
     <row r="623">
-      <c r="G623" s="48"/>
-      <c r="H623" s="49"/>
-      <c r="K623" s="47"/>
+      <c r="G623" s="49"/>
+      <c r="H623" s="50"/>
+      <c r="K623" s="48"/>
     </row>
     <row r="624">
-      <c r="G624" s="48"/>
-      <c r="H624" s="49"/>
-      <c r="K624" s="47"/>
+      <c r="G624" s="49"/>
+      <c r="H624" s="50"/>
+      <c r="K624" s="48"/>
     </row>
     <row r="625">
-      <c r="G625" s="48"/>
-      <c r="H625" s="49"/>
-      <c r="K625" s="47"/>
+      <c r="G625" s="49"/>
+      <c r="H625" s="50"/>
+      <c r="K625" s="48"/>
     </row>
     <row r="626">
-      <c r="G626" s="48"/>
-      <c r="H626" s="49"/>
-      <c r="K626" s="47"/>
+      <c r="G626" s="49"/>
+      <c r="H626" s="50"/>
+      <c r="K626" s="48"/>
     </row>
     <row r="627">
-      <c r="G627" s="48"/>
-      <c r="H627" s="49"/>
-      <c r="K627" s="47"/>
+      <c r="G627" s="49"/>
+      <c r="H627" s="50"/>
+      <c r="K627" s="48"/>
     </row>
     <row r="628">
-      <c r="G628" s="48"/>
-      <c r="H628" s="49"/>
-      <c r="K628" s="47"/>
+      <c r="G628" s="49"/>
+      <c r="H628" s="50"/>
+      <c r="K628" s="48"/>
     </row>
     <row r="629">
-      <c r="G629" s="48"/>
-      <c r="H629" s="49"/>
-      <c r="K629" s="47"/>
+      <c r="G629" s="49"/>
+      <c r="H629" s="50"/>
+      <c r="K629" s="48"/>
     </row>
     <row r="630">
-      <c r="G630" s="48"/>
-      <c r="H630" s="49"/>
-      <c r="K630" s="47"/>
+      <c r="G630" s="49"/>
+      <c r="H630" s="50"/>
+      <c r="K630" s="48"/>
     </row>
     <row r="631">
-      <c r="G631" s="48"/>
-      <c r="H631" s="49"/>
-      <c r="K631" s="47"/>
+      <c r="G631" s="49"/>
+      <c r="H631" s="50"/>
+      <c r="K631" s="48"/>
     </row>
     <row r="632">
-      <c r="G632" s="48"/>
-      <c r="H632" s="49"/>
-      <c r="K632" s="47"/>
+      <c r="G632" s="49"/>
+      <c r="H632" s="50"/>
+      <c r="K632" s="48"/>
     </row>
     <row r="633">
-      <c r="G633" s="48"/>
-      <c r="H633" s="49"/>
-      <c r="K633" s="47"/>
+      <c r="G633" s="49"/>
+      <c r="H633" s="50"/>
+      <c r="K633" s="48"/>
     </row>
     <row r="634">
-      <c r="G634" s="48"/>
-      <c r="H634" s="49"/>
-      <c r="K634" s="47"/>
+      <c r="G634" s="49"/>
+      <c r="H634" s="50"/>
+      <c r="K634" s="48"/>
     </row>
     <row r="635">
-      <c r="G635" s="48"/>
-      <c r="H635" s="49"/>
-      <c r="K635" s="47"/>
+      <c r="G635" s="49"/>
+      <c r="H635" s="50"/>
+      <c r="K635" s="48"/>
     </row>
     <row r="636">
-      <c r="G636" s="48"/>
-      <c r="H636" s="49"/>
-      <c r="K636" s="47"/>
+      <c r="G636" s="49"/>
+      <c r="H636" s="50"/>
+      <c r="K636" s="48"/>
     </row>
     <row r="637">
-      <c r="G637" s="48"/>
-      <c r="H637" s="49"/>
-      <c r="K637" s="47"/>
+      <c r="G637" s="49"/>
+      <c r="H637" s="50"/>
+      <c r="K637" s="48"/>
     </row>
     <row r="638">
-      <c r="G638" s="48"/>
-      <c r="H638" s="49"/>
-      <c r="K638" s="47"/>
+      <c r="G638" s="49"/>
+      <c r="H638" s="50"/>
+      <c r="K638" s="48"/>
     </row>
     <row r="639">
-      <c r="G639" s="48"/>
-      <c r="H639" s="49"/>
-      <c r="K639" s="47"/>
+      <c r="G639" s="49"/>
+      <c r="H639" s="50"/>
+      <c r="K639" s="48"/>
     </row>
     <row r="640">
-      <c r="G640" s="48"/>
-      <c r="H640" s="49"/>
-      <c r="K640" s="47"/>
+      <c r="G640" s="49"/>
+      <c r="H640" s="50"/>
+      <c r="K640" s="48"/>
     </row>
     <row r="641">
-      <c r="G641" s="48"/>
-      <c r="H641" s="49"/>
-      <c r="K641" s="47"/>
+      <c r="G641" s="49"/>
+      <c r="H641" s="50"/>
+      <c r="K641" s="48"/>
     </row>
     <row r="642">
-      <c r="G642" s="48"/>
-      <c r="H642" s="49"/>
-      <c r="K642" s="47"/>
+      <c r="G642" s="49"/>
+      <c r="H642" s="50"/>
+      <c r="K642" s="48"/>
     </row>
     <row r="643">
-      <c r="G643" s="48"/>
-      <c r="H643" s="49"/>
-      <c r="K643" s="47"/>
+      <c r="G643" s="49"/>
+      <c r="H643" s="50"/>
+      <c r="K643" s="48"/>
     </row>
     <row r="644">
-      <c r="G644" s="48"/>
-      <c r="H644" s="49"/>
-      <c r="K644" s="47"/>
+      <c r="G644" s="49"/>
+      <c r="H644" s="50"/>
+      <c r="K644" s="48"/>
     </row>
     <row r="645">
-      <c r="G645" s="48"/>
-      <c r="H645" s="49"/>
-      <c r="K645" s="47"/>
+      <c r="G645" s="49"/>
+      <c r="H645" s="50"/>
+      <c r="K645" s="48"/>
     </row>
     <row r="646">
-      <c r="G646" s="48"/>
-      <c r="H646" s="49"/>
-      <c r="K646" s="47"/>
+      <c r="G646" s="49"/>
+      <c r="H646" s="50"/>
+      <c r="K646" s="48"/>
     </row>
     <row r="647">
-      <c r="G647" s="48"/>
-      <c r="H647" s="49"/>
-      <c r="K647" s="47"/>
+      <c r="G647" s="49"/>
+      <c r="H647" s="50"/>
+      <c r="K647" s="48"/>
     </row>
     <row r="648">
-      <c r="G648" s="48"/>
-      <c r="H648" s="49"/>
-      <c r="K648" s="47"/>
+      <c r="G648" s="49"/>
+      <c r="H648" s="50"/>
+      <c r="K648" s="48"/>
     </row>
     <row r="649">
-      <c r="G649" s="48"/>
-      <c r="H649" s="49"/>
-      <c r="K649" s="47"/>
+      <c r="G649" s="49"/>
+      <c r="H649" s="50"/>
+      <c r="K649" s="48"/>
     </row>
     <row r="650">
-      <c r="G650" s="48"/>
-      <c r="H650" s="49"/>
-      <c r="K650" s="47"/>
+      <c r="G650" s="49"/>
+      <c r="H650" s="50"/>
+      <c r="K650" s="48"/>
     </row>
     <row r="651">
-      <c r="G651" s="48"/>
-      <c r="H651" s="49"/>
-      <c r="K651" s="47"/>
+      <c r="G651" s="49"/>
+      <c r="H651" s="50"/>
+      <c r="K651" s="48"/>
     </row>
     <row r="652">
-      <c r="G652" s="48"/>
-      <c r="H652" s="49"/>
-      <c r="K652" s="47"/>
+      <c r="G652" s="49"/>
+      <c r="H652" s="50"/>
+      <c r="K652" s="48"/>
     </row>
     <row r="653">
-      <c r="G653" s="48"/>
-      <c r="H653" s="49"/>
-      <c r="K653" s="47"/>
+      <c r="G653" s="49"/>
+      <c r="H653" s="50"/>
+      <c r="K653" s="48"/>
     </row>
     <row r="654">
-      <c r="G654" s="48"/>
-      <c r="H654" s="49"/>
-      <c r="K654" s="47"/>
+      <c r="G654" s="49"/>
+      <c r="H654" s="50"/>
+      <c r="K654" s="48"/>
     </row>
     <row r="655">
-      <c r="G655" s="48"/>
-      <c r="H655" s="49"/>
-      <c r="K655" s="47"/>
+      <c r="G655" s="49"/>
+      <c r="H655" s="50"/>
+      <c r="K655" s="48"/>
     </row>
     <row r="656">
-      <c r="G656" s="48"/>
-      <c r="H656" s="49"/>
-      <c r="K656" s="47"/>
+      <c r="G656" s="49"/>
+      <c r="H656" s="50"/>
+      <c r="K656" s="48"/>
     </row>
     <row r="657">
-      <c r="G657" s="48"/>
-      <c r="H657" s="49"/>
-      <c r="K657" s="47"/>
+      <c r="G657" s="49"/>
+      <c r="H657" s="50"/>
+      <c r="K657" s="48"/>
     </row>
     <row r="658">
-      <c r="G658" s="48"/>
-      <c r="H658" s="49"/>
-      <c r="K658" s="47"/>
+      <c r="G658" s="49"/>
+      <c r="H658" s="50"/>
+      <c r="K658" s="48"/>
     </row>
     <row r="659">
-      <c r="G659" s="48"/>
-      <c r="H659" s="49"/>
-      <c r="K659" s="47"/>
+      <c r="G659" s="49"/>
+      <c r="H659" s="50"/>
+      <c r="K659" s="48"/>
     </row>
     <row r="660">
-      <c r="G660" s="48"/>
-      <c r="H660" s="49"/>
-      <c r="K660" s="47"/>
+      <c r="G660" s="49"/>
+      <c r="H660" s="50"/>
+      <c r="K660" s="48"/>
     </row>
     <row r="661">
-      <c r="G661" s="48"/>
-      <c r="H661" s="49"/>
-      <c r="K661" s="47"/>
+      <c r="G661" s="49"/>
+      <c r="H661" s="50"/>
+      <c r="K661" s="48"/>
     </row>
     <row r="662">
-      <c r="G662" s="48"/>
-      <c r="H662" s="49"/>
-      <c r="K662" s="47"/>
+      <c r="G662" s="49"/>
+      <c r="H662" s="50"/>
+      <c r="K662" s="48"/>
     </row>
     <row r="663">
-      <c r="G663" s="48"/>
-      <c r="H663" s="49"/>
-      <c r="K663" s="47"/>
+      <c r="G663" s="49"/>
+      <c r="H663" s="50"/>
+      <c r="K663" s="48"/>
     </row>
     <row r="664">
-      <c r="G664" s="48"/>
-      <c r="H664" s="49"/>
-      <c r="K664" s="47"/>
+      <c r="G664" s="49"/>
+      <c r="H664" s="50"/>
+      <c r="K664" s="48"/>
     </row>
     <row r="665">
-      <c r="G665" s="48"/>
-      <c r="H665" s="49"/>
-      <c r="K665" s="47"/>
+      <c r="G665" s="49"/>
+      <c r="H665" s="50"/>
+      <c r="K665" s="48"/>
     </row>
     <row r="666">
-      <c r="G666" s="48"/>
-      <c r="H666" s="49"/>
-      <c r="K666" s="47"/>
+      <c r="G666" s="49"/>
+      <c r="H666" s="50"/>
+      <c r="K666" s="48"/>
     </row>
     <row r="667">
-      <c r="G667" s="48"/>
-      <c r="H667" s="49"/>
-      <c r="K667" s="47"/>
+      <c r="G667" s="49"/>
+      <c r="H667" s="50"/>
+      <c r="K667" s="48"/>
     </row>
     <row r="668">
-      <c r="G668" s="48"/>
-      <c r="H668" s="49"/>
-      <c r="K668" s="47"/>
+      <c r="G668" s="49"/>
+      <c r="H668" s="50"/>
+      <c r="K668" s="48"/>
     </row>
     <row r="669">
-      <c r="G669" s="48"/>
-      <c r="H669" s="49"/>
-      <c r="K669" s="47"/>
+      <c r="G669" s="49"/>
+      <c r="H669" s="50"/>
+      <c r="K669" s="48"/>
     </row>
     <row r="670">
-      <c r="G670" s="48"/>
-      <c r="H670" s="49"/>
-      <c r="K670" s="47"/>
+      <c r="G670" s="49"/>
+      <c r="H670" s="50"/>
+      <c r="K670" s="48"/>
     </row>
     <row r="671">
-      <c r="G671" s="48"/>
-      <c r="H671" s="49"/>
-      <c r="K671" s="47"/>
+      <c r="G671" s="49"/>
+      <c r="H671" s="50"/>
+      <c r="K671" s="48"/>
     </row>
     <row r="672">
-      <c r="G672" s="48"/>
-      <c r="H672" s="49"/>
-      <c r="K672" s="47"/>
+      <c r="G672" s="49"/>
+      <c r="H672" s="50"/>
+      <c r="K672" s="48"/>
     </row>
     <row r="673">
-      <c r="G673" s="48"/>
-      <c r="H673" s="49"/>
-      <c r="K673" s="47"/>
+      <c r="G673" s="49"/>
+      <c r="H673" s="50"/>
+      <c r="K673" s="48"/>
     </row>
     <row r="674">
-      <c r="G674" s="48"/>
-      <c r="H674" s="49"/>
-      <c r="K674" s="47"/>
+      <c r="G674" s="49"/>
+      <c r="H674" s="50"/>
+      <c r="K674" s="48"/>
     </row>
     <row r="675">
-      <c r="G675" s="48"/>
-      <c r="H675" s="49"/>
-      <c r="K675" s="47"/>
+      <c r="G675" s="49"/>
+      <c r="H675" s="50"/>
+      <c r="K675" s="48"/>
     </row>
     <row r="676">
-      <c r="G676" s="48"/>
-      <c r="H676" s="49"/>
-      <c r="K676" s="47"/>
+      <c r="G676" s="49"/>
+      <c r="H676" s="50"/>
+      <c r="K676" s="48"/>
     </row>
     <row r="677">
-      <c r="G677" s="48"/>
-      <c r="H677" s="49"/>
-      <c r="K677" s="47"/>
+      <c r="G677" s="49"/>
+      <c r="H677" s="50"/>
+      <c r="K677" s="48"/>
     </row>
     <row r="678">
-      <c r="G678" s="48"/>
-      <c r="H678" s="49"/>
-      <c r="K678" s="47"/>
+      <c r="G678" s="49"/>
+      <c r="H678" s="50"/>
+      <c r="K678" s="48"/>
     </row>
     <row r="679">
-      <c r="G679" s="48"/>
-      <c r="H679" s="49"/>
-      <c r="K679" s="47"/>
+      <c r="G679" s="49"/>
+      <c r="H679" s="50"/>
+      <c r="K679" s="48"/>
     </row>
     <row r="680">
-      <c r="G680" s="48"/>
-      <c r="H680" s="49"/>
-      <c r="K680" s="47"/>
+      <c r="G680" s="49"/>
+      <c r="H680" s="50"/>
+      <c r="K680" s="48"/>
     </row>
     <row r="681">
-      <c r="G681" s="48"/>
-      <c r="H681" s="49"/>
-      <c r="K681" s="47"/>
+      <c r="G681" s="49"/>
+      <c r="H681" s="50"/>
+      <c r="K681" s="48"/>
     </row>
     <row r="682">
-      <c r="G682" s="48"/>
-      <c r="H682" s="49"/>
-      <c r="K682" s="47"/>
+      <c r="G682" s="49"/>
+      <c r="H682" s="50"/>
+      <c r="K682" s="48"/>
     </row>
     <row r="683">
-      <c r="G683" s="48"/>
-      <c r="H683" s="49"/>
-      <c r="K683" s="47"/>
+      <c r="G683" s="49"/>
+      <c r="H683" s="50"/>
+      <c r="K683" s="48"/>
     </row>
     <row r="684">
-      <c r="G684" s="48"/>
-      <c r="H684" s="49"/>
-      <c r="K684" s="47"/>
+      <c r="G684" s="49"/>
+      <c r="H684" s="50"/>
+      <c r="K684" s="48"/>
     </row>
     <row r="685">
-      <c r="G685" s="48"/>
-      <c r="H685" s="49"/>
-      <c r="K685" s="47"/>
+      <c r="G685" s="49"/>
+      <c r="H685" s="50"/>
+      <c r="K685" s="48"/>
     </row>
     <row r="686">
-      <c r="G686" s="48"/>
-      <c r="H686" s="49"/>
-      <c r="K686" s="47"/>
+      <c r="G686" s="49"/>
+      <c r="H686" s="50"/>
+      <c r="K686" s="48"/>
     </row>
     <row r="687">
-      <c r="G687" s="48"/>
-      <c r="H687" s="49"/>
-      <c r="K687" s="47"/>
+      <c r="G687" s="49"/>
+      <c r="H687" s="50"/>
+      <c r="K687" s="48"/>
     </row>
     <row r="688">
-      <c r="G688" s="48"/>
-      <c r="H688" s="49"/>
-      <c r="K688" s="47"/>
+      <c r="G688" s="49"/>
+      <c r="H688" s="50"/>
+      <c r="K688" s="48"/>
     </row>
     <row r="689">
-      <c r="G689" s="48"/>
-      <c r="H689" s="49"/>
-      <c r="K689" s="47"/>
+      <c r="G689" s="49"/>
+      <c r="H689" s="50"/>
+      <c r="K689" s="48"/>
     </row>
     <row r="690">
-      <c r="G690" s="48"/>
-      <c r="H690" s="49"/>
-      <c r="K690" s="47"/>
+      <c r="G690" s="49"/>
+      <c r="H690" s="50"/>
+      <c r="K690" s="48"/>
     </row>
     <row r="691">
-      <c r="G691" s="48"/>
-      <c r="H691" s="49"/>
-      <c r="K691" s="47"/>
+      <c r="G691" s="49"/>
+      <c r="H691" s="50"/>
+      <c r="K691" s="48"/>
     </row>
     <row r="692">
-      <c r="G692" s="48"/>
-      <c r="H692" s="49"/>
-      <c r="K692" s="47"/>
+      <c r="G692" s="49"/>
+      <c r="H692" s="50"/>
+      <c r="K692" s="48"/>
     </row>
     <row r="693">
-      <c r="G693" s="48"/>
-      <c r="H693" s="49"/>
-      <c r="K693" s="47"/>
+      <c r="G693" s="49"/>
+      <c r="H693" s="50"/>
+      <c r="K693" s="48"/>
     </row>
     <row r="694">
-      <c r="G694" s="48"/>
-      <c r="H694" s="49"/>
-      <c r="K694" s="47"/>
+      <c r="G694" s="49"/>
+      <c r="H694" s="50"/>
+      <c r="K694" s="48"/>
     </row>
     <row r="695">
-      <c r="G695" s="48"/>
-      <c r="H695" s="49"/>
-      <c r="K695" s="47"/>
+      <c r="G695" s="49"/>
+      <c r="H695" s="50"/>
+      <c r="K695" s="48"/>
     </row>
     <row r="696">
-      <c r="G696" s="48"/>
-      <c r="H696" s="49"/>
-      <c r="K696" s="47"/>
+      <c r="G696" s="49"/>
+      <c r="H696" s="50"/>
+      <c r="K696" s="48"/>
     </row>
     <row r="697">
-      <c r="G697" s="48"/>
-      <c r="H697" s="49"/>
-      <c r="K697" s="47"/>
+      <c r="G697" s="49"/>
+      <c r="H697" s="50"/>
+      <c r="K697" s="48"/>
     </row>
     <row r="698">
-      <c r="G698" s="48"/>
-      <c r="H698" s="49"/>
-      <c r="K698" s="47"/>
+      <c r="G698" s="49"/>
+      <c r="H698" s="50"/>
+      <c r="K698" s="48"/>
     </row>
     <row r="699">
-      <c r="G699" s="48"/>
-      <c r="H699" s="49"/>
-      <c r="K699" s="47"/>
+      <c r="G699" s="49"/>
+      <c r="H699" s="50"/>
+      <c r="K699" s="48"/>
     </row>
     <row r="700">
-      <c r="G700" s="48"/>
-      <c r="H700" s="49"/>
-      <c r="K700" s="47"/>
+      <c r="G700" s="49"/>
+      <c r="H700" s="50"/>
+      <c r="K700" s="48"/>
     </row>
     <row r="701">
-      <c r="G701" s="48"/>
-      <c r="H701" s="49"/>
-      <c r="K701" s="47"/>
+      <c r="G701" s="49"/>
+      <c r="H701" s="50"/>
+      <c r="K701" s="48"/>
     </row>
     <row r="702">
-      <c r="G702" s="48"/>
-      <c r="H702" s="49"/>
-      <c r="K702" s="47"/>
+      <c r="G702" s="49"/>
+      <c r="H702" s="50"/>
+      <c r="K702" s="48"/>
     </row>
     <row r="703">
-      <c r="G703" s="48"/>
-      <c r="H703" s="49"/>
-      <c r="K703" s="47"/>
+      <c r="G703" s="49"/>
+      <c r="H703" s="50"/>
+      <c r="K703" s="48"/>
     </row>
     <row r="704">
-      <c r="G704" s="48"/>
-      <c r="H704" s="49"/>
-      <c r="K704" s="47"/>
+      <c r="G704" s="49"/>
+      <c r="H704" s="50"/>
+      <c r="K704" s="48"/>
     </row>
     <row r="705">
-      <c r="G705" s="48"/>
-      <c r="H705" s="49"/>
-      <c r="K705" s="47"/>
+      <c r="G705" s="49"/>
+      <c r="H705" s="50"/>
+      <c r="K705" s="48"/>
     </row>
     <row r="706">
-      <c r="G706" s="48"/>
-      <c r="H706" s="49"/>
-      <c r="K706" s="47"/>
+      <c r="G706" s="49"/>
+      <c r="H706" s="50"/>
+      <c r="K706" s="48"/>
     </row>
     <row r="707">
-      <c r="G707" s="48"/>
-      <c r="H707" s="49"/>
-      <c r="K707" s="47"/>
+      <c r="G707" s="49"/>
+      <c r="H707" s="50"/>
+      <c r="K707" s="48"/>
     </row>
     <row r="708">
-      <c r="G708" s="48"/>
-      <c r="H708" s="49"/>
-      <c r="K708" s="47"/>
+      <c r="G708" s="49"/>
+      <c r="H708" s="50"/>
+      <c r="K708" s="48"/>
     </row>
     <row r="709">
-      <c r="G709" s="48"/>
-      <c r="H709" s="49"/>
-      <c r="K709" s="47"/>
+      <c r="G709" s="49"/>
+      <c r="H709" s="50"/>
+      <c r="K709" s="48"/>
     </row>
     <row r="710">
-      <c r="G710" s="48"/>
-      <c r="H710" s="49"/>
-      <c r="K710" s="47"/>
+      <c r="G710" s="49"/>
+      <c r="H710" s="50"/>
+      <c r="K710" s="48"/>
     </row>
     <row r="711">
-      <c r="G711" s="48"/>
-      <c r="H711" s="49"/>
-      <c r="K711" s="47"/>
+      <c r="G711" s="49"/>
+      <c r="H711" s="50"/>
+      <c r="K711" s="48"/>
     </row>
     <row r="712">
-      <c r="G712" s="48"/>
-      <c r="H712" s="49"/>
-      <c r="K712" s="47"/>
+      <c r="G712" s="49"/>
+      <c r="H712" s="50"/>
+      <c r="K712" s="48"/>
     </row>
     <row r="713">
-      <c r="G713" s="48"/>
-      <c r="H713" s="49"/>
-      <c r="K713" s="47"/>
+      <c r="G713" s="49"/>
+      <c r="H713" s="50"/>
+      <c r="K713" s="48"/>
     </row>
     <row r="714">
-      <c r="G714" s="48"/>
-      <c r="H714" s="49"/>
-      <c r="K714" s="47"/>
+      <c r="G714" s="49"/>
+      <c r="H714" s="50"/>
+      <c r="K714" s="48"/>
     </row>
     <row r="715">
-      <c r="G715" s="48"/>
-      <c r="H715" s="49"/>
-      <c r="K715" s="47"/>
+      <c r="G715" s="49"/>
+      <c r="H715" s="50"/>
+      <c r="K715" s="48"/>
     </row>
     <row r="716">
-      <c r="G716" s="48"/>
-      <c r="H716" s="49"/>
-      <c r="K716" s="47"/>
+      <c r="G716" s="49"/>
+      <c r="H716" s="50"/>
+      <c r="K716" s="48"/>
     </row>
     <row r="717">
-      <c r="G717" s="48"/>
-      <c r="H717" s="49"/>
-      <c r="K717" s="47"/>
+      <c r="G717" s="49"/>
+      <c r="H717" s="50"/>
+      <c r="K717" s="48"/>
     </row>
     <row r="718">
-      <c r="G718" s="48"/>
-      <c r="H718" s="49"/>
-      <c r="K718" s="47"/>
+      <c r="G718" s="49"/>
+      <c r="H718" s="50"/>
+      <c r="K718" s="48"/>
     </row>
     <row r="719">
-      <c r="G719" s="48"/>
-      <c r="H719" s="49"/>
-      <c r="K719" s="47"/>
+      <c r="G719" s="49"/>
+      <c r="H719" s="50"/>
+      <c r="K719" s="48"/>
     </row>
     <row r="720">
-      <c r="G720" s="48"/>
-      <c r="H720" s="49"/>
-      <c r="K720" s="47"/>
+      <c r="G720" s="49"/>
+      <c r="H720" s="50"/>
+      <c r="K720" s="48"/>
     </row>
     <row r="721">
-      <c r="G721" s="48"/>
-      <c r="H721" s="49"/>
-      <c r="K721" s="47"/>
+      <c r="G721" s="49"/>
+      <c r="H721" s="50"/>
+      <c r="K721" s="48"/>
     </row>
     <row r="722">
-      <c r="G722" s="48"/>
-      <c r="H722" s="49"/>
-      <c r="K722" s="47"/>
+      <c r="G722" s="49"/>
+      <c r="H722" s="50"/>
+      <c r="K722" s="48"/>
     </row>
     <row r="723">
-      <c r="G723" s="48"/>
-      <c r="H723" s="49"/>
-      <c r="K723" s="47"/>
+      <c r="G723" s="49"/>
+      <c r="H723" s="50"/>
+      <c r="K723" s="48"/>
     </row>
     <row r="724">
-      <c r="G724" s="48"/>
-      <c r="H724" s="49"/>
-      <c r="K724" s="47"/>
+      <c r="G724" s="49"/>
+      <c r="H724" s="50"/>
+      <c r="K724" s="48"/>
     </row>
     <row r="725">
-      <c r="G725" s="48"/>
-      <c r="H725" s="49"/>
-      <c r="K725" s="47"/>
+      <c r="G725" s="49"/>
+      <c r="H725" s="50"/>
+      <c r="K725" s="48"/>
     </row>
     <row r="726">
-      <c r="G726" s="48"/>
-      <c r="H726" s="49"/>
-      <c r="K726" s="47"/>
+      <c r="G726" s="49"/>
+      <c r="H726" s="50"/>
+      <c r="K726" s="48"/>
     </row>
     <row r="727">
-      <c r="G727" s="48"/>
-      <c r="H727" s="49"/>
-      <c r="K727" s="47"/>
+      <c r="G727" s="49"/>
+      <c r="H727" s="50"/>
+      <c r="K727" s="48"/>
     </row>
     <row r="728">
-      <c r="G728" s="48"/>
-      <c r="H728" s="49"/>
-      <c r="K728" s="47"/>
+      <c r="G728" s="49"/>
+      <c r="H728" s="50"/>
+      <c r="K728" s="48"/>
     </row>
     <row r="729">
-      <c r="G729" s="48"/>
-      <c r="H729" s="49"/>
-      <c r="K729" s="47"/>
+      <c r="G729" s="49"/>
+      <c r="H729" s="50"/>
+      <c r="K729" s="48"/>
     </row>
     <row r="730">
-      <c r="G730" s="48"/>
-      <c r="H730" s="49"/>
-      <c r="K730" s="47"/>
+      <c r="G730" s="49"/>
+      <c r="H730" s="50"/>
+      <c r="K730" s="48"/>
     </row>
     <row r="731">
-      <c r="G731" s="48"/>
-      <c r="H731" s="49"/>
-      <c r="K731" s="47"/>
+      <c r="G731" s="49"/>
+      <c r="H731" s="50"/>
+      <c r="K731" s="48"/>
     </row>
     <row r="732">
-      <c r="G732" s="48"/>
-      <c r="H732" s="49"/>
-      <c r="K732" s="47"/>
+      <c r="G732" s="49"/>
+      <c r="H732" s="50"/>
+      <c r="K732" s="48"/>
     </row>
     <row r="733">
-      <c r="G733" s="48"/>
-      <c r="H733" s="49"/>
-      <c r="K733" s="47"/>
+      <c r="G733" s="49"/>
+      <c r="H733" s="50"/>
+      <c r="K733" s="48"/>
     </row>
     <row r="734">
-      <c r="G734" s="48"/>
-      <c r="H734" s="49"/>
-      <c r="K734" s="47"/>
+      <c r="G734" s="49"/>
+      <c r="H734" s="50"/>
+      <c r="K734" s="48"/>
     </row>
     <row r="735">
-      <c r="G735" s="48"/>
-      <c r="H735" s="49"/>
-      <c r="K735" s="47"/>
+      <c r="G735" s="49"/>
+      <c r="H735" s="50"/>
+      <c r="K735" s="48"/>
     </row>
     <row r="736">
-      <c r="G736" s="48"/>
-      <c r="H736" s="49"/>
-      <c r="K736" s="47"/>
+      <c r="G736" s="49"/>
+      <c r="H736" s="50"/>
+      <c r="K736" s="48"/>
     </row>
     <row r="737">
-      <c r="G737" s="48"/>
-      <c r="H737" s="49"/>
-      <c r="K737" s="47"/>
+      <c r="G737" s="49"/>
+      <c r="H737" s="50"/>
+      <c r="K737" s="48"/>
     </row>
     <row r="738">
-      <c r="G738" s="48"/>
-      <c r="H738" s="49"/>
-      <c r="K738" s="47"/>
+      <c r="G738" s="49"/>
+      <c r="H738" s="50"/>
+      <c r="K738" s="48"/>
     </row>
     <row r="739">
-      <c r="G739" s="48"/>
-      <c r="H739" s="49"/>
-      <c r="K739" s="47"/>
+      <c r="G739" s="49"/>
+      <c r="H739" s="50"/>
+      <c r="K739" s="48"/>
     </row>
     <row r="740">
-      <c r="G740" s="48"/>
-      <c r="H740" s="49"/>
-      <c r="K740" s="47"/>
+      <c r="G740" s="49"/>
+      <c r="H740" s="50"/>
+      <c r="K740" s="48"/>
     </row>
     <row r="741">
-      <c r="G741" s="48"/>
-      <c r="H741" s="49"/>
-      <c r="K741" s="47"/>
+      <c r="G741" s="49"/>
+      <c r="H741" s="50"/>
+      <c r="K741" s="48"/>
     </row>
     <row r="742">
-      <c r="G742" s="48"/>
-      <c r="H742" s="49"/>
-      <c r="K742" s="47"/>
+      <c r="G742" s="49"/>
+      <c r="H742" s="50"/>
+      <c r="K742" s="48"/>
     </row>
     <row r="743">
-      <c r="G743" s="48"/>
-      <c r="H743" s="49"/>
-      <c r="K743" s="47"/>
+      <c r="G743" s="49"/>
+      <c r="H743" s="50"/>
+      <c r="K743" s="48"/>
     </row>
     <row r="744">
-      <c r="G744" s="48"/>
-      <c r="H744" s="49"/>
-      <c r="K744" s="47"/>
+      <c r="G744" s="49"/>
+      <c r="H744" s="50"/>
+      <c r="K744" s="48"/>
     </row>
     <row r="745">
-      <c r="G745" s="48"/>
-      <c r="H745" s="49"/>
-      <c r="K745" s="47"/>
+      <c r="G745" s="49"/>
+      <c r="H745" s="50"/>
+      <c r="K745" s="48"/>
     </row>
     <row r="746">
-      <c r="G746" s="48"/>
-      <c r="H746" s="49"/>
-      <c r="K746" s="47"/>
+      <c r="G746" s="49"/>
+      <c r="H746" s="50"/>
+      <c r="K746" s="48"/>
     </row>
     <row r="747">
-      <c r="G747" s="48"/>
-      <c r="H747" s="49"/>
-      <c r="K747" s="47"/>
+      <c r="G747" s="49"/>
+      <c r="H747" s="50"/>
+      <c r="K747" s="48"/>
     </row>
     <row r="748">
-      <c r="G748" s="48"/>
-      <c r="H748" s="49"/>
-      <c r="K748" s="47"/>
+      <c r="G748" s="49"/>
+      <c r="H748" s="50"/>
+      <c r="K748" s="48"/>
     </row>
     <row r="749">
-      <c r="G749" s="48"/>
-      <c r="H749" s="49"/>
-      <c r="K749" s="47"/>
+      <c r="G749" s="49"/>
+      <c r="H749" s="50"/>
+      <c r="K749" s="48"/>
     </row>
     <row r="750">
-      <c r="G750" s="48"/>
-      <c r="H750" s="49"/>
-      <c r="K750" s="47"/>
+      <c r="G750" s="49"/>
+      <c r="H750" s="50"/>
+      <c r="K750" s="48"/>
     </row>
     <row r="751">
-      <c r="G751" s="48"/>
-      <c r="H751" s="49"/>
-      <c r="K751" s="47"/>
+      <c r="G751" s="49"/>
+      <c r="H751" s="50"/>
+      <c r="K751" s="48"/>
     </row>
     <row r="752">
-      <c r="G752" s="48"/>
-      <c r="H752" s="49"/>
-      <c r="K752" s="47"/>
+      <c r="G752" s="49"/>
+      <c r="H752" s="50"/>
+      <c r="K752" s="48"/>
     </row>
     <row r="753">
-      <c r="G753" s="48"/>
-      <c r="H753" s="49"/>
-      <c r="K753" s="47"/>
+      <c r="G753" s="49"/>
+      <c r="H753" s="50"/>
+      <c r="K753" s="48"/>
     </row>
     <row r="754">
-      <c r="G754" s="48"/>
-      <c r="H754" s="49"/>
-      <c r="K754" s="47"/>
+      <c r="G754" s="49"/>
+      <c r="H754" s="50"/>
+      <c r="K754" s="48"/>
     </row>
     <row r="755">
-      <c r="G755" s="48"/>
-      <c r="H755" s="49"/>
-      <c r="K755" s="47"/>
+      <c r="G755" s="49"/>
+      <c r="H755" s="50"/>
+      <c r="K755" s="48"/>
     </row>
     <row r="756">
-      <c r="G756" s="48"/>
-      <c r="H756" s="49"/>
-      <c r="K756" s="47"/>
+      <c r="G756" s="49"/>
+      <c r="H756" s="50"/>
+      <c r="K756" s="48"/>
     </row>
     <row r="757">
-      <c r="G757" s="48"/>
-      <c r="H757" s="49"/>
-      <c r="K757" s="47"/>
+      <c r="G757" s="49"/>
+      <c r="H757" s="50"/>
+      <c r="K757" s="48"/>
     </row>
     <row r="758">
-      <c r="G758" s="48"/>
-      <c r="H758" s="49"/>
-      <c r="K758" s="47"/>
+      <c r="G758" s="49"/>
+      <c r="H758" s="50"/>
+      <c r="K758" s="48"/>
     </row>
     <row r="759">
-      <c r="G759" s="48"/>
-      <c r="H759" s="49"/>
-      <c r="K759" s="47"/>
+      <c r="G759" s="49"/>
+      <c r="H759" s="50"/>
+      <c r="K759" s="48"/>
     </row>
     <row r="760">
-      <c r="G760" s="48"/>
-      <c r="H760" s="49"/>
-      <c r="K760" s="47"/>
+      <c r="G760" s="49"/>
+      <c r="H760" s="50"/>
+      <c r="K760" s="48"/>
     </row>
     <row r="761">
-      <c r="G761" s="48"/>
-      <c r="H761" s="49"/>
-      <c r="K761" s="47"/>
+      <c r="G761" s="49"/>
+      <c r="H761" s="50"/>
+      <c r="K761" s="48"/>
     </row>
     <row r="762">
-      <c r="G762" s="48"/>
-      <c r="H762" s="49"/>
-      <c r="K762" s="47"/>
+      <c r="G762" s="49"/>
+      <c r="H762" s="50"/>
+      <c r="K762" s="48"/>
     </row>
     <row r="763">
-      <c r="G763" s="48"/>
-      <c r="H763" s="49"/>
-      <c r="K763" s="47"/>
+      <c r="G763" s="49"/>
+      <c r="H763" s="50"/>
+      <c r="K763" s="48"/>
     </row>
     <row r="764">
-      <c r="G764" s="48"/>
-      <c r="H764" s="49"/>
-      <c r="K764" s="47"/>
+      <c r="G764" s="49"/>
+      <c r="H764" s="50"/>
+      <c r="K764" s="48"/>
     </row>
     <row r="765">
-      <c r="G765" s="48"/>
-      <c r="H765" s="49"/>
-      <c r="K765" s="47"/>
+      <c r="G765" s="49"/>
+      <c r="H765" s="50"/>
+      <c r="K765" s="48"/>
     </row>
     <row r="766">
-      <c r="G766" s="48"/>
-      <c r="H766" s="49"/>
-      <c r="K766" s="47"/>
+      <c r="G766" s="49"/>
+      <c r="H766" s="50"/>
+      <c r="K766" s="48"/>
     </row>
     <row r="767">
-      <c r="G767" s="48"/>
-      <c r="H767" s="49"/>
-      <c r="K767" s="47"/>
+      <c r="G767" s="49"/>
+      <c r="H767" s="50"/>
+      <c r="K767" s="48"/>
     </row>
     <row r="768">
-      <c r="G768" s="48"/>
-      <c r="H768" s="49"/>
-      <c r="K768" s="47"/>
+      <c r="G768" s="49"/>
+      <c r="H768" s="50"/>
+      <c r="K768" s="48"/>
     </row>
     <row r="769">
-      <c r="G769" s="48"/>
-      <c r="H769" s="49"/>
-      <c r="K769" s="47"/>
+      <c r="G769" s="49"/>
+      <c r="H769" s="50"/>
+      <c r="K769" s="48"/>
     </row>
     <row r="770">
-      <c r="G770" s="48"/>
-      <c r="H770" s="49"/>
-      <c r="K770" s="47"/>
+      <c r="G770" s="49"/>
+      <c r="H770" s="50"/>
+      <c r="K770" s="48"/>
     </row>
     <row r="771">
-      <c r="G771" s="48"/>
-      <c r="H771" s="49"/>
-      <c r="K771" s="47"/>
+      <c r="G771" s="49"/>
+      <c r="H771" s="50"/>
+      <c r="K771" s="48"/>
     </row>
     <row r="772">
-      <c r="G772" s="48"/>
-      <c r="H772" s="49"/>
-      <c r="K772" s="47"/>
+      <c r="G772" s="49"/>
+      <c r="H772" s="50"/>
+      <c r="K772" s="48"/>
     </row>
     <row r="773">
-      <c r="G773" s="48"/>
-      <c r="H773" s="49"/>
-      <c r="K773" s="47"/>
+      <c r="G773" s="49"/>
+      <c r="H773" s="50"/>
+      <c r="K773" s="48"/>
     </row>
     <row r="774">
-      <c r="G774" s="48"/>
-      <c r="H774" s="49"/>
-      <c r="K774" s="47"/>
+      <c r="G774" s="49"/>
+      <c r="H774" s="50"/>
+      <c r="K774" s="48"/>
     </row>
     <row r="775">
-      <c r="G775" s="48"/>
-      <c r="H775" s="49"/>
-      <c r="K775" s="47"/>
+      <c r="G775" s="49"/>
+      <c r="H775" s="50"/>
+      <c r="K775" s="48"/>
     </row>
     <row r="776">
-      <c r="G776" s="48"/>
-      <c r="H776" s="49"/>
-      <c r="K776" s="47"/>
+      <c r="G776" s="49"/>
+      <c r="H776" s="50"/>
+      <c r="K776" s="48"/>
     </row>
     <row r="777">
-      <c r="G777" s="48"/>
-      <c r="H777" s="49"/>
-      <c r="K777" s="47"/>
+      <c r="G777" s="49"/>
+      <c r="H777" s="50"/>
+      <c r="K777" s="48"/>
     </row>
     <row r="778">
-      <c r="G778" s="48"/>
-      <c r="H778" s="49"/>
-      <c r="K778" s="47"/>
+      <c r="G778" s="49"/>
+      <c r="H778" s="50"/>
+      <c r="K778" s="48"/>
     </row>
     <row r="779">
-      <c r="G779" s="48"/>
-      <c r="H779" s="49"/>
-      <c r="K779" s="47"/>
+      <c r="G779" s="49"/>
+      <c r="H779" s="50"/>
+      <c r="K779" s="48"/>
     </row>
     <row r="780">
-      <c r="G780" s="48"/>
-      <c r="H780" s="49"/>
-      <c r="K780" s="47"/>
+      <c r="G780" s="49"/>
+      <c r="H780" s="50"/>
+      <c r="K780" s="48"/>
     </row>
     <row r="781">
-      <c r="G781" s="48"/>
-      <c r="H781" s="49"/>
-      <c r="K781" s="47"/>
+      <c r="G781" s="49"/>
+      <c r="H781" s="50"/>
+      <c r="K781" s="48"/>
     </row>
     <row r="782">
-      <c r="G782" s="48"/>
-      <c r="H782" s="49"/>
-      <c r="K782" s="47"/>
+      <c r="G782" s="49"/>
+      <c r="H782" s="50"/>
+      <c r="K782" s="48"/>
     </row>
     <row r="783">
-      <c r="G783" s="48"/>
-      <c r="H783" s="49"/>
-      <c r="K783" s="47"/>
+      <c r="G783" s="49"/>
+      <c r="H783" s="50"/>
+      <c r="K783" s="48"/>
     </row>
     <row r="784">
-      <c r="G784" s="48"/>
-      <c r="H784" s="49"/>
-      <c r="K784" s="47"/>
+      <c r="G784" s="49"/>
+      <c r="H784" s="50"/>
+      <c r="K784" s="48"/>
     </row>
     <row r="785">
-      <c r="G785" s="48"/>
-      <c r="H785" s="49"/>
-      <c r="K785" s="47"/>
+      <c r="G785" s="49"/>
+      <c r="H785" s="50"/>
+      <c r="K785" s="48"/>
     </row>
     <row r="786">
-      <c r="G786" s="48"/>
-      <c r="H786" s="49"/>
-      <c r="K786" s="47"/>
+      <c r="G786" s="49"/>
+      <c r="H786" s="50"/>
+      <c r="K786" s="48"/>
     </row>
     <row r="787">
-      <c r="G787" s="48"/>
-      <c r="H787" s="49"/>
-      <c r="K787" s="47"/>
+      <c r="G787" s="49"/>
+      <c r="H787" s="50"/>
+      <c r="K787" s="48"/>
     </row>
     <row r="788">
-      <c r="G788" s="48"/>
-      <c r="H788" s="49"/>
-      <c r="K788" s="47"/>
+      <c r="G788" s="49"/>
+      <c r="H788" s="50"/>
+      <c r="K788" s="48"/>
     </row>
     <row r="789">
-      <c r="G789" s="48"/>
-      <c r="H789" s="49"/>
-      <c r="K789" s="47"/>
+      <c r="G789" s="49"/>
+      <c r="H789" s="50"/>
+      <c r="K789" s="48"/>
     </row>
     <row r="790">
-      <c r="G790" s="48"/>
-      <c r="H790" s="49"/>
-      <c r="K790" s="47"/>
+      <c r="G790" s="49"/>
+      <c r="H790" s="50"/>
+      <c r="K790" s="48"/>
     </row>
     <row r="791">
-      <c r="G791" s="48"/>
-      <c r="H791" s="49"/>
-      <c r="K791" s="47"/>
+      <c r="G791" s="49"/>
+      <c r="H791" s="50"/>
+      <c r="K791" s="48"/>
     </row>
     <row r="792">
-      <c r="G792" s="48"/>
-      <c r="H792" s="49"/>
-      <c r="K792" s="47"/>
+      <c r="G792" s="49"/>
+      <c r="H792" s="50"/>
+      <c r="K792" s="48"/>
     </row>
     <row r="793">
-      <c r="G793" s="48"/>
-      <c r="H793" s="49"/>
-      <c r="K793" s="47"/>
+      <c r="G793" s="49"/>
+      <c r="H793" s="50"/>
+      <c r="K793" s="48"/>
     </row>
     <row r="794">
-      <c r="G794" s="48"/>
-      <c r="H794" s="49"/>
-      <c r="K794" s="47"/>
+      <c r="G794" s="49"/>
+      <c r="H794" s="50"/>
+      <c r="K794" s="48"/>
     </row>
     <row r="795">
-      <c r="G795" s="48"/>
-      <c r="H795" s="49"/>
-      <c r="K795" s="47"/>
+      <c r="G795" s="49"/>
+      <c r="H795" s="50"/>
+      <c r="K795" s="48"/>
     </row>
     <row r="796">
-      <c r="G796" s="48"/>
-      <c r="H796" s="49"/>
-      <c r="K796" s="47"/>
+      <c r="G796" s="49"/>
+      <c r="H796" s="50"/>
+      <c r="K796" s="48"/>
     </row>
     <row r="797">
-      <c r="G797" s="48"/>
-      <c r="H797" s="49"/>
-      <c r="K797" s="47"/>
+      <c r="G797" s="49"/>
+      <c r="H797" s="50"/>
+      <c r="K797" s="48"/>
     </row>
     <row r="798">
-      <c r="G798" s="48"/>
-      <c r="H798" s="49"/>
-      <c r="K798" s="47"/>
+      <c r="G798" s="49"/>
+      <c r="H798" s="50"/>
+      <c r="K798" s="48"/>
     </row>
     <row r="799">
-      <c r="G799" s="48"/>
-      <c r="H799" s="49"/>
-      <c r="K799" s="47"/>
+      <c r="G799" s="49"/>
+      <c r="H799" s="50"/>
+      <c r="K799" s="48"/>
     </row>
     <row r="800">
-      <c r="G800" s="48"/>
-      <c r="H800" s="49"/>
-      <c r="K800" s="47"/>
+      <c r="G800" s="49"/>
+      <c r="H800" s="50"/>
+      <c r="K800" s="48"/>
     </row>
     <row r="801">
-      <c r="G801" s="48"/>
-      <c r="H801" s="49"/>
-      <c r="K801" s="47"/>
+      <c r="G801" s="49"/>
+      <c r="H801" s="50"/>
+      <c r="K801" s="48"/>
     </row>
     <row r="802">
-      <c r="G802" s="48"/>
-      <c r="H802" s="49"/>
-      <c r="K802" s="47"/>
+      <c r="G802" s="49"/>
+      <c r="H802" s="50"/>
+      <c r="K802" s="48"/>
     </row>
     <row r="803">
-      <c r="G803" s="48"/>
-      <c r="H803" s="49"/>
-      <c r="K803" s="47"/>
+      <c r="G803" s="49"/>
+      <c r="H803" s="50"/>
+      <c r="K803" s="48"/>
     </row>
     <row r="804">
-      <c r="G804" s="48"/>
-      <c r="H804" s="49"/>
-      <c r="K804" s="47"/>
+      <c r="G804" s="49"/>
+      <c r="H804" s="50"/>
+      <c r="K804" s="48"/>
     </row>
     <row r="805">
-      <c r="G805" s="48"/>
-      <c r="H805" s="49"/>
-      <c r="K805" s="47"/>
+      <c r="G805" s="49"/>
+      <c r="H805" s="50"/>
+      <c r="K805" s="48"/>
     </row>
     <row r="806">
-      <c r="G806" s="48"/>
-      <c r="H806" s="49"/>
-      <c r="K806" s="47"/>
+      <c r="G806" s="49"/>
+      <c r="H806" s="50"/>
+      <c r="K806" s="48"/>
     </row>
     <row r="807">
-      <c r="G807" s="48"/>
-      <c r="H807" s="49"/>
-      <c r="K807" s="47"/>
+      <c r="G807" s="49"/>
+      <c r="H807" s="50"/>
+      <c r="K807" s="48"/>
     </row>
     <row r="808">
-      <c r="G808" s="48"/>
-      <c r="H808" s="49"/>
-      <c r="K808" s="47"/>
+      <c r="G808" s="49"/>
+      <c r="H808" s="50"/>
+      <c r="K808" s="48"/>
     </row>
     <row r="809">
-      <c r="G809" s="48"/>
-      <c r="H809" s="49"/>
-      <c r="K809" s="47"/>
+      <c r="G809" s="49"/>
+      <c r="H809" s="50"/>
+      <c r="K809" s="48"/>
     </row>
     <row r="810">
-      <c r="G810" s="48"/>
-      <c r="H810" s="49"/>
-      <c r="K810" s="47"/>
+      <c r="G810" s="49"/>
+      <c r="H810" s="50"/>
+      <c r="K810" s="48"/>
     </row>
     <row r="811">
-      <c r="G811" s="48"/>
-      <c r="H811" s="49"/>
-      <c r="K811" s="47"/>
+      <c r="G811" s="49"/>
+      <c r="H811" s="50"/>
+      <c r="K811" s="48"/>
     </row>
     <row r="812">
-      <c r="G812" s="48"/>
-      <c r="H812" s="49"/>
-      <c r="K812" s="47"/>
+      <c r="G812" s="49"/>
+      <c r="H812" s="50"/>
+      <c r="K812" s="48"/>
     </row>
     <row r="813">
-      <c r="G813" s="48"/>
-      <c r="H813" s="49"/>
-      <c r="K813" s="47"/>
+      <c r="G813" s="49"/>
+      <c r="H813" s="50"/>
+      <c r="K813" s="48"/>
     </row>
     <row r="814">
-      <c r="G814" s="48"/>
-      <c r="H814" s="49"/>
-      <c r="K814" s="47"/>
+      <c r="G814" s="49"/>
+      <c r="H814" s="50"/>
+      <c r="K814" s="48"/>
     </row>
     <row r="815">
-      <c r="G815" s="48"/>
-      <c r="H815" s="49"/>
-      <c r="K815" s="47"/>
+      <c r="G815" s="49"/>
+      <c r="H815" s="50"/>
+      <c r="K815" s="48"/>
     </row>
     <row r="816">
-      <c r="G816" s="48"/>
-      <c r="H816" s="49"/>
-      <c r="K816" s="47"/>
+      <c r="G816" s="49"/>
+      <c r="H816" s="50"/>
+      <c r="K816" s="48"/>
     </row>
     <row r="817">
-      <c r="G817" s="48"/>
-      <c r="H817" s="49"/>
-      <c r="K817" s="47"/>
+      <c r="G817" s="49"/>
+      <c r="H817" s="50"/>
+      <c r="K817" s="48"/>
     </row>
     <row r="818">
-      <c r="G818" s="48"/>
-      <c r="H818" s="49"/>
-      <c r="K818" s="47"/>
+      <c r="G818" s="49"/>
+      <c r="H818" s="50"/>
+      <c r="K818" s="48"/>
     </row>
     <row r="819">
-      <c r="G819" s="48"/>
-      <c r="H819" s="49"/>
-      <c r="K819" s="47"/>
+      <c r="G819" s="49"/>
+      <c r="H819" s="50"/>
+      <c r="K819" s="48"/>
     </row>
     <row r="820">
-      <c r="G820" s="48"/>
-      <c r="H820" s="49"/>
-      <c r="K820" s="47"/>
+      <c r="G820" s="49"/>
+      <c r="H820" s="50"/>
+      <c r="K820" s="48"/>
     </row>
     <row r="821">
-      <c r="G821" s="48"/>
-      <c r="H821" s="49"/>
-      <c r="K821" s="47"/>
+      <c r="G821" s="49"/>
+      <c r="H821" s="50"/>
+      <c r="K821" s="48"/>
     </row>
     <row r="822">
-      <c r="G822" s="48"/>
-      <c r="H822" s="49"/>
-      <c r="K822" s="47"/>
+      <c r="G822" s="49"/>
+      <c r="H822" s="50"/>
+      <c r="K822" s="48"/>
     </row>
     <row r="823">
-      <c r="G823" s="48"/>
-      <c r="H823" s="49"/>
-      <c r="K823" s="47"/>
+      <c r="G823" s="49"/>
+      <c r="H823" s="50"/>
+      <c r="K823" s="48"/>
     </row>
     <row r="824">
-      <c r="G824" s="48"/>
-      <c r="H824" s="49"/>
-      <c r="K824" s="47"/>
+      <c r="G824" s="49"/>
+      <c r="H824" s="50"/>
+      <c r="K824" s="48"/>
     </row>
     <row r="825">
-      <c r="G825" s="48"/>
-      <c r="H825" s="49"/>
-      <c r="K825" s="47"/>
+      <c r="G825" s="49"/>
+      <c r="H825" s="50"/>
+      <c r="K825" s="48"/>
     </row>
     <row r="826">
-      <c r="G826" s="48"/>
-      <c r="H826" s="49"/>
-      <c r="K826" s="47"/>
+      <c r="G826" s="49"/>
+      <c r="H826" s="50"/>
+      <c r="K826" s="48"/>
     </row>
     <row r="827">
-      <c r="G827" s="48"/>
-      <c r="H827" s="49"/>
-      <c r="K827" s="47"/>
+      <c r="G827" s="49"/>
+      <c r="H827" s="50"/>
+      <c r="K827" s="48"/>
     </row>
     <row r="828">
-      <c r="G828" s="48"/>
-      <c r="H828" s="49"/>
-      <c r="K828" s="47"/>
+      <c r="G828" s="49"/>
+      <c r="H828" s="50"/>
+      <c r="K828" s="48"/>
     </row>
     <row r="829">
-      <c r="G829" s="48"/>
-      <c r="H829" s="49"/>
-      <c r="K829" s="47"/>
+      <c r="G829" s="49"/>
+      <c r="H829" s="50"/>
+      <c r="K829" s="48"/>
     </row>
     <row r="830">
-      <c r="G830" s="48"/>
-      <c r="H830" s="49"/>
-      <c r="K830" s="47"/>
+      <c r="G830" s="49"/>
+      <c r="H830" s="50"/>
+      <c r="K830" s="48"/>
     </row>
     <row r="831">
-      <c r="G831" s="48"/>
-      <c r="H831" s="49"/>
-      <c r="K831" s="47"/>
+      <c r="G831" s="49"/>
+      <c r="H831" s="50"/>
+      <c r="K831" s="48"/>
     </row>
     <row r="832">
-      <c r="G832" s="48"/>
-      <c r="H832" s="49"/>
-      <c r="K832" s="47"/>
+      <c r="G832" s="49"/>
+      <c r="H832" s="50"/>
+      <c r="K832" s="48"/>
     </row>
     <row r="833">
-      <c r="G833" s="48"/>
-      <c r="H833" s="49"/>
-      <c r="K833" s="47"/>
+      <c r="G833" s="49"/>
+      <c r="H833" s="50"/>
+      <c r="K833" s="48"/>
     </row>
     <row r="834">
-      <c r="G834" s="48"/>
-      <c r="H834" s="49"/>
-      <c r="K834" s="47"/>
+      <c r="G834" s="49"/>
+      <c r="H834" s="50"/>
+      <c r="K834" s="48"/>
     </row>
     <row r="835">
-      <c r="G835" s="48"/>
-      <c r="H835" s="49"/>
-      <c r="K835" s="47"/>
+      <c r="G835" s="49"/>
+      <c r="H835" s="50"/>
+      <c r="K835" s="48"/>
     </row>
     <row r="836">
-      <c r="G836" s="48"/>
-      <c r="H836" s="49"/>
-      <c r="K836" s="47"/>
+      <c r="G836" s="49"/>
+      <c r="H836" s="50"/>
+      <c r="K836" s="48"/>
     </row>
     <row r="837">
-      <c r="G837" s="48"/>
-      <c r="H837" s="49"/>
-      <c r="K837" s="47"/>
+      <c r="G837" s="49"/>
+      <c r="H837" s="50"/>
+      <c r="K837" s="48"/>
     </row>
     <row r="838">
-      <c r="G838" s="48"/>
-      <c r="H838" s="49"/>
-      <c r="K838" s="47"/>
+      <c r="G838" s="49"/>
+      <c r="H838" s="50"/>
+      <c r="K838" s="48"/>
     </row>
     <row r="839">
-      <c r="G839" s="48"/>
-      <c r="H839" s="49"/>
-      <c r="K839" s="47"/>
+      <c r="G839" s="49"/>
+      <c r="H839" s="50"/>
+      <c r="K839" s="48"/>
     </row>
     <row r="840">
-      <c r="G840" s="48"/>
-      <c r="H840" s="49"/>
-      <c r="K840" s="47"/>
+      <c r="G840" s="49"/>
+      <c r="H840" s="50"/>
+      <c r="K840" s="48"/>
     </row>
     <row r="841">
-      <c r="G841" s="48"/>
-      <c r="H841" s="49"/>
-      <c r="K841" s="47"/>
+      <c r="G841" s="49"/>
+      <c r="H841" s="50"/>
+      <c r="K841" s="48"/>
     </row>
     <row r="842">
-      <c r="G842" s="48"/>
-      <c r="H842" s="49"/>
-      <c r="K842" s="47"/>
+      <c r="G842" s="49"/>
+      <c r="H842" s="50"/>
+      <c r="K842" s="48"/>
     </row>
     <row r="843">
-      <c r="G843" s="48"/>
-      <c r="H843" s="49"/>
-      <c r="K843" s="47"/>
+      <c r="G843" s="49"/>
+      <c r="H843" s="50"/>
+      <c r="K843" s="48"/>
     </row>
     <row r="844">
-      <c r="G844" s="48"/>
-      <c r="H844" s="49"/>
-      <c r="K844" s="47"/>
+      <c r="G844" s="49"/>
+      <c r="H844" s="50"/>
+      <c r="K844" s="48"/>
     </row>
     <row r="845">
-      <c r="G845" s="48"/>
-      <c r="H845" s="49"/>
-      <c r="K845" s="47"/>
+      <c r="G845" s="49"/>
+      <c r="H845" s="50"/>
+      <c r="K845" s="48"/>
     </row>
     <row r="846">
-      <c r="G846" s="48"/>
-      <c r="H846" s="49"/>
-      <c r="K846" s="47"/>
+      <c r="G846" s="49"/>
+      <c r="H846" s="50"/>
+      <c r="K846" s="48"/>
     </row>
     <row r="847">
-      <c r="G847" s="48"/>
-      <c r="H847" s="49"/>
-      <c r="K847" s="47"/>
+      <c r="G847" s="49"/>
+      <c r="H847" s="50"/>
+      <c r="K847" s="48"/>
     </row>
     <row r="848">
-      <c r="G848" s="48"/>
-      <c r="H848" s="49"/>
-      <c r="K848" s="47"/>
+      <c r="G848" s="49"/>
+      <c r="H848" s="50"/>
+      <c r="K848" s="48"/>
     </row>
     <row r="849">
-      <c r="G849" s="48"/>
-      <c r="H849" s="49"/>
-      <c r="K849" s="47"/>
+      <c r="G849" s="49"/>
+      <c r="H849" s="50"/>
+      <c r="K849" s="48"/>
     </row>
     <row r="850">
-      <c r="G850" s="48"/>
-      <c r="H850" s="49"/>
-      <c r="K850" s="47"/>
+      <c r="G850" s="49"/>
+      <c r="H850" s="50"/>
+      <c r="K850" s="48"/>
     </row>
     <row r="851">
-      <c r="G851" s="48"/>
-      <c r="H851" s="49"/>
-      <c r="K851" s="47"/>
+      <c r="G851" s="49"/>
+      <c r="H851" s="50"/>
+      <c r="K851" s="48"/>
     </row>
     <row r="852">
-      <c r="G852" s="48"/>
-      <c r="H852" s="49"/>
-      <c r="K852" s="47"/>
+      <c r="G852" s="49"/>
+      <c r="H852" s="50"/>
+      <c r="K852" s="48"/>
     </row>
     <row r="853">
-      <c r="G853" s="48"/>
-      <c r="H853" s="49"/>
-      <c r="K853" s="47"/>
+      <c r="G853" s="49"/>
+      <c r="H853" s="50"/>
+      <c r="K853" s="48"/>
     </row>
     <row r="854">
-      <c r="G854" s="48"/>
-      <c r="H854" s="49"/>
-      <c r="K854" s="47"/>
+      <c r="G854" s="49"/>
+      <c r="H854" s="50"/>
+      <c r="K854" s="48"/>
     </row>
     <row r="855">
-      <c r="G855" s="48"/>
-      <c r="H855" s="49"/>
-      <c r="K855" s="47"/>
+      <c r="G855" s="49"/>
+      <c r="H855" s="50"/>
+      <c r="K855" s="48"/>
     </row>
     <row r="856">
-      <c r="G856" s="48"/>
-      <c r="H856" s="49"/>
-      <c r="K856" s="47"/>
+      <c r="G856" s="49"/>
+      <c r="H856" s="50"/>
+      <c r="K856" s="48"/>
     </row>
     <row r="857">
-      <c r="G857" s="48"/>
-      <c r="H857" s="49"/>
-      <c r="K857" s="47"/>
+      <c r="G857" s="49"/>
+      <c r="H857" s="50"/>
+      <c r="K857" s="48"/>
     </row>
     <row r="858">
-      <c r="G858" s="48"/>
-      <c r="H858" s="49"/>
-      <c r="K858" s="47"/>
+      <c r="G858" s="49"/>
+      <c r="H858" s="50"/>
+      <c r="K858" s="48"/>
     </row>
     <row r="859">
-      <c r="G859" s="48"/>
-      <c r="H859" s="49"/>
-      <c r="K859" s="47"/>
+      <c r="G859" s="49"/>
+      <c r="H859" s="50"/>
+      <c r="K859" s="48"/>
     </row>
     <row r="860">
-      <c r="G860" s="48"/>
-      <c r="H860" s="49"/>
-      <c r="K860" s="47"/>
+      <c r="G860" s="49"/>
+      <c r="H860" s="50"/>
+      <c r="K860" s="48"/>
     </row>
     <row r="861">
-      <c r="G861" s="48"/>
-      <c r="H861" s="49"/>
-      <c r="K861" s="47"/>
+      <c r="G861" s="49"/>
+      <c r="H861" s="50"/>
+      <c r="K861" s="48"/>
     </row>
     <row r="862">
-      <c r="G862" s="48"/>
-      <c r="H862" s="49"/>
-      <c r="K862" s="47"/>
+      <c r="G862" s="49"/>
+      <c r="H862" s="50"/>
+      <c r="K862" s="48"/>
     </row>
     <row r="863">
-      <c r="G863" s="48"/>
-      <c r="H863" s="49"/>
-      <c r="K863" s="47"/>
+      <c r="G863" s="49"/>
+      <c r="H863" s="50"/>
+      <c r="K863" s="48"/>
     </row>
     <row r="864">
-      <c r="G864" s="48"/>
-      <c r="H864" s="49"/>
-      <c r="K864" s="47"/>
+      <c r="G864" s="49"/>
+      <c r="H864" s="50"/>
+      <c r="K864" s="48"/>
     </row>
     <row r="865">
-      <c r="G865" s="48"/>
-      <c r="H865" s="49"/>
-      <c r="K865" s="47"/>
+      <c r="G865" s="49"/>
+      <c r="H865" s="50"/>
+      <c r="K865" s="48"/>
     </row>
     <row r="866">
-      <c r="G866" s="48"/>
-      <c r="H866" s="49"/>
-      <c r="K866" s="47"/>
+      <c r="G866" s="49"/>
+      <c r="H866" s="50"/>
+      <c r="K866" s="48"/>
     </row>
     <row r="867">
-      <c r="G867" s="48"/>
-      <c r="H867" s="49"/>
-      <c r="K867" s="47"/>
+      <c r="G867" s="49"/>
+      <c r="H867" s="50"/>
+      <c r="K867" s="48"/>
     </row>
     <row r="868">
-      <c r="G868" s="48"/>
-      <c r="H868" s="49"/>
-      <c r="K868" s="47"/>
+      <c r="G868" s="49"/>
+      <c r="H868" s="50"/>
+      <c r="K868" s="48"/>
     </row>
     <row r="869">
-      <c r="G869" s="48"/>
-      <c r="H869" s="49"/>
-      <c r="K869" s="47"/>
+      <c r="G869" s="49"/>
+      <c r="H869" s="50"/>
+      <c r="K869" s="48"/>
     </row>
     <row r="870">
-      <c r="G870" s="48"/>
-      <c r="H870" s="49"/>
-      <c r="K870" s="47"/>
+      <c r="G870" s="49"/>
+      <c r="H870" s="50"/>
+      <c r="K870" s="48"/>
     </row>
     <row r="871">
-      <c r="G871" s="48"/>
-      <c r="H871" s="49"/>
-      <c r="K871" s="47"/>
+      <c r="G871" s="49"/>
+      <c r="H871" s="50"/>
+      <c r="K871" s="48"/>
     </row>
     <row r="872">
-      <c r="G872" s="48"/>
-      <c r="H872" s="49"/>
-      <c r="K872" s="47"/>
+      <c r="G872" s="49"/>
+      <c r="H872" s="50"/>
+      <c r="K872" s="48"/>
     </row>
     <row r="873">
-      <c r="G873" s="48"/>
-      <c r="H873" s="49"/>
-      <c r="K873" s="47"/>
+      <c r="G873" s="49"/>
+      <c r="H873" s="50"/>
+      <c r="K873" s="48"/>
     </row>
     <row r="874">
-      <c r="G874" s="48"/>
-      <c r="H874" s="49"/>
-      <c r="K874" s="47"/>
+      <c r="G874" s="49"/>
+      <c r="H874" s="50"/>
+      <c r="K874" s="48"/>
     </row>
     <row r="875">
-      <c r="G875" s="48"/>
-      <c r="H875" s="49"/>
-      <c r="K875" s="47"/>
+      <c r="G875" s="49"/>
+      <c r="H875" s="50"/>
+      <c r="K875" s="48"/>
     </row>
     <row r="876">
-      <c r="G876" s="48"/>
-      <c r="H876" s="49"/>
-      <c r="K876" s="47"/>
+      <c r="G876" s="49"/>
+      <c r="H876" s="50"/>
+      <c r="K876" s="48"/>
     </row>
     <row r="877">
-      <c r="G877" s="48"/>
-      <c r="H877" s="49"/>
-      <c r="K877" s="47"/>
+      <c r="G877" s="49"/>
+      <c r="H877" s="50"/>
+      <c r="K877" s="48"/>
     </row>
     <row r="878">
-      <c r="G878" s="48"/>
-      <c r="H878" s="49"/>
-      <c r="K878" s="47"/>
+      <c r="G878" s="49"/>
+      <c r="H878" s="50"/>
+      <c r="K878" s="48"/>
     </row>
     <row r="879">
-      <c r="G879" s="48"/>
-      <c r="H879" s="49"/>
-      <c r="K879" s="47"/>
+      <c r="G879" s="49"/>
+      <c r="H879" s="50"/>
+      <c r="K879" s="48"/>
     </row>
     <row r="880">
-      <c r="G880" s="48"/>
-      <c r="H880" s="49"/>
-      <c r="K880" s="47"/>
+      <c r="G880" s="49"/>
+      <c r="H880" s="50"/>
+      <c r="K880" s="48"/>
     </row>
     <row r="881">
-      <c r="G881" s="48"/>
-      <c r="H881" s="49"/>
-      <c r="K881" s="47"/>
+      <c r="G881" s="49"/>
+      <c r="H881" s="50"/>
+      <c r="K881" s="48"/>
     </row>
     <row r="882">
-      <c r="G882" s="48"/>
-      <c r="H882" s="49"/>
-      <c r="K882" s="47"/>
+      <c r="G882" s="49"/>
+      <c r="H882" s="50"/>
+      <c r="K882" s="48"/>
     </row>
     <row r="883">
-      <c r="G883" s="48"/>
-      <c r="H883" s="49"/>
-      <c r="K883" s="47"/>
+      <c r="G883" s="49"/>
+      <c r="H883" s="50"/>
+      <c r="K883" s="48"/>
     </row>
     <row r="884">
-      <c r="G884" s="48"/>
-      <c r="H884" s="49"/>
-      <c r="K884" s="47"/>
+      <c r="G884" s="49"/>
+      <c r="H884" s="50"/>
+      <c r="K884" s="48"/>
     </row>
     <row r="885">
-      <c r="G885" s="48"/>
-      <c r="H885" s="49"/>
-      <c r="K885" s="47"/>
+      <c r="G885" s="49"/>
+      <c r="H885" s="50"/>
+      <c r="K885" s="48"/>
     </row>
     <row r="886">
-      <c r="G886" s="48"/>
-      <c r="H886" s="49"/>
-      <c r="K886" s="47"/>
+      <c r="G886" s="49"/>
+      <c r="H886" s="50"/>
+      <c r="K886" s="48"/>
     </row>
     <row r="887">
-      <c r="G887" s="48"/>
-      <c r="H887" s="49"/>
-      <c r="K887" s="47"/>
+      <c r="G887" s="49"/>
+      <c r="H887" s="50"/>
+      <c r="K887" s="48"/>
     </row>
     <row r="888">
-      <c r="G888" s="48"/>
-      <c r="H888" s="49"/>
-      <c r="K888" s="47"/>
+      <c r="G888" s="49"/>
+      <c r="H888" s="50"/>
+      <c r="K888" s="48"/>
     </row>
     <row r="889">
-      <c r="G889" s="48"/>
-      <c r="H889" s="49"/>
-      <c r="K889" s="47"/>
+      <c r="G889" s="49"/>
+      <c r="H889" s="50"/>
+      <c r="K889" s="48"/>
     </row>
     <row r="890">
-      <c r="G890" s="48"/>
-      <c r="H890" s="49"/>
-      <c r="K890" s="47"/>
+      <c r="G890" s="49"/>
+      <c r="H890" s="50"/>
+      <c r="K890" s="48"/>
     </row>
     <row r="891">
-      <c r="G891" s="48"/>
-      <c r="H891" s="49"/>
-      <c r="K891" s="47"/>
+      <c r="G891" s="49"/>
+      <c r="H891" s="50"/>
+      <c r="K891" s="48"/>
     </row>
     <row r="892">
-      <c r="G892" s="48"/>
-      <c r="H892" s="49"/>
-      <c r="K892" s="47"/>
+      <c r="G892" s="49"/>
+      <c r="H892" s="50"/>
+      <c r="K892" s="48"/>
     </row>
     <row r="893">
-      <c r="G893" s="48"/>
-      <c r="H893" s="49"/>
-      <c r="K893" s="47"/>
+      <c r="G893" s="49"/>
+      <c r="H893" s="50"/>
+      <c r="K893" s="48"/>
     </row>
     <row r="894">
-      <c r="G894" s="48"/>
-      <c r="H894" s="49"/>
-      <c r="K894" s="47"/>
+      <c r="G894" s="49"/>
+      <c r="H894" s="50"/>
+      <c r="K894" s="48"/>
     </row>
     <row r="895">
-      <c r="G895" s="48"/>
-      <c r="H895" s="49"/>
-      <c r="K895" s="47"/>
+      <c r="G895" s="49"/>
+      <c r="H895" s="50"/>
+      <c r="K895" s="48"/>
     </row>
     <row r="896">
-      <c r="G896" s="48"/>
-      <c r="H896" s="49"/>
-      <c r="K896" s="47"/>
+      <c r="G896" s="49"/>
+      <c r="H896" s="50"/>
+      <c r="K896" s="48"/>
     </row>
     <row r="897">
-      <c r="G897" s="48"/>
-      <c r="H897" s="49"/>
-      <c r="K897" s="47"/>
+      <c r="G897" s="49"/>
+      <c r="H897" s="50"/>
+      <c r="K897" s="48"/>
     </row>
     <row r="898">
-      <c r="G898" s="48"/>
-      <c r="H898" s="49"/>
-      <c r="K898" s="47"/>
+      <c r="G898" s="49"/>
+      <c r="H898" s="50"/>
+      <c r="K898" s="48"/>
     </row>
     <row r="899">
-      <c r="G899" s="48"/>
-      <c r="H899" s="49"/>
-      <c r="K899" s="47"/>
+      <c r="G899" s="49"/>
+      <c r="H899" s="50"/>
+      <c r="K899" s="48"/>
     </row>
     <row r="900">
-      <c r="G900" s="48"/>
-      <c r="H900" s="49"/>
-      <c r="K900" s="47"/>
+      <c r="G900" s="49"/>
+      <c r="H900" s="50"/>
+      <c r="K900" s="48"/>
     </row>
     <row r="901">
-      <c r="G901" s="48"/>
-      <c r="H901" s="49"/>
-      <c r="K901" s="47"/>
+      <c r="G901" s="49"/>
+      <c r="H901" s="50"/>
+      <c r="K901" s="48"/>
     </row>
     <row r="902">
-      <c r="G902" s="48"/>
-      <c r="H902" s="49"/>
-      <c r="K902" s="47"/>
+      <c r="G902" s="49"/>
+      <c r="H902" s="50"/>
+      <c r="K902" s="48"/>
     </row>
     <row r="903">
-      <c r="G903" s="48"/>
-      <c r="H903" s="49"/>
-      <c r="K903" s="47"/>
+      <c r="G903" s="49"/>
+      <c r="H903" s="50"/>
+      <c r="K903" s="48"/>
     </row>
     <row r="904">
-      <c r="G904" s="48"/>
-      <c r="H904" s="49"/>
-      <c r="K904" s="47"/>
+      <c r="G904" s="49"/>
+      <c r="H904" s="50"/>
+      <c r="K904" s="48"/>
     </row>
     <row r="905">
-      <c r="G905" s="48"/>
-      <c r="H905" s="49"/>
-      <c r="K905" s="47"/>
+      <c r="G905" s="49"/>
+      <c r="H905" s="50"/>
+      <c r="K905" s="48"/>
     </row>
     <row r="906">
-      <c r="G906" s="48"/>
-      <c r="H906" s="49"/>
-      <c r="K906" s="47"/>
+      <c r="G906" s="49"/>
+      <c r="H906" s="50"/>
+      <c r="K906" s="48"/>
     </row>
     <row r="907">
-      <c r="G907" s="48"/>
-      <c r="H907" s="49"/>
-      <c r="K907" s="47"/>
+      <c r="G907" s="49"/>
+      <c r="H907" s="50"/>
+      <c r="K907" s="48"/>
     </row>
     <row r="908">
-      <c r="G908" s="48"/>
-      <c r="H908" s="49"/>
-      <c r="K908" s="47"/>
+      <c r="G908" s="49"/>
+      <c r="H908" s="50"/>
+      <c r="K908" s="48"/>
     </row>
     <row r="909">
-      <c r="G909" s="48"/>
-      <c r="H909" s="49"/>
-      <c r="K909" s="47"/>
+      <c r="G909" s="49"/>
+      <c r="H909" s="50"/>
+      <c r="K909" s="48"/>
     </row>
     <row r="910">
-      <c r="G910" s="48"/>
-      <c r="H910" s="49"/>
-      <c r="K910" s="47"/>
+      <c r="G910" s="49"/>
+      <c r="H910" s="50"/>
+      <c r="K910" s="48"/>
     </row>
     <row r="911">
-      <c r="G911" s="48"/>
-      <c r="H911" s="49"/>
-      <c r="K911" s="47"/>
+      <c r="G911" s="49"/>
+      <c r="H911" s="50"/>
+      <c r="K911" s="48"/>
     </row>
     <row r="912">
-      <c r="G912" s="48"/>
-      <c r="H912" s="49"/>
-      <c r="K912" s="47"/>
+      <c r="G912" s="49"/>
+      <c r="H912" s="50"/>
+      <c r="K912" s="48"/>
     </row>
     <row r="913">
-      <c r="G913" s="48"/>
-      <c r="H913" s="49"/>
-      <c r="K913" s="47"/>
+      <c r="G913" s="49"/>
+      <c r="H913" s="50"/>
+      <c r="K913" s="48"/>
     </row>
     <row r="914">
-      <c r="G914" s="48"/>
-      <c r="H914" s="49"/>
-      <c r="K914" s="47"/>
+      <c r="G914" s="49"/>
+      <c r="H914" s="50"/>
+      <c r="K914" s="48"/>
     </row>
     <row r="915">
-      <c r="G915" s="48"/>
-      <c r="H915" s="49"/>
-      <c r="K915" s="47"/>
+      <c r="G915" s="49"/>
+      <c r="H915" s="50"/>
+      <c r="K915" s="48"/>
     </row>
     <row r="916">
-      <c r="G916" s="48"/>
-      <c r="H916" s="49"/>
-      <c r="K916" s="47"/>
+      <c r="G916" s="49"/>
+      <c r="H916" s="50"/>
+      <c r="K916" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -9910,168 +9913,168 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="33">
+      <c r="B1" s="34">
         <v>1.0</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="34">
         <v>2.0</v>
       </c>
-      <c r="D1" s="33">
+      <c r="D1" s="34">
         <v>3.0</v>
       </c>
-      <c r="E1" s="33">
+      <c r="E1" s="34">
         <v>4.0</v>
       </c>
-      <c r="F1" s="33">
+      <c r="F1" s="34">
         <v>5.0</v>
       </c>
-      <c r="G1" s="33">
+      <c r="G1" s="34">
         <v>6.0</v>
       </c>
-      <c r="H1" s="33">
+      <c r="H1" s="34">
         <v>7.0</v>
       </c>
-      <c r="I1" s="33">
+      <c r="I1" s="34">
         <v>8.0</v>
       </c>
-      <c r="J1" s="33">
+      <c r="J1" s="34">
         <v>9.0</v>
       </c>
-      <c r="K1" s="33">
+      <c r="K1" s="34">
         <v>10.0</v>
       </c>
-      <c r="L1" s="33">
+      <c r="L1" s="34">
         <v>11.0</v>
       </c>
-      <c r="M1" s="33">
+      <c r="M1" s="34">
         <v>12.0</v>
       </c>
       <c r="P1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" s="56" t="s">
+      <c r="I2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="58" t="s">
         <v>323</v>
       </c>
       <c r="P2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="P3" s="59" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="60" t="s">
         <v>345</v>
       </c>
     </row>
@@ -13082,28 +13085,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="63" t="s">
         <v>347</v>
       </c>
     </row>
@@ -13129,7 +13132,7 @@
       <c r="G2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="64" t="s">
         <v>348</v>
       </c>
     </row>
@@ -13155,7 +13158,7 @@
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13181,7 +13184,7 @@
       <c r="G4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="66" t="s">
         <v>349</v>
       </c>
     </row>
@@ -13293,16 +13296,16 @@
       <c r="A9" s="8">
         <v>57.0</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -13316,20 +13319,20 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="36">
+      <c r="A10" s="37">
         <v>141.0</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>221</v>
+      <c r="E10" s="45" t="s">
+        <v>220</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>17</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3430,12 +3430,12 @@
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Бойцов Иван Сергеевич")</f>
-        <v>Бойцов Иван Сергеевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Бойцов Иван Сергеевич")</f>
+        <v>Нужна замена Бойцов Иван Сергеевич</v>
       </c>
       <c r="O28" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="29">
@@ -3796,12 +3796,12 @@
         <v>173</v>
       </c>
       <c r="N37" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"")</f>
-        <v/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A37,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
+        <v>Левитан Дмитрий Анатольевич</v>
       </c>
       <c r="O37" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="38">
@@ -4038,12 +4038,12 @@
         <v>173</v>
       </c>
       <c r="N43" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Янина Полина Олеговна")</f>
-        <v>Янина Полина Олеговна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Янина Полина Олеговна")</f>
+        <v>Нужна замена Янина Полина Олеговна</v>
       </c>
       <c r="O43" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="44">
@@ -4154,16 +4154,16 @@
         <v>201</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="L46" s="10"/>
       <c r="N46" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Поддубная Светлана Мадхатовна")</f>
-        <v>Нужна замена Поддубная Светлана Мадхатовна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A46,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Алексеев Александр Станиславович")</f>
+        <v>Алексеев Александр Станиславович</v>
       </c>
       <c r="O46" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="47">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Пичуев Владислав Витальевич")</f>
-        <v>Пичуев Владислав Витальевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Пичуев Владислав Витальевич")</f>
+        <v>Нужна замена Пичуев Владислав Витальевич</v>
       </c>
       <c r="O54" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="55">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="349">
   <si>
     <t>Партнер</t>
   </si>
@@ -1078,7 +1078,7 @@
     <t>https://www.syrovarnya.com/catalog/tomsk?section=popular</t>
   </si>
   <si>
-    <t>Пичуев Владислав Витальевич</t>
+    <t>Баньщикова Мария Александровна</t>
   </si>
   <si>
     <t>Высота 5642 Сочи</t>
@@ -1108,13 +1108,13 @@
     <t>https://folk-rest.ru/</t>
   </si>
   <si>
-    <t>Medusa</t>
-  </si>
-  <si>
-    <t>г. Москва, Берсеневский переулок, 2, стр. 1</t>
-  </si>
-  <si>
-    <t>https://medusa.rest/?fa821dba_redirect</t>
+    <t xml:space="preserve">Магадан Белая Площадь </t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Бутырский Вал, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Левитан Дмитрий Анатольевич - может, оплата за отчет 2000 руб. за срочность </t>
   </si>
   <si>
     <t>NARNIA</t>
@@ -1178,9 +1178,6 @@
   </si>
   <si>
     <t>Магадан Белая Площадь</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Бутырский Вал, 10</t>
   </si>
   <si>
     <t>Магадан на Красной Пресне</t>
@@ -1773,7 +1770,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1889,6 +1886,17 @@
     </xf>
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2225,7 +2233,7 @@
     <col customWidth="1" min="10" max="10" width="23.63"/>
     <col customWidth="1" min="11" max="11" width="25.5"/>
     <col customWidth="1" min="12" max="12" width="61.25"/>
-    <col customWidth="1" min="14" max="14" width="25.75"/>
+    <col customWidth="1" min="14" max="14" width="35.88"/>
     <col customWidth="1" min="15" max="15" width="18.75"/>
   </cols>
   <sheetData>
@@ -3176,12 +3184,12 @@
         <v>113</v>
       </c>
       <c r="N22" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Меденцев Григорий Сергеевич")</f>
-        <v>Меденцев Григорий Сергеевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A22,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Анушкечич Дмитрий Сергеевич")</f>
+        <v>Анушкечич Дмитрий Сергеевич</v>
       </c>
       <c r="O22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>да</v>
+        <v>нет</v>
       </c>
     </row>
     <row r="23">
@@ -4486,12 +4494,12 @@
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Пичуев Владислав Витальевич")</f>
-        <v>Нужна замена Пичуев Владислав Витальевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A54,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Баньщикова Мария Александровна")</f>
+        <v>Баньщикова Мария Александровна</v>
       </c>
       <c r="O54" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="55">
@@ -4617,38 +4625,36 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8">
+      <c r="A58" s="40">
         <v>78.0</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="12" t="s">
+      <c r="H58" s="42"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="K58" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L58" s="10"/>
       <c r="N58" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич - ресторан закрыт, они переезжают ")</f>
         <v>Левитан Дмитрий Анатольевич - ресторан закрыт, они переезжают </v>
@@ -4917,7 +4923,7 @@
         <v>267</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E65" s="39" t="s">
         <v>16</v>
@@ -4954,10 +4960,10 @@
         <v>237</v>
       </c>
       <c r="C66" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D66" s="39" t="s">
         <v>269</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>270</v>
       </c>
       <c r="E66" s="39" t="s">
         <v>16</v>
@@ -4974,8 +4980,8 @@
       <c r="K66" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="L66" s="40" t="s">
-        <v>271</v>
+      <c r="L66" s="45" t="s">
+        <v>270</v>
       </c>
       <c r="N66" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -4990,16 +4996,16 @@
       <c r="A67" s="37">
         <v>38.0</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="46" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="19" t="s">
@@ -5011,7 +5017,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>102</v>
@@ -5030,17 +5036,17 @@
       <c r="A68" s="37">
         <v>5.0</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="E68" s="46" t="s">
         <v>276</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>277</v>
       </c>
       <c r="F68" s="19" t="s">
         <v>24</v>
@@ -5053,13 +5059,13 @@
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K68" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="K68" s="42" t="s">
+      <c r="L68" s="45" t="s">
         <v>279</v>
-      </c>
-      <c r="L68" s="40" t="s">
-        <v>280</v>
       </c>
       <c r="N68" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -5078,10 +5084,10 @@
         <v>237</v>
       </c>
       <c r="C69" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="39" t="s">
         <v>281</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>282</v>
       </c>
       <c r="E69" s="39" t="s">
         <v>220</v>
@@ -5095,7 +5101,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K69" s="19" t="s">
         <v>226</v>
@@ -5114,16 +5120,16 @@
       <c r="A70" s="8">
         <v>20.0</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="D70" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="D70" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -5137,13 +5143,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>102</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N70" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -5158,16 +5164,16 @@
       <c r="A71" s="8">
         <v>28.0</v>
       </c>
-      <c r="B71" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="C71" s="43" t="s">
+      <c r="B71" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D71" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -5180,16 +5186,16 @@
         <v>25</v>
       </c>
       <c r="I71" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>291</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>292</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N71" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -5204,16 +5210,16 @@
       <c r="A72" s="8">
         <v>29.0</v>
       </c>
-      <c r="B72" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" s="43" t="s">
+      <c r="B72" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D72" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -5226,16 +5232,16 @@
         <v>25</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N72" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A72,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -5250,16 +5256,16 @@
       <c r="A73" s="8">
         <v>57.0</v>
       </c>
-      <c r="B73" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="C73" s="43" t="s">
+      <c r="B73" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D73" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -5271,17 +5277,17 @@
       <c r="H73" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="44" t="s">
+      <c r="I73" s="49" t="s">
         <v>30</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>20</v>
       </c>
       <c r="L73" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N73" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A73,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -5296,16 +5302,16 @@
       <c r="A74" s="8">
         <v>76.0</v>
       </c>
-      <c r="B74" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" s="43" t="s">
+      <c r="B74" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D74" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="E74" s="43" t="s">
+      <c r="E74" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -5318,16 +5324,16 @@
         <v>25</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J74" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="K74" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="L74" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="L74" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="N74" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A74,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Михайлова Анна Витальевна")</f>
@@ -5342,17 +5348,17 @@
       <c r="A75" s="8">
         <v>82.0</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="C75" s="43" t="s">
+      <c r="B75" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="E75" s="48" t="s">
         <v>308</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>309</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>24</v>
@@ -5365,10 +5371,10 @@
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="K75" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="L75" s="10"/>
       <c r="N75" s="14" t="str">
@@ -5384,17 +5390,17 @@
       <c r="A76" s="8">
         <v>99.0</v>
       </c>
-      <c r="B76" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="D76" s="43" t="s">
+      <c r="B76" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" s="48" t="s">
         <v>312</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>313</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>24</v>
@@ -5406,16 +5412,16 @@
         <v>110</v>
       </c>
       <c r="I76" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="J76" s="28" t="s">
         <v>314</v>
-      </c>
-      <c r="J76" s="28" t="s">
-        <v>315</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>221</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N76" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5430,16 +5436,16 @@
       <c r="A77" s="37">
         <v>141.0</v>
       </c>
-      <c r="B77" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="E77" s="45" t="s">
+      <c r="B77" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="50" t="s">
         <v>220</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -5453,13 +5459,13 @@
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K77" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L77" s="46" t="s">
-        <v>319</v>
+      <c r="L77" s="51" t="s">
+        <v>318</v>
       </c>
       <c r="N77" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5474,17 +5480,17 @@
       <c r="A78" s="8">
         <v>119.0</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="C78" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>313</v>
+      <c r="D78" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="E78" s="48" t="s">
+        <v>312</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>24</v>
@@ -5497,13 +5503,13 @@
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>221</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N78" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5518,16 +5524,16 @@
       <c r="A79" s="8">
         <v>158.0</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="D79" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="D79" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="E79" s="47" t="s">
+      <c r="E79" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -5539,7 +5545,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>27</v>
@@ -5558,16 +5564,16 @@
       <c r="A80" s="8">
         <v>159.0</v>
       </c>
-      <c r="B80" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="C80" s="47" t="s">
+      <c r="B80" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="D80" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="D80" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -5581,7 +5587,7 @@
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>258</v>
@@ -5600,16 +5606,16 @@
       <c r="A81" s="8">
         <v>144.0</v>
       </c>
-      <c r="B81" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="C81" s="47" t="s">
+      <c r="B81" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="D81" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="D81" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="E81" s="47" t="s">
+      <c r="E81" s="52" t="s">
         <v>36</v>
       </c>
       <c r="F81" s="10" t="s">
@@ -5635,4184 +5641,4184 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="48"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="50"/>
-      <c r="K82" s="48"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="55"/>
+      <c r="K82" s="53"/>
     </row>
     <row r="83">
-      <c r="F83" s="48"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="50"/>
-      <c r="K83" s="48"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="55"/>
+      <c r="K83" s="53"/>
     </row>
     <row r="84">
-      <c r="F84" s="48"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="50"/>
-      <c r="K84" s="48"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="55"/>
+      <c r="K84" s="53"/>
     </row>
     <row r="85">
-      <c r="F85" s="48"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="50"/>
-      <c r="K85" s="48"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="55"/>
+      <c r="K85" s="53"/>
     </row>
     <row r="86">
-      <c r="F86" s="48"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="50"/>
-      <c r="K86" s="48"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="55"/>
+      <c r="K86" s="53"/>
     </row>
     <row r="87">
-      <c r="G87" s="49"/>
-      <c r="H87" s="50"/>
-      <c r="K87" s="48"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="55"/>
+      <c r="K87" s="53"/>
     </row>
     <row r="88">
-      <c r="G88" s="49"/>
-      <c r="H88" s="50"/>
-      <c r="K88" s="48"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="55"/>
+      <c r="K88" s="53"/>
     </row>
     <row r="89">
-      <c r="G89" s="49"/>
-      <c r="H89" s="50"/>
-      <c r="K89" s="48"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="55"/>
+      <c r="K89" s="53"/>
     </row>
     <row r="90">
-      <c r="G90" s="49"/>
-      <c r="H90" s="50"/>
-      <c r="K90" s="48"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="55"/>
+      <c r="K90" s="53"/>
     </row>
     <row r="91">
-      <c r="G91" s="49"/>
-      <c r="H91" s="50"/>
-      <c r="K91" s="48"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="55"/>
+      <c r="K91" s="53"/>
     </row>
     <row r="92">
-      <c r="G92" s="49"/>
-      <c r="H92" s="50"/>
-      <c r="K92" s="48"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="55"/>
+      <c r="K92" s="53"/>
     </row>
     <row r="93">
-      <c r="G93" s="49"/>
-      <c r="H93" s="50"/>
-      <c r="K93" s="48"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="55"/>
+      <c r="K93" s="53"/>
     </row>
     <row r="94">
-      <c r="G94" s="49"/>
-      <c r="H94" s="50"/>
-      <c r="K94" s="48"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="55"/>
+      <c r="K94" s="53"/>
     </row>
     <row r="95">
-      <c r="G95" s="49"/>
-      <c r="H95" s="50"/>
-      <c r="K95" s="48"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="55"/>
+      <c r="K95" s="53"/>
     </row>
     <row r="96">
-      <c r="G96" s="49"/>
-      <c r="H96" s="50"/>
-      <c r="K96" s="48"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="55"/>
+      <c r="K96" s="53"/>
     </row>
     <row r="97">
-      <c r="G97" s="49"/>
-      <c r="H97" s="50"/>
-      <c r="K97" s="48"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="55"/>
+      <c r="K97" s="53"/>
     </row>
     <row r="98">
-      <c r="G98" s="49"/>
-      <c r="H98" s="50"/>
-      <c r="K98" s="48"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="55"/>
+      <c r="K98" s="53"/>
     </row>
     <row r="99">
-      <c r="G99" s="49"/>
-      <c r="H99" s="50"/>
-      <c r="K99" s="48"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="55"/>
+      <c r="K99" s="53"/>
     </row>
     <row r="100">
-      <c r="G100" s="49"/>
-      <c r="H100" s="50"/>
-      <c r="K100" s="48"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="55"/>
+      <c r="K100" s="53"/>
     </row>
     <row r="101">
-      <c r="G101" s="49"/>
-      <c r="H101" s="50"/>
-      <c r="K101" s="48"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="55"/>
+      <c r="K101" s="53"/>
     </row>
     <row r="102">
-      <c r="G102" s="49"/>
-      <c r="H102" s="50"/>
-      <c r="K102" s="48"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="55"/>
+      <c r="K102" s="53"/>
     </row>
     <row r="103">
-      <c r="G103" s="49"/>
-      <c r="H103" s="50"/>
-      <c r="K103" s="48"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="55"/>
+      <c r="K103" s="53"/>
     </row>
     <row r="104">
-      <c r="G104" s="49"/>
-      <c r="H104" s="50"/>
-      <c r="K104" s="48"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="55"/>
+      <c r="K104" s="53"/>
     </row>
     <row r="105">
-      <c r="G105" s="49"/>
-      <c r="H105" s="50"/>
-      <c r="K105" s="48"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="55"/>
+      <c r="K105" s="53"/>
     </row>
     <row r="106">
-      <c r="G106" s="49"/>
-      <c r="H106" s="50"/>
-      <c r="K106" s="48"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="55"/>
+      <c r="K106" s="53"/>
     </row>
     <row r="107">
-      <c r="G107" s="49"/>
-      <c r="H107" s="50"/>
-      <c r="K107" s="48"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="55"/>
+      <c r="K107" s="53"/>
     </row>
     <row r="108">
-      <c r="G108" s="49"/>
-      <c r="H108" s="50"/>
-      <c r="K108" s="48"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="55"/>
+      <c r="K108" s="53"/>
     </row>
     <row r="109">
-      <c r="G109" s="49"/>
-      <c r="H109" s="50"/>
-      <c r="K109" s="48"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="55"/>
+      <c r="K109" s="53"/>
     </row>
     <row r="110">
-      <c r="G110" s="49"/>
-      <c r="H110" s="50"/>
-      <c r="K110" s="48"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="55"/>
+      <c r="K110" s="53"/>
     </row>
     <row r="111">
-      <c r="G111" s="49"/>
-      <c r="H111" s="50"/>
-      <c r="K111" s="48"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="55"/>
+      <c r="K111" s="53"/>
     </row>
     <row r="112">
-      <c r="G112" s="49"/>
-      <c r="H112" s="50"/>
-      <c r="K112" s="48"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="55"/>
+      <c r="K112" s="53"/>
     </row>
     <row r="113">
-      <c r="G113" s="49"/>
-      <c r="H113" s="50"/>
-      <c r="K113" s="48"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="55"/>
+      <c r="K113" s="53"/>
     </row>
     <row r="114">
-      <c r="G114" s="49"/>
-      <c r="H114" s="50"/>
-      <c r="K114" s="48"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="55"/>
+      <c r="K114" s="53"/>
     </row>
     <row r="115">
-      <c r="G115" s="49"/>
-      <c r="H115" s="50"/>
-      <c r="K115" s="48"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="55"/>
+      <c r="K115" s="53"/>
     </row>
     <row r="116">
-      <c r="G116" s="49"/>
-      <c r="H116" s="50"/>
-      <c r="K116" s="48"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="55"/>
+      <c r="K116" s="53"/>
     </row>
     <row r="117">
-      <c r="G117" s="49"/>
-      <c r="H117" s="50"/>
-      <c r="K117" s="48"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="55"/>
+      <c r="K117" s="53"/>
     </row>
     <row r="118">
-      <c r="G118" s="49"/>
-      <c r="H118" s="50"/>
-      <c r="K118" s="48"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="55"/>
+      <c r="K118" s="53"/>
     </row>
     <row r="119">
-      <c r="G119" s="49"/>
-      <c r="H119" s="50"/>
-      <c r="K119" s="48"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="55"/>
+      <c r="K119" s="53"/>
     </row>
     <row r="120">
-      <c r="G120" s="49"/>
-      <c r="H120" s="50"/>
-      <c r="K120" s="48"/>
+      <c r="G120" s="54"/>
+      <c r="H120" s="55"/>
+      <c r="K120" s="53"/>
     </row>
     <row r="121">
-      <c r="G121" s="49"/>
-      <c r="H121" s="50"/>
-      <c r="K121" s="48"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="55"/>
+      <c r="K121" s="53"/>
     </row>
     <row r="122">
-      <c r="G122" s="49"/>
-      <c r="H122" s="50"/>
-      <c r="K122" s="48"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="55"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123">
-      <c r="G123" s="49"/>
-      <c r="H123" s="50"/>
-      <c r="K123" s="48"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="55"/>
+      <c r="K123" s="53"/>
     </row>
     <row r="124">
-      <c r="G124" s="49"/>
-      <c r="H124" s="50"/>
-      <c r="K124" s="48"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="55"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125">
-      <c r="G125" s="49"/>
-      <c r="H125" s="50"/>
-      <c r="K125" s="48"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="55"/>
+      <c r="K125" s="53"/>
     </row>
     <row r="126">
-      <c r="G126" s="49"/>
-      <c r="H126" s="50"/>
-      <c r="K126" s="48"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="55"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127">
-      <c r="G127" s="49"/>
-      <c r="H127" s="50"/>
-      <c r="K127" s="48"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="55"/>
+      <c r="K127" s="53"/>
     </row>
     <row r="128">
-      <c r="G128" s="49"/>
-      <c r="H128" s="50"/>
-      <c r="K128" s="48"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="55"/>
+      <c r="K128" s="53"/>
     </row>
     <row r="129">
-      <c r="G129" s="49"/>
-      <c r="H129" s="50"/>
-      <c r="K129" s="48"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="55"/>
+      <c r="K129" s="53"/>
     </row>
     <row r="130">
-      <c r="G130" s="49"/>
-      <c r="H130" s="50"/>
-      <c r="K130" s="48"/>
+      <c r="G130" s="54"/>
+      <c r="H130" s="55"/>
+      <c r="K130" s="53"/>
     </row>
     <row r="131">
-      <c r="G131" s="49"/>
-      <c r="H131" s="50"/>
-      <c r="K131" s="48"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="55"/>
+      <c r="K131" s="53"/>
     </row>
     <row r="132">
-      <c r="G132" s="49"/>
-      <c r="H132" s="50"/>
-      <c r="K132" s="48"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="55"/>
+      <c r="K132" s="53"/>
     </row>
     <row r="133">
-      <c r="G133" s="49"/>
-      <c r="H133" s="50"/>
-      <c r="K133" s="48"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="55"/>
+      <c r="K133" s="53"/>
     </row>
     <row r="134">
-      <c r="G134" s="49"/>
-      <c r="H134" s="50"/>
-      <c r="K134" s="48"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="55"/>
+      <c r="K134" s="53"/>
     </row>
     <row r="135">
-      <c r="G135" s="49"/>
-      <c r="H135" s="50"/>
-      <c r="K135" s="48"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="55"/>
+      <c r="K135" s="53"/>
     </row>
     <row r="136">
-      <c r="G136" s="49"/>
-      <c r="H136" s="50"/>
-      <c r="K136" s="48"/>
+      <c r="G136" s="54"/>
+      <c r="H136" s="55"/>
+      <c r="K136" s="53"/>
     </row>
     <row r="137">
-      <c r="G137" s="49"/>
-      <c r="H137" s="50"/>
-      <c r="K137" s="48"/>
+      <c r="G137" s="54"/>
+      <c r="H137" s="55"/>
+      <c r="K137" s="53"/>
     </row>
     <row r="138">
-      <c r="G138" s="49"/>
-      <c r="H138" s="50"/>
-      <c r="K138" s="48"/>
+      <c r="G138" s="54"/>
+      <c r="H138" s="55"/>
+      <c r="K138" s="53"/>
     </row>
     <row r="139">
-      <c r="G139" s="49"/>
-      <c r="H139" s="50"/>
-      <c r="K139" s="48"/>
+      <c r="G139" s="54"/>
+      <c r="H139" s="55"/>
+      <c r="K139" s="53"/>
     </row>
     <row r="140">
-      <c r="G140" s="49"/>
-      <c r="H140" s="50"/>
-      <c r="K140" s="48"/>
+      <c r="G140" s="54"/>
+      <c r="H140" s="55"/>
+      <c r="K140" s="53"/>
     </row>
     <row r="141">
-      <c r="G141" s="49"/>
-      <c r="H141" s="50"/>
-      <c r="K141" s="48"/>
+      <c r="G141" s="54"/>
+      <c r="H141" s="55"/>
+      <c r="K141" s="53"/>
     </row>
     <row r="142">
-      <c r="G142" s="49"/>
-      <c r="H142" s="50"/>
-      <c r="K142" s="48"/>
+      <c r="G142" s="54"/>
+      <c r="H142" s="55"/>
+      <c r="K142" s="53"/>
     </row>
     <row r="143">
-      <c r="G143" s="49"/>
-      <c r="H143" s="50"/>
-      <c r="K143" s="48"/>
+      <c r="G143" s="54"/>
+      <c r="H143" s="55"/>
+      <c r="K143" s="53"/>
     </row>
     <row r="144">
-      <c r="G144" s="49"/>
-      <c r="H144" s="50"/>
-      <c r="K144" s="48"/>
+      <c r="G144" s="54"/>
+      <c r="H144" s="55"/>
+      <c r="K144" s="53"/>
     </row>
     <row r="145">
-      <c r="G145" s="49"/>
-      <c r="H145" s="50"/>
-      <c r="K145" s="48"/>
+      <c r="G145" s="54"/>
+      <c r="H145" s="55"/>
+      <c r="K145" s="53"/>
     </row>
     <row r="146">
-      <c r="G146" s="49"/>
-      <c r="H146" s="50"/>
-      <c r="K146" s="48"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="55"/>
+      <c r="K146" s="53"/>
     </row>
     <row r="147">
-      <c r="G147" s="49"/>
-      <c r="H147" s="50"/>
-      <c r="K147" s="48"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="55"/>
+      <c r="K147" s="53"/>
     </row>
     <row r="148">
-      <c r="G148" s="49"/>
-      <c r="H148" s="50"/>
-      <c r="K148" s="48"/>
+      <c r="G148" s="54"/>
+      <c r="H148" s="55"/>
+      <c r="K148" s="53"/>
     </row>
     <row r="149">
-      <c r="G149" s="49"/>
-      <c r="H149" s="50"/>
-      <c r="K149" s="48"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="55"/>
+      <c r="K149" s="53"/>
     </row>
     <row r="150">
-      <c r="G150" s="49"/>
-      <c r="H150" s="50"/>
-      <c r="K150" s="48"/>
+      <c r="G150" s="54"/>
+      <c r="H150" s="55"/>
+      <c r="K150" s="53"/>
     </row>
     <row r="151">
-      <c r="G151" s="49"/>
-      <c r="H151" s="50"/>
-      <c r="K151" s="48"/>
+      <c r="G151" s="54"/>
+      <c r="H151" s="55"/>
+      <c r="K151" s="53"/>
     </row>
     <row r="152">
-      <c r="G152" s="49"/>
-      <c r="H152" s="50"/>
-      <c r="K152" s="48"/>
+      <c r="G152" s="54"/>
+      <c r="H152" s="55"/>
+      <c r="K152" s="53"/>
     </row>
     <row r="153">
-      <c r="G153" s="49"/>
-      <c r="H153" s="50"/>
-      <c r="K153" s="48"/>
+      <c r="G153" s="54"/>
+      <c r="H153" s="55"/>
+      <c r="K153" s="53"/>
     </row>
     <row r="154">
-      <c r="G154" s="49"/>
-      <c r="H154" s="50"/>
-      <c r="K154" s="48"/>
+      <c r="G154" s="54"/>
+      <c r="H154" s="55"/>
+      <c r="K154" s="53"/>
     </row>
     <row r="155">
-      <c r="G155" s="49"/>
-      <c r="H155" s="50"/>
-      <c r="K155" s="48"/>
+      <c r="G155" s="54"/>
+      <c r="H155" s="55"/>
+      <c r="K155" s="53"/>
     </row>
     <row r="156">
-      <c r="G156" s="49"/>
-      <c r="H156" s="50"/>
-      <c r="K156" s="48"/>
+      <c r="G156" s="54"/>
+      <c r="H156" s="55"/>
+      <c r="K156" s="53"/>
     </row>
     <row r="157">
-      <c r="G157" s="49"/>
-      <c r="H157" s="50"/>
-      <c r="K157" s="48"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="55"/>
+      <c r="K157" s="53"/>
     </row>
     <row r="158">
-      <c r="G158" s="49"/>
-      <c r="H158" s="50"/>
-      <c r="K158" s="48"/>
+      <c r="G158" s="54"/>
+      <c r="H158" s="55"/>
+      <c r="K158" s="53"/>
     </row>
     <row r="159">
-      <c r="G159" s="49"/>
-      <c r="H159" s="50"/>
-      <c r="K159" s="48"/>
+      <c r="G159" s="54"/>
+      <c r="H159" s="55"/>
+      <c r="K159" s="53"/>
     </row>
     <row r="160">
-      <c r="G160" s="49"/>
-      <c r="H160" s="50"/>
-      <c r="K160" s="48"/>
+      <c r="G160" s="54"/>
+      <c r="H160" s="55"/>
+      <c r="K160" s="53"/>
     </row>
     <row r="161">
-      <c r="G161" s="49"/>
-      <c r="H161" s="50"/>
-      <c r="K161" s="48"/>
+      <c r="G161" s="54"/>
+      <c r="H161" s="55"/>
+      <c r="K161" s="53"/>
     </row>
     <row r="162">
-      <c r="G162" s="49"/>
-      <c r="H162" s="50"/>
-      <c r="K162" s="48"/>
+      <c r="G162" s="54"/>
+      <c r="H162" s="55"/>
+      <c r="K162" s="53"/>
     </row>
     <row r="163">
-      <c r="G163" s="49"/>
-      <c r="H163" s="50"/>
-      <c r="K163" s="48"/>
+      <c r="G163" s="54"/>
+      <c r="H163" s="55"/>
+      <c r="K163" s="53"/>
     </row>
     <row r="164">
-      <c r="G164" s="49"/>
-      <c r="H164" s="50"/>
-      <c r="K164" s="48"/>
+      <c r="G164" s="54"/>
+      <c r="H164" s="55"/>
+      <c r="K164" s="53"/>
     </row>
     <row r="165">
-      <c r="G165" s="49"/>
-      <c r="H165" s="50"/>
-      <c r="K165" s="48"/>
+      <c r="G165" s="54"/>
+      <c r="H165" s="55"/>
+      <c r="K165" s="53"/>
     </row>
     <row r="166">
-      <c r="G166" s="49"/>
-      <c r="H166" s="50"/>
-      <c r="K166" s="48"/>
+      <c r="G166" s="54"/>
+      <c r="H166" s="55"/>
+      <c r="K166" s="53"/>
     </row>
     <row r="167">
-      <c r="G167" s="49"/>
-      <c r="H167" s="50"/>
-      <c r="K167" s="48"/>
+      <c r="G167" s="54"/>
+      <c r="H167" s="55"/>
+      <c r="K167" s="53"/>
     </row>
     <row r="168">
-      <c r="G168" s="49"/>
-      <c r="H168" s="50"/>
-      <c r="K168" s="48"/>
+      <c r="G168" s="54"/>
+      <c r="H168" s="55"/>
+      <c r="K168" s="53"/>
     </row>
     <row r="169">
-      <c r="G169" s="49"/>
-      <c r="H169" s="50"/>
-      <c r="K169" s="48"/>
+      <c r="G169" s="54"/>
+      <c r="H169" s="55"/>
+      <c r="K169" s="53"/>
     </row>
     <row r="170">
-      <c r="G170" s="49"/>
-      <c r="H170" s="50"/>
-      <c r="K170" s="48"/>
+      <c r="G170" s="54"/>
+      <c r="H170" s="55"/>
+      <c r="K170" s="53"/>
     </row>
     <row r="171">
-      <c r="G171" s="49"/>
-      <c r="H171" s="50"/>
-      <c r="K171" s="48"/>
+      <c r="G171" s="54"/>
+      <c r="H171" s="55"/>
+      <c r="K171" s="53"/>
     </row>
     <row r="172">
-      <c r="G172" s="49"/>
-      <c r="H172" s="50"/>
-      <c r="K172" s="48"/>
+      <c r="G172" s="54"/>
+      <c r="H172" s="55"/>
+      <c r="K172" s="53"/>
     </row>
     <row r="173">
-      <c r="G173" s="49"/>
-      <c r="H173" s="50"/>
-      <c r="K173" s="48"/>
+      <c r="G173" s="54"/>
+      <c r="H173" s="55"/>
+      <c r="K173" s="53"/>
     </row>
     <row r="174">
-      <c r="G174" s="49"/>
-      <c r="H174" s="50"/>
-      <c r="K174" s="48"/>
+      <c r="G174" s="54"/>
+      <c r="H174" s="55"/>
+      <c r="K174" s="53"/>
     </row>
     <row r="175">
-      <c r="G175" s="49"/>
-      <c r="H175" s="50"/>
-      <c r="K175" s="48"/>
+      <c r="G175" s="54"/>
+      <c r="H175" s="55"/>
+      <c r="K175" s="53"/>
     </row>
     <row r="176">
-      <c r="G176" s="49"/>
-      <c r="H176" s="50"/>
-      <c r="K176" s="48"/>
+      <c r="G176" s="54"/>
+      <c r="H176" s="55"/>
+      <c r="K176" s="53"/>
     </row>
     <row r="177">
-      <c r="G177" s="49"/>
-      <c r="H177" s="50"/>
-      <c r="K177" s="48"/>
+      <c r="G177" s="54"/>
+      <c r="H177" s="55"/>
+      <c r="K177" s="53"/>
     </row>
     <row r="178">
-      <c r="G178" s="49"/>
-      <c r="H178" s="50"/>
-      <c r="K178" s="48"/>
+      <c r="G178" s="54"/>
+      <c r="H178" s="55"/>
+      <c r="K178" s="53"/>
     </row>
     <row r="179">
-      <c r="G179" s="49"/>
-      <c r="H179" s="50"/>
-      <c r="K179" s="48"/>
+      <c r="G179" s="54"/>
+      <c r="H179" s="55"/>
+      <c r="K179" s="53"/>
     </row>
     <row r="180">
-      <c r="G180" s="49"/>
-      <c r="H180" s="50"/>
-      <c r="K180" s="48"/>
+      <c r="G180" s="54"/>
+      <c r="H180" s="55"/>
+      <c r="K180" s="53"/>
     </row>
     <row r="181">
-      <c r="G181" s="49"/>
-      <c r="H181" s="50"/>
-      <c r="K181" s="48"/>
+      <c r="G181" s="54"/>
+      <c r="H181" s="55"/>
+      <c r="K181" s="53"/>
     </row>
     <row r="182">
-      <c r="G182" s="49"/>
-      <c r="H182" s="50"/>
-      <c r="K182" s="48"/>
+      <c r="G182" s="54"/>
+      <c r="H182" s="55"/>
+      <c r="K182" s="53"/>
     </row>
     <row r="183">
-      <c r="G183" s="49"/>
-      <c r="H183" s="50"/>
-      <c r="K183" s="48"/>
+      <c r="G183" s="54"/>
+      <c r="H183" s="55"/>
+      <c r="K183" s="53"/>
     </row>
     <row r="184">
-      <c r="G184" s="49"/>
-      <c r="H184" s="50"/>
-      <c r="K184" s="48"/>
+      <c r="G184" s="54"/>
+      <c r="H184" s="55"/>
+      <c r="K184" s="53"/>
     </row>
     <row r="185">
-      <c r="G185" s="49"/>
-      <c r="H185" s="50"/>
-      <c r="K185" s="48"/>
+      <c r="G185" s="54"/>
+      <c r="H185" s="55"/>
+      <c r="K185" s="53"/>
     </row>
     <row r="186">
-      <c r="G186" s="49"/>
-      <c r="H186" s="50"/>
-      <c r="K186" s="48"/>
+      <c r="G186" s="54"/>
+      <c r="H186" s="55"/>
+      <c r="K186" s="53"/>
     </row>
     <row r="187">
-      <c r="G187" s="49"/>
-      <c r="H187" s="50"/>
-      <c r="K187" s="48"/>
+      <c r="G187" s="54"/>
+      <c r="H187" s="55"/>
+      <c r="K187" s="53"/>
     </row>
     <row r="188">
-      <c r="G188" s="49"/>
-      <c r="H188" s="50"/>
-      <c r="K188" s="48"/>
+      <c r="G188" s="54"/>
+      <c r="H188" s="55"/>
+      <c r="K188" s="53"/>
     </row>
     <row r="189">
-      <c r="G189" s="49"/>
-      <c r="H189" s="50"/>
-      <c r="K189" s="48"/>
+      <c r="G189" s="54"/>
+      <c r="H189" s="55"/>
+      <c r="K189" s="53"/>
     </row>
     <row r="190">
-      <c r="G190" s="49"/>
-      <c r="H190" s="50"/>
-      <c r="K190" s="48"/>
+      <c r="G190" s="54"/>
+      <c r="H190" s="55"/>
+      <c r="K190" s="53"/>
     </row>
     <row r="191">
-      <c r="G191" s="49"/>
-      <c r="H191" s="50"/>
-      <c r="K191" s="48"/>
+      <c r="G191" s="54"/>
+      <c r="H191" s="55"/>
+      <c r="K191" s="53"/>
     </row>
     <row r="192">
-      <c r="G192" s="49"/>
-      <c r="H192" s="50"/>
-      <c r="K192" s="48"/>
+      <c r="G192" s="54"/>
+      <c r="H192" s="55"/>
+      <c r="K192" s="53"/>
     </row>
     <row r="193">
-      <c r="G193" s="49"/>
-      <c r="H193" s="50"/>
-      <c r="K193" s="48"/>
+      <c r="G193" s="54"/>
+      <c r="H193" s="55"/>
+      <c r="K193" s="53"/>
     </row>
     <row r="194">
-      <c r="G194" s="49"/>
-      <c r="H194" s="50"/>
-      <c r="K194" s="48"/>
+      <c r="G194" s="54"/>
+      <c r="H194" s="55"/>
+      <c r="K194" s="53"/>
     </row>
     <row r="195">
-      <c r="G195" s="49"/>
-      <c r="H195" s="50"/>
-      <c r="K195" s="48"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="55"/>
+      <c r="K195" s="53"/>
     </row>
     <row r="196">
-      <c r="G196" s="49"/>
-      <c r="H196" s="50"/>
-      <c r="K196" s="48"/>
+      <c r="G196" s="54"/>
+      <c r="H196" s="55"/>
+      <c r="K196" s="53"/>
     </row>
     <row r="197">
-      <c r="G197" s="49"/>
-      <c r="H197" s="50"/>
-      <c r="K197" s="48"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="55"/>
+      <c r="K197" s="53"/>
     </row>
     <row r="198">
-      <c r="G198" s="49"/>
-      <c r="H198" s="50"/>
-      <c r="K198" s="48"/>
+      <c r="G198" s="54"/>
+      <c r="H198" s="55"/>
+      <c r="K198" s="53"/>
     </row>
     <row r="199">
-      <c r="G199" s="49"/>
-      <c r="H199" s="50"/>
-      <c r="K199" s="48"/>
+      <c r="G199" s="54"/>
+      <c r="H199" s="55"/>
+      <c r="K199" s="53"/>
     </row>
     <row r="200">
-      <c r="G200" s="49"/>
-      <c r="H200" s="50"/>
-      <c r="K200" s="48"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="55"/>
+      <c r="K200" s="53"/>
     </row>
     <row r="201">
-      <c r="G201" s="49"/>
-      <c r="H201" s="50"/>
-      <c r="K201" s="48"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="55"/>
+      <c r="K201" s="53"/>
     </row>
     <row r="202">
-      <c r="G202" s="49"/>
-      <c r="H202" s="50"/>
-      <c r="K202" s="48"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="55"/>
+      <c r="K202" s="53"/>
     </row>
     <row r="203">
-      <c r="G203" s="49"/>
-      <c r="H203" s="50"/>
-      <c r="K203" s="48"/>
+      <c r="G203" s="54"/>
+      <c r="H203" s="55"/>
+      <c r="K203" s="53"/>
     </row>
     <row r="204">
-      <c r="G204" s="49"/>
-      <c r="H204" s="50"/>
-      <c r="K204" s="48"/>
+      <c r="G204" s="54"/>
+      <c r="H204" s="55"/>
+      <c r="K204" s="53"/>
     </row>
     <row r="205">
-      <c r="G205" s="49"/>
-      <c r="H205" s="50"/>
-      <c r="K205" s="48"/>
+      <c r="G205" s="54"/>
+      <c r="H205" s="55"/>
+      <c r="K205" s="53"/>
     </row>
     <row r="206">
-      <c r="G206" s="49"/>
-      <c r="H206" s="50"/>
-      <c r="K206" s="48"/>
+      <c r="G206" s="54"/>
+      <c r="H206" s="55"/>
+      <c r="K206" s="53"/>
     </row>
     <row r="207">
-      <c r="G207" s="49"/>
-      <c r="H207" s="50"/>
-      <c r="K207" s="48"/>
+      <c r="G207" s="54"/>
+      <c r="H207" s="55"/>
+      <c r="K207" s="53"/>
     </row>
     <row r="208">
-      <c r="G208" s="49"/>
-      <c r="H208" s="50"/>
-      <c r="K208" s="48"/>
+      <c r="G208" s="54"/>
+      <c r="H208" s="55"/>
+      <c r="K208" s="53"/>
     </row>
     <row r="209">
-      <c r="G209" s="49"/>
-      <c r="H209" s="50"/>
-      <c r="K209" s="48"/>
+      <c r="G209" s="54"/>
+      <c r="H209" s="55"/>
+      <c r="K209" s="53"/>
     </row>
     <row r="210">
-      <c r="G210" s="49"/>
-      <c r="H210" s="50"/>
-      <c r="K210" s="48"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="55"/>
+      <c r="K210" s="53"/>
     </row>
     <row r="211">
-      <c r="G211" s="49"/>
-      <c r="H211" s="50"/>
-      <c r="K211" s="48"/>
+      <c r="G211" s="54"/>
+      <c r="H211" s="55"/>
+      <c r="K211" s="53"/>
     </row>
     <row r="212">
-      <c r="G212" s="49"/>
-      <c r="H212" s="50"/>
-      <c r="K212" s="48"/>
+      <c r="G212" s="54"/>
+      <c r="H212" s="55"/>
+      <c r="K212" s="53"/>
     </row>
     <row r="213">
-      <c r="G213" s="49"/>
-      <c r="H213" s="50"/>
-      <c r="K213" s="48"/>
+      <c r="G213" s="54"/>
+      <c r="H213" s="55"/>
+      <c r="K213" s="53"/>
     </row>
     <row r="214">
-      <c r="G214" s="49"/>
-      <c r="H214" s="50"/>
-      <c r="K214" s="48"/>
+      <c r="G214" s="54"/>
+      <c r="H214" s="55"/>
+      <c r="K214" s="53"/>
     </row>
     <row r="215">
-      <c r="G215" s="49"/>
-      <c r="H215" s="50"/>
-      <c r="K215" s="48"/>
+      <c r="G215" s="54"/>
+      <c r="H215" s="55"/>
+      <c r="K215" s="53"/>
     </row>
     <row r="216">
-      <c r="G216" s="49"/>
-      <c r="H216" s="50"/>
-      <c r="K216" s="48"/>
+      <c r="G216" s="54"/>
+      <c r="H216" s="55"/>
+      <c r="K216" s="53"/>
     </row>
     <row r="217">
-      <c r="G217" s="49"/>
-      <c r="H217" s="50"/>
-      <c r="K217" s="48"/>
+      <c r="G217" s="54"/>
+      <c r="H217" s="55"/>
+      <c r="K217" s="53"/>
     </row>
     <row r="218">
-      <c r="G218" s="49"/>
-      <c r="H218" s="50"/>
-      <c r="K218" s="48"/>
+      <c r="G218" s="54"/>
+      <c r="H218" s="55"/>
+      <c r="K218" s="53"/>
     </row>
     <row r="219">
-      <c r="G219" s="49"/>
-      <c r="H219" s="50"/>
-      <c r="K219" s="48"/>
+      <c r="G219" s="54"/>
+      <c r="H219" s="55"/>
+      <c r="K219" s="53"/>
     </row>
     <row r="220">
-      <c r="G220" s="49"/>
-      <c r="H220" s="50"/>
-      <c r="K220" s="48"/>
+      <c r="G220" s="54"/>
+      <c r="H220" s="55"/>
+      <c r="K220" s="53"/>
     </row>
     <row r="221">
-      <c r="G221" s="49"/>
-      <c r="H221" s="50"/>
-      <c r="K221" s="48"/>
+      <c r="G221" s="54"/>
+      <c r="H221" s="55"/>
+      <c r="K221" s="53"/>
     </row>
     <row r="222">
-      <c r="G222" s="49"/>
-      <c r="H222" s="50"/>
-      <c r="K222" s="48"/>
+      <c r="G222" s="54"/>
+      <c r="H222" s="55"/>
+      <c r="K222" s="53"/>
     </row>
     <row r="223">
-      <c r="G223" s="49"/>
-      <c r="H223" s="50"/>
-      <c r="K223" s="48"/>
+      <c r="G223" s="54"/>
+      <c r="H223" s="55"/>
+      <c r="K223" s="53"/>
     </row>
     <row r="224">
-      <c r="G224" s="49"/>
-      <c r="H224" s="50"/>
-      <c r="K224" s="48"/>
+      <c r="G224" s="54"/>
+      <c r="H224" s="55"/>
+      <c r="K224" s="53"/>
     </row>
     <row r="225">
-      <c r="G225" s="49"/>
-      <c r="H225" s="50"/>
-      <c r="K225" s="48"/>
+      <c r="G225" s="54"/>
+      <c r="H225" s="55"/>
+      <c r="K225" s="53"/>
     </row>
     <row r="226">
-      <c r="G226" s="49"/>
-      <c r="H226" s="50"/>
-      <c r="K226" s="48"/>
+      <c r="G226" s="54"/>
+      <c r="H226" s="55"/>
+      <c r="K226" s="53"/>
     </row>
     <row r="227">
-      <c r="G227" s="49"/>
-      <c r="H227" s="50"/>
-      <c r="K227" s="48"/>
+      <c r="G227" s="54"/>
+      <c r="H227" s="55"/>
+      <c r="K227" s="53"/>
     </row>
     <row r="228">
-      <c r="G228" s="49"/>
-      <c r="H228" s="50"/>
-      <c r="K228" s="48"/>
+      <c r="G228" s="54"/>
+      <c r="H228" s="55"/>
+      <c r="K228" s="53"/>
     </row>
     <row r="229">
-      <c r="G229" s="49"/>
-      <c r="H229" s="50"/>
-      <c r="K229" s="48"/>
+      <c r="G229" s="54"/>
+      <c r="H229" s="55"/>
+      <c r="K229" s="53"/>
     </row>
     <row r="230">
-      <c r="G230" s="49"/>
-      <c r="H230" s="50"/>
-      <c r="K230" s="48"/>
+      <c r="G230" s="54"/>
+      <c r="H230" s="55"/>
+      <c r="K230" s="53"/>
     </row>
     <row r="231">
-      <c r="G231" s="49"/>
-      <c r="H231" s="50"/>
-      <c r="K231" s="48"/>
+      <c r="G231" s="54"/>
+      <c r="H231" s="55"/>
+      <c r="K231" s="53"/>
     </row>
     <row r="232">
-      <c r="G232" s="49"/>
-      <c r="H232" s="50"/>
-      <c r="K232" s="48"/>
+      <c r="G232" s="54"/>
+      <c r="H232" s="55"/>
+      <c r="K232" s="53"/>
     </row>
     <row r="233">
-      <c r="G233" s="49"/>
-      <c r="H233" s="50"/>
-      <c r="K233" s="48"/>
+      <c r="G233" s="54"/>
+      <c r="H233" s="55"/>
+      <c r="K233" s="53"/>
     </row>
     <row r="234">
-      <c r="G234" s="49"/>
-      <c r="H234" s="50"/>
-      <c r="K234" s="48"/>
+      <c r="G234" s="54"/>
+      <c r="H234" s="55"/>
+      <c r="K234" s="53"/>
     </row>
     <row r="235">
-      <c r="G235" s="49"/>
-      <c r="H235" s="50"/>
-      <c r="K235" s="48"/>
+      <c r="G235" s="54"/>
+      <c r="H235" s="55"/>
+      <c r="K235" s="53"/>
     </row>
     <row r="236">
-      <c r="G236" s="49"/>
-      <c r="H236" s="50"/>
-      <c r="K236" s="48"/>
+      <c r="G236" s="54"/>
+      <c r="H236" s="55"/>
+      <c r="K236" s="53"/>
     </row>
     <row r="237">
-      <c r="G237" s="49"/>
-      <c r="H237" s="50"/>
-      <c r="K237" s="48"/>
+      <c r="G237" s="54"/>
+      <c r="H237" s="55"/>
+      <c r="K237" s="53"/>
     </row>
     <row r="238">
-      <c r="G238" s="49"/>
-      <c r="H238" s="50"/>
-      <c r="K238" s="48"/>
+      <c r="G238" s="54"/>
+      <c r="H238" s="55"/>
+      <c r="K238" s="53"/>
     </row>
     <row r="239">
-      <c r="G239" s="49"/>
-      <c r="H239" s="50"/>
-      <c r="K239" s="48"/>
+      <c r="G239" s="54"/>
+      <c r="H239" s="55"/>
+      <c r="K239" s="53"/>
     </row>
     <row r="240">
-      <c r="G240" s="49"/>
-      <c r="H240" s="50"/>
-      <c r="K240" s="48"/>
+      <c r="G240" s="54"/>
+      <c r="H240" s="55"/>
+      <c r="K240" s="53"/>
     </row>
     <row r="241">
-      <c r="G241" s="49"/>
-      <c r="H241" s="50"/>
-      <c r="K241" s="48"/>
+      <c r="G241" s="54"/>
+      <c r="H241" s="55"/>
+      <c r="K241" s="53"/>
     </row>
     <row r="242">
-      <c r="G242" s="49"/>
-      <c r="H242" s="50"/>
-      <c r="K242" s="48"/>
+      <c r="G242" s="54"/>
+      <c r="H242" s="55"/>
+      <c r="K242" s="53"/>
     </row>
     <row r="243">
-      <c r="G243" s="49"/>
-      <c r="H243" s="50"/>
-      <c r="K243" s="48"/>
+      <c r="G243" s="54"/>
+      <c r="H243" s="55"/>
+      <c r="K243" s="53"/>
     </row>
     <row r="244">
-      <c r="G244" s="49"/>
-      <c r="H244" s="50"/>
-      <c r="K244" s="48"/>
+      <c r="G244" s="54"/>
+      <c r="H244" s="55"/>
+      <c r="K244" s="53"/>
     </row>
     <row r="245">
-      <c r="G245" s="49"/>
-      <c r="H245" s="50"/>
-      <c r="K245" s="48"/>
+      <c r="G245" s="54"/>
+      <c r="H245" s="55"/>
+      <c r="K245" s="53"/>
     </row>
     <row r="246">
-      <c r="G246" s="49"/>
-      <c r="H246" s="50"/>
-      <c r="K246" s="48"/>
+      <c r="G246" s="54"/>
+      <c r="H246" s="55"/>
+      <c r="K246" s="53"/>
     </row>
     <row r="247">
-      <c r="G247" s="49"/>
-      <c r="H247" s="50"/>
-      <c r="K247" s="48"/>
+      <c r="G247" s="54"/>
+      <c r="H247" s="55"/>
+      <c r="K247" s="53"/>
     </row>
     <row r="248">
-      <c r="G248" s="49"/>
-      <c r="H248" s="50"/>
-      <c r="K248" s="48"/>
+      <c r="G248" s="54"/>
+      <c r="H248" s="55"/>
+      <c r="K248" s="53"/>
     </row>
     <row r="249">
-      <c r="G249" s="49"/>
-      <c r="H249" s="50"/>
-      <c r="K249" s="48"/>
+      <c r="G249" s="54"/>
+      <c r="H249" s="55"/>
+      <c r="K249" s="53"/>
     </row>
     <row r="250">
-      <c r="G250" s="49"/>
-      <c r="H250" s="50"/>
-      <c r="K250" s="48"/>
+      <c r="G250" s="54"/>
+      <c r="H250" s="55"/>
+      <c r="K250" s="53"/>
     </row>
     <row r="251">
-      <c r="G251" s="49"/>
-      <c r="H251" s="50"/>
-      <c r="K251" s="48"/>
+      <c r="G251" s="54"/>
+      <c r="H251" s="55"/>
+      <c r="K251" s="53"/>
     </row>
     <row r="252">
-      <c r="G252" s="49"/>
-      <c r="H252" s="50"/>
-      <c r="K252" s="48"/>
+      <c r="G252" s="54"/>
+      <c r="H252" s="55"/>
+      <c r="K252" s="53"/>
     </row>
     <row r="253">
-      <c r="G253" s="49"/>
-      <c r="H253" s="50"/>
-      <c r="K253" s="48"/>
+      <c r="G253" s="54"/>
+      <c r="H253" s="55"/>
+      <c r="K253" s="53"/>
     </row>
     <row r="254">
-      <c r="G254" s="49"/>
-      <c r="H254" s="50"/>
-      <c r="K254" s="48"/>
+      <c r="G254" s="54"/>
+      <c r="H254" s="55"/>
+      <c r="K254" s="53"/>
     </row>
     <row r="255">
-      <c r="G255" s="49"/>
-      <c r="H255" s="50"/>
-      <c r="K255" s="48"/>
+      <c r="G255" s="54"/>
+      <c r="H255" s="55"/>
+      <c r="K255" s="53"/>
     </row>
     <row r="256">
-      <c r="G256" s="49"/>
-      <c r="H256" s="50"/>
-      <c r="K256" s="48"/>
+      <c r="G256" s="54"/>
+      <c r="H256" s="55"/>
+      <c r="K256" s="53"/>
     </row>
     <row r="257">
-      <c r="G257" s="49"/>
-      <c r="H257" s="50"/>
-      <c r="K257" s="48"/>
+      <c r="G257" s="54"/>
+      <c r="H257" s="55"/>
+      <c r="K257" s="53"/>
     </row>
     <row r="258">
-      <c r="G258" s="49"/>
-      <c r="H258" s="50"/>
-      <c r="K258" s="48"/>
+      <c r="G258" s="54"/>
+      <c r="H258" s="55"/>
+      <c r="K258" s="53"/>
     </row>
     <row r="259">
-      <c r="G259" s="49"/>
-      <c r="H259" s="50"/>
-      <c r="K259" s="48"/>
+      <c r="G259" s="54"/>
+      <c r="H259" s="55"/>
+      <c r="K259" s="53"/>
     </row>
     <row r="260">
-      <c r="G260" s="49"/>
-      <c r="H260" s="50"/>
-      <c r="K260" s="48"/>
+      <c r="G260" s="54"/>
+      <c r="H260" s="55"/>
+      <c r="K260" s="53"/>
     </row>
     <row r="261">
-      <c r="G261" s="49"/>
-      <c r="H261" s="50"/>
-      <c r="K261" s="48"/>
+      <c r="G261" s="54"/>
+      <c r="H261" s="55"/>
+      <c r="K261" s="53"/>
     </row>
     <row r="262">
-      <c r="G262" s="49"/>
-      <c r="H262" s="50"/>
-      <c r="K262" s="48"/>
+      <c r="G262" s="54"/>
+      <c r="H262" s="55"/>
+      <c r="K262" s="53"/>
     </row>
     <row r="263">
-      <c r="G263" s="49"/>
-      <c r="H263" s="50"/>
-      <c r="K263" s="48"/>
+      <c r="G263" s="54"/>
+      <c r="H263" s="55"/>
+      <c r="K263" s="53"/>
     </row>
     <row r="264">
-      <c r="G264" s="49"/>
-      <c r="H264" s="50"/>
-      <c r="K264" s="48"/>
+      <c r="G264" s="54"/>
+      <c r="H264" s="55"/>
+      <c r="K264" s="53"/>
     </row>
     <row r="265">
-      <c r="G265" s="49"/>
-      <c r="H265" s="50"/>
-      <c r="K265" s="48"/>
+      <c r="G265" s="54"/>
+      <c r="H265" s="55"/>
+      <c r="K265" s="53"/>
     </row>
     <row r="266">
-      <c r="G266" s="49"/>
-      <c r="H266" s="50"/>
-      <c r="K266" s="48"/>
+      <c r="G266" s="54"/>
+      <c r="H266" s="55"/>
+      <c r="K266" s="53"/>
     </row>
     <row r="267">
-      <c r="G267" s="49"/>
-      <c r="H267" s="50"/>
-      <c r="K267" s="48"/>
+      <c r="G267" s="54"/>
+      <c r="H267" s="55"/>
+      <c r="K267" s="53"/>
     </row>
     <row r="268">
-      <c r="G268" s="49"/>
-      <c r="H268" s="50"/>
-      <c r="K268" s="48"/>
+      <c r="G268" s="54"/>
+      <c r="H268" s="55"/>
+      <c r="K268" s="53"/>
     </row>
     <row r="269">
-      <c r="G269" s="49"/>
-      <c r="H269" s="50"/>
-      <c r="K269" s="48"/>
+      <c r="G269" s="54"/>
+      <c r="H269" s="55"/>
+      <c r="K269" s="53"/>
     </row>
     <row r="270">
-      <c r="G270" s="49"/>
-      <c r="H270" s="50"/>
-      <c r="K270" s="48"/>
+      <c r="G270" s="54"/>
+      <c r="H270" s="55"/>
+      <c r="K270" s="53"/>
     </row>
     <row r="271">
-      <c r="G271" s="49"/>
-      <c r="H271" s="50"/>
-      <c r="K271" s="48"/>
+      <c r="G271" s="54"/>
+      <c r="H271" s="55"/>
+      <c r="K271" s="53"/>
     </row>
     <row r="272">
-      <c r="G272" s="49"/>
-      <c r="H272" s="50"/>
-      <c r="K272" s="48"/>
+      <c r="G272" s="54"/>
+      <c r="H272" s="55"/>
+      <c r="K272" s="53"/>
     </row>
     <row r="273">
-      <c r="G273" s="49"/>
-      <c r="H273" s="50"/>
-      <c r="K273" s="48"/>
+      <c r="G273" s="54"/>
+      <c r="H273" s="55"/>
+      <c r="K273" s="53"/>
     </row>
     <row r="274">
-      <c r="G274" s="49"/>
-      <c r="H274" s="50"/>
-      <c r="K274" s="48"/>
+      <c r="G274" s="54"/>
+      <c r="H274" s="55"/>
+      <c r="K274" s="53"/>
     </row>
     <row r="275">
-      <c r="G275" s="49"/>
-      <c r="H275" s="50"/>
-      <c r="K275" s="48"/>
+      <c r="G275" s="54"/>
+      <c r="H275" s="55"/>
+      <c r="K275" s="53"/>
     </row>
     <row r="276">
-      <c r="G276" s="49"/>
-      <c r="H276" s="50"/>
-      <c r="K276" s="48"/>
+      <c r="G276" s="54"/>
+      <c r="H276" s="55"/>
+      <c r="K276" s="53"/>
     </row>
     <row r="277">
-      <c r="G277" s="49"/>
-      <c r="H277" s="50"/>
-      <c r="K277" s="48"/>
+      <c r="G277" s="54"/>
+      <c r="H277" s="55"/>
+      <c r="K277" s="53"/>
     </row>
     <row r="278">
-      <c r="G278" s="49"/>
-      <c r="H278" s="50"/>
-      <c r="K278" s="48"/>
+      <c r="G278" s="54"/>
+      <c r="H278" s="55"/>
+      <c r="K278" s="53"/>
     </row>
     <row r="279">
-      <c r="G279" s="49"/>
-      <c r="H279" s="50"/>
-      <c r="K279" s="48"/>
+      <c r="G279" s="54"/>
+      <c r="H279" s="55"/>
+      <c r="K279" s="53"/>
     </row>
     <row r="280">
-      <c r="G280" s="49"/>
-      <c r="H280" s="50"/>
-      <c r="K280" s="48"/>
+      <c r="G280" s="54"/>
+      <c r="H280" s="55"/>
+      <c r="K280" s="53"/>
     </row>
     <row r="281">
-      <c r="G281" s="49"/>
-      <c r="H281" s="50"/>
-      <c r="K281" s="48"/>
+      <c r="G281" s="54"/>
+      <c r="H281" s="55"/>
+      <c r="K281" s="53"/>
     </row>
     <row r="282">
-      <c r="G282" s="49"/>
-      <c r="H282" s="50"/>
-      <c r="K282" s="48"/>
+      <c r="G282" s="54"/>
+      <c r="H282" s="55"/>
+      <c r="K282" s="53"/>
     </row>
     <row r="283">
-      <c r="G283" s="49"/>
-      <c r="H283" s="50"/>
-      <c r="K283" s="48"/>
+      <c r="G283" s="54"/>
+      <c r="H283" s="55"/>
+      <c r="K283" s="53"/>
     </row>
     <row r="284">
-      <c r="G284" s="49"/>
-      <c r="H284" s="50"/>
-      <c r="K284" s="48"/>
+      <c r="G284" s="54"/>
+      <c r="H284" s="55"/>
+      <c r="K284" s="53"/>
     </row>
     <row r="285">
-      <c r="G285" s="49"/>
-      <c r="H285" s="50"/>
-      <c r="K285" s="48"/>
+      <c r="G285" s="54"/>
+      <c r="H285" s="55"/>
+      <c r="K285" s="53"/>
     </row>
     <row r="286">
-      <c r="G286" s="49"/>
-      <c r="H286" s="50"/>
-      <c r="K286" s="48"/>
+      <c r="G286" s="54"/>
+      <c r="H286" s="55"/>
+      <c r="K286" s="53"/>
     </row>
     <row r="287">
-      <c r="G287" s="49"/>
-      <c r="H287" s="50"/>
-      <c r="K287" s="48"/>
+      <c r="G287" s="54"/>
+      <c r="H287" s="55"/>
+      <c r="K287" s="53"/>
     </row>
     <row r="288">
-      <c r="G288" s="49"/>
-      <c r="H288" s="50"/>
-      <c r="K288" s="48"/>
+      <c r="G288" s="54"/>
+      <c r="H288" s="55"/>
+      <c r="K288" s="53"/>
     </row>
     <row r="289">
-      <c r="G289" s="49"/>
-      <c r="H289" s="50"/>
-      <c r="K289" s="48"/>
+      <c r="G289" s="54"/>
+      <c r="H289" s="55"/>
+      <c r="K289" s="53"/>
     </row>
     <row r="290">
-      <c r="G290" s="49"/>
-      <c r="H290" s="50"/>
-      <c r="K290" s="48"/>
+      <c r="G290" s="54"/>
+      <c r="H290" s="55"/>
+      <c r="K290" s="53"/>
     </row>
     <row r="291">
-      <c r="G291" s="49"/>
-      <c r="H291" s="50"/>
-      <c r="K291" s="48"/>
+      <c r="G291" s="54"/>
+      <c r="H291" s="55"/>
+      <c r="K291" s="53"/>
     </row>
     <row r="292">
-      <c r="G292" s="49"/>
-      <c r="H292" s="50"/>
-      <c r="K292" s="48"/>
+      <c r="G292" s="54"/>
+      <c r="H292" s="55"/>
+      <c r="K292" s="53"/>
     </row>
     <row r="293">
-      <c r="G293" s="49"/>
-      <c r="H293" s="50"/>
-      <c r="K293" s="48"/>
+      <c r="G293" s="54"/>
+      <c r="H293" s="55"/>
+      <c r="K293" s="53"/>
     </row>
     <row r="294">
-      <c r="G294" s="49"/>
-      <c r="H294" s="50"/>
-      <c r="K294" s="48"/>
+      <c r="G294" s="54"/>
+      <c r="H294" s="55"/>
+      <c r="K294" s="53"/>
     </row>
     <row r="295">
-      <c r="G295" s="49"/>
-      <c r="H295" s="50"/>
-      <c r="K295" s="48"/>
+      <c r="G295" s="54"/>
+      <c r="H295" s="55"/>
+      <c r="K295" s="53"/>
     </row>
     <row r="296">
-      <c r="G296" s="49"/>
-      <c r="H296" s="50"/>
-      <c r="K296" s="48"/>
+      <c r="G296" s="54"/>
+      <c r="H296" s="55"/>
+      <c r="K296" s="53"/>
     </row>
     <row r="297">
-      <c r="G297" s="49"/>
-      <c r="H297" s="50"/>
-      <c r="K297" s="48"/>
+      <c r="G297" s="54"/>
+      <c r="H297" s="55"/>
+      <c r="K297" s="53"/>
     </row>
     <row r="298">
-      <c r="G298" s="49"/>
-      <c r="H298" s="50"/>
-      <c r="K298" s="48"/>
+      <c r="G298" s="54"/>
+      <c r="H298" s="55"/>
+      <c r="K298" s="53"/>
     </row>
     <row r="299">
-      <c r="G299" s="49"/>
-      <c r="H299" s="50"/>
-      <c r="K299" s="48"/>
+      <c r="G299" s="54"/>
+      <c r="H299" s="55"/>
+      <c r="K299" s="53"/>
     </row>
     <row r="300">
-      <c r="G300" s="49"/>
-      <c r="H300" s="50"/>
-      <c r="K300" s="48"/>
+      <c r="G300" s="54"/>
+      <c r="H300" s="55"/>
+      <c r="K300" s="53"/>
     </row>
     <row r="301">
-      <c r="G301" s="49"/>
-      <c r="H301" s="50"/>
-      <c r="K301" s="48"/>
+      <c r="G301" s="54"/>
+      <c r="H301" s="55"/>
+      <c r="K301" s="53"/>
     </row>
     <row r="302">
-      <c r="G302" s="49"/>
-      <c r="H302" s="50"/>
-      <c r="K302" s="48"/>
+      <c r="G302" s="54"/>
+      <c r="H302" s="55"/>
+      <c r="K302" s="53"/>
     </row>
     <row r="303">
-      <c r="G303" s="49"/>
-      <c r="H303" s="50"/>
-      <c r="K303" s="48"/>
+      <c r="G303" s="54"/>
+      <c r="H303" s="55"/>
+      <c r="K303" s="53"/>
     </row>
     <row r="304">
-      <c r="G304" s="49"/>
-      <c r="H304" s="50"/>
-      <c r="K304" s="48"/>
+      <c r="G304" s="54"/>
+      <c r="H304" s="55"/>
+      <c r="K304" s="53"/>
     </row>
     <row r="305">
-      <c r="G305" s="49"/>
-      <c r="H305" s="50"/>
-      <c r="K305" s="48"/>
+      <c r="G305" s="54"/>
+      <c r="H305" s="55"/>
+      <c r="K305" s="53"/>
     </row>
     <row r="306">
-      <c r="G306" s="49"/>
-      <c r="H306" s="50"/>
-      <c r="K306" s="48"/>
+      <c r="G306" s="54"/>
+      <c r="H306" s="55"/>
+      <c r="K306" s="53"/>
     </row>
     <row r="307">
-      <c r="G307" s="49"/>
-      <c r="H307" s="50"/>
-      <c r="K307" s="48"/>
+      <c r="G307" s="54"/>
+      <c r="H307" s="55"/>
+      <c r="K307" s="53"/>
     </row>
     <row r="308">
-      <c r="G308" s="49"/>
-      <c r="H308" s="50"/>
-      <c r="K308" s="48"/>
+      <c r="G308" s="54"/>
+      <c r="H308" s="55"/>
+      <c r="K308" s="53"/>
     </row>
     <row r="309">
-      <c r="G309" s="49"/>
-      <c r="H309" s="50"/>
-      <c r="K309" s="48"/>
+      <c r="G309" s="54"/>
+      <c r="H309" s="55"/>
+      <c r="K309" s="53"/>
     </row>
     <row r="310">
-      <c r="G310" s="49"/>
-      <c r="H310" s="50"/>
-      <c r="K310" s="48"/>
+      <c r="G310" s="54"/>
+      <c r="H310" s="55"/>
+      <c r="K310" s="53"/>
     </row>
     <row r="311">
-      <c r="G311" s="49"/>
-      <c r="H311" s="50"/>
-      <c r="K311" s="48"/>
+      <c r="G311" s="54"/>
+      <c r="H311" s="55"/>
+      <c r="K311" s="53"/>
     </row>
     <row r="312">
-      <c r="G312" s="49"/>
-      <c r="H312" s="50"/>
-      <c r="K312" s="48"/>
+      <c r="G312" s="54"/>
+      <c r="H312" s="55"/>
+      <c r="K312" s="53"/>
     </row>
     <row r="313">
-      <c r="G313" s="49"/>
-      <c r="H313" s="50"/>
-      <c r="K313" s="48"/>
+      <c r="G313" s="54"/>
+      <c r="H313" s="55"/>
+      <c r="K313" s="53"/>
     </row>
     <row r="314">
-      <c r="G314" s="49"/>
-      <c r="H314" s="50"/>
-      <c r="K314" s="48"/>
+      <c r="G314" s="54"/>
+      <c r="H314" s="55"/>
+      <c r="K314" s="53"/>
     </row>
     <row r="315">
-      <c r="G315" s="49"/>
-      <c r="H315" s="50"/>
-      <c r="K315" s="48"/>
+      <c r="G315" s="54"/>
+      <c r="H315" s="55"/>
+      <c r="K315" s="53"/>
     </row>
     <row r="316">
-      <c r="G316" s="49"/>
-      <c r="H316" s="50"/>
-      <c r="K316" s="48"/>
+      <c r="G316" s="54"/>
+      <c r="H316" s="55"/>
+      <c r="K316" s="53"/>
     </row>
     <row r="317">
-      <c r="G317" s="49"/>
-      <c r="H317" s="50"/>
-      <c r="K317" s="48"/>
+      <c r="G317" s="54"/>
+      <c r="H317" s="55"/>
+      <c r="K317" s="53"/>
     </row>
     <row r="318">
-      <c r="G318" s="49"/>
-      <c r="H318" s="50"/>
-      <c r="K318" s="48"/>
+      <c r="G318" s="54"/>
+      <c r="H318" s="55"/>
+      <c r="K318" s="53"/>
     </row>
     <row r="319">
-      <c r="G319" s="49"/>
-      <c r="H319" s="50"/>
-      <c r="K319" s="48"/>
+      <c r="G319" s="54"/>
+      <c r="H319" s="55"/>
+      <c r="K319" s="53"/>
     </row>
     <row r="320">
-      <c r="G320" s="49"/>
-      <c r="H320" s="50"/>
-      <c r="K320" s="48"/>
+      <c r="G320" s="54"/>
+      <c r="H320" s="55"/>
+      <c r="K320" s="53"/>
     </row>
     <row r="321">
-      <c r="G321" s="49"/>
-      <c r="H321" s="50"/>
-      <c r="K321" s="48"/>
+      <c r="G321" s="54"/>
+      <c r="H321" s="55"/>
+      <c r="K321" s="53"/>
     </row>
     <row r="322">
-      <c r="G322" s="49"/>
-      <c r="H322" s="50"/>
-      <c r="K322" s="48"/>
+      <c r="G322" s="54"/>
+      <c r="H322" s="55"/>
+      <c r="K322" s="53"/>
     </row>
     <row r="323">
-      <c r="G323" s="49"/>
-      <c r="H323" s="50"/>
-      <c r="K323" s="48"/>
+      <c r="G323" s="54"/>
+      <c r="H323" s="55"/>
+      <c r="K323" s="53"/>
     </row>
     <row r="324">
-      <c r="G324" s="49"/>
-      <c r="H324" s="50"/>
-      <c r="K324" s="48"/>
+      <c r="G324" s="54"/>
+      <c r="H324" s="55"/>
+      <c r="K324" s="53"/>
     </row>
     <row r="325">
-      <c r="G325" s="49"/>
-      <c r="H325" s="50"/>
-      <c r="K325" s="48"/>
+      <c r="G325" s="54"/>
+      <c r="H325" s="55"/>
+      <c r="K325" s="53"/>
     </row>
     <row r="326">
-      <c r="G326" s="49"/>
-      <c r="H326" s="50"/>
-      <c r="K326" s="48"/>
+      <c r="G326" s="54"/>
+      <c r="H326" s="55"/>
+      <c r="K326" s="53"/>
     </row>
     <row r="327">
-      <c r="G327" s="49"/>
-      <c r="H327" s="50"/>
-      <c r="K327" s="48"/>
+      <c r="G327" s="54"/>
+      <c r="H327" s="55"/>
+      <c r="K327" s="53"/>
     </row>
     <row r="328">
-      <c r="G328" s="49"/>
-      <c r="H328" s="50"/>
-      <c r="K328" s="48"/>
+      <c r="G328" s="54"/>
+      <c r="H328" s="55"/>
+      <c r="K328" s="53"/>
     </row>
     <row r="329">
-      <c r="G329" s="49"/>
-      <c r="H329" s="50"/>
-      <c r="K329" s="48"/>
+      <c r="G329" s="54"/>
+      <c r="H329" s="55"/>
+      <c r="K329" s="53"/>
     </row>
     <row r="330">
-      <c r="G330" s="49"/>
-      <c r="H330" s="50"/>
-      <c r="K330" s="48"/>
+      <c r="G330" s="54"/>
+      <c r="H330" s="55"/>
+      <c r="K330" s="53"/>
     </row>
     <row r="331">
-      <c r="G331" s="49"/>
-      <c r="H331" s="50"/>
-      <c r="K331" s="48"/>
+      <c r="G331" s="54"/>
+      <c r="H331" s="55"/>
+      <c r="K331" s="53"/>
     </row>
     <row r="332">
-      <c r="G332" s="49"/>
-      <c r="H332" s="50"/>
-      <c r="K332" s="48"/>
+      <c r="G332" s="54"/>
+      <c r="H332" s="55"/>
+      <c r="K332" s="53"/>
     </row>
     <row r="333">
-      <c r="G333" s="49"/>
-      <c r="H333" s="50"/>
-      <c r="K333" s="48"/>
+      <c r="G333" s="54"/>
+      <c r="H333" s="55"/>
+      <c r="K333" s="53"/>
     </row>
     <row r="334">
-      <c r="G334" s="49"/>
-      <c r="H334" s="50"/>
-      <c r="K334" s="48"/>
+      <c r="G334" s="54"/>
+      <c r="H334" s="55"/>
+      <c r="K334" s="53"/>
     </row>
     <row r="335">
-      <c r="G335" s="49"/>
-      <c r="H335" s="50"/>
-      <c r="K335" s="48"/>
+      <c r="G335" s="54"/>
+      <c r="H335" s="55"/>
+      <c r="K335" s="53"/>
     </row>
     <row r="336">
-      <c r="G336" s="49"/>
-      <c r="H336" s="50"/>
-      <c r="K336" s="48"/>
+      <c r="G336" s="54"/>
+      <c r="H336" s="55"/>
+      <c r="K336" s="53"/>
     </row>
     <row r="337">
-      <c r="G337" s="49"/>
-      <c r="H337" s="50"/>
-      <c r="K337" s="48"/>
+      <c r="G337" s="54"/>
+      <c r="H337" s="55"/>
+      <c r="K337" s="53"/>
     </row>
     <row r="338">
-      <c r="G338" s="49"/>
-      <c r="H338" s="50"/>
-      <c r="K338" s="48"/>
+      <c r="G338" s="54"/>
+      <c r="H338" s="55"/>
+      <c r="K338" s="53"/>
     </row>
     <row r="339">
-      <c r="G339" s="49"/>
-      <c r="H339" s="50"/>
-      <c r="K339" s="48"/>
+      <c r="G339" s="54"/>
+      <c r="H339" s="55"/>
+      <c r="K339" s="53"/>
     </row>
     <row r="340">
-      <c r="G340" s="49"/>
-      <c r="H340" s="50"/>
-      <c r="K340" s="48"/>
+      <c r="G340" s="54"/>
+      <c r="H340" s="55"/>
+      <c r="K340" s="53"/>
     </row>
     <row r="341">
-      <c r="G341" s="49"/>
-      <c r="H341" s="50"/>
-      <c r="K341" s="48"/>
+      <c r="G341" s="54"/>
+      <c r="H341" s="55"/>
+      <c r="K341" s="53"/>
     </row>
     <row r="342">
-      <c r="G342" s="49"/>
-      <c r="H342" s="50"/>
-      <c r="K342" s="48"/>
+      <c r="G342" s="54"/>
+      <c r="H342" s="55"/>
+      <c r="K342" s="53"/>
     </row>
     <row r="343">
-      <c r="G343" s="49"/>
-      <c r="H343" s="50"/>
-      <c r="K343" s="48"/>
+      <c r="G343" s="54"/>
+      <c r="H343" s="55"/>
+      <c r="K343" s="53"/>
     </row>
     <row r="344">
-      <c r="G344" s="49"/>
-      <c r="H344" s="50"/>
-      <c r="K344" s="48"/>
+      <c r="G344" s="54"/>
+      <c r="H344" s="55"/>
+      <c r="K344" s="53"/>
     </row>
     <row r="345">
-      <c r="G345" s="49"/>
-      <c r="H345" s="50"/>
-      <c r="K345" s="48"/>
+      <c r="G345" s="54"/>
+      <c r="H345" s="55"/>
+      <c r="K345" s="53"/>
     </row>
     <row r="346">
-      <c r="G346" s="49"/>
-      <c r="H346" s="50"/>
-      <c r="K346" s="48"/>
+      <c r="G346" s="54"/>
+      <c r="H346" s="55"/>
+      <c r="K346" s="53"/>
     </row>
     <row r="347">
-      <c r="G347" s="49"/>
-      <c r="H347" s="50"/>
-      <c r="K347" s="48"/>
+      <c r="G347" s="54"/>
+      <c r="H347" s="55"/>
+      <c r="K347" s="53"/>
     </row>
     <row r="348">
-      <c r="G348" s="49"/>
-      <c r="H348" s="50"/>
-      <c r="K348" s="48"/>
+      <c r="G348" s="54"/>
+      <c r="H348" s="55"/>
+      <c r="K348" s="53"/>
     </row>
     <row r="349">
-      <c r="G349" s="49"/>
-      <c r="H349" s="50"/>
-      <c r="K349" s="48"/>
+      <c r="G349" s="54"/>
+      <c r="H349" s="55"/>
+      <c r="K349" s="53"/>
     </row>
     <row r="350">
-      <c r="G350" s="49"/>
-      <c r="H350" s="50"/>
-      <c r="K350" s="48"/>
+      <c r="G350" s="54"/>
+      <c r="H350" s="55"/>
+      <c r="K350" s="53"/>
     </row>
     <row r="351">
-      <c r="G351" s="49"/>
-      <c r="H351" s="50"/>
-      <c r="K351" s="48"/>
+      <c r="G351" s="54"/>
+      <c r="H351" s="55"/>
+      <c r="K351" s="53"/>
     </row>
     <row r="352">
-      <c r="G352" s="49"/>
-      <c r="H352" s="50"/>
-      <c r="K352" s="48"/>
+      <c r="G352" s="54"/>
+      <c r="H352" s="55"/>
+      <c r="K352" s="53"/>
     </row>
     <row r="353">
-      <c r="G353" s="49"/>
-      <c r="H353" s="50"/>
-      <c r="K353" s="48"/>
+      <c r="G353" s="54"/>
+      <c r="H353" s="55"/>
+      <c r="K353" s="53"/>
     </row>
     <row r="354">
-      <c r="G354" s="49"/>
-      <c r="H354" s="50"/>
-      <c r="K354" s="48"/>
+      <c r="G354" s="54"/>
+      <c r="H354" s="55"/>
+      <c r="K354" s="53"/>
     </row>
     <row r="355">
-      <c r="G355" s="49"/>
-      <c r="H355" s="50"/>
-      <c r="K355" s="48"/>
+      <c r="G355" s="54"/>
+      <c r="H355" s="55"/>
+      <c r="K355" s="53"/>
     </row>
     <row r="356">
-      <c r="G356" s="49"/>
-      <c r="H356" s="50"/>
-      <c r="K356" s="48"/>
+      <c r="G356" s="54"/>
+      <c r="H356" s="55"/>
+      <c r="K356" s="53"/>
     </row>
     <row r="357">
-      <c r="G357" s="49"/>
-      <c r="H357" s="50"/>
-      <c r="K357" s="48"/>
+      <c r="G357" s="54"/>
+      <c r="H357" s="55"/>
+      <c r="K357" s="53"/>
     </row>
     <row r="358">
-      <c r="G358" s="49"/>
-      <c r="H358" s="50"/>
-      <c r="K358" s="48"/>
+      <c r="G358" s="54"/>
+      <c r="H358" s="55"/>
+      <c r="K358" s="53"/>
     </row>
     <row r="359">
-      <c r="G359" s="49"/>
-      <c r="H359" s="50"/>
-      <c r="K359" s="48"/>
+      <c r="G359" s="54"/>
+      <c r="H359" s="55"/>
+      <c r="K359" s="53"/>
     </row>
     <row r="360">
-      <c r="G360" s="49"/>
-      <c r="H360" s="50"/>
-      <c r="K360" s="48"/>
+      <c r="G360" s="54"/>
+      <c r="H360" s="55"/>
+      <c r="K360" s="53"/>
     </row>
     <row r="361">
-      <c r="G361" s="49"/>
-      <c r="H361" s="50"/>
-      <c r="K361" s="48"/>
+      <c r="G361" s="54"/>
+      <c r="H361" s="55"/>
+      <c r="K361" s="53"/>
     </row>
     <row r="362">
-      <c r="G362" s="49"/>
-      <c r="H362" s="50"/>
-      <c r="K362" s="48"/>
+      <c r="G362" s="54"/>
+      <c r="H362" s="55"/>
+      <c r="K362" s="53"/>
     </row>
     <row r="363">
-      <c r="G363" s="49"/>
-      <c r="H363" s="50"/>
-      <c r="K363" s="48"/>
+      <c r="G363" s="54"/>
+      <c r="H363" s="55"/>
+      <c r="K363" s="53"/>
     </row>
     <row r="364">
-      <c r="G364" s="49"/>
-      <c r="H364" s="50"/>
-      <c r="K364" s="48"/>
+      <c r="G364" s="54"/>
+      <c r="H364" s="55"/>
+      <c r="K364" s="53"/>
     </row>
     <row r="365">
-      <c r="G365" s="49"/>
-      <c r="H365" s="50"/>
-      <c r="K365" s="48"/>
+      <c r="G365" s="54"/>
+      <c r="H365" s="55"/>
+      <c r="K365" s="53"/>
     </row>
     <row r="366">
-      <c r="G366" s="49"/>
-      <c r="H366" s="50"/>
-      <c r="K366" s="48"/>
+      <c r="G366" s="54"/>
+      <c r="H366" s="55"/>
+      <c r="K366" s="53"/>
     </row>
     <row r="367">
-      <c r="G367" s="49"/>
-      <c r="H367" s="50"/>
-      <c r="K367" s="48"/>
+      <c r="G367" s="54"/>
+      <c r="H367" s="55"/>
+      <c r="K367" s="53"/>
     </row>
     <row r="368">
-      <c r="G368" s="49"/>
-      <c r="H368" s="50"/>
-      <c r="K368" s="48"/>
+      <c r="G368" s="54"/>
+      <c r="H368" s="55"/>
+      <c r="K368" s="53"/>
     </row>
     <row r="369">
-      <c r="G369" s="49"/>
-      <c r="H369" s="50"/>
-      <c r="K369" s="48"/>
+      <c r="G369" s="54"/>
+      <c r="H369" s="55"/>
+      <c r="K369" s="53"/>
     </row>
     <row r="370">
-      <c r="G370" s="49"/>
-      <c r="H370" s="50"/>
-      <c r="K370" s="48"/>
+      <c r="G370" s="54"/>
+      <c r="H370" s="55"/>
+      <c r="K370" s="53"/>
     </row>
     <row r="371">
-      <c r="G371" s="49"/>
-      <c r="H371" s="50"/>
-      <c r="K371" s="48"/>
+      <c r="G371" s="54"/>
+      <c r="H371" s="55"/>
+      <c r="K371" s="53"/>
     </row>
     <row r="372">
-      <c r="G372" s="49"/>
-      <c r="H372" s="50"/>
-      <c r="K372" s="48"/>
+      <c r="G372" s="54"/>
+      <c r="H372" s="55"/>
+      <c r="K372" s="53"/>
     </row>
     <row r="373">
-      <c r="G373" s="49"/>
-      <c r="H373" s="50"/>
-      <c r="K373" s="48"/>
+      <c r="G373" s="54"/>
+      <c r="H373" s="55"/>
+      <c r="K373" s="53"/>
     </row>
     <row r="374">
-      <c r="G374" s="49"/>
-      <c r="H374" s="50"/>
-      <c r="K374" s="48"/>
+      <c r="G374" s="54"/>
+      <c r="H374" s="55"/>
+      <c r="K374" s="53"/>
     </row>
     <row r="375">
-      <c r="G375" s="49"/>
-      <c r="H375" s="50"/>
-      <c r="K375" s="48"/>
+      <c r="G375" s="54"/>
+      <c r="H375" s="55"/>
+      <c r="K375" s="53"/>
     </row>
     <row r="376">
-      <c r="G376" s="49"/>
-      <c r="H376" s="50"/>
-      <c r="K376" s="48"/>
+      <c r="G376" s="54"/>
+      <c r="H376" s="55"/>
+      <c r="K376" s="53"/>
     </row>
     <row r="377">
-      <c r="G377" s="49"/>
-      <c r="H377" s="50"/>
-      <c r="K377" s="48"/>
+      <c r="G377" s="54"/>
+      <c r="H377" s="55"/>
+      <c r="K377" s="53"/>
     </row>
     <row r="378">
-      <c r="G378" s="49"/>
-      <c r="H378" s="50"/>
-      <c r="K378" s="48"/>
+      <c r="G378" s="54"/>
+      <c r="H378" s="55"/>
+      <c r="K378" s="53"/>
     </row>
     <row r="379">
-      <c r="G379" s="49"/>
-      <c r="H379" s="50"/>
-      <c r="K379" s="48"/>
+      <c r="G379" s="54"/>
+      <c r="H379" s="55"/>
+      <c r="K379" s="53"/>
     </row>
     <row r="380">
-      <c r="G380" s="49"/>
-      <c r="H380" s="50"/>
-      <c r="K380" s="48"/>
+      <c r="G380" s="54"/>
+      <c r="H380" s="55"/>
+      <c r="K380" s="53"/>
     </row>
     <row r="381">
-      <c r="G381" s="49"/>
-      <c r="H381" s="50"/>
-      <c r="K381" s="48"/>
+      <c r="G381" s="54"/>
+      <c r="H381" s="55"/>
+      <c r="K381" s="53"/>
     </row>
     <row r="382">
-      <c r="G382" s="49"/>
-      <c r="H382" s="50"/>
-      <c r="K382" s="48"/>
+      <c r="G382" s="54"/>
+      <c r="H382" s="55"/>
+      <c r="K382" s="53"/>
     </row>
     <row r="383">
-      <c r="G383" s="49"/>
-      <c r="H383" s="50"/>
-      <c r="K383" s="48"/>
+      <c r="G383" s="54"/>
+      <c r="H383" s="55"/>
+      <c r="K383" s="53"/>
     </row>
     <row r="384">
-      <c r="G384" s="49"/>
-      <c r="H384" s="50"/>
-      <c r="K384" s="48"/>
+      <c r="G384" s="54"/>
+      <c r="H384" s="55"/>
+      <c r="K384" s="53"/>
     </row>
     <row r="385">
-      <c r="G385" s="49"/>
-      <c r="H385" s="50"/>
-      <c r="K385" s="48"/>
+      <c r="G385" s="54"/>
+      <c r="H385" s="55"/>
+      <c r="K385" s="53"/>
     </row>
     <row r="386">
-      <c r="G386" s="49"/>
-      <c r="H386" s="50"/>
-      <c r="K386" s="48"/>
+      <c r="G386" s="54"/>
+      <c r="H386" s="55"/>
+      <c r="K386" s="53"/>
     </row>
     <row r="387">
-      <c r="G387" s="49"/>
-      <c r="H387" s="50"/>
-      <c r="K387" s="48"/>
+      <c r="G387" s="54"/>
+      <c r="H387" s="55"/>
+      <c r="K387" s="53"/>
     </row>
     <row r="388">
-      <c r="G388" s="49"/>
-      <c r="H388" s="50"/>
-      <c r="K388" s="48"/>
+      <c r="G388" s="54"/>
+      <c r="H388" s="55"/>
+      <c r="K388" s="53"/>
     </row>
     <row r="389">
-      <c r="G389" s="49"/>
-      <c r="H389" s="50"/>
-      <c r="K389" s="48"/>
+      <c r="G389" s="54"/>
+      <c r="H389" s="55"/>
+      <c r="K389" s="53"/>
     </row>
     <row r="390">
-      <c r="G390" s="49"/>
-      <c r="H390" s="50"/>
-      <c r="K390" s="48"/>
+      <c r="G390" s="54"/>
+      <c r="H390" s="55"/>
+      <c r="K390" s="53"/>
     </row>
     <row r="391">
-      <c r="G391" s="49"/>
-      <c r="H391" s="50"/>
-      <c r="K391" s="48"/>
+      <c r="G391" s="54"/>
+      <c r="H391" s="55"/>
+      <c r="K391" s="53"/>
     </row>
     <row r="392">
-      <c r="G392" s="49"/>
-      <c r="H392" s="50"/>
-      <c r="K392" s="48"/>
+      <c r="G392" s="54"/>
+      <c r="H392" s="55"/>
+      <c r="K392" s="53"/>
     </row>
     <row r="393">
-      <c r="G393" s="49"/>
-      <c r="H393" s="50"/>
-      <c r="K393" s="48"/>
+      <c r="G393" s="54"/>
+      <c r="H393" s="55"/>
+      <c r="K393" s="53"/>
     </row>
     <row r="394">
-      <c r="G394" s="49"/>
-      <c r="H394" s="50"/>
-      <c r="K394" s="48"/>
+      <c r="G394" s="54"/>
+      <c r="H394" s="55"/>
+      <c r="K394" s="53"/>
     </row>
     <row r="395">
-      <c r="G395" s="49"/>
-      <c r="H395" s="50"/>
-      <c r="K395" s="48"/>
+      <c r="G395" s="54"/>
+      <c r="H395" s="55"/>
+      <c r="K395" s="53"/>
     </row>
     <row r="396">
-      <c r="G396" s="49"/>
-      <c r="H396" s="50"/>
-      <c r="K396" s="48"/>
+      <c r="G396" s="54"/>
+      <c r="H396" s="55"/>
+      <c r="K396" s="53"/>
     </row>
     <row r="397">
-      <c r="G397" s="49"/>
-      <c r="H397" s="50"/>
-      <c r="K397" s="48"/>
+      <c r="G397" s="54"/>
+      <c r="H397" s="55"/>
+      <c r="K397" s="53"/>
     </row>
     <row r="398">
-      <c r="G398" s="49"/>
-      <c r="H398" s="50"/>
-      <c r="K398" s="48"/>
+      <c r="G398" s="54"/>
+      <c r="H398" s="55"/>
+      <c r="K398" s="53"/>
     </row>
     <row r="399">
-      <c r="G399" s="49"/>
-      <c r="H399" s="50"/>
-      <c r="K399" s="48"/>
+      <c r="G399" s="54"/>
+      <c r="H399" s="55"/>
+      <c r="K399" s="53"/>
     </row>
     <row r="400">
-      <c r="G400" s="49"/>
-      <c r="H400" s="50"/>
-      <c r="K400" s="48"/>
+      <c r="G400" s="54"/>
+      <c r="H400" s="55"/>
+      <c r="K400" s="53"/>
     </row>
     <row r="401">
-      <c r="G401" s="49"/>
-      <c r="H401" s="50"/>
-      <c r="K401" s="48"/>
+      <c r="G401" s="54"/>
+      <c r="H401" s="55"/>
+      <c r="K401" s="53"/>
     </row>
     <row r="402">
-      <c r="G402" s="49"/>
-      <c r="H402" s="50"/>
-      <c r="K402" s="48"/>
+      <c r="G402" s="54"/>
+      <c r="H402" s="55"/>
+      <c r="K402" s="53"/>
     </row>
     <row r="403">
-      <c r="G403" s="49"/>
-      <c r="H403" s="50"/>
-      <c r="K403" s="48"/>
+      <c r="G403" s="54"/>
+      <c r="H403" s="55"/>
+      <c r="K403" s="53"/>
     </row>
     <row r="404">
-      <c r="G404" s="49"/>
-      <c r="H404" s="50"/>
-      <c r="K404" s="48"/>
+      <c r="G404" s="54"/>
+      <c r="H404" s="55"/>
+      <c r="K404" s="53"/>
     </row>
     <row r="405">
-      <c r="G405" s="49"/>
-      <c r="H405" s="50"/>
-      <c r="K405" s="48"/>
+      <c r="G405" s="54"/>
+      <c r="H405" s="55"/>
+      <c r="K405" s="53"/>
     </row>
     <row r="406">
-      <c r="G406" s="49"/>
-      <c r="H406" s="50"/>
-      <c r="K406" s="48"/>
+      <c r="G406" s="54"/>
+      <c r="H406" s="55"/>
+      <c r="K406" s="53"/>
     </row>
     <row r="407">
-      <c r="G407" s="49"/>
-      <c r="H407" s="50"/>
-      <c r="K407" s="48"/>
+      <c r="G407" s="54"/>
+      <c r="H407" s="55"/>
+      <c r="K407" s="53"/>
     </row>
     <row r="408">
-      <c r="G408" s="49"/>
-      <c r="H408" s="50"/>
-      <c r="K408" s="48"/>
+      <c r="G408" s="54"/>
+      <c r="H408" s="55"/>
+      <c r="K408" s="53"/>
     </row>
     <row r="409">
-      <c r="G409" s="49"/>
-      <c r="H409" s="50"/>
-      <c r="K409" s="48"/>
+      <c r="G409" s="54"/>
+      <c r="H409" s="55"/>
+      <c r="K409" s="53"/>
     </row>
     <row r="410">
-      <c r="G410" s="49"/>
-      <c r="H410" s="50"/>
-      <c r="K410" s="48"/>
+      <c r="G410" s="54"/>
+      <c r="H410" s="55"/>
+      <c r="K410" s="53"/>
     </row>
     <row r="411">
-      <c r="G411" s="49"/>
-      <c r="H411" s="50"/>
-      <c r="K411" s="48"/>
+      <c r="G411" s="54"/>
+      <c r="H411" s="55"/>
+      <c r="K411" s="53"/>
     </row>
     <row r="412">
-      <c r="G412" s="49"/>
-      <c r="H412" s="50"/>
-      <c r="K412" s="48"/>
+      <c r="G412" s="54"/>
+      <c r="H412" s="55"/>
+      <c r="K412" s="53"/>
     </row>
     <row r="413">
-      <c r="G413" s="49"/>
-      <c r="H413" s="50"/>
-      <c r="K413" s="48"/>
+      <c r="G413" s="54"/>
+      <c r="H413" s="55"/>
+      <c r="K413" s="53"/>
     </row>
     <row r="414">
-      <c r="G414" s="49"/>
-      <c r="H414" s="50"/>
-      <c r="K414" s="48"/>
+      <c r="G414" s="54"/>
+      <c r="H414" s="55"/>
+      <c r="K414" s="53"/>
     </row>
     <row r="415">
-      <c r="G415" s="49"/>
-      <c r="H415" s="50"/>
-      <c r="K415" s="48"/>
+      <c r="G415" s="54"/>
+      <c r="H415" s="55"/>
+      <c r="K415" s="53"/>
     </row>
     <row r="416">
-      <c r="G416" s="49"/>
-      <c r="H416" s="50"/>
-      <c r="K416" s="48"/>
+      <c r="G416" s="54"/>
+      <c r="H416" s="55"/>
+      <c r="K416" s="53"/>
     </row>
     <row r="417">
-      <c r="G417" s="49"/>
-      <c r="H417" s="50"/>
-      <c r="K417" s="48"/>
+      <c r="G417" s="54"/>
+      <c r="H417" s="55"/>
+      <c r="K417" s="53"/>
     </row>
     <row r="418">
-      <c r="G418" s="49"/>
-      <c r="H418" s="50"/>
-      <c r="K418" s="48"/>
+      <c r="G418" s="54"/>
+      <c r="H418" s="55"/>
+      <c r="K418" s="53"/>
     </row>
     <row r="419">
-      <c r="G419" s="49"/>
-      <c r="H419" s="50"/>
-      <c r="K419" s="48"/>
+      <c r="G419" s="54"/>
+      <c r="H419" s="55"/>
+      <c r="K419" s="53"/>
     </row>
     <row r="420">
-      <c r="G420" s="49"/>
-      <c r="H420" s="50"/>
-      <c r="K420" s="48"/>
+      <c r="G420" s="54"/>
+      <c r="H420" s="55"/>
+      <c r="K420" s="53"/>
     </row>
     <row r="421">
-      <c r="G421" s="49"/>
-      <c r="H421" s="50"/>
-      <c r="K421" s="48"/>
+      <c r="G421" s="54"/>
+      <c r="H421" s="55"/>
+      <c r="K421" s="53"/>
     </row>
     <row r="422">
-      <c r="G422" s="49"/>
-      <c r="H422" s="50"/>
-      <c r="K422" s="48"/>
+      <c r="G422" s="54"/>
+      <c r="H422" s="55"/>
+      <c r="K422" s="53"/>
     </row>
     <row r="423">
-      <c r="G423" s="49"/>
-      <c r="H423" s="50"/>
-      <c r="K423" s="48"/>
+      <c r="G423" s="54"/>
+      <c r="H423" s="55"/>
+      <c r="K423" s="53"/>
     </row>
     <row r="424">
-      <c r="G424" s="49"/>
-      <c r="H424" s="50"/>
-      <c r="K424" s="48"/>
+      <c r="G424" s="54"/>
+      <c r="H424" s="55"/>
+      <c r="K424" s="53"/>
     </row>
     <row r="425">
-      <c r="G425" s="49"/>
-      <c r="H425" s="50"/>
-      <c r="K425" s="48"/>
+      <c r="G425" s="54"/>
+      <c r="H425" s="55"/>
+      <c r="K425" s="53"/>
     </row>
     <row r="426">
-      <c r="G426" s="49"/>
-      <c r="H426" s="50"/>
-      <c r="K426" s="48"/>
+      <c r="G426" s="54"/>
+      <c r="H426" s="55"/>
+      <c r="K426" s="53"/>
     </row>
     <row r="427">
-      <c r="G427" s="49"/>
-      <c r="H427" s="50"/>
-      <c r="K427" s="48"/>
+      <c r="G427" s="54"/>
+      <c r="H427" s="55"/>
+      <c r="K427" s="53"/>
     </row>
     <row r="428">
-      <c r="G428" s="49"/>
-      <c r="H428" s="50"/>
-      <c r="K428" s="48"/>
+      <c r="G428" s="54"/>
+      <c r="H428" s="55"/>
+      <c r="K428" s="53"/>
     </row>
     <row r="429">
-      <c r="G429" s="49"/>
-      <c r="H429" s="50"/>
-      <c r="K429" s="48"/>
+      <c r="G429" s="54"/>
+      <c r="H429" s="55"/>
+      <c r="K429" s="53"/>
     </row>
     <row r="430">
-      <c r="G430" s="49"/>
-      <c r="H430" s="50"/>
-      <c r="K430" s="48"/>
+      <c r="G430" s="54"/>
+      <c r="H430" s="55"/>
+      <c r="K430" s="53"/>
     </row>
     <row r="431">
-      <c r="G431" s="49"/>
-      <c r="H431" s="50"/>
-      <c r="K431" s="48"/>
+      <c r="G431" s="54"/>
+      <c r="H431" s="55"/>
+      <c r="K431" s="53"/>
     </row>
     <row r="432">
-      <c r="G432" s="49"/>
-      <c r="H432" s="50"/>
-      <c r="K432" s="48"/>
+      <c r="G432" s="54"/>
+      <c r="H432" s="55"/>
+      <c r="K432" s="53"/>
     </row>
     <row r="433">
-      <c r="G433" s="49"/>
-      <c r="H433" s="50"/>
-      <c r="K433" s="48"/>
+      <c r="G433" s="54"/>
+      <c r="H433" s="55"/>
+      <c r="K433" s="53"/>
     </row>
     <row r="434">
-      <c r="G434" s="49"/>
-      <c r="H434" s="50"/>
-      <c r="K434" s="48"/>
+      <c r="G434" s="54"/>
+      <c r="H434" s="55"/>
+      <c r="K434" s="53"/>
     </row>
     <row r="435">
-      <c r="G435" s="49"/>
-      <c r="H435" s="50"/>
-      <c r="K435" s="48"/>
+      <c r="G435" s="54"/>
+      <c r="H435" s="55"/>
+      <c r="K435" s="53"/>
     </row>
     <row r="436">
-      <c r="G436" s="49"/>
-      <c r="H436" s="50"/>
-      <c r="K436" s="48"/>
+      <c r="G436" s="54"/>
+      <c r="H436" s="55"/>
+      <c r="K436" s="53"/>
     </row>
     <row r="437">
-      <c r="G437" s="49"/>
-      <c r="H437" s="50"/>
-      <c r="K437" s="48"/>
+      <c r="G437" s="54"/>
+      <c r="H437" s="55"/>
+      <c r="K437" s="53"/>
     </row>
     <row r="438">
-      <c r="G438" s="49"/>
-      <c r="H438" s="50"/>
-      <c r="K438" s="48"/>
+      <c r="G438" s="54"/>
+      <c r="H438" s="55"/>
+      <c r="K438" s="53"/>
     </row>
     <row r="439">
-      <c r="G439" s="49"/>
-      <c r="H439" s="50"/>
-      <c r="K439" s="48"/>
+      <c r="G439" s="54"/>
+      <c r="H439" s="55"/>
+      <c r="K439" s="53"/>
     </row>
     <row r="440">
-      <c r="G440" s="49"/>
-      <c r="H440" s="50"/>
-      <c r="K440" s="48"/>
+      <c r="G440" s="54"/>
+      <c r="H440" s="55"/>
+      <c r="K440" s="53"/>
     </row>
     <row r="441">
-      <c r="G441" s="49"/>
-      <c r="H441" s="50"/>
-      <c r="K441" s="48"/>
+      <c r="G441" s="54"/>
+      <c r="H441" s="55"/>
+      <c r="K441" s="53"/>
     </row>
     <row r="442">
-      <c r="G442" s="49"/>
-      <c r="H442" s="50"/>
-      <c r="K442" s="48"/>
+      <c r="G442" s="54"/>
+      <c r="H442" s="55"/>
+      <c r="K442" s="53"/>
     </row>
     <row r="443">
-      <c r="G443" s="49"/>
-      <c r="H443" s="50"/>
-      <c r="K443" s="48"/>
+      <c r="G443" s="54"/>
+      <c r="H443" s="55"/>
+      <c r="K443" s="53"/>
     </row>
     <row r="444">
-      <c r="G444" s="49"/>
-      <c r="H444" s="50"/>
-      <c r="K444" s="48"/>
+      <c r="G444" s="54"/>
+      <c r="H444" s="55"/>
+      <c r="K444" s="53"/>
     </row>
     <row r="445">
-      <c r="G445" s="49"/>
-      <c r="H445" s="50"/>
-      <c r="K445" s="48"/>
+      <c r="G445" s="54"/>
+      <c r="H445" s="55"/>
+      <c r="K445" s="53"/>
     </row>
     <row r="446">
-      <c r="G446" s="49"/>
-      <c r="H446" s="50"/>
-      <c r="K446" s="48"/>
+      <c r="G446" s="54"/>
+      <c r="H446" s="55"/>
+      <c r="K446" s="53"/>
     </row>
     <row r="447">
-      <c r="G447" s="49"/>
-      <c r="H447" s="50"/>
-      <c r="K447" s="48"/>
+      <c r="G447" s="54"/>
+      <c r="H447" s="55"/>
+      <c r="K447" s="53"/>
     </row>
     <row r="448">
-      <c r="G448" s="49"/>
-      <c r="H448" s="50"/>
-      <c r="K448" s="48"/>
+      <c r="G448" s="54"/>
+      <c r="H448" s="55"/>
+      <c r="K448" s="53"/>
     </row>
     <row r="449">
-      <c r="G449" s="49"/>
-      <c r="H449" s="50"/>
-      <c r="K449" s="48"/>
+      <c r="G449" s="54"/>
+      <c r="H449" s="55"/>
+      <c r="K449" s="53"/>
     </row>
     <row r="450">
-      <c r="G450" s="49"/>
-      <c r="H450" s="50"/>
-      <c r="K450" s="48"/>
+      <c r="G450" s="54"/>
+      <c r="H450" s="55"/>
+      <c r="K450" s="53"/>
     </row>
     <row r="451">
-      <c r="G451" s="49"/>
-      <c r="H451" s="50"/>
-      <c r="K451" s="48"/>
+      <c r="G451" s="54"/>
+      <c r="H451" s="55"/>
+      <c r="K451" s="53"/>
     </row>
     <row r="452">
-      <c r="G452" s="49"/>
-      <c r="H452" s="50"/>
-      <c r="K452" s="48"/>
+      <c r="G452" s="54"/>
+      <c r="H452" s="55"/>
+      <c r="K452" s="53"/>
     </row>
     <row r="453">
-      <c r="G453" s="49"/>
-      <c r="H453" s="50"/>
-      <c r="K453" s="48"/>
+      <c r="G453" s="54"/>
+      <c r="H453" s="55"/>
+      <c r="K453" s="53"/>
     </row>
     <row r="454">
-      <c r="G454" s="49"/>
-      <c r="H454" s="50"/>
-      <c r="K454" s="48"/>
+      <c r="G454" s="54"/>
+      <c r="H454" s="55"/>
+      <c r="K454" s="53"/>
     </row>
     <row r="455">
-      <c r="G455" s="49"/>
-      <c r="H455" s="50"/>
-      <c r="K455" s="48"/>
+      <c r="G455" s="54"/>
+      <c r="H455" s="55"/>
+      <c r="K455" s="53"/>
     </row>
     <row r="456">
-      <c r="G456" s="49"/>
-      <c r="H456" s="50"/>
-      <c r="K456" s="48"/>
+      <c r="G456" s="54"/>
+      <c r="H456" s="55"/>
+      <c r="K456" s="53"/>
     </row>
     <row r="457">
-      <c r="G457" s="49"/>
-      <c r="H457" s="50"/>
-      <c r="K457" s="48"/>
+      <c r="G457" s="54"/>
+      <c r="H457" s="55"/>
+      <c r="K457" s="53"/>
     </row>
     <row r="458">
-      <c r="G458" s="49"/>
-      <c r="H458" s="50"/>
-      <c r="K458" s="48"/>
+      <c r="G458" s="54"/>
+      <c r="H458" s="55"/>
+      <c r="K458" s="53"/>
     </row>
     <row r="459">
-      <c r="G459" s="49"/>
-      <c r="H459" s="50"/>
-      <c r="K459" s="48"/>
+      <c r="G459" s="54"/>
+      <c r="H459" s="55"/>
+      <c r="K459" s="53"/>
     </row>
     <row r="460">
-      <c r="G460" s="49"/>
-      <c r="H460" s="50"/>
-      <c r="K460" s="48"/>
+      <c r="G460" s="54"/>
+      <c r="H460" s="55"/>
+      <c r="K460" s="53"/>
     </row>
     <row r="461">
-      <c r="G461" s="49"/>
-      <c r="H461" s="50"/>
-      <c r="K461" s="48"/>
+      <c r="G461" s="54"/>
+      <c r="H461" s="55"/>
+      <c r="K461" s="53"/>
     </row>
     <row r="462">
-      <c r="G462" s="49"/>
-      <c r="H462" s="50"/>
-      <c r="K462" s="48"/>
+      <c r="G462" s="54"/>
+      <c r="H462" s="55"/>
+      <c r="K462" s="53"/>
     </row>
     <row r="463">
-      <c r="G463" s="49"/>
-      <c r="H463" s="50"/>
-      <c r="K463" s="48"/>
+      <c r="G463" s="54"/>
+      <c r="H463" s="55"/>
+      <c r="K463" s="53"/>
     </row>
     <row r="464">
-      <c r="G464" s="49"/>
-      <c r="H464" s="50"/>
-      <c r="K464" s="48"/>
+      <c r="G464" s="54"/>
+      <c r="H464" s="55"/>
+      <c r="K464" s="53"/>
     </row>
     <row r="465">
-      <c r="G465" s="49"/>
-      <c r="H465" s="50"/>
-      <c r="K465" s="48"/>
+      <c r="G465" s="54"/>
+      <c r="H465" s="55"/>
+      <c r="K465" s="53"/>
     </row>
     <row r="466">
-      <c r="G466" s="49"/>
-      <c r="H466" s="50"/>
-      <c r="K466" s="48"/>
+      <c r="G466" s="54"/>
+      <c r="H466" s="55"/>
+      <c r="K466" s="53"/>
     </row>
     <row r="467">
-      <c r="G467" s="49"/>
-      <c r="H467" s="50"/>
-      <c r="K467" s="48"/>
+      <c r="G467" s="54"/>
+      <c r="H467" s="55"/>
+      <c r="K467" s="53"/>
     </row>
     <row r="468">
-      <c r="G468" s="49"/>
-      <c r="H468" s="50"/>
-      <c r="K468" s="48"/>
+      <c r="G468" s="54"/>
+      <c r="H468" s="55"/>
+      <c r="K468" s="53"/>
     </row>
     <row r="469">
-      <c r="G469" s="49"/>
-      <c r="H469" s="50"/>
-      <c r="K469" s="48"/>
+      <c r="G469" s="54"/>
+      <c r="H469" s="55"/>
+      <c r="K469" s="53"/>
     </row>
     <row r="470">
-      <c r="G470" s="49"/>
-      <c r="H470" s="50"/>
-      <c r="K470" s="48"/>
+      <c r="G470" s="54"/>
+      <c r="H470" s="55"/>
+      <c r="K470" s="53"/>
     </row>
     <row r="471">
-      <c r="G471" s="49"/>
-      <c r="H471" s="50"/>
-      <c r="K471" s="48"/>
+      <c r="G471" s="54"/>
+      <c r="H471" s="55"/>
+      <c r="K471" s="53"/>
     </row>
     <row r="472">
-      <c r="G472" s="49"/>
-      <c r="H472" s="50"/>
-      <c r="K472" s="48"/>
+      <c r="G472" s="54"/>
+      <c r="H472" s="55"/>
+      <c r="K472" s="53"/>
     </row>
     <row r="473">
-      <c r="G473" s="49"/>
-      <c r="H473" s="50"/>
-      <c r="K473" s="48"/>
+      <c r="G473" s="54"/>
+      <c r="H473" s="55"/>
+      <c r="K473" s="53"/>
     </row>
     <row r="474">
-      <c r="G474" s="49"/>
-      <c r="H474" s="50"/>
-      <c r="K474" s="48"/>
+      <c r="G474" s="54"/>
+      <c r="H474" s="55"/>
+      <c r="K474" s="53"/>
     </row>
     <row r="475">
-      <c r="G475" s="49"/>
-      <c r="H475" s="50"/>
-      <c r="K475" s="48"/>
+      <c r="G475" s="54"/>
+      <c r="H475" s="55"/>
+      <c r="K475" s="53"/>
     </row>
     <row r="476">
-      <c r="G476" s="49"/>
-      <c r="H476" s="50"/>
-      <c r="K476" s="48"/>
+      <c r="G476" s="54"/>
+      <c r="H476" s="55"/>
+      <c r="K476" s="53"/>
     </row>
     <row r="477">
-      <c r="G477" s="49"/>
-      <c r="H477" s="50"/>
-      <c r="K477" s="48"/>
+      <c r="G477" s="54"/>
+      <c r="H477" s="55"/>
+      <c r="K477" s="53"/>
     </row>
     <row r="478">
-      <c r="G478" s="49"/>
-      <c r="H478" s="50"/>
-      <c r="K478" s="48"/>
+      <c r="G478" s="54"/>
+      <c r="H478" s="55"/>
+      <c r="K478" s="53"/>
     </row>
     <row r="479">
-      <c r="G479" s="49"/>
-      <c r="H479" s="50"/>
-      <c r="K479" s="48"/>
+      <c r="G479" s="54"/>
+      <c r="H479" s="55"/>
+      <c r="K479" s="53"/>
     </row>
     <row r="480">
-      <c r="G480" s="49"/>
-      <c r="H480" s="50"/>
-      <c r="K480" s="48"/>
+      <c r="G480" s="54"/>
+      <c r="H480" s="55"/>
+      <c r="K480" s="53"/>
     </row>
     <row r="481">
-      <c r="G481" s="49"/>
-      <c r="H481" s="50"/>
-      <c r="K481" s="48"/>
+      <c r="G481" s="54"/>
+      <c r="H481" s="55"/>
+      <c r="K481" s="53"/>
     </row>
     <row r="482">
-      <c r="G482" s="49"/>
-      <c r="H482" s="50"/>
-      <c r="K482" s="48"/>
+      <c r="G482" s="54"/>
+      <c r="H482" s="55"/>
+      <c r="K482" s="53"/>
     </row>
     <row r="483">
-      <c r="G483" s="49"/>
-      <c r="H483" s="50"/>
-      <c r="K483" s="48"/>
+      <c r="G483" s="54"/>
+      <c r="H483" s="55"/>
+      <c r="K483" s="53"/>
     </row>
     <row r="484">
-      <c r="G484" s="49"/>
-      <c r="H484" s="50"/>
-      <c r="K484" s="48"/>
+      <c r="G484" s="54"/>
+      <c r="H484" s="55"/>
+      <c r="K484" s="53"/>
     </row>
     <row r="485">
-      <c r="G485" s="49"/>
-      <c r="H485" s="50"/>
-      <c r="K485" s="48"/>
+      <c r="G485" s="54"/>
+      <c r="H485" s="55"/>
+      <c r="K485" s="53"/>
     </row>
     <row r="486">
-      <c r="G486" s="49"/>
-      <c r="H486" s="50"/>
-      <c r="K486" s="48"/>
+      <c r="G486" s="54"/>
+      <c r="H486" s="55"/>
+      <c r="K486" s="53"/>
     </row>
     <row r="487">
-      <c r="G487" s="49"/>
-      <c r="H487" s="50"/>
-      <c r="K487" s="48"/>
+      <c r="G487" s="54"/>
+      <c r="H487" s="55"/>
+      <c r="K487" s="53"/>
     </row>
     <row r="488">
-      <c r="G488" s="49"/>
-      <c r="H488" s="50"/>
-      <c r="K488" s="48"/>
+      <c r="G488" s="54"/>
+      <c r="H488" s="55"/>
+      <c r="K488" s="53"/>
     </row>
     <row r="489">
-      <c r="G489" s="49"/>
-      <c r="H489" s="50"/>
-      <c r="K489" s="48"/>
+      <c r="G489" s="54"/>
+      <c r="H489" s="55"/>
+      <c r="K489" s="53"/>
     </row>
     <row r="490">
-      <c r="G490" s="49"/>
-      <c r="H490" s="50"/>
-      <c r="K490" s="48"/>
+      <c r="G490" s="54"/>
+      <c r="H490" s="55"/>
+      <c r="K490" s="53"/>
     </row>
     <row r="491">
-      <c r="G491" s="49"/>
-      <c r="H491" s="50"/>
-      <c r="K491" s="48"/>
+      <c r="G491" s="54"/>
+      <c r="H491" s="55"/>
+      <c r="K491" s="53"/>
     </row>
     <row r="492">
-      <c r="G492" s="49"/>
-      <c r="H492" s="50"/>
-      <c r="K492" s="48"/>
+      <c r="G492" s="54"/>
+      <c r="H492" s="55"/>
+      <c r="K492" s="53"/>
     </row>
     <row r="493">
-      <c r="G493" s="49"/>
-      <c r="H493" s="50"/>
-      <c r="K493" s="48"/>
+      <c r="G493" s="54"/>
+      <c r="H493" s="55"/>
+      <c r="K493" s="53"/>
     </row>
     <row r="494">
-      <c r="G494" s="49"/>
-      <c r="H494" s="50"/>
-      <c r="K494" s="48"/>
+      <c r="G494" s="54"/>
+      <c r="H494" s="55"/>
+      <c r="K494" s="53"/>
     </row>
     <row r="495">
-      <c r="G495" s="49"/>
-      <c r="H495" s="50"/>
-      <c r="K495" s="48"/>
+      <c r="G495" s="54"/>
+      <c r="H495" s="55"/>
+      <c r="K495" s="53"/>
     </row>
     <row r="496">
-      <c r="G496" s="49"/>
-      <c r="H496" s="50"/>
-      <c r="K496" s="48"/>
+      <c r="G496" s="54"/>
+      <c r="H496" s="55"/>
+      <c r="K496" s="53"/>
     </row>
     <row r="497">
-      <c r="G497" s="49"/>
-      <c r="H497" s="50"/>
-      <c r="K497" s="48"/>
+      <c r="G497" s="54"/>
+      <c r="H497" s="55"/>
+      <c r="K497" s="53"/>
     </row>
     <row r="498">
-      <c r="G498" s="49"/>
-      <c r="H498" s="50"/>
-      <c r="K498" s="48"/>
+      <c r="G498" s="54"/>
+      <c r="H498" s="55"/>
+      <c r="K498" s="53"/>
     </row>
     <row r="499">
-      <c r="G499" s="49"/>
-      <c r="H499" s="50"/>
-      <c r="K499" s="48"/>
+      <c r="G499" s="54"/>
+      <c r="H499" s="55"/>
+      <c r="K499" s="53"/>
     </row>
     <row r="500">
-      <c r="G500" s="49"/>
-      <c r="H500" s="50"/>
-      <c r="K500" s="48"/>
+      <c r="G500" s="54"/>
+      <c r="H500" s="55"/>
+      <c r="K500" s="53"/>
     </row>
     <row r="501">
-      <c r="G501" s="49"/>
-      <c r="H501" s="50"/>
-      <c r="K501" s="48"/>
+      <c r="G501" s="54"/>
+      <c r="H501" s="55"/>
+      <c r="K501" s="53"/>
     </row>
     <row r="502">
-      <c r="G502" s="49"/>
-      <c r="H502" s="50"/>
-      <c r="K502" s="48"/>
+      <c r="G502" s="54"/>
+      <c r="H502" s="55"/>
+      <c r="K502" s="53"/>
     </row>
     <row r="503">
-      <c r="G503" s="49"/>
-      <c r="H503" s="50"/>
-      <c r="K503" s="48"/>
+      <c r="G503" s="54"/>
+      <c r="H503" s="55"/>
+      <c r="K503" s="53"/>
     </row>
     <row r="504">
-      <c r="G504" s="49"/>
-      <c r="H504" s="50"/>
-      <c r="K504" s="48"/>
+      <c r="G504" s="54"/>
+      <c r="H504" s="55"/>
+      <c r="K504" s="53"/>
     </row>
     <row r="505">
-      <c r="G505" s="49"/>
-      <c r="H505" s="50"/>
-      <c r="K505" s="48"/>
+      <c r="G505" s="54"/>
+      <c r="H505" s="55"/>
+      <c r="K505" s="53"/>
     </row>
     <row r="506">
-      <c r="G506" s="49"/>
-      <c r="H506" s="50"/>
-      <c r="K506" s="48"/>
+      <c r="G506" s="54"/>
+      <c r="H506" s="55"/>
+      <c r="K506" s="53"/>
     </row>
     <row r="507">
-      <c r="G507" s="49"/>
-      <c r="H507" s="50"/>
-      <c r="K507" s="48"/>
+      <c r="G507" s="54"/>
+      <c r="H507" s="55"/>
+      <c r="K507" s="53"/>
     </row>
     <row r="508">
-      <c r="G508" s="49"/>
-      <c r="H508" s="50"/>
-      <c r="K508" s="48"/>
+      <c r="G508" s="54"/>
+      <c r="H508" s="55"/>
+      <c r="K508" s="53"/>
     </row>
     <row r="509">
-      <c r="G509" s="49"/>
-      <c r="H509" s="50"/>
-      <c r="K509" s="48"/>
+      <c r="G509" s="54"/>
+      <c r="H509" s="55"/>
+      <c r="K509" s="53"/>
     </row>
     <row r="510">
-      <c r="G510" s="49"/>
-      <c r="H510" s="50"/>
-      <c r="K510" s="48"/>
+      <c r="G510" s="54"/>
+      <c r="H510" s="55"/>
+      <c r="K510" s="53"/>
     </row>
     <row r="511">
-      <c r="G511" s="49"/>
-      <c r="H511" s="50"/>
-      <c r="K511" s="48"/>
+      <c r="G511" s="54"/>
+      <c r="H511" s="55"/>
+      <c r="K511" s="53"/>
     </row>
     <row r="512">
-      <c r="G512" s="49"/>
-      <c r="H512" s="50"/>
-      <c r="K512" s="48"/>
+      <c r="G512" s="54"/>
+      <c r="H512" s="55"/>
+      <c r="K512" s="53"/>
     </row>
     <row r="513">
-      <c r="G513" s="49"/>
-      <c r="H513" s="50"/>
-      <c r="K513" s="48"/>
+      <c r="G513" s="54"/>
+      <c r="H513" s="55"/>
+      <c r="K513" s="53"/>
     </row>
     <row r="514">
-      <c r="G514" s="49"/>
-      <c r="H514" s="50"/>
-      <c r="K514" s="48"/>
+      <c r="G514" s="54"/>
+      <c r="H514" s="55"/>
+      <c r="K514" s="53"/>
     </row>
     <row r="515">
-      <c r="G515" s="49"/>
-      <c r="H515" s="50"/>
-      <c r="K515" s="48"/>
+      <c r="G515" s="54"/>
+      <c r="H515" s="55"/>
+      <c r="K515" s="53"/>
     </row>
     <row r="516">
-      <c r="G516" s="49"/>
-      <c r="H516" s="50"/>
-      <c r="K516" s="48"/>
+      <c r="G516" s="54"/>
+      <c r="H516" s="55"/>
+      <c r="K516" s="53"/>
     </row>
     <row r="517">
-      <c r="G517" s="49"/>
-      <c r="H517" s="50"/>
-      <c r="K517" s="48"/>
+      <c r="G517" s="54"/>
+      <c r="H517" s="55"/>
+      <c r="K517" s="53"/>
     </row>
     <row r="518">
-      <c r="G518" s="49"/>
-      <c r="H518" s="50"/>
-      <c r="K518" s="48"/>
+      <c r="G518" s="54"/>
+      <c r="H518" s="55"/>
+      <c r="K518" s="53"/>
     </row>
     <row r="519">
-      <c r="G519" s="49"/>
-      <c r="H519" s="50"/>
-      <c r="K519" s="48"/>
+      <c r="G519" s="54"/>
+      <c r="H519" s="55"/>
+      <c r="K519" s="53"/>
     </row>
     <row r="520">
-      <c r="G520" s="49"/>
-      <c r="H520" s="50"/>
-      <c r="K520" s="48"/>
+      <c r="G520" s="54"/>
+      <c r="H520" s="55"/>
+      <c r="K520" s="53"/>
     </row>
     <row r="521">
-      <c r="G521" s="49"/>
-      <c r="H521" s="50"/>
-      <c r="K521" s="48"/>
+      <c r="G521" s="54"/>
+      <c r="H521" s="55"/>
+      <c r="K521" s="53"/>
     </row>
     <row r="522">
-      <c r="G522" s="49"/>
-      <c r="H522" s="50"/>
-      <c r="K522" s="48"/>
+      <c r="G522" s="54"/>
+      <c r="H522" s="55"/>
+      <c r="K522" s="53"/>
     </row>
     <row r="523">
-      <c r="G523" s="49"/>
-      <c r="H523" s="50"/>
-      <c r="K523" s="48"/>
+      <c r="G523" s="54"/>
+      <c r="H523" s="55"/>
+      <c r="K523" s="53"/>
     </row>
     <row r="524">
-      <c r="G524" s="49"/>
-      <c r="H524" s="50"/>
-      <c r="K524" s="48"/>
+      <c r="G524" s="54"/>
+      <c r="H524" s="55"/>
+      <c r="K524" s="53"/>
     </row>
     <row r="525">
-      <c r="G525" s="49"/>
-      <c r="H525" s="50"/>
-      <c r="K525" s="48"/>
+      <c r="G525" s="54"/>
+      <c r="H525" s="55"/>
+      <c r="K525" s="53"/>
     </row>
     <row r="526">
-      <c r="G526" s="49"/>
-      <c r="H526" s="50"/>
-      <c r="K526" s="48"/>
+      <c r="G526" s="54"/>
+      <c r="H526" s="55"/>
+      <c r="K526" s="53"/>
     </row>
     <row r="527">
-      <c r="G527" s="49"/>
-      <c r="H527" s="50"/>
-      <c r="K527" s="48"/>
+      <c r="G527" s="54"/>
+      <c r="H527" s="55"/>
+      <c r="K527" s="53"/>
     </row>
     <row r="528">
-      <c r="G528" s="49"/>
-      <c r="H528" s="50"/>
-      <c r="K528" s="48"/>
+      <c r="G528" s="54"/>
+      <c r="H528" s="55"/>
+      <c r="K528" s="53"/>
     </row>
     <row r="529">
-      <c r="G529" s="49"/>
-      <c r="H529" s="50"/>
-      <c r="K529" s="48"/>
+      <c r="G529" s="54"/>
+      <c r="H529" s="55"/>
+      <c r="K529" s="53"/>
     </row>
     <row r="530">
-      <c r="G530" s="49"/>
-      <c r="H530" s="50"/>
-      <c r="K530" s="48"/>
+      <c r="G530" s="54"/>
+      <c r="H530" s="55"/>
+      <c r="K530" s="53"/>
     </row>
     <row r="531">
-      <c r="G531" s="49"/>
-      <c r="H531" s="50"/>
-      <c r="K531" s="48"/>
+      <c r="G531" s="54"/>
+      <c r="H531" s="55"/>
+      <c r="K531" s="53"/>
     </row>
     <row r="532">
-      <c r="G532" s="49"/>
-      <c r="H532" s="50"/>
-      <c r="K532" s="48"/>
+      <c r="G532" s="54"/>
+      <c r="H532" s="55"/>
+      <c r="K532" s="53"/>
     </row>
     <row r="533">
-      <c r="G533" s="49"/>
-      <c r="H533" s="50"/>
-      <c r="K533" s="48"/>
+      <c r="G533" s="54"/>
+      <c r="H533" s="55"/>
+      <c r="K533" s="53"/>
     </row>
     <row r="534">
-      <c r="G534" s="49"/>
-      <c r="H534" s="50"/>
-      <c r="K534" s="48"/>
+      <c r="G534" s="54"/>
+      <c r="H534" s="55"/>
+      <c r="K534" s="53"/>
     </row>
     <row r="535">
-      <c r="G535" s="49"/>
-      <c r="H535" s="50"/>
-      <c r="K535" s="48"/>
+      <c r="G535" s="54"/>
+      <c r="H535" s="55"/>
+      <c r="K535" s="53"/>
     </row>
     <row r="536">
-      <c r="G536" s="49"/>
-      <c r="H536" s="50"/>
-      <c r="K536" s="48"/>
+      <c r="G536" s="54"/>
+      <c r="H536" s="55"/>
+      <c r="K536" s="53"/>
     </row>
     <row r="537">
-      <c r="G537" s="49"/>
-      <c r="H537" s="50"/>
-      <c r="K537" s="48"/>
+      <c r="G537" s="54"/>
+      <c r="H537" s="55"/>
+      <c r="K537" s="53"/>
     </row>
     <row r="538">
-      <c r="G538" s="49"/>
-      <c r="H538" s="50"/>
-      <c r="K538" s="48"/>
+      <c r="G538" s="54"/>
+      <c r="H538" s="55"/>
+      <c r="K538" s="53"/>
     </row>
     <row r="539">
-      <c r="G539" s="49"/>
-      <c r="H539" s="50"/>
-      <c r="K539" s="48"/>
+      <c r="G539" s="54"/>
+      <c r="H539" s="55"/>
+      <c r="K539" s="53"/>
     </row>
     <row r="540">
-      <c r="G540" s="49"/>
-      <c r="H540" s="50"/>
-      <c r="K540" s="48"/>
+      <c r="G540" s="54"/>
+      <c r="H540" s="55"/>
+      <c r="K540" s="53"/>
     </row>
     <row r="541">
-      <c r="G541" s="49"/>
-      <c r="H541" s="50"/>
-      <c r="K541" s="48"/>
+      <c r="G541" s="54"/>
+      <c r="H541" s="55"/>
+      <c r="K541" s="53"/>
     </row>
     <row r="542">
-      <c r="G542" s="49"/>
-      <c r="H542" s="50"/>
-      <c r="K542" s="48"/>
+      <c r="G542" s="54"/>
+      <c r="H542" s="55"/>
+      <c r="K542" s="53"/>
     </row>
     <row r="543">
-      <c r="G543" s="49"/>
-      <c r="H543" s="50"/>
-      <c r="K543" s="48"/>
+      <c r="G543" s="54"/>
+      <c r="H543" s="55"/>
+      <c r="K543" s="53"/>
     </row>
     <row r="544">
-      <c r="G544" s="49"/>
-      <c r="H544" s="50"/>
-      <c r="K544" s="48"/>
+      <c r="G544" s="54"/>
+      <c r="H544" s="55"/>
+      <c r="K544" s="53"/>
     </row>
     <row r="545">
-      <c r="G545" s="49"/>
-      <c r="H545" s="50"/>
-      <c r="K545" s="48"/>
+      <c r="G545" s="54"/>
+      <c r="H545" s="55"/>
+      <c r="K545" s="53"/>
     </row>
     <row r="546">
-      <c r="G546" s="49"/>
-      <c r="H546" s="50"/>
-      <c r="K546" s="48"/>
+      <c r="G546" s="54"/>
+      <c r="H546" s="55"/>
+      <c r="K546" s="53"/>
     </row>
     <row r="547">
-      <c r="G547" s="49"/>
-      <c r="H547" s="50"/>
-      <c r="K547" s="48"/>
+      <c r="G547" s="54"/>
+      <c r="H547" s="55"/>
+      <c r="K547" s="53"/>
     </row>
     <row r="548">
-      <c r="G548" s="49"/>
-      <c r="H548" s="50"/>
-      <c r="K548" s="48"/>
+      <c r="G548" s="54"/>
+      <c r="H548" s="55"/>
+      <c r="K548" s="53"/>
     </row>
     <row r="549">
-      <c r="G549" s="49"/>
-      <c r="H549" s="50"/>
-      <c r="K549" s="48"/>
+      <c r="G549" s="54"/>
+      <c r="H549" s="55"/>
+      <c r="K549" s="53"/>
     </row>
     <row r="550">
-      <c r="G550" s="49"/>
-      <c r="H550" s="50"/>
-      <c r="K550" s="48"/>
+      <c r="G550" s="54"/>
+      <c r="H550" s="55"/>
+      <c r="K550" s="53"/>
     </row>
     <row r="551">
-      <c r="G551" s="49"/>
-      <c r="H551" s="50"/>
-      <c r="K551" s="48"/>
+      <c r="G551" s="54"/>
+      <c r="H551" s="55"/>
+      <c r="K551" s="53"/>
     </row>
     <row r="552">
-      <c r="G552" s="49"/>
-      <c r="H552" s="50"/>
-      <c r="K552" s="48"/>
+      <c r="G552" s="54"/>
+      <c r="H552" s="55"/>
+      <c r="K552" s="53"/>
     </row>
     <row r="553">
-      <c r="G553" s="49"/>
-      <c r="H553" s="50"/>
-      <c r="K553" s="48"/>
+      <c r="G553" s="54"/>
+      <c r="H553" s="55"/>
+      <c r="K553" s="53"/>
     </row>
     <row r="554">
-      <c r="G554" s="49"/>
-      <c r="H554" s="50"/>
-      <c r="K554" s="48"/>
+      <c r="G554" s="54"/>
+      <c r="H554" s="55"/>
+      <c r="K554" s="53"/>
     </row>
     <row r="555">
-      <c r="G555" s="49"/>
-      <c r="H555" s="50"/>
-      <c r="K555" s="48"/>
+      <c r="G555" s="54"/>
+      <c r="H555" s="55"/>
+      <c r="K555" s="53"/>
     </row>
     <row r="556">
-      <c r="G556" s="49"/>
-      <c r="H556" s="50"/>
-      <c r="K556" s="48"/>
+      <c r="G556" s="54"/>
+      <c r="H556" s="55"/>
+      <c r="K556" s="53"/>
     </row>
     <row r="557">
-      <c r="G557" s="49"/>
-      <c r="H557" s="50"/>
-      <c r="K557" s="48"/>
+      <c r="G557" s="54"/>
+      <c r="H557" s="55"/>
+      <c r="K557" s="53"/>
     </row>
     <row r="558">
-      <c r="G558" s="49"/>
-      <c r="H558" s="50"/>
-      <c r="K558" s="48"/>
+      <c r="G558" s="54"/>
+      <c r="H558" s="55"/>
+      <c r="K558" s="53"/>
     </row>
     <row r="559">
-      <c r="G559" s="49"/>
-      <c r="H559" s="50"/>
-      <c r="K559" s="48"/>
+      <c r="G559" s="54"/>
+      <c r="H559" s="55"/>
+      <c r="K559" s="53"/>
     </row>
     <row r="560">
-      <c r="G560" s="49"/>
-      <c r="H560" s="50"/>
-      <c r="K560" s="48"/>
+      <c r="G560" s="54"/>
+      <c r="H560" s="55"/>
+      <c r="K560" s="53"/>
     </row>
     <row r="561">
-      <c r="G561" s="49"/>
-      <c r="H561" s="50"/>
-      <c r="K561" s="48"/>
+      <c r="G561" s="54"/>
+      <c r="H561" s="55"/>
+      <c r="K561" s="53"/>
     </row>
     <row r="562">
-      <c r="G562" s="49"/>
-      <c r="H562" s="50"/>
-      <c r="K562" s="48"/>
+      <c r="G562" s="54"/>
+      <c r="H562" s="55"/>
+      <c r="K562" s="53"/>
     </row>
     <row r="563">
-      <c r="G563" s="49"/>
-      <c r="H563" s="50"/>
-      <c r="K563" s="48"/>
+      <c r="G563" s="54"/>
+      <c r="H563" s="55"/>
+      <c r="K563" s="53"/>
     </row>
     <row r="564">
-      <c r="G564" s="49"/>
-      <c r="H564" s="50"/>
-      <c r="K564" s="48"/>
+      <c r="G564" s="54"/>
+      <c r="H564" s="55"/>
+      <c r="K564" s="53"/>
     </row>
     <row r="565">
-      <c r="G565" s="49"/>
-      <c r="H565" s="50"/>
-      <c r="K565" s="48"/>
+      <c r="G565" s="54"/>
+      <c r="H565" s="55"/>
+      <c r="K565" s="53"/>
     </row>
     <row r="566">
-      <c r="G566" s="49"/>
-      <c r="H566" s="50"/>
-      <c r="K566" s="48"/>
+      <c r="G566" s="54"/>
+      <c r="H566" s="55"/>
+      <c r="K566" s="53"/>
     </row>
     <row r="567">
-      <c r="G567" s="49"/>
-      <c r="H567" s="50"/>
-      <c r="K567" s="48"/>
+      <c r="G567" s="54"/>
+      <c r="H567" s="55"/>
+      <c r="K567" s="53"/>
     </row>
     <row r="568">
-      <c r="G568" s="49"/>
-      <c r="H568" s="50"/>
-      <c r="K568" s="48"/>
+      <c r="G568" s="54"/>
+      <c r="H568" s="55"/>
+      <c r="K568" s="53"/>
     </row>
     <row r="569">
-      <c r="G569" s="49"/>
-      <c r="H569" s="50"/>
-      <c r="K569" s="48"/>
+      <c r="G569" s="54"/>
+      <c r="H569" s="55"/>
+      <c r="K569" s="53"/>
     </row>
     <row r="570">
-      <c r="G570" s="49"/>
-      <c r="H570" s="50"/>
-      <c r="K570" s="48"/>
+      <c r="G570" s="54"/>
+      <c r="H570" s="55"/>
+      <c r="K570" s="53"/>
     </row>
     <row r="571">
-      <c r="G571" s="49"/>
-      <c r="H571" s="50"/>
-      <c r="K571" s="48"/>
+      <c r="G571" s="54"/>
+      <c r="H571" s="55"/>
+      <c r="K571" s="53"/>
     </row>
     <row r="572">
-      <c r="G572" s="49"/>
-      <c r="H572" s="50"/>
-      <c r="K572" s="48"/>
+      <c r="G572" s="54"/>
+      <c r="H572" s="55"/>
+      <c r="K572" s="53"/>
     </row>
     <row r="573">
-      <c r="G573" s="49"/>
-      <c r="H573" s="50"/>
-      <c r="K573" s="48"/>
+      <c r="G573" s="54"/>
+      <c r="H573" s="55"/>
+      <c r="K573" s="53"/>
     </row>
     <row r="574">
-      <c r="G574" s="49"/>
-      <c r="H574" s="50"/>
-      <c r="K574" s="48"/>
+      <c r="G574" s="54"/>
+      <c r="H574" s="55"/>
+      <c r="K574" s="53"/>
     </row>
     <row r="575">
-      <c r="G575" s="49"/>
-      <c r="H575" s="50"/>
-      <c r="K575" s="48"/>
+      <c r="G575" s="54"/>
+      <c r="H575" s="55"/>
+      <c r="K575" s="53"/>
     </row>
     <row r="576">
-      <c r="G576" s="49"/>
-      <c r="H576" s="50"/>
-      <c r="K576" s="48"/>
+      <c r="G576" s="54"/>
+      <c r="H576" s="55"/>
+      <c r="K576" s="53"/>
     </row>
     <row r="577">
-      <c r="G577" s="49"/>
-      <c r="H577" s="50"/>
-      <c r="K577" s="48"/>
+      <c r="G577" s="54"/>
+      <c r="H577" s="55"/>
+      <c r="K577" s="53"/>
     </row>
     <row r="578">
-      <c r="G578" s="49"/>
-      <c r="H578" s="50"/>
-      <c r="K578" s="48"/>
+      <c r="G578" s="54"/>
+      <c r="H578" s="55"/>
+      <c r="K578" s="53"/>
     </row>
     <row r="579">
-      <c r="G579" s="49"/>
-      <c r="H579" s="50"/>
-      <c r="K579" s="48"/>
+      <c r="G579" s="54"/>
+      <c r="H579" s="55"/>
+      <c r="K579" s="53"/>
     </row>
     <row r="580">
-      <c r="G580" s="49"/>
-      <c r="H580" s="50"/>
-      <c r="K580" s="48"/>
+      <c r="G580" s="54"/>
+      <c r="H580" s="55"/>
+      <c r="K580" s="53"/>
     </row>
     <row r="581">
-      <c r="G581" s="49"/>
-      <c r="H581" s="50"/>
-      <c r="K581" s="48"/>
+      <c r="G581" s="54"/>
+      <c r="H581" s="55"/>
+      <c r="K581" s="53"/>
     </row>
     <row r="582">
-      <c r="G582" s="49"/>
-      <c r="H582" s="50"/>
-      <c r="K582" s="48"/>
+      <c r="G582" s="54"/>
+      <c r="H582" s="55"/>
+      <c r="K582" s="53"/>
     </row>
     <row r="583">
-      <c r="G583" s="49"/>
-      <c r="H583" s="50"/>
-      <c r="K583" s="48"/>
+      <c r="G583" s="54"/>
+      <c r="H583" s="55"/>
+      <c r="K583" s="53"/>
     </row>
     <row r="584">
-      <c r="G584" s="49"/>
-      <c r="H584" s="50"/>
-      <c r="K584" s="48"/>
+      <c r="G584" s="54"/>
+      <c r="H584" s="55"/>
+      <c r="K584" s="53"/>
     </row>
     <row r="585">
-      <c r="G585" s="49"/>
-      <c r="H585" s="50"/>
-      <c r="K585" s="48"/>
+      <c r="G585" s="54"/>
+      <c r="H585" s="55"/>
+      <c r="K585" s="53"/>
     </row>
     <row r="586">
-      <c r="G586" s="49"/>
-      <c r="H586" s="50"/>
-      <c r="K586" s="48"/>
+      <c r="G586" s="54"/>
+      <c r="H586" s="55"/>
+      <c r="K586" s="53"/>
     </row>
     <row r="587">
-      <c r="G587" s="49"/>
-      <c r="H587" s="50"/>
-      <c r="K587" s="48"/>
+      <c r="G587" s="54"/>
+      <c r="H587" s="55"/>
+      <c r="K587" s="53"/>
     </row>
     <row r="588">
-      <c r="G588" s="49"/>
-      <c r="H588" s="50"/>
-      <c r="K588" s="48"/>
+      <c r="G588" s="54"/>
+      <c r="H588" s="55"/>
+      <c r="K588" s="53"/>
     </row>
     <row r="589">
-      <c r="G589" s="49"/>
-      <c r="H589" s="50"/>
-      <c r="K589" s="48"/>
+      <c r="G589" s="54"/>
+      <c r="H589" s="55"/>
+      <c r="K589" s="53"/>
     </row>
     <row r="590">
-      <c r="G590" s="49"/>
-      <c r="H590" s="50"/>
-      <c r="K590" s="48"/>
+      <c r="G590" s="54"/>
+      <c r="H590" s="55"/>
+      <c r="K590" s="53"/>
     </row>
     <row r="591">
-      <c r="G591" s="49"/>
-      <c r="H591" s="50"/>
-      <c r="K591" s="48"/>
+      <c r="G591" s="54"/>
+      <c r="H591" s="55"/>
+      <c r="K591" s="53"/>
     </row>
     <row r="592">
-      <c r="G592" s="49"/>
-      <c r="H592" s="50"/>
-      <c r="K592" s="48"/>
+      <c r="G592" s="54"/>
+      <c r="H592" s="55"/>
+      <c r="K592" s="53"/>
     </row>
     <row r="593">
-      <c r="G593" s="49"/>
-      <c r="H593" s="50"/>
-      <c r="K593" s="48"/>
+      <c r="G593" s="54"/>
+      <c r="H593" s="55"/>
+      <c r="K593" s="53"/>
     </row>
     <row r="594">
-      <c r="G594" s="49"/>
-      <c r="H594" s="50"/>
-      <c r="K594" s="48"/>
+      <c r="G594" s="54"/>
+      <c r="H594" s="55"/>
+      <c r="K594" s="53"/>
     </row>
     <row r="595">
-      <c r="G595" s="49"/>
-      <c r="H595" s="50"/>
-      <c r="K595" s="48"/>
+      <c r="G595" s="54"/>
+      <c r="H595" s="55"/>
+      <c r="K595" s="53"/>
     </row>
     <row r="596">
-      <c r="G596" s="49"/>
-      <c r="H596" s="50"/>
-      <c r="K596" s="48"/>
+      <c r="G596" s="54"/>
+      <c r="H596" s="55"/>
+      <c r="K596" s="53"/>
     </row>
     <row r="597">
-      <c r="G597" s="49"/>
-      <c r="H597" s="50"/>
-      <c r="K597" s="48"/>
+      <c r="G597" s="54"/>
+      <c r="H597" s="55"/>
+      <c r="K597" s="53"/>
     </row>
     <row r="598">
-      <c r="G598" s="49"/>
-      <c r="H598" s="50"/>
-      <c r="K598" s="48"/>
+      <c r="G598" s="54"/>
+      <c r="H598" s="55"/>
+      <c r="K598" s="53"/>
     </row>
     <row r="599">
-      <c r="G599" s="49"/>
-      <c r="H599" s="50"/>
-      <c r="K599" s="48"/>
+      <c r="G599" s="54"/>
+      <c r="H599" s="55"/>
+      <c r="K599" s="53"/>
     </row>
     <row r="600">
-      <c r="G600" s="49"/>
-      <c r="H600" s="50"/>
-      <c r="K600" s="48"/>
+      <c r="G600" s="54"/>
+      <c r="H600" s="55"/>
+      <c r="K600" s="53"/>
     </row>
     <row r="601">
-      <c r="G601" s="49"/>
-      <c r="H601" s="50"/>
-      <c r="K601" s="48"/>
+      <c r="G601" s="54"/>
+      <c r="H601" s="55"/>
+      <c r="K601" s="53"/>
     </row>
     <row r="602">
-      <c r="G602" s="49"/>
-      <c r="H602" s="50"/>
-      <c r="K602" s="48"/>
+      <c r="G602" s="54"/>
+      <c r="H602" s="55"/>
+      <c r="K602" s="53"/>
     </row>
     <row r="603">
-      <c r="G603" s="49"/>
-      <c r="H603" s="50"/>
-      <c r="K603" s="48"/>
+      <c r="G603" s="54"/>
+      <c r="H603" s="55"/>
+      <c r="K603" s="53"/>
     </row>
     <row r="604">
-      <c r="G604" s="49"/>
-      <c r="H604" s="50"/>
-      <c r="K604" s="48"/>
+      <c r="G604" s="54"/>
+      <c r="H604" s="55"/>
+      <c r="K604" s="53"/>
     </row>
     <row r="605">
-      <c r="G605" s="49"/>
-      <c r="H605" s="50"/>
-      <c r="K605" s="48"/>
+      <c r="G605" s="54"/>
+      <c r="H605" s="55"/>
+      <c r="K605" s="53"/>
     </row>
     <row r="606">
-      <c r="G606" s="49"/>
-      <c r="H606" s="50"/>
-      <c r="K606" s="48"/>
+      <c r="G606" s="54"/>
+      <c r="H606" s="55"/>
+      <c r="K606" s="53"/>
     </row>
     <row r="607">
-      <c r="G607" s="49"/>
-      <c r="H607" s="50"/>
-      <c r="K607" s="48"/>
+      <c r="G607" s="54"/>
+      <c r="H607" s="55"/>
+      <c r="K607" s="53"/>
     </row>
     <row r="608">
-      <c r="G608" s="49"/>
-      <c r="H608" s="50"/>
-      <c r="K608" s="48"/>
+      <c r="G608" s="54"/>
+      <c r="H608" s="55"/>
+      <c r="K608" s="53"/>
     </row>
     <row r="609">
-      <c r="G609" s="49"/>
-      <c r="H609" s="50"/>
-      <c r="K609" s="48"/>
+      <c r="G609" s="54"/>
+      <c r="H609" s="55"/>
+      <c r="K609" s="53"/>
     </row>
     <row r="610">
-      <c r="G610" s="49"/>
-      <c r="H610" s="50"/>
-      <c r="K610" s="48"/>
+      <c r="G610" s="54"/>
+      <c r="H610" s="55"/>
+      <c r="K610" s="53"/>
     </row>
     <row r="611">
-      <c r="G611" s="49"/>
-      <c r="H611" s="50"/>
-      <c r="K611" s="48"/>
+      <c r="G611" s="54"/>
+      <c r="H611" s="55"/>
+      <c r="K611" s="53"/>
     </row>
     <row r="612">
-      <c r="G612" s="49"/>
-      <c r="H612" s="50"/>
-      <c r="K612" s="48"/>
+      <c r="G612" s="54"/>
+      <c r="H612" s="55"/>
+      <c r="K612" s="53"/>
     </row>
     <row r="613">
-      <c r="G613" s="49"/>
-      <c r="H613" s="50"/>
-      <c r="K613" s="48"/>
+      <c r="G613" s="54"/>
+      <c r="H613" s="55"/>
+      <c r="K613" s="53"/>
     </row>
     <row r="614">
-      <c r="G614" s="49"/>
-      <c r="H614" s="50"/>
-      <c r="K614" s="48"/>
+      <c r="G614" s="54"/>
+      <c r="H614" s="55"/>
+      <c r="K614" s="53"/>
     </row>
     <row r="615">
-      <c r="G615" s="49"/>
-      <c r="H615" s="50"/>
-      <c r="K615" s="48"/>
+      <c r="G615" s="54"/>
+      <c r="H615" s="55"/>
+      <c r="K615" s="53"/>
     </row>
     <row r="616">
-      <c r="G616" s="49"/>
-      <c r="H616" s="50"/>
-      <c r="K616" s="48"/>
+      <c r="G616" s="54"/>
+      <c r="H616" s="55"/>
+      <c r="K616" s="53"/>
     </row>
     <row r="617">
-      <c r="G617" s="49"/>
-      <c r="H617" s="50"/>
-      <c r="K617" s="48"/>
+      <c r="G617" s="54"/>
+      <c r="H617" s="55"/>
+      <c r="K617" s="53"/>
     </row>
     <row r="618">
-      <c r="G618" s="49"/>
-      <c r="H618" s="50"/>
-      <c r="K618" s="48"/>
+      <c r="G618" s="54"/>
+      <c r="H618" s="55"/>
+      <c r="K618" s="53"/>
     </row>
     <row r="619">
-      <c r="G619" s="49"/>
-      <c r="H619" s="50"/>
-      <c r="K619" s="48"/>
+      <c r="G619" s="54"/>
+      <c r="H619" s="55"/>
+      <c r="K619" s="53"/>
     </row>
     <row r="620">
-      <c r="G620" s="49"/>
-      <c r="H620" s="50"/>
-      <c r="K620" s="48"/>
+      <c r="G620" s="54"/>
+      <c r="H620" s="55"/>
+      <c r="K620" s="53"/>
     </row>
     <row r="621">
-      <c r="G621" s="49"/>
-      <c r="H621" s="50"/>
-      <c r="K621" s="48"/>
+      <c r="G621" s="54"/>
+      <c r="H621" s="55"/>
+      <c r="K621" s="53"/>
     </row>
     <row r="622">
-      <c r="G622" s="49"/>
-      <c r="H622" s="50"/>
-      <c r="K622" s="48"/>
+      <c r="G622" s="54"/>
+      <c r="H622" s="55"/>
+      <c r="K622" s="53"/>
     </row>
     <row r="623">
-      <c r="G623" s="49"/>
-      <c r="H623" s="50"/>
-      <c r="K623" s="48"/>
+      <c r="G623" s="54"/>
+      <c r="H623" s="55"/>
+      <c r="K623" s="53"/>
     </row>
     <row r="624">
-      <c r="G624" s="49"/>
-      <c r="H624" s="50"/>
-      <c r="K624" s="48"/>
+      <c r="G624" s="54"/>
+      <c r="H624" s="55"/>
+      <c r="K624" s="53"/>
     </row>
     <row r="625">
-      <c r="G625" s="49"/>
-      <c r="H625" s="50"/>
-      <c r="K625" s="48"/>
+      <c r="G625" s="54"/>
+      <c r="H625" s="55"/>
+      <c r="K625" s="53"/>
     </row>
     <row r="626">
-      <c r="G626" s="49"/>
-      <c r="H626" s="50"/>
-      <c r="K626" s="48"/>
+      <c r="G626" s="54"/>
+      <c r="H626" s="55"/>
+      <c r="K626" s="53"/>
     </row>
     <row r="627">
-      <c r="G627" s="49"/>
-      <c r="H627" s="50"/>
-      <c r="K627" s="48"/>
+      <c r="G627" s="54"/>
+      <c r="H627" s="55"/>
+      <c r="K627" s="53"/>
     </row>
     <row r="628">
-      <c r="G628" s="49"/>
-      <c r="H628" s="50"/>
-      <c r="K628" s="48"/>
+      <c r="G628" s="54"/>
+      <c r="H628" s="55"/>
+      <c r="K628" s="53"/>
     </row>
     <row r="629">
-      <c r="G629" s="49"/>
-      <c r="H629" s="50"/>
-      <c r="K629" s="48"/>
+      <c r="G629" s="54"/>
+      <c r="H629" s="55"/>
+      <c r="K629" s="53"/>
     </row>
     <row r="630">
-      <c r="G630" s="49"/>
-      <c r="H630" s="50"/>
-      <c r="K630" s="48"/>
+      <c r="G630" s="54"/>
+      <c r="H630" s="55"/>
+      <c r="K630" s="53"/>
     </row>
     <row r="631">
-      <c r="G631" s="49"/>
-      <c r="H631" s="50"/>
-      <c r="K631" s="48"/>
+      <c r="G631" s="54"/>
+      <c r="H631" s="55"/>
+      <c r="K631" s="53"/>
     </row>
     <row r="632">
-      <c r="G632" s="49"/>
-      <c r="H632" s="50"/>
-      <c r="K632" s="48"/>
+      <c r="G632" s="54"/>
+      <c r="H632" s="55"/>
+      <c r="K632" s="53"/>
     </row>
     <row r="633">
-      <c r="G633" s="49"/>
-      <c r="H633" s="50"/>
-      <c r="K633" s="48"/>
+      <c r="G633" s="54"/>
+      <c r="H633" s="55"/>
+      <c r="K633" s="53"/>
     </row>
     <row r="634">
-      <c r="G634" s="49"/>
-      <c r="H634" s="50"/>
-      <c r="K634" s="48"/>
+      <c r="G634" s="54"/>
+      <c r="H634" s="55"/>
+      <c r="K634" s="53"/>
     </row>
     <row r="635">
-      <c r="G635" s="49"/>
-      <c r="H635" s="50"/>
-      <c r="K635" s="48"/>
+      <c r="G635" s="54"/>
+      <c r="H635" s="55"/>
+      <c r="K635" s="53"/>
     </row>
     <row r="636">
-      <c r="G636" s="49"/>
-      <c r="H636" s="50"/>
-      <c r="K636" s="48"/>
+      <c r="G636" s="54"/>
+      <c r="H636" s="55"/>
+      <c r="K636" s="53"/>
     </row>
     <row r="637">
-      <c r="G637" s="49"/>
-      <c r="H637" s="50"/>
-      <c r="K637" s="48"/>
+      <c r="G637" s="54"/>
+      <c r="H637" s="55"/>
+      <c r="K637" s="53"/>
     </row>
     <row r="638">
-      <c r="G638" s="49"/>
-      <c r="H638" s="50"/>
-      <c r="K638" s="48"/>
+      <c r="G638" s="54"/>
+      <c r="H638" s="55"/>
+      <c r="K638" s="53"/>
     </row>
     <row r="639">
-      <c r="G639" s="49"/>
-      <c r="H639" s="50"/>
-      <c r="K639" s="48"/>
+      <c r="G639" s="54"/>
+      <c r="H639" s="55"/>
+      <c r="K639" s="53"/>
     </row>
     <row r="640">
-      <c r="G640" s="49"/>
-      <c r="H640" s="50"/>
-      <c r="K640" s="48"/>
+      <c r="G640" s="54"/>
+      <c r="H640" s="55"/>
+      <c r="K640" s="53"/>
     </row>
     <row r="641">
-      <c r="G641" s="49"/>
-      <c r="H641" s="50"/>
-      <c r="K641" s="48"/>
+      <c r="G641" s="54"/>
+      <c r="H641" s="55"/>
+      <c r="K641" s="53"/>
     </row>
     <row r="642">
-      <c r="G642" s="49"/>
-      <c r="H642" s="50"/>
-      <c r="K642" s="48"/>
+      <c r="G642" s="54"/>
+      <c r="H642" s="55"/>
+      <c r="K642" s="53"/>
     </row>
     <row r="643">
-      <c r="G643" s="49"/>
-      <c r="H643" s="50"/>
-      <c r="K643" s="48"/>
+      <c r="G643" s="54"/>
+      <c r="H643" s="55"/>
+      <c r="K643" s="53"/>
     </row>
     <row r="644">
-      <c r="G644" s="49"/>
-      <c r="H644" s="50"/>
-      <c r="K644" s="48"/>
+      <c r="G644" s="54"/>
+      <c r="H644" s="55"/>
+      <c r="K644" s="53"/>
     </row>
     <row r="645">
-      <c r="G645" s="49"/>
-      <c r="H645" s="50"/>
-      <c r="K645" s="48"/>
+      <c r="G645" s="54"/>
+      <c r="H645" s="55"/>
+      <c r="K645" s="53"/>
     </row>
     <row r="646">
-      <c r="G646" s="49"/>
-      <c r="H646" s="50"/>
-      <c r="K646" s="48"/>
+      <c r="G646" s="54"/>
+      <c r="H646" s="55"/>
+      <c r="K646" s="53"/>
     </row>
     <row r="647">
-      <c r="G647" s="49"/>
-      <c r="H647" s="50"/>
-      <c r="K647" s="48"/>
+      <c r="G647" s="54"/>
+      <c r="H647" s="55"/>
+      <c r="K647" s="53"/>
     </row>
     <row r="648">
-      <c r="G648" s="49"/>
-      <c r="H648" s="50"/>
-      <c r="K648" s="48"/>
+      <c r="G648" s="54"/>
+      <c r="H648" s="55"/>
+      <c r="K648" s="53"/>
     </row>
     <row r="649">
-      <c r="G649" s="49"/>
-      <c r="H649" s="50"/>
-      <c r="K649" s="48"/>
+      <c r="G649" s="54"/>
+      <c r="H649" s="55"/>
+      <c r="K649" s="53"/>
     </row>
     <row r="650">
-      <c r="G650" s="49"/>
-      <c r="H650" s="50"/>
-      <c r="K650" s="48"/>
+      <c r="G650" s="54"/>
+      <c r="H650" s="55"/>
+      <c r="K650" s="53"/>
     </row>
     <row r="651">
-      <c r="G651" s="49"/>
-      <c r="H651" s="50"/>
-      <c r="K651" s="48"/>
+      <c r="G651" s="54"/>
+      <c r="H651" s="55"/>
+      <c r="K651" s="53"/>
     </row>
     <row r="652">
-      <c r="G652" s="49"/>
-      <c r="H652" s="50"/>
-      <c r="K652" s="48"/>
+      <c r="G652" s="54"/>
+      <c r="H652" s="55"/>
+      <c r="K652" s="53"/>
     </row>
     <row r="653">
-      <c r="G653" s="49"/>
-      <c r="H653" s="50"/>
-      <c r="K653" s="48"/>
+      <c r="G653" s="54"/>
+      <c r="H653" s="55"/>
+      <c r="K653" s="53"/>
     </row>
     <row r="654">
-      <c r="G654" s="49"/>
-      <c r="H654" s="50"/>
-      <c r="K654" s="48"/>
+      <c r="G654" s="54"/>
+      <c r="H654" s="55"/>
+      <c r="K654" s="53"/>
     </row>
     <row r="655">
-      <c r="G655" s="49"/>
-      <c r="H655" s="50"/>
-      <c r="K655" s="48"/>
+      <c r="G655" s="54"/>
+      <c r="H655" s="55"/>
+      <c r="K655" s="53"/>
     </row>
     <row r="656">
-      <c r="G656" s="49"/>
-      <c r="H656" s="50"/>
-      <c r="K656" s="48"/>
+      <c r="G656" s="54"/>
+      <c r="H656" s="55"/>
+      <c r="K656" s="53"/>
     </row>
     <row r="657">
-      <c r="G657" s="49"/>
-      <c r="H657" s="50"/>
-      <c r="K657" s="48"/>
+      <c r="G657" s="54"/>
+      <c r="H657" s="55"/>
+      <c r="K657" s="53"/>
     </row>
     <row r="658">
-      <c r="G658" s="49"/>
-      <c r="H658" s="50"/>
-      <c r="K658" s="48"/>
+      <c r="G658" s="54"/>
+      <c r="H658" s="55"/>
+      <c r="K658" s="53"/>
     </row>
     <row r="659">
-      <c r="G659" s="49"/>
-      <c r="H659" s="50"/>
-      <c r="K659" s="48"/>
+      <c r="G659" s="54"/>
+      <c r="H659" s="55"/>
+      <c r="K659" s="53"/>
     </row>
     <row r="660">
-      <c r="G660" s="49"/>
-      <c r="H660" s="50"/>
-      <c r="K660" s="48"/>
+      <c r="G660" s="54"/>
+      <c r="H660" s="55"/>
+      <c r="K660" s="53"/>
     </row>
     <row r="661">
-      <c r="G661" s="49"/>
-      <c r="H661" s="50"/>
-      <c r="K661" s="48"/>
+      <c r="G661" s="54"/>
+      <c r="H661" s="55"/>
+      <c r="K661" s="53"/>
     </row>
     <row r="662">
-      <c r="G662" s="49"/>
-      <c r="H662" s="50"/>
-      <c r="K662" s="48"/>
+      <c r="G662" s="54"/>
+      <c r="H662" s="55"/>
+      <c r="K662" s="53"/>
     </row>
     <row r="663">
-      <c r="G663" s="49"/>
-      <c r="H663" s="50"/>
-      <c r="K663" s="48"/>
+      <c r="G663" s="54"/>
+      <c r="H663" s="55"/>
+      <c r="K663" s="53"/>
     </row>
     <row r="664">
-      <c r="G664" s="49"/>
-      <c r="H664" s="50"/>
-      <c r="K664" s="48"/>
+      <c r="G664" s="54"/>
+      <c r="H664" s="55"/>
+      <c r="K664" s="53"/>
     </row>
     <row r="665">
-      <c r="G665" s="49"/>
-      <c r="H665" s="50"/>
-      <c r="K665" s="48"/>
+      <c r="G665" s="54"/>
+      <c r="H665" s="55"/>
+      <c r="K665" s="53"/>
     </row>
     <row r="666">
-      <c r="G666" s="49"/>
-      <c r="H666" s="50"/>
-      <c r="K666" s="48"/>
+      <c r="G666" s="54"/>
+      <c r="H666" s="55"/>
+      <c r="K666" s="53"/>
     </row>
     <row r="667">
-      <c r="G667" s="49"/>
-      <c r="H667" s="50"/>
-      <c r="K667" s="48"/>
+      <c r="G667" s="54"/>
+      <c r="H667" s="55"/>
+      <c r="K667" s="53"/>
     </row>
     <row r="668">
-      <c r="G668" s="49"/>
-      <c r="H668" s="50"/>
-      <c r="K668" s="48"/>
+      <c r="G668" s="54"/>
+      <c r="H668" s="55"/>
+      <c r="K668" s="53"/>
     </row>
     <row r="669">
-      <c r="G669" s="49"/>
-      <c r="H669" s="50"/>
-      <c r="K669" s="48"/>
+      <c r="G669" s="54"/>
+      <c r="H669" s="55"/>
+      <c r="K669" s="53"/>
     </row>
     <row r="670">
-      <c r="G670" s="49"/>
-      <c r="H670" s="50"/>
-      <c r="K670" s="48"/>
+      <c r="G670" s="54"/>
+      <c r="H670" s="55"/>
+      <c r="K670" s="53"/>
     </row>
     <row r="671">
-      <c r="G671" s="49"/>
-      <c r="H671" s="50"/>
-      <c r="K671" s="48"/>
+      <c r="G671" s="54"/>
+      <c r="H671" s="55"/>
+      <c r="K671" s="53"/>
     </row>
     <row r="672">
-      <c r="G672" s="49"/>
-      <c r="H672" s="50"/>
-      <c r="K672" s="48"/>
+      <c r="G672" s="54"/>
+      <c r="H672" s="55"/>
+      <c r="K672" s="53"/>
     </row>
     <row r="673">
-      <c r="G673" s="49"/>
-      <c r="H673" s="50"/>
-      <c r="K673" s="48"/>
+      <c r="G673" s="54"/>
+      <c r="H673" s="55"/>
+      <c r="K673" s="53"/>
     </row>
     <row r="674">
-      <c r="G674" s="49"/>
-      <c r="H674" s="50"/>
-      <c r="K674" s="48"/>
+      <c r="G674" s="54"/>
+      <c r="H674" s="55"/>
+      <c r="K674" s="53"/>
     </row>
     <row r="675">
-      <c r="G675" s="49"/>
-      <c r="H675" s="50"/>
-      <c r="K675" s="48"/>
+      <c r="G675" s="54"/>
+      <c r="H675" s="55"/>
+      <c r="K675" s="53"/>
     </row>
     <row r="676">
-      <c r="G676" s="49"/>
-      <c r="H676" s="50"/>
-      <c r="K676" s="48"/>
+      <c r="G676" s="54"/>
+      <c r="H676" s="55"/>
+      <c r="K676" s="53"/>
     </row>
     <row r="677">
-      <c r="G677" s="49"/>
-      <c r="H677" s="50"/>
-      <c r="K677" s="48"/>
+      <c r="G677" s="54"/>
+      <c r="H677" s="55"/>
+      <c r="K677" s="53"/>
     </row>
     <row r="678">
-      <c r="G678" s="49"/>
-      <c r="H678" s="50"/>
-      <c r="K678" s="48"/>
+      <c r="G678" s="54"/>
+      <c r="H678" s="55"/>
+      <c r="K678" s="53"/>
     </row>
     <row r="679">
-      <c r="G679" s="49"/>
-      <c r="H679" s="50"/>
-      <c r="K679" s="48"/>
+      <c r="G679" s="54"/>
+      <c r="H679" s="55"/>
+      <c r="K679" s="53"/>
     </row>
     <row r="680">
-      <c r="G680" s="49"/>
-      <c r="H680" s="50"/>
-      <c r="K680" s="48"/>
+      <c r="G680" s="54"/>
+      <c r="H680" s="55"/>
+      <c r="K680" s="53"/>
     </row>
     <row r="681">
-      <c r="G681" s="49"/>
-      <c r="H681" s="50"/>
-      <c r="K681" s="48"/>
+      <c r="G681" s="54"/>
+      <c r="H681" s="55"/>
+      <c r="K681" s="53"/>
     </row>
     <row r="682">
-      <c r="G682" s="49"/>
-      <c r="H682" s="50"/>
-      <c r="K682" s="48"/>
+      <c r="G682" s="54"/>
+      <c r="H682" s="55"/>
+      <c r="K682" s="53"/>
     </row>
     <row r="683">
-      <c r="G683" s="49"/>
-      <c r="H683" s="50"/>
-      <c r="K683" s="48"/>
+      <c r="G683" s="54"/>
+      <c r="H683" s="55"/>
+      <c r="K683" s="53"/>
     </row>
     <row r="684">
-      <c r="G684" s="49"/>
-      <c r="H684" s="50"/>
-      <c r="K684" s="48"/>
+      <c r="G684" s="54"/>
+      <c r="H684" s="55"/>
+      <c r="K684" s="53"/>
     </row>
     <row r="685">
-      <c r="G685" s="49"/>
-      <c r="H685" s="50"/>
-      <c r="K685" s="48"/>
+      <c r="G685" s="54"/>
+      <c r="H685" s="55"/>
+      <c r="K685" s="53"/>
     </row>
     <row r="686">
-      <c r="G686" s="49"/>
-      <c r="H686" s="50"/>
-      <c r="K686" s="48"/>
+      <c r="G686" s="54"/>
+      <c r="H686" s="55"/>
+      <c r="K686" s="53"/>
     </row>
     <row r="687">
-      <c r="G687" s="49"/>
-      <c r="H687" s="50"/>
-      <c r="K687" s="48"/>
+      <c r="G687" s="54"/>
+      <c r="H687" s="55"/>
+      <c r="K687" s="53"/>
     </row>
     <row r="688">
-      <c r="G688" s="49"/>
-      <c r="H688" s="50"/>
-      <c r="K688" s="48"/>
+      <c r="G688" s="54"/>
+      <c r="H688" s="55"/>
+      <c r="K688" s="53"/>
     </row>
     <row r="689">
-      <c r="G689" s="49"/>
-      <c r="H689" s="50"/>
-      <c r="K689" s="48"/>
+      <c r="G689" s="54"/>
+      <c r="H689" s="55"/>
+      <c r="K689" s="53"/>
     </row>
     <row r="690">
-      <c r="G690" s="49"/>
-      <c r="H690" s="50"/>
-      <c r="K690" s="48"/>
+      <c r="G690" s="54"/>
+      <c r="H690" s="55"/>
+      <c r="K690" s="53"/>
     </row>
     <row r="691">
-      <c r="G691" s="49"/>
-      <c r="H691" s="50"/>
-      <c r="K691" s="48"/>
+      <c r="G691" s="54"/>
+      <c r="H691" s="55"/>
+      <c r="K691" s="53"/>
     </row>
     <row r="692">
-      <c r="G692" s="49"/>
-      <c r="H692" s="50"/>
-      <c r="K692" s="48"/>
+      <c r="G692" s="54"/>
+      <c r="H692" s="55"/>
+      <c r="K692" s="53"/>
     </row>
     <row r="693">
-      <c r="G693" s="49"/>
-      <c r="H693" s="50"/>
-      <c r="K693" s="48"/>
+      <c r="G693" s="54"/>
+      <c r="H693" s="55"/>
+      <c r="K693" s="53"/>
     </row>
     <row r="694">
-      <c r="G694" s="49"/>
-      <c r="H694" s="50"/>
-      <c r="K694" s="48"/>
+      <c r="G694" s="54"/>
+      <c r="H694" s="55"/>
+      <c r="K694" s="53"/>
     </row>
     <row r="695">
-      <c r="G695" s="49"/>
-      <c r="H695" s="50"/>
-      <c r="K695" s="48"/>
+      <c r="G695" s="54"/>
+      <c r="H695" s="55"/>
+      <c r="K695" s="53"/>
     </row>
     <row r="696">
-      <c r="G696" s="49"/>
-      <c r="H696" s="50"/>
-      <c r="K696" s="48"/>
+      <c r="G696" s="54"/>
+      <c r="H696" s="55"/>
+      <c r="K696" s="53"/>
     </row>
     <row r="697">
-      <c r="G697" s="49"/>
-      <c r="H697" s="50"/>
-      <c r="K697" s="48"/>
+      <c r="G697" s="54"/>
+      <c r="H697" s="55"/>
+      <c r="K697" s="53"/>
     </row>
     <row r="698">
-      <c r="G698" s="49"/>
-      <c r="H698" s="50"/>
-      <c r="K698" s="48"/>
+      <c r="G698" s="54"/>
+      <c r="H698" s="55"/>
+      <c r="K698" s="53"/>
     </row>
     <row r="699">
-      <c r="G699" s="49"/>
-      <c r="H699" s="50"/>
-      <c r="K699" s="48"/>
+      <c r="G699" s="54"/>
+      <c r="H699" s="55"/>
+      <c r="K699" s="53"/>
     </row>
     <row r="700">
-      <c r="G700" s="49"/>
-      <c r="H700" s="50"/>
-      <c r="K700" s="48"/>
+      <c r="G700" s="54"/>
+      <c r="H700" s="55"/>
+      <c r="K700" s="53"/>
     </row>
     <row r="701">
-      <c r="G701" s="49"/>
-      <c r="H701" s="50"/>
-      <c r="K701" s="48"/>
+      <c r="G701" s="54"/>
+      <c r="H701" s="55"/>
+      <c r="K701" s="53"/>
     </row>
     <row r="702">
-      <c r="G702" s="49"/>
-      <c r="H702" s="50"/>
-      <c r="K702" s="48"/>
+      <c r="G702" s="54"/>
+      <c r="H702" s="55"/>
+      <c r="K702" s="53"/>
     </row>
     <row r="703">
-      <c r="G703" s="49"/>
-      <c r="H703" s="50"/>
-      <c r="K703" s="48"/>
+      <c r="G703" s="54"/>
+      <c r="H703" s="55"/>
+      <c r="K703" s="53"/>
     </row>
     <row r="704">
-      <c r="G704" s="49"/>
-      <c r="H704" s="50"/>
-      <c r="K704" s="48"/>
+      <c r="G704" s="54"/>
+      <c r="H704" s="55"/>
+      <c r="K704" s="53"/>
     </row>
     <row r="705">
-      <c r="G705" s="49"/>
-      <c r="H705" s="50"/>
-      <c r="K705" s="48"/>
+      <c r="G705" s="54"/>
+      <c r="H705" s="55"/>
+      <c r="K705" s="53"/>
     </row>
     <row r="706">
-      <c r="G706" s="49"/>
-      <c r="H706" s="50"/>
-      <c r="K706" s="48"/>
+      <c r="G706" s="54"/>
+      <c r="H706" s="55"/>
+      <c r="K706" s="53"/>
     </row>
     <row r="707">
-      <c r="G707" s="49"/>
-      <c r="H707" s="50"/>
-      <c r="K707" s="48"/>
+      <c r="G707" s="54"/>
+      <c r="H707" s="55"/>
+      <c r="K707" s="53"/>
     </row>
     <row r="708">
-      <c r="G708" s="49"/>
-      <c r="H708" s="50"/>
-      <c r="K708" s="48"/>
+      <c r="G708" s="54"/>
+      <c r="H708" s="55"/>
+      <c r="K708" s="53"/>
     </row>
     <row r="709">
-      <c r="G709" s="49"/>
-      <c r="H709" s="50"/>
-      <c r="K709" s="48"/>
+      <c r="G709" s="54"/>
+      <c r="H709" s="55"/>
+      <c r="K709" s="53"/>
     </row>
     <row r="710">
-      <c r="G710" s="49"/>
-      <c r="H710" s="50"/>
-      <c r="K710" s="48"/>
+      <c r="G710" s="54"/>
+      <c r="H710" s="55"/>
+      <c r="K710" s="53"/>
     </row>
     <row r="711">
-      <c r="G711" s="49"/>
-      <c r="H711" s="50"/>
-      <c r="K711" s="48"/>
+      <c r="G711" s="54"/>
+      <c r="H711" s="55"/>
+      <c r="K711" s="53"/>
     </row>
     <row r="712">
-      <c r="G712" s="49"/>
-      <c r="H712" s="50"/>
-      <c r="K712" s="48"/>
+      <c r="G712" s="54"/>
+      <c r="H712" s="55"/>
+      <c r="K712" s="53"/>
     </row>
     <row r="713">
-      <c r="G713" s="49"/>
-      <c r="H713" s="50"/>
-      <c r="K713" s="48"/>
+      <c r="G713" s="54"/>
+      <c r="H713" s="55"/>
+      <c r="K713" s="53"/>
     </row>
     <row r="714">
-      <c r="G714" s="49"/>
-      <c r="H714" s="50"/>
-      <c r="K714" s="48"/>
+      <c r="G714" s="54"/>
+      <c r="H714" s="55"/>
+      <c r="K714" s="53"/>
     </row>
     <row r="715">
-      <c r="G715" s="49"/>
-      <c r="H715" s="50"/>
-      <c r="K715" s="48"/>
+      <c r="G715" s="54"/>
+      <c r="H715" s="55"/>
+      <c r="K715" s="53"/>
     </row>
     <row r="716">
-      <c r="G716" s="49"/>
-      <c r="H716" s="50"/>
-      <c r="K716" s="48"/>
+      <c r="G716" s="54"/>
+      <c r="H716" s="55"/>
+      <c r="K716" s="53"/>
     </row>
     <row r="717">
-      <c r="G717" s="49"/>
-      <c r="H717" s="50"/>
-      <c r="K717" s="48"/>
+      <c r="G717" s="54"/>
+      <c r="H717" s="55"/>
+      <c r="K717" s="53"/>
     </row>
     <row r="718">
-      <c r="G718" s="49"/>
-      <c r="H718" s="50"/>
-      <c r="K718" s="48"/>
+      <c r="G718" s="54"/>
+      <c r="H718" s="55"/>
+      <c r="K718" s="53"/>
     </row>
     <row r="719">
-      <c r="G719" s="49"/>
-      <c r="H719" s="50"/>
-      <c r="K719" s="48"/>
+      <c r="G719" s="54"/>
+      <c r="H719" s="55"/>
+      <c r="K719" s="53"/>
     </row>
     <row r="720">
-      <c r="G720" s="49"/>
-      <c r="H720" s="50"/>
-      <c r="K720" s="48"/>
+      <c r="G720" s="54"/>
+      <c r="H720" s="55"/>
+      <c r="K720" s="53"/>
     </row>
     <row r="721">
-      <c r="G721" s="49"/>
-      <c r="H721" s="50"/>
-      <c r="K721" s="48"/>
+      <c r="G721" s="54"/>
+      <c r="H721" s="55"/>
+      <c r="K721" s="53"/>
     </row>
     <row r="722">
-      <c r="G722" s="49"/>
-      <c r="H722" s="50"/>
-      <c r="K722" s="48"/>
+      <c r="G722" s="54"/>
+      <c r="H722" s="55"/>
+      <c r="K722" s="53"/>
     </row>
     <row r="723">
-      <c r="G723" s="49"/>
-      <c r="H723" s="50"/>
-      <c r="K723" s="48"/>
+      <c r="G723" s="54"/>
+      <c r="H723" s="55"/>
+      <c r="K723" s="53"/>
     </row>
     <row r="724">
-      <c r="G724" s="49"/>
-      <c r="H724" s="50"/>
-      <c r="K724" s="48"/>
+      <c r="G724" s="54"/>
+      <c r="H724" s="55"/>
+      <c r="K724" s="53"/>
     </row>
     <row r="725">
-      <c r="G725" s="49"/>
-      <c r="H725" s="50"/>
-      <c r="K725" s="48"/>
+      <c r="G725" s="54"/>
+      <c r="H725" s="55"/>
+      <c r="K725" s="53"/>
     </row>
     <row r="726">
-      <c r="G726" s="49"/>
-      <c r="H726" s="50"/>
-      <c r="K726" s="48"/>
+      <c r="G726" s="54"/>
+      <c r="H726" s="55"/>
+      <c r="K726" s="53"/>
     </row>
     <row r="727">
-      <c r="G727" s="49"/>
-      <c r="H727" s="50"/>
-      <c r="K727" s="48"/>
+      <c r="G727" s="54"/>
+      <c r="H727" s="55"/>
+      <c r="K727" s="53"/>
     </row>
     <row r="728">
-      <c r="G728" s="49"/>
-      <c r="H728" s="50"/>
-      <c r="K728" s="48"/>
+      <c r="G728" s="54"/>
+      <c r="H728" s="55"/>
+      <c r="K728" s="53"/>
     </row>
     <row r="729">
-      <c r="G729" s="49"/>
-      <c r="H729" s="50"/>
-      <c r="K729" s="48"/>
+      <c r="G729" s="54"/>
+      <c r="H729" s="55"/>
+      <c r="K729" s="53"/>
     </row>
     <row r="730">
-      <c r="G730" s="49"/>
-      <c r="H730" s="50"/>
-      <c r="K730" s="48"/>
+      <c r="G730" s="54"/>
+      <c r="H730" s="55"/>
+      <c r="K730" s="53"/>
     </row>
     <row r="731">
-      <c r="G731" s="49"/>
-      <c r="H731" s="50"/>
-      <c r="K731" s="48"/>
+      <c r="G731" s="54"/>
+      <c r="H731" s="55"/>
+      <c r="K731" s="53"/>
     </row>
     <row r="732">
-      <c r="G732" s="49"/>
-      <c r="H732" s="50"/>
-      <c r="K732" s="48"/>
+      <c r="G732" s="54"/>
+      <c r="H732" s="55"/>
+      <c r="K732" s="53"/>
     </row>
     <row r="733">
-      <c r="G733" s="49"/>
-      <c r="H733" s="50"/>
-      <c r="K733" s="48"/>
+      <c r="G733" s="54"/>
+      <c r="H733" s="55"/>
+      <c r="K733" s="53"/>
     </row>
     <row r="734">
-      <c r="G734" s="49"/>
-      <c r="H734" s="50"/>
-      <c r="K734" s="48"/>
+      <c r="G734" s="54"/>
+      <c r="H734" s="55"/>
+      <c r="K734" s="53"/>
     </row>
     <row r="735">
-      <c r="G735" s="49"/>
-      <c r="H735" s="50"/>
-      <c r="K735" s="48"/>
+      <c r="G735" s="54"/>
+      <c r="H735" s="55"/>
+      <c r="K735" s="53"/>
     </row>
     <row r="736">
-      <c r="G736" s="49"/>
-      <c r="H736" s="50"/>
-      <c r="K736" s="48"/>
+      <c r="G736" s="54"/>
+      <c r="H736" s="55"/>
+      <c r="K736" s="53"/>
     </row>
     <row r="737">
-      <c r="G737" s="49"/>
-      <c r="H737" s="50"/>
-      <c r="K737" s="48"/>
+      <c r="G737" s="54"/>
+      <c r="H737" s="55"/>
+      <c r="K737" s="53"/>
     </row>
     <row r="738">
-      <c r="G738" s="49"/>
-      <c r="H738" s="50"/>
-      <c r="K738" s="48"/>
+      <c r="G738" s="54"/>
+      <c r="H738" s="55"/>
+      <c r="K738" s="53"/>
     </row>
     <row r="739">
-      <c r="G739" s="49"/>
-      <c r="H739" s="50"/>
-      <c r="K739" s="48"/>
+      <c r="G739" s="54"/>
+      <c r="H739" s="55"/>
+      <c r="K739" s="53"/>
     </row>
     <row r="740">
-      <c r="G740" s="49"/>
-      <c r="H740" s="50"/>
-      <c r="K740" s="48"/>
+      <c r="G740" s="54"/>
+      <c r="H740" s="55"/>
+      <c r="K740" s="53"/>
     </row>
     <row r="741">
-      <c r="G741" s="49"/>
-      <c r="H741" s="50"/>
-      <c r="K741" s="48"/>
+      <c r="G741" s="54"/>
+      <c r="H741" s="55"/>
+      <c r="K741" s="53"/>
     </row>
     <row r="742">
-      <c r="G742" s="49"/>
-      <c r="H742" s="50"/>
-      <c r="K742" s="48"/>
+      <c r="G742" s="54"/>
+      <c r="H742" s="55"/>
+      <c r="K742" s="53"/>
     </row>
     <row r="743">
-      <c r="G743" s="49"/>
-      <c r="H743" s="50"/>
-      <c r="K743" s="48"/>
+      <c r="G743" s="54"/>
+      <c r="H743" s="55"/>
+      <c r="K743" s="53"/>
     </row>
     <row r="744">
-      <c r="G744" s="49"/>
-      <c r="H744" s="50"/>
-      <c r="K744" s="48"/>
+      <c r="G744" s="54"/>
+      <c r="H744" s="55"/>
+      <c r="K744" s="53"/>
     </row>
     <row r="745">
-      <c r="G745" s="49"/>
-      <c r="H745" s="50"/>
-      <c r="K745" s="48"/>
+      <c r="G745" s="54"/>
+      <c r="H745" s="55"/>
+      <c r="K745" s="53"/>
     </row>
     <row r="746">
-      <c r="G746" s="49"/>
-      <c r="H746" s="50"/>
-      <c r="K746" s="48"/>
+      <c r="G746" s="54"/>
+      <c r="H746" s="55"/>
+      <c r="K746" s="53"/>
     </row>
     <row r="747">
-      <c r="G747" s="49"/>
-      <c r="H747" s="50"/>
-      <c r="K747" s="48"/>
+      <c r="G747" s="54"/>
+      <c r="H747" s="55"/>
+      <c r="K747" s="53"/>
     </row>
     <row r="748">
-      <c r="G748" s="49"/>
-      <c r="H748" s="50"/>
-      <c r="K748" s="48"/>
+      <c r="G748" s="54"/>
+      <c r="H748" s="55"/>
+      <c r="K748" s="53"/>
     </row>
     <row r="749">
-      <c r="G749" s="49"/>
-      <c r="H749" s="50"/>
-      <c r="K749" s="48"/>
+      <c r="G749" s="54"/>
+      <c r="H749" s="55"/>
+      <c r="K749" s="53"/>
     </row>
     <row r="750">
-      <c r="G750" s="49"/>
-      <c r="H750" s="50"/>
-      <c r="K750" s="48"/>
+      <c r="G750" s="54"/>
+      <c r="H750" s="55"/>
+      <c r="K750" s="53"/>
     </row>
     <row r="751">
-      <c r="G751" s="49"/>
-      <c r="H751" s="50"/>
-      <c r="K751" s="48"/>
+      <c r="G751" s="54"/>
+      <c r="H751" s="55"/>
+      <c r="K751" s="53"/>
     </row>
     <row r="752">
-      <c r="G752" s="49"/>
-      <c r="H752" s="50"/>
-      <c r="K752" s="48"/>
+      <c r="G752" s="54"/>
+      <c r="H752" s="55"/>
+      <c r="K752" s="53"/>
     </row>
     <row r="753">
-      <c r="G753" s="49"/>
-      <c r="H753" s="50"/>
-      <c r="K753" s="48"/>
+      <c r="G753" s="54"/>
+      <c r="H753" s="55"/>
+      <c r="K753" s="53"/>
     </row>
     <row r="754">
-      <c r="G754" s="49"/>
-      <c r="H754" s="50"/>
-      <c r="K754" s="48"/>
+      <c r="G754" s="54"/>
+      <c r="H754" s="55"/>
+      <c r="K754" s="53"/>
     </row>
     <row r="755">
-      <c r="G755" s="49"/>
-      <c r="H755" s="50"/>
-      <c r="K755" s="48"/>
+      <c r="G755" s="54"/>
+      <c r="H755" s="55"/>
+      <c r="K755" s="53"/>
     </row>
     <row r="756">
-      <c r="G756" s="49"/>
-      <c r="H756" s="50"/>
-      <c r="K756" s="48"/>
+      <c r="G756" s="54"/>
+      <c r="H756" s="55"/>
+      <c r="K756" s="53"/>
     </row>
     <row r="757">
-      <c r="G757" s="49"/>
-      <c r="H757" s="50"/>
-      <c r="K757" s="48"/>
+      <c r="G757" s="54"/>
+      <c r="H757" s="55"/>
+      <c r="K757" s="53"/>
     </row>
     <row r="758">
-      <c r="G758" s="49"/>
-      <c r="H758" s="50"/>
-      <c r="K758" s="48"/>
+      <c r="G758" s="54"/>
+      <c r="H758" s="55"/>
+      <c r="K758" s="53"/>
     </row>
     <row r="759">
-      <c r="G759" s="49"/>
-      <c r="H759" s="50"/>
-      <c r="K759" s="48"/>
+      <c r="G759" s="54"/>
+      <c r="H759" s="55"/>
+      <c r="K759" s="53"/>
     </row>
     <row r="760">
-      <c r="G760" s="49"/>
-      <c r="H760" s="50"/>
-      <c r="K760" s="48"/>
+      <c r="G760" s="54"/>
+      <c r="H760" s="55"/>
+      <c r="K760" s="53"/>
     </row>
     <row r="761">
-      <c r="G761" s="49"/>
-      <c r="H761" s="50"/>
-      <c r="K761" s="48"/>
+      <c r="G761" s="54"/>
+      <c r="H761" s="55"/>
+      <c r="K761" s="53"/>
     </row>
     <row r="762">
-      <c r="G762" s="49"/>
-      <c r="H762" s="50"/>
-      <c r="K762" s="48"/>
+      <c r="G762" s="54"/>
+      <c r="H762" s="55"/>
+      <c r="K762" s="53"/>
     </row>
     <row r="763">
-      <c r="G763" s="49"/>
-      <c r="H763" s="50"/>
-      <c r="K763" s="48"/>
+      <c r="G763" s="54"/>
+      <c r="H763" s="55"/>
+      <c r="K763" s="53"/>
     </row>
     <row r="764">
-      <c r="G764" s="49"/>
-      <c r="H764" s="50"/>
-      <c r="K764" s="48"/>
+      <c r="G764" s="54"/>
+      <c r="H764" s="55"/>
+      <c r="K764" s="53"/>
     </row>
     <row r="765">
-      <c r="G765" s="49"/>
-      <c r="H765" s="50"/>
-      <c r="K765" s="48"/>
+      <c r="G765" s="54"/>
+      <c r="H765" s="55"/>
+      <c r="K765" s="53"/>
     </row>
     <row r="766">
-      <c r="G766" s="49"/>
-      <c r="H766" s="50"/>
-      <c r="K766" s="48"/>
+      <c r="G766" s="54"/>
+      <c r="H766" s="55"/>
+      <c r="K766" s="53"/>
     </row>
     <row r="767">
-      <c r="G767" s="49"/>
-      <c r="H767" s="50"/>
-      <c r="K767" s="48"/>
+      <c r="G767" s="54"/>
+      <c r="H767" s="55"/>
+      <c r="K767" s="53"/>
     </row>
     <row r="768">
-      <c r="G768" s="49"/>
-      <c r="H768" s="50"/>
-      <c r="K768" s="48"/>
+      <c r="G768" s="54"/>
+      <c r="H768" s="55"/>
+      <c r="K768" s="53"/>
     </row>
     <row r="769">
-      <c r="G769" s="49"/>
-      <c r="H769" s="50"/>
-      <c r="K769" s="48"/>
+      <c r="G769" s="54"/>
+      <c r="H769" s="55"/>
+      <c r="K769" s="53"/>
     </row>
     <row r="770">
-      <c r="G770" s="49"/>
-      <c r="H770" s="50"/>
-      <c r="K770" s="48"/>
+      <c r="G770" s="54"/>
+      <c r="H770" s="55"/>
+      <c r="K770" s="53"/>
     </row>
     <row r="771">
-      <c r="G771" s="49"/>
-      <c r="H771" s="50"/>
-      <c r="K771" s="48"/>
+      <c r="G771" s="54"/>
+      <c r="H771" s="55"/>
+      <c r="K771" s="53"/>
     </row>
     <row r="772">
-      <c r="G772" s="49"/>
-      <c r="H772" s="50"/>
-      <c r="K772" s="48"/>
+      <c r="G772" s="54"/>
+      <c r="H772" s="55"/>
+      <c r="K772" s="53"/>
     </row>
     <row r="773">
-      <c r="G773" s="49"/>
-      <c r="H773" s="50"/>
-      <c r="K773" s="48"/>
+      <c r="G773" s="54"/>
+      <c r="H773" s="55"/>
+      <c r="K773" s="53"/>
     </row>
     <row r="774">
-      <c r="G774" s="49"/>
-      <c r="H774" s="50"/>
-      <c r="K774" s="48"/>
+      <c r="G774" s="54"/>
+      <c r="H774" s="55"/>
+      <c r="K774" s="53"/>
     </row>
     <row r="775">
-      <c r="G775" s="49"/>
-      <c r="H775" s="50"/>
-      <c r="K775" s="48"/>
+      <c r="G775" s="54"/>
+      <c r="H775" s="55"/>
+      <c r="K775" s="53"/>
     </row>
     <row r="776">
-      <c r="G776" s="49"/>
-      <c r="H776" s="50"/>
-      <c r="K776" s="48"/>
+      <c r="G776" s="54"/>
+      <c r="H776" s="55"/>
+      <c r="K776" s="53"/>
     </row>
     <row r="777">
-      <c r="G777" s="49"/>
-      <c r="H777" s="50"/>
-      <c r="K777" s="48"/>
+      <c r="G777" s="54"/>
+      <c r="H777" s="55"/>
+      <c r="K777" s="53"/>
     </row>
     <row r="778">
-      <c r="G778" s="49"/>
-      <c r="H778" s="50"/>
-      <c r="K778" s="48"/>
+      <c r="G778" s="54"/>
+      <c r="H778" s="55"/>
+      <c r="K778" s="53"/>
     </row>
     <row r="779">
-      <c r="G779" s="49"/>
-      <c r="H779" s="50"/>
-      <c r="K779" s="48"/>
+      <c r="G779" s="54"/>
+      <c r="H779" s="55"/>
+      <c r="K779" s="53"/>
     </row>
     <row r="780">
-      <c r="G780" s="49"/>
-      <c r="H780" s="50"/>
-      <c r="K780" s="48"/>
+      <c r="G780" s="54"/>
+      <c r="H780" s="55"/>
+      <c r="K780" s="53"/>
     </row>
     <row r="781">
-      <c r="G781" s="49"/>
-      <c r="H781" s="50"/>
-      <c r="K781" s="48"/>
+      <c r="G781" s="54"/>
+      <c r="H781" s="55"/>
+      <c r="K781" s="53"/>
     </row>
     <row r="782">
-      <c r="G782" s="49"/>
-      <c r="H782" s="50"/>
-      <c r="K782" s="48"/>
+      <c r="G782" s="54"/>
+      <c r="H782" s="55"/>
+      <c r="K782" s="53"/>
     </row>
     <row r="783">
-      <c r="G783" s="49"/>
-      <c r="H783" s="50"/>
-      <c r="K783" s="48"/>
+      <c r="G783" s="54"/>
+      <c r="H783" s="55"/>
+      <c r="K783" s="53"/>
     </row>
     <row r="784">
-      <c r="G784" s="49"/>
-      <c r="H784" s="50"/>
-      <c r="K784" s="48"/>
+      <c r="G784" s="54"/>
+      <c r="H784" s="55"/>
+      <c r="K784" s="53"/>
     </row>
     <row r="785">
-      <c r="G785" s="49"/>
-      <c r="H785" s="50"/>
-      <c r="K785" s="48"/>
+      <c r="G785" s="54"/>
+      <c r="H785" s="55"/>
+      <c r="K785" s="53"/>
     </row>
     <row r="786">
-      <c r="G786" s="49"/>
-      <c r="H786" s="50"/>
-      <c r="K786" s="48"/>
+      <c r="G786" s="54"/>
+      <c r="H786" s="55"/>
+      <c r="K786" s="53"/>
     </row>
     <row r="787">
-      <c r="G787" s="49"/>
-      <c r="H787" s="50"/>
-      <c r="K787" s="48"/>
+      <c r="G787" s="54"/>
+      <c r="H787" s="55"/>
+      <c r="K787" s="53"/>
     </row>
     <row r="788">
-      <c r="G788" s="49"/>
-      <c r="H788" s="50"/>
-      <c r="K788" s="48"/>
+      <c r="G788" s="54"/>
+      <c r="H788" s="55"/>
+      <c r="K788" s="53"/>
     </row>
     <row r="789">
-      <c r="G789" s="49"/>
-      <c r="H789" s="50"/>
-      <c r="K789" s="48"/>
+      <c r="G789" s="54"/>
+      <c r="H789" s="55"/>
+      <c r="K789" s="53"/>
     </row>
     <row r="790">
-      <c r="G790" s="49"/>
-      <c r="H790" s="50"/>
-      <c r="K790" s="48"/>
+      <c r="G790" s="54"/>
+      <c r="H790" s="55"/>
+      <c r="K790" s="53"/>
     </row>
     <row r="791">
-      <c r="G791" s="49"/>
-      <c r="H791" s="50"/>
-      <c r="K791" s="48"/>
+      <c r="G791" s="54"/>
+      <c r="H791" s="55"/>
+      <c r="K791" s="53"/>
     </row>
     <row r="792">
-      <c r="G792" s="49"/>
-      <c r="H792" s="50"/>
-      <c r="K792" s="48"/>
+      <c r="G792" s="54"/>
+      <c r="H792" s="55"/>
+      <c r="K792" s="53"/>
     </row>
     <row r="793">
-      <c r="G793" s="49"/>
-      <c r="H793" s="50"/>
-      <c r="K793" s="48"/>
+      <c r="G793" s="54"/>
+      <c r="H793" s="55"/>
+      <c r="K793" s="53"/>
     </row>
     <row r="794">
-      <c r="G794" s="49"/>
-      <c r="H794" s="50"/>
-      <c r="K794" s="48"/>
+      <c r="G794" s="54"/>
+      <c r="H794" s="55"/>
+      <c r="K794" s="53"/>
     </row>
     <row r="795">
-      <c r="G795" s="49"/>
-      <c r="H795" s="50"/>
-      <c r="K795" s="48"/>
+      <c r="G795" s="54"/>
+      <c r="H795" s="55"/>
+      <c r="K795" s="53"/>
     </row>
     <row r="796">
-      <c r="G796" s="49"/>
-      <c r="H796" s="50"/>
-      <c r="K796" s="48"/>
+      <c r="G796" s="54"/>
+      <c r="H796" s="55"/>
+      <c r="K796" s="53"/>
     </row>
     <row r="797">
-      <c r="G797" s="49"/>
-      <c r="H797" s="50"/>
-      <c r="K797" s="48"/>
+      <c r="G797" s="54"/>
+      <c r="H797" s="55"/>
+      <c r="K797" s="53"/>
     </row>
     <row r="798">
-      <c r="G798" s="49"/>
-      <c r="H798" s="50"/>
-      <c r="K798" s="48"/>
+      <c r="G798" s="54"/>
+      <c r="H798" s="55"/>
+      <c r="K798" s="53"/>
     </row>
     <row r="799">
-      <c r="G799" s="49"/>
-      <c r="H799" s="50"/>
-      <c r="K799" s="48"/>
+      <c r="G799" s="54"/>
+      <c r="H799" s="55"/>
+      <c r="K799" s="53"/>
     </row>
     <row r="800">
-      <c r="G800" s="49"/>
-      <c r="H800" s="50"/>
-      <c r="K800" s="48"/>
+      <c r="G800" s="54"/>
+      <c r="H800" s="55"/>
+      <c r="K800" s="53"/>
     </row>
     <row r="801">
-      <c r="G801" s="49"/>
-      <c r="H801" s="50"/>
-      <c r="K801" s="48"/>
+      <c r="G801" s="54"/>
+      <c r="H801" s="55"/>
+      <c r="K801" s="53"/>
     </row>
     <row r="802">
-      <c r="G802" s="49"/>
-      <c r="H802" s="50"/>
-      <c r="K802" s="48"/>
+      <c r="G802" s="54"/>
+      <c r="H802" s="55"/>
+      <c r="K802" s="53"/>
     </row>
     <row r="803">
-      <c r="G803" s="49"/>
-      <c r="H803" s="50"/>
-      <c r="K803" s="48"/>
+      <c r="G803" s="54"/>
+      <c r="H803" s="55"/>
+      <c r="K803" s="53"/>
     </row>
     <row r="804">
-      <c r="G804" s="49"/>
-      <c r="H804" s="50"/>
-      <c r="K804" s="48"/>
+      <c r="G804" s="54"/>
+      <c r="H804" s="55"/>
+      <c r="K804" s="53"/>
     </row>
     <row r="805">
-      <c r="G805" s="49"/>
-      <c r="H805" s="50"/>
-      <c r="K805" s="48"/>
+      <c r="G805" s="54"/>
+      <c r="H805" s="55"/>
+      <c r="K805" s="53"/>
     </row>
     <row r="806">
-      <c r="G806" s="49"/>
-      <c r="H806" s="50"/>
-      <c r="K806" s="48"/>
+      <c r="G806" s="54"/>
+      <c r="H806" s="55"/>
+      <c r="K806" s="53"/>
     </row>
     <row r="807">
-      <c r="G807" s="49"/>
-      <c r="H807" s="50"/>
-      <c r="K807" s="48"/>
+      <c r="G807" s="54"/>
+      <c r="H807" s="55"/>
+      <c r="K807" s="53"/>
     </row>
     <row r="808">
-      <c r="G808" s="49"/>
-      <c r="H808" s="50"/>
-      <c r="K808" s="48"/>
+      <c r="G808" s="54"/>
+      <c r="H808" s="55"/>
+      <c r="K808" s="53"/>
     </row>
     <row r="809">
-      <c r="G809" s="49"/>
-      <c r="H809" s="50"/>
-      <c r="K809" s="48"/>
+      <c r="G809" s="54"/>
+      <c r="H809" s="55"/>
+      <c r="K809" s="53"/>
     </row>
     <row r="810">
-      <c r="G810" s="49"/>
-      <c r="H810" s="50"/>
-      <c r="K810" s="48"/>
+      <c r="G810" s="54"/>
+      <c r="H810" s="55"/>
+      <c r="K810" s="53"/>
     </row>
     <row r="811">
-      <c r="G811" s="49"/>
-      <c r="H811" s="50"/>
-      <c r="K811" s="48"/>
+      <c r="G811" s="54"/>
+      <c r="H811" s="55"/>
+      <c r="K811" s="53"/>
     </row>
     <row r="812">
-      <c r="G812" s="49"/>
-      <c r="H812" s="50"/>
-      <c r="K812" s="48"/>
+      <c r="G812" s="54"/>
+      <c r="H812" s="55"/>
+      <c r="K812" s="53"/>
     </row>
     <row r="813">
-      <c r="G813" s="49"/>
-      <c r="H813" s="50"/>
-      <c r="K813" s="48"/>
+      <c r="G813" s="54"/>
+      <c r="H813" s="55"/>
+      <c r="K813" s="53"/>
     </row>
     <row r="814">
-      <c r="G814" s="49"/>
-      <c r="H814" s="50"/>
-      <c r="K814" s="48"/>
+      <c r="G814" s="54"/>
+      <c r="H814" s="55"/>
+      <c r="K814" s="53"/>
     </row>
     <row r="815">
-      <c r="G815" s="49"/>
-      <c r="H815" s="50"/>
-      <c r="K815" s="48"/>
+      <c r="G815" s="54"/>
+      <c r="H815" s="55"/>
+      <c r="K815" s="53"/>
     </row>
     <row r="816">
-      <c r="G816" s="49"/>
-      <c r="H816" s="50"/>
-      <c r="K816" s="48"/>
+      <c r="G816" s="54"/>
+      <c r="H816" s="55"/>
+      <c r="K816" s="53"/>
     </row>
     <row r="817">
-      <c r="G817" s="49"/>
-      <c r="H817" s="50"/>
-      <c r="K817" s="48"/>
+      <c r="G817" s="54"/>
+      <c r="H817" s="55"/>
+      <c r="K817" s="53"/>
     </row>
     <row r="818">
-      <c r="G818" s="49"/>
-      <c r="H818" s="50"/>
-      <c r="K818" s="48"/>
+      <c r="G818" s="54"/>
+      <c r="H818" s="55"/>
+      <c r="K818" s="53"/>
     </row>
     <row r="819">
-      <c r="G819" s="49"/>
-      <c r="H819" s="50"/>
-      <c r="K819" s="48"/>
+      <c r="G819" s="54"/>
+      <c r="H819" s="55"/>
+      <c r="K819" s="53"/>
     </row>
     <row r="820">
-      <c r="G820" s="49"/>
-      <c r="H820" s="50"/>
-      <c r="K820" s="48"/>
+      <c r="G820" s="54"/>
+      <c r="H820" s="55"/>
+      <c r="K820" s="53"/>
     </row>
     <row r="821">
-      <c r="G821" s="49"/>
-      <c r="H821" s="50"/>
-      <c r="K821" s="48"/>
+      <c r="G821" s="54"/>
+      <c r="H821" s="55"/>
+      <c r="K821" s="53"/>
     </row>
     <row r="822">
-      <c r="G822" s="49"/>
-      <c r="H822" s="50"/>
-      <c r="K822" s="48"/>
+      <c r="G822" s="54"/>
+      <c r="H822" s="55"/>
+      <c r="K822" s="53"/>
     </row>
     <row r="823">
-      <c r="G823" s="49"/>
-      <c r="H823" s="50"/>
-      <c r="K823" s="48"/>
+      <c r="G823" s="54"/>
+      <c r="H823" s="55"/>
+      <c r="K823" s="53"/>
     </row>
     <row r="824">
-      <c r="G824" s="49"/>
-      <c r="H824" s="50"/>
-      <c r="K824" s="48"/>
+      <c r="G824" s="54"/>
+      <c r="H824" s="55"/>
+      <c r="K824" s="53"/>
     </row>
     <row r="825">
-      <c r="G825" s="49"/>
-      <c r="H825" s="50"/>
-      <c r="K825" s="48"/>
+      <c r="G825" s="54"/>
+      <c r="H825" s="55"/>
+      <c r="K825" s="53"/>
     </row>
     <row r="826">
-      <c r="G826" s="49"/>
-      <c r="H826" s="50"/>
-      <c r="K826" s="48"/>
+      <c r="G826" s="54"/>
+      <c r="H826" s="55"/>
+      <c r="K826" s="53"/>
     </row>
     <row r="827">
-      <c r="G827" s="49"/>
-      <c r="H827" s="50"/>
-      <c r="K827" s="48"/>
+      <c r="G827" s="54"/>
+      <c r="H827" s="55"/>
+      <c r="K827" s="53"/>
     </row>
     <row r="828">
-      <c r="G828" s="49"/>
-      <c r="H828" s="50"/>
-      <c r="K828" s="48"/>
+      <c r="G828" s="54"/>
+      <c r="H828" s="55"/>
+      <c r="K828" s="53"/>
     </row>
     <row r="829">
-      <c r="G829" s="49"/>
-      <c r="H829" s="50"/>
-      <c r="K829" s="48"/>
+      <c r="G829" s="54"/>
+      <c r="H829" s="55"/>
+      <c r="K829" s="53"/>
     </row>
     <row r="830">
-      <c r="G830" s="49"/>
-      <c r="H830" s="50"/>
-      <c r="K830" s="48"/>
+      <c r="G830" s="54"/>
+      <c r="H830" s="55"/>
+      <c r="K830" s="53"/>
     </row>
     <row r="831">
-      <c r="G831" s="49"/>
-      <c r="H831" s="50"/>
-      <c r="K831" s="48"/>
+      <c r="G831" s="54"/>
+      <c r="H831" s="55"/>
+      <c r="K831" s="53"/>
     </row>
     <row r="832">
-      <c r="G832" s="49"/>
-      <c r="H832" s="50"/>
-      <c r="K832" s="48"/>
+      <c r="G832" s="54"/>
+      <c r="H832" s="55"/>
+      <c r="K832" s="53"/>
     </row>
     <row r="833">
-      <c r="G833" s="49"/>
-      <c r="H833" s="50"/>
-      <c r="K833" s="48"/>
+      <c r="G833" s="54"/>
+      <c r="H833" s="55"/>
+      <c r="K833" s="53"/>
     </row>
     <row r="834">
-      <c r="G834" s="49"/>
-      <c r="H834" s="50"/>
-      <c r="K834" s="48"/>
+      <c r="G834" s="54"/>
+      <c r="H834" s="55"/>
+      <c r="K834" s="53"/>
     </row>
     <row r="835">
-      <c r="G835" s="49"/>
-      <c r="H835" s="50"/>
-      <c r="K835" s="48"/>
+      <c r="G835" s="54"/>
+      <c r="H835" s="55"/>
+      <c r="K835" s="53"/>
     </row>
     <row r="836">
-      <c r="G836" s="49"/>
-      <c r="H836" s="50"/>
-      <c r="K836" s="48"/>
+      <c r="G836" s="54"/>
+      <c r="H836" s="55"/>
+      <c r="K836" s="53"/>
     </row>
     <row r="837">
-      <c r="G837" s="49"/>
-      <c r="H837" s="50"/>
-      <c r="K837" s="48"/>
+      <c r="G837" s="54"/>
+      <c r="H837" s="55"/>
+      <c r="K837" s="53"/>
     </row>
     <row r="838">
-      <c r="G838" s="49"/>
-      <c r="H838" s="50"/>
-      <c r="K838" s="48"/>
+      <c r="G838" s="54"/>
+      <c r="H838" s="55"/>
+      <c r="K838" s="53"/>
     </row>
     <row r="839">
-      <c r="G839" s="49"/>
-      <c r="H839" s="50"/>
-      <c r="K839" s="48"/>
+      <c r="G839" s="54"/>
+      <c r="H839" s="55"/>
+      <c r="K839" s="53"/>
     </row>
     <row r="840">
-      <c r="G840" s="49"/>
-      <c r="H840" s="50"/>
-      <c r="K840" s="48"/>
+      <c r="G840" s="54"/>
+      <c r="H840" s="55"/>
+      <c r="K840" s="53"/>
     </row>
     <row r="841">
-      <c r="G841" s="49"/>
-      <c r="H841" s="50"/>
-      <c r="K841" s="48"/>
+      <c r="G841" s="54"/>
+      <c r="H841" s="55"/>
+      <c r="K841" s="53"/>
     </row>
     <row r="842">
-      <c r="G842" s="49"/>
-      <c r="H842" s="50"/>
-      <c r="K842" s="48"/>
+      <c r="G842" s="54"/>
+      <c r="H842" s="55"/>
+      <c r="K842" s="53"/>
     </row>
     <row r="843">
-      <c r="G843" s="49"/>
-      <c r="H843" s="50"/>
-      <c r="K843" s="48"/>
+      <c r="G843" s="54"/>
+      <c r="H843" s="55"/>
+      <c r="K843" s="53"/>
     </row>
     <row r="844">
-      <c r="G844" s="49"/>
-      <c r="H844" s="50"/>
-      <c r="K844" s="48"/>
+      <c r="G844" s="54"/>
+      <c r="H844" s="55"/>
+      <c r="K844" s="53"/>
     </row>
     <row r="845">
-      <c r="G845" s="49"/>
-      <c r="H845" s="50"/>
-      <c r="K845" s="48"/>
+      <c r="G845" s="54"/>
+      <c r="H845" s="55"/>
+      <c r="K845" s="53"/>
     </row>
     <row r="846">
-      <c r="G846" s="49"/>
-      <c r="H846" s="50"/>
-      <c r="K846" s="48"/>
+      <c r="G846" s="54"/>
+      <c r="H846" s="55"/>
+      <c r="K846" s="53"/>
     </row>
     <row r="847">
-      <c r="G847" s="49"/>
-      <c r="H847" s="50"/>
-      <c r="K847" s="48"/>
+      <c r="G847" s="54"/>
+      <c r="H847" s="55"/>
+      <c r="K847" s="53"/>
     </row>
     <row r="848">
-      <c r="G848" s="49"/>
-      <c r="H848" s="50"/>
-      <c r="K848" s="48"/>
+      <c r="G848" s="54"/>
+      <c r="H848" s="55"/>
+      <c r="K848" s="53"/>
     </row>
     <row r="849">
-      <c r="G849" s="49"/>
-      <c r="H849" s="50"/>
-      <c r="K849" s="48"/>
+      <c r="G849" s="54"/>
+      <c r="H849" s="55"/>
+      <c r="K849" s="53"/>
     </row>
     <row r="850">
-      <c r="G850" s="49"/>
-      <c r="H850" s="50"/>
-      <c r="K850" s="48"/>
+      <c r="G850" s="54"/>
+      <c r="H850" s="55"/>
+      <c r="K850" s="53"/>
     </row>
     <row r="851">
-      <c r="G851" s="49"/>
-      <c r="H851" s="50"/>
-      <c r="K851" s="48"/>
+      <c r="G851" s="54"/>
+      <c r="H851" s="55"/>
+      <c r="K851" s="53"/>
     </row>
     <row r="852">
-      <c r="G852" s="49"/>
-      <c r="H852" s="50"/>
-      <c r="K852" s="48"/>
+      <c r="G852" s="54"/>
+      <c r="H852" s="55"/>
+      <c r="K852" s="53"/>
     </row>
     <row r="853">
-      <c r="G853" s="49"/>
-      <c r="H853" s="50"/>
-      <c r="K853" s="48"/>
+      <c r="G853" s="54"/>
+      <c r="H853" s="55"/>
+      <c r="K853" s="53"/>
     </row>
     <row r="854">
-      <c r="G854" s="49"/>
-      <c r="H854" s="50"/>
-      <c r="K854" s="48"/>
+      <c r="G854" s="54"/>
+      <c r="H854" s="55"/>
+      <c r="K854" s="53"/>
     </row>
     <row r="855">
-      <c r="G855" s="49"/>
-      <c r="H855" s="50"/>
-      <c r="K855" s="48"/>
+      <c r="G855" s="54"/>
+      <c r="H855" s="55"/>
+      <c r="K855" s="53"/>
     </row>
     <row r="856">
-      <c r="G856" s="49"/>
-      <c r="H856" s="50"/>
-      <c r="K856" s="48"/>
+      <c r="G856" s="54"/>
+      <c r="H856" s="55"/>
+      <c r="K856" s="53"/>
     </row>
     <row r="857">
-      <c r="G857" s="49"/>
-      <c r="H857" s="50"/>
-      <c r="K857" s="48"/>
+      <c r="G857" s="54"/>
+      <c r="H857" s="55"/>
+      <c r="K857" s="53"/>
     </row>
     <row r="858">
-      <c r="G858" s="49"/>
-      <c r="H858" s="50"/>
-      <c r="K858" s="48"/>
+      <c r="G858" s="54"/>
+      <c r="H858" s="55"/>
+      <c r="K858" s="53"/>
     </row>
     <row r="859">
-      <c r="G859" s="49"/>
-      <c r="H859" s="50"/>
-      <c r="K859" s="48"/>
+      <c r="G859" s="54"/>
+      <c r="H859" s="55"/>
+      <c r="K859" s="53"/>
     </row>
     <row r="860">
-      <c r="G860" s="49"/>
-      <c r="H860" s="50"/>
-      <c r="K860" s="48"/>
+      <c r="G860" s="54"/>
+      <c r="H860" s="55"/>
+      <c r="K860" s="53"/>
     </row>
     <row r="861">
-      <c r="G861" s="49"/>
-      <c r="H861" s="50"/>
-      <c r="K861" s="48"/>
+      <c r="G861" s="54"/>
+      <c r="H861" s="55"/>
+      <c r="K861" s="53"/>
     </row>
     <row r="862">
-      <c r="G862" s="49"/>
-      <c r="H862" s="50"/>
-      <c r="K862" s="48"/>
+      <c r="G862" s="54"/>
+      <c r="H862" s="55"/>
+      <c r="K862" s="53"/>
     </row>
     <row r="863">
-      <c r="G863" s="49"/>
-      <c r="H863" s="50"/>
-      <c r="K863" s="48"/>
+      <c r="G863" s="54"/>
+      <c r="H863" s="55"/>
+      <c r="K863" s="53"/>
     </row>
     <row r="864">
-      <c r="G864" s="49"/>
-      <c r="H864" s="50"/>
-      <c r="K864" s="48"/>
+      <c r="G864" s="54"/>
+      <c r="H864" s="55"/>
+      <c r="K864" s="53"/>
     </row>
     <row r="865">
-      <c r="G865" s="49"/>
-      <c r="H865" s="50"/>
-      <c r="K865" s="48"/>
+      <c r="G865" s="54"/>
+      <c r="H865" s="55"/>
+      <c r="K865" s="53"/>
     </row>
     <row r="866">
-      <c r="G866" s="49"/>
-      <c r="H866" s="50"/>
-      <c r="K866" s="48"/>
+      <c r="G866" s="54"/>
+      <c r="H866" s="55"/>
+      <c r="K866" s="53"/>
     </row>
     <row r="867">
-      <c r="G867" s="49"/>
-      <c r="H867" s="50"/>
-      <c r="K867" s="48"/>
+      <c r="G867" s="54"/>
+      <c r="H867" s="55"/>
+      <c r="K867" s="53"/>
     </row>
     <row r="868">
-      <c r="G868" s="49"/>
-      <c r="H868" s="50"/>
-      <c r="K868" s="48"/>
+      <c r="G868" s="54"/>
+      <c r="H868" s="55"/>
+      <c r="K868" s="53"/>
     </row>
     <row r="869">
-      <c r="G869" s="49"/>
-      <c r="H869" s="50"/>
-      <c r="K869" s="48"/>
+      <c r="G869" s="54"/>
+      <c r="H869" s="55"/>
+      <c r="K869" s="53"/>
     </row>
     <row r="870">
-      <c r="G870" s="49"/>
-      <c r="H870" s="50"/>
-      <c r="K870" s="48"/>
+      <c r="G870" s="54"/>
+      <c r="H870" s="55"/>
+      <c r="K870" s="53"/>
     </row>
     <row r="871">
-      <c r="G871" s="49"/>
-      <c r="H871" s="50"/>
-      <c r="K871" s="48"/>
+      <c r="G871" s="54"/>
+      <c r="H871" s="55"/>
+      <c r="K871" s="53"/>
     </row>
     <row r="872">
-      <c r="G872" s="49"/>
-      <c r="H872" s="50"/>
-      <c r="K872" s="48"/>
+      <c r="G872" s="54"/>
+      <c r="H872" s="55"/>
+      <c r="K872" s="53"/>
     </row>
     <row r="873">
-      <c r="G873" s="49"/>
-      <c r="H873" s="50"/>
-      <c r="K873" s="48"/>
+      <c r="G873" s="54"/>
+      <c r="H873" s="55"/>
+      <c r="K873" s="53"/>
     </row>
     <row r="874">
-      <c r="G874" s="49"/>
-      <c r="H874" s="50"/>
-      <c r="K874" s="48"/>
+      <c r="G874" s="54"/>
+      <c r="H874" s="55"/>
+      <c r="K874" s="53"/>
     </row>
     <row r="875">
-      <c r="G875" s="49"/>
-      <c r="H875" s="50"/>
-      <c r="K875" s="48"/>
+      <c r="G875" s="54"/>
+      <c r="H875" s="55"/>
+      <c r="K875" s="53"/>
     </row>
     <row r="876">
-      <c r="G876" s="49"/>
-      <c r="H876" s="50"/>
-      <c r="K876" s="48"/>
+      <c r="G876" s="54"/>
+      <c r="H876" s="55"/>
+      <c r="K876" s="53"/>
     </row>
     <row r="877">
-      <c r="G877" s="49"/>
-      <c r="H877" s="50"/>
-      <c r="K877" s="48"/>
+      <c r="G877" s="54"/>
+      <c r="H877" s="55"/>
+      <c r="K877" s="53"/>
     </row>
     <row r="878">
-      <c r="G878" s="49"/>
-      <c r="H878" s="50"/>
-      <c r="K878" s="48"/>
+      <c r="G878" s="54"/>
+      <c r="H878" s="55"/>
+      <c r="K878" s="53"/>
     </row>
     <row r="879">
-      <c r="G879" s="49"/>
-      <c r="H879" s="50"/>
-      <c r="K879" s="48"/>
+      <c r="G879" s="54"/>
+      <c r="H879" s="55"/>
+      <c r="K879" s="53"/>
     </row>
     <row r="880">
-      <c r="G880" s="49"/>
-      <c r="H880" s="50"/>
-      <c r="K880" s="48"/>
+      <c r="G880" s="54"/>
+      <c r="H880" s="55"/>
+      <c r="K880" s="53"/>
     </row>
     <row r="881">
-      <c r="G881" s="49"/>
-      <c r="H881" s="50"/>
-      <c r="K881" s="48"/>
+      <c r="G881" s="54"/>
+      <c r="H881" s="55"/>
+      <c r="K881" s="53"/>
     </row>
     <row r="882">
-      <c r="G882" s="49"/>
-      <c r="H882" s="50"/>
-      <c r="K882" s="48"/>
+      <c r="G882" s="54"/>
+      <c r="H882" s="55"/>
+      <c r="K882" s="53"/>
     </row>
     <row r="883">
-      <c r="G883" s="49"/>
-      <c r="H883" s="50"/>
-      <c r="K883" s="48"/>
+      <c r="G883" s="54"/>
+      <c r="H883" s="55"/>
+      <c r="K883" s="53"/>
     </row>
     <row r="884">
-      <c r="G884" s="49"/>
-      <c r="H884" s="50"/>
-      <c r="K884" s="48"/>
+      <c r="G884" s="54"/>
+      <c r="H884" s="55"/>
+      <c r="K884" s="53"/>
     </row>
     <row r="885">
-      <c r="G885" s="49"/>
-      <c r="H885" s="50"/>
-      <c r="K885" s="48"/>
+      <c r="G885" s="54"/>
+      <c r="H885" s="55"/>
+      <c r="K885" s="53"/>
     </row>
     <row r="886">
-      <c r="G886" s="49"/>
-      <c r="H886" s="50"/>
-      <c r="K886" s="48"/>
+      <c r="G886" s="54"/>
+      <c r="H886" s="55"/>
+      <c r="K886" s="53"/>
     </row>
     <row r="887">
-      <c r="G887" s="49"/>
-      <c r="H887" s="50"/>
-      <c r="K887" s="48"/>
+      <c r="G887" s="54"/>
+      <c r="H887" s="55"/>
+      <c r="K887" s="53"/>
     </row>
     <row r="888">
-      <c r="G888" s="49"/>
-      <c r="H888" s="50"/>
-      <c r="K888" s="48"/>
+      <c r="G888" s="54"/>
+      <c r="H888" s="55"/>
+      <c r="K888" s="53"/>
     </row>
     <row r="889">
-      <c r="G889" s="49"/>
-      <c r="H889" s="50"/>
-      <c r="K889" s="48"/>
+      <c r="G889" s="54"/>
+      <c r="H889" s="55"/>
+      <c r="K889" s="53"/>
     </row>
     <row r="890">
-      <c r="G890" s="49"/>
-      <c r="H890" s="50"/>
-      <c r="K890" s="48"/>
+      <c r="G890" s="54"/>
+      <c r="H890" s="55"/>
+      <c r="K890" s="53"/>
     </row>
     <row r="891">
-      <c r="G891" s="49"/>
-      <c r="H891" s="50"/>
-      <c r="K891" s="48"/>
+      <c r="G891" s="54"/>
+      <c r="H891" s="55"/>
+      <c r="K891" s="53"/>
     </row>
     <row r="892">
-      <c r="G892" s="49"/>
-      <c r="H892" s="50"/>
-      <c r="K892" s="48"/>
+      <c r="G892" s="54"/>
+      <c r="H892" s="55"/>
+      <c r="K892" s="53"/>
     </row>
     <row r="893">
-      <c r="G893" s="49"/>
-      <c r="H893" s="50"/>
-      <c r="K893" s="48"/>
+      <c r="G893" s="54"/>
+      <c r="H893" s="55"/>
+      <c r="K893" s="53"/>
     </row>
     <row r="894">
-      <c r="G894" s="49"/>
-      <c r="H894" s="50"/>
-      <c r="K894" s="48"/>
+      <c r="G894" s="54"/>
+      <c r="H894" s="55"/>
+      <c r="K894" s="53"/>
     </row>
     <row r="895">
-      <c r="G895" s="49"/>
-      <c r="H895" s="50"/>
-      <c r="K895" s="48"/>
+      <c r="G895" s="54"/>
+      <c r="H895" s="55"/>
+      <c r="K895" s="53"/>
     </row>
     <row r="896">
-      <c r="G896" s="49"/>
-      <c r="H896" s="50"/>
-      <c r="K896" s="48"/>
+      <c r="G896" s="54"/>
+      <c r="H896" s="55"/>
+      <c r="K896" s="53"/>
     </row>
     <row r="897">
-      <c r="G897" s="49"/>
-      <c r="H897" s="50"/>
-      <c r="K897" s="48"/>
+      <c r="G897" s="54"/>
+      <c r="H897" s="55"/>
+      <c r="K897" s="53"/>
     </row>
     <row r="898">
-      <c r="G898" s="49"/>
-      <c r="H898" s="50"/>
-      <c r="K898" s="48"/>
+      <c r="G898" s="54"/>
+      <c r="H898" s="55"/>
+      <c r="K898" s="53"/>
     </row>
     <row r="899">
-      <c r="G899" s="49"/>
-      <c r="H899" s="50"/>
-      <c r="K899" s="48"/>
+      <c r="G899" s="54"/>
+      <c r="H899" s="55"/>
+      <c r="K899" s="53"/>
     </row>
     <row r="900">
-      <c r="G900" s="49"/>
-      <c r="H900" s="50"/>
-      <c r="K900" s="48"/>
+      <c r="G900" s="54"/>
+      <c r="H900" s="55"/>
+      <c r="K900" s="53"/>
     </row>
     <row r="901">
-      <c r="G901" s="49"/>
-      <c r="H901" s="50"/>
-      <c r="K901" s="48"/>
+      <c r="G901" s="54"/>
+      <c r="H901" s="55"/>
+      <c r="K901" s="53"/>
     </row>
     <row r="902">
-      <c r="G902" s="49"/>
-      <c r="H902" s="50"/>
-      <c r="K902" s="48"/>
+      <c r="G902" s="54"/>
+      <c r="H902" s="55"/>
+      <c r="K902" s="53"/>
     </row>
     <row r="903">
-      <c r="G903" s="49"/>
-      <c r="H903" s="50"/>
-      <c r="K903" s="48"/>
+      <c r="G903" s="54"/>
+      <c r="H903" s="55"/>
+      <c r="K903" s="53"/>
     </row>
     <row r="904">
-      <c r="G904" s="49"/>
-      <c r="H904" s="50"/>
-      <c r="K904" s="48"/>
+      <c r="G904" s="54"/>
+      <c r="H904" s="55"/>
+      <c r="K904" s="53"/>
     </row>
     <row r="905">
-      <c r="G905" s="49"/>
-      <c r="H905" s="50"/>
-      <c r="K905" s="48"/>
+      <c r="G905" s="54"/>
+      <c r="H905" s="55"/>
+      <c r="K905" s="53"/>
     </row>
     <row r="906">
-      <c r="G906" s="49"/>
-      <c r="H906" s="50"/>
-      <c r="K906" s="48"/>
+      <c r="G906" s="54"/>
+      <c r="H906" s="55"/>
+      <c r="K906" s="53"/>
     </row>
     <row r="907">
-      <c r="G907" s="49"/>
-      <c r="H907" s="50"/>
-      <c r="K907" s="48"/>
+      <c r="G907" s="54"/>
+      <c r="H907" s="55"/>
+      <c r="K907" s="53"/>
     </row>
     <row r="908">
-      <c r="G908" s="49"/>
-      <c r="H908" s="50"/>
-      <c r="K908" s="48"/>
+      <c r="G908" s="54"/>
+      <c r="H908" s="55"/>
+      <c r="K908" s="53"/>
     </row>
     <row r="909">
-      <c r="G909" s="49"/>
-      <c r="H909" s="50"/>
-      <c r="K909" s="48"/>
+      <c r="G909" s="54"/>
+      <c r="H909" s="55"/>
+      <c r="K909" s="53"/>
     </row>
     <row r="910">
-      <c r="G910" s="49"/>
-      <c r="H910" s="50"/>
-      <c r="K910" s="48"/>
+      <c r="G910" s="54"/>
+      <c r="H910" s="55"/>
+      <c r="K910" s="53"/>
     </row>
     <row r="911">
-      <c r="G911" s="49"/>
-      <c r="H911" s="50"/>
-      <c r="K911" s="48"/>
+      <c r="G911" s="54"/>
+      <c r="H911" s="55"/>
+      <c r="K911" s="53"/>
     </row>
     <row r="912">
-      <c r="G912" s="49"/>
-      <c r="H912" s="50"/>
-      <c r="K912" s="48"/>
+      <c r="G912" s="54"/>
+      <c r="H912" s="55"/>
+      <c r="K912" s="53"/>
     </row>
     <row r="913">
-      <c r="G913" s="49"/>
-      <c r="H913" s="50"/>
-      <c r="K913" s="48"/>
+      <c r="G913" s="54"/>
+      <c r="H913" s="55"/>
+      <c r="K913" s="53"/>
     </row>
     <row r="914">
-      <c r="G914" s="49"/>
-      <c r="H914" s="50"/>
-      <c r="K914" s="48"/>
+      <c r="G914" s="54"/>
+      <c r="H914" s="55"/>
+      <c r="K914" s="53"/>
     </row>
     <row r="915">
-      <c r="G915" s="49"/>
-      <c r="H915" s="50"/>
-      <c r="K915" s="48"/>
+      <c r="G915" s="54"/>
+      <c r="H915" s="55"/>
+      <c r="K915" s="53"/>
     </row>
     <row r="916">
-      <c r="G916" s="49"/>
-      <c r="H916" s="50"/>
-      <c r="K916" s="48"/>
+      <c r="G916" s="54"/>
+      <c r="H916" s="55"/>
+      <c r="K916" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -9867,29 +9873,28 @@
     <hyperlink r:id="rId31" ref="J54"/>
     <hyperlink r:id="rId32" ref="J56"/>
     <hyperlink r:id="rId33" ref="J57"/>
-    <hyperlink r:id="rId34" ref="J58"/>
-    <hyperlink r:id="rId35" location="rec628198360" ref="J59"/>
-    <hyperlink r:id="rId36" location="contact" ref="J60"/>
-    <hyperlink r:id="rId37" ref="J61"/>
-    <hyperlink r:id="rId38" ref="J62"/>
-    <hyperlink r:id="rId39" ref="J64"/>
-    <hyperlink r:id="rId40" ref="J67"/>
-    <hyperlink r:id="rId41" ref="J68"/>
-    <hyperlink r:id="rId42" ref="J69"/>
-    <hyperlink r:id="rId43" ref="J70"/>
-    <hyperlink r:id="rId44" ref="J71"/>
-    <hyperlink r:id="rId45" ref="J72"/>
-    <hyperlink r:id="rId46" ref="J73"/>
-    <hyperlink r:id="rId47" ref="J74"/>
-    <hyperlink r:id="rId48" ref="J75"/>
-    <hyperlink r:id="rId49" ref="J76"/>
-    <hyperlink r:id="rId50" ref="J77"/>
-    <hyperlink r:id="rId51" ref="L77"/>
-    <hyperlink r:id="rId52" ref="J78"/>
-    <hyperlink r:id="rId53" ref="J79"/>
-    <hyperlink r:id="rId54" ref="J80"/>
+    <hyperlink r:id="rId34" location="rec628198360" ref="J59"/>
+    <hyperlink r:id="rId35" location="contact" ref="J60"/>
+    <hyperlink r:id="rId36" ref="J61"/>
+    <hyperlink r:id="rId37" ref="J62"/>
+    <hyperlink r:id="rId38" ref="J64"/>
+    <hyperlink r:id="rId39" ref="J67"/>
+    <hyperlink r:id="rId40" ref="J68"/>
+    <hyperlink r:id="rId41" ref="J69"/>
+    <hyperlink r:id="rId42" ref="J70"/>
+    <hyperlink r:id="rId43" ref="J71"/>
+    <hyperlink r:id="rId44" ref="J72"/>
+    <hyperlink r:id="rId45" ref="J73"/>
+    <hyperlink r:id="rId46" ref="J74"/>
+    <hyperlink r:id="rId47" ref="J75"/>
+    <hyperlink r:id="rId48" ref="J76"/>
+    <hyperlink r:id="rId49" ref="J77"/>
+    <hyperlink r:id="rId50" ref="L77"/>
+    <hyperlink r:id="rId51" ref="J78"/>
+    <hyperlink r:id="rId52" ref="J79"/>
+    <hyperlink r:id="rId53" ref="J80"/>
   </hyperlinks>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -9955,41 +9960,41 @@
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="K2" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>323</v>
+      <c r="K2" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>322</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10033,49 +10038,49 @@
       <c r="M3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="59" t="s">
-        <v>332</v>
+      <c r="P3" s="64" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="G4" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="H4" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="K4" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="M4" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="P4" s="65" t="s">
         <v>344</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5">
@@ -13085,29 +13090,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="68" t="s">
         <v>346</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2">
@@ -13132,8 +13137,8 @@
       <c r="G2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>348</v>
+      <c r="H2" s="69" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3">
@@ -13158,7 +13163,7 @@
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="70" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13184,8 +13189,8 @@
       <c r="G4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="66" t="s">
-        <v>349</v>
+      <c r="H4" s="71" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -13296,16 +13301,16 @@
       <c r="A9" s="8">
         <v>57.0</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -13315,23 +13320,23 @@
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="37">
         <v>141.0</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="E10" s="45" t="s">
+      <c r="B10" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>220</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -13341,7 +13346,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -644,7 +644,7 @@
     <t>https://www.syrovarnya.com/anapa</t>
   </si>
   <si>
-    <t>Меденцев Григорий Сергеевич</t>
+    <t>Анушкечич Дмитрий Сергеевич</t>
   </si>
   <si>
     <t>Есть доставка от 1500, есть самовывоз</t>
@@ -3177,7 +3177,7 @@
       <c r="J22" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="17" t="s">
         <v>112</v>
       </c>
       <c r="L22" s="10" t="s">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="O22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="23">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="348">
   <si>
     <t>Партнер</t>
   </si>
@@ -913,9 +913,6 @@
   </si>
   <si>
     <t>г. Москва, Никольская ул., 12 (отель «St. Regis Москва Никольская», 1-й эт.)</t>
-  </si>
-  <si>
-    <t>Янина Полина Олеговна</t>
   </si>
   <si>
     <t>Pro Хинкали Бауманская</t>
@@ -4040,18 +4037,18 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="31" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>173</v>
       </c>
       <c r="N43" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Янина Полина Олеговна")</f>
-        <v>Нужна замена Янина Полина Олеговна</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A43,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
+        <v>Репилов Иван Викторович</v>
       </c>
       <c r="O43" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="44">
@@ -4062,10 +4059,10 @@
         <v>106</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>16</v>
@@ -4079,7 +4076,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>27</v>
@@ -4102,10 +4099,10 @@
         <v>106</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>197</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>16</v>
@@ -4123,7 +4120,7 @@
         <v>184</v>
       </c>
       <c r="L45" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N45" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A45,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
@@ -4142,10 +4139,10 @@
         <v>106</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>16</v>
@@ -4159,7 +4156,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K46" s="34" t="s">
         <v>157</v>
@@ -4182,13 +4179,13 @@
         <v>106</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="E47" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>204</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>24</v>
@@ -4201,10 +4198,10 @@
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="L47" s="10"/>
       <c r="N47" s="14" t="str">
@@ -4224,13 +4221,13 @@
         <v>106</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="E48" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>209</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>24</v>
@@ -4243,10 +4240,10 @@
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K48" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>211</v>
       </c>
       <c r="L48" s="10"/>
       <c r="N48" s="14" t="str">
@@ -4266,13 +4263,13 @@
         <v>106</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="E49" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>24</v>
@@ -4285,10 +4282,10 @@
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L49" s="10"/>
       <c r="N49" s="14" t="str">
@@ -4308,10 +4305,10 @@
         <v>106</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>36</v>
@@ -4324,7 +4321,7 @@
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
@@ -4348,13 +4345,13 @@
         <v>106</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="E51" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>220</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>24</v>
@@ -4366,10 +4363,10 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="L51" s="36" t="s">
         <v>221</v>
-      </c>
-      <c r="L51" s="36" t="s">
-        <v>222</v>
       </c>
       <c r="N51" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A51,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -4388,13 +4385,13 @@
         <v>106</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="E52" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>24</v>
@@ -4406,10 +4403,10 @@
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L52" s="32" t="s">
         <v>226</v>
-      </c>
-      <c r="L52" s="32" t="s">
-        <v>227</v>
       </c>
       <c r="N52" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A52,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Салокина Наталья Андреевна")</f>
@@ -4428,13 +4425,13 @@
         <v>106</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>229</v>
-      </c>
       <c r="E53" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>24</v>
@@ -4446,7 +4443,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>154</v>
@@ -4468,13 +4465,13 @@
         <v>106</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="E54" s="38" t="s">
         <v>231</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>232</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>24</v>
@@ -4487,10 +4484,10 @@
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="14" t="str">
@@ -4510,13 +4507,13 @@
         <v>106</v>
       </c>
       <c r="C55" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>236</v>
-      </c>
       <c r="E55" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>24</v>
@@ -4528,7 +4525,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="11"/>
       <c r="K55" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="14" t="str">
@@ -4545,13 +4542,13 @@
         <v>46.0</v>
       </c>
       <c r="B56" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="D56" s="39" t="s">
         <v>238</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>239</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>16</v>
@@ -4567,7 +4564,7 @@
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>93</v>
@@ -4587,13 +4584,13 @@
         <v>70.0</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="39" t="s">
         <v>241</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>242</v>
       </c>
       <c r="E57" s="39" t="s">
         <v>16</v>
@@ -4609,7 +4606,7 @@
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>97</v>
@@ -4629,13 +4626,13 @@
         <v>78.0</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>244</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>245</v>
       </c>
       <c r="E58" s="41" t="s">
         <v>16</v>
@@ -4653,7 +4650,7 @@
         <v>102</v>
       </c>
       <c r="L58" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N58" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич - ресторан закрыт, они переезжают ")</f>
@@ -4669,13 +4666,13 @@
         <v>87.0</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C59" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>248</v>
       </c>
       <c r="E59" s="39" t="s">
         <v>16</v>
@@ -4691,13 +4688,13 @@
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N59" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A59,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -4713,13 +4710,13 @@
         <v>105.0</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="39" t="s">
         <v>251</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>252</v>
       </c>
       <c r="E60" s="39" t="s">
         <v>16</v>
@@ -4733,13 +4730,13 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>184</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N60" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A60,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Поддубная Светлана Мадхатовна")</f>
@@ -4755,13 +4752,13 @@
         <v>136.0</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C61" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="39" t="s">
         <v>255</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>256</v>
       </c>
       <c r="E61" s="39" t="s">
         <v>16</v>
@@ -4777,10 +4774,10 @@
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="K61" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="L61" s="10"/>
       <c r="N61" s="14" t="str">
@@ -4797,13 +4794,13 @@
         <v>137.0</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="39" t="s">
         <v>259</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>260</v>
       </c>
       <c r="E62" s="39" t="s">
         <v>16</v>
@@ -4819,7 +4816,7 @@
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>163</v>
@@ -4839,13 +4836,13 @@
         <v>135.0</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="39" t="s">
         <v>262</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>263</v>
       </c>
       <c r="E63" s="39" t="s">
         <v>36</v>
@@ -4877,13 +4874,13 @@
         <v>27.0</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="39" t="s">
         <v>264</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>265</v>
       </c>
       <c r="E64" s="39" t="s">
         <v>16</v>
@@ -4897,7 +4894,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>27</v>
@@ -4917,13 +4914,13 @@
         <v>74.0</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E65" s="39" t="s">
         <v>16</v>
@@ -4938,7 +4935,7 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L65" s="32" t="s">
         <v>173</v>
@@ -4957,13 +4954,13 @@
         <v>52.0</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" s="39" t="s">
         <v>268</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>269</v>
       </c>
       <c r="E66" s="39" t="s">
         <v>16</v>
@@ -4981,7 +4978,7 @@
         <v>153</v>
       </c>
       <c r="L66" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N66" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A66,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Орепина Анастасия Алексеевна")</f>
@@ -4997,13 +4994,13 @@
         <v>38.0</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="46" t="s">
         <v>271</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>272</v>
       </c>
       <c r="E67" s="46" t="s">
         <v>16</v>
@@ -5017,7 +5014,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>102</v>
@@ -5037,16 +5034,16 @@
         <v>5.0</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C68" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="E68" s="46" t="s">
         <v>275</v>
-      </c>
-      <c r="E68" s="46" t="s">
-        <v>276</v>
       </c>
       <c r="F68" s="19" t="s">
         <v>24</v>
@@ -5059,13 +5056,13 @@
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="K68" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="K68" s="47" t="s">
+      <c r="L68" s="45" t="s">
         <v>278</v>
-      </c>
-      <c r="L68" s="45" t="s">
-        <v>279</v>
       </c>
       <c r="N68" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A68,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Фаткуллина Дина Ирековна")</f>
@@ -5081,16 +5078,16 @@
         <v>139.0</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C69" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="D69" s="39" t="s">
-        <v>281</v>
-      </c>
       <c r="E69" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>24</v>
@@ -5101,10 +5098,10 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L69" s="10"/>
       <c r="N69" s="14" t="str">
@@ -5121,13 +5118,13 @@
         <v>20.0</v>
       </c>
       <c r="B70" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="D70" s="48" t="s">
         <v>284</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>285</v>
       </c>
       <c r="E70" s="48" t="s">
         <v>16</v>
@@ -5143,13 +5140,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>102</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N70" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A70,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
@@ -5165,13 +5162,13 @@
         <v>28.0</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C71" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="48" t="s">
         <v>288</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>289</v>
       </c>
       <c r="E71" s="48" t="s">
         <v>16</v>
@@ -5186,16 +5183,16 @@
         <v>25</v>
       </c>
       <c r="I71" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>291</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N71" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A71,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Калинина Ольга Игоревна")</f>
@@ -5211,13 +5208,13 @@
         <v>29.0</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C72" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="48" t="s">
         <v>293</v>
-      </c>
-      <c r="D72" s="48" t="s">
-        <v>294</v>
       </c>
       <c r="E72" s="48" t="s">
         <v>16</v>
@@ -5232,16 +5229,16 @@
         <v>25</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N72" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A72,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Репилов Иван Викторович")</f>
@@ -5257,13 +5254,13 @@
         <v>57.0</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C73" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="48" t="s">
         <v>297</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>298</v>
       </c>
       <c r="E73" s="48" t="s">
         <v>16</v>
@@ -5281,13 +5278,13 @@
         <v>30</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>20</v>
       </c>
       <c r="L73" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N73" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A73,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Солнышкина Татьяна Александровна")</f>
@@ -5303,13 +5300,13 @@
         <v>76.0</v>
       </c>
       <c r="B74" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C74" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="D74" s="48" t="s">
         <v>301</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>302</v>
       </c>
       <c r="E74" s="48" t="s">
         <v>16</v>
@@ -5324,16 +5321,16 @@
         <v>25</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J74" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="K74" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="L74" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="L74" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="N74" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A74,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Михайлова Анна Витальевна")</f>
@@ -5349,16 +5346,16 @@
         <v>82.0</v>
       </c>
       <c r="B75" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C75" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="D75" s="48" t="s">
+      <c r="E75" s="48" t="s">
         <v>307</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>308</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>24</v>
@@ -5371,10 +5368,10 @@
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="K75" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>310</v>
       </c>
       <c r="L75" s="10"/>
       <c r="N75" s="14" t="str">
@@ -5391,16 +5388,16 @@
         <v>99.0</v>
       </c>
       <c r="B76" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C76" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D76" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="48" t="s">
         <v>311</v>
-      </c>
-      <c r="E76" s="48" t="s">
-        <v>312</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>24</v>
@@ -5412,16 +5409,16 @@
         <v>110</v>
       </c>
       <c r="I76" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="J76" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="J76" s="28" t="s">
+      <c r="K76" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L76" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L76" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="N76" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A76,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5437,16 +5434,16 @@
         <v>141.0</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>17</v>
@@ -5459,13 +5456,13 @@
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L77" s="51" t="s">
         <v>317</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L77" s="51" t="s">
-        <v>318</v>
       </c>
       <c r="N77" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A77,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5481,16 +5478,16 @@
         <v>119.0</v>
       </c>
       <c r="B78" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="48" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>24</v>
@@ -5503,13 +5500,13 @@
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L78" s="19" t="s">
         <v>320</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L78" s="19" t="s">
-        <v>321</v>
       </c>
       <c r="N78" s="14" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A78,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Лесных Алина Артемовна")</f>
@@ -5525,13 +5522,13 @@
         <v>158.0</v>
       </c>
       <c r="B79" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="D79" s="52" t="s">
         <v>323</v>
-      </c>
-      <c r="D79" s="52" t="s">
-        <v>324</v>
       </c>
       <c r="E79" s="52" t="s">
         <v>16</v>
@@ -5545,7 +5542,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>27</v>
@@ -5565,13 +5562,13 @@
         <v>159.0</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C80" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="D80" s="52" t="s">
         <v>326</v>
-      </c>
-      <c r="D80" s="52" t="s">
-        <v>327</v>
       </c>
       <c r="E80" s="52" t="s">
         <v>16</v>
@@ -5587,10 +5584,10 @@
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L80" s="10"/>
       <c r="N80" s="14" t="str">
@@ -5607,13 +5604,13 @@
         <v>144.0</v>
       </c>
       <c r="B81" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C81" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="D81" s="52" t="s">
         <v>329</v>
-      </c>
-      <c r="D81" s="52" t="s">
-        <v>330</v>
       </c>
       <c r="E81" s="52" t="s">
         <v>36</v>
@@ -9985,16 +9982,16 @@
         <v>106</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L2" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -10039,48 +10036,48 @@
         <v>24</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="G4" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="H4" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="K4" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="M4" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="P4" s="65" t="s">
         <v>343</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -13091,7 +13088,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="66" t="s">
         <v>0</v>
@@ -13112,7 +13109,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
@@ -13138,7 +13135,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
@@ -13190,7 +13187,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -13302,13 +13299,13 @@
         <v>57.0</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>297</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>298</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>16</v>
@@ -13320,7 +13317,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
@@ -13328,16 +13325,16 @@
         <v>141.0</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>17</v>
@@ -13346,7 +13343,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -747,7 +747,7 @@
     <t>https://krsk.maroon.rest/#popup:infoblock</t>
   </si>
   <si>
-    <t>Бойцов Иван Сергеевич</t>
+    <t>Бошс Сандра Дайнисовна</t>
   </si>
   <si>
     <t>Сыроварня Махачкала</t>
@@ -1767,7 +1767,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1856,7 +1856,9 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1888,6 +1890,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -3435,12 +3438,12 @@
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Нужна замена Бойцов Иван Сергеевич")</f>
-        <v>Нужна замена Бойцов Иван Сергеевич</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A28,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Бошс Сандра Дайнисовна")</f>
+        <v>Бошс Сандра Дайнисовна</v>
       </c>
       <c r="O28" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="29">
@@ -4637,28 +4640,28 @@
       <c r="E58" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="30" t="s">
+      <c r="G58" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="42"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="43" t="s">
+      <c r="H58" s="43"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="L58" s="44" t="s">
+      <c r="L58" s="45" t="s">
         <v>245</v>
       </c>
       <c r="N58" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич - ресторан закрыт, они переезжают ")</f>
-        <v>Левитан Дмитрий Анатольевич - ресторан закрыт, они переезжают </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFERROR(VLOOKUP(A58,IMPORTRANGE(""1JKYrYOBZQfsQ_9v3OK3daUockrnOgmzXdn8TvfuM9qs"",""Выборка!$A$2:$K$192""),11,0),"""")"),"Левитан Дмитрий Анатольевич")</f>
+        <v>Левитан Дмитрий Анатольевич</v>
       </c>
       <c r="O58" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>нет</v>
+        <v>да</v>
       </c>
     </row>
     <row r="59">
@@ -4977,7 +4980,7 @@
       <c r="K66" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="L66" s="45" t="s">
+      <c r="L66" s="46" t="s">
         <v>269</v>
       </c>
       <c r="N66" s="14" t="str">
@@ -4993,16 +4996,16 @@
       <c r="A67" s="37">
         <v>38.0</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="19" t="s">
@@ -5033,16 +5036,16 @@
       <c r="A68" s="37">
         <v>5.0</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D68" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="47" t="s">
         <v>275</v>
       </c>
       <c r="F68" s="19" t="s">
@@ -5058,10 +5061,10 @@
       <c r="J68" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K68" s="47" t="s">
+      <c r="K68" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="L68" s="45" t="s">
+      <c r="L68" s="46" t="s">
         <v>278</v>
       </c>
       <c r="N68" s="14" t="str">
@@ -5117,16 +5120,16 @@
       <c r="A70" s="8">
         <v>20.0</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -5161,16 +5164,16 @@
       <c r="A71" s="8">
         <v>28.0</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="D71" s="48" t="s">
+      <c r="D71" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -5207,16 +5210,16 @@
       <c r="A72" s="8">
         <v>29.0</v>
       </c>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C72" s="48" t="s">
+      <c r="C72" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D72" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -5253,16 +5256,16 @@
       <c r="A73" s="8">
         <v>57.0</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="D73" s="48" t="s">
+      <c r="D73" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -5274,7 +5277,7 @@
       <c r="H73" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="49" t="s">
+      <c r="I73" s="50" t="s">
         <v>30</v>
       </c>
       <c r="J73" s="16" t="s">
@@ -5299,16 +5302,16 @@
       <c r="A74" s="8">
         <v>76.0</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C74" s="48" t="s">
+      <c r="C74" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="D74" s="48" t="s">
+      <c r="D74" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="E74" s="48" t="s">
+      <c r="E74" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -5345,16 +5348,16 @@
       <c r="A75" s="8">
         <v>82.0</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="D75" s="48" t="s">
+      <c r="D75" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="49" t="s">
         <v>307</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -5387,16 +5390,16 @@
       <c r="A76" s="8">
         <v>99.0</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="49" t="s">
         <v>311</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -5433,16 +5436,16 @@
       <c r="A77" s="37">
         <v>141.0</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="E77" s="50" t="s">
+      <c r="E77" s="51" t="s">
         <v>219</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -5461,7 +5464,7 @@
       <c r="K77" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L77" s="51" t="s">
+      <c r="L77" s="52" t="s">
         <v>317</v>
       </c>
       <c r="N77" s="14" t="str">
@@ -5477,16 +5480,16 @@
       <c r="A78" s="8">
         <v>119.0</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="D78" s="48" t="s">
+      <c r="D78" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="49" t="s">
         <v>311</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -5521,16 +5524,16 @@
       <c r="A79" s="8">
         <v>158.0</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="E79" s="52" t="s">
+      <c r="E79" s="53" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -5561,16 +5564,16 @@
       <c r="A80" s="8">
         <v>159.0</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="D80" s="52" t="s">
+      <c r="D80" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="E80" s="52" t="s">
+      <c r="E80" s="53" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -5603,16 +5606,16 @@
       <c r="A81" s="8">
         <v>144.0</v>
       </c>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="D81" s="52" t="s">
+      <c r="D81" s="53" t="s">
         <v>329</v>
       </c>
-      <c r="E81" s="52" t="s">
+      <c r="E81" s="53" t="s">
         <v>36</v>
       </c>
       <c r="F81" s="10" t="s">
@@ -5638,4184 +5641,4184 @@
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="53"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="55"/>
-      <c r="K82" s="53"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="56"/>
+      <c r="K82" s="54"/>
     </row>
     <row r="83">
-      <c r="F83" s="53"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="55"/>
-      <c r="K83" s="53"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="56"/>
+      <c r="K83" s="54"/>
     </row>
     <row r="84">
-      <c r="F84" s="53"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="55"/>
-      <c r="K84" s="53"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="56"/>
+      <c r="K84" s="54"/>
     </row>
     <row r="85">
-      <c r="F85" s="53"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="55"/>
-      <c r="K85" s="53"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="56"/>
+      <c r="K85" s="54"/>
     </row>
     <row r="86">
-      <c r="F86" s="53"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="55"/>
-      <c r="K86" s="53"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="56"/>
+      <c r="K86" s="54"/>
     </row>
     <row r="87">
-      <c r="G87" s="54"/>
-      <c r="H87" s="55"/>
-      <c r="K87" s="53"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="56"/>
+      <c r="K87" s="54"/>
     </row>
     <row r="88">
-      <c r="G88" s="54"/>
-      <c r="H88" s="55"/>
-      <c r="K88" s="53"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="56"/>
+      <c r="K88" s="54"/>
     </row>
     <row r="89">
-      <c r="G89" s="54"/>
-      <c r="H89" s="55"/>
-      <c r="K89" s="53"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="56"/>
+      <c r="K89" s="54"/>
     </row>
     <row r="90">
-      <c r="G90" s="54"/>
-      <c r="H90" s="55"/>
-      <c r="K90" s="53"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="56"/>
+      <c r="K90" s="54"/>
     </row>
     <row r="91">
-      <c r="G91" s="54"/>
-      <c r="H91" s="55"/>
-      <c r="K91" s="53"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="56"/>
+      <c r="K91" s="54"/>
     </row>
     <row r="92">
-      <c r="G92" s="54"/>
-      <c r="H92" s="55"/>
-      <c r="K92" s="53"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="56"/>
+      <c r="K92" s="54"/>
     </row>
     <row r="93">
-      <c r="G93" s="54"/>
-      <c r="H93" s="55"/>
-      <c r="K93" s="53"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="56"/>
+      <c r="K93" s="54"/>
     </row>
     <row r="94">
-      <c r="G94" s="54"/>
-      <c r="H94" s="55"/>
-      <c r="K94" s="53"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="56"/>
+      <c r="K94" s="54"/>
     </row>
     <row r="95">
-      <c r="G95" s="54"/>
-      <c r="H95" s="55"/>
-      <c r="K95" s="53"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="56"/>
+      <c r="K95" s="54"/>
     </row>
     <row r="96">
-      <c r="G96" s="54"/>
-      <c r="H96" s="55"/>
-      <c r="K96" s="53"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="56"/>
+      <c r="K96" s="54"/>
     </row>
     <row r="97">
-      <c r="G97" s="54"/>
-      <c r="H97" s="55"/>
-      <c r="K97" s="53"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="56"/>
+      <c r="K97" s="54"/>
     </row>
     <row r="98">
-      <c r="G98" s="54"/>
-      <c r="H98" s="55"/>
-      <c r="K98" s="53"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="56"/>
+      <c r="K98" s="54"/>
     </row>
     <row r="99">
-      <c r="G99" s="54"/>
-      <c r="H99" s="55"/>
-      <c r="K99" s="53"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="56"/>
+      <c r="K99" s="54"/>
     </row>
     <row r="100">
-      <c r="G100" s="54"/>
-      <c r="H100" s="55"/>
-      <c r="K100" s="53"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="56"/>
+      <c r="K100" s="54"/>
     </row>
     <row r="101">
-      <c r="G101" s="54"/>
-      <c r="H101" s="55"/>
-      <c r="K101" s="53"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="56"/>
+      <c r="K101" s="54"/>
     </row>
     <row r="102">
-      <c r="G102" s="54"/>
-      <c r="H102" s="55"/>
-      <c r="K102" s="53"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
+      <c r="K102" s="54"/>
     </row>
     <row r="103">
-      <c r="G103" s="54"/>
-      <c r="H103" s="55"/>
-      <c r="K103" s="53"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="56"/>
+      <c r="K103" s="54"/>
     </row>
     <row r="104">
-      <c r="G104" s="54"/>
-      <c r="H104" s="55"/>
-      <c r="K104" s="53"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="K104" s="54"/>
     </row>
     <row r="105">
-      <c r="G105" s="54"/>
-      <c r="H105" s="55"/>
-      <c r="K105" s="53"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="56"/>
+      <c r="K105" s="54"/>
     </row>
     <row r="106">
-      <c r="G106" s="54"/>
-      <c r="H106" s="55"/>
-      <c r="K106" s="53"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
+      <c r="K106" s="54"/>
     </row>
     <row r="107">
-      <c r="G107" s="54"/>
-      <c r="H107" s="55"/>
-      <c r="K107" s="53"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="56"/>
+      <c r="K107" s="54"/>
     </row>
     <row r="108">
-      <c r="G108" s="54"/>
-      <c r="H108" s="55"/>
-      <c r="K108" s="53"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
+      <c r="K108" s="54"/>
     </row>
     <row r="109">
-      <c r="G109" s="54"/>
-      <c r="H109" s="55"/>
-      <c r="K109" s="53"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="56"/>
+      <c r="K109" s="54"/>
     </row>
     <row r="110">
-      <c r="G110" s="54"/>
-      <c r="H110" s="55"/>
-      <c r="K110" s="53"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
+      <c r="K110" s="54"/>
     </row>
     <row r="111">
-      <c r="G111" s="54"/>
-      <c r="H111" s="55"/>
-      <c r="K111" s="53"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="56"/>
+      <c r="K111" s="54"/>
     </row>
     <row r="112">
-      <c r="G112" s="54"/>
-      <c r="H112" s="55"/>
-      <c r="K112" s="53"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="56"/>
+      <c r="K112" s="54"/>
     </row>
     <row r="113">
-      <c r="G113" s="54"/>
-      <c r="H113" s="55"/>
-      <c r="K113" s="53"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="56"/>
+      <c r="K113" s="54"/>
     </row>
     <row r="114">
-      <c r="G114" s="54"/>
-      <c r="H114" s="55"/>
-      <c r="K114" s="53"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="56"/>
+      <c r="K114" s="54"/>
     </row>
     <row r="115">
-      <c r="G115" s="54"/>
-      <c r="H115" s="55"/>
-      <c r="K115" s="53"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="56"/>
+      <c r="K115" s="54"/>
     </row>
     <row r="116">
-      <c r="G116" s="54"/>
-      <c r="H116" s="55"/>
-      <c r="K116" s="53"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="56"/>
+      <c r="K116" s="54"/>
     </row>
     <row r="117">
-      <c r="G117" s="54"/>
-      <c r="H117" s="55"/>
-      <c r="K117" s="53"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="56"/>
+      <c r="K117" s="54"/>
     </row>
     <row r="118">
-      <c r="G118" s="54"/>
-      <c r="H118" s="55"/>
-      <c r="K118" s="53"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="56"/>
+      <c r="K118" s="54"/>
     </row>
     <row r="119">
-      <c r="G119" s="54"/>
-      <c r="H119" s="55"/>
-      <c r="K119" s="53"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="56"/>
+      <c r="K119" s="54"/>
     </row>
     <row r="120">
-      <c r="G120" s="54"/>
-      <c r="H120" s="55"/>
-      <c r="K120" s="53"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="56"/>
+      <c r="K120" s="54"/>
     </row>
     <row r="121">
-      <c r="G121" s="54"/>
-      <c r="H121" s="55"/>
-      <c r="K121" s="53"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="56"/>
+      <c r="K121" s="54"/>
     </row>
     <row r="122">
-      <c r="G122" s="54"/>
-      <c r="H122" s="55"/>
-      <c r="K122" s="53"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="56"/>
+      <c r="K122" s="54"/>
     </row>
     <row r="123">
-      <c r="G123" s="54"/>
-      <c r="H123" s="55"/>
-      <c r="K123" s="53"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="56"/>
+      <c r="K123" s="54"/>
     </row>
     <row r="124">
-      <c r="G124" s="54"/>
-      <c r="H124" s="55"/>
-      <c r="K124" s="53"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="56"/>
+      <c r="K124" s="54"/>
     </row>
     <row r="125">
-      <c r="G125" s="54"/>
-      <c r="H125" s="55"/>
-      <c r="K125" s="53"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="56"/>
+      <c r="K125" s="54"/>
     </row>
     <row r="126">
-      <c r="G126" s="54"/>
-      <c r="H126" s="55"/>
-      <c r="K126" s="53"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="56"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127">
-      <c r="G127" s="54"/>
-      <c r="H127" s="55"/>
-      <c r="K127" s="53"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="56"/>
+      <c r="K127" s="54"/>
     </row>
     <row r="128">
-      <c r="G128" s="54"/>
-      <c r="H128" s="55"/>
-      <c r="K128" s="53"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="56"/>
+      <c r="K128" s="54"/>
     </row>
     <row r="129">
-      <c r="G129" s="54"/>
-      <c r="H129" s="55"/>
-      <c r="K129" s="53"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="56"/>
+      <c r="K129" s="54"/>
     </row>
     <row r="130">
-      <c r="G130" s="54"/>
-      <c r="H130" s="55"/>
-      <c r="K130" s="53"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="56"/>
+      <c r="K130" s="54"/>
     </row>
     <row r="131">
-      <c r="G131" s="54"/>
-      <c r="H131" s="55"/>
-      <c r="K131" s="53"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="56"/>
+      <c r="K131" s="54"/>
     </row>
     <row r="132">
-      <c r="G132" s="54"/>
-      <c r="H132" s="55"/>
-      <c r="K132" s="53"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="56"/>
+      <c r="K132" s="54"/>
     </row>
     <row r="133">
-      <c r="G133" s="54"/>
-      <c r="H133" s="55"/>
-      <c r="K133" s="53"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="56"/>
+      <c r="K133" s="54"/>
     </row>
     <row r="134">
-      <c r="G134" s="54"/>
-      <c r="H134" s="55"/>
-      <c r="K134" s="53"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="56"/>
+      <c r="K134" s="54"/>
     </row>
     <row r="135">
-      <c r="G135" s="54"/>
-      <c r="H135" s="55"/>
-      <c r="K135" s="53"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="56"/>
+      <c r="K135" s="54"/>
     </row>
     <row r="136">
-      <c r="G136" s="54"/>
-      <c r="H136" s="55"/>
-      <c r="K136" s="53"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="56"/>
+      <c r="K136" s="54"/>
     </row>
     <row r="137">
-      <c r="G137" s="54"/>
-      <c r="H137" s="55"/>
-      <c r="K137" s="53"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="56"/>
+      <c r="K137" s="54"/>
     </row>
     <row r="138">
-      <c r="G138" s="54"/>
-      <c r="H138" s="55"/>
-      <c r="K138" s="53"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="56"/>
+      <c r="K138" s="54"/>
     </row>
     <row r="139">
-      <c r="G139" s="54"/>
-      <c r="H139" s="55"/>
-      <c r="K139" s="53"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="56"/>
+      <c r="K139" s="54"/>
     </row>
     <row r="140">
-      <c r="G140" s="54"/>
-      <c r="H140" s="55"/>
-      <c r="K140" s="53"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="56"/>
+      <c r="K140" s="54"/>
     </row>
     <row r="141">
-      <c r="G141" s="54"/>
-      <c r="H141" s="55"/>
-      <c r="K141" s="53"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="56"/>
+      <c r="K141" s="54"/>
     </row>
     <row r="142">
-      <c r="G142" s="54"/>
-      <c r="H142" s="55"/>
-      <c r="K142" s="53"/>
+      <c r="G142" s="55"/>
+      <c r="H142" s="56"/>
+      <c r="K142" s="54"/>
     </row>
     <row r="143">
-      <c r="G143" s="54"/>
-      <c r="H143" s="55"/>
-      <c r="K143" s="53"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="56"/>
+      <c r="K143" s="54"/>
     </row>
     <row r="144">
-      <c r="G144" s="54"/>
-      <c r="H144" s="55"/>
-      <c r="K144" s="53"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="56"/>
+      <c r="K144" s="54"/>
     </row>
     <row r="145">
-      <c r="G145" s="54"/>
-      <c r="H145" s="55"/>
-      <c r="K145" s="53"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="56"/>
+      <c r="K145" s="54"/>
     </row>
     <row r="146">
-      <c r="G146" s="54"/>
-      <c r="H146" s="55"/>
-      <c r="K146" s="53"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="56"/>
+      <c r="K146" s="54"/>
     </row>
     <row r="147">
-      <c r="G147" s="54"/>
-      <c r="H147" s="55"/>
-      <c r="K147" s="53"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="56"/>
+      <c r="K147" s="54"/>
     </row>
     <row r="148">
-      <c r="G148" s="54"/>
-      <c r="H148" s="55"/>
-      <c r="K148" s="53"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="56"/>
+      <c r="K148" s="54"/>
     </row>
     <row r="149">
-      <c r="G149" s="54"/>
-      <c r="H149" s="55"/>
-      <c r="K149" s="53"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="56"/>
+      <c r="K149" s="54"/>
     </row>
     <row r="150">
-      <c r="G150" s="54"/>
-      <c r="H150" s="55"/>
-      <c r="K150" s="53"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="56"/>
+      <c r="K150" s="54"/>
     </row>
     <row r="151">
-      <c r="G151" s="54"/>
-      <c r="H151" s="55"/>
-      <c r="K151" s="53"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="56"/>
+      <c r="K151" s="54"/>
     </row>
     <row r="152">
-      <c r="G152" s="54"/>
-      <c r="H152" s="55"/>
-      <c r="K152" s="53"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="56"/>
+      <c r="K152" s="54"/>
     </row>
     <row r="153">
-      <c r="G153" s="54"/>
-      <c r="H153" s="55"/>
-      <c r="K153" s="53"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="56"/>
+      <c r="K153" s="54"/>
     </row>
     <row r="154">
-      <c r="G154" s="54"/>
-      <c r="H154" s="55"/>
-      <c r="K154" s="53"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="56"/>
+      <c r="K154" s="54"/>
     </row>
     <row r="155">
-      <c r="G155" s="54"/>
-      <c r="H155" s="55"/>
-      <c r="K155" s="53"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="56"/>
+      <c r="K155" s="54"/>
     </row>
     <row r="156">
-      <c r="G156" s="54"/>
-      <c r="H156" s="55"/>
-      <c r="K156" s="53"/>
+      <c r="G156" s="55"/>
+      <c r="H156" s="56"/>
+      <c r="K156" s="54"/>
     </row>
     <row r="157">
-      <c r="G157" s="54"/>
-      <c r="H157" s="55"/>
-      <c r="K157" s="53"/>
+      <c r="G157" s="55"/>
+      <c r="H157" s="56"/>
+      <c r="K157" s="54"/>
     </row>
     <row r="158">
-      <c r="G158" s="54"/>
-      <c r="H158" s="55"/>
-      <c r="K158" s="53"/>
+      <c r="G158" s="55"/>
+      <c r="H158" s="56"/>
+      <c r="K158" s="54"/>
     </row>
     <row r="159">
-      <c r="G159" s="54"/>
-      <c r="H159" s="55"/>
-      <c r="K159" s="53"/>
+      <c r="G159" s="55"/>
+      <c r="H159" s="56"/>
+      <c r="K159" s="54"/>
     </row>
     <row r="160">
-      <c r="G160" s="54"/>
-      <c r="H160" s="55"/>
-      <c r="K160" s="53"/>
+      <c r="G160" s="55"/>
+      <c r="H160" s="56"/>
+      <c r="K160" s="54"/>
     </row>
     <row r="161">
-      <c r="G161" s="54"/>
-      <c r="H161" s="55"/>
-      <c r="K161" s="53"/>
+      <c r="G161" s="55"/>
+      <c r="H161" s="56"/>
+      <c r="K161" s="54"/>
     </row>
     <row r="162">
-      <c r="G162" s="54"/>
-      <c r="H162" s="55"/>
-      <c r="K162" s="53"/>
+      <c r="G162" s="55"/>
+      <c r="H162" s="56"/>
+      <c r="K162" s="54"/>
     </row>
     <row r="163">
-      <c r="G163" s="54"/>
-      <c r="H163" s="55"/>
-      <c r="K163" s="53"/>
+      <c r="G163" s="55"/>
+      <c r="H163" s="56"/>
+      <c r="K163" s="54"/>
     </row>
     <row r="164">
-      <c r="G164" s="54"/>
-      <c r="H164" s="55"/>
-      <c r="K164" s="53"/>
+      <c r="G164" s="55"/>
+      <c r="H164" s="56"/>
+      <c r="K164" s="54"/>
     </row>
     <row r="165">
-      <c r="G165" s="54"/>
-      <c r="H165" s="55"/>
-      <c r="K165" s="53"/>
+      <c r="G165" s="55"/>
+      <c r="H165" s="56"/>
+      <c r="K165" s="54"/>
     </row>
     <row r="166">
-      <c r="G166" s="54"/>
-      <c r="H166" s="55"/>
-      <c r="K166" s="53"/>
+      <c r="G166" s="55"/>
+      <c r="H166" s="56"/>
+      <c r="K166" s="54"/>
     </row>
     <row r="167">
-      <c r="G167" s="54"/>
-      <c r="H167" s="55"/>
-      <c r="K167" s="53"/>
+      <c r="G167" s="55"/>
+      <c r="H167" s="56"/>
+      <c r="K167" s="54"/>
     </row>
     <row r="168">
-      <c r="G168" s="54"/>
-      <c r="H168" s="55"/>
-      <c r="K168" s="53"/>
+      <c r="G168" s="55"/>
+      <c r="H168" s="56"/>
+      <c r="K168" s="54"/>
     </row>
     <row r="169">
-      <c r="G169" s="54"/>
-      <c r="H169" s="55"/>
-      <c r="K169" s="53"/>
+      <c r="G169" s="55"/>
+      <c r="H169" s="56"/>
+      <c r="K169" s="54"/>
     </row>
     <row r="170">
-      <c r="G170" s="54"/>
-      <c r="H170" s="55"/>
-      <c r="K170" s="53"/>
+      <c r="G170" s="55"/>
+      <c r="H170" s="56"/>
+      <c r="K170" s="54"/>
     </row>
     <row r="171">
-      <c r="G171" s="54"/>
-      <c r="H171" s="55"/>
-      <c r="K171" s="53"/>
+      <c r="G171" s="55"/>
+      <c r="H171" s="56"/>
+      <c r="K171" s="54"/>
     </row>
     <row r="172">
-      <c r="G172" s="54"/>
-      <c r="H172" s="55"/>
-      <c r="K172" s="53"/>
+      <c r="G172" s="55"/>
+      <c r="H172" s="56"/>
+      <c r="K172" s="54"/>
     </row>
     <row r="173">
-      <c r="G173" s="54"/>
-      <c r="H173" s="55"/>
-      <c r="K173" s="53"/>
+      <c r="G173" s="55"/>
+      <c r="H173" s="56"/>
+      <c r="K173" s="54"/>
     </row>
     <row r="174">
-      <c r="G174" s="54"/>
-      <c r="H174" s="55"/>
-      <c r="K174" s="53"/>
+      <c r="G174" s="55"/>
+      <c r="H174" s="56"/>
+      <c r="K174" s="54"/>
     </row>
     <row r="175">
-      <c r="G175" s="54"/>
-      <c r="H175" s="55"/>
-      <c r="K175" s="53"/>
+      <c r="G175" s="55"/>
+      <c r="H175" s="56"/>
+      <c r="K175" s="54"/>
     </row>
     <row r="176">
-      <c r="G176" s="54"/>
-      <c r="H176" s="55"/>
-      <c r="K176" s="53"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="56"/>
+      <c r="K176" s="54"/>
     </row>
     <row r="177">
-      <c r="G177" s="54"/>
-      <c r="H177" s="55"/>
-      <c r="K177" s="53"/>
+      <c r="G177" s="55"/>
+      <c r="H177" s="56"/>
+      <c r="K177" s="54"/>
     </row>
     <row r="178">
-      <c r="G178" s="54"/>
-      <c r="H178" s="55"/>
-      <c r="K178" s="53"/>
+      <c r="G178" s="55"/>
+      <c r="H178" s="56"/>
+      <c r="K178" s="54"/>
     </row>
     <row r="179">
-      <c r="G179" s="54"/>
-      <c r="H179" s="55"/>
-      <c r="K179" s="53"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="56"/>
+      <c r="K179" s="54"/>
     </row>
     <row r="180">
-      <c r="G180" s="54"/>
-      <c r="H180" s="55"/>
-      <c r="K180" s="53"/>
+      <c r="G180" s="55"/>
+      <c r="H180" s="56"/>
+      <c r="K180" s="54"/>
     </row>
     <row r="181">
-      <c r="G181" s="54"/>
-      <c r="H181" s="55"/>
-      <c r="K181" s="53"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="56"/>
+      <c r="K181" s="54"/>
     </row>
     <row r="182">
-      <c r="G182" s="54"/>
-      <c r="H182" s="55"/>
-      <c r="K182" s="53"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="56"/>
+      <c r="K182" s="54"/>
     </row>
     <row r="183">
-      <c r="G183" s="54"/>
-      <c r="H183" s="55"/>
-      <c r="K183" s="53"/>
+      <c r="G183" s="55"/>
+      <c r="H183" s="56"/>
+      <c r="K183" s="54"/>
     </row>
     <row r="184">
-      <c r="G184" s="54"/>
-      <c r="H184" s="55"/>
-      <c r="K184" s="53"/>
+      <c r="G184" s="55"/>
+      <c r="H184" s="56"/>
+      <c r="K184" s="54"/>
     </row>
     <row r="185">
-      <c r="G185" s="54"/>
-      <c r="H185" s="55"/>
-      <c r="K185" s="53"/>
+      <c r="G185" s="55"/>
+      <c r="H185" s="56"/>
+      <c r="K185" s="54"/>
     </row>
     <row r="186">
-      <c r="G186" s="54"/>
-      <c r="H186" s="55"/>
-      <c r="K186" s="53"/>
+      <c r="G186" s="55"/>
+      <c r="H186" s="56"/>
+      <c r="K186" s="54"/>
     </row>
     <row r="187">
-      <c r="G187" s="54"/>
-      <c r="H187" s="55"/>
-      <c r="K187" s="53"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="56"/>
+      <c r="K187" s="54"/>
     </row>
     <row r="188">
-      <c r="G188" s="54"/>
-      <c r="H188" s="55"/>
-      <c r="K188" s="53"/>
+      <c r="G188" s="55"/>
+      <c r="H188" s="56"/>
+      <c r="K188" s="54"/>
     </row>
     <row r="189">
-      <c r="G189" s="54"/>
-      <c r="H189" s="55"/>
-      <c r="K189" s="53"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="56"/>
+      <c r="K189" s="54"/>
     </row>
     <row r="190">
-      <c r="G190" s="54"/>
-      <c r="H190" s="55"/>
-      <c r="K190" s="53"/>
+      <c r="G190" s="55"/>
+      <c r="H190" s="56"/>
+      <c r="K190" s="54"/>
     </row>
     <row r="191">
-      <c r="G191" s="54"/>
-      <c r="H191" s="55"/>
-      <c r="K191" s="53"/>
+      <c r="G191" s="55"/>
+      <c r="H191" s="56"/>
+      <c r="K191" s="54"/>
     </row>
     <row r="192">
-      <c r="G192" s="54"/>
-      <c r="H192" s="55"/>
-      <c r="K192" s="53"/>
+      <c r="G192" s="55"/>
+      <c r="H192" s="56"/>
+      <c r="K192" s="54"/>
     </row>
     <row r="193">
-      <c r="G193" s="54"/>
-      <c r="H193" s="55"/>
-      <c r="K193" s="53"/>
+      <c r="G193" s="55"/>
+      <c r="H193" s="56"/>
+      <c r="K193" s="54"/>
     </row>
     <row r="194">
-      <c r="G194" s="54"/>
-      <c r="H194" s="55"/>
-      <c r="K194" s="53"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="56"/>
+      <c r="K194" s="54"/>
     </row>
     <row r="195">
-      <c r="G195" s="54"/>
-      <c r="H195" s="55"/>
-      <c r="K195" s="53"/>
+      <c r="G195" s="55"/>
+      <c r="H195" s="56"/>
+      <c r="K195" s="54"/>
     </row>
     <row r="196">
-      <c r="G196" s="54"/>
-      <c r="H196" s="55"/>
-      <c r="K196" s="53"/>
+      <c r="G196" s="55"/>
+      <c r="H196" s="56"/>
+      <c r="K196" s="54"/>
     </row>
     <row r="197">
-      <c r="G197" s="54"/>
-      <c r="H197" s="55"/>
-      <c r="K197" s="53"/>
+      <c r="G197" s="55"/>
+      <c r="H197" s="56"/>
+      <c r="K197" s="54"/>
     </row>
     <row r="198">
-      <c r="G198" s="54"/>
-      <c r="H198" s="55"/>
-      <c r="K198" s="53"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="56"/>
+      <c r="K198" s="54"/>
     </row>
     <row r="199">
-      <c r="G199" s="54"/>
-      <c r="H199" s="55"/>
-      <c r="K199" s="53"/>
+      <c r="G199" s="55"/>
+      <c r="H199" s="56"/>
+      <c r="K199" s="54"/>
     </row>
     <row r="200">
-      <c r="G200" s="54"/>
-      <c r="H200" s="55"/>
-      <c r="K200" s="53"/>
+      <c r="G200" s="55"/>
+      <c r="H200" s="56"/>
+      <c r="K200" s="54"/>
     </row>
     <row r="201">
-      <c r="G201" s="54"/>
-      <c r="H201" s="55"/>
-      <c r="K201" s="53"/>
+      <c r="G201" s="55"/>
+      <c r="H201" s="56"/>
+      <c r="K201" s="54"/>
     </row>
     <row r="202">
-      <c r="G202" s="54"/>
-      <c r="H202" s="55"/>
-      <c r="K202" s="53"/>
+      <c r="G202" s="55"/>
+      <c r="H202" s="56"/>
+      <c r="K202" s="54"/>
     </row>
     <row r="203">
-      <c r="G203" s="54"/>
-      <c r="H203" s="55"/>
-      <c r="K203" s="53"/>
+      <c r="G203" s="55"/>
+      <c r="H203" s="56"/>
+      <c r="K203" s="54"/>
     </row>
     <row r="204">
-      <c r="G204" s="54"/>
-      <c r="H204" s="55"/>
-      <c r="K204" s="53"/>
+      <c r="G204" s="55"/>
+      <c r="H204" s="56"/>
+      <c r="K204" s="54"/>
     </row>
     <row r="205">
-      <c r="G205" s="54"/>
-      <c r="H205" s="55"/>
-      <c r="K205" s="53"/>
+      <c r="G205" s="55"/>
+      <c r="H205" s="56"/>
+      <c r="K205" s="54"/>
     </row>
     <row r="206">
-      <c r="G206" s="54"/>
-      <c r="H206" s="55"/>
-      <c r="K206" s="53"/>
+      <c r="G206" s="55"/>
+      <c r="H206" s="56"/>
+      <c r="K206" s="54"/>
     </row>
     <row r="207">
-      <c r="G207" s="54"/>
-      <c r="H207" s="55"/>
-      <c r="K207" s="53"/>
+      <c r="G207" s="55"/>
+      <c r="H207" s="56"/>
+      <c r="K207" s="54"/>
     </row>
     <row r="208">
-      <c r="G208" s="54"/>
-      <c r="H208" s="55"/>
-      <c r="K208" s="53"/>
+      <c r="G208" s="55"/>
+      <c r="H208" s="56"/>
+      <c r="K208" s="54"/>
     </row>
     <row r="209">
-      <c r="G209" s="54"/>
-      <c r="H209" s="55"/>
-      <c r="K209" s="53"/>
+      <c r="G209" s="55"/>
+      <c r="H209" s="56"/>
+      <c r="K209" s="54"/>
     </row>
     <row r="210">
-      <c r="G210" s="54"/>
-      <c r="H210" s="55"/>
-      <c r="K210" s="53"/>
+      <c r="G210" s="55"/>
+      <c r="H210" s="56"/>
+      <c r="K210" s="54"/>
     </row>
     <row r="211">
-      <c r="G211" s="54"/>
-      <c r="H211" s="55"/>
-      <c r="K211" s="53"/>
+      <c r="G211" s="55"/>
+      <c r="H211" s="56"/>
+      <c r="K211" s="54"/>
     </row>
     <row r="212">
-      <c r="G212" s="54"/>
-      <c r="H212" s="55"/>
-      <c r="K212" s="53"/>
+      <c r="G212" s="55"/>
+      <c r="H212" s="56"/>
+      <c r="K212" s="54"/>
     </row>
     <row r="213">
-      <c r="G213" s="54"/>
-      <c r="H213" s="55"/>
-      <c r="K213" s="53"/>
+      <c r="G213" s="55"/>
+      <c r="H213" s="56"/>
+      <c r="K213" s="54"/>
     </row>
     <row r="214">
-      <c r="G214" s="54"/>
-      <c r="H214" s="55"/>
-      <c r="K214" s="53"/>
+      <c r="G214" s="55"/>
+      <c r="H214" s="56"/>
+      <c r="K214" s="54"/>
     </row>
     <row r="215">
-      <c r="G215" s="54"/>
-      <c r="H215" s="55"/>
-      <c r="K215" s="53"/>
+      <c r="G215" s="55"/>
+      <c r="H215" s="56"/>
+      <c r="K215" s="54"/>
     </row>
     <row r="216">
-      <c r="G216" s="54"/>
-      <c r="H216" s="55"/>
-      <c r="K216" s="53"/>
+      <c r="G216" s="55"/>
+      <c r="H216" s="56"/>
+      <c r="K216" s="54"/>
     </row>
     <row r="217">
-      <c r="G217" s="54"/>
-      <c r="H217" s="55"/>
-      <c r="K217" s="53"/>
+      <c r="G217" s="55"/>
+      <c r="H217" s="56"/>
+      <c r="K217" s="54"/>
     </row>
     <row r="218">
-      <c r="G218" s="54"/>
-      <c r="H218" s="55"/>
-      <c r="K218" s="53"/>
+      <c r="G218" s="55"/>
+      <c r="H218" s="56"/>
+      <c r="K218" s="54"/>
     </row>
     <row r="219">
-      <c r="G219" s="54"/>
-      <c r="H219" s="55"/>
-      <c r="K219" s="53"/>
+      <c r="G219" s="55"/>
+      <c r="H219" s="56"/>
+      <c r="K219" s="54"/>
     </row>
     <row r="220">
-      <c r="G220" s="54"/>
-      <c r="H220" s="55"/>
-      <c r="K220" s="53"/>
+      <c r="G220" s="55"/>
+      <c r="H220" s="56"/>
+      <c r="K220" s="54"/>
     </row>
     <row r="221">
-      <c r="G221" s="54"/>
-      <c r="H221" s="55"/>
-      <c r="K221" s="53"/>
+      <c r="G221" s="55"/>
+      <c r="H221" s="56"/>
+      <c r="K221" s="54"/>
     </row>
     <row r="222">
-      <c r="G222" s="54"/>
-      <c r="H222" s="55"/>
-      <c r="K222" s="53"/>
+      <c r="G222" s="55"/>
+      <c r="H222" s="56"/>
+      <c r="K222" s="54"/>
     </row>
     <row r="223">
-      <c r="G223" s="54"/>
-      <c r="H223" s="55"/>
-      <c r="K223" s="53"/>
+      <c r="G223" s="55"/>
+      <c r="H223" s="56"/>
+      <c r="K223" s="54"/>
     </row>
     <row r="224">
-      <c r="G224" s="54"/>
-      <c r="H224" s="55"/>
-      <c r="K224" s="53"/>
+      <c r="G224" s="55"/>
+      <c r="H224" s="56"/>
+      <c r="K224" s="54"/>
     </row>
     <row r="225">
-      <c r="G225" s="54"/>
-      <c r="H225" s="55"/>
-      <c r="K225" s="53"/>
+      <c r="G225" s="55"/>
+      <c r="H225" s="56"/>
+      <c r="K225" s="54"/>
     </row>
     <row r="226">
-      <c r="G226" s="54"/>
-      <c r="H226" s="55"/>
-      <c r="K226" s="53"/>
+      <c r="G226" s="55"/>
+      <c r="H226" s="56"/>
+      <c r="K226" s="54"/>
     </row>
     <row r="227">
-      <c r="G227" s="54"/>
-      <c r="H227" s="55"/>
-      <c r="K227" s="53"/>
+      <c r="G227" s="55"/>
+      <c r="H227" s="56"/>
+      <c r="K227" s="54"/>
     </row>
     <row r="228">
-      <c r="G228" s="54"/>
-      <c r="H228" s="55"/>
-      <c r="K228" s="53"/>
+      <c r="G228" s="55"/>
+      <c r="H228" s="56"/>
+      <c r="K228" s="54"/>
     </row>
     <row r="229">
-      <c r="G229" s="54"/>
-      <c r="H229" s="55"/>
-      <c r="K229" s="53"/>
+      <c r="G229" s="55"/>
+      <c r="H229" s="56"/>
+      <c r="K229" s="54"/>
     </row>
     <row r="230">
-      <c r="G230" s="54"/>
-      <c r="H230" s="55"/>
-      <c r="K230" s="53"/>
+      <c r="G230" s="55"/>
+      <c r="H230" s="56"/>
+      <c r="K230" s="54"/>
     </row>
     <row r="231">
-      <c r="G231" s="54"/>
-      <c r="H231" s="55"/>
-      <c r="K231" s="53"/>
+      <c r="G231" s="55"/>
+      <c r="H231" s="56"/>
+      <c r="K231" s="54"/>
     </row>
     <row r="232">
-      <c r="G232" s="54"/>
-      <c r="H232" s="55"/>
-      <c r="K232" s="53"/>
+      <c r="G232" s="55"/>
+      <c r="H232" s="56"/>
+      <c r="K232" s="54"/>
     </row>
     <row r="233">
-      <c r="G233" s="54"/>
-      <c r="H233" s="55"/>
-      <c r="K233" s="53"/>
+      <c r="G233" s="55"/>
+      <c r="H233" s="56"/>
+      <c r="K233" s="54"/>
     </row>
     <row r="234">
-      <c r="G234" s="54"/>
-      <c r="H234" s="55"/>
-      <c r="K234" s="53"/>
+      <c r="G234" s="55"/>
+      <c r="H234" s="56"/>
+      <c r="K234" s="54"/>
     </row>
     <row r="235">
-      <c r="G235" s="54"/>
-      <c r="H235" s="55"/>
-      <c r="K235" s="53"/>
+      <c r="G235" s="55"/>
+      <c r="H235" s="56"/>
+      <c r="K235" s="54"/>
     </row>
     <row r="236">
-      <c r="G236" s="54"/>
-      <c r="H236" s="55"/>
-      <c r="K236" s="53"/>
+      <c r="G236" s="55"/>
+      <c r="H236" s="56"/>
+      <c r="K236" s="54"/>
     </row>
     <row r="237">
-      <c r="G237" s="54"/>
-      <c r="H237" s="55"/>
-      <c r="K237" s="53"/>
+      <c r="G237" s="55"/>
+      <c r="H237" s="56"/>
+      <c r="K237" s="54"/>
     </row>
     <row r="238">
-      <c r="G238" s="54"/>
-      <c r="H238" s="55"/>
-      <c r="K238" s="53"/>
+      <c r="G238" s="55"/>
+      <c r="H238" s="56"/>
+      <c r="K238" s="54"/>
     </row>
     <row r="239">
-      <c r="G239" s="54"/>
-      <c r="H239" s="55"/>
-      <c r="K239" s="53"/>
+      <c r="G239" s="55"/>
+      <c r="H239" s="56"/>
+      <c r="K239" s="54"/>
     </row>
     <row r="240">
-      <c r="G240" s="54"/>
-      <c r="H240" s="55"/>
-      <c r="K240" s="53"/>
+      <c r="G240" s="55"/>
+      <c r="H240" s="56"/>
+      <c r="K240" s="54"/>
     </row>
     <row r="241">
-      <c r="G241" s="54"/>
-      <c r="H241" s="55"/>
-      <c r="K241" s="53"/>
+      <c r="G241" s="55"/>
+      <c r="H241" s="56"/>
+      <c r="K241" s="54"/>
     </row>
     <row r="242">
-      <c r="G242" s="54"/>
-      <c r="H242" s="55"/>
-      <c r="K242" s="53"/>
+      <c r="G242" s="55"/>
+      <c r="H242" s="56"/>
+      <c r="K242" s="54"/>
     </row>
     <row r="243">
-      <c r="G243" s="54"/>
-      <c r="H243" s="55"/>
-      <c r="K243" s="53"/>
+      <c r="G243" s="55"/>
+      <c r="H243" s="56"/>
+      <c r="K243" s="54"/>
     </row>
     <row r="244">
-      <c r="G244" s="54"/>
-      <c r="H244" s="55"/>
-      <c r="K244" s="53"/>
+      <c r="G244" s="55"/>
+      <c r="H244" s="56"/>
+      <c r="K244" s="54"/>
     </row>
     <row r="245">
-      <c r="G245" s="54"/>
-      <c r="H245" s="55"/>
-      <c r="K245" s="53"/>
+      <c r="G245" s="55"/>
+      <c r="H245" s="56"/>
+      <c r="K245" s="54"/>
     </row>
     <row r="246">
-      <c r="G246" s="54"/>
-      <c r="H246" s="55"/>
-      <c r="K246" s="53"/>
+      <c r="G246" s="55"/>
+      <c r="H246" s="56"/>
+      <c r="K246" s="54"/>
     </row>
     <row r="247">
-      <c r="G247" s="54"/>
-      <c r="H247" s="55"/>
-      <c r="K247" s="53"/>
+      <c r="G247" s="55"/>
+      <c r="H247" s="56"/>
+      <c r="K247" s="54"/>
     </row>
     <row r="248">
-      <c r="G248" s="54"/>
-      <c r="H248" s="55"/>
-      <c r="K248" s="53"/>
+      <c r="G248" s="55"/>
+      <c r="H248" s="56"/>
+      <c r="K248" s="54"/>
     </row>
     <row r="249">
-      <c r="G249" s="54"/>
-      <c r="H249" s="55"/>
-      <c r="K249" s="53"/>
+      <c r="G249" s="55"/>
+      <c r="H249" s="56"/>
+      <c r="K249" s="54"/>
     </row>
     <row r="250">
-      <c r="G250" s="54"/>
-      <c r="H250" s="55"/>
-      <c r="K250" s="53"/>
+      <c r="G250" s="55"/>
+      <c r="H250" s="56"/>
+      <c r="K250" s="54"/>
     </row>
     <row r="251">
-      <c r="G251" s="54"/>
-      <c r="H251" s="55"/>
-      <c r="K251" s="53"/>
+      <c r="G251" s="55"/>
+      <c r="H251" s="56"/>
+      <c r="K251" s="54"/>
     </row>
     <row r="252">
-      <c r="G252" s="54"/>
-      <c r="H252" s="55"/>
-      <c r="K252" s="53"/>
+      <c r="G252" s="55"/>
+      <c r="H252" s="56"/>
+      <c r="K252" s="54"/>
     </row>
     <row r="253">
-      <c r="G253" s="54"/>
-      <c r="H253" s="55"/>
-      <c r="K253" s="53"/>
+      <c r="G253" s="55"/>
+      <c r="H253" s="56"/>
+      <c r="K253" s="54"/>
     </row>
     <row r="254">
-      <c r="G254" s="54"/>
-      <c r="H254" s="55"/>
-      <c r="K254" s="53"/>
+      <c r="G254" s="55"/>
+      <c r="H254" s="56"/>
+      <c r="K254" s="54"/>
     </row>
     <row r="255">
-      <c r="G255" s="54"/>
-      <c r="H255" s="55"/>
-      <c r="K255" s="53"/>
+      <c r="G255" s="55"/>
+      <c r="H255" s="56"/>
+      <c r="K255" s="54"/>
     </row>
     <row r="256">
-      <c r="G256" s="54"/>
-      <c r="H256" s="55"/>
-      <c r="K256" s="53"/>
+      <c r="G256" s="55"/>
+      <c r="H256" s="56"/>
+      <c r="K256" s="54"/>
     </row>
     <row r="257">
-      <c r="G257" s="54"/>
-      <c r="H257" s="55"/>
-      <c r="K257" s="53"/>
+      <c r="G257" s="55"/>
+      <c r="H257" s="56"/>
+      <c r="K257" s="54"/>
     </row>
     <row r="258">
-      <c r="G258" s="54"/>
-      <c r="H258" s="55"/>
-      <c r="K258" s="53"/>
+      <c r="G258" s="55"/>
+      <c r="H258" s="56"/>
+      <c r="K258" s="54"/>
     </row>
     <row r="259">
-      <c r="G259" s="54"/>
-      <c r="H259" s="55"/>
-      <c r="K259" s="53"/>
+      <c r="G259" s="55"/>
+      <c r="H259" s="56"/>
+      <c r="K259" s="54"/>
     </row>
     <row r="260">
-      <c r="G260" s="54"/>
-      <c r="H260" s="55"/>
-      <c r="K260" s="53"/>
+      <c r="G260" s="55"/>
+      <c r="H260" s="56"/>
+      <c r="K260" s="54"/>
     </row>
     <row r="261">
-      <c r="G261" s="54"/>
-      <c r="H261" s="55"/>
-      <c r="K261" s="53"/>
+      <c r="G261" s="55"/>
+      <c r="H261" s="56"/>
+      <c r="K261" s="54"/>
     </row>
     <row r="262">
-      <c r="G262" s="54"/>
-      <c r="H262" s="55"/>
-      <c r="K262" s="53"/>
+      <c r="G262" s="55"/>
+      <c r="H262" s="56"/>
+      <c r="K262" s="54"/>
     </row>
     <row r="263">
-      <c r="G263" s="54"/>
-      <c r="H263" s="55"/>
-      <c r="K263" s="53"/>
+      <c r="G263" s="55"/>
+      <c r="H263" s="56"/>
+      <c r="K263" s="54"/>
     </row>
     <row r="264">
-      <c r="G264" s="54"/>
-      <c r="H264" s="55"/>
-      <c r="K264" s="53"/>
+      <c r="G264" s="55"/>
+      <c r="H264" s="56"/>
+      <c r="K264" s="54"/>
     </row>
     <row r="265">
-      <c r="G265" s="54"/>
-      <c r="H265" s="55"/>
-      <c r="K265" s="53"/>
+      <c r="G265" s="55"/>
+      <c r="H265" s="56"/>
+      <c r="K265" s="54"/>
     </row>
     <row r="266">
-      <c r="G266" s="54"/>
-      <c r="H266" s="55"/>
-      <c r="K266" s="53"/>
+      <c r="G266" s="55"/>
+      <c r="H266" s="56"/>
+      <c r="K266" s="54"/>
     </row>
     <row r="267">
-      <c r="G267" s="54"/>
-      <c r="H267" s="55"/>
-      <c r="K267" s="53"/>
+      <c r="G267" s="55"/>
+      <c r="H267" s="56"/>
+      <c r="K267" s="54"/>
     </row>
     <row r="268">
-      <c r="G268" s="54"/>
-      <c r="H268" s="55"/>
-      <c r="K268" s="53"/>
+      <c r="G268" s="55"/>
+      <c r="H268" s="56"/>
+      <c r="K268" s="54"/>
     </row>
     <row r="269">
-      <c r="G269" s="54"/>
-      <c r="H269" s="55"/>
-      <c r="K269" s="53"/>
+      <c r="G269" s="55"/>
+      <c r="H269" s="56"/>
+      <c r="K269" s="54"/>
     </row>
     <row r="270">
-      <c r="G270" s="54"/>
-      <c r="H270" s="55"/>
-      <c r="K270" s="53"/>
+      <c r="G270" s="55"/>
+      <c r="H270" s="56"/>
+      <c r="K270" s="54"/>
     </row>
     <row r="271">
-      <c r="G271" s="54"/>
-      <c r="H271" s="55"/>
-      <c r="K271" s="53"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="56"/>
+      <c r="K271" s="54"/>
     </row>
     <row r="272">
-      <c r="G272" s="54"/>
-      <c r="H272" s="55"/>
-      <c r="K272" s="53"/>
+      <c r="G272" s="55"/>
+      <c r="H272" s="56"/>
+      <c r="K272" s="54"/>
     </row>
     <row r="273">
-      <c r="G273" s="54"/>
-      <c r="H273" s="55"/>
-      <c r="K273" s="53"/>
+      <c r="G273" s="55"/>
+      <c r="H273" s="56"/>
+      <c r="K273" s="54"/>
     </row>
     <row r="274">
-      <c r="G274" s="54"/>
-      <c r="H274" s="55"/>
-      <c r="K274" s="53"/>
+      <c r="G274" s="55"/>
+      <c r="H274" s="56"/>
+      <c r="K274" s="54"/>
     </row>
     <row r="275">
-      <c r="G275" s="54"/>
-      <c r="H275" s="55"/>
-      <c r="K275" s="53"/>
+      <c r="G275" s="55"/>
+      <c r="H275" s="56"/>
+      <c r="K275" s="54"/>
     </row>
     <row r="276">
-      <c r="G276" s="54"/>
-      <c r="H276" s="55"/>
-      <c r="K276" s="53"/>
+      <c r="G276" s="55"/>
+      <c r="H276" s="56"/>
+      <c r="K276" s="54"/>
     </row>
     <row r="277">
-      <c r="G277" s="54"/>
-      <c r="H277" s="55"/>
-      <c r="K277" s="53"/>
+      <c r="G277" s="55"/>
+      <c r="H277" s="56"/>
+      <c r="K277" s="54"/>
     </row>
     <row r="278">
-      <c r="G278" s="54"/>
-      <c r="H278" s="55"/>
-      <c r="K278" s="53"/>
+      <c r="G278" s="55"/>
+      <c r="H278" s="56"/>
+      <c r="K278" s="54"/>
     </row>
     <row r="279">
-      <c r="G279" s="54"/>
-      <c r="H279" s="55"/>
-      <c r="K279" s="53"/>
+      <c r="G279" s="55"/>
+      <c r="H279" s="56"/>
+      <c r="K279" s="54"/>
     </row>
     <row r="280">
-      <c r="G280" s="54"/>
-      <c r="H280" s="55"/>
-      <c r="K280" s="53"/>
+      <c r="G280" s="55"/>
+      <c r="H280" s="56"/>
+      <c r="K280" s="54"/>
     </row>
     <row r="281">
-      <c r="G281" s="54"/>
-      <c r="H281" s="55"/>
-      <c r="K281" s="53"/>
+      <c r="G281" s="55"/>
+      <c r="H281" s="56"/>
+      <c r="K281" s="54"/>
     </row>
     <row r="282">
-      <c r="G282" s="54"/>
-      <c r="H282" s="55"/>
-      <c r="K282" s="53"/>
+      <c r="G282" s="55"/>
+      <c r="H282" s="56"/>
+      <c r="K282" s="54"/>
     </row>
     <row r="283">
-      <c r="G283" s="54"/>
-      <c r="H283" s="55"/>
-      <c r="K283" s="53"/>
+      <c r="G283" s="55"/>
+      <c r="H283" s="56"/>
+      <c r="K283" s="54"/>
     </row>
     <row r="284">
-      <c r="G284" s="54"/>
-      <c r="H284" s="55"/>
-      <c r="K284" s="53"/>
+      <c r="G284" s="55"/>
+      <c r="H284" s="56"/>
+      <c r="K284" s="54"/>
     </row>
     <row r="285">
-      <c r="G285" s="54"/>
-      <c r="H285" s="55"/>
-      <c r="K285" s="53"/>
+      <c r="G285" s="55"/>
+      <c r="H285" s="56"/>
+      <c r="K285" s="54"/>
     </row>
     <row r="286">
-      <c r="G286" s="54"/>
-      <c r="H286" s="55"/>
-      <c r="K286" s="53"/>
+      <c r="G286" s="55"/>
+      <c r="H286" s="56"/>
+      <c r="K286" s="54"/>
     </row>
     <row r="287">
-      <c r="G287" s="54"/>
-      <c r="H287" s="55"/>
-      <c r="K287" s="53"/>
+      <c r="G287" s="55"/>
+      <c r="H287" s="56"/>
+      <c r="K287" s="54"/>
     </row>
     <row r="288">
-      <c r="G288" s="54"/>
-      <c r="H288" s="55"/>
-      <c r="K288" s="53"/>
+      <c r="G288" s="55"/>
+      <c r="H288" s="56"/>
+      <c r="K288" s="54"/>
     </row>
     <row r="289">
-      <c r="G289" s="54"/>
-      <c r="H289" s="55"/>
-      <c r="K289" s="53"/>
+      <c r="G289" s="55"/>
+      <c r="H289" s="56"/>
+      <c r="K289" s="54"/>
     </row>
     <row r="290">
-      <c r="G290" s="54"/>
-      <c r="H290" s="55"/>
-      <c r="K290" s="53"/>
+      <c r="G290" s="55"/>
+      <c r="H290" s="56"/>
+      <c r="K290" s="54"/>
     </row>
     <row r="291">
-      <c r="G291" s="54"/>
-      <c r="H291" s="55"/>
-      <c r="K291" s="53"/>
+      <c r="G291" s="55"/>
+      <c r="H291" s="56"/>
+      <c r="K291" s="54"/>
     </row>
     <row r="292">
-      <c r="G292" s="54"/>
-      <c r="H292" s="55"/>
-      <c r="K292" s="53"/>
+      <c r="G292" s="55"/>
+      <c r="H292" s="56"/>
+      <c r="K292" s="54"/>
     </row>
     <row r="293">
-      <c r="G293" s="54"/>
-      <c r="H293" s="55"/>
-      <c r="K293" s="53"/>
+      <c r="G293" s="55"/>
+      <c r="H293" s="56"/>
+      <c r="K293" s="54"/>
     </row>
     <row r="294">
-      <c r="G294" s="54"/>
-      <c r="H294" s="55"/>
-      <c r="K294" s="53"/>
+      <c r="G294" s="55"/>
+      <c r="H294" s="56"/>
+      <c r="K294" s="54"/>
     </row>
     <row r="295">
-      <c r="G295" s="54"/>
-      <c r="H295" s="55"/>
-      <c r="K295" s="53"/>
+      <c r="G295" s="55"/>
+      <c r="H295" s="56"/>
+      <c r="K295" s="54"/>
     </row>
     <row r="296">
-      <c r="G296" s="54"/>
-      <c r="H296" s="55"/>
-      <c r="K296" s="53"/>
+      <c r="G296" s="55"/>
+      <c r="H296" s="56"/>
+      <c r="K296" s="54"/>
     </row>
     <row r="297">
-      <c r="G297" s="54"/>
-      <c r="H297" s="55"/>
-      <c r="K297" s="53"/>
+      <c r="G297" s="55"/>
+      <c r="H297" s="56"/>
+      <c r="K297" s="54"/>
     </row>
     <row r="298">
-      <c r="G298" s="54"/>
-      <c r="H298" s="55"/>
-      <c r="K298" s="53"/>
+      <c r="G298" s="55"/>
+      <c r="H298" s="56"/>
+      <c r="K298" s="54"/>
     </row>
     <row r="299">
-      <c r="G299" s="54"/>
-      <c r="H299" s="55"/>
-      <c r="K299" s="53"/>
+      <c r="G299" s="55"/>
+      <c r="H299" s="56"/>
+      <c r="K299" s="54"/>
     </row>
     <row r="300">
-      <c r="G300" s="54"/>
-      <c r="H300" s="55"/>
-      <c r="K300" s="53"/>
+      <c r="G300" s="55"/>
+      <c r="H300" s="56"/>
+      <c r="K300" s="54"/>
     </row>
     <row r="301">
-      <c r="G301" s="54"/>
-      <c r="H301" s="55"/>
-      <c r="K301" s="53"/>
+      <c r="G301" s="55"/>
+      <c r="H301" s="56"/>
+      <c r="K301" s="54"/>
     </row>
     <row r="302">
-      <c r="G302" s="54"/>
-      <c r="H302" s="55"/>
-      <c r="K302" s="53"/>
+      <c r="G302" s="55"/>
+      <c r="H302" s="56"/>
+      <c r="K302" s="54"/>
     </row>
     <row r="303">
-      <c r="G303" s="54"/>
-      <c r="H303" s="55"/>
-      <c r="K303" s="53"/>
+      <c r="G303" s="55"/>
+      <c r="H303" s="56"/>
+      <c r="K303" s="54"/>
     </row>
     <row r="304">
-      <c r="G304" s="54"/>
-      <c r="H304" s="55"/>
-      <c r="K304" s="53"/>
+      <c r="G304" s="55"/>
+      <c r="H304" s="56"/>
+      <c r="K304" s="54"/>
     </row>
     <row r="305">
-      <c r="G305" s="54"/>
-      <c r="H305" s="55"/>
-      <c r="K305" s="53"/>
+      <c r="G305" s="55"/>
+      <c r="H305" s="56"/>
+      <c r="K305" s="54"/>
     </row>
     <row r="306">
-      <c r="G306" s="54"/>
-      <c r="H306" s="55"/>
-      <c r="K306" s="53"/>
+      <c r="G306" s="55"/>
+      <c r="H306" s="56"/>
+      <c r="K306" s="54"/>
     </row>
     <row r="307">
-      <c r="G307" s="54"/>
-      <c r="H307" s="55"/>
-      <c r="K307" s="53"/>
+      <c r="G307" s="55"/>
+      <c r="H307" s="56"/>
+      <c r="K307" s="54"/>
     </row>
     <row r="308">
-      <c r="G308" s="54"/>
-      <c r="H308" s="55"/>
-      <c r="K308" s="53"/>
+      <c r="G308" s="55"/>
+      <c r="H308" s="56"/>
+      <c r="K308" s="54"/>
     </row>
     <row r="309">
-      <c r="G309" s="54"/>
-      <c r="H309" s="55"/>
-      <c r="K309" s="53"/>
+      <c r="G309" s="55"/>
+      <c r="H309" s="56"/>
+      <c r="K309" s="54"/>
     </row>
     <row r="310">
-      <c r="G310" s="54"/>
-      <c r="H310" s="55"/>
-      <c r="K310" s="53"/>
+      <c r="G310" s="55"/>
+      <c r="H310" s="56"/>
+      <c r="K310" s="54"/>
     </row>
     <row r="311">
-      <c r="G311" s="54"/>
-      <c r="H311" s="55"/>
-      <c r="K311" s="53"/>
+      <c r="G311" s="55"/>
+      <c r="H311" s="56"/>
+      <c r="K311" s="54"/>
     </row>
     <row r="312">
-      <c r="G312" s="54"/>
-      <c r="H312" s="55"/>
-      <c r="K312" s="53"/>
+      <c r="G312" s="55"/>
+      <c r="H312" s="56"/>
+      <c r="K312" s="54"/>
     </row>
     <row r="313">
-      <c r="G313" s="54"/>
-      <c r="H313" s="55"/>
-      <c r="K313" s="53"/>
+      <c r="G313" s="55"/>
+      <c r="H313" s="56"/>
+      <c r="K313" s="54"/>
     </row>
     <row r="314">
-      <c r="G314" s="54"/>
-      <c r="H314" s="55"/>
-      <c r="K314" s="53"/>
+      <c r="G314" s="55"/>
+      <c r="H314" s="56"/>
+      <c r="K314" s="54"/>
     </row>
     <row r="315">
-      <c r="G315" s="54"/>
-      <c r="H315" s="55"/>
-      <c r="K315" s="53"/>
+      <c r="G315" s="55"/>
+      <c r="H315" s="56"/>
+      <c r="K315" s="54"/>
     </row>
     <row r="316">
-      <c r="G316" s="54"/>
-      <c r="H316" s="55"/>
-      <c r="K316" s="53"/>
+      <c r="G316" s="55"/>
+      <c r="H316" s="56"/>
+      <c r="K316" s="54"/>
     </row>
     <row r="317">
-      <c r="G317" s="54"/>
-      <c r="H317" s="55"/>
-      <c r="K317" s="53"/>
+      <c r="G317" s="55"/>
+      <c r="H317" s="56"/>
+      <c r="K317" s="54"/>
     </row>
     <row r="318">
-      <c r="G318" s="54"/>
-      <c r="H318" s="55"/>
-      <c r="K318" s="53"/>
+      <c r="G318" s="55"/>
+      <c r="H318" s="56"/>
+      <c r="K318" s="54"/>
     </row>
     <row r="319">
-      <c r="G319" s="54"/>
-      <c r="H319" s="55"/>
-      <c r="K319" s="53"/>
+      <c r="G319" s="55"/>
+      <c r="H319" s="56"/>
+      <c r="K319" s="54"/>
     </row>
     <row r="320">
-      <c r="G320" s="54"/>
-      <c r="H320" s="55"/>
-      <c r="K320" s="53"/>
+      <c r="G320" s="55"/>
+      <c r="H320" s="56"/>
+      <c r="K320" s="54"/>
     </row>
     <row r="321">
-      <c r="G321" s="54"/>
-      <c r="H321" s="55"/>
-      <c r="K321" s="53"/>
+      <c r="G321" s="55"/>
+      <c r="H321" s="56"/>
+      <c r="K321" s="54"/>
     </row>
     <row r="322">
-      <c r="G322" s="54"/>
-      <c r="H322" s="55"/>
-      <c r="K322" s="53"/>
+      <c r="G322" s="55"/>
+      <c r="H322" s="56"/>
+      <c r="K322" s="54"/>
     </row>
     <row r="323">
-      <c r="G323" s="54"/>
-      <c r="H323" s="55"/>
-      <c r="K323" s="53"/>
+      <c r="G323" s="55"/>
+      <c r="H323" s="56"/>
+      <c r="K323" s="54"/>
     </row>
     <row r="324">
-      <c r="G324" s="54"/>
-      <c r="H324" s="55"/>
-      <c r="K324" s="53"/>
+      <c r="G324" s="55"/>
+      <c r="H324" s="56"/>
+      <c r="K324" s="54"/>
     </row>
     <row r="325">
-      <c r="G325" s="54"/>
-      <c r="H325" s="55"/>
-      <c r="K325" s="53"/>
+      <c r="G325" s="55"/>
+      <c r="H325" s="56"/>
+      <c r="K325" s="54"/>
     </row>
     <row r="326">
-      <c r="G326" s="54"/>
-      <c r="H326" s="55"/>
-      <c r="K326" s="53"/>
+      <c r="G326" s="55"/>
+      <c r="H326" s="56"/>
+      <c r="K326" s="54"/>
     </row>
     <row r="327">
-      <c r="G327" s="54"/>
-      <c r="H327" s="55"/>
-      <c r="K327" s="53"/>
+      <c r="G327" s="55"/>
+      <c r="H327" s="56"/>
+      <c r="K327" s="54"/>
     </row>
     <row r="328">
-      <c r="G328" s="54"/>
-      <c r="H328" s="55"/>
-      <c r="K328" s="53"/>
+      <c r="G328" s="55"/>
+      <c r="H328" s="56"/>
+      <c r="K328" s="54"/>
     </row>
     <row r="329">
-      <c r="G329" s="54"/>
-      <c r="H329" s="55"/>
-      <c r="K329" s="53"/>
+      <c r="G329" s="55"/>
+      <c r="H329" s="56"/>
+      <c r="K329" s="54"/>
     </row>
     <row r="330">
-      <c r="G330" s="54"/>
-      <c r="H330" s="55"/>
-      <c r="K330" s="53"/>
+      <c r="G330" s="55"/>
+      <c r="H330" s="56"/>
+      <c r="K330" s="54"/>
     </row>
     <row r="331">
-      <c r="G331" s="54"/>
-      <c r="H331" s="55"/>
-      <c r="K331" s="53"/>
+      <c r="G331" s="55"/>
+      <c r="H331" s="56"/>
+      <c r="K331" s="54"/>
     </row>
     <row r="332">
-      <c r="G332" s="54"/>
-      <c r="H332" s="55"/>
-      <c r="K332" s="53"/>
+      <c r="G332" s="55"/>
+      <c r="H332" s="56"/>
+      <c r="K332" s="54"/>
     </row>
     <row r="333">
-      <c r="G333" s="54"/>
-      <c r="H333" s="55"/>
-      <c r="K333" s="53"/>
+      <c r="G333" s="55"/>
+      <c r="H333" s="56"/>
+      <c r="K333" s="54"/>
     </row>
     <row r="334">
-      <c r="G334" s="54"/>
-      <c r="H334" s="55"/>
-      <c r="K334" s="53"/>
+      <c r="G334" s="55"/>
+      <c r="H334" s="56"/>
+      <c r="K334" s="54"/>
     </row>
     <row r="335">
-      <c r="G335" s="54"/>
-      <c r="H335" s="55"/>
-      <c r="K335" s="53"/>
+      <c r="G335" s="55"/>
+      <c r="H335" s="56"/>
+      <c r="K335" s="54"/>
     </row>
     <row r="336">
-      <c r="G336" s="54"/>
-      <c r="H336" s="55"/>
-      <c r="K336" s="53"/>
+      <c r="G336" s="55"/>
+      <c r="H336" s="56"/>
+      <c r="K336" s="54"/>
     </row>
     <row r="337">
-      <c r="G337" s="54"/>
-      <c r="H337" s="55"/>
-      <c r="K337" s="53"/>
+      <c r="G337" s="55"/>
+      <c r="H337" s="56"/>
+      <c r="K337" s="54"/>
     </row>
     <row r="338">
-      <c r="G338" s="54"/>
-      <c r="H338" s="55"/>
-      <c r="K338" s="53"/>
+      <c r="G338" s="55"/>
+      <c r="H338" s="56"/>
+      <c r="K338" s="54"/>
     </row>
     <row r="339">
-      <c r="G339" s="54"/>
-      <c r="H339" s="55"/>
-      <c r="K339" s="53"/>
+      <c r="G339" s="55"/>
+      <c r="H339" s="56"/>
+      <c r="K339" s="54"/>
     </row>
     <row r="340">
-      <c r="G340" s="54"/>
-      <c r="H340" s="55"/>
-      <c r="K340" s="53"/>
+      <c r="G340" s="55"/>
+      <c r="H340" s="56"/>
+      <c r="K340" s="54"/>
     </row>
     <row r="341">
-      <c r="G341" s="54"/>
-      <c r="H341" s="55"/>
-      <c r="K341" s="53"/>
+      <c r="G341" s="55"/>
+      <c r="H341" s="56"/>
+      <c r="K341" s="54"/>
     </row>
     <row r="342">
-      <c r="G342" s="54"/>
-      <c r="H342" s="55"/>
-      <c r="K342" s="53"/>
+      <c r="G342" s="55"/>
+      <c r="H342" s="56"/>
+      <c r="K342" s="54"/>
     </row>
     <row r="343">
-      <c r="G343" s="54"/>
-      <c r="H343" s="55"/>
-      <c r="K343" s="53"/>
+      <c r="G343" s="55"/>
+      <c r="H343" s="56"/>
+      <c r="K343" s="54"/>
     </row>
     <row r="344">
-      <c r="G344" s="54"/>
-      <c r="H344" s="55"/>
-      <c r="K344" s="53"/>
+      <c r="G344" s="55"/>
+      <c r="H344" s="56"/>
+      <c r="K344" s="54"/>
     </row>
     <row r="345">
-      <c r="G345" s="54"/>
-      <c r="H345" s="55"/>
-      <c r="K345" s="53"/>
+      <c r="G345" s="55"/>
+      <c r="H345" s="56"/>
+      <c r="K345" s="54"/>
     </row>
     <row r="346">
-      <c r="G346" s="54"/>
-      <c r="H346" s="55"/>
-      <c r="K346" s="53"/>
+      <c r="G346" s="55"/>
+      <c r="H346" s="56"/>
+      <c r="K346" s="54"/>
     </row>
     <row r="347">
-      <c r="G347" s="54"/>
-      <c r="H347" s="55"/>
-      <c r="K347" s="53"/>
+      <c r="G347" s="55"/>
+      <c r="H347" s="56"/>
+      <c r="K347" s="54"/>
     </row>
     <row r="348">
-      <c r="G348" s="54"/>
-      <c r="H348" s="55"/>
-      <c r="K348" s="53"/>
+      <c r="G348" s="55"/>
+      <c r="H348" s="56"/>
+      <c r="K348" s="54"/>
     </row>
     <row r="349">
-      <c r="G349" s="54"/>
-      <c r="H349" s="55"/>
-      <c r="K349" s="53"/>
+      <c r="G349" s="55"/>
+      <c r="H349" s="56"/>
+      <c r="K349" s="54"/>
     </row>
     <row r="350">
-      <c r="G350" s="54"/>
-      <c r="H350" s="55"/>
-      <c r="K350" s="53"/>
+      <c r="G350" s="55"/>
+      <c r="H350" s="56"/>
+      <c r="K350" s="54"/>
     </row>
     <row r="351">
-      <c r="G351" s="54"/>
-      <c r="H351" s="55"/>
-      <c r="K351" s="53"/>
+      <c r="G351" s="55"/>
+      <c r="H351" s="56"/>
+      <c r="K351" s="54"/>
     </row>
     <row r="352">
-      <c r="G352" s="54"/>
-      <c r="H352" s="55"/>
-      <c r="K352" s="53"/>
+      <c r="G352" s="55"/>
+      <c r="H352" s="56"/>
+      <c r="K352" s="54"/>
     </row>
     <row r="353">
-      <c r="G353" s="54"/>
-      <c r="H353" s="55"/>
-      <c r="K353" s="53"/>
+      <c r="G353" s="55"/>
+      <c r="H353" s="56"/>
+      <c r="K353" s="54"/>
     </row>
     <row r="354">
-      <c r="G354" s="54"/>
-      <c r="H354" s="55"/>
-      <c r="K354" s="53"/>
+      <c r="G354" s="55"/>
+      <c r="H354" s="56"/>
+      <c r="K354" s="54"/>
     </row>
     <row r="355">
-      <c r="G355" s="54"/>
-      <c r="H355" s="55"/>
-      <c r="K355" s="53"/>
+      <c r="G355" s="55"/>
+      <c r="H355" s="56"/>
+      <c r="K355" s="54"/>
     </row>
     <row r="356">
-      <c r="G356" s="54"/>
-      <c r="H356" s="55"/>
-      <c r="K356" s="53"/>
+      <c r="G356" s="55"/>
+      <c r="H356" s="56"/>
+      <c r="K356" s="54"/>
     </row>
     <row r="357">
-      <c r="G357" s="54"/>
-      <c r="H357" s="55"/>
-      <c r="K357" s="53"/>
+      <c r="G357" s="55"/>
+      <c r="H357" s="56"/>
+      <c r="K357" s="54"/>
     </row>
     <row r="358">
-      <c r="G358" s="54"/>
-      <c r="H358" s="55"/>
-      <c r="K358" s="53"/>
+      <c r="G358" s="55"/>
+      <c r="H358" s="56"/>
+      <c r="K358" s="54"/>
     </row>
     <row r="359">
-      <c r="G359" s="54"/>
-      <c r="H359" s="55"/>
-      <c r="K359" s="53"/>
+      <c r="G359" s="55"/>
+      <c r="H359" s="56"/>
+      <c r="K359" s="54"/>
     </row>
     <row r="360">
-      <c r="G360" s="54"/>
-      <c r="H360" s="55"/>
-      <c r="K360" s="53"/>
+      <c r="G360" s="55"/>
+      <c r="H360" s="56"/>
+      <c r="K360" s="54"/>
     </row>
     <row r="361">
-      <c r="G361" s="54"/>
-      <c r="H361" s="55"/>
-      <c r="K361" s="53"/>
+      <c r="G361" s="55"/>
+      <c r="H361" s="56"/>
+      <c r="K361" s="54"/>
     </row>
     <row r="362">
-      <c r="G362" s="54"/>
-      <c r="H362" s="55"/>
-      <c r="K362" s="53"/>
+      <c r="G362" s="55"/>
+      <c r="H362" s="56"/>
+      <c r="K362" s="54"/>
     </row>
     <row r="363">
-      <c r="G363" s="54"/>
-      <c r="H363" s="55"/>
-      <c r="K363" s="53"/>
+      <c r="G363" s="55"/>
+      <c r="H363" s="56"/>
+      <c r="K363" s="54"/>
     </row>
     <row r="364">
-      <c r="G364" s="54"/>
-      <c r="H364" s="55"/>
-      <c r="K364" s="53"/>
+      <c r="G364" s="55"/>
+      <c r="H364" s="56"/>
+      <c r="K364" s="54"/>
     </row>
     <row r="365">
-      <c r="G365" s="54"/>
-      <c r="H365" s="55"/>
-      <c r="K365" s="53"/>
+      <c r="G365" s="55"/>
+      <c r="H365" s="56"/>
+      <c r="K365" s="54"/>
     </row>
     <row r="366">
-      <c r="G366" s="54"/>
-      <c r="H366" s="55"/>
-      <c r="K366" s="53"/>
+      <c r="G366" s="55"/>
+      <c r="H366" s="56"/>
+      <c r="K366" s="54"/>
     </row>
     <row r="367">
-      <c r="G367" s="54"/>
-      <c r="H367" s="55"/>
-      <c r="K367" s="53"/>
+      <c r="G367" s="55"/>
+      <c r="H367" s="56"/>
+      <c r="K367" s="54"/>
     </row>
     <row r="368">
-      <c r="G368" s="54"/>
-      <c r="H368" s="55"/>
-      <c r="K368" s="53"/>
+      <c r="G368" s="55"/>
+      <c r="H368" s="56"/>
+      <c r="K368" s="54"/>
     </row>
     <row r="369">
-      <c r="G369" s="54"/>
-      <c r="H369" s="55"/>
-      <c r="K369" s="53"/>
+      <c r="G369" s="55"/>
+      <c r="H369" s="56"/>
+      <c r="K369" s="54"/>
     </row>
     <row r="370">
-      <c r="G370" s="54"/>
-      <c r="H370" s="55"/>
-      <c r="K370" s="53"/>
+      <c r="G370" s="55"/>
+      <c r="H370" s="56"/>
+      <c r="K370" s="54"/>
     </row>
     <row r="371">
-      <c r="G371" s="54"/>
-      <c r="H371" s="55"/>
-      <c r="K371" s="53"/>
+      <c r="G371" s="55"/>
+      <c r="H371" s="56"/>
+      <c r="K371" s="54"/>
     </row>
     <row r="372">
-      <c r="G372" s="54"/>
-      <c r="H372" s="55"/>
-      <c r="K372" s="53"/>
+      <c r="G372" s="55"/>
+      <c r="H372" s="56"/>
+      <c r="K372" s="54"/>
     </row>
     <row r="373">
-      <c r="G373" s="54"/>
-      <c r="H373" s="55"/>
-      <c r="K373" s="53"/>
+      <c r="G373" s="55"/>
+      <c r="H373" s="56"/>
+      <c r="K373" s="54"/>
     </row>
     <row r="374">
-      <c r="G374" s="54"/>
-      <c r="H374" s="55"/>
-      <c r="K374" s="53"/>
+      <c r="G374" s="55"/>
+      <c r="H374" s="56"/>
+      <c r="K374" s="54"/>
     </row>
     <row r="375">
-      <c r="G375" s="54"/>
-      <c r="H375" s="55"/>
-      <c r="K375" s="53"/>
+      <c r="G375" s="55"/>
+      <c r="H375" s="56"/>
+      <c r="K375" s="54"/>
     </row>
     <row r="376">
-      <c r="G376" s="54"/>
-      <c r="H376" s="55"/>
-      <c r="K376" s="53"/>
+      <c r="G376" s="55"/>
+      <c r="H376" s="56"/>
+      <c r="K376" s="54"/>
     </row>
     <row r="377">
-      <c r="G377" s="54"/>
-      <c r="H377" s="55"/>
-      <c r="K377" s="53"/>
+      <c r="G377" s="55"/>
+      <c r="H377" s="56"/>
+      <c r="K377" s="54"/>
     </row>
     <row r="378">
-      <c r="G378" s="54"/>
-      <c r="H378" s="55"/>
-      <c r="K378" s="53"/>
+      <c r="G378" s="55"/>
+      <c r="H378" s="56"/>
+      <c r="K378" s="54"/>
     </row>
     <row r="379">
-      <c r="G379" s="54"/>
-      <c r="H379" s="55"/>
-      <c r="K379" s="53"/>
+      <c r="G379" s="55"/>
+      <c r="H379" s="56"/>
+      <c r="K379" s="54"/>
     </row>
     <row r="380">
-      <c r="G380" s="54"/>
-      <c r="H380" s="55"/>
-      <c r="K380" s="53"/>
+      <c r="G380" s="55"/>
+      <c r="H380" s="56"/>
+      <c r="K380" s="54"/>
     </row>
     <row r="381">
-      <c r="G381" s="54"/>
-      <c r="H381" s="55"/>
-      <c r="K381" s="53"/>
+      <c r="G381" s="55"/>
+      <c r="H381" s="56"/>
+      <c r="K381" s="54"/>
     </row>
     <row r="382">
-      <c r="G382" s="54"/>
-      <c r="H382" s="55"/>
-      <c r="K382" s="53"/>
+      <c r="G382" s="55"/>
+      <c r="H382" s="56"/>
+      <c r="K382" s="54"/>
     </row>
     <row r="383">
-      <c r="G383" s="54"/>
-      <c r="H383" s="55"/>
-      <c r="K383" s="53"/>
+      <c r="G383" s="55"/>
+      <c r="H383" s="56"/>
+      <c r="K383" s="54"/>
     </row>
     <row r="384">
-      <c r="G384" s="54"/>
-      <c r="H384" s="55"/>
-      <c r="K384" s="53"/>
+      <c r="G384" s="55"/>
+      <c r="H384" s="56"/>
+      <c r="K384" s="54"/>
     </row>
     <row r="385">
-      <c r="G385" s="54"/>
-      <c r="H385" s="55"/>
-      <c r="K385" s="53"/>
+      <c r="G385" s="55"/>
+      <c r="H385" s="56"/>
+      <c r="K385" s="54"/>
     </row>
     <row r="386">
-      <c r="G386" s="54"/>
-      <c r="H386" s="55"/>
-      <c r="K386" s="53"/>
+      <c r="G386" s="55"/>
+      <c r="H386" s="56"/>
+      <c r="K386" s="54"/>
     </row>
     <row r="387">
-      <c r="G387" s="54"/>
-      <c r="H387" s="55"/>
-      <c r="K387" s="53"/>
+      <c r="G387" s="55"/>
+      <c r="H387" s="56"/>
+      <c r="K387" s="54"/>
     </row>
     <row r="388">
-      <c r="G388" s="54"/>
-      <c r="H388" s="55"/>
-      <c r="K388" s="53"/>
+      <c r="G388" s="55"/>
+      <c r="H388" s="56"/>
+      <c r="K388" s="54"/>
     </row>
     <row r="389">
-      <c r="G389" s="54"/>
-      <c r="H389" s="55"/>
-      <c r="K389" s="53"/>
+      <c r="G389" s="55"/>
+      <c r="H389" s="56"/>
+      <c r="K389" s="54"/>
     </row>
     <row r="390">
-      <c r="G390" s="54"/>
-      <c r="H390" s="55"/>
-      <c r="K390" s="53"/>
+      <c r="G390" s="55"/>
+      <c r="H390" s="56"/>
+      <c r="K390" s="54"/>
     </row>
     <row r="391">
-      <c r="G391" s="54"/>
-      <c r="H391" s="55"/>
-      <c r="K391" s="53"/>
+      <c r="G391" s="55"/>
+      <c r="H391" s="56"/>
+      <c r="K391" s="54"/>
     </row>
     <row r="392">
-      <c r="G392" s="54"/>
-      <c r="H392" s="55"/>
-      <c r="K392" s="53"/>
+      <c r="G392" s="55"/>
+      <c r="H392" s="56"/>
+      <c r="K392" s="54"/>
     </row>
     <row r="393">
-      <c r="G393" s="54"/>
-      <c r="H393" s="55"/>
-      <c r="K393" s="53"/>
+      <c r="G393" s="55"/>
+      <c r="H393" s="56"/>
+      <c r="K393" s="54"/>
     </row>
     <row r="394">
-      <c r="G394" s="54"/>
-      <c r="H394" s="55"/>
-      <c r="K394" s="53"/>
+      <c r="G394" s="55"/>
+      <c r="H394" s="56"/>
+      <c r="K394" s="54"/>
     </row>
     <row r="395">
-      <c r="G395" s="54"/>
-      <c r="H395" s="55"/>
-      <c r="K395" s="53"/>
+      <c r="G395" s="55"/>
+      <c r="H395" s="56"/>
+      <c r="K395" s="54"/>
     </row>
     <row r="396">
-      <c r="G396" s="54"/>
-      <c r="H396" s="55"/>
-      <c r="K396" s="53"/>
+      <c r="G396" s="55"/>
+      <c r="H396" s="56"/>
+      <c r="K396" s="54"/>
     </row>
     <row r="397">
-      <c r="G397" s="54"/>
-      <c r="H397" s="55"/>
-      <c r="K397" s="53"/>
+      <c r="G397" s="55"/>
+      <c r="H397" s="56"/>
+      <c r="K397" s="54"/>
     </row>
     <row r="398">
-      <c r="G398" s="54"/>
-      <c r="H398" s="55"/>
-      <c r="K398" s="53"/>
+      <c r="G398" s="55"/>
+      <c r="H398" s="56"/>
+      <c r="K398" s="54"/>
     </row>
     <row r="399">
-      <c r="G399" s="54"/>
-      <c r="H399" s="55"/>
-      <c r="K399" s="53"/>
+      <c r="G399" s="55"/>
+      <c r="H399" s="56"/>
+      <c r="K399" s="54"/>
     </row>
     <row r="400">
-      <c r="G400" s="54"/>
-      <c r="H400" s="55"/>
-      <c r="K400" s="53"/>
+      <c r="G400" s="55"/>
+      <c r="H400" s="56"/>
+      <c r="K400" s="54"/>
     </row>
     <row r="401">
-      <c r="G401" s="54"/>
-      <c r="H401" s="55"/>
-      <c r="K401" s="53"/>
+      <c r="G401" s="55"/>
+      <c r="H401" s="56"/>
+      <c r="K401" s="54"/>
     </row>
     <row r="402">
-      <c r="G402" s="54"/>
-      <c r="H402" s="55"/>
-      <c r="K402" s="53"/>
+      <c r="G402" s="55"/>
+      <c r="H402" s="56"/>
+      <c r="K402" s="54"/>
     </row>
     <row r="403">
-      <c r="G403" s="54"/>
-      <c r="H403" s="55"/>
-      <c r="K403" s="53"/>
+      <c r="G403" s="55"/>
+      <c r="H403" s="56"/>
+      <c r="K403" s="54"/>
     </row>
     <row r="404">
-      <c r="G404" s="54"/>
-      <c r="H404" s="55"/>
-      <c r="K404" s="53"/>
+      <c r="G404" s="55"/>
+      <c r="H404" s="56"/>
+      <c r="K404" s="54"/>
     </row>
     <row r="405">
-      <c r="G405" s="54"/>
-      <c r="H405" s="55"/>
-      <c r="K405" s="53"/>
+      <c r="G405" s="55"/>
+      <c r="H405" s="56"/>
+      <c r="K405" s="54"/>
     </row>
     <row r="406">
-      <c r="G406" s="54"/>
-      <c r="H406" s="55"/>
-      <c r="K406" s="53"/>
+      <c r="G406" s="55"/>
+      <c r="H406" s="56"/>
+      <c r="K406" s="54"/>
     </row>
     <row r="407">
-      <c r="G407" s="54"/>
-      <c r="H407" s="55"/>
-      <c r="K407" s="53"/>
+      <c r="G407" s="55"/>
+      <c r="H407" s="56"/>
+      <c r="K407" s="54"/>
     </row>
     <row r="408">
-      <c r="G408" s="54"/>
-      <c r="H408" s="55"/>
-      <c r="K408" s="53"/>
+      <c r="G408" s="55"/>
+      <c r="H408" s="56"/>
+      <c r="K408" s="54"/>
     </row>
     <row r="409">
-      <c r="G409" s="54"/>
-      <c r="H409" s="55"/>
-      <c r="K409" s="53"/>
+      <c r="G409" s="55"/>
+      <c r="H409" s="56"/>
+      <c r="K409" s="54"/>
     </row>
     <row r="410">
-      <c r="G410" s="54"/>
-      <c r="H410" s="55"/>
-      <c r="K410" s="53"/>
+      <c r="G410" s="55"/>
+      <c r="H410" s="56"/>
+      <c r="K410" s="54"/>
     </row>
     <row r="411">
-      <c r="G411" s="54"/>
-      <c r="H411" s="55"/>
-      <c r="K411" s="53"/>
+      <c r="G411" s="55"/>
+      <c r="H411" s="56"/>
+      <c r="K411" s="54"/>
     </row>
     <row r="412">
-      <c r="G412" s="54"/>
-      <c r="H412" s="55"/>
-      <c r="K412" s="53"/>
+      <c r="G412" s="55"/>
+      <c r="H412" s="56"/>
+      <c r="K412" s="54"/>
     </row>
     <row r="413">
-      <c r="G413" s="54"/>
-      <c r="H413" s="55"/>
-      <c r="K413" s="53"/>
+      <c r="G413" s="55"/>
+      <c r="H413" s="56"/>
+      <c r="K413" s="54"/>
     </row>
     <row r="414">
-      <c r="G414" s="54"/>
-      <c r="H414" s="55"/>
-      <c r="K414" s="53"/>
+      <c r="G414" s="55"/>
+      <c r="H414" s="56"/>
+      <c r="K414" s="54"/>
     </row>
     <row r="415">
-      <c r="G415" s="54"/>
-      <c r="H415" s="55"/>
-      <c r="K415" s="53"/>
+      <c r="G415" s="55"/>
+      <c r="H415" s="56"/>
+      <c r="K415" s="54"/>
     </row>
     <row r="416">
-      <c r="G416" s="54"/>
-      <c r="H416" s="55"/>
-      <c r="K416" s="53"/>
+      <c r="G416" s="55"/>
+      <c r="H416" s="56"/>
+      <c r="K416" s="54"/>
     </row>
     <row r="417">
-      <c r="G417" s="54"/>
-      <c r="H417" s="55"/>
-      <c r="K417" s="53"/>
+      <c r="G417" s="55"/>
+      <c r="H417" s="56"/>
+      <c r="K417" s="54"/>
     </row>
     <row r="418">
-      <c r="G418" s="54"/>
-      <c r="H418" s="55"/>
-      <c r="K418" s="53"/>
+      <c r="G418" s="55"/>
+      <c r="H418" s="56"/>
+      <c r="K418" s="54"/>
     </row>
     <row r="419">
-      <c r="G419" s="54"/>
-      <c r="H419" s="55"/>
-      <c r="K419" s="53"/>
+      <c r="G419" s="55"/>
+      <c r="H419" s="56"/>
+      <c r="K419" s="54"/>
     </row>
     <row r="420">
-      <c r="G420" s="54"/>
-      <c r="H420" s="55"/>
-      <c r="K420" s="53"/>
+      <c r="G420" s="55"/>
+      <c r="H420" s="56"/>
+      <c r="K420" s="54"/>
     </row>
     <row r="421">
-      <c r="G421" s="54"/>
-      <c r="H421" s="55"/>
-      <c r="K421" s="53"/>
+      <c r="G421" s="55"/>
+      <c r="H421" s="56"/>
+      <c r="K421" s="54"/>
     </row>
     <row r="422">
-      <c r="G422" s="54"/>
-      <c r="H422" s="55"/>
-      <c r="K422" s="53"/>
+      <c r="G422" s="55"/>
+      <c r="H422" s="56"/>
+      <c r="K422" s="54"/>
     </row>
     <row r="423">
-      <c r="G423" s="54"/>
-      <c r="H423" s="55"/>
-      <c r="K423" s="53"/>
+      <c r="G423" s="55"/>
+      <c r="H423" s="56"/>
+      <c r="K423" s="54"/>
     </row>
     <row r="424">
-      <c r="G424" s="54"/>
-      <c r="H424" s="55"/>
-      <c r="K424" s="53"/>
+      <c r="G424" s="55"/>
+      <c r="H424" s="56"/>
+      <c r="K424" s="54"/>
     </row>
     <row r="425">
-      <c r="G425" s="54"/>
-      <c r="H425" s="55"/>
-      <c r="K425" s="53"/>
+      <c r="G425" s="55"/>
+      <c r="H425" s="56"/>
+      <c r="K425" s="54"/>
     </row>
     <row r="426">
-      <c r="G426" s="54"/>
-      <c r="H426" s="55"/>
-      <c r="K426" s="53"/>
+      <c r="G426" s="55"/>
+      <c r="H426" s="56"/>
+      <c r="K426" s="54"/>
     </row>
     <row r="427">
-      <c r="G427" s="54"/>
-      <c r="H427" s="55"/>
-      <c r="K427" s="53"/>
+      <c r="G427" s="55"/>
+      <c r="H427" s="56"/>
+      <c r="K427" s="54"/>
     </row>
     <row r="428">
-      <c r="G428" s="54"/>
-      <c r="H428" s="55"/>
-      <c r="K428" s="53"/>
+      <c r="G428" s="55"/>
+      <c r="H428" s="56"/>
+      <c r="K428" s="54"/>
     </row>
     <row r="429">
-      <c r="G429" s="54"/>
-      <c r="H429" s="55"/>
-      <c r="K429" s="53"/>
+      <c r="G429" s="55"/>
+      <c r="H429" s="56"/>
+      <c r="K429" s="54"/>
     </row>
     <row r="430">
-      <c r="G430" s="54"/>
-      <c r="H430" s="55"/>
-      <c r="K430" s="53"/>
+      <c r="G430" s="55"/>
+      <c r="H430" s="56"/>
+      <c r="K430" s="54"/>
     </row>
     <row r="431">
-      <c r="G431" s="54"/>
-      <c r="H431" s="55"/>
-      <c r="K431" s="53"/>
+      <c r="G431" s="55"/>
+      <c r="H431" s="56"/>
+      <c r="K431" s="54"/>
     </row>
     <row r="432">
-      <c r="G432" s="54"/>
-      <c r="H432" s="55"/>
-      <c r="K432" s="53"/>
+      <c r="G432" s="55"/>
+      <c r="H432" s="56"/>
+      <c r="K432" s="54"/>
     </row>
     <row r="433">
-      <c r="G433" s="54"/>
-      <c r="H433" s="55"/>
-      <c r="K433" s="53"/>
+      <c r="G433" s="55"/>
+      <c r="H433" s="56"/>
+      <c r="K433" s="54"/>
     </row>
     <row r="434">
-      <c r="G434" s="54"/>
-      <c r="H434" s="55"/>
-      <c r="K434" s="53"/>
+      <c r="G434" s="55"/>
+      <c r="H434" s="56"/>
+      <c r="K434" s="54"/>
     </row>
     <row r="435">
-      <c r="G435" s="54"/>
-      <c r="H435" s="55"/>
-      <c r="K435" s="53"/>
+      <c r="G435" s="55"/>
+      <c r="H435" s="56"/>
+      <c r="K435" s="54"/>
     </row>
     <row r="436">
-      <c r="G436" s="54"/>
-      <c r="H436" s="55"/>
-      <c r="K436" s="53"/>
+      <c r="G436" s="55"/>
+      <c r="H436" s="56"/>
+      <c r="K436" s="54"/>
     </row>
     <row r="437">
-      <c r="G437" s="54"/>
-      <c r="H437" s="55"/>
-      <c r="K437" s="53"/>
+      <c r="G437" s="55"/>
+      <c r="H437" s="56"/>
+      <c r="K437" s="54"/>
     </row>
     <row r="438">
-      <c r="G438" s="54"/>
-      <c r="H438" s="55"/>
-      <c r="K438" s="53"/>
+      <c r="G438" s="55"/>
+      <c r="H438" s="56"/>
+      <c r="K438" s="54"/>
     </row>
     <row r="439">
-      <c r="G439" s="54"/>
-      <c r="H439" s="55"/>
-      <c r="K439" s="53"/>
+      <c r="G439" s="55"/>
+      <c r="H439" s="56"/>
+      <c r="K439" s="54"/>
     </row>
     <row r="440">
-      <c r="G440" s="54"/>
-      <c r="H440" s="55"/>
-      <c r="K440" s="53"/>
+      <c r="G440" s="55"/>
+      <c r="H440" s="56"/>
+      <c r="K440" s="54"/>
     </row>
     <row r="441">
-      <c r="G441" s="54"/>
-      <c r="H441" s="55"/>
-      <c r="K441" s="53"/>
+      <c r="G441" s="55"/>
+      <c r="H441" s="56"/>
+      <c r="K441" s="54"/>
     </row>
     <row r="442">
-      <c r="G442" s="54"/>
-      <c r="H442" s="55"/>
-      <c r="K442" s="53"/>
+      <c r="G442" s="55"/>
+      <c r="H442" s="56"/>
+      <c r="K442" s="54"/>
     </row>
     <row r="443">
-      <c r="G443" s="54"/>
-      <c r="H443" s="55"/>
-      <c r="K443" s="53"/>
+      <c r="G443" s="55"/>
+      <c r="H443" s="56"/>
+      <c r="K443" s="54"/>
     </row>
     <row r="444">
-      <c r="G444" s="54"/>
-      <c r="H444" s="55"/>
-      <c r="K444" s="53"/>
+      <c r="G444" s="55"/>
+      <c r="H444" s="56"/>
+      <c r="K444" s="54"/>
     </row>
     <row r="445">
-      <c r="G445" s="54"/>
-      <c r="H445" s="55"/>
-      <c r="K445" s="53"/>
+      <c r="G445" s="55"/>
+      <c r="H445" s="56"/>
+      <c r="K445" s="54"/>
     </row>
     <row r="446">
-      <c r="G446" s="54"/>
-      <c r="H446" s="55"/>
-      <c r="K446" s="53"/>
+      <c r="G446" s="55"/>
+      <c r="H446" s="56"/>
+      <c r="K446" s="54"/>
     </row>
     <row r="447">
-      <c r="G447" s="54"/>
-      <c r="H447" s="55"/>
-      <c r="K447" s="53"/>
+      <c r="G447" s="55"/>
+      <c r="H447" s="56"/>
+      <c r="K447" s="54"/>
     </row>
     <row r="448">
-      <c r="G448" s="54"/>
-      <c r="H448" s="55"/>
-      <c r="K448" s="53"/>
+      <c r="G448" s="55"/>
+      <c r="H448" s="56"/>
+      <c r="K448" s="54"/>
     </row>
     <row r="449">
-      <c r="G449" s="54"/>
-      <c r="H449" s="55"/>
-      <c r="K449" s="53"/>
+      <c r="G449" s="55"/>
+      <c r="H449" s="56"/>
+      <c r="K449" s="54"/>
     </row>
     <row r="450">
-      <c r="G450" s="54"/>
-      <c r="H450" s="55"/>
-      <c r="K450" s="53"/>
+      <c r="G450" s="55"/>
+      <c r="H450" s="56"/>
+      <c r="K450" s="54"/>
     </row>
     <row r="451">
-      <c r="G451" s="54"/>
-      <c r="H451" s="55"/>
-      <c r="K451" s="53"/>
+      <c r="G451" s="55"/>
+      <c r="H451" s="56"/>
+      <c r="K451" s="54"/>
     </row>
     <row r="452">
-      <c r="G452" s="54"/>
-      <c r="H452" s="55"/>
-      <c r="K452" s="53"/>
+      <c r="G452" s="55"/>
+      <c r="H452" s="56"/>
+      <c r="K452" s="54"/>
     </row>
     <row r="453">
-      <c r="G453" s="54"/>
-      <c r="H453" s="55"/>
-      <c r="K453" s="53"/>
+      <c r="G453" s="55"/>
+      <c r="H453" s="56"/>
+      <c r="K453" s="54"/>
     </row>
     <row r="454">
-      <c r="G454" s="54"/>
-      <c r="H454" s="55"/>
-      <c r="K454" s="53"/>
+      <c r="G454" s="55"/>
+      <c r="H454" s="56"/>
+      <c r="K454" s="54"/>
     </row>
     <row r="455">
-      <c r="G455" s="54"/>
-      <c r="H455" s="55"/>
-      <c r="K455" s="53"/>
+      <c r="G455" s="55"/>
+      <c r="H455" s="56"/>
+      <c r="K455" s="54"/>
     </row>
     <row r="456">
-      <c r="G456" s="54"/>
-      <c r="H456" s="55"/>
-      <c r="K456" s="53"/>
+      <c r="G456" s="55"/>
+      <c r="H456" s="56"/>
+      <c r="K456" s="54"/>
     </row>
     <row r="457">
-      <c r="G457" s="54"/>
-      <c r="H457" s="55"/>
-      <c r="K457" s="53"/>
+      <c r="G457" s="55"/>
+      <c r="H457" s="56"/>
+      <c r="K457" s="54"/>
     </row>
     <row r="458">
-      <c r="G458" s="54"/>
-      <c r="H458" s="55"/>
-      <c r="K458" s="53"/>
+      <c r="G458" s="55"/>
+      <c r="H458" s="56"/>
+      <c r="K458" s="54"/>
     </row>
     <row r="459">
-      <c r="G459" s="54"/>
-      <c r="H459" s="55"/>
-      <c r="K459" s="53"/>
+      <c r="G459" s="55"/>
+      <c r="H459" s="56"/>
+      <c r="K459" s="54"/>
     </row>
     <row r="460">
-      <c r="G460" s="54"/>
-      <c r="H460" s="55"/>
-      <c r="K460" s="53"/>
+      <c r="G460" s="55"/>
+      <c r="H460" s="56"/>
+      <c r="K460" s="54"/>
     </row>
     <row r="461">
-      <c r="G461" s="54"/>
-      <c r="H461" s="55"/>
-      <c r="K461" s="53"/>
+      <c r="G461" s="55"/>
+      <c r="H461" s="56"/>
+      <c r="K461" s="54"/>
     </row>
     <row r="462">
-      <c r="G462" s="54"/>
-      <c r="H462" s="55"/>
-      <c r="K462" s="53"/>
+      <c r="G462" s="55"/>
+      <c r="H462" s="56"/>
+      <c r="K462" s="54"/>
     </row>
     <row r="463">
-      <c r="G463" s="54"/>
-      <c r="H463" s="55"/>
-      <c r="K463" s="53"/>
+      <c r="G463" s="55"/>
+      <c r="H463" s="56"/>
+      <c r="K463" s="54"/>
     </row>
     <row r="464">
-      <c r="G464" s="54"/>
-      <c r="H464" s="55"/>
-      <c r="K464" s="53"/>
+      <c r="G464" s="55"/>
+      <c r="H464" s="56"/>
+      <c r="K464" s="54"/>
     </row>
     <row r="465">
-      <c r="G465" s="54"/>
-      <c r="H465" s="55"/>
-      <c r="K465" s="53"/>
+      <c r="G465" s="55"/>
+      <c r="H465" s="56"/>
+      <c r="K465" s="54"/>
     </row>
     <row r="466">
-      <c r="G466" s="54"/>
-      <c r="H466" s="55"/>
-      <c r="K466" s="53"/>
+      <c r="G466" s="55"/>
+      <c r="H466" s="56"/>
+      <c r="K466" s="54"/>
     </row>
     <row r="467">
-      <c r="G467" s="54"/>
-      <c r="H467" s="55"/>
-      <c r="K467" s="53"/>
+      <c r="G467" s="55"/>
+      <c r="H467" s="56"/>
+      <c r="K467" s="54"/>
     </row>
     <row r="468">
-      <c r="G468" s="54"/>
-      <c r="H468" s="55"/>
-      <c r="K468" s="53"/>
+      <c r="G468" s="55"/>
+      <c r="H468" s="56"/>
+      <c r="K468" s="54"/>
     </row>
     <row r="469">
-      <c r="G469" s="54"/>
-      <c r="H469" s="55"/>
-      <c r="K469" s="53"/>
+      <c r="G469" s="55"/>
+      <c r="H469" s="56"/>
+      <c r="K469" s="54"/>
     </row>
     <row r="470">
-      <c r="G470" s="54"/>
-      <c r="H470" s="55"/>
-      <c r="K470" s="53"/>
+      <c r="G470" s="55"/>
+      <c r="H470" s="56"/>
+      <c r="K470" s="54"/>
     </row>
     <row r="471">
-      <c r="G471" s="54"/>
-      <c r="H471" s="55"/>
-      <c r="K471" s="53"/>
+      <c r="G471" s="55"/>
+      <c r="H471" s="56"/>
+      <c r="K471" s="54"/>
     </row>
     <row r="472">
-      <c r="G472" s="54"/>
-      <c r="H472" s="55"/>
-      <c r="K472" s="53"/>
+      <c r="G472" s="55"/>
+      <c r="H472" s="56"/>
+      <c r="K472" s="54"/>
     </row>
     <row r="473">
-      <c r="G473" s="54"/>
-      <c r="H473" s="55"/>
-      <c r="K473" s="53"/>
+      <c r="G473" s="55"/>
+      <c r="H473" s="56"/>
+      <c r="K473" s="54"/>
     </row>
     <row r="474">
-      <c r="G474" s="54"/>
-      <c r="H474" s="55"/>
-      <c r="K474" s="53"/>
+      <c r="G474" s="55"/>
+      <c r="H474" s="56"/>
+      <c r="K474" s="54"/>
     </row>
     <row r="475">
-      <c r="G475" s="54"/>
-      <c r="H475" s="55"/>
-      <c r="K475" s="53"/>
+      <c r="G475" s="55"/>
+      <c r="H475" s="56"/>
+      <c r="K475" s="54"/>
     </row>
     <row r="476">
-      <c r="G476" s="54"/>
-      <c r="H476" s="55"/>
-      <c r="K476" s="53"/>
+      <c r="G476" s="55"/>
+      <c r="H476" s="56"/>
+      <c r="K476" s="54"/>
     </row>
     <row r="477">
-      <c r="G477" s="54"/>
-      <c r="H477" s="55"/>
-      <c r="K477" s="53"/>
+      <c r="G477" s="55"/>
+      <c r="H477" s="56"/>
+      <c r="K477" s="54"/>
     </row>
     <row r="478">
-      <c r="G478" s="54"/>
-      <c r="H478" s="55"/>
-      <c r="K478" s="53"/>
+      <c r="G478" s="55"/>
+      <c r="H478" s="56"/>
+      <c r="K478" s="54"/>
     </row>
     <row r="479">
-      <c r="G479" s="54"/>
-      <c r="H479" s="55"/>
-      <c r="K479" s="53"/>
+      <c r="G479" s="55"/>
+      <c r="H479" s="56"/>
+      <c r="K479" s="54"/>
     </row>
     <row r="480">
-      <c r="G480" s="54"/>
-      <c r="H480" s="55"/>
-      <c r="K480" s="53"/>
+      <c r="G480" s="55"/>
+      <c r="H480" s="56"/>
+      <c r="K480" s="54"/>
     </row>
     <row r="481">
-      <c r="G481" s="54"/>
-      <c r="H481" s="55"/>
-      <c r="K481" s="53"/>
+      <c r="G481" s="55"/>
+      <c r="H481" s="56"/>
+      <c r="K481" s="54"/>
     </row>
     <row r="482">
-      <c r="G482" s="54"/>
-      <c r="H482" s="55"/>
-      <c r="K482" s="53"/>
+      <c r="G482" s="55"/>
+      <c r="H482" s="56"/>
+      <c r="K482" s="54"/>
     </row>
     <row r="483">
-      <c r="G483" s="54"/>
-      <c r="H483" s="55"/>
-      <c r="K483" s="53"/>
+      <c r="G483" s="55"/>
+      <c r="H483" s="56"/>
+      <c r="K483" s="54"/>
     </row>
     <row r="484">
-      <c r="G484" s="54"/>
-      <c r="H484" s="55"/>
-      <c r="K484" s="53"/>
+      <c r="G484" s="55"/>
+      <c r="H484" s="56"/>
+      <c r="K484" s="54"/>
     </row>
     <row r="485">
-      <c r="G485" s="54"/>
-      <c r="H485" s="55"/>
-      <c r="K485" s="53"/>
+      <c r="G485" s="55"/>
+      <c r="H485" s="56"/>
+      <c r="K485" s="54"/>
     </row>
     <row r="486">
-      <c r="G486" s="54"/>
-      <c r="H486" s="55"/>
-      <c r="K486" s="53"/>
+      <c r="G486" s="55"/>
+      <c r="H486" s="56"/>
+      <c r="K486" s="54"/>
     </row>
     <row r="487">
-      <c r="G487" s="54"/>
-      <c r="H487" s="55"/>
-      <c r="K487" s="53"/>
+      <c r="G487" s="55"/>
+      <c r="H487" s="56"/>
+      <c r="K487" s="54"/>
     </row>
     <row r="488">
-      <c r="G488" s="54"/>
-      <c r="H488" s="55"/>
-      <c r="K488" s="53"/>
+      <c r="G488" s="55"/>
+      <c r="H488" s="56"/>
+      <c r="K488" s="54"/>
     </row>
     <row r="489">
-      <c r="G489" s="54"/>
-      <c r="H489" s="55"/>
-      <c r="K489" s="53"/>
+      <c r="G489" s="55"/>
+      <c r="H489" s="56"/>
+      <c r="K489" s="54"/>
     </row>
     <row r="490">
-      <c r="G490" s="54"/>
-      <c r="H490" s="55"/>
-      <c r="K490" s="53"/>
+      <c r="G490" s="55"/>
+      <c r="H490" s="56"/>
+      <c r="K490" s="54"/>
     </row>
     <row r="491">
-      <c r="G491" s="54"/>
-      <c r="H491" s="55"/>
-      <c r="K491" s="53"/>
+      <c r="G491" s="55"/>
+      <c r="H491" s="56"/>
+      <c r="K491" s="54"/>
     </row>
     <row r="492">
-      <c r="G492" s="54"/>
-      <c r="H492" s="55"/>
-      <c r="K492" s="53"/>
+      <c r="G492" s="55"/>
+      <c r="H492" s="56"/>
+      <c r="K492" s="54"/>
     </row>
     <row r="493">
-      <c r="G493" s="54"/>
-      <c r="H493" s="55"/>
-      <c r="K493" s="53"/>
+      <c r="G493" s="55"/>
+      <c r="H493" s="56"/>
+      <c r="K493" s="54"/>
     </row>
     <row r="494">
-      <c r="G494" s="54"/>
-      <c r="H494" s="55"/>
-      <c r="K494" s="53"/>
+      <c r="G494" s="55"/>
+      <c r="H494" s="56"/>
+      <c r="K494" s="54"/>
     </row>
     <row r="495">
-      <c r="G495" s="54"/>
-      <c r="H495" s="55"/>
-      <c r="K495" s="53"/>
+      <c r="G495" s="55"/>
+      <c r="H495" s="56"/>
+      <c r="K495" s="54"/>
     </row>
     <row r="496">
-      <c r="G496" s="54"/>
-      <c r="H496" s="55"/>
-      <c r="K496" s="53"/>
+      <c r="G496" s="55"/>
+      <c r="H496" s="56"/>
+      <c r="K496" s="54"/>
     </row>
     <row r="497">
-      <c r="G497" s="54"/>
-      <c r="H497" s="55"/>
-      <c r="K497" s="53"/>
+      <c r="G497" s="55"/>
+      <c r="H497" s="56"/>
+      <c r="K497" s="54"/>
     </row>
     <row r="498">
-      <c r="G498" s="54"/>
-      <c r="H498" s="55"/>
-      <c r="K498" s="53"/>
+      <c r="G498" s="55"/>
+      <c r="H498" s="56"/>
+      <c r="K498" s="54"/>
     </row>
     <row r="499">
-      <c r="G499" s="54"/>
-      <c r="H499" s="55"/>
-      <c r="K499" s="53"/>
+      <c r="G499" s="55"/>
+      <c r="H499" s="56"/>
+      <c r="K499" s="54"/>
     </row>
     <row r="500">
-      <c r="G500" s="54"/>
-      <c r="H500" s="55"/>
-      <c r="K500" s="53"/>
+      <c r="G500" s="55"/>
+      <c r="H500" s="56"/>
+      <c r="K500" s="54"/>
     </row>
     <row r="501">
-      <c r="G501" s="54"/>
-      <c r="H501" s="55"/>
-      <c r="K501" s="53"/>
+      <c r="G501" s="55"/>
+      <c r="H501" s="56"/>
+      <c r="K501" s="54"/>
     </row>
     <row r="502">
-      <c r="G502" s="54"/>
-      <c r="H502" s="55"/>
-      <c r="K502" s="53"/>
+      <c r="G502" s="55"/>
+      <c r="H502" s="56"/>
+      <c r="K502" s="54"/>
     </row>
     <row r="503">
-      <c r="G503" s="54"/>
-      <c r="H503" s="55"/>
-      <c r="K503" s="53"/>
+      <c r="G503" s="55"/>
+      <c r="H503" s="56"/>
+      <c r="K503" s="54"/>
     </row>
     <row r="504">
-      <c r="G504" s="54"/>
-      <c r="H504" s="55"/>
-      <c r="K504" s="53"/>
+      <c r="G504" s="55"/>
+      <c r="H504" s="56"/>
+      <c r="K504" s="54"/>
     </row>
     <row r="505">
-      <c r="G505" s="54"/>
-      <c r="H505" s="55"/>
-      <c r="K505" s="53"/>
+      <c r="G505" s="55"/>
+      <c r="H505" s="56"/>
+      <c r="K505" s="54"/>
     </row>
     <row r="506">
-      <c r="G506" s="54"/>
-      <c r="H506" s="55"/>
-      <c r="K506" s="53"/>
+      <c r="G506" s="55"/>
+      <c r="H506" s="56"/>
+      <c r="K506" s="54"/>
     </row>
     <row r="507">
-      <c r="G507" s="54"/>
-      <c r="H507" s="55"/>
-      <c r="K507" s="53"/>
+      <c r="G507" s="55"/>
+      <c r="H507" s="56"/>
+      <c r="K507" s="54"/>
     </row>
     <row r="508">
-      <c r="G508" s="54"/>
-      <c r="H508" s="55"/>
-      <c r="K508" s="53"/>
+      <c r="G508" s="55"/>
+      <c r="H508" s="56"/>
+      <c r="K508" s="54"/>
     </row>
     <row r="509">
-      <c r="G509" s="54"/>
-      <c r="H509" s="55"/>
-      <c r="K509" s="53"/>
+      <c r="G509" s="55"/>
+      <c r="H509" s="56"/>
+      <c r="K509" s="54"/>
     </row>
     <row r="510">
-      <c r="G510" s="54"/>
-      <c r="H510" s="55"/>
-      <c r="K510" s="53"/>
+      <c r="G510" s="55"/>
+      <c r="H510" s="56"/>
+      <c r="K510" s="54"/>
     </row>
     <row r="511">
-      <c r="G511" s="54"/>
-      <c r="H511" s="55"/>
-      <c r="K511" s="53"/>
+      <c r="G511" s="55"/>
+      <c r="H511" s="56"/>
+      <c r="K511" s="54"/>
     </row>
     <row r="512">
-      <c r="G512" s="54"/>
-      <c r="H512" s="55"/>
-      <c r="K512" s="53"/>
+      <c r="G512" s="55"/>
+      <c r="H512" s="56"/>
+      <c r="K512" s="54"/>
     </row>
     <row r="513">
-      <c r="G513" s="54"/>
-      <c r="H513" s="55"/>
-      <c r="K513" s="53"/>
+      <c r="G513" s="55"/>
+      <c r="H513" s="56"/>
+      <c r="K513" s="54"/>
     </row>
     <row r="514">
-      <c r="G514" s="54"/>
-      <c r="H514" s="55"/>
-      <c r="K514" s="53"/>
+      <c r="G514" s="55"/>
+      <c r="H514" s="56"/>
+      <c r="K514" s="54"/>
     </row>
     <row r="515">
-      <c r="G515" s="54"/>
-      <c r="H515" s="55"/>
-      <c r="K515" s="53"/>
+      <c r="G515" s="55"/>
+      <c r="H515" s="56"/>
+      <c r="K515" s="54"/>
     </row>
     <row r="516">
-      <c r="G516" s="54"/>
-      <c r="H516" s="55"/>
-      <c r="K516" s="53"/>
+      <c r="G516" s="55"/>
+      <c r="H516" s="56"/>
+      <c r="K516" s="54"/>
     </row>
     <row r="517">
-      <c r="G517" s="54"/>
-      <c r="H517" s="55"/>
-      <c r="K517" s="53"/>
+      <c r="G517" s="55"/>
+      <c r="H517" s="56"/>
+      <c r="K517" s="54"/>
     </row>
     <row r="518">
-      <c r="G518" s="54"/>
-      <c r="H518" s="55"/>
-      <c r="K518" s="53"/>
+      <c r="G518" s="55"/>
+      <c r="H518" s="56"/>
+      <c r="K518" s="54"/>
     </row>
     <row r="519">
-      <c r="G519" s="54"/>
-      <c r="H519" s="55"/>
-      <c r="K519" s="53"/>
+      <c r="G519" s="55"/>
+      <c r="H519" s="56"/>
+      <c r="K519" s="54"/>
     </row>
     <row r="520">
-      <c r="G520" s="54"/>
-      <c r="H520" s="55"/>
-      <c r="K520" s="53"/>
+      <c r="G520" s="55"/>
+      <c r="H520" s="56"/>
+      <c r="K520" s="54"/>
     </row>
     <row r="521">
-      <c r="G521" s="54"/>
-      <c r="H521" s="55"/>
-      <c r="K521" s="53"/>
+      <c r="G521" s="55"/>
+      <c r="H521" s="56"/>
+      <c r="K521" s="54"/>
     </row>
     <row r="522">
-      <c r="G522" s="54"/>
-      <c r="H522" s="55"/>
-      <c r="K522" s="53"/>
+      <c r="G522" s="55"/>
+      <c r="H522" s="56"/>
+      <c r="K522" s="54"/>
     </row>
     <row r="523">
-      <c r="G523" s="54"/>
-      <c r="H523" s="55"/>
-      <c r="K523" s="53"/>
+      <c r="G523" s="55"/>
+      <c r="H523" s="56"/>
+      <c r="K523" s="54"/>
     </row>
     <row r="524">
-      <c r="G524" s="54"/>
-      <c r="H524" s="55"/>
-      <c r="K524" s="53"/>
+      <c r="G524" s="55"/>
+      <c r="H524" s="56"/>
+      <c r="K524" s="54"/>
     </row>
     <row r="525">
-      <c r="G525" s="54"/>
-      <c r="H525" s="55"/>
-      <c r="K525" s="53"/>
+      <c r="G525" s="55"/>
+      <c r="H525" s="56"/>
+      <c r="K525" s="54"/>
     </row>
     <row r="526">
-      <c r="G526" s="54"/>
-      <c r="H526" s="55"/>
-      <c r="K526" s="53"/>
+      <c r="G526" s="55"/>
+      <c r="H526" s="56"/>
+      <c r="K526" s="54"/>
     </row>
     <row r="527">
-      <c r="G527" s="54"/>
-      <c r="H527" s="55"/>
-      <c r="K527" s="53"/>
+      <c r="G527" s="55"/>
+      <c r="H527" s="56"/>
+      <c r="K527" s="54"/>
     </row>
     <row r="528">
-      <c r="G528" s="54"/>
-      <c r="H528" s="55"/>
-      <c r="K528" s="53"/>
+      <c r="G528" s="55"/>
+      <c r="H528" s="56"/>
+      <c r="K528" s="54"/>
     </row>
     <row r="529">
-      <c r="G529" s="54"/>
-      <c r="H529" s="55"/>
-      <c r="K529" s="53"/>
+      <c r="G529" s="55"/>
+      <c r="H529" s="56"/>
+      <c r="K529" s="54"/>
     </row>
     <row r="530">
-      <c r="G530" s="54"/>
-      <c r="H530" s="55"/>
-      <c r="K530" s="53"/>
+      <c r="G530" s="55"/>
+      <c r="H530" s="56"/>
+      <c r="K530" s="54"/>
     </row>
     <row r="531">
-      <c r="G531" s="54"/>
-      <c r="H531" s="55"/>
-      <c r="K531" s="53"/>
+      <c r="G531" s="55"/>
+      <c r="H531" s="56"/>
+      <c r="K531" s="54"/>
     </row>
     <row r="532">
-      <c r="G532" s="54"/>
-      <c r="H532" s="55"/>
-      <c r="K532" s="53"/>
+      <c r="G532" s="55"/>
+      <c r="H532" s="56"/>
+      <c r="K532" s="54"/>
     </row>
     <row r="533">
-      <c r="G533" s="54"/>
-      <c r="H533" s="55"/>
-      <c r="K533" s="53"/>
+      <c r="G533" s="55"/>
+      <c r="H533" s="56"/>
+      <c r="K533" s="54"/>
     </row>
     <row r="534">
-      <c r="G534" s="54"/>
-      <c r="H534" s="55"/>
-      <c r="K534" s="53"/>
+      <c r="G534" s="55"/>
+      <c r="H534" s="56"/>
+      <c r="K534" s="54"/>
     </row>
     <row r="535">
-      <c r="G535" s="54"/>
-      <c r="H535" s="55"/>
-      <c r="K535" s="53"/>
+      <c r="G535" s="55"/>
+      <c r="H535" s="56"/>
+      <c r="K535" s="54"/>
     </row>
     <row r="536">
-      <c r="G536" s="54"/>
-      <c r="H536" s="55"/>
-      <c r="K536" s="53"/>
+      <c r="G536" s="55"/>
+      <c r="H536" s="56"/>
+      <c r="K536" s="54"/>
     </row>
     <row r="537">
-      <c r="G537" s="54"/>
-      <c r="H537" s="55"/>
-      <c r="K537" s="53"/>
+      <c r="G537" s="55"/>
+      <c r="H537" s="56"/>
+      <c r="K537" s="54"/>
     </row>
     <row r="538">
-      <c r="G538" s="54"/>
-      <c r="H538" s="55"/>
-      <c r="K538" s="53"/>
+      <c r="G538" s="55"/>
+      <c r="H538" s="56"/>
+      <c r="K538" s="54"/>
     </row>
     <row r="539">
-      <c r="G539" s="54"/>
-      <c r="H539" s="55"/>
-      <c r="K539" s="53"/>
+      <c r="G539" s="55"/>
+      <c r="H539" s="56"/>
+      <c r="K539" s="54"/>
     </row>
     <row r="540">
-      <c r="G540" s="54"/>
-      <c r="H540" s="55"/>
-      <c r="K540" s="53"/>
+      <c r="G540" s="55"/>
+      <c r="H540" s="56"/>
+      <c r="K540" s="54"/>
     </row>
     <row r="541">
-      <c r="G541" s="54"/>
-      <c r="H541" s="55"/>
-      <c r="K541" s="53"/>
+      <c r="G541" s="55"/>
+      <c r="H541" s="56"/>
+      <c r="K541" s="54"/>
     </row>
     <row r="542">
-      <c r="G542" s="54"/>
-      <c r="H542" s="55"/>
-      <c r="K542" s="53"/>
+      <c r="G542" s="55"/>
+      <c r="H542" s="56"/>
+      <c r="K542" s="54"/>
     </row>
     <row r="543">
-      <c r="G543" s="54"/>
-      <c r="H543" s="55"/>
-      <c r="K543" s="53"/>
+      <c r="G543" s="55"/>
+      <c r="H543" s="56"/>
+      <c r="K543" s="54"/>
     </row>
     <row r="544">
-      <c r="G544" s="54"/>
-      <c r="H544" s="55"/>
-      <c r="K544" s="53"/>
+      <c r="G544" s="55"/>
+      <c r="H544" s="56"/>
+      <c r="K544" s="54"/>
     </row>
     <row r="545">
-      <c r="G545" s="54"/>
-      <c r="H545" s="55"/>
-      <c r="K545" s="53"/>
+      <c r="G545" s="55"/>
+      <c r="H545" s="56"/>
+      <c r="K545" s="54"/>
     </row>
     <row r="546">
-      <c r="G546" s="54"/>
-      <c r="H546" s="55"/>
-      <c r="K546" s="53"/>
+      <c r="G546" s="55"/>
+      <c r="H546" s="56"/>
+      <c r="K546" s="54"/>
     </row>
     <row r="547">
-      <c r="G547" s="54"/>
-      <c r="H547" s="55"/>
-      <c r="K547" s="53"/>
+      <c r="G547" s="55"/>
+      <c r="H547" s="56"/>
+      <c r="K547" s="54"/>
     </row>
     <row r="548">
-      <c r="G548" s="54"/>
-      <c r="H548" s="55"/>
-      <c r="K548" s="53"/>
+      <c r="G548" s="55"/>
+      <c r="H548" s="56"/>
+      <c r="K548" s="54"/>
     </row>
     <row r="549">
-      <c r="G549" s="54"/>
-      <c r="H549" s="55"/>
-      <c r="K549" s="53"/>
+      <c r="G549" s="55"/>
+      <c r="H549" s="56"/>
+      <c r="K549" s="54"/>
     </row>
     <row r="550">
-      <c r="G550" s="54"/>
-      <c r="H550" s="55"/>
-      <c r="K550" s="53"/>
+      <c r="G550" s="55"/>
+      <c r="H550" s="56"/>
+      <c r="K550" s="54"/>
     </row>
     <row r="551">
-      <c r="G551" s="54"/>
-      <c r="H551" s="55"/>
-      <c r="K551" s="53"/>
+      <c r="G551" s="55"/>
+      <c r="H551" s="56"/>
+      <c r="K551" s="54"/>
     </row>
     <row r="552">
-      <c r="G552" s="54"/>
-      <c r="H552" s="55"/>
-      <c r="K552" s="53"/>
+      <c r="G552" s="55"/>
+      <c r="H552" s="56"/>
+      <c r="K552" s="54"/>
     </row>
     <row r="553">
-      <c r="G553" s="54"/>
-      <c r="H553" s="55"/>
-      <c r="K553" s="53"/>
+      <c r="G553" s="55"/>
+      <c r="H553" s="56"/>
+      <c r="K553" s="54"/>
     </row>
     <row r="554">
-      <c r="G554" s="54"/>
-      <c r="H554" s="55"/>
-      <c r="K554" s="53"/>
+      <c r="G554" s="55"/>
+      <c r="H554" s="56"/>
+      <c r="K554" s="54"/>
     </row>
     <row r="555">
-      <c r="G555" s="54"/>
-      <c r="H555" s="55"/>
-      <c r="K555" s="53"/>
+      <c r="G555" s="55"/>
+      <c r="H555" s="56"/>
+      <c r="K555" s="54"/>
     </row>
     <row r="556">
-      <c r="G556" s="54"/>
-      <c r="H556" s="55"/>
-      <c r="K556" s="53"/>
+      <c r="G556" s="55"/>
+      <c r="H556" s="56"/>
+      <c r="K556" s="54"/>
     </row>
     <row r="557">
-      <c r="G557" s="54"/>
-      <c r="H557" s="55"/>
-      <c r="K557" s="53"/>
+      <c r="G557" s="55"/>
+      <c r="H557" s="56"/>
+      <c r="K557" s="54"/>
     </row>
     <row r="558">
-      <c r="G558" s="54"/>
-      <c r="H558" s="55"/>
-      <c r="K558" s="53"/>
+      <c r="G558" s="55"/>
+      <c r="H558" s="56"/>
+      <c r="K558" s="54"/>
     </row>
     <row r="559">
-      <c r="G559" s="54"/>
-      <c r="H559" s="55"/>
-      <c r="K559" s="53"/>
+      <c r="G559" s="55"/>
+      <c r="H559" s="56"/>
+      <c r="K559" s="54"/>
     </row>
     <row r="560">
-      <c r="G560" s="54"/>
-      <c r="H560" s="55"/>
-      <c r="K560" s="53"/>
+      <c r="G560" s="55"/>
+      <c r="H560" s="56"/>
+      <c r="K560" s="54"/>
     </row>
     <row r="561">
-      <c r="G561" s="54"/>
-      <c r="H561" s="55"/>
-      <c r="K561" s="53"/>
+      <c r="G561" s="55"/>
+      <c r="H561" s="56"/>
+      <c r="K561" s="54"/>
     </row>
     <row r="562">
-      <c r="G562" s="54"/>
-      <c r="H562" s="55"/>
-      <c r="K562" s="53"/>
+      <c r="G562" s="55"/>
+      <c r="H562" s="56"/>
+      <c r="K562" s="54"/>
     </row>
     <row r="563">
-      <c r="G563" s="54"/>
-      <c r="H563" s="55"/>
-      <c r="K563" s="53"/>
+      <c r="G563" s="55"/>
+      <c r="H563" s="56"/>
+      <c r="K563" s="54"/>
     </row>
     <row r="564">
-      <c r="G564" s="54"/>
-      <c r="H564" s="55"/>
-      <c r="K564" s="53"/>
+      <c r="G564" s="55"/>
+      <c r="H564" s="56"/>
+      <c r="K564" s="54"/>
     </row>
     <row r="565">
-      <c r="G565" s="54"/>
-      <c r="H565" s="55"/>
-      <c r="K565" s="53"/>
+      <c r="G565" s="55"/>
+      <c r="H565" s="56"/>
+      <c r="K565" s="54"/>
     </row>
     <row r="566">
-      <c r="G566" s="54"/>
-      <c r="H566" s="55"/>
-      <c r="K566" s="53"/>
+      <c r="G566" s="55"/>
+      <c r="H566" s="56"/>
+      <c r="K566" s="54"/>
     </row>
     <row r="567">
-      <c r="G567" s="54"/>
-      <c r="H567" s="55"/>
-      <c r="K567" s="53"/>
+      <c r="G567" s="55"/>
+      <c r="H567" s="56"/>
+      <c r="K567" s="54"/>
     </row>
     <row r="568">
-      <c r="G568" s="54"/>
-      <c r="H568" s="55"/>
-      <c r="K568" s="53"/>
+      <c r="G568" s="55"/>
+      <c r="H568" s="56"/>
+      <c r="K568" s="54"/>
     </row>
     <row r="569">
-      <c r="G569" s="54"/>
-      <c r="H569" s="55"/>
-      <c r="K569" s="53"/>
+      <c r="G569" s="55"/>
+      <c r="H569" s="56"/>
+      <c r="K569" s="54"/>
     </row>
     <row r="570">
-      <c r="G570" s="54"/>
-      <c r="H570" s="55"/>
-      <c r="K570" s="53"/>
+      <c r="G570" s="55"/>
+      <c r="H570" s="56"/>
+      <c r="K570" s="54"/>
     </row>
     <row r="571">
-      <c r="G571" s="54"/>
-      <c r="H571" s="55"/>
-      <c r="K571" s="53"/>
+      <c r="G571" s="55"/>
+      <c r="H571" s="56"/>
+      <c r="K571" s="54"/>
     </row>
     <row r="572">
-      <c r="G572" s="54"/>
-      <c r="H572" s="55"/>
-      <c r="K572" s="53"/>
+      <c r="G572" s="55"/>
+      <c r="H572" s="56"/>
+      <c r="K572" s="54"/>
     </row>
     <row r="573">
-      <c r="G573" s="54"/>
-      <c r="H573" s="55"/>
-      <c r="K573" s="53"/>
+      <c r="G573" s="55"/>
+      <c r="H573" s="56"/>
+      <c r="K573" s="54"/>
     </row>
     <row r="574">
-      <c r="G574" s="54"/>
-      <c r="H574" s="55"/>
-      <c r="K574" s="53"/>
+      <c r="G574" s="55"/>
+      <c r="H574" s="56"/>
+      <c r="K574" s="54"/>
     </row>
     <row r="575">
-      <c r="G575" s="54"/>
-      <c r="H575" s="55"/>
-      <c r="K575" s="53"/>
+      <c r="G575" s="55"/>
+      <c r="H575" s="56"/>
+      <c r="K575" s="54"/>
     </row>
     <row r="576">
-      <c r="G576" s="54"/>
-      <c r="H576" s="55"/>
-      <c r="K576" s="53"/>
+      <c r="G576" s="55"/>
+      <c r="H576" s="56"/>
+      <c r="K576" s="54"/>
     </row>
     <row r="577">
-      <c r="G577" s="54"/>
-      <c r="H577" s="55"/>
-      <c r="K577" s="53"/>
+      <c r="G577" s="55"/>
+      <c r="H577" s="56"/>
+      <c r="K577" s="54"/>
     </row>
     <row r="578">
-      <c r="G578" s="54"/>
-      <c r="H578" s="55"/>
-      <c r="K578" s="53"/>
+      <c r="G578" s="55"/>
+      <c r="H578" s="56"/>
+      <c r="K578" s="54"/>
     </row>
     <row r="579">
-      <c r="G579" s="54"/>
-      <c r="H579" s="55"/>
-      <c r="K579" s="53"/>
+      <c r="G579" s="55"/>
+      <c r="H579" s="56"/>
+      <c r="K579" s="54"/>
     </row>
     <row r="580">
-      <c r="G580" s="54"/>
-      <c r="H580" s="55"/>
-      <c r="K580" s="53"/>
+      <c r="G580" s="55"/>
+      <c r="H580" s="56"/>
+      <c r="K580" s="54"/>
     </row>
     <row r="581">
-      <c r="G581" s="54"/>
-      <c r="H581" s="55"/>
-      <c r="K581" s="53"/>
+      <c r="G581" s="55"/>
+      <c r="H581" s="56"/>
+      <c r="K581" s="54"/>
     </row>
     <row r="582">
-      <c r="G582" s="54"/>
-      <c r="H582" s="55"/>
-      <c r="K582" s="53"/>
+      <c r="G582" s="55"/>
+      <c r="H582" s="56"/>
+      <c r="K582" s="54"/>
     </row>
     <row r="583">
-      <c r="G583" s="54"/>
-      <c r="H583" s="55"/>
-      <c r="K583" s="53"/>
+      <c r="G583" s="55"/>
+      <c r="H583" s="56"/>
+      <c r="K583" s="54"/>
     </row>
     <row r="584">
-      <c r="G584" s="54"/>
-      <c r="H584" s="55"/>
-      <c r="K584" s="53"/>
+      <c r="G584" s="55"/>
+      <c r="H584" s="56"/>
+      <c r="K584" s="54"/>
     </row>
     <row r="585">
-      <c r="G585" s="54"/>
-      <c r="H585" s="55"/>
-      <c r="K585" s="53"/>
+      <c r="G585" s="55"/>
+      <c r="H585" s="56"/>
+      <c r="K585" s="54"/>
     </row>
     <row r="586">
-      <c r="G586" s="54"/>
-      <c r="H586" s="55"/>
-      <c r="K586" s="53"/>
+      <c r="G586" s="55"/>
+      <c r="H586" s="56"/>
+      <c r="K586" s="54"/>
     </row>
     <row r="587">
-      <c r="G587" s="54"/>
-      <c r="H587" s="55"/>
-      <c r="K587" s="53"/>
+      <c r="G587" s="55"/>
+      <c r="H587" s="56"/>
+      <c r="K587" s="54"/>
     </row>
     <row r="588">
-      <c r="G588" s="54"/>
-      <c r="H588" s="55"/>
-      <c r="K588" s="53"/>
+      <c r="G588" s="55"/>
+      <c r="H588" s="56"/>
+      <c r="K588" s="54"/>
     </row>
     <row r="589">
-      <c r="G589" s="54"/>
-      <c r="H589" s="55"/>
-      <c r="K589" s="53"/>
+      <c r="G589" s="55"/>
+      <c r="H589" s="56"/>
+      <c r="K589" s="54"/>
     </row>
     <row r="590">
-      <c r="G590" s="54"/>
-      <c r="H590" s="55"/>
-      <c r="K590" s="53"/>
+      <c r="G590" s="55"/>
+      <c r="H590" s="56"/>
+      <c r="K590" s="54"/>
     </row>
     <row r="591">
-      <c r="G591" s="54"/>
-      <c r="H591" s="55"/>
-      <c r="K591" s="53"/>
+      <c r="G591" s="55"/>
+      <c r="H591" s="56"/>
+      <c r="K591" s="54"/>
     </row>
     <row r="592">
-      <c r="G592" s="54"/>
-      <c r="H592" s="55"/>
-      <c r="K592" s="53"/>
+      <c r="G592" s="55"/>
+      <c r="H592" s="56"/>
+      <c r="K592" s="54"/>
     </row>
     <row r="593">
-      <c r="G593" s="54"/>
-      <c r="H593" s="55"/>
-      <c r="K593" s="53"/>
+      <c r="G593" s="55"/>
+      <c r="H593" s="56"/>
+      <c r="K593" s="54"/>
     </row>
     <row r="594">
-      <c r="G594" s="54"/>
-      <c r="H594" s="55"/>
-      <c r="K594" s="53"/>
+      <c r="G594" s="55"/>
+      <c r="H594" s="56"/>
+      <c r="K594" s="54"/>
     </row>
     <row r="595">
-      <c r="G595" s="54"/>
-      <c r="H595" s="55"/>
-      <c r="K595" s="53"/>
+      <c r="G595" s="55"/>
+      <c r="H595" s="56"/>
+      <c r="K595" s="54"/>
     </row>
     <row r="596">
-      <c r="G596" s="54"/>
-      <c r="H596" s="55"/>
-      <c r="K596" s="53"/>
+      <c r="G596" s="55"/>
+      <c r="H596" s="56"/>
+      <c r="K596" s="54"/>
     </row>
     <row r="597">
-      <c r="G597" s="54"/>
-      <c r="H597" s="55"/>
-      <c r="K597" s="53"/>
+      <c r="G597" s="55"/>
+      <c r="H597" s="56"/>
+      <c r="K597" s="54"/>
     </row>
     <row r="598">
-      <c r="G598" s="54"/>
-      <c r="H598" s="55"/>
-      <c r="K598" s="53"/>
+      <c r="G598" s="55"/>
+      <c r="H598" s="56"/>
+      <c r="K598" s="54"/>
     </row>
     <row r="599">
-      <c r="G599" s="54"/>
-      <c r="H599" s="55"/>
-      <c r="K599" s="53"/>
+      <c r="G599" s="55"/>
+      <c r="H599" s="56"/>
+      <c r="K599" s="54"/>
     </row>
     <row r="600">
-      <c r="G600" s="54"/>
-      <c r="H600" s="55"/>
-      <c r="K600" s="53"/>
+      <c r="G600" s="55"/>
+      <c r="H600" s="56"/>
+      <c r="K600" s="54"/>
     </row>
     <row r="601">
-      <c r="G601" s="54"/>
-      <c r="H601" s="55"/>
-      <c r="K601" s="53"/>
+      <c r="G601" s="55"/>
+      <c r="H601" s="56"/>
+      <c r="K601" s="54"/>
     </row>
     <row r="602">
-      <c r="G602" s="54"/>
-      <c r="H602" s="55"/>
-      <c r="K602" s="53"/>
+      <c r="G602" s="55"/>
+      <c r="H602" s="56"/>
+      <c r="K602" s="54"/>
     </row>
     <row r="603">
-      <c r="G603" s="54"/>
-      <c r="H603" s="55"/>
-      <c r="K603" s="53"/>
+      <c r="G603" s="55"/>
+      <c r="H603" s="56"/>
+      <c r="K603" s="54"/>
     </row>
     <row r="604">
-      <c r="G604" s="54"/>
-      <c r="H604" s="55"/>
-      <c r="K604" s="53"/>
+      <c r="G604" s="55"/>
+      <c r="H604" s="56"/>
+      <c r="K604" s="54"/>
     </row>
     <row r="605">
-      <c r="G605" s="54"/>
-      <c r="H605" s="55"/>
-      <c r="K605" s="53"/>
+      <c r="G605" s="55"/>
+      <c r="H605" s="56"/>
+      <c r="K605" s="54"/>
     </row>
     <row r="606">
-      <c r="G606" s="54"/>
-      <c r="H606" s="55"/>
-      <c r="K606" s="53"/>
+      <c r="G606" s="55"/>
+      <c r="H606" s="56"/>
+      <c r="K606" s="54"/>
     </row>
     <row r="607">
-      <c r="G607" s="54"/>
-      <c r="H607" s="55"/>
-      <c r="K607" s="53"/>
+      <c r="G607" s="55"/>
+      <c r="H607" s="56"/>
+      <c r="K607" s="54"/>
     </row>
     <row r="608">
-      <c r="G608" s="54"/>
-      <c r="H608" s="55"/>
-      <c r="K608" s="53"/>
+      <c r="G608" s="55"/>
+      <c r="H608" s="56"/>
+      <c r="K608" s="54"/>
     </row>
     <row r="609">
-      <c r="G609" s="54"/>
-      <c r="H609" s="55"/>
-      <c r="K609" s="53"/>
+      <c r="G609" s="55"/>
+      <c r="H609" s="56"/>
+      <c r="K609" s="54"/>
     </row>
     <row r="610">
-      <c r="G610" s="54"/>
-      <c r="H610" s="55"/>
-      <c r="K610" s="53"/>
+      <c r="G610" s="55"/>
+      <c r="H610" s="56"/>
+      <c r="K610" s="54"/>
     </row>
     <row r="611">
-      <c r="G611" s="54"/>
-      <c r="H611" s="55"/>
-      <c r="K611" s="53"/>
+      <c r="G611" s="55"/>
+      <c r="H611" s="56"/>
+      <c r="K611" s="54"/>
     </row>
     <row r="612">
-      <c r="G612" s="54"/>
-      <c r="H612" s="55"/>
-      <c r="K612" s="53"/>
+      <c r="G612" s="55"/>
+      <c r="H612" s="56"/>
+      <c r="K612" s="54"/>
     </row>
     <row r="613">
-      <c r="G613" s="54"/>
-      <c r="H613" s="55"/>
-      <c r="K613" s="53"/>
+      <c r="G613" s="55"/>
+      <c r="H613" s="56"/>
+      <c r="K613" s="54"/>
     </row>
     <row r="614">
-      <c r="G614" s="54"/>
-      <c r="H614" s="55"/>
-      <c r="K614" s="53"/>
+      <c r="G614" s="55"/>
+      <c r="H614" s="56"/>
+      <c r="K614" s="54"/>
     </row>
     <row r="615">
-      <c r="G615" s="54"/>
-      <c r="H615" s="55"/>
-      <c r="K615" s="53"/>
+      <c r="G615" s="55"/>
+      <c r="H615" s="56"/>
+      <c r="K615" s="54"/>
     </row>
     <row r="616">
-      <c r="G616" s="54"/>
-      <c r="H616" s="55"/>
-      <c r="K616" s="53"/>
+      <c r="G616" s="55"/>
+      <c r="H616" s="56"/>
+      <c r="K616" s="54"/>
     </row>
     <row r="617">
-      <c r="G617" s="54"/>
-      <c r="H617" s="55"/>
-      <c r="K617" s="53"/>
+      <c r="G617" s="55"/>
+      <c r="H617" s="56"/>
+      <c r="K617" s="54"/>
     </row>
     <row r="618">
-      <c r="G618" s="54"/>
-      <c r="H618" s="55"/>
-      <c r="K618" s="53"/>
+      <c r="G618" s="55"/>
+      <c r="H618" s="56"/>
+      <c r="K618" s="54"/>
     </row>
     <row r="619">
-      <c r="G619" s="54"/>
-      <c r="H619" s="55"/>
-      <c r="K619" s="53"/>
+      <c r="G619" s="55"/>
+      <c r="H619" s="56"/>
+      <c r="K619" s="54"/>
     </row>
     <row r="620">
-      <c r="G620" s="54"/>
-      <c r="H620" s="55"/>
-      <c r="K620" s="53"/>
+      <c r="G620" s="55"/>
+      <c r="H620" s="56"/>
+      <c r="K620" s="54"/>
     </row>
     <row r="621">
-      <c r="G621" s="54"/>
-      <c r="H621" s="55"/>
-      <c r="K621" s="53"/>
+      <c r="G621" s="55"/>
+      <c r="H621" s="56"/>
+      <c r="K621" s="54"/>
     </row>
     <row r="622">
-      <c r="G622" s="54"/>
-      <c r="H622" s="55"/>
-      <c r="K622" s="53"/>
+      <c r="G622" s="55"/>
+      <c r="H622" s="56"/>
+      <c r="K622" s="54"/>
     </row>
     <row r="623">
-      <c r="G623" s="54"/>
-      <c r="H623" s="55"/>
-      <c r="K623" s="53"/>
+      <c r="G623" s="55"/>
+      <c r="H623" s="56"/>
+      <c r="K623" s="54"/>
     </row>
     <row r="624">
-      <c r="G624" s="54"/>
-      <c r="H624" s="55"/>
-      <c r="K624" s="53"/>
+      <c r="G624" s="55"/>
+      <c r="H624" s="56"/>
+      <c r="K624" s="54"/>
     </row>
     <row r="625">
-      <c r="G625" s="54"/>
-      <c r="H625" s="55"/>
-      <c r="K625" s="53"/>
+      <c r="G625" s="55"/>
+      <c r="H625" s="56"/>
+      <c r="K625" s="54"/>
     </row>
     <row r="626">
-      <c r="G626" s="54"/>
-      <c r="H626" s="55"/>
-      <c r="K626" s="53"/>
+      <c r="G626" s="55"/>
+      <c r="H626" s="56"/>
+      <c r="K626" s="54"/>
     </row>
     <row r="627">
-      <c r="G627" s="54"/>
-      <c r="H627" s="55"/>
-      <c r="K627" s="53"/>
+      <c r="G627" s="55"/>
+      <c r="H627" s="56"/>
+      <c r="K627" s="54"/>
     </row>
     <row r="628">
-      <c r="G628" s="54"/>
-      <c r="H628" s="55"/>
-      <c r="K628" s="53"/>
+      <c r="G628" s="55"/>
+      <c r="H628" s="56"/>
+      <c r="K628" s="54"/>
     </row>
     <row r="629">
-      <c r="G629" s="54"/>
-      <c r="H629" s="55"/>
-      <c r="K629" s="53"/>
+      <c r="G629" s="55"/>
+      <c r="H629" s="56"/>
+      <c r="K629" s="54"/>
     </row>
     <row r="630">
-      <c r="G630" s="54"/>
-      <c r="H630" s="55"/>
-      <c r="K630" s="53"/>
+      <c r="G630" s="55"/>
+      <c r="H630" s="56"/>
+      <c r="K630" s="54"/>
     </row>
     <row r="631">
-      <c r="G631" s="54"/>
-      <c r="H631" s="55"/>
-      <c r="K631" s="53"/>
+      <c r="G631" s="55"/>
+      <c r="H631" s="56"/>
+      <c r="K631" s="54"/>
     </row>
     <row r="632">
-      <c r="G632" s="54"/>
-      <c r="H632" s="55"/>
-      <c r="K632" s="53"/>
+      <c r="G632" s="55"/>
+      <c r="H632" s="56"/>
+      <c r="K632" s="54"/>
     </row>
     <row r="633">
-      <c r="G633" s="54"/>
-      <c r="H633" s="55"/>
-      <c r="K633" s="53"/>
+      <c r="G633" s="55"/>
+      <c r="H633" s="56"/>
+      <c r="K633" s="54"/>
     </row>
     <row r="634">
-      <c r="G634" s="54"/>
-      <c r="H634" s="55"/>
-      <c r="K634" s="53"/>
+      <c r="G634" s="55"/>
+      <c r="H634" s="56"/>
+      <c r="K634" s="54"/>
     </row>
     <row r="635">
-      <c r="G635" s="54"/>
-      <c r="H635" s="55"/>
-      <c r="K635" s="53"/>
+      <c r="G635" s="55"/>
+      <c r="H635" s="56"/>
+      <c r="K635" s="54"/>
     </row>
     <row r="636">
-      <c r="G636" s="54"/>
-      <c r="H636" s="55"/>
-      <c r="K636" s="53"/>
+      <c r="G636" s="55"/>
+      <c r="H636" s="56"/>
+      <c r="K636" s="54"/>
     </row>
     <row r="637">
-      <c r="G637" s="54"/>
-      <c r="H637" s="55"/>
-      <c r="K637" s="53"/>
+      <c r="G637" s="55"/>
+      <c r="H637" s="56"/>
+      <c r="K637" s="54"/>
     </row>
     <row r="638">
-      <c r="G638" s="54"/>
-      <c r="H638" s="55"/>
-      <c r="K638" s="53"/>
+      <c r="G638" s="55"/>
+      <c r="H638" s="56"/>
+      <c r="K638" s="54"/>
     </row>
     <row r="639">
-      <c r="G639" s="54"/>
-      <c r="H639" s="55"/>
-      <c r="K639" s="53"/>
+      <c r="G639" s="55"/>
+      <c r="H639" s="56"/>
+      <c r="K639" s="54"/>
     </row>
     <row r="640">
-      <c r="G640" s="54"/>
-      <c r="H640" s="55"/>
-      <c r="K640" s="53"/>
+      <c r="G640" s="55"/>
+      <c r="H640" s="56"/>
+      <c r="K640" s="54"/>
     </row>
     <row r="641">
-      <c r="G641" s="54"/>
-      <c r="H641" s="55"/>
-      <c r="K641" s="53"/>
+      <c r="G641" s="55"/>
+      <c r="H641" s="56"/>
+      <c r="K641" s="54"/>
     </row>
     <row r="642">
-      <c r="G642" s="54"/>
-      <c r="H642" s="55"/>
-      <c r="K642" s="53"/>
+      <c r="G642" s="55"/>
+      <c r="H642" s="56"/>
+      <c r="K642" s="54"/>
     </row>
     <row r="643">
-      <c r="G643" s="54"/>
-      <c r="H643" s="55"/>
-      <c r="K643" s="53"/>
+      <c r="G643" s="55"/>
+      <c r="H643" s="56"/>
+      <c r="K643" s="54"/>
     </row>
     <row r="644">
-      <c r="G644" s="54"/>
-      <c r="H644" s="55"/>
-      <c r="K644" s="53"/>
+      <c r="G644" s="55"/>
+      <c r="H644" s="56"/>
+      <c r="K644" s="54"/>
     </row>
     <row r="645">
-      <c r="G645" s="54"/>
-      <c r="H645" s="55"/>
-      <c r="K645" s="53"/>
+      <c r="G645" s="55"/>
+      <c r="H645" s="56"/>
+      <c r="K645" s="54"/>
     </row>
     <row r="646">
-      <c r="G646" s="54"/>
-      <c r="H646" s="55"/>
-      <c r="K646" s="53"/>
+      <c r="G646" s="55"/>
+      <c r="H646" s="56"/>
+      <c r="K646" s="54"/>
     </row>
     <row r="647">
-      <c r="G647" s="54"/>
-      <c r="H647" s="55"/>
-      <c r="K647" s="53"/>
+      <c r="G647" s="55"/>
+      <c r="H647" s="56"/>
+      <c r="K647" s="54"/>
     </row>
     <row r="648">
-      <c r="G648" s="54"/>
-      <c r="H648" s="55"/>
-      <c r="K648" s="53"/>
+      <c r="G648" s="55"/>
+      <c r="H648" s="56"/>
+      <c r="K648" s="54"/>
     </row>
     <row r="649">
-      <c r="G649" s="54"/>
-      <c r="H649" s="55"/>
-      <c r="K649" s="53"/>
+      <c r="G649" s="55"/>
+      <c r="H649" s="56"/>
+      <c r="K649" s="54"/>
     </row>
     <row r="650">
-      <c r="G650" s="54"/>
-      <c r="H650" s="55"/>
-      <c r="K650" s="53"/>
+      <c r="G650" s="55"/>
+      <c r="H650" s="56"/>
+      <c r="K650" s="54"/>
     </row>
     <row r="651">
-      <c r="G651" s="54"/>
-      <c r="H651" s="55"/>
-      <c r="K651" s="53"/>
+      <c r="G651" s="55"/>
+      <c r="H651" s="56"/>
+      <c r="K651" s="54"/>
     </row>
     <row r="652">
-      <c r="G652" s="54"/>
-      <c r="H652" s="55"/>
-      <c r="K652" s="53"/>
+      <c r="G652" s="55"/>
+      <c r="H652" s="56"/>
+      <c r="K652" s="54"/>
     </row>
     <row r="653">
-      <c r="G653" s="54"/>
-      <c r="H653" s="55"/>
-      <c r="K653" s="53"/>
+      <c r="G653" s="55"/>
+      <c r="H653" s="56"/>
+      <c r="K653" s="54"/>
     </row>
     <row r="654">
-      <c r="G654" s="54"/>
-      <c r="H654" s="55"/>
-      <c r="K654" s="53"/>
+      <c r="G654" s="55"/>
+      <c r="H654" s="56"/>
+      <c r="K654" s="54"/>
     </row>
     <row r="655">
-      <c r="G655" s="54"/>
-      <c r="H655" s="55"/>
-      <c r="K655" s="53"/>
+      <c r="G655" s="55"/>
+      <c r="H655" s="56"/>
+      <c r="K655" s="54"/>
     </row>
     <row r="656">
-      <c r="G656" s="54"/>
-      <c r="H656" s="55"/>
-      <c r="K656" s="53"/>
+      <c r="G656" s="55"/>
+      <c r="H656" s="56"/>
+      <c r="K656" s="54"/>
     </row>
     <row r="657">
-      <c r="G657" s="54"/>
-      <c r="H657" s="55"/>
-      <c r="K657" s="53"/>
+      <c r="G657" s="55"/>
+      <c r="H657" s="56"/>
+      <c r="K657" s="54"/>
     </row>
     <row r="658">
-      <c r="G658" s="54"/>
-      <c r="H658" s="55"/>
-      <c r="K658" s="53"/>
+      <c r="G658" s="55"/>
+      <c r="H658" s="56"/>
+      <c r="K658" s="54"/>
     </row>
     <row r="659">
-      <c r="G659" s="54"/>
-      <c r="H659" s="55"/>
-      <c r="K659" s="53"/>
+      <c r="G659" s="55"/>
+      <c r="H659" s="56"/>
+      <c r="K659" s="54"/>
     </row>
     <row r="660">
-      <c r="G660" s="54"/>
-      <c r="H660" s="55"/>
-      <c r="K660" s="53"/>
+      <c r="G660" s="55"/>
+      <c r="H660" s="56"/>
+      <c r="K660" s="54"/>
     </row>
     <row r="661">
-      <c r="G661" s="54"/>
-      <c r="H661" s="55"/>
-      <c r="K661" s="53"/>
+      <c r="G661" s="55"/>
+      <c r="H661" s="56"/>
+      <c r="K661" s="54"/>
     </row>
     <row r="662">
-      <c r="G662" s="54"/>
-      <c r="H662" s="55"/>
-      <c r="K662" s="53"/>
+      <c r="G662" s="55"/>
+      <c r="H662" s="56"/>
+      <c r="K662" s="54"/>
     </row>
     <row r="663">
-      <c r="G663" s="54"/>
-      <c r="H663" s="55"/>
-      <c r="K663" s="53"/>
+      <c r="G663" s="55"/>
+      <c r="H663" s="56"/>
+      <c r="K663" s="54"/>
     </row>
     <row r="664">
-      <c r="G664" s="54"/>
-      <c r="H664" s="55"/>
-      <c r="K664" s="53"/>
+      <c r="G664" s="55"/>
+      <c r="H664" s="56"/>
+      <c r="K664" s="54"/>
     </row>
     <row r="665">
-      <c r="G665" s="54"/>
-      <c r="H665" s="55"/>
-      <c r="K665" s="53"/>
+      <c r="G665" s="55"/>
+      <c r="H665" s="56"/>
+      <c r="K665" s="54"/>
     </row>
     <row r="666">
-      <c r="G666" s="54"/>
-      <c r="H666" s="55"/>
-      <c r="K666" s="53"/>
+      <c r="G666" s="55"/>
+      <c r="H666" s="56"/>
+      <c r="K666" s="54"/>
     </row>
     <row r="667">
-      <c r="G667" s="54"/>
-      <c r="H667" s="55"/>
-      <c r="K667" s="53"/>
+      <c r="G667" s="55"/>
+      <c r="H667" s="56"/>
+      <c r="K667" s="54"/>
     </row>
     <row r="668">
-      <c r="G668" s="54"/>
-      <c r="H668" s="55"/>
-      <c r="K668" s="53"/>
+      <c r="G668" s="55"/>
+      <c r="H668" s="56"/>
+      <c r="K668" s="54"/>
     </row>
     <row r="669">
-      <c r="G669" s="54"/>
-      <c r="H669" s="55"/>
-      <c r="K669" s="53"/>
+      <c r="G669" s="55"/>
+      <c r="H669" s="56"/>
+      <c r="K669" s="54"/>
     </row>
     <row r="670">
-      <c r="G670" s="54"/>
-      <c r="H670" s="55"/>
-      <c r="K670" s="53"/>
+      <c r="G670" s="55"/>
+      <c r="H670" s="56"/>
+      <c r="K670" s="54"/>
     </row>
     <row r="671">
-      <c r="G671" s="54"/>
-      <c r="H671" s="55"/>
-      <c r="K671" s="53"/>
+      <c r="G671" s="55"/>
+      <c r="H671" s="56"/>
+      <c r="K671" s="54"/>
     </row>
     <row r="672">
-      <c r="G672" s="54"/>
-      <c r="H672" s="55"/>
-      <c r="K672" s="53"/>
+      <c r="G672" s="55"/>
+      <c r="H672" s="56"/>
+      <c r="K672" s="54"/>
     </row>
     <row r="673">
-      <c r="G673" s="54"/>
-      <c r="H673" s="55"/>
-      <c r="K673" s="53"/>
+      <c r="G673" s="55"/>
+      <c r="H673" s="56"/>
+      <c r="K673" s="54"/>
     </row>
     <row r="674">
-      <c r="G674" s="54"/>
-      <c r="H674" s="55"/>
-      <c r="K674" s="53"/>
+      <c r="G674" s="55"/>
+      <c r="H674" s="56"/>
+      <c r="K674" s="54"/>
     </row>
     <row r="675">
-      <c r="G675" s="54"/>
-      <c r="H675" s="55"/>
-      <c r="K675" s="53"/>
+      <c r="G675" s="55"/>
+      <c r="H675" s="56"/>
+      <c r="K675" s="54"/>
     </row>
     <row r="676">
-      <c r="G676" s="54"/>
-      <c r="H676" s="55"/>
-      <c r="K676" s="53"/>
+      <c r="G676" s="55"/>
+      <c r="H676" s="56"/>
+      <c r="K676" s="54"/>
     </row>
     <row r="677">
-      <c r="G677" s="54"/>
-      <c r="H677" s="55"/>
-      <c r="K677" s="53"/>
+      <c r="G677" s="55"/>
+      <c r="H677" s="56"/>
+      <c r="K677" s="54"/>
     </row>
     <row r="678">
-      <c r="G678" s="54"/>
-      <c r="H678" s="55"/>
-      <c r="K678" s="53"/>
+      <c r="G678" s="55"/>
+      <c r="H678" s="56"/>
+      <c r="K678" s="54"/>
     </row>
     <row r="679">
-      <c r="G679" s="54"/>
-      <c r="H679" s="55"/>
-      <c r="K679" s="53"/>
+      <c r="G679" s="55"/>
+      <c r="H679" s="56"/>
+      <c r="K679" s="54"/>
     </row>
     <row r="680">
-      <c r="G680" s="54"/>
-      <c r="H680" s="55"/>
-      <c r="K680" s="53"/>
+      <c r="G680" s="55"/>
+      <c r="H680" s="56"/>
+      <c r="K680" s="54"/>
     </row>
     <row r="681">
-      <c r="G681" s="54"/>
-      <c r="H681" s="55"/>
-      <c r="K681" s="53"/>
+      <c r="G681" s="55"/>
+      <c r="H681" s="56"/>
+      <c r="K681" s="54"/>
     </row>
     <row r="682">
-      <c r="G682" s="54"/>
-      <c r="H682" s="55"/>
-      <c r="K682" s="53"/>
+      <c r="G682" s="55"/>
+      <c r="H682" s="56"/>
+      <c r="K682" s="54"/>
     </row>
     <row r="683">
-      <c r="G683" s="54"/>
-      <c r="H683" s="55"/>
-      <c r="K683" s="53"/>
+      <c r="G683" s="55"/>
+      <c r="H683" s="56"/>
+      <c r="K683" s="54"/>
     </row>
     <row r="684">
-      <c r="G684" s="54"/>
-      <c r="H684" s="55"/>
-      <c r="K684" s="53"/>
+      <c r="G684" s="55"/>
+      <c r="H684" s="56"/>
+      <c r="K684" s="54"/>
     </row>
     <row r="685">
-      <c r="G685" s="54"/>
-      <c r="H685" s="55"/>
-      <c r="K685" s="53"/>
+      <c r="G685" s="55"/>
+      <c r="H685" s="56"/>
+      <c r="K685" s="54"/>
     </row>
     <row r="686">
-      <c r="G686" s="54"/>
-      <c r="H686" s="55"/>
-      <c r="K686" s="53"/>
+      <c r="G686" s="55"/>
+      <c r="H686" s="56"/>
+      <c r="K686" s="54"/>
     </row>
     <row r="687">
-      <c r="G687" s="54"/>
-      <c r="H687" s="55"/>
-      <c r="K687" s="53"/>
+      <c r="G687" s="55"/>
+      <c r="H687" s="56"/>
+      <c r="K687" s="54"/>
     </row>
     <row r="688">
-      <c r="G688" s="54"/>
-      <c r="H688" s="55"/>
-      <c r="K688" s="53"/>
+      <c r="G688" s="55"/>
+      <c r="H688" s="56"/>
+      <c r="K688" s="54"/>
     </row>
     <row r="689">
-      <c r="G689" s="54"/>
-      <c r="H689" s="55"/>
-      <c r="K689" s="53"/>
+      <c r="G689" s="55"/>
+      <c r="H689" s="56"/>
+      <c r="K689" s="54"/>
     </row>
     <row r="690">
-      <c r="G690" s="54"/>
-      <c r="H690" s="55"/>
-      <c r="K690" s="53"/>
+      <c r="G690" s="55"/>
+      <c r="H690" s="56"/>
+      <c r="K690" s="54"/>
     </row>
     <row r="691">
-      <c r="G691" s="54"/>
-      <c r="H691" s="55"/>
-      <c r="K691" s="53"/>
+      <c r="G691" s="55"/>
+      <c r="H691" s="56"/>
+      <c r="K691" s="54"/>
     </row>
     <row r="692">
-      <c r="G692" s="54"/>
-      <c r="H692" s="55"/>
-      <c r="K692" s="53"/>
+      <c r="G692" s="55"/>
+      <c r="H692" s="56"/>
+      <c r="K692" s="54"/>
     </row>
     <row r="693">
-      <c r="G693" s="54"/>
-      <c r="H693" s="55"/>
-      <c r="K693" s="53"/>
+      <c r="G693" s="55"/>
+      <c r="H693" s="56"/>
+      <c r="K693" s="54"/>
     </row>
     <row r="694">
-      <c r="G694" s="54"/>
-      <c r="H694" s="55"/>
-      <c r="K694" s="53"/>
+      <c r="G694" s="55"/>
+      <c r="H694" s="56"/>
+      <c r="K694" s="54"/>
     </row>
     <row r="695">
-      <c r="G695" s="54"/>
-      <c r="H695" s="55"/>
-      <c r="K695" s="53"/>
+      <c r="G695" s="55"/>
+      <c r="H695" s="56"/>
+      <c r="K695" s="54"/>
     </row>
     <row r="696">
-      <c r="G696" s="54"/>
-      <c r="H696" s="55"/>
-      <c r="K696" s="53"/>
+      <c r="G696" s="55"/>
+      <c r="H696" s="56"/>
+      <c r="K696" s="54"/>
     </row>
     <row r="697">
-      <c r="G697" s="54"/>
-      <c r="H697" s="55"/>
-      <c r="K697" s="53"/>
+      <c r="G697" s="55"/>
+      <c r="H697" s="56"/>
+      <c r="K697" s="54"/>
     </row>
     <row r="698">
-      <c r="G698" s="54"/>
-      <c r="H698" s="55"/>
-      <c r="K698" s="53"/>
+      <c r="G698" s="55"/>
+      <c r="H698" s="56"/>
+      <c r="K698" s="54"/>
     </row>
     <row r="699">
-      <c r="G699" s="54"/>
-      <c r="H699" s="55"/>
-      <c r="K699" s="53"/>
+      <c r="G699" s="55"/>
+      <c r="H699" s="56"/>
+      <c r="K699" s="54"/>
     </row>
     <row r="700">
-      <c r="G700" s="54"/>
-      <c r="H700" s="55"/>
-      <c r="K700" s="53"/>
+      <c r="G700" s="55"/>
+      <c r="H700" s="56"/>
+      <c r="K700" s="54"/>
     </row>
     <row r="701">
-      <c r="G701" s="54"/>
-      <c r="H701" s="55"/>
-      <c r="K701" s="53"/>
+      <c r="G701" s="55"/>
+      <c r="H701" s="56"/>
+      <c r="K701" s="54"/>
     </row>
     <row r="702">
-      <c r="G702" s="54"/>
-      <c r="H702" s="55"/>
-      <c r="K702" s="53"/>
+      <c r="G702" s="55"/>
+      <c r="H702" s="56"/>
+      <c r="K702" s="54"/>
     </row>
     <row r="703">
-      <c r="G703" s="54"/>
-      <c r="H703" s="55"/>
-      <c r="K703" s="53"/>
+      <c r="G703" s="55"/>
+      <c r="H703" s="56"/>
+      <c r="K703" s="54"/>
     </row>
     <row r="704">
-      <c r="G704" s="54"/>
-      <c r="H704" s="55"/>
-      <c r="K704" s="53"/>
+      <c r="G704" s="55"/>
+      <c r="H704" s="56"/>
+      <c r="K704" s="54"/>
     </row>
     <row r="705">
-      <c r="G705" s="54"/>
-      <c r="H705" s="55"/>
-      <c r="K705" s="53"/>
+      <c r="G705" s="55"/>
+      <c r="H705" s="56"/>
+      <c r="K705" s="54"/>
     </row>
     <row r="706">
-      <c r="G706" s="54"/>
-      <c r="H706" s="55"/>
-      <c r="K706" s="53"/>
+      <c r="G706" s="55"/>
+      <c r="H706" s="56"/>
+      <c r="K706" s="54"/>
     </row>
     <row r="707">
-      <c r="G707" s="54"/>
-      <c r="H707" s="55"/>
-      <c r="K707" s="53"/>
+      <c r="G707" s="55"/>
+      <c r="H707" s="56"/>
+      <c r="K707" s="54"/>
     </row>
     <row r="708">
-      <c r="G708" s="54"/>
-      <c r="H708" s="55"/>
-      <c r="K708" s="53"/>
+      <c r="G708" s="55"/>
+      <c r="H708" s="56"/>
+      <c r="K708" s="54"/>
     </row>
     <row r="709">
-      <c r="G709" s="54"/>
-      <c r="H709" s="55"/>
-      <c r="K709" s="53"/>
+      <c r="G709" s="55"/>
+      <c r="H709" s="56"/>
+      <c r="K709" s="54"/>
     </row>
     <row r="710">
-      <c r="G710" s="54"/>
-      <c r="H710" s="55"/>
-      <c r="K710" s="53"/>
+      <c r="G710" s="55"/>
+      <c r="H710" s="56"/>
+      <c r="K710" s="54"/>
     </row>
     <row r="711">
-      <c r="G711" s="54"/>
-      <c r="H711" s="55"/>
-      <c r="K711" s="53"/>
+      <c r="G711" s="55"/>
+      <c r="H711" s="56"/>
+      <c r="K711" s="54"/>
     </row>
     <row r="712">
-      <c r="G712" s="54"/>
-      <c r="H712" s="55"/>
-      <c r="K712" s="53"/>
+      <c r="G712" s="55"/>
+      <c r="H712" s="56"/>
+      <c r="K712" s="54"/>
     </row>
     <row r="713">
-      <c r="G713" s="54"/>
-      <c r="H713" s="55"/>
-      <c r="K713" s="53"/>
+      <c r="G713" s="55"/>
+      <c r="H713" s="56"/>
+      <c r="K713" s="54"/>
     </row>
     <row r="714">
-      <c r="G714" s="54"/>
-      <c r="H714" s="55"/>
-      <c r="K714" s="53"/>
+      <c r="G714" s="55"/>
+      <c r="H714" s="56"/>
+      <c r="K714" s="54"/>
     </row>
     <row r="715">
-      <c r="G715" s="54"/>
-      <c r="H715" s="55"/>
-      <c r="K715" s="53"/>
+      <c r="G715" s="55"/>
+      <c r="H715" s="56"/>
+      <c r="K715" s="54"/>
     </row>
     <row r="716">
-      <c r="G716" s="54"/>
-      <c r="H716" s="55"/>
-      <c r="K716" s="53"/>
+      <c r="G716" s="55"/>
+      <c r="H716" s="56"/>
+      <c r="K716" s="54"/>
     </row>
     <row r="717">
-      <c r="G717" s="54"/>
-      <c r="H717" s="55"/>
-      <c r="K717" s="53"/>
+      <c r="G717" s="55"/>
+      <c r="H717" s="56"/>
+      <c r="K717" s="54"/>
     </row>
     <row r="718">
-      <c r="G718" s="54"/>
-      <c r="H718" s="55"/>
-      <c r="K718" s="53"/>
+      <c r="G718" s="55"/>
+      <c r="H718" s="56"/>
+      <c r="K718" s="54"/>
     </row>
     <row r="719">
-      <c r="G719" s="54"/>
-      <c r="H719" s="55"/>
-      <c r="K719" s="53"/>
+      <c r="G719" s="55"/>
+      <c r="H719" s="56"/>
+      <c r="K719" s="54"/>
     </row>
     <row r="720">
-      <c r="G720" s="54"/>
-      <c r="H720" s="55"/>
-      <c r="K720" s="53"/>
+      <c r="G720" s="55"/>
+      <c r="H720" s="56"/>
+      <c r="K720" s="54"/>
     </row>
     <row r="721">
-      <c r="G721" s="54"/>
-      <c r="H721" s="55"/>
-      <c r="K721" s="53"/>
+      <c r="G721" s="55"/>
+      <c r="H721" s="56"/>
+      <c r="K721" s="54"/>
     </row>
     <row r="722">
-      <c r="G722" s="54"/>
-      <c r="H722" s="55"/>
-      <c r="K722" s="53"/>
+      <c r="G722" s="55"/>
+      <c r="H722" s="56"/>
+      <c r="K722" s="54"/>
     </row>
     <row r="723">
-      <c r="G723" s="54"/>
-      <c r="H723" s="55"/>
-      <c r="K723" s="53"/>
+      <c r="G723" s="55"/>
+      <c r="H723" s="56"/>
+      <c r="K723" s="54"/>
     </row>
     <row r="724">
-      <c r="G724" s="54"/>
-      <c r="H724" s="55"/>
-      <c r="K724" s="53"/>
+      <c r="G724" s="55"/>
+      <c r="H724" s="56"/>
+      <c r="K724" s="54"/>
     </row>
     <row r="725">
-      <c r="G725" s="54"/>
-      <c r="H725" s="55"/>
-      <c r="K725" s="53"/>
+      <c r="G725" s="55"/>
+      <c r="H725" s="56"/>
+      <c r="K725" s="54"/>
     </row>
     <row r="726">
-      <c r="G726" s="54"/>
-      <c r="H726" s="55"/>
-      <c r="K726" s="53"/>
+      <c r="G726" s="55"/>
+      <c r="H726" s="56"/>
+      <c r="K726" s="54"/>
     </row>
     <row r="727">
-      <c r="G727" s="54"/>
-      <c r="H727" s="55"/>
-      <c r="K727" s="53"/>
+      <c r="G727" s="55"/>
+      <c r="H727" s="56"/>
+      <c r="K727" s="54"/>
     </row>
     <row r="728">
-      <c r="G728" s="54"/>
-      <c r="H728" s="55"/>
-      <c r="K728" s="53"/>
+      <c r="G728" s="55"/>
+      <c r="H728" s="56"/>
+      <c r="K728" s="54"/>
     </row>
     <row r="729">
-      <c r="G729" s="54"/>
-      <c r="H729" s="55"/>
-      <c r="K729" s="53"/>
+      <c r="G729" s="55"/>
+      <c r="H729" s="56"/>
+      <c r="K729" s="54"/>
     </row>
     <row r="730">
-      <c r="G730" s="54"/>
-      <c r="H730" s="55"/>
-      <c r="K730" s="53"/>
+      <c r="G730" s="55"/>
+      <c r="H730" s="56"/>
+      <c r="K730" s="54"/>
     </row>
     <row r="731">
-      <c r="G731" s="54"/>
-      <c r="H731" s="55"/>
-      <c r="K731" s="53"/>
+      <c r="G731" s="55"/>
+      <c r="H731" s="56"/>
+      <c r="K731" s="54"/>
     </row>
     <row r="732">
-      <c r="G732" s="54"/>
-      <c r="H732" s="55"/>
-      <c r="K732" s="53"/>
+      <c r="G732" s="55"/>
+      <c r="H732" s="56"/>
+      <c r="K732" s="54"/>
     </row>
     <row r="733">
-      <c r="G733" s="54"/>
-      <c r="H733" s="55"/>
-      <c r="K733" s="53"/>
+      <c r="G733" s="55"/>
+      <c r="H733" s="56"/>
+      <c r="K733" s="54"/>
     </row>
     <row r="734">
-      <c r="G734" s="54"/>
-      <c r="H734" s="55"/>
-      <c r="K734" s="53"/>
+      <c r="G734" s="55"/>
+      <c r="H734" s="56"/>
+      <c r="K734" s="54"/>
     </row>
     <row r="735">
-      <c r="G735" s="54"/>
-      <c r="H735" s="55"/>
-      <c r="K735" s="53"/>
+      <c r="G735" s="55"/>
+      <c r="H735" s="56"/>
+      <c r="K735" s="54"/>
     </row>
     <row r="736">
-      <c r="G736" s="54"/>
-      <c r="H736" s="55"/>
-      <c r="K736" s="53"/>
+      <c r="G736" s="55"/>
+      <c r="H736" s="56"/>
+      <c r="K736" s="54"/>
     </row>
     <row r="737">
-      <c r="G737" s="54"/>
-      <c r="H737" s="55"/>
-      <c r="K737" s="53"/>
+      <c r="G737" s="55"/>
+      <c r="H737" s="56"/>
+      <c r="K737" s="54"/>
     </row>
     <row r="738">
-      <c r="G738" s="54"/>
-      <c r="H738" s="55"/>
-      <c r="K738" s="53"/>
+      <c r="G738" s="55"/>
+      <c r="H738" s="56"/>
+      <c r="K738" s="54"/>
     </row>
     <row r="739">
-      <c r="G739" s="54"/>
-      <c r="H739" s="55"/>
-      <c r="K739" s="53"/>
+      <c r="G739" s="55"/>
+      <c r="H739" s="56"/>
+      <c r="K739" s="54"/>
     </row>
     <row r="740">
-      <c r="G740" s="54"/>
-      <c r="H740" s="55"/>
-      <c r="K740" s="53"/>
+      <c r="G740" s="55"/>
+      <c r="H740" s="56"/>
+      <c r="K740" s="54"/>
     </row>
     <row r="741">
-      <c r="G741" s="54"/>
-      <c r="H741" s="55"/>
-      <c r="K741" s="53"/>
+      <c r="G741" s="55"/>
+      <c r="H741" s="56"/>
+      <c r="K741" s="54"/>
     </row>
     <row r="742">
-      <c r="G742" s="54"/>
-      <c r="H742" s="55"/>
-      <c r="K742" s="53"/>
+      <c r="G742" s="55"/>
+      <c r="H742" s="56"/>
+      <c r="K742" s="54"/>
     </row>
     <row r="743">
-      <c r="G743" s="54"/>
-      <c r="H743" s="55"/>
-      <c r="K743" s="53"/>
+      <c r="G743" s="55"/>
+      <c r="H743" s="56"/>
+      <c r="K743" s="54"/>
     </row>
     <row r="744">
-      <c r="G744" s="54"/>
-      <c r="H744" s="55"/>
-      <c r="K744" s="53"/>
+      <c r="G744" s="55"/>
+      <c r="H744" s="56"/>
+      <c r="K744" s="54"/>
     </row>
     <row r="745">
-      <c r="G745" s="54"/>
-      <c r="H745" s="55"/>
-      <c r="K745" s="53"/>
+      <c r="G745" s="55"/>
+      <c r="H745" s="56"/>
+      <c r="K745" s="54"/>
     </row>
     <row r="746">
-      <c r="G746" s="54"/>
-      <c r="H746" s="55"/>
-      <c r="K746" s="53"/>
+      <c r="G746" s="55"/>
+      <c r="H746" s="56"/>
+      <c r="K746" s="54"/>
     </row>
     <row r="747">
-      <c r="G747" s="54"/>
-      <c r="H747" s="55"/>
-      <c r="K747" s="53"/>
+      <c r="G747" s="55"/>
+      <c r="H747" s="56"/>
+      <c r="K747" s="54"/>
     </row>
     <row r="748">
-      <c r="G748" s="54"/>
-      <c r="H748" s="55"/>
-      <c r="K748" s="53"/>
+      <c r="G748" s="55"/>
+      <c r="H748" s="56"/>
+      <c r="K748" s="54"/>
     </row>
     <row r="749">
-      <c r="G749" s="54"/>
-      <c r="H749" s="55"/>
-      <c r="K749" s="53"/>
+      <c r="G749" s="55"/>
+      <c r="H749" s="56"/>
+      <c r="K749" s="54"/>
     </row>
     <row r="750">
-      <c r="G750" s="54"/>
-      <c r="H750" s="55"/>
-      <c r="K750" s="53"/>
+      <c r="G750" s="55"/>
+      <c r="H750" s="56"/>
+      <c r="K750" s="54"/>
     </row>
     <row r="751">
-      <c r="G751" s="54"/>
-      <c r="H751" s="55"/>
-      <c r="K751" s="53"/>
+      <c r="G751" s="55"/>
+      <c r="H751" s="56"/>
+      <c r="K751" s="54"/>
     </row>
     <row r="752">
-      <c r="G752" s="54"/>
-      <c r="H752" s="55"/>
-      <c r="K752" s="53"/>
+      <c r="G752" s="55"/>
+      <c r="H752" s="56"/>
+      <c r="K752" s="54"/>
     </row>
     <row r="753">
-      <c r="G753" s="54"/>
-      <c r="H753" s="55"/>
-      <c r="K753" s="53"/>
+      <c r="G753" s="55"/>
+      <c r="H753" s="56"/>
+      <c r="K753" s="54"/>
     </row>
     <row r="754">
-      <c r="G754" s="54"/>
-      <c r="H754" s="55"/>
-      <c r="K754" s="53"/>
+      <c r="G754" s="55"/>
+      <c r="H754" s="56"/>
+      <c r="K754" s="54"/>
     </row>
     <row r="755">
-      <c r="G755" s="54"/>
-      <c r="H755" s="55"/>
-      <c r="K755" s="53"/>
+      <c r="G755" s="55"/>
+      <c r="H755" s="56"/>
+      <c r="K755" s="54"/>
     </row>
     <row r="756">
-      <c r="G756" s="54"/>
-      <c r="H756" s="55"/>
-      <c r="K756" s="53"/>
+      <c r="G756" s="55"/>
+      <c r="H756" s="56"/>
+      <c r="K756" s="54"/>
     </row>
     <row r="757">
-      <c r="G757" s="54"/>
-      <c r="H757" s="55"/>
-      <c r="K757" s="53"/>
+      <c r="G757" s="55"/>
+      <c r="H757" s="56"/>
+      <c r="K757" s="54"/>
     </row>
     <row r="758">
-      <c r="G758" s="54"/>
-      <c r="H758" s="55"/>
-      <c r="K758" s="53"/>
+      <c r="G758" s="55"/>
+      <c r="H758" s="56"/>
+      <c r="K758" s="54"/>
     </row>
     <row r="759">
-      <c r="G759" s="54"/>
-      <c r="H759" s="55"/>
-      <c r="K759" s="53"/>
+      <c r="G759" s="55"/>
+      <c r="H759" s="56"/>
+      <c r="K759" s="54"/>
     </row>
     <row r="760">
-      <c r="G760" s="54"/>
-      <c r="H760" s="55"/>
-      <c r="K760" s="53"/>
+      <c r="G760" s="55"/>
+      <c r="H760" s="56"/>
+      <c r="K760" s="54"/>
     </row>
     <row r="761">
-      <c r="G761" s="54"/>
-      <c r="H761" s="55"/>
-      <c r="K761" s="53"/>
+      <c r="G761" s="55"/>
+      <c r="H761" s="56"/>
+      <c r="K761" s="54"/>
     </row>
     <row r="762">
-      <c r="G762" s="54"/>
-      <c r="H762" s="55"/>
-      <c r="K762" s="53"/>
+      <c r="G762" s="55"/>
+      <c r="H762" s="56"/>
+      <c r="K762" s="54"/>
     </row>
     <row r="763">
-      <c r="G763" s="54"/>
-      <c r="H763" s="55"/>
-      <c r="K763" s="53"/>
+      <c r="G763" s="55"/>
+      <c r="H763" s="56"/>
+      <c r="K763" s="54"/>
     </row>
     <row r="764">
-      <c r="G764" s="54"/>
-      <c r="H764" s="55"/>
-      <c r="K764" s="53"/>
+      <c r="G764" s="55"/>
+      <c r="H764" s="56"/>
+      <c r="K764" s="54"/>
     </row>
     <row r="765">
-      <c r="G765" s="54"/>
-      <c r="H765" s="55"/>
-      <c r="K765" s="53"/>
+      <c r="G765" s="55"/>
+      <c r="H765" s="56"/>
+      <c r="K765" s="54"/>
     </row>
     <row r="766">
-      <c r="G766" s="54"/>
-      <c r="H766" s="55"/>
-      <c r="K766" s="53"/>
+      <c r="G766" s="55"/>
+      <c r="H766" s="56"/>
+      <c r="K766" s="54"/>
     </row>
     <row r="767">
-      <c r="G767" s="54"/>
-      <c r="H767" s="55"/>
-      <c r="K767" s="53"/>
+      <c r="G767" s="55"/>
+      <c r="H767" s="56"/>
+      <c r="K767" s="54"/>
     </row>
     <row r="768">
-      <c r="G768" s="54"/>
-      <c r="H768" s="55"/>
-      <c r="K768" s="53"/>
+      <c r="G768" s="55"/>
+      <c r="H768" s="56"/>
+      <c r="K768" s="54"/>
     </row>
     <row r="769">
-      <c r="G769" s="54"/>
-      <c r="H769" s="55"/>
-      <c r="K769" s="53"/>
+      <c r="G769" s="55"/>
+      <c r="H769" s="56"/>
+      <c r="K769" s="54"/>
     </row>
     <row r="770">
-      <c r="G770" s="54"/>
-      <c r="H770" s="55"/>
-      <c r="K770" s="53"/>
+      <c r="G770" s="55"/>
+      <c r="H770" s="56"/>
+      <c r="K770" s="54"/>
     </row>
     <row r="771">
-      <c r="G771" s="54"/>
-      <c r="H771" s="55"/>
-      <c r="K771" s="53"/>
+      <c r="G771" s="55"/>
+      <c r="H771" s="56"/>
+      <c r="K771" s="54"/>
     </row>
     <row r="772">
-      <c r="G772" s="54"/>
-      <c r="H772" s="55"/>
-      <c r="K772" s="53"/>
+      <c r="G772" s="55"/>
+      <c r="H772" s="56"/>
+      <c r="K772" s="54"/>
     </row>
     <row r="773">
-      <c r="G773" s="54"/>
-      <c r="H773" s="55"/>
-      <c r="K773" s="53"/>
+      <c r="G773" s="55"/>
+      <c r="H773" s="56"/>
+      <c r="K773" s="54"/>
     </row>
     <row r="774">
-      <c r="G774" s="54"/>
-      <c r="H774" s="55"/>
-      <c r="K774" s="53"/>
+      <c r="G774" s="55"/>
+      <c r="H774" s="56"/>
+      <c r="K774" s="54"/>
     </row>
     <row r="775">
-      <c r="G775" s="54"/>
-      <c r="H775" s="55"/>
-      <c r="K775" s="53"/>
+      <c r="G775" s="55"/>
+      <c r="H775" s="56"/>
+      <c r="K775" s="54"/>
     </row>
     <row r="776">
-      <c r="G776" s="54"/>
-      <c r="H776" s="55"/>
-      <c r="K776" s="53"/>
+      <c r="G776" s="55"/>
+      <c r="H776" s="56"/>
+      <c r="K776" s="54"/>
     </row>
     <row r="777">
-      <c r="G777" s="54"/>
-      <c r="H777" s="55"/>
-      <c r="K777" s="53"/>
+      <c r="G777" s="55"/>
+      <c r="H777" s="56"/>
+      <c r="K777" s="54"/>
     </row>
     <row r="778">
-      <c r="G778" s="54"/>
-      <c r="H778" s="55"/>
-      <c r="K778" s="53"/>
+      <c r="G778" s="55"/>
+      <c r="H778" s="56"/>
+      <c r="K778" s="54"/>
     </row>
     <row r="779">
-      <c r="G779" s="54"/>
-      <c r="H779" s="55"/>
-      <c r="K779" s="53"/>
+      <c r="G779" s="55"/>
+      <c r="H779" s="56"/>
+      <c r="K779" s="54"/>
     </row>
     <row r="780">
-      <c r="G780" s="54"/>
-      <c r="H780" s="55"/>
-      <c r="K780" s="53"/>
+      <c r="G780" s="55"/>
+      <c r="H780" s="56"/>
+      <c r="K780" s="54"/>
     </row>
     <row r="781">
-      <c r="G781" s="54"/>
-      <c r="H781" s="55"/>
-      <c r="K781" s="53"/>
+      <c r="G781" s="55"/>
+      <c r="H781" s="56"/>
+      <c r="K781" s="54"/>
     </row>
     <row r="782">
-      <c r="G782" s="54"/>
-      <c r="H782" s="55"/>
-      <c r="K782" s="53"/>
+      <c r="G782" s="55"/>
+      <c r="H782" s="56"/>
+      <c r="K782" s="54"/>
     </row>
     <row r="783">
-      <c r="G783" s="54"/>
-      <c r="H783" s="55"/>
-      <c r="K783" s="53"/>
+      <c r="G783" s="55"/>
+      <c r="H783" s="56"/>
+      <c r="K783" s="54"/>
     </row>
     <row r="784">
-      <c r="G784" s="54"/>
-      <c r="H784" s="55"/>
-      <c r="K784" s="53"/>
+      <c r="G784" s="55"/>
+      <c r="H784" s="56"/>
+      <c r="K784" s="54"/>
     </row>
     <row r="785">
-      <c r="G785" s="54"/>
-      <c r="H785" s="55"/>
-      <c r="K785" s="53"/>
+      <c r="G785" s="55"/>
+      <c r="H785" s="56"/>
+      <c r="K785" s="54"/>
     </row>
     <row r="786">
-      <c r="G786" s="54"/>
-      <c r="H786" s="55"/>
-      <c r="K786" s="53"/>
+      <c r="G786" s="55"/>
+      <c r="H786" s="56"/>
+      <c r="K786" s="54"/>
     </row>
     <row r="787">
-      <c r="G787" s="54"/>
-      <c r="H787" s="55"/>
-      <c r="K787" s="53"/>
+      <c r="G787" s="55"/>
+      <c r="H787" s="56"/>
+      <c r="K787" s="54"/>
     </row>
     <row r="788">
-      <c r="G788" s="54"/>
-      <c r="H788" s="55"/>
-      <c r="K788" s="53"/>
+      <c r="G788" s="55"/>
+      <c r="H788" s="56"/>
+      <c r="K788" s="54"/>
     </row>
     <row r="789">
-      <c r="G789" s="54"/>
-      <c r="H789" s="55"/>
-      <c r="K789" s="53"/>
+      <c r="G789" s="55"/>
+      <c r="H789" s="56"/>
+      <c r="K789" s="54"/>
     </row>
     <row r="790">
-      <c r="G790" s="54"/>
-      <c r="H790" s="55"/>
-      <c r="K790" s="53"/>
+      <c r="G790" s="55"/>
+      <c r="H790" s="56"/>
+      <c r="K790" s="54"/>
     </row>
     <row r="791">
-      <c r="G791" s="54"/>
-      <c r="H791" s="55"/>
-      <c r="K791" s="53"/>
+      <c r="G791" s="55"/>
+      <c r="H791" s="56"/>
+      <c r="K791" s="54"/>
     </row>
     <row r="792">
-      <c r="G792" s="54"/>
-      <c r="H792" s="55"/>
-      <c r="K792" s="53"/>
+      <c r="G792" s="55"/>
+      <c r="H792" s="56"/>
+      <c r="K792" s="54"/>
     </row>
     <row r="793">
-      <c r="G793" s="54"/>
-      <c r="H793" s="55"/>
-      <c r="K793" s="53"/>
+      <c r="G793" s="55"/>
+      <c r="H793" s="56"/>
+      <c r="K793" s="54"/>
     </row>
     <row r="794">
-      <c r="G794" s="54"/>
-      <c r="H794" s="55"/>
-      <c r="K794" s="53"/>
+      <c r="G794" s="55"/>
+      <c r="H794" s="56"/>
+      <c r="K794" s="54"/>
     </row>
     <row r="795">
-      <c r="G795" s="54"/>
-      <c r="H795" s="55"/>
-      <c r="K795" s="53"/>
+      <c r="G795" s="55"/>
+      <c r="H795" s="56"/>
+      <c r="K795" s="54"/>
     </row>
     <row r="796">
-      <c r="G796" s="54"/>
-      <c r="H796" s="55"/>
-      <c r="K796" s="53"/>
+      <c r="G796" s="55"/>
+      <c r="H796" s="56"/>
+      <c r="K796" s="54"/>
     </row>
     <row r="797">
-      <c r="G797" s="54"/>
-      <c r="H797" s="55"/>
-      <c r="K797" s="53"/>
+      <c r="G797" s="55"/>
+      <c r="H797" s="56"/>
+      <c r="K797" s="54"/>
     </row>
     <row r="798">
-      <c r="G798" s="54"/>
-      <c r="H798" s="55"/>
-      <c r="K798" s="53"/>
+      <c r="G798" s="55"/>
+      <c r="H798" s="56"/>
+      <c r="K798" s="54"/>
     </row>
     <row r="799">
-      <c r="G799" s="54"/>
-      <c r="H799" s="55"/>
-      <c r="K799" s="53"/>
+      <c r="G799" s="55"/>
+      <c r="H799" s="56"/>
+      <c r="K799" s="54"/>
     </row>
     <row r="800">
-      <c r="G800" s="54"/>
-      <c r="H800" s="55"/>
-      <c r="K800" s="53"/>
+      <c r="G800" s="55"/>
+      <c r="H800" s="56"/>
+      <c r="K800" s="54"/>
     </row>
     <row r="801">
-      <c r="G801" s="54"/>
-      <c r="H801" s="55"/>
-      <c r="K801" s="53"/>
+      <c r="G801" s="55"/>
+      <c r="H801" s="56"/>
+      <c r="K801" s="54"/>
     </row>
     <row r="802">
-      <c r="G802" s="54"/>
-      <c r="H802" s="55"/>
-      <c r="K802" s="53"/>
+      <c r="G802" s="55"/>
+      <c r="H802" s="56"/>
+      <c r="K802" s="54"/>
     </row>
     <row r="803">
-      <c r="G803" s="54"/>
-      <c r="H803" s="55"/>
-      <c r="K803" s="53"/>
+      <c r="G803" s="55"/>
+      <c r="H803" s="56"/>
+      <c r="K803" s="54"/>
     </row>
     <row r="804">
-      <c r="G804" s="54"/>
-      <c r="H804" s="55"/>
-      <c r="K804" s="53"/>
+      <c r="G804" s="55"/>
+      <c r="H804" s="56"/>
+      <c r="K804" s="54"/>
     </row>
     <row r="805">
-      <c r="G805" s="54"/>
-      <c r="H805" s="55"/>
-      <c r="K805" s="53"/>
+      <c r="G805" s="55"/>
+      <c r="H805" s="56"/>
+      <c r="K805" s="54"/>
     </row>
     <row r="806">
-      <c r="G806" s="54"/>
-      <c r="H806" s="55"/>
-      <c r="K806" s="53"/>
+      <c r="G806" s="55"/>
+      <c r="H806" s="56"/>
+      <c r="K806" s="54"/>
     </row>
     <row r="807">
-      <c r="G807" s="54"/>
-      <c r="H807" s="55"/>
-      <c r="K807" s="53"/>
+      <c r="G807" s="55"/>
+      <c r="H807" s="56"/>
+      <c r="K807" s="54"/>
     </row>
     <row r="808">
-      <c r="G808" s="54"/>
-      <c r="H808" s="55"/>
-      <c r="K808" s="53"/>
+      <c r="G808" s="55"/>
+      <c r="H808" s="56"/>
+      <c r="K808" s="54"/>
     </row>
     <row r="809">
-      <c r="G809" s="54"/>
-      <c r="H809" s="55"/>
-      <c r="K809" s="53"/>
+      <c r="G809" s="55"/>
+      <c r="H809" s="56"/>
+      <c r="K809" s="54"/>
     </row>
     <row r="810">
-      <c r="G810" s="54"/>
-      <c r="H810" s="55"/>
-      <c r="K810" s="53"/>
+      <c r="G810" s="55"/>
+      <c r="H810" s="56"/>
+      <c r="K810" s="54"/>
     </row>
     <row r="811">
-      <c r="G811" s="54"/>
-      <c r="H811" s="55"/>
-      <c r="K811" s="53"/>
+      <c r="G811" s="55"/>
+      <c r="H811" s="56"/>
+      <c r="K811" s="54"/>
     </row>
     <row r="812">
-      <c r="G812" s="54"/>
-      <c r="H812" s="55"/>
-      <c r="K812" s="53"/>
+      <c r="G812" s="55"/>
+      <c r="H812" s="56"/>
+      <c r="K812" s="54"/>
     </row>
     <row r="813">
-      <c r="G813" s="54"/>
-      <c r="H813" s="55"/>
-      <c r="K813" s="53"/>
+      <c r="G813" s="55"/>
+      <c r="H813" s="56"/>
+      <c r="K813" s="54"/>
     </row>
     <row r="814">
-      <c r="G814" s="54"/>
-      <c r="H814" s="55"/>
-      <c r="K814" s="53"/>
+      <c r="G814" s="55"/>
+      <c r="H814" s="56"/>
+      <c r="K814" s="54"/>
     </row>
     <row r="815">
-      <c r="G815" s="54"/>
-      <c r="H815" s="55"/>
-      <c r="K815" s="53"/>
+      <c r="G815" s="55"/>
+      <c r="H815" s="56"/>
+      <c r="K815" s="54"/>
     </row>
     <row r="816">
-      <c r="G816" s="54"/>
-      <c r="H816" s="55"/>
-      <c r="K816" s="53"/>
+      <c r="G816" s="55"/>
+      <c r="H816" s="56"/>
+      <c r="K816" s="54"/>
     </row>
     <row r="817">
-      <c r="G817" s="54"/>
-      <c r="H817" s="55"/>
-      <c r="K817" s="53"/>
+      <c r="G817" s="55"/>
+      <c r="H817" s="56"/>
+      <c r="K817" s="54"/>
     </row>
     <row r="818">
-      <c r="G818" s="54"/>
-      <c r="H818" s="55"/>
-      <c r="K818" s="53"/>
+      <c r="G818" s="55"/>
+      <c r="H818" s="56"/>
+      <c r="K818" s="54"/>
     </row>
     <row r="819">
-      <c r="G819" s="54"/>
-      <c r="H819" s="55"/>
-      <c r="K819" s="53"/>
+      <c r="G819" s="55"/>
+      <c r="H819" s="56"/>
+      <c r="K819" s="54"/>
     </row>
     <row r="820">
-      <c r="G820" s="54"/>
-      <c r="H820" s="55"/>
-      <c r="K820" s="53"/>
+      <c r="G820" s="55"/>
+      <c r="H820" s="56"/>
+      <c r="K820" s="54"/>
     </row>
     <row r="821">
-      <c r="G821" s="54"/>
-      <c r="H821" s="55"/>
-      <c r="K821" s="53"/>
+      <c r="G821" s="55"/>
+      <c r="H821" s="56"/>
+      <c r="K821" s="54"/>
     </row>
     <row r="822">
-      <c r="G822" s="54"/>
-      <c r="H822" s="55"/>
-      <c r="K822" s="53"/>
+      <c r="G822" s="55"/>
+      <c r="H822" s="56"/>
+      <c r="K822" s="54"/>
     </row>
     <row r="823">
-      <c r="G823" s="54"/>
-      <c r="H823" s="55"/>
-      <c r="K823" s="53"/>
+      <c r="G823" s="55"/>
+      <c r="H823" s="56"/>
+      <c r="K823" s="54"/>
     </row>
     <row r="824">
-      <c r="G824" s="54"/>
-      <c r="H824" s="55"/>
-      <c r="K824" s="53"/>
+      <c r="G824" s="55"/>
+      <c r="H824" s="56"/>
+      <c r="K824" s="54"/>
     </row>
     <row r="825">
-      <c r="G825" s="54"/>
-      <c r="H825" s="55"/>
-      <c r="K825" s="53"/>
+      <c r="G825" s="55"/>
+      <c r="H825" s="56"/>
+      <c r="K825" s="54"/>
     </row>
     <row r="826">
-      <c r="G826" s="54"/>
-      <c r="H826" s="55"/>
-      <c r="K826" s="53"/>
+      <c r="G826" s="55"/>
+      <c r="H826" s="56"/>
+      <c r="K826" s="54"/>
     </row>
     <row r="827">
-      <c r="G827" s="54"/>
-      <c r="H827" s="55"/>
-      <c r="K827" s="53"/>
+      <c r="G827" s="55"/>
+      <c r="H827" s="56"/>
+      <c r="K827" s="54"/>
     </row>
     <row r="828">
-      <c r="G828" s="54"/>
-      <c r="H828" s="55"/>
-      <c r="K828" s="53"/>
+      <c r="G828" s="55"/>
+      <c r="H828" s="56"/>
+      <c r="K828" s="54"/>
     </row>
     <row r="829">
-      <c r="G829" s="54"/>
-      <c r="H829" s="55"/>
-      <c r="K829" s="53"/>
+      <c r="G829" s="55"/>
+      <c r="H829" s="56"/>
+      <c r="K829" s="54"/>
     </row>
     <row r="830">
-      <c r="G830" s="54"/>
-      <c r="H830" s="55"/>
-      <c r="K830" s="53"/>
+      <c r="G830" s="55"/>
+      <c r="H830" s="56"/>
+      <c r="K830" s="54"/>
     </row>
     <row r="831">
-      <c r="G831" s="54"/>
-      <c r="H831" s="55"/>
-      <c r="K831" s="53"/>
+      <c r="G831" s="55"/>
+      <c r="H831" s="56"/>
+      <c r="K831" s="54"/>
     </row>
     <row r="832">
-      <c r="G832" s="54"/>
-      <c r="H832" s="55"/>
-      <c r="K832" s="53"/>
+      <c r="G832" s="55"/>
+      <c r="H832" s="56"/>
+      <c r="K832" s="54"/>
     </row>
     <row r="833">
-      <c r="G833" s="54"/>
-      <c r="H833" s="55"/>
-      <c r="K833" s="53"/>
+      <c r="G833" s="55"/>
+      <c r="H833" s="56"/>
+      <c r="K833" s="54"/>
     </row>
     <row r="834">
-      <c r="G834" s="54"/>
-      <c r="H834" s="55"/>
-      <c r="K834" s="53"/>
+      <c r="G834" s="55"/>
+      <c r="H834" s="56"/>
+      <c r="K834" s="54"/>
     </row>
     <row r="835">
-      <c r="G835" s="54"/>
-      <c r="H835" s="55"/>
-      <c r="K835" s="53"/>
+      <c r="G835" s="55"/>
+      <c r="H835" s="56"/>
+      <c r="K835" s="54"/>
     </row>
     <row r="836">
-      <c r="G836" s="54"/>
-      <c r="H836" s="55"/>
-      <c r="K836" s="53"/>
+      <c r="G836" s="55"/>
+      <c r="H836" s="56"/>
+      <c r="K836" s="54"/>
     </row>
     <row r="837">
-      <c r="G837" s="54"/>
-      <c r="H837" s="55"/>
-      <c r="K837" s="53"/>
+      <c r="G837" s="55"/>
+      <c r="H837" s="56"/>
+      <c r="K837" s="54"/>
     </row>
     <row r="838">
-      <c r="G838" s="54"/>
-      <c r="H838" s="55"/>
-      <c r="K838" s="53"/>
+      <c r="G838" s="55"/>
+      <c r="H838" s="56"/>
+      <c r="K838" s="54"/>
     </row>
     <row r="839">
-      <c r="G839" s="54"/>
-      <c r="H839" s="55"/>
-      <c r="K839" s="53"/>
+      <c r="G839" s="55"/>
+      <c r="H839" s="56"/>
+      <c r="K839" s="54"/>
     </row>
     <row r="840">
-      <c r="G840" s="54"/>
-      <c r="H840" s="55"/>
-      <c r="K840" s="53"/>
+      <c r="G840" s="55"/>
+      <c r="H840" s="56"/>
+      <c r="K840" s="54"/>
     </row>
     <row r="841">
-      <c r="G841" s="54"/>
-      <c r="H841" s="55"/>
-      <c r="K841" s="53"/>
+      <c r="G841" s="55"/>
+      <c r="H841" s="56"/>
+      <c r="K841" s="54"/>
     </row>
     <row r="842">
-      <c r="G842" s="54"/>
-      <c r="H842" s="55"/>
-      <c r="K842" s="53"/>
+      <c r="G842" s="55"/>
+      <c r="H842" s="56"/>
+      <c r="K842" s="54"/>
     </row>
     <row r="843">
-      <c r="G843" s="54"/>
-      <c r="H843" s="55"/>
-      <c r="K843" s="53"/>
+      <c r="G843" s="55"/>
+      <c r="H843" s="56"/>
+      <c r="K843" s="54"/>
     </row>
     <row r="844">
-      <c r="G844" s="54"/>
-      <c r="H844" s="55"/>
-      <c r="K844" s="53"/>
+      <c r="G844" s="55"/>
+      <c r="H844" s="56"/>
+      <c r="K844" s="54"/>
     </row>
     <row r="845">
-      <c r="G845" s="54"/>
-      <c r="H845" s="55"/>
-      <c r="K845" s="53"/>
+      <c r="G845" s="55"/>
+      <c r="H845" s="56"/>
+      <c r="K845" s="54"/>
     </row>
     <row r="846">
-      <c r="G846" s="54"/>
-      <c r="H846" s="55"/>
-      <c r="K846" s="53"/>
+      <c r="G846" s="55"/>
+      <c r="H846" s="56"/>
+      <c r="K846" s="54"/>
     </row>
     <row r="847">
-      <c r="G847" s="54"/>
-      <c r="H847" s="55"/>
-      <c r="K847" s="53"/>
+      <c r="G847" s="55"/>
+      <c r="H847" s="56"/>
+      <c r="K847" s="54"/>
     </row>
     <row r="848">
-      <c r="G848" s="54"/>
-      <c r="H848" s="55"/>
-      <c r="K848" s="53"/>
+      <c r="G848" s="55"/>
+      <c r="H848" s="56"/>
+      <c r="K848" s="54"/>
     </row>
     <row r="849">
-      <c r="G849" s="54"/>
-      <c r="H849" s="55"/>
-      <c r="K849" s="53"/>
+      <c r="G849" s="55"/>
+      <c r="H849" s="56"/>
+      <c r="K849" s="54"/>
     </row>
     <row r="850">
-      <c r="G850" s="54"/>
-      <c r="H850" s="55"/>
-      <c r="K850" s="53"/>
+      <c r="G850" s="55"/>
+      <c r="H850" s="56"/>
+      <c r="K850" s="54"/>
     </row>
     <row r="851">
-      <c r="G851" s="54"/>
-      <c r="H851" s="55"/>
-      <c r="K851" s="53"/>
+      <c r="G851" s="55"/>
+      <c r="H851" s="56"/>
+      <c r="K851" s="54"/>
     </row>
     <row r="852">
-      <c r="G852" s="54"/>
-      <c r="H852" s="55"/>
-      <c r="K852" s="53"/>
+      <c r="G852" s="55"/>
+      <c r="H852" s="56"/>
+      <c r="K852" s="54"/>
     </row>
     <row r="853">
-      <c r="G853" s="54"/>
-      <c r="H853" s="55"/>
-      <c r="K853" s="53"/>
+      <c r="G853" s="55"/>
+      <c r="H853" s="56"/>
+      <c r="K853" s="54"/>
     </row>
     <row r="854">
-      <c r="G854" s="54"/>
-      <c r="H854" s="55"/>
-      <c r="K854" s="53"/>
+      <c r="G854" s="55"/>
+      <c r="H854" s="56"/>
+      <c r="K854" s="54"/>
     </row>
     <row r="855">
-      <c r="G855" s="54"/>
-      <c r="H855" s="55"/>
-      <c r="K855" s="53"/>
+      <c r="G855" s="55"/>
+      <c r="H855" s="56"/>
+      <c r="K855" s="54"/>
     </row>
     <row r="856">
-      <c r="G856" s="54"/>
-      <c r="H856" s="55"/>
-      <c r="K856" s="53"/>
+      <c r="G856" s="55"/>
+      <c r="H856" s="56"/>
+      <c r="K856" s="54"/>
     </row>
     <row r="857">
-      <c r="G857" s="54"/>
-      <c r="H857" s="55"/>
-      <c r="K857" s="53"/>
+      <c r="G857" s="55"/>
+      <c r="H857" s="56"/>
+      <c r="K857" s="54"/>
     </row>
     <row r="858">
-      <c r="G858" s="54"/>
-      <c r="H858" s="55"/>
-      <c r="K858" s="53"/>
+      <c r="G858" s="55"/>
+      <c r="H858" s="56"/>
+      <c r="K858" s="54"/>
     </row>
     <row r="859">
-      <c r="G859" s="54"/>
-      <c r="H859" s="55"/>
-      <c r="K859" s="53"/>
+      <c r="G859" s="55"/>
+      <c r="H859" s="56"/>
+      <c r="K859" s="54"/>
     </row>
     <row r="860">
-      <c r="G860" s="54"/>
-      <c r="H860" s="55"/>
-      <c r="K860" s="53"/>
+      <c r="G860" s="55"/>
+      <c r="H860" s="56"/>
+      <c r="K860" s="54"/>
     </row>
     <row r="861">
-      <c r="G861" s="54"/>
-      <c r="H861" s="55"/>
-      <c r="K861" s="53"/>
+      <c r="G861" s="55"/>
+      <c r="H861" s="56"/>
+      <c r="K861" s="54"/>
     </row>
     <row r="862">
-      <c r="G862" s="54"/>
-      <c r="H862" s="55"/>
-      <c r="K862" s="53"/>
+      <c r="G862" s="55"/>
+      <c r="H862" s="56"/>
+      <c r="K862" s="54"/>
     </row>
     <row r="863">
-      <c r="G863" s="54"/>
-      <c r="H863" s="55"/>
-      <c r="K863" s="53"/>
+      <c r="G863" s="55"/>
+      <c r="H863" s="56"/>
+      <c r="K863" s="54"/>
     </row>
     <row r="864">
-      <c r="G864" s="54"/>
-      <c r="H864" s="55"/>
-      <c r="K864" s="53"/>
+      <c r="G864" s="55"/>
+      <c r="H864" s="56"/>
+      <c r="K864" s="54"/>
     </row>
     <row r="865">
-      <c r="G865" s="54"/>
-      <c r="H865" s="55"/>
-      <c r="K865" s="53"/>
+      <c r="G865" s="55"/>
+      <c r="H865" s="56"/>
+      <c r="K865" s="54"/>
     </row>
     <row r="866">
-      <c r="G866" s="54"/>
-      <c r="H866" s="55"/>
-      <c r="K866" s="53"/>
+      <c r="G866" s="55"/>
+      <c r="H866" s="56"/>
+      <c r="K866" s="54"/>
     </row>
     <row r="867">
-      <c r="G867" s="54"/>
-      <c r="H867" s="55"/>
-      <c r="K867" s="53"/>
+      <c r="G867" s="55"/>
+      <c r="H867" s="56"/>
+      <c r="K867" s="54"/>
     </row>
     <row r="868">
-      <c r="G868" s="54"/>
-      <c r="H868" s="55"/>
-      <c r="K868" s="53"/>
+      <c r="G868" s="55"/>
+      <c r="H868" s="56"/>
+      <c r="K868" s="54"/>
     </row>
     <row r="869">
-      <c r="G869" s="54"/>
-      <c r="H869" s="55"/>
-      <c r="K869" s="53"/>
+      <c r="G869" s="55"/>
+      <c r="H869" s="56"/>
+      <c r="K869" s="54"/>
     </row>
     <row r="870">
-      <c r="G870" s="54"/>
-      <c r="H870" s="55"/>
-      <c r="K870" s="53"/>
+      <c r="G870" s="55"/>
+      <c r="H870" s="56"/>
+      <c r="K870" s="54"/>
     </row>
     <row r="871">
-      <c r="G871" s="54"/>
-      <c r="H871" s="55"/>
-      <c r="K871" s="53"/>
+      <c r="G871" s="55"/>
+      <c r="H871" s="56"/>
+      <c r="K871" s="54"/>
     </row>
     <row r="872">
-      <c r="G872" s="54"/>
-      <c r="H872" s="55"/>
-      <c r="K872" s="53"/>
+      <c r="G872" s="55"/>
+      <c r="H872" s="56"/>
+      <c r="K872" s="54"/>
     </row>
     <row r="873">
-      <c r="G873" s="54"/>
-      <c r="H873" s="55"/>
-      <c r="K873" s="53"/>
+      <c r="G873" s="55"/>
+      <c r="H873" s="56"/>
+      <c r="K873" s="54"/>
     </row>
     <row r="874">
-      <c r="G874" s="54"/>
-      <c r="H874" s="55"/>
-      <c r="K874" s="53"/>
+      <c r="G874" s="55"/>
+      <c r="H874" s="56"/>
+      <c r="K874" s="54"/>
     </row>
     <row r="875">
-      <c r="G875" s="54"/>
-      <c r="H875" s="55"/>
-      <c r="K875" s="53"/>
+      <c r="G875" s="55"/>
+      <c r="H875" s="56"/>
+      <c r="K875" s="54"/>
     </row>
     <row r="876">
-      <c r="G876" s="54"/>
-      <c r="H876" s="55"/>
-      <c r="K876" s="53"/>
+      <c r="G876" s="55"/>
+      <c r="H876" s="56"/>
+      <c r="K876" s="54"/>
     </row>
     <row r="877">
-      <c r="G877" s="54"/>
-      <c r="H877" s="55"/>
-      <c r="K877" s="53"/>
+      <c r="G877" s="55"/>
+      <c r="H877" s="56"/>
+      <c r="K877" s="54"/>
     </row>
     <row r="878">
-      <c r="G878" s="54"/>
-      <c r="H878" s="55"/>
-      <c r="K878" s="53"/>
+      <c r="G878" s="55"/>
+      <c r="H878" s="56"/>
+      <c r="K878" s="54"/>
     </row>
     <row r="879">
-      <c r="G879" s="54"/>
-      <c r="H879" s="55"/>
-      <c r="K879" s="53"/>
+      <c r="G879" s="55"/>
+      <c r="H879" s="56"/>
+      <c r="K879" s="54"/>
     </row>
     <row r="880">
-      <c r="G880" s="54"/>
-      <c r="H880" s="55"/>
-      <c r="K880" s="53"/>
+      <c r="G880" s="55"/>
+      <c r="H880" s="56"/>
+      <c r="K880" s="54"/>
     </row>
     <row r="881">
-      <c r="G881" s="54"/>
-      <c r="H881" s="55"/>
-      <c r="K881" s="53"/>
+      <c r="G881" s="55"/>
+      <c r="H881" s="56"/>
+      <c r="K881" s="54"/>
     </row>
     <row r="882">
-      <c r="G882" s="54"/>
-      <c r="H882" s="55"/>
-      <c r="K882" s="53"/>
+      <c r="G882" s="55"/>
+      <c r="H882" s="56"/>
+      <c r="K882" s="54"/>
     </row>
     <row r="883">
-      <c r="G883" s="54"/>
-      <c r="H883" s="55"/>
-      <c r="K883" s="53"/>
+      <c r="G883" s="55"/>
+      <c r="H883" s="56"/>
+      <c r="K883" s="54"/>
     </row>
     <row r="884">
-      <c r="G884" s="54"/>
-      <c r="H884" s="55"/>
-      <c r="K884" s="53"/>
+      <c r="G884" s="55"/>
+      <c r="H884" s="56"/>
+      <c r="K884" s="54"/>
     </row>
     <row r="885">
-      <c r="G885" s="54"/>
-      <c r="H885" s="55"/>
-      <c r="K885" s="53"/>
+      <c r="G885" s="55"/>
+      <c r="H885" s="56"/>
+      <c r="K885" s="54"/>
     </row>
     <row r="886">
-      <c r="G886" s="54"/>
-      <c r="H886" s="55"/>
-      <c r="K886" s="53"/>
+      <c r="G886" s="55"/>
+      <c r="H886" s="56"/>
+      <c r="K886" s="54"/>
     </row>
     <row r="887">
-      <c r="G887" s="54"/>
-      <c r="H887" s="55"/>
-      <c r="K887" s="53"/>
+      <c r="G887" s="55"/>
+      <c r="H887" s="56"/>
+      <c r="K887" s="54"/>
     </row>
     <row r="888">
-      <c r="G888" s="54"/>
-      <c r="H888" s="55"/>
-      <c r="K888" s="53"/>
+      <c r="G888" s="55"/>
+      <c r="H888" s="56"/>
+      <c r="K888" s="54"/>
     </row>
     <row r="889">
-      <c r="G889" s="54"/>
-      <c r="H889" s="55"/>
-      <c r="K889" s="53"/>
+      <c r="G889" s="55"/>
+      <c r="H889" s="56"/>
+      <c r="K889" s="54"/>
     </row>
     <row r="890">
-      <c r="G890" s="54"/>
-      <c r="H890" s="55"/>
-      <c r="K890" s="53"/>
+      <c r="G890" s="55"/>
+      <c r="H890" s="56"/>
+      <c r="K890" s="54"/>
     </row>
     <row r="891">
-      <c r="G891" s="54"/>
-      <c r="H891" s="55"/>
-      <c r="K891" s="53"/>
+      <c r="G891" s="55"/>
+      <c r="H891" s="56"/>
+      <c r="K891" s="54"/>
     </row>
     <row r="892">
-      <c r="G892" s="54"/>
-      <c r="H892" s="55"/>
-      <c r="K892" s="53"/>
+      <c r="G892" s="55"/>
+      <c r="H892" s="56"/>
+      <c r="K892" s="54"/>
     </row>
     <row r="893">
-      <c r="G893" s="54"/>
-      <c r="H893" s="55"/>
-      <c r="K893" s="53"/>
+      <c r="G893" s="55"/>
+      <c r="H893" s="56"/>
+      <c r="K893" s="54"/>
     </row>
     <row r="894">
-      <c r="G894" s="54"/>
-      <c r="H894" s="55"/>
-      <c r="K894" s="53"/>
+      <c r="G894" s="55"/>
+      <c r="H894" s="56"/>
+      <c r="K894" s="54"/>
     </row>
     <row r="895">
-      <c r="G895" s="54"/>
-      <c r="H895" s="55"/>
-      <c r="K895" s="53"/>
+      <c r="G895" s="55"/>
+      <c r="H895" s="56"/>
+      <c r="K895" s="54"/>
     </row>
     <row r="896">
-      <c r="G896" s="54"/>
-      <c r="H896" s="55"/>
-      <c r="K896" s="53"/>
+      <c r="G896" s="55"/>
+      <c r="H896" s="56"/>
+      <c r="K896" s="54"/>
     </row>
     <row r="897">
-      <c r="G897" s="54"/>
-      <c r="H897" s="55"/>
-      <c r="K897" s="53"/>
+      <c r="G897" s="55"/>
+      <c r="H897" s="56"/>
+      <c r="K897" s="54"/>
     </row>
     <row r="898">
-      <c r="G898" s="54"/>
-      <c r="H898" s="55"/>
-      <c r="K898" s="53"/>
+      <c r="G898" s="55"/>
+      <c r="H898" s="56"/>
+      <c r="K898" s="54"/>
     </row>
     <row r="899">
-      <c r="G899" s="54"/>
-      <c r="H899" s="55"/>
-      <c r="K899" s="53"/>
+      <c r="G899" s="55"/>
+      <c r="H899" s="56"/>
+      <c r="K899" s="54"/>
     </row>
     <row r="900">
-      <c r="G900" s="54"/>
-      <c r="H900" s="55"/>
-      <c r="K900" s="53"/>
+      <c r="G900" s="55"/>
+      <c r="H900" s="56"/>
+      <c r="K900" s="54"/>
     </row>
     <row r="901">
-      <c r="G901" s="54"/>
-      <c r="H901" s="55"/>
-      <c r="K901" s="53"/>
+      <c r="G901" s="55"/>
+      <c r="H901" s="56"/>
+      <c r="K901" s="54"/>
     </row>
     <row r="902">
-      <c r="G902" s="54"/>
-      <c r="H902" s="55"/>
-      <c r="K902" s="53"/>
+      <c r="G902" s="55"/>
+      <c r="H902" s="56"/>
+      <c r="K902" s="54"/>
     </row>
     <row r="903">
-      <c r="G903" s="54"/>
-      <c r="H903" s="55"/>
-      <c r="K903" s="53"/>
+      <c r="G903" s="55"/>
+      <c r="H903" s="56"/>
+      <c r="K903" s="54"/>
     </row>
     <row r="904">
-      <c r="G904" s="54"/>
-      <c r="H904" s="55"/>
-      <c r="K904" s="53"/>
+      <c r="G904" s="55"/>
+      <c r="H904" s="56"/>
+      <c r="K904" s="54"/>
     </row>
     <row r="905">
-      <c r="G905" s="54"/>
-      <c r="H905" s="55"/>
-      <c r="K905" s="53"/>
+      <c r="G905" s="55"/>
+      <c r="H905" s="56"/>
+      <c r="K905" s="54"/>
     </row>
     <row r="906">
-      <c r="G906" s="54"/>
-      <c r="H906" s="55"/>
-      <c r="K906" s="53"/>
+      <c r="G906" s="55"/>
+      <c r="H906" s="56"/>
+      <c r="K906" s="54"/>
     </row>
     <row r="907">
-      <c r="G907" s="54"/>
-      <c r="H907" s="55"/>
-      <c r="K907" s="53"/>
+      <c r="G907" s="55"/>
+      <c r="H907" s="56"/>
+      <c r="K907" s="54"/>
     </row>
     <row r="908">
-      <c r="G908" s="54"/>
-      <c r="H908" s="55"/>
-      <c r="K908" s="53"/>
+      <c r="G908" s="55"/>
+      <c r="H908" s="56"/>
+      <c r="K908" s="54"/>
     </row>
     <row r="909">
-      <c r="G909" s="54"/>
-      <c r="H909" s="55"/>
-      <c r="K909" s="53"/>
+      <c r="G909" s="55"/>
+      <c r="H909" s="56"/>
+      <c r="K909" s="54"/>
     </row>
     <row r="910">
-      <c r="G910" s="54"/>
-      <c r="H910" s="55"/>
-      <c r="K910" s="53"/>
+      <c r="G910" s="55"/>
+      <c r="H910" s="56"/>
+      <c r="K910" s="54"/>
     </row>
     <row r="911">
-      <c r="G911" s="54"/>
-      <c r="H911" s="55"/>
-      <c r="K911" s="53"/>
+      <c r="G911" s="55"/>
+      <c r="H911" s="56"/>
+      <c r="K911" s="54"/>
     </row>
     <row r="912">
-      <c r="G912" s="54"/>
-      <c r="H912" s="55"/>
-      <c r="K912" s="53"/>
+      <c r="G912" s="55"/>
+      <c r="H912" s="56"/>
+      <c r="K912" s="54"/>
     </row>
     <row r="913">
-      <c r="G913" s="54"/>
-      <c r="H913" s="55"/>
-      <c r="K913" s="53"/>
+      <c r="G913" s="55"/>
+      <c r="H913" s="56"/>
+      <c r="K913" s="54"/>
     </row>
     <row r="914">
-      <c r="G914" s="54"/>
-      <c r="H914" s="55"/>
-      <c r="K914" s="53"/>
+      <c r="G914" s="55"/>
+      <c r="H914" s="56"/>
+      <c r="K914" s="54"/>
     </row>
     <row r="915">
-      <c r="G915" s="54"/>
-      <c r="H915" s="55"/>
-      <c r="K915" s="53"/>
+      <c r="G915" s="55"/>
+      <c r="H915" s="56"/>
+      <c r="K915" s="54"/>
     </row>
     <row r="916">
-      <c r="G916" s="54"/>
-      <c r="H916" s="55"/>
-      <c r="K916" s="53"/>
+      <c r="G916" s="55"/>
+      <c r="H916" s="56"/>
+      <c r="K916" s="54"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$O$81">
@@ -9957,40 +9960,40 @@
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>321</v>
       </c>
       <c r="P2" s="7"/>
@@ -10035,7 +10038,7 @@
       <c r="M3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="P3" s="65" t="s">
         <v>330</v>
       </c>
     </row>
@@ -10076,7 +10079,7 @@
       <c r="M4" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="66" t="s">
         <v>343</v>
       </c>
     </row>
@@ -13087,28 +13090,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="69" t="s">
         <v>345</v>
       </c>
     </row>
@@ -13134,7 +13137,7 @@
       <c r="G2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="70" t="s">
         <v>346</v>
       </c>
     </row>
@@ -13160,7 +13163,7 @@
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="71" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13186,7 +13189,7 @@
       <c r="G4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="72" t="s">
         <v>347</v>
       </c>
     </row>
@@ -13298,16 +13301,16 @@
       <c r="A9" s="8">
         <v>57.0</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -13324,16 +13327,16 @@
       <c r="A10" s="37">
         <v>141.0</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="51" t="s">
         <v>219</v>
       </c>
       <c r="F10" s="19" t="s">
